--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -176,6 +176,9 @@
     <t>利润率</t>
   </si>
   <si>
+    <t>利润质量</t>
+  </si>
+  <si>
     <t>通道</t>
   </si>
   <si>
@@ -280,6 +283,12 @@
   </si>
   <si>
     <t>近第四个季度</t>
+  </si>
+  <si>
+    <t>利润来源</t>
+  </si>
+  <si>
+    <t>报告公布时刻，股价变化</t>
   </si>
   <si>
     <t>上通道</t>
@@ -1523,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1686,11 +1695,14 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2902,14 +2914,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CU551"/>
+  <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP3" sqref="AP3:AS3"/>
+      <selection pane="bottomRight" activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2929,17 +2941,18 @@
     <col min="35" max="38" width="11.5982142857143" customWidth="1"/>
     <col min="39" max="43" width="13.6964285714286" customWidth="1"/>
     <col min="44" max="45" width="16.8125" customWidth="1"/>
-    <col min="49" max="49" width="11.9017857142857" customWidth="1"/>
-    <col min="50" max="50" width="13.5357142857143" customWidth="1"/>
-    <col min="51" max="53" width="14.1339285714286" customWidth="1"/>
-    <col min="54" max="54" width="14"/>
-    <col min="55" max="55" width="11.3035714285714" customWidth="1"/>
-    <col min="56" max="56" width="11.1607142857143" customWidth="1"/>
-    <col min="57" max="57" width="10.2589285714286" customWidth="1"/>
-    <col min="58" max="58" width="13.8303571428571" customWidth="1"/>
+    <col min="47" max="47" width="13.9732142857143" customWidth="1"/>
+    <col min="53" max="53" width="11.9017857142857" customWidth="1"/>
+    <col min="54" max="54" width="13.5357142857143" customWidth="1"/>
+    <col min="55" max="57" width="14.1339285714286" customWidth="1"/>
+    <col min="58" max="58" width="14"/>
+    <col min="59" max="59" width="11.3035714285714" customWidth="1"/>
+    <col min="60" max="60" width="11.1607142857143" customWidth="1"/>
+    <col min="61" max="61" width="10.2589285714286" customWidth="1"/>
+    <col min="62" max="62" width="13.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:99">
+    <row r="1" ht="23.6" spans="1:103">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2999,58 +3012,62 @@
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
       <c r="AS1" s="10"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="60"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="65"/>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CG1" s="65"/>
-      <c r="CH1" s="65"/>
-      <c r="CI1" s="65"/>
-      <c r="CJ1" s="65"/>
-      <c r="CK1" s="65"/>
-      <c r="CL1" s="65"/>
-      <c r="CM1" s="65"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="65"/>
-      <c r="CQ1" s="65"/>
-      <c r="CR1" s="65"/>
-      <c r="CS1" s="65"/>
-      <c r="CT1" s="65"/>
-      <c r="CU1" s="65"/>
-    </row>
-    <row r="2" ht="23.6" spans="1:99">
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CS1" s="66"/>
+      <c r="CT1" s="66"/>
+      <c r="CU1" s="66"/>
+      <c r="CV1" s="66"/>
+      <c r="CW1" s="66"/>
+      <c r="CX1" s="66"/>
+      <c r="CY1" s="66"/>
+    </row>
+    <row r="2" ht="23.6" spans="1:103">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -3122,80 +3139,86 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="26"/>
       <c r="AS2" s="26"/>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="26" t="s">
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" s="26" t="s">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="26" t="s">
+      <c r="BB2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="26" t="s">
+      <c r="BC2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="26" t="s">
+      <c r="BD2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BE2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BF2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BG2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BH2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BF2" s="26" t="s">
+      <c r="BI2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="65"/>
-      <c r="BS2" s="65"/>
-      <c r="BT2" s="65"/>
-      <c r="BU2" s="65"/>
-      <c r="BV2" s="65"/>
-      <c r="BW2" s="65"/>
-      <c r="BY2" s="65"/>
-      <c r="BZ2" s="65"/>
-      <c r="CA2" s="65"/>
-      <c r="CB2" s="65"/>
-      <c r="CC2" s="65"/>
-      <c r="CD2" s="65"/>
-      <c r="CE2" s="65"/>
-      <c r="CG2" s="65"/>
-      <c r="CH2" s="65"/>
-      <c r="CI2" s="65"/>
-      <c r="CJ2" s="65"/>
-      <c r="CK2" s="65"/>
-      <c r="CL2" s="65"/>
-      <c r="CM2" s="65"/>
-      <c r="CO2" s="65"/>
-      <c r="CP2" s="65"/>
-      <c r="CQ2" s="65"/>
-      <c r="CR2" s="65"/>
-      <c r="CS2" s="65"/>
-      <c r="CT2" s="65"/>
-      <c r="CU2" s="65"/>
-    </row>
-    <row r="3" ht="48" spans="1:99">
+      <c r="BJ2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CC2" s="66"/>
+      <c r="CD2" s="66"/>
+      <c r="CE2" s="66"/>
+      <c r="CF2" s="66"/>
+      <c r="CG2" s="66"/>
+      <c r="CH2" s="66"/>
+      <c r="CI2" s="66"/>
+      <c r="CK2" s="66"/>
+      <c r="CL2" s="66"/>
+      <c r="CM2" s="66"/>
+      <c r="CN2" s="66"/>
+      <c r="CO2" s="66"/>
+      <c r="CP2" s="66"/>
+      <c r="CQ2" s="66"/>
+      <c r="CS2" s="66"/>
+      <c r="CT2" s="66"/>
+      <c r="CU2" s="66"/>
+      <c r="CV2" s="66"/>
+      <c r="CW2" s="66"/>
+      <c r="CX2" s="66"/>
+      <c r="CY2" s="66"/>
+    </row>
+    <row r="3" ht="48" spans="1:103">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -3209,168 +3232,176 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF3" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="53"/>
       <c r="AH3" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AM3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AN3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM3" s="26" t="s">
+      <c r="AO3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AQ3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="26" t="s">
+      <c r="AR3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR3" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="AS3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AU3" s="43" t="s">
+      <c r="AT3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="55" t="s">
+      <c r="AU3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ3" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA3" s="12"/>
       <c r="BB3" s="12"/>
       <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
       <c r="BF3" s="12"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="65"/>
-      <c r="CA3" s="65"/>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="65"/>
-      <c r="CD3" s="65"/>
-      <c r="CE3" s="65"/>
-      <c r="CG3" s="65"/>
-      <c r="CH3" s="65"/>
-      <c r="CI3" s="65"/>
-      <c r="CJ3" s="65"/>
-      <c r="CK3" s="65"/>
-      <c r="CL3" s="65"/>
-      <c r="CM3" s="65"/>
-      <c r="CO3" s="65"/>
-      <c r="CP3" s="65"/>
-      <c r="CQ3" s="65"/>
-      <c r="CR3" s="65"/>
-      <c r="CS3" s="65"/>
-      <c r="CT3" s="65"/>
-      <c r="CU3" s="65"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="38" spans="1:99">
-      <c r="A4" s="67" t="s">
-        <v>58</v>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="66"/>
+      <c r="CE3" s="66"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CK3" s="66"/>
+      <c r="CL3" s="66"/>
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
+      <c r="CS3" s="66"/>
+      <c r="CT3" s="66"/>
+      <c r="CU3" s="66"/>
+      <c r="CV3" s="66"/>
+      <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
+      <c r="CY3" s="66"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="38" spans="1:103">
+      <c r="A4" s="68" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="14">
         <v>44517</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" s="16">
         <v>22.15</v>
@@ -3382,7 +3413,7 @@
         <v>24.52</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H4" s="16">
         <v>25.7</v>
@@ -3429,13 +3460,13 @@
         <v>24.52</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X4" s="43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="35">
         <f>(J4-M4)/J4</f>
@@ -3462,10 +3493,10 @@
         <v>0.0823442136498517</v>
       </c>
       <c r="AE4" s="43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="47"/>
       <c r="AH4" s="47"/>
@@ -3480,98 +3511,102 @@
       <c r="AQ4" s="47"/>
       <c r="AR4" s="16"/>
       <c r="AS4" s="16"/>
-      <c r="AT4" s="16">
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16">
         <v>28.15</v>
       </c>
-      <c r="AU4" s="16">
+      <c r="AY4" s="16">
         <v>21.87</v>
       </c>
-      <c r="AV4" s="16">
-        <f>AT4-AU4</f>
+      <c r="AZ4" s="16">
+        <f>AX4-AY4</f>
         <v>6.28</v>
       </c>
-      <c r="AW4" s="16">
+      <c r="BA4" s="16">
         <v>26.2</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="BB4" s="16">
         <v>24.68</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="BC4" s="16">
         <v>32.49</v>
       </c>
-      <c r="AZ4" s="16">
-        <f>(AW4-AX4)*100</f>
+      <c r="BD4" s="16">
+        <f>(BA4-BB4)*100</f>
         <v>152</v>
       </c>
-      <c r="BA4" s="16">
-        <f>FLOOR(300/(AW4-AX4),100)</f>
+      <c r="BE4" s="16">
+        <f>FLOOR(300/(BA4-BB4),100)</f>
         <v>100</v>
       </c>
-      <c r="BB4" s="57">
-        <f>(AY4-AW4)/(AW4-AX4)</f>
+      <c r="BF4" s="58">
+        <f>(BC4-BA4)/(BA4-BB4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BC4" s="35">
-        <f>(AW4-AX4)/AW4</f>
+      <c r="BG4" s="35">
+        <f>(BA4-BB4)/BA4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BD4" s="35">
-        <f>(AY4-AW4)/AW4</f>
+      <c r="BH4" s="35">
+        <f>(BC4-BA4)/BA4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BE4" s="16">
+      <c r="BI4" s="16">
         <v>150.88</v>
       </c>
-      <c r="BF4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
+      <c r="BJ4" s="47" t="s">
+        <v>69</v>
+      </c>
       <c r="BK4" s="62"/>
-      <c r="BL4" s="62"/>
-      <c r="BM4" s="62"/>
-      <c r="BN4" s="62"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="66"/>
-      <c r="CC4" s="66"/>
-      <c r="CD4" s="66"/>
-      <c r="CE4" s="66"/>
-      <c r="CG4" s="66"/>
-      <c r="CH4" s="66"/>
-      <c r="CI4" s="66"/>
-      <c r="CJ4" s="66"/>
-      <c r="CK4" s="66"/>
-      <c r="CL4" s="66"/>
-      <c r="CM4" s="66"/>
-      <c r="CO4" s="66"/>
-      <c r="CP4" s="66"/>
-      <c r="CQ4" s="66"/>
-      <c r="CR4" s="66"/>
-      <c r="CS4" s="66"/>
-      <c r="CT4" s="66"/>
-      <c r="CU4" s="66"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="38" spans="1:59">
-      <c r="A5" s="68" t="s">
-        <v>67</v>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="63"/>
+      <c r="BT4" s="67"/>
+      <c r="BU4" s="67"/>
+      <c r="BV4" s="67"/>
+      <c r="BW4" s="67"/>
+      <c r="BX4" s="67"/>
+      <c r="BY4" s="67"/>
+      <c r="BZ4" s="67"/>
+      <c r="CA4" s="67"/>
+      <c r="CC4" s="67"/>
+      <c r="CD4" s="67"/>
+      <c r="CE4" s="67"/>
+      <c r="CF4" s="67"/>
+      <c r="CG4" s="67"/>
+      <c r="CH4" s="67"/>
+      <c r="CI4" s="67"/>
+      <c r="CK4" s="67"/>
+      <c r="CL4" s="67"/>
+      <c r="CM4" s="67"/>
+      <c r="CN4" s="67"/>
+      <c r="CO4" s="67"/>
+      <c r="CP4" s="67"/>
+      <c r="CQ4" s="67"/>
+      <c r="CS4" s="67"/>
+      <c r="CT4" s="67"/>
+      <c r="CU4" s="67"/>
+      <c r="CV4" s="67"/>
+      <c r="CW4" s="67"/>
+      <c r="CX4" s="67"/>
+      <c r="CY4" s="67"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="38" spans="1:63">
+      <c r="A5" s="69" t="s">
+        <v>70</v>
       </c>
       <c r="B5" s="14">
         <v>44517</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5" s="18">
         <v>31.92</v>
@@ -3583,7 +3618,7 @@
         <v>33.17</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H5" s="18">
         <v>33.73</v>
@@ -3628,7 +3663,7 @@
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" ref="Y5:Y11" si="2">(J5-M5)/J5</f>
@@ -3652,10 +3687,10 @@
       </c>
       <c r="AD5" s="17"/>
       <c r="AE5" s="44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG5" s="48"/>
       <c r="AH5" s="48"/>
@@ -3670,62 +3705,66 @@
       <c r="AQ5" s="48"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18"/>
-      <c r="AT5" s="18">
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18">
         <v>35.48</v>
       </c>
-      <c r="AU5" s="18">
+      <c r="AY5" s="18">
         <v>31.36</v>
       </c>
-      <c r="AV5" s="18">
-        <f t="shared" ref="AV5:AV11" si="6">AT5-AU5</f>
+      <c r="AZ5" s="18">
+        <f t="shared" ref="AZ5:AZ11" si="6">AX5-AY5</f>
         <v>4.12</v>
       </c>
-      <c r="AW5" s="18">
+      <c r="BA5" s="18">
         <v>34.12</v>
       </c>
-      <c r="AX5" s="18">
+      <c r="BB5" s="18">
         <v>32.53</v>
       </c>
-      <c r="AY5" s="18">
+      <c r="BC5" s="18">
         <v>39.33</v>
       </c>
-      <c r="AZ5" s="18">
-        <f t="shared" ref="AZ5:AZ11" si="7">(AW5-AX5)*100</f>
+      <c r="BD5" s="18">
+        <f t="shared" ref="BD5:BD11" si="7">(BA5-BB5)*100</f>
         <v>159</v>
       </c>
-      <c r="BA5" s="16">
-        <f t="shared" ref="BA5:BA11" si="8">FLOOR(300/(AW5-AX5),100)</f>
+      <c r="BE5" s="16">
+        <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
-      <c r="BB5" s="57">
-        <f t="shared" ref="BB5:BB11" si="9">(AY5-AW5)/(AW5-AX5)</f>
+      <c r="BF5" s="58">
+        <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BC5" s="35">
-        <f t="shared" ref="BC5:BC11" si="10">(AW5-AX5)/AW5</f>
+      <c r="BG5" s="35">
+        <f t="shared" ref="BG5:BG11" si="10">(BA5-BB5)/BA5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BD5" s="35">
-        <f t="shared" ref="BD5:BD11" si="11">(AY5-AW5)/AW5</f>
+      <c r="BH5" s="35">
+        <f t="shared" ref="BH5:BH11" si="11">(BC5-BA5)/BA5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BE5" s="18">
+      <c r="BI5" s="18">
         <v>37.41</v>
       </c>
-      <c r="BF5" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG5" s="63"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="38" spans="1:59">
-      <c r="A6" s="68" t="s">
-        <v>73</v>
+      <c r="BJ5" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK5" s="64"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="38" spans="1:63">
+      <c r="A6" s="69" t="s">
+        <v>76</v>
       </c>
       <c r="B6" s="14">
         <v>44519</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" s="18">
         <v>28.2</v>
@@ -3737,7 +3776,7 @@
         <v>31.53</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H6" s="29">
         <v>32.57</v>
@@ -3782,7 +3821,7 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="45">
         <f t="shared" si="2"/>
@@ -3806,10 +3845,10 @@
       </c>
       <c r="AD6" s="17"/>
       <c r="AE6" s="49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF6" s="48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG6" s="48"/>
       <c r="AH6" s="48"/>
@@ -3824,74 +3863,78 @@
       <c r="AQ6" s="48"/>
       <c r="AR6" s="18"/>
       <c r="AS6" s="18"/>
-      <c r="AT6" s="18">
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18">
         <v>36.21</v>
       </c>
-      <c r="AU6" s="18">
+      <c r="AY6" s="18">
         <v>27.35</v>
       </c>
-      <c r="AV6" s="18">
+      <c r="AZ6" s="18">
         <f t="shared" si="6"/>
         <v>8.86</v>
       </c>
-      <c r="AW6" s="18">
+      <c r="BA6" s="18">
         <v>32.65</v>
       </c>
-      <c r="AX6" s="18">
+      <c r="BB6" s="18">
         <v>30.89</v>
       </c>
-      <c r="AY6" s="18">
+      <c r="BC6" s="18">
         <v>36.22</v>
       </c>
-      <c r="AZ6" s="18">
+      <c r="BD6" s="18">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="BA6" s="16">
+      <c r="BE6" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BB6" s="57">
+      <c r="BF6" s="58">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BC6" s="35">
+      <c r="BG6" s="35">
         <f t="shared" si="10"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BD6" s="35">
+      <c r="BH6" s="35">
         <f t="shared" si="11"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BE6" s="18">
+      <c r="BI6" s="18">
         <v>28.82</v>
       </c>
-      <c r="BF6" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG6" s="63"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="38" spans="1:59">
-      <c r="A7" s="68" t="s">
-        <v>78</v>
+      <c r="BJ6" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK6" s="64"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="38" spans="1:63">
+      <c r="A7" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="19">
         <v>44525</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21">
         <v>64.32</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="21">
         <v>68.37</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7" s="21">
         <v>69.16</v>
@@ -3932,7 +3975,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y7" s="45">
         <f t="shared" si="2"/>
@@ -3953,10 +3996,10 @@
       <c r="AC7" s="38"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF7" s="50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AG7" s="50"/>
       <c r="AH7" s="50"/>
@@ -3971,62 +4014,66 @@
       <c r="AQ7" s="50"/>
       <c r="AR7" s="21"/>
       <c r="AS7" s="21"/>
-      <c r="AT7" s="21">
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21">
         <v>75.02</v>
       </c>
-      <c r="AU7" s="21">
+      <c r="AY7" s="21">
         <v>62.33</v>
       </c>
-      <c r="AV7" s="18">
+      <c r="AZ7" s="18">
         <f t="shared" si="6"/>
         <v>12.69</v>
       </c>
-      <c r="AW7" s="21">
+      <c r="BA7" s="21">
         <v>70.98</v>
       </c>
-      <c r="AX7" s="21">
+      <c r="BB7" s="21">
         <v>66.88</v>
       </c>
-      <c r="AY7" s="21">
+      <c r="BC7" s="21">
         <v>84.94</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="BD7" s="18">
         <f t="shared" si="7"/>
         <v>410.000000000001</v>
       </c>
-      <c r="BA7" s="16">
+      <c r="BE7" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BB7" s="57">
+      <c r="BF7" s="58">
         <f t="shared" si="9"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BC7" s="35">
+      <c r="BG7" s="35">
         <f t="shared" si="10"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BD7" s="35">
+      <c r="BH7" s="35">
         <f t="shared" si="11"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BE7" s="21">
+      <c r="BI7" s="21">
         <v>6.49</v>
       </c>
-      <c r="BF7" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG7" s="64"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="24" spans="1:59">
-      <c r="A8" s="69" t="s">
-        <v>84</v>
+      <c r="BJ7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK7" s="65"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
+      <c r="A8" s="70" t="s">
+        <v>87</v>
       </c>
       <c r="B8" s="19">
         <v>44522</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" s="21">
         <v>28.37</v>
@@ -4077,7 +4124,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" si="2"/>
@@ -4101,10 +4148,10 @@
       </c>
       <c r="AD8" s="21"/>
       <c r="AE8" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG8" s="50"/>
       <c r="AH8" s="50"/>
@@ -4119,62 +4166,66 @@
       <c r="AQ8" s="50"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
-      <c r="AT8" s="21">
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21">
         <v>32.43</v>
       </c>
-      <c r="AU8" s="21">
+      <c r="AY8" s="21">
         <v>26.16</v>
       </c>
-      <c r="AV8" s="56">
+      <c r="AZ8" s="57">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
-      <c r="AW8" s="21">
+      <c r="BA8" s="21">
         <v>30.66</v>
       </c>
-      <c r="AX8" s="21">
+      <c r="BB8" s="21">
         <v>29.35</v>
       </c>
-      <c r="AY8" s="21">
+      <c r="BC8" s="21">
         <v>38.71</v>
       </c>
-      <c r="AZ8" s="56">
+      <c r="BD8" s="57">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="BA8" s="21">
+      <c r="BE8" s="21">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BB8" s="58">
+      <c r="BF8" s="59">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BC8" s="38">
+      <c r="BG8" s="38">
         <f t="shared" si="10"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BD8" s="38">
+      <c r="BH8" s="38">
         <f t="shared" si="11"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BE8" s="21">
+      <c r="BI8" s="21">
         <v>38.46</v>
       </c>
-      <c r="BF8" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG8" s="64"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="13" spans="1:59">
-      <c r="A9" s="69" t="s">
-        <v>87</v>
+      <c r="BJ8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK8" s="65"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="13" spans="1:63">
+      <c r="A9" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="22">
         <v>44529</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="17">
         <v>22.26</v>
@@ -4229,7 +4280,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y9" s="45">
         <f t="shared" si="2"/>
@@ -4250,10 +4301,10 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF9" s="51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
@@ -4268,62 +4319,66 @@
       <c r="AQ9" s="51"/>
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
-      <c r="AT9" s="17">
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17">
         <v>31.18</v>
       </c>
-      <c r="AU9" s="17">
+      <c r="AY9" s="17">
         <v>21.1</v>
       </c>
-      <c r="AV9" s="18">
+      <c r="AZ9" s="18">
         <f t="shared" si="6"/>
         <v>10.08</v>
       </c>
-      <c r="AW9" s="17">
+      <c r="BA9" s="17">
         <v>29.77</v>
       </c>
-      <c r="AX9" s="17">
+      <c r="BB9" s="17">
         <v>27.72</v>
       </c>
-      <c r="AY9" s="17">
+      <c r="BC9" s="17">
         <v>34.93</v>
       </c>
-      <c r="AZ9" s="18">
+      <c r="BD9" s="18">
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
-      <c r="BA9" s="17">
+      <c r="BE9" s="17">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BB9" s="59">
+      <c r="BF9" s="60">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BC9" s="37">
+      <c r="BG9" s="37">
         <f t="shared" si="10"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BD9" s="37">
+      <c r="BH9" s="37">
         <f t="shared" si="11"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BE9" s="17">
+      <c r="BI9" s="17">
         <v>17.95</v>
       </c>
-      <c r="BF9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG9" s="63"/>
-    </row>
-    <row r="10" ht="13" spans="1:58">
-      <c r="A10" s="68" t="s">
-        <v>90</v>
+      <c r="BJ9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK9" s="64"/>
+    </row>
+    <row r="10" ht="13" spans="1:62">
+      <c r="A10" s="69" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="24">
         <v>44531</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10" s="17">
         <v>18.62</v>
@@ -4378,7 +4433,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y10" s="45">
         <f t="shared" si="2"/>
@@ -4399,10 +4454,10 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF10" s="51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AG10" s="51"/>
       <c r="AH10" s="51"/>
@@ -4417,61 +4472,65 @@
       <c r="AQ10" s="51"/>
       <c r="AR10" s="17"/>
       <c r="AS10" s="17"/>
-      <c r="AT10" s="17">
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17">
         <v>25.59</v>
       </c>
-      <c r="AU10" s="17">
+      <c r="AY10" s="17">
         <v>18.59</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AZ10" s="18">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="AW10" s="17">
+      <c r="BA10" s="17">
         <v>24.28</v>
       </c>
-      <c r="AX10" s="17">
+      <c r="BB10" s="17">
         <v>23.09</v>
       </c>
-      <c r="AY10" s="17">
+      <c r="BC10" s="17">
         <v>26.77</v>
       </c>
-      <c r="AZ10" s="18">
+      <c r="BD10" s="18">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="BA10" s="17">
+      <c r="BE10" s="17">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BB10" s="59">
+      <c r="BF10" s="60">
         <f t="shared" si="9"/>
         <v>2.09243697478991</v>
       </c>
-      <c r="BC10" s="37">
+      <c r="BG10" s="37">
         <f t="shared" si="10"/>
         <v>0.049011532125206</v>
       </c>
-      <c r="BD10" s="37">
+      <c r="BH10" s="37">
         <f t="shared" si="11"/>
         <v>0.102553542009885</v>
       </c>
-      <c r="BE10" s="17">
+      <c r="BI10" s="17">
         <v>56.67</v>
       </c>
-      <c r="BF10" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" ht="13" spans="1:58">
-      <c r="A11" s="68" t="s">
-        <v>92</v>
+      <c r="BJ10" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="13" spans="1:62">
+      <c r="A11" s="69" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="24">
         <v>44531</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" s="17">
         <v>22.96</v>
@@ -4534,7 +4593,7 @@
         <v>25.01</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="45">
         <f t="shared" si="2"/>
@@ -4561,10 +4620,10 @@
         <v>0.0931834662799129</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AF11" s="51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AG11" s="51"/>
       <c r="AH11" s="51"/>
@@ -4579,55 +4638,59 @@
       <c r="AQ11" s="51"/>
       <c r="AR11" s="17"/>
       <c r="AS11" s="17"/>
-      <c r="AT11" s="17">
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17">
         <v>29.7</v>
       </c>
-      <c r="AU11" s="17">
+      <c r="AY11" s="17">
         <v>21.86</v>
       </c>
-      <c r="AV11" s="18">
+      <c r="AZ11" s="18">
         <f t="shared" si="6"/>
         <v>7.84</v>
       </c>
-      <c r="AW11" s="17">
+      <c r="BA11" s="17">
         <v>27.58</v>
       </c>
-      <c r="AX11" s="17">
+      <c r="BB11" s="17">
         <v>25.01</v>
       </c>
-      <c r="AY11" s="17">
+      <c r="BC11" s="17">
         <v>35.47</v>
       </c>
-      <c r="AZ11" s="18">
+      <c r="BD11" s="18">
         <f t="shared" si="7"/>
         <v>257</v>
       </c>
-      <c r="BA11" s="17">
+      <c r="BE11" s="17">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BB11" s="59">
+      <c r="BF11" s="60">
         <f t="shared" si="9"/>
         <v>3.07003891050584</v>
       </c>
-      <c r="BC11" s="37">
+      <c r="BG11" s="37">
         <f t="shared" si="10"/>
         <v>0.0931834662799129</v>
       </c>
-      <c r="BD11" s="37">
+      <c r="BH11" s="37">
         <f t="shared" si="11"/>
         <v>0.286076867295141</v>
       </c>
-      <c r="BE11" s="17">
+      <c r="BI11" s="17">
         <v>22.12</v>
       </c>
-      <c r="BF11" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" ht="13" spans="1:58">
-      <c r="A12" s="68" t="s">
-        <v>97</v>
+      <c r="BJ11" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" ht="13" spans="1:62">
+      <c r="A12" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4684,12 +4747,16 @@
       <c r="BB12" s="17"/>
       <c r="BC12" s="17"/>
       <c r="BD12" s="17"/>
-      <c r="BE12" s="5"/>
+      <c r="BE12" s="17"/>
       <c r="BF12" s="17"/>
-    </row>
-    <row r="13" ht="13" spans="1:58">
-      <c r="A13" s="68" t="s">
-        <v>98</v>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="17"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="17"/>
+    </row>
+    <row r="13" ht="13" spans="1:62">
+      <c r="A13" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4746,12 +4813,16 @@
       <c r="BB13" s="17"/>
       <c r="BC13" s="17"/>
       <c r="BD13" s="17"/>
-      <c r="BE13" s="5"/>
+      <c r="BE13" s="17"/>
       <c r="BF13" s="17"/>
-    </row>
-    <row r="14" ht="13" spans="1:58">
-      <c r="A14" s="68" t="s">
-        <v>99</v>
+      <c r="BG13" s="17"/>
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="17"/>
+    </row>
+    <row r="14" ht="13" spans="1:62">
+      <c r="A14" s="69" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4808,12 +4879,16 @@
       <c r="BB14" s="17"/>
       <c r="BC14" s="17"/>
       <c r="BD14" s="17"/>
-      <c r="BE14" s="5"/>
+      <c r="BE14" s="17"/>
       <c r="BF14" s="17"/>
-    </row>
-    <row r="15" ht="13" spans="1:58">
-      <c r="A15" s="68" t="s">
-        <v>100</v>
+      <c r="BG14" s="17"/>
+      <c r="BH14" s="17"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="17"/>
+    </row>
+    <row r="15" ht="13" spans="1:62">
+      <c r="A15" s="69" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4870,12 +4945,16 @@
       <c r="BB15" s="17"/>
       <c r="BC15" s="17"/>
       <c r="BD15" s="17"/>
-      <c r="BE15" s="5"/>
+      <c r="BE15" s="17"/>
       <c r="BF15" s="17"/>
-    </row>
-    <row r="16" ht="13" spans="1:58">
-      <c r="A16" s="68" t="s">
-        <v>101</v>
+      <c r="BG15" s="17"/>
+      <c r="BH15" s="17"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="17"/>
+    </row>
+    <row r="16" ht="13" spans="1:62">
+      <c r="A16" s="69" t="s">
+        <v>104</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4932,12 +5011,16 @@
       <c r="BB16" s="17"/>
       <c r="BC16" s="17"/>
       <c r="BD16" s="17"/>
-      <c r="BE16" s="5"/>
+      <c r="BE16" s="17"/>
       <c r="BF16" s="17"/>
-    </row>
-    <row r="17" ht="13" spans="1:58">
-      <c r="A17" s="68" t="s">
-        <v>102</v>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="17"/>
+    </row>
+    <row r="17" ht="13" spans="1:62">
+      <c r="A17" s="69" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -4994,12 +5077,16 @@
       <c r="BB17" s="17"/>
       <c r="BC17" s="17"/>
       <c r="BD17" s="17"/>
-      <c r="BE17" s="5"/>
+      <c r="BE17" s="17"/>
       <c r="BF17" s="17"/>
-    </row>
-    <row r="18" ht="13" spans="1:58">
-      <c r="A18" s="68" t="s">
-        <v>103</v>
+      <c r="BG17" s="17"/>
+      <c r="BH17" s="17"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="17"/>
+    </row>
+    <row r="18" ht="13" spans="1:62">
+      <c r="A18" s="69" t="s">
+        <v>106</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5056,12 +5143,16 @@
       <c r="BB18" s="17"/>
       <c r="BC18" s="17"/>
       <c r="BD18" s="17"/>
-      <c r="BE18" s="5"/>
+      <c r="BE18" s="17"/>
       <c r="BF18" s="17"/>
-    </row>
-    <row r="19" ht="13" spans="1:58">
-      <c r="A19" s="68" t="s">
-        <v>104</v>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="17"/>
+    </row>
+    <row r="19" ht="13" spans="1:62">
+      <c r="A19" s="69" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5118,12 +5209,16 @@
       <c r="BB19" s="17"/>
       <c r="BC19" s="17"/>
       <c r="BD19" s="17"/>
-      <c r="BE19" s="5"/>
+      <c r="BE19" s="17"/>
       <c r="BF19" s="17"/>
-    </row>
-    <row r="20" ht="13" spans="1:58">
-      <c r="A20" s="70" t="s">
-        <v>105</v>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="17"/>
+    </row>
+    <row r="20" ht="13" spans="1:62">
+      <c r="A20" s="71" t="s">
+        <v>108</v>
       </c>
       <c r="B20" s="6"/>
       <c r="D20" s="6"/>
@@ -5179,11 +5274,15 @@
       <c r="BB20" s="6"/>
       <c r="BC20" s="6"/>
       <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-    </row>
-    <row r="21" ht="13" spans="1:58">
-      <c r="A21" s="70" t="s">
-        <v>106</v>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BJ20" s="6"/>
+    </row>
+    <row r="21" ht="13" spans="1:62">
+      <c r="A21" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="B21" s="6"/>
       <c r="D21" s="6"/>
@@ -5239,11 +5338,15 @@
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
       <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
-    </row>
-    <row r="22" ht="13" spans="1:58">
-      <c r="A22" s="70" t="s">
-        <v>107</v>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BJ21" s="6"/>
+    </row>
+    <row r="22" ht="13" spans="1:62">
+      <c r="A22" s="71" t="s">
+        <v>110</v>
       </c>
       <c r="B22" s="6"/>
       <c r="D22" s="6"/>
@@ -5299,11 +5402,15 @@
       <c r="BB22" s="6"/>
       <c r="BC22" s="6"/>
       <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
       <c r="BF22" s="6"/>
-    </row>
-    <row r="23" ht="13" spans="1:58">
-      <c r="A23" s="70" t="s">
-        <v>108</v>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BJ22" s="6"/>
+    </row>
+    <row r="23" ht="13" spans="1:62">
+      <c r="A23" s="71" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="6"/>
       <c r="D23" s="6"/>
@@ -5359,11 +5466,15 @@
       <c r="BB23" s="6"/>
       <c r="BC23" s="6"/>
       <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
       <c r="BF23" s="6"/>
-    </row>
-    <row r="24" ht="13" spans="1:58">
-      <c r="A24" s="70" t="s">
-        <v>109</v>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BJ23" s="6"/>
+    </row>
+    <row r="24" ht="13" spans="1:62">
+      <c r="A24" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
@@ -5419,11 +5530,15 @@
       <c r="BB24" s="6"/>
       <c r="BC24" s="6"/>
       <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
       <c r="BF24" s="6"/>
-    </row>
-    <row r="25" ht="13" spans="1:58">
-      <c r="A25" s="70" t="s">
-        <v>110</v>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BJ24" s="6"/>
+    </row>
+    <row r="25" ht="13" spans="1:62">
+      <c r="A25" s="71" t="s">
+        <v>113</v>
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="6"/>
@@ -5479,11 +5594,15 @@
       <c r="BB25" s="6"/>
       <c r="BC25" s="6"/>
       <c r="BD25" s="6"/>
+      <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
-    </row>
-    <row r="26" ht="13" spans="1:58">
-      <c r="A26" s="70" t="s">
-        <v>111</v>
+      <c r="BG25" s="6"/>
+      <c r="BH25" s="6"/>
+      <c r="BJ25" s="6"/>
+    </row>
+    <row r="26" ht="13" spans="1:62">
+      <c r="A26" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="6"/>
@@ -5539,11 +5658,15 @@
       <c r="BB26" s="6"/>
       <c r="BC26" s="6"/>
       <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
-    </row>
-    <row r="27" ht="13" spans="1:58">
-      <c r="A27" s="70" t="s">
-        <v>112</v>
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BJ26" s="6"/>
+    </row>
+    <row r="27" ht="13" spans="1:62">
+      <c r="A27" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="6"/>
@@ -5599,11 +5722,15 @@
       <c r="BB27" s="6"/>
       <c r="BC27" s="6"/>
       <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
       <c r="BF27" s="6"/>
-    </row>
-    <row r="28" ht="13" spans="1:58">
-      <c r="A28" s="70" t="s">
-        <v>113</v>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BJ27" s="6"/>
+    </row>
+    <row r="28" ht="13" spans="1:62">
+      <c r="A28" s="71" t="s">
+        <v>116</v>
       </c>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
@@ -5659,11 +5786,15 @@
       <c r="BB28" s="6"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
-    </row>
-    <row r="29" ht="13" spans="1:58">
-      <c r="A29" s="70" t="s">
-        <v>114</v>
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+      <c r="BJ28" s="6"/>
+    </row>
+    <row r="29" ht="13" spans="1:62">
+      <c r="A29" s="71" t="s">
+        <v>117</v>
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
@@ -5719,11 +5850,15 @@
       <c r="BB29" s="6"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
       <c r="BF29" s="6"/>
-    </row>
-    <row r="30" ht="13" spans="1:58">
-      <c r="A30" s="70" t="s">
-        <v>115</v>
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+      <c r="BJ29" s="6"/>
+    </row>
+    <row r="30" ht="13" spans="1:62">
+      <c r="A30" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="6"/>
@@ -5779,11 +5914,15 @@
       <c r="BB30" s="6"/>
       <c r="BC30" s="6"/>
       <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
       <c r="BF30" s="6"/>
-    </row>
-    <row r="31" ht="13" spans="1:58">
-      <c r="A31" s="70" t="s">
-        <v>116</v>
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+      <c r="BJ30" s="6"/>
+    </row>
+    <row r="31" ht="13" spans="1:62">
+      <c r="A31" s="71" t="s">
+        <v>119</v>
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
@@ -5839,11 +5978,15 @@
       <c r="BB31" s="6"/>
       <c r="BC31" s="6"/>
       <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
       <c r="BF31" s="6"/>
-    </row>
-    <row r="32" ht="13" spans="1:58">
-      <c r="A32" s="70" t="s">
-        <v>117</v>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BJ31" s="6"/>
+    </row>
+    <row r="32" ht="13" spans="1:62">
+      <c r="A32" s="71" t="s">
+        <v>120</v>
       </c>
       <c r="B32" s="6"/>
       <c r="D32" s="6"/>
@@ -5899,11 +6042,15 @@
       <c r="BB32" s="6"/>
       <c r="BC32" s="6"/>
       <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
       <c r="BF32" s="6"/>
-    </row>
-    <row r="33" ht="13" spans="1:58">
-      <c r="A33" s="70" t="s">
-        <v>118</v>
+      <c r="BG32" s="6"/>
+      <c r="BH32" s="6"/>
+      <c r="BJ32" s="6"/>
+    </row>
+    <row r="33" ht="13" spans="1:62">
+      <c r="A33" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6"/>
@@ -5959,11 +6106,15 @@
       <c r="BB33" s="6"/>
       <c r="BC33" s="6"/>
       <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
       <c r="BF33" s="6"/>
-    </row>
-    <row r="34" ht="13" spans="1:58">
-      <c r="A34" s="70" t="s">
-        <v>119</v>
+      <c r="BG33" s="6"/>
+      <c r="BH33" s="6"/>
+      <c r="BJ33" s="6"/>
+    </row>
+    <row r="34" ht="13" spans="1:62">
+      <c r="A34" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
@@ -6019,11 +6170,15 @@
       <c r="BB34" s="6"/>
       <c r="BC34" s="6"/>
       <c r="BD34" s="6"/>
+      <c r="BE34" s="6"/>
       <c r="BF34" s="6"/>
-    </row>
-    <row r="35" ht="13" spans="1:58">
-      <c r="A35" s="70" t="s">
-        <v>120</v>
+      <c r="BG34" s="6"/>
+      <c r="BH34" s="6"/>
+      <c r="BJ34" s="6"/>
+    </row>
+    <row r="35" ht="13" spans="1:62">
+      <c r="A35" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="6"/>
@@ -6079,11 +6234,15 @@
       <c r="BB35" s="6"/>
       <c r="BC35" s="6"/>
       <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
       <c r="BF35" s="6"/>
-    </row>
-    <row r="36" ht="13" spans="1:58">
-      <c r="A36" s="70" t="s">
-        <v>121</v>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BJ35" s="6"/>
+    </row>
+    <row r="36" ht="13" spans="1:62">
+      <c r="A36" s="71" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="6"/>
       <c r="D36" s="6"/>
@@ -6139,11 +6298,15 @@
       <c r="BB36" s="6"/>
       <c r="BC36" s="6"/>
       <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
       <c r="BF36" s="6"/>
-    </row>
-    <row r="37" ht="13" spans="1:58">
-      <c r="A37" s="70" t="s">
-        <v>122</v>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BJ36" s="6"/>
+    </row>
+    <row r="37" ht="13" spans="1:62">
+      <c r="A37" s="71" t="s">
+        <v>125</v>
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="6"/>
@@ -6199,11 +6362,15 @@
       <c r="BB37" s="6"/>
       <c r="BC37" s="6"/>
       <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
       <c r="BF37" s="6"/>
-    </row>
-    <row r="38" ht="13" spans="1:58">
-      <c r="A38" s="70" t="s">
-        <v>123</v>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6"/>
+      <c r="BJ37" s="6"/>
+    </row>
+    <row r="38" ht="13" spans="1:62">
+      <c r="A38" s="71" t="s">
+        <v>126</v>
       </c>
       <c r="B38" s="6"/>
       <c r="D38" s="6"/>
@@ -6259,11 +6426,15 @@
       <c r="BB38" s="6"/>
       <c r="BC38" s="6"/>
       <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
       <c r="BF38" s="6"/>
-    </row>
-    <row r="39" ht="13" spans="1:58">
-      <c r="A39" s="70" t="s">
-        <v>124</v>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BJ38" s="6"/>
+    </row>
+    <row r="39" ht="13" spans="1:62">
+      <c r="A39" s="71" t="s">
+        <v>127</v>
       </c>
       <c r="B39" s="6"/>
       <c r="D39" s="6"/>
@@ -6319,11 +6490,15 @@
       <c r="BB39" s="6"/>
       <c r="BC39" s="6"/>
       <c r="BD39" s="6"/>
+      <c r="BE39" s="6"/>
       <c r="BF39" s="6"/>
-    </row>
-    <row r="40" ht="13" spans="1:58">
-      <c r="A40" s="70" t="s">
-        <v>125</v>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="6"/>
+      <c r="BJ39" s="6"/>
+    </row>
+    <row r="40" ht="13" spans="1:62">
+      <c r="A40" s="71" t="s">
+        <v>128</v>
       </c>
       <c r="B40" s="6"/>
       <c r="D40" s="6"/>
@@ -6379,11 +6554,15 @@
       <c r="BB40" s="6"/>
       <c r="BC40" s="6"/>
       <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
       <c r="BF40" s="6"/>
-    </row>
-    <row r="41" ht="13" spans="1:58">
-      <c r="A41" s="70" t="s">
-        <v>126</v>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
+      <c r="BJ40" s="6"/>
+    </row>
+    <row r="41" ht="13" spans="1:62">
+      <c r="A41" s="71" t="s">
+        <v>129</v>
       </c>
       <c r="B41" s="6"/>
       <c r="D41" s="6"/>
@@ -6439,11 +6618,15 @@
       <c r="BB41" s="6"/>
       <c r="BC41" s="6"/>
       <c r="BD41" s="6"/>
+      <c r="BE41" s="6"/>
       <c r="BF41" s="6"/>
-    </row>
-    <row r="42" ht="13" spans="1:58">
-      <c r="A42" s="70" t="s">
-        <v>127</v>
+      <c r="BG41" s="6"/>
+      <c r="BH41" s="6"/>
+      <c r="BJ41" s="6"/>
+    </row>
+    <row r="42" ht="13" spans="1:62">
+      <c r="A42" s="71" t="s">
+        <v>130</v>
       </c>
       <c r="B42" s="6"/>
       <c r="D42" s="6"/>
@@ -6499,11 +6682,15 @@
       <c r="BB42" s="6"/>
       <c r="BC42" s="6"/>
       <c r="BD42" s="6"/>
+      <c r="BE42" s="6"/>
       <c r="BF42" s="6"/>
-    </row>
-    <row r="43" ht="13" spans="1:58">
-      <c r="A43" s="70" t="s">
-        <v>128</v>
+      <c r="BG42" s="6"/>
+      <c r="BH42" s="6"/>
+      <c r="BJ42" s="6"/>
+    </row>
+    <row r="43" ht="13" spans="1:62">
+      <c r="A43" s="71" t="s">
+        <v>131</v>
       </c>
       <c r="B43" s="6"/>
       <c r="D43" s="6"/>
@@ -6559,11 +6746,15 @@
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
       <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
       <c r="BF43" s="6"/>
-    </row>
-    <row r="44" ht="13" spans="1:58">
-      <c r="A44" s="70" t="s">
-        <v>129</v>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="6"/>
+      <c r="BJ43" s="6"/>
+    </row>
+    <row r="44" ht="13" spans="1:62">
+      <c r="A44" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="B44" s="6"/>
       <c r="D44" s="6"/>
@@ -6619,11 +6810,15 @@
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
       <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
       <c r="BF44" s="6"/>
-    </row>
-    <row r="45" ht="13" spans="1:58">
-      <c r="A45" s="70" t="s">
-        <v>130</v>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BJ44" s="6"/>
+    </row>
+    <row r="45" ht="13" spans="1:62">
+      <c r="A45" s="71" t="s">
+        <v>133</v>
       </c>
       <c r="B45" s="6"/>
       <c r="D45" s="6"/>
@@ -6679,11 +6874,15 @@
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
       <c r="BF45" s="6"/>
-    </row>
-    <row r="46" ht="13" spans="1:58">
-      <c r="A46" s="70" t="s">
-        <v>131</v>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6"/>
+      <c r="BJ45" s="6"/>
+    </row>
+    <row r="46" ht="13" spans="1:62">
+      <c r="A46" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
@@ -6739,11 +6938,15 @@
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
       <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
       <c r="BF46" s="6"/>
-    </row>
-    <row r="47" ht="13" spans="1:58">
-      <c r="A47" s="70" t="s">
-        <v>132</v>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BJ46" s="6"/>
+    </row>
+    <row r="47" ht="13" spans="1:62">
+      <c r="A47" s="71" t="s">
+        <v>135</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
@@ -6799,11 +7002,15 @@
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
       <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
       <c r="BF47" s="6"/>
-    </row>
-    <row r="48" ht="13" spans="1:58">
-      <c r="A48" s="70" t="s">
-        <v>133</v>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BJ47" s="6"/>
+    </row>
+    <row r="48" ht="13" spans="1:62">
+      <c r="A48" s="71" t="s">
+        <v>136</v>
       </c>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
@@ -6859,11 +7066,15 @@
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
       <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
       <c r="BF48" s="6"/>
-    </row>
-    <row r="49" ht="13" spans="1:58">
-      <c r="A49" s="70" t="s">
-        <v>134</v>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="6"/>
+      <c r="BJ48" s="6"/>
+    </row>
+    <row r="49" ht="13" spans="1:62">
+      <c r="A49" s="71" t="s">
+        <v>137</v>
       </c>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
@@ -6919,11 +7130,15 @@
       <c r="BB49" s="6"/>
       <c r="BC49" s="6"/>
       <c r="BD49" s="6"/>
+      <c r="BE49" s="6"/>
       <c r="BF49" s="6"/>
-    </row>
-    <row r="50" ht="13" spans="1:58">
-      <c r="A50" s="70" t="s">
-        <v>135</v>
+      <c r="BG49" s="6"/>
+      <c r="BH49" s="6"/>
+      <c r="BJ49" s="6"/>
+    </row>
+    <row r="50" ht="13" spans="1:62">
+      <c r="A50" s="71" t="s">
+        <v>138</v>
       </c>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
@@ -6979,11 +7194,15 @@
       <c r="BB50" s="6"/>
       <c r="BC50" s="6"/>
       <c r="BD50" s="6"/>
+      <c r="BE50" s="6"/>
       <c r="BF50" s="6"/>
-    </row>
-    <row r="51" ht="13" spans="1:58">
-      <c r="A51" s="70" t="s">
-        <v>136</v>
+      <c r="BG50" s="6"/>
+      <c r="BH50" s="6"/>
+      <c r="BJ50" s="6"/>
+    </row>
+    <row r="51" ht="13" spans="1:62">
+      <c r="A51" s="71" t="s">
+        <v>139</v>
       </c>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
@@ -7039,11 +7258,15 @@
       <c r="BB51" s="6"/>
       <c r="BC51" s="6"/>
       <c r="BD51" s="6"/>
+      <c r="BE51" s="6"/>
       <c r="BF51" s="6"/>
-    </row>
-    <row r="52" ht="13" spans="1:58">
-      <c r="A52" s="70" t="s">
-        <v>137</v>
+      <c r="BG51" s="6"/>
+      <c r="BH51" s="6"/>
+      <c r="BJ51" s="6"/>
+    </row>
+    <row r="52" ht="13" spans="1:62">
+      <c r="A52" s="71" t="s">
+        <v>140</v>
       </c>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
@@ -7099,11 +7322,15 @@
       <c r="BB52" s="6"/>
       <c r="BC52" s="6"/>
       <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
       <c r="BF52" s="6"/>
-    </row>
-    <row r="53" ht="13" spans="1:58">
-      <c r="A53" s="70" t="s">
-        <v>138</v>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BJ52" s="6"/>
+    </row>
+    <row r="53" ht="13" spans="1:62">
+      <c r="A53" s="71" t="s">
+        <v>141</v>
       </c>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
@@ -7159,11 +7386,15 @@
       <c r="BB53" s="6"/>
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
       <c r="BF53" s="6"/>
-    </row>
-    <row r="54" ht="13" spans="1:58">
-      <c r="A54" s="70" t="s">
-        <v>139</v>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BJ53" s="6"/>
+    </row>
+    <row r="54" ht="13" spans="1:62">
+      <c r="A54" s="71" t="s">
+        <v>142</v>
       </c>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
@@ -7219,9 +7450,13 @@
       <c r="BB54" s="6"/>
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
+      <c r="BE54" s="6"/>
       <c r="BF54" s="6"/>
-    </row>
-    <row r="55" spans="1:58">
+      <c r="BG54" s="6"/>
+      <c r="BH54" s="6"/>
+      <c r="BJ54" s="6"/>
+    </row>
+    <row r="55" spans="1:62">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
@@ -7277,9 +7512,13 @@
       <c r="BB55" s="6"/>
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
+      <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
-    </row>
-    <row r="56" spans="1:58">
+      <c r="BG55" s="6"/>
+      <c r="BH55" s="6"/>
+      <c r="BJ55" s="6"/>
+    </row>
+    <row r="56" spans="1:62">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="6"/>
@@ -7335,9 +7574,13 @@
       <c r="BB56" s="6"/>
       <c r="BC56" s="6"/>
       <c r="BD56" s="6"/>
+      <c r="BE56" s="6"/>
       <c r="BF56" s="6"/>
-    </row>
-    <row r="57" spans="1:58">
+      <c r="BG56" s="6"/>
+      <c r="BH56" s="6"/>
+      <c r="BJ56" s="6"/>
+    </row>
+    <row r="57" spans="1:62">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
@@ -7393,9 +7636,13 @@
       <c r="BB57" s="6"/>
       <c r="BC57" s="6"/>
       <c r="BD57" s="6"/>
+      <c r="BE57" s="6"/>
       <c r="BF57" s="6"/>
-    </row>
-    <row r="58" spans="1:58">
+      <c r="BG57" s="6"/>
+      <c r="BH57" s="6"/>
+      <c r="BJ57" s="6"/>
+    </row>
+    <row r="58" spans="1:62">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="6"/>
@@ -7451,9 +7698,13 @@
       <c r="BB58" s="6"/>
       <c r="BC58" s="6"/>
       <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
       <c r="BF58" s="6"/>
-    </row>
-    <row r="59" spans="1:58">
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BJ58" s="6"/>
+    </row>
+    <row r="59" spans="1:62">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="6"/>
@@ -7509,9 +7760,13 @@
       <c r="BB59" s="6"/>
       <c r="BC59" s="6"/>
       <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
       <c r="BF59" s="6"/>
-    </row>
-    <row r="60" spans="1:58">
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BJ59" s="6"/>
+    </row>
+    <row r="60" spans="1:62">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
@@ -7567,9 +7822,13 @@
       <c r="BB60" s="6"/>
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
+      <c r="BE60" s="6"/>
       <c r="BF60" s="6"/>
-    </row>
-    <row r="61" spans="1:58">
+      <c r="BG60" s="6"/>
+      <c r="BH60" s="6"/>
+      <c r="BJ60" s="6"/>
+    </row>
+    <row r="61" spans="1:62">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="6"/>
@@ -7625,9 +7884,13 @@
       <c r="BB61" s="6"/>
       <c r="BC61" s="6"/>
       <c r="BD61" s="6"/>
+      <c r="BE61" s="6"/>
       <c r="BF61" s="6"/>
-    </row>
-    <row r="62" spans="1:58">
+      <c r="BG61" s="6"/>
+      <c r="BH61" s="6"/>
+      <c r="BJ61" s="6"/>
+    </row>
+    <row r="62" spans="1:62">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
@@ -7683,9 +7946,13 @@
       <c r="BB62" s="6"/>
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
+      <c r="BE62" s="6"/>
       <c r="BF62" s="6"/>
-    </row>
-    <row r="63" spans="1:58">
+      <c r="BG62" s="6"/>
+      <c r="BH62" s="6"/>
+      <c r="BJ62" s="6"/>
+    </row>
+    <row r="63" spans="1:62">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
@@ -7741,9 +8008,13 @@
       <c r="BB63" s="6"/>
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
+      <c r="BE63" s="6"/>
       <c r="BF63" s="6"/>
-    </row>
-    <row r="64" spans="1:58">
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BJ63" s="6"/>
+    </row>
+    <row r="64" spans="1:62">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
@@ -7799,9 +8070,13 @@
       <c r="BB64" s="6"/>
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
       <c r="BF64" s="6"/>
-    </row>
-    <row r="65" spans="1:58">
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BJ64" s="6"/>
+    </row>
+    <row r="65" spans="1:62">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="6"/>
@@ -7857,9 +8132,13 @@
       <c r="BB65" s="6"/>
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
+      <c r="BE65" s="6"/>
       <c r="BF65" s="6"/>
-    </row>
-    <row r="66" spans="1:58">
+      <c r="BG65" s="6"/>
+      <c r="BH65" s="6"/>
+      <c r="BJ65" s="6"/>
+    </row>
+    <row r="66" spans="1:62">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="6"/>
@@ -7915,9 +8194,13 @@
       <c r="BB66" s="6"/>
       <c r="BC66" s="6"/>
       <c r="BD66" s="6"/>
+      <c r="BE66" s="6"/>
       <c r="BF66" s="6"/>
-    </row>
-    <row r="67" spans="1:58">
+      <c r="BG66" s="6"/>
+      <c r="BH66" s="6"/>
+      <c r="BJ66" s="6"/>
+    </row>
+    <row r="67" spans="1:62">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
@@ -7973,9 +8256,13 @@
       <c r="BB67" s="6"/>
       <c r="BC67" s="6"/>
       <c r="BD67" s="6"/>
+      <c r="BE67" s="6"/>
       <c r="BF67" s="6"/>
-    </row>
-    <row r="68" spans="1:58">
+      <c r="BG67" s="6"/>
+      <c r="BH67" s="6"/>
+      <c r="BJ67" s="6"/>
+    </row>
+    <row r="68" spans="1:62">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="6"/>
@@ -8031,9 +8318,13 @@
       <c r="BB68" s="6"/>
       <c r="BC68" s="6"/>
       <c r="BD68" s="6"/>
+      <c r="BE68" s="6"/>
       <c r="BF68" s="6"/>
-    </row>
-    <row r="69" spans="1:58">
+      <c r="BG68" s="6"/>
+      <c r="BH68" s="6"/>
+      <c r="BJ68" s="6"/>
+    </row>
+    <row r="69" spans="1:62">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="6"/>
@@ -8089,9 +8380,13 @@
       <c r="BB69" s="6"/>
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
+      <c r="BE69" s="6"/>
       <c r="BF69" s="6"/>
-    </row>
-    <row r="70" spans="1:58">
+      <c r="BG69" s="6"/>
+      <c r="BH69" s="6"/>
+      <c r="BJ69" s="6"/>
+    </row>
+    <row r="70" spans="1:62">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="6"/>
@@ -8147,9 +8442,13 @@
       <c r="BB70" s="6"/>
       <c r="BC70" s="6"/>
       <c r="BD70" s="6"/>
+      <c r="BE70" s="6"/>
       <c r="BF70" s="6"/>
-    </row>
-    <row r="71" spans="1:58">
+      <c r="BG70" s="6"/>
+      <c r="BH70" s="6"/>
+      <c r="BJ70" s="6"/>
+    </row>
+    <row r="71" spans="1:62">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
@@ -8205,9 +8504,13 @@
       <c r="BB71" s="6"/>
       <c r="BC71" s="6"/>
       <c r="BD71" s="6"/>
+      <c r="BE71" s="6"/>
       <c r="BF71" s="6"/>
-    </row>
-    <row r="72" spans="1:58">
+      <c r="BG71" s="6"/>
+      <c r="BH71" s="6"/>
+      <c r="BJ71" s="6"/>
+    </row>
+    <row r="72" spans="1:62">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="6"/>
@@ -8263,9 +8566,13 @@
       <c r="BB72" s="6"/>
       <c r="BC72" s="6"/>
       <c r="BD72" s="6"/>
+      <c r="BE72" s="6"/>
       <c r="BF72" s="6"/>
-    </row>
-    <row r="73" spans="1:58">
+      <c r="BG72" s="6"/>
+      <c r="BH72" s="6"/>
+      <c r="BJ72" s="6"/>
+    </row>
+    <row r="73" spans="1:62">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="6"/>
@@ -8321,9 +8628,13 @@
       <c r="BB73" s="6"/>
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
+      <c r="BE73" s="6"/>
       <c r="BF73" s="6"/>
-    </row>
-    <row r="74" spans="1:58">
+      <c r="BG73" s="6"/>
+      <c r="BH73" s="6"/>
+      <c r="BJ73" s="6"/>
+    </row>
+    <row r="74" spans="1:62">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="6"/>
@@ -8379,9 +8690,13 @@
       <c r="BB74" s="6"/>
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
+      <c r="BE74" s="6"/>
       <c r="BF74" s="6"/>
-    </row>
-    <row r="75" spans="1:58">
+      <c r="BG74" s="6"/>
+      <c r="BH74" s="6"/>
+      <c r="BJ74" s="6"/>
+    </row>
+    <row r="75" spans="1:62">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
@@ -8437,9 +8752,13 @@
       <c r="BB75" s="6"/>
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
+      <c r="BE75" s="6"/>
       <c r="BF75" s="6"/>
-    </row>
-    <row r="76" spans="1:58">
+      <c r="BG75" s="6"/>
+      <c r="BH75" s="6"/>
+      <c r="BJ75" s="6"/>
+    </row>
+    <row r="76" spans="1:62">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
@@ -8495,9 +8814,13 @@
       <c r="BB76" s="6"/>
       <c r="BC76" s="6"/>
       <c r="BD76" s="6"/>
+      <c r="BE76" s="6"/>
       <c r="BF76" s="6"/>
-    </row>
-    <row r="77" spans="1:58">
+      <c r="BG76" s="6"/>
+      <c r="BH76" s="6"/>
+      <c r="BJ76" s="6"/>
+    </row>
+    <row r="77" spans="1:62">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="D77" s="6"/>
@@ -8553,9 +8876,13 @@
       <c r="BB77" s="6"/>
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
+      <c r="BE77" s="6"/>
       <c r="BF77" s="6"/>
-    </row>
-    <row r="78" spans="1:58">
+      <c r="BG77" s="6"/>
+      <c r="BH77" s="6"/>
+      <c r="BJ77" s="6"/>
+    </row>
+    <row r="78" spans="1:62">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="6"/>
@@ -8611,9 +8938,13 @@
       <c r="BB78" s="6"/>
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
+      <c r="BE78" s="6"/>
       <c r="BF78" s="6"/>
-    </row>
-    <row r="79" spans="1:58">
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BJ78" s="6"/>
+    </row>
+    <row r="79" spans="1:62">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="6"/>
@@ -8669,9 +9000,13 @@
       <c r="BB79" s="6"/>
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
+      <c r="BE79" s="6"/>
       <c r="BF79" s="6"/>
-    </row>
-    <row r="80" spans="1:58">
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BJ79" s="6"/>
+    </row>
+    <row r="80" spans="1:62">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="6"/>
@@ -8727,9 +9062,13 @@
       <c r="BB80" s="6"/>
       <c r="BC80" s="6"/>
       <c r="BD80" s="6"/>
+      <c r="BE80" s="6"/>
       <c r="BF80" s="6"/>
-    </row>
-    <row r="81" spans="1:58">
+      <c r="BG80" s="6"/>
+      <c r="BH80" s="6"/>
+      <c r="BJ80" s="6"/>
+    </row>
+    <row r="81" spans="1:62">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="D81" s="6"/>
@@ -8785,9 +9124,13 @@
       <c r="BB81" s="6"/>
       <c r="BC81" s="6"/>
       <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
       <c r="BF81" s="6"/>
-    </row>
-    <row r="82" spans="1:58">
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
+      <c r="BJ81" s="6"/>
+    </row>
+    <row r="82" spans="1:62">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="6"/>
@@ -8843,9 +9186,13 @@
       <c r="BB82" s="6"/>
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
       <c r="BF82" s="6"/>
-    </row>
-    <row r="83" spans="1:58">
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BJ82" s="6"/>
+    </row>
+    <row r="83" spans="1:62">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="6"/>
@@ -8901,9 +9248,13 @@
       <c r="BB83" s="6"/>
       <c r="BC83" s="6"/>
       <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
       <c r="BF83" s="6"/>
-    </row>
-    <row r="84" spans="1:58">
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BJ83" s="6"/>
+    </row>
+    <row r="84" spans="1:62">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="6"/>
@@ -8959,9 +9310,13 @@
       <c r="BB84" s="6"/>
       <c r="BC84" s="6"/>
       <c r="BD84" s="6"/>
+      <c r="BE84" s="6"/>
       <c r="BF84" s="6"/>
-    </row>
-    <row r="85" spans="1:58">
+      <c r="BG84" s="6"/>
+      <c r="BH84" s="6"/>
+      <c r="BJ84" s="6"/>
+    </row>
+    <row r="85" spans="1:62">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="6"/>
@@ -9017,9 +9372,13 @@
       <c r="BB85" s="6"/>
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
+      <c r="BE85" s="6"/>
       <c r="BF85" s="6"/>
-    </row>
-    <row r="86" spans="1:58">
+      <c r="BG85" s="6"/>
+      <c r="BH85" s="6"/>
+      <c r="BJ85" s="6"/>
+    </row>
+    <row r="86" spans="1:62">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="6"/>
@@ -9075,9 +9434,13 @@
       <c r="BB86" s="6"/>
       <c r="BC86" s="6"/>
       <c r="BD86" s="6"/>
+      <c r="BE86" s="6"/>
       <c r="BF86" s="6"/>
-    </row>
-    <row r="87" spans="1:58">
+      <c r="BG86" s="6"/>
+      <c r="BH86" s="6"/>
+      <c r="BJ86" s="6"/>
+    </row>
+    <row r="87" spans="1:62">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
@@ -9133,9 +9496,13 @@
       <c r="BB87" s="6"/>
       <c r="BC87" s="6"/>
       <c r="BD87" s="6"/>
+      <c r="BE87" s="6"/>
       <c r="BF87" s="6"/>
-    </row>
-    <row r="88" spans="1:58">
+      <c r="BG87" s="6"/>
+      <c r="BH87" s="6"/>
+      <c r="BJ87" s="6"/>
+    </row>
+    <row r="88" spans="1:62">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
@@ -9191,9 +9558,13 @@
       <c r="BB88" s="6"/>
       <c r="BC88" s="6"/>
       <c r="BD88" s="6"/>
+      <c r="BE88" s="6"/>
       <c r="BF88" s="6"/>
-    </row>
-    <row r="89" spans="1:58">
+      <c r="BG88" s="6"/>
+      <c r="BH88" s="6"/>
+      <c r="BJ88" s="6"/>
+    </row>
+    <row r="89" spans="1:62">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
@@ -9249,9 +9620,13 @@
       <c r="BB89" s="6"/>
       <c r="BC89" s="6"/>
       <c r="BD89" s="6"/>
+      <c r="BE89" s="6"/>
       <c r="BF89" s="6"/>
-    </row>
-    <row r="90" spans="1:58">
+      <c r="BG89" s="6"/>
+      <c r="BH89" s="6"/>
+      <c r="BJ89" s="6"/>
+    </row>
+    <row r="90" spans="1:62">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
@@ -9307,9 +9682,13 @@
       <c r="BB90" s="6"/>
       <c r="BC90" s="6"/>
       <c r="BD90" s="6"/>
+      <c r="BE90" s="6"/>
       <c r="BF90" s="6"/>
-    </row>
-    <row r="91" spans="1:58">
+      <c r="BG90" s="6"/>
+      <c r="BH90" s="6"/>
+      <c r="BJ90" s="6"/>
+    </row>
+    <row r="91" spans="1:62">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
@@ -9365,9 +9744,13 @@
       <c r="BB91" s="6"/>
       <c r="BC91" s="6"/>
       <c r="BD91" s="6"/>
+      <c r="BE91" s="6"/>
       <c r="BF91" s="6"/>
-    </row>
-    <row r="92" spans="1:58">
+      <c r="BG91" s="6"/>
+      <c r="BH91" s="6"/>
+      <c r="BJ91" s="6"/>
+    </row>
+    <row r="92" spans="1:62">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="6"/>
@@ -9423,9 +9806,13 @@
       <c r="BB92" s="6"/>
       <c r="BC92" s="6"/>
       <c r="BD92" s="6"/>
+      <c r="BE92" s="6"/>
       <c r="BF92" s="6"/>
-    </row>
-    <row r="93" spans="1:58">
+      <c r="BG92" s="6"/>
+      <c r="BH92" s="6"/>
+      <c r="BJ92" s="6"/>
+    </row>
+    <row r="93" spans="1:62">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="D93" s="6"/>
@@ -9481,9 +9868,13 @@
       <c r="BB93" s="6"/>
       <c r="BC93" s="6"/>
       <c r="BD93" s="6"/>
+      <c r="BE93" s="6"/>
       <c r="BF93" s="6"/>
-    </row>
-    <row r="94" spans="1:58">
+      <c r="BG93" s="6"/>
+      <c r="BH93" s="6"/>
+      <c r="BJ93" s="6"/>
+    </row>
+    <row r="94" spans="1:62">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="6"/>
@@ -9539,9 +9930,13 @@
       <c r="BB94" s="6"/>
       <c r="BC94" s="6"/>
       <c r="BD94" s="6"/>
+      <c r="BE94" s="6"/>
       <c r="BF94" s="6"/>
-    </row>
-    <row r="95" spans="1:58">
+      <c r="BG94" s="6"/>
+      <c r="BH94" s="6"/>
+      <c r="BJ94" s="6"/>
+    </row>
+    <row r="95" spans="1:62">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="D95" s="6"/>
@@ -9597,9 +9992,13 @@
       <c r="BB95" s="6"/>
       <c r="BC95" s="6"/>
       <c r="BD95" s="6"/>
+      <c r="BE95" s="6"/>
       <c r="BF95" s="6"/>
-    </row>
-    <row r="96" spans="1:58">
+      <c r="BG95" s="6"/>
+      <c r="BH95" s="6"/>
+      <c r="BJ95" s="6"/>
+    </row>
+    <row r="96" spans="1:62">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="D96" s="6"/>
@@ -9655,9 +10054,13 @@
       <c r="BB96" s="6"/>
       <c r="BC96" s="6"/>
       <c r="BD96" s="6"/>
+      <c r="BE96" s="6"/>
       <c r="BF96" s="6"/>
-    </row>
-    <row r="97" spans="1:58">
+      <c r="BG96" s="6"/>
+      <c r="BH96" s="6"/>
+      <c r="BJ96" s="6"/>
+    </row>
+    <row r="97" spans="1:62">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="D97" s="6"/>
@@ -9713,9 +10116,13 @@
       <c r="BB97" s="6"/>
       <c r="BC97" s="6"/>
       <c r="BD97" s="6"/>
+      <c r="BE97" s="6"/>
       <c r="BF97" s="6"/>
-    </row>
-    <row r="98" spans="1:58">
+      <c r="BG97" s="6"/>
+      <c r="BH97" s="6"/>
+      <c r="BJ97" s="6"/>
+    </row>
+    <row r="98" spans="1:62">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="D98" s="6"/>
@@ -9771,9 +10178,13 @@
       <c r="BB98" s="6"/>
       <c r="BC98" s="6"/>
       <c r="BD98" s="6"/>
+      <c r="BE98" s="6"/>
       <c r="BF98" s="6"/>
-    </row>
-    <row r="99" spans="1:58">
+      <c r="BG98" s="6"/>
+      <c r="BH98" s="6"/>
+      <c r="BJ98" s="6"/>
+    </row>
+    <row r="99" spans="1:62">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="D99" s="6"/>
@@ -9829,9 +10240,13 @@
       <c r="BB99" s="6"/>
       <c r="BC99" s="6"/>
       <c r="BD99" s="6"/>
+      <c r="BE99" s="6"/>
       <c r="BF99" s="6"/>
-    </row>
-    <row r="100" spans="1:58">
+      <c r="BG99" s="6"/>
+      <c r="BH99" s="6"/>
+      <c r="BJ99" s="6"/>
+    </row>
+    <row r="100" spans="1:62">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="D100" s="6"/>
@@ -9887,9 +10302,13 @@
       <c r="BB100" s="6"/>
       <c r="BC100" s="6"/>
       <c r="BD100" s="6"/>
+      <c r="BE100" s="6"/>
       <c r="BF100" s="6"/>
-    </row>
-    <row r="101" spans="1:58">
+      <c r="BG100" s="6"/>
+      <c r="BH100" s="6"/>
+      <c r="BJ100" s="6"/>
+    </row>
+    <row r="101" spans="1:62">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="D101" s="6"/>
@@ -9945,9 +10364,13 @@
       <c r="BB101" s="6"/>
       <c r="BC101" s="6"/>
       <c r="BD101" s="6"/>
+      <c r="BE101" s="6"/>
       <c r="BF101" s="6"/>
-    </row>
-    <row r="102" spans="1:58">
+      <c r="BG101" s="6"/>
+      <c r="BH101" s="6"/>
+      <c r="BJ101" s="6"/>
+    </row>
+    <row r="102" spans="1:62">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="D102" s="6"/>
@@ -10003,9 +10426,13 @@
       <c r="BB102" s="6"/>
       <c r="BC102" s="6"/>
       <c r="BD102" s="6"/>
+      <c r="BE102" s="6"/>
       <c r="BF102" s="6"/>
-    </row>
-    <row r="103" spans="1:58">
+      <c r="BG102" s="6"/>
+      <c r="BH102" s="6"/>
+      <c r="BJ102" s="6"/>
+    </row>
+    <row r="103" spans="1:62">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="D103" s="6"/>
@@ -10061,9 +10488,13 @@
       <c r="BB103" s="6"/>
       <c r="BC103" s="6"/>
       <c r="BD103" s="6"/>
+      <c r="BE103" s="6"/>
       <c r="BF103" s="6"/>
-    </row>
-    <row r="104" spans="1:58">
+      <c r="BG103" s="6"/>
+      <c r="BH103" s="6"/>
+      <c r="BJ103" s="6"/>
+    </row>
+    <row r="104" spans="1:62">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="D104" s="6"/>
@@ -10119,9 +10550,13 @@
       <c r="BB104" s="6"/>
       <c r="BC104" s="6"/>
       <c r="BD104" s="6"/>
+      <c r="BE104" s="6"/>
       <c r="BF104" s="6"/>
-    </row>
-    <row r="105" spans="1:58">
+      <c r="BG104" s="6"/>
+      <c r="BH104" s="6"/>
+      <c r="BJ104" s="6"/>
+    </row>
+    <row r="105" spans="1:62">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="D105" s="6"/>
@@ -10177,9 +10612,13 @@
       <c r="BB105" s="6"/>
       <c r="BC105" s="6"/>
       <c r="BD105" s="6"/>
+      <c r="BE105" s="6"/>
       <c r="BF105" s="6"/>
-    </row>
-    <row r="106" spans="1:58">
+      <c r="BG105" s="6"/>
+      <c r="BH105" s="6"/>
+      <c r="BJ105" s="6"/>
+    </row>
+    <row r="106" spans="1:62">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="D106" s="6"/>
@@ -10235,9 +10674,13 @@
       <c r="BB106" s="6"/>
       <c r="BC106" s="6"/>
       <c r="BD106" s="6"/>
+      <c r="BE106" s="6"/>
       <c r="BF106" s="6"/>
-    </row>
-    <row r="107" spans="1:58">
+      <c r="BG106" s="6"/>
+      <c r="BH106" s="6"/>
+      <c r="BJ106" s="6"/>
+    </row>
+    <row r="107" spans="1:62">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="D107" s="6"/>
@@ -10293,9 +10736,13 @@
       <c r="BB107" s="6"/>
       <c r="BC107" s="6"/>
       <c r="BD107" s="6"/>
+      <c r="BE107" s="6"/>
       <c r="BF107" s="6"/>
-    </row>
-    <row r="108" spans="1:58">
+      <c r="BG107" s="6"/>
+      <c r="BH107" s="6"/>
+      <c r="BJ107" s="6"/>
+    </row>
+    <row r="108" spans="1:62">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
@@ -10351,9 +10798,13 @@
       <c r="BB108" s="6"/>
       <c r="BC108" s="6"/>
       <c r="BD108" s="6"/>
+      <c r="BE108" s="6"/>
       <c r="BF108" s="6"/>
-    </row>
-    <row r="109" spans="1:58">
+      <c r="BG108" s="6"/>
+      <c r="BH108" s="6"/>
+      <c r="BJ108" s="6"/>
+    </row>
+    <row r="109" spans="1:62">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="D109" s="6"/>
@@ -10409,9 +10860,13 @@
       <c r="BB109" s="6"/>
       <c r="BC109" s="6"/>
       <c r="BD109" s="6"/>
+      <c r="BE109" s="6"/>
       <c r="BF109" s="6"/>
-    </row>
-    <row r="110" spans="1:58">
+      <c r="BG109" s="6"/>
+      <c r="BH109" s="6"/>
+      <c r="BJ109" s="6"/>
+    </row>
+    <row r="110" spans="1:62">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="D110" s="6"/>
@@ -10467,9 +10922,13 @@
       <c r="BB110" s="6"/>
       <c r="BC110" s="6"/>
       <c r="BD110" s="6"/>
+      <c r="BE110" s="6"/>
       <c r="BF110" s="6"/>
-    </row>
-    <row r="111" spans="1:58">
+      <c r="BG110" s="6"/>
+      <c r="BH110" s="6"/>
+      <c r="BJ110" s="6"/>
+    </row>
+    <row r="111" spans="1:62">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="D111" s="6"/>
@@ -10525,9 +10984,13 @@
       <c r="BB111" s="6"/>
       <c r="BC111" s="6"/>
       <c r="BD111" s="6"/>
+      <c r="BE111" s="6"/>
       <c r="BF111" s="6"/>
-    </row>
-    <row r="112" spans="1:58">
+      <c r="BG111" s="6"/>
+      <c r="BH111" s="6"/>
+      <c r="BJ111" s="6"/>
+    </row>
+    <row r="112" spans="1:62">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="D112" s="6"/>
@@ -10583,9 +11046,13 @@
       <c r="BB112" s="6"/>
       <c r="BC112" s="6"/>
       <c r="BD112" s="6"/>
+      <c r="BE112" s="6"/>
       <c r="BF112" s="6"/>
-    </row>
-    <row r="113" spans="1:58">
+      <c r="BG112" s="6"/>
+      <c r="BH112" s="6"/>
+      <c r="BJ112" s="6"/>
+    </row>
+    <row r="113" spans="1:62">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="D113" s="6"/>
@@ -10641,9 +11108,13 @@
       <c r="BB113" s="6"/>
       <c r="BC113" s="6"/>
       <c r="BD113" s="6"/>
+      <c r="BE113" s="6"/>
       <c r="BF113" s="6"/>
-    </row>
-    <row r="114" spans="1:58">
+      <c r="BG113" s="6"/>
+      <c r="BH113" s="6"/>
+      <c r="BJ113" s="6"/>
+    </row>
+    <row r="114" spans="1:62">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="D114" s="6"/>
@@ -10699,9 +11170,13 @@
       <c r="BB114" s="6"/>
       <c r="BC114" s="6"/>
       <c r="BD114" s="6"/>
+      <c r="BE114" s="6"/>
       <c r="BF114" s="6"/>
-    </row>
-    <row r="115" spans="1:58">
+      <c r="BG114" s="6"/>
+      <c r="BH114" s="6"/>
+      <c r="BJ114" s="6"/>
+    </row>
+    <row r="115" spans="1:62">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="D115" s="6"/>
@@ -10757,9 +11232,13 @@
       <c r="BB115" s="6"/>
       <c r="BC115" s="6"/>
       <c r="BD115" s="6"/>
+      <c r="BE115" s="6"/>
       <c r="BF115" s="6"/>
-    </row>
-    <row r="116" spans="1:58">
+      <c r="BG115" s="6"/>
+      <c r="BH115" s="6"/>
+      <c r="BJ115" s="6"/>
+    </row>
+    <row r="116" spans="1:62">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="D116" s="6"/>
@@ -10815,9 +11294,13 @@
       <c r="BB116" s="6"/>
       <c r="BC116" s="6"/>
       <c r="BD116" s="6"/>
+      <c r="BE116" s="6"/>
       <c r="BF116" s="6"/>
-    </row>
-    <row r="117" spans="1:58">
+      <c r="BG116" s="6"/>
+      <c r="BH116" s="6"/>
+      <c r="BJ116" s="6"/>
+    </row>
+    <row r="117" spans="1:62">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="D117" s="6"/>
@@ -10873,9 +11356,13 @@
       <c r="BB117" s="6"/>
       <c r="BC117" s="6"/>
       <c r="BD117" s="6"/>
+      <c r="BE117" s="6"/>
       <c r="BF117" s="6"/>
-    </row>
-    <row r="118" spans="1:58">
+      <c r="BG117" s="6"/>
+      <c r="BH117" s="6"/>
+      <c r="BJ117" s="6"/>
+    </row>
+    <row r="118" spans="1:62">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="D118" s="6"/>
@@ -10931,9 +11418,13 @@
       <c r="BB118" s="6"/>
       <c r="BC118" s="6"/>
       <c r="BD118" s="6"/>
+      <c r="BE118" s="6"/>
       <c r="BF118" s="6"/>
-    </row>
-    <row r="119" spans="1:58">
+      <c r="BG118" s="6"/>
+      <c r="BH118" s="6"/>
+      <c r="BJ118" s="6"/>
+    </row>
+    <row r="119" spans="1:62">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="6"/>
@@ -10989,9 +11480,13 @@
       <c r="BB119" s="6"/>
       <c r="BC119" s="6"/>
       <c r="BD119" s="6"/>
+      <c r="BE119" s="6"/>
       <c r="BF119" s="6"/>
-    </row>
-    <row r="120" spans="1:58">
+      <c r="BG119" s="6"/>
+      <c r="BH119" s="6"/>
+      <c r="BJ119" s="6"/>
+    </row>
+    <row r="120" spans="1:62">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="D120" s="6"/>
@@ -11047,9 +11542,13 @@
       <c r="BB120" s="6"/>
       <c r="BC120" s="6"/>
       <c r="BD120" s="6"/>
+      <c r="BE120" s="6"/>
       <c r="BF120" s="6"/>
-    </row>
-    <row r="121" spans="1:58">
+      <c r="BG120" s="6"/>
+      <c r="BH120" s="6"/>
+      <c r="BJ120" s="6"/>
+    </row>
+    <row r="121" spans="1:62">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="D121" s="6"/>
@@ -11105,9 +11604,13 @@
       <c r="BB121" s="6"/>
       <c r="BC121" s="6"/>
       <c r="BD121" s="6"/>
+      <c r="BE121" s="6"/>
       <c r="BF121" s="6"/>
-    </row>
-    <row r="122" spans="1:58">
+      <c r="BG121" s="6"/>
+      <c r="BH121" s="6"/>
+      <c r="BJ121" s="6"/>
+    </row>
+    <row r="122" spans="1:62">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="D122" s="6"/>
@@ -11163,9 +11666,13 @@
       <c r="BB122" s="6"/>
       <c r="BC122" s="6"/>
       <c r="BD122" s="6"/>
+      <c r="BE122" s="6"/>
       <c r="BF122" s="6"/>
-    </row>
-    <row r="123" spans="1:58">
+      <c r="BG122" s="6"/>
+      <c r="BH122" s="6"/>
+      <c r="BJ122" s="6"/>
+    </row>
+    <row r="123" spans="1:62">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="D123" s="6"/>
@@ -11221,9 +11728,13 @@
       <c r="BB123" s="6"/>
       <c r="BC123" s="6"/>
       <c r="BD123" s="6"/>
+      <c r="BE123" s="6"/>
       <c r="BF123" s="6"/>
-    </row>
-    <row r="124" spans="1:58">
+      <c r="BG123" s="6"/>
+      <c r="BH123" s="6"/>
+      <c r="BJ123" s="6"/>
+    </row>
+    <row r="124" spans="1:62">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
@@ -11279,9 +11790,13 @@
       <c r="BB124" s="6"/>
       <c r="BC124" s="6"/>
       <c r="BD124" s="6"/>
+      <c r="BE124" s="6"/>
       <c r="BF124" s="6"/>
-    </row>
-    <row r="125" spans="1:58">
+      <c r="BG124" s="6"/>
+      <c r="BH124" s="6"/>
+      <c r="BJ124" s="6"/>
+    </row>
+    <row r="125" spans="1:62">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="D125" s="6"/>
@@ -11337,9 +11852,13 @@
       <c r="BB125" s="6"/>
       <c r="BC125" s="6"/>
       <c r="BD125" s="6"/>
+      <c r="BE125" s="6"/>
       <c r="BF125" s="6"/>
-    </row>
-    <row r="126" spans="1:58">
+      <c r="BG125" s="6"/>
+      <c r="BH125" s="6"/>
+      <c r="BJ125" s="6"/>
+    </row>
+    <row r="126" spans="1:62">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
@@ -11395,9 +11914,13 @@
       <c r="BB126" s="6"/>
       <c r="BC126" s="6"/>
       <c r="BD126" s="6"/>
+      <c r="BE126" s="6"/>
       <c r="BF126" s="6"/>
-    </row>
-    <row r="127" spans="1:58">
+      <c r="BG126" s="6"/>
+      <c r="BH126" s="6"/>
+      <c r="BJ126" s="6"/>
+    </row>
+    <row r="127" spans="1:62">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="D127" s="6"/>
@@ -11453,9 +11976,13 @@
       <c r="BB127" s="6"/>
       <c r="BC127" s="6"/>
       <c r="BD127" s="6"/>
+      <c r="BE127" s="6"/>
       <c r="BF127" s="6"/>
-    </row>
-    <row r="128" spans="1:58">
+      <c r="BG127" s="6"/>
+      <c r="BH127" s="6"/>
+      <c r="BJ127" s="6"/>
+    </row>
+    <row r="128" spans="1:62">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="D128" s="6"/>
@@ -11511,9 +12038,13 @@
       <c r="BB128" s="6"/>
       <c r="BC128" s="6"/>
       <c r="BD128" s="6"/>
+      <c r="BE128" s="6"/>
       <c r="BF128" s="6"/>
-    </row>
-    <row r="129" spans="1:58">
+      <c r="BG128" s="6"/>
+      <c r="BH128" s="6"/>
+      <c r="BJ128" s="6"/>
+    </row>
+    <row r="129" spans="1:62">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
@@ -11569,9 +12100,13 @@
       <c r="BB129" s="6"/>
       <c r="BC129" s="6"/>
       <c r="BD129" s="6"/>
+      <c r="BE129" s="6"/>
       <c r="BF129" s="6"/>
-    </row>
-    <row r="130" spans="1:58">
+      <c r="BG129" s="6"/>
+      <c r="BH129" s="6"/>
+      <c r="BJ129" s="6"/>
+    </row>
+    <row r="130" spans="1:62">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
@@ -11627,9 +12162,13 @@
       <c r="BB130" s="6"/>
       <c r="BC130" s="6"/>
       <c r="BD130" s="6"/>
+      <c r="BE130" s="6"/>
       <c r="BF130" s="6"/>
-    </row>
-    <row r="131" spans="1:58">
+      <c r="BG130" s="6"/>
+      <c r="BH130" s="6"/>
+      <c r="BJ130" s="6"/>
+    </row>
+    <row r="131" spans="1:62">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
@@ -11685,9 +12224,13 @@
       <c r="BB131" s="6"/>
       <c r="BC131" s="6"/>
       <c r="BD131" s="6"/>
+      <c r="BE131" s="6"/>
       <c r="BF131" s="6"/>
-    </row>
-    <row r="132" spans="1:58">
+      <c r="BG131" s="6"/>
+      <c r="BH131" s="6"/>
+      <c r="BJ131" s="6"/>
+    </row>
+    <row r="132" spans="1:62">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
@@ -11743,9 +12286,13 @@
       <c r="BB132" s="6"/>
       <c r="BC132" s="6"/>
       <c r="BD132" s="6"/>
+      <c r="BE132" s="6"/>
       <c r="BF132" s="6"/>
-    </row>
-    <row r="133" spans="1:58">
+      <c r="BG132" s="6"/>
+      <c r="BH132" s="6"/>
+      <c r="BJ132" s="6"/>
+    </row>
+    <row r="133" spans="1:62">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
@@ -11801,9 +12348,13 @@
       <c r="BB133" s="6"/>
       <c r="BC133" s="6"/>
       <c r="BD133" s="6"/>
+      <c r="BE133" s="6"/>
       <c r="BF133" s="6"/>
-    </row>
-    <row r="134" spans="1:58">
+      <c r="BG133" s="6"/>
+      <c r="BH133" s="6"/>
+      <c r="BJ133" s="6"/>
+    </row>
+    <row r="134" spans="1:62">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
@@ -11859,9 +12410,13 @@
       <c r="BB134" s="6"/>
       <c r="BC134" s="6"/>
       <c r="BD134" s="6"/>
+      <c r="BE134" s="6"/>
       <c r="BF134" s="6"/>
-    </row>
-    <row r="135" spans="1:58">
+      <c r="BG134" s="6"/>
+      <c r="BH134" s="6"/>
+      <c r="BJ134" s="6"/>
+    </row>
+    <row r="135" spans="1:62">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
@@ -11917,9 +12472,13 @@
       <c r="BB135" s="6"/>
       <c r="BC135" s="6"/>
       <c r="BD135" s="6"/>
+      <c r="BE135" s="6"/>
       <c r="BF135" s="6"/>
-    </row>
-    <row r="136" spans="1:58">
+      <c r="BG135" s="6"/>
+      <c r="BH135" s="6"/>
+      <c r="BJ135" s="6"/>
+    </row>
+    <row r="136" spans="1:62">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
@@ -11975,9 +12534,13 @@
       <c r="BB136" s="6"/>
       <c r="BC136" s="6"/>
       <c r="BD136" s="6"/>
+      <c r="BE136" s="6"/>
       <c r="BF136" s="6"/>
-    </row>
-    <row r="137" spans="1:58">
+      <c r="BG136" s="6"/>
+      <c r="BH136" s="6"/>
+      <c r="BJ136" s="6"/>
+    </row>
+    <row r="137" spans="1:62">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
@@ -12033,9 +12596,13 @@
       <c r="BB137" s="6"/>
       <c r="BC137" s="6"/>
       <c r="BD137" s="6"/>
+      <c r="BE137" s="6"/>
       <c r="BF137" s="6"/>
-    </row>
-    <row r="138" spans="1:58">
+      <c r="BG137" s="6"/>
+      <c r="BH137" s="6"/>
+      <c r="BJ137" s="6"/>
+    </row>
+    <row r="138" spans="1:62">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
@@ -12091,9 +12658,13 @@
       <c r="BB138" s="6"/>
       <c r="BC138" s="6"/>
       <c r="BD138" s="6"/>
+      <c r="BE138" s="6"/>
       <c r="BF138" s="6"/>
-    </row>
-    <row r="139" spans="1:58">
+      <c r="BG138" s="6"/>
+      <c r="BH138" s="6"/>
+      <c r="BJ138" s="6"/>
+    </row>
+    <row r="139" spans="1:62">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
@@ -12149,9 +12720,13 @@
       <c r="BB139" s="6"/>
       <c r="BC139" s="6"/>
       <c r="BD139" s="6"/>
+      <c r="BE139" s="6"/>
       <c r="BF139" s="6"/>
-    </row>
-    <row r="140" spans="1:58">
+      <c r="BG139" s="6"/>
+      <c r="BH139" s="6"/>
+      <c r="BJ139" s="6"/>
+    </row>
+    <row r="140" spans="1:62">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
@@ -12207,9 +12782,13 @@
       <c r="BB140" s="6"/>
       <c r="BC140" s="6"/>
       <c r="BD140" s="6"/>
+      <c r="BE140" s="6"/>
       <c r="BF140" s="6"/>
-    </row>
-    <row r="141" spans="1:58">
+      <c r="BG140" s="6"/>
+      <c r="BH140" s="6"/>
+      <c r="BJ140" s="6"/>
+    </row>
+    <row r="141" spans="1:62">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
@@ -12265,9 +12844,13 @@
       <c r="BB141" s="6"/>
       <c r="BC141" s="6"/>
       <c r="BD141" s="6"/>
+      <c r="BE141" s="6"/>
       <c r="BF141" s="6"/>
-    </row>
-    <row r="142" spans="1:58">
+      <c r="BG141" s="6"/>
+      <c r="BH141" s="6"/>
+      <c r="BJ141" s="6"/>
+    </row>
+    <row r="142" spans="1:62">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
@@ -12323,9 +12906,13 @@
       <c r="BB142" s="6"/>
       <c r="BC142" s="6"/>
       <c r="BD142" s="6"/>
+      <c r="BE142" s="6"/>
       <c r="BF142" s="6"/>
-    </row>
-    <row r="143" spans="1:58">
+      <c r="BG142" s="6"/>
+      <c r="BH142" s="6"/>
+      <c r="BJ142" s="6"/>
+    </row>
+    <row r="143" spans="1:62">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
@@ -12381,9 +12968,13 @@
       <c r="BB143" s="6"/>
       <c r="BC143" s="6"/>
       <c r="BD143" s="6"/>
+      <c r="BE143" s="6"/>
       <c r="BF143" s="6"/>
-    </row>
-    <row r="144" spans="1:58">
+      <c r="BG143" s="6"/>
+      <c r="BH143" s="6"/>
+      <c r="BJ143" s="6"/>
+    </row>
+    <row r="144" spans="1:62">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
@@ -12439,9 +13030,13 @@
       <c r="BB144" s="6"/>
       <c r="BC144" s="6"/>
       <c r="BD144" s="6"/>
+      <c r="BE144" s="6"/>
       <c r="BF144" s="6"/>
-    </row>
-    <row r="145" spans="1:58">
+      <c r="BG144" s="6"/>
+      <c r="BH144" s="6"/>
+      <c r="BJ144" s="6"/>
+    </row>
+    <row r="145" spans="1:62">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="D145" s="6"/>
@@ -12497,9 +13092,13 @@
       <c r="BB145" s="6"/>
       <c r="BC145" s="6"/>
       <c r="BD145" s="6"/>
+      <c r="BE145" s="6"/>
       <c r="BF145" s="6"/>
-    </row>
-    <row r="146" spans="1:58">
+      <c r="BG145" s="6"/>
+      <c r="BH145" s="6"/>
+      <c r="BJ145" s="6"/>
+    </row>
+    <row r="146" spans="1:62">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="D146" s="6"/>
@@ -12555,9 +13154,13 @@
       <c r="BB146" s="6"/>
       <c r="BC146" s="6"/>
       <c r="BD146" s="6"/>
+      <c r="BE146" s="6"/>
       <c r="BF146" s="6"/>
-    </row>
-    <row r="147" spans="1:58">
+      <c r="BG146" s="6"/>
+      <c r="BH146" s="6"/>
+      <c r="BJ146" s="6"/>
+    </row>
+    <row r="147" spans="1:62">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="D147" s="6"/>
@@ -12613,9 +13216,13 @@
       <c r="BB147" s="6"/>
       <c r="BC147" s="6"/>
       <c r="BD147" s="6"/>
+      <c r="BE147" s="6"/>
       <c r="BF147" s="6"/>
-    </row>
-    <row r="148" spans="1:58">
+      <c r="BG147" s="6"/>
+      <c r="BH147" s="6"/>
+      <c r="BJ147" s="6"/>
+    </row>
+    <row r="148" spans="1:62">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="D148" s="6"/>
@@ -12671,9 +13278,13 @@
       <c r="BB148" s="6"/>
       <c r="BC148" s="6"/>
       <c r="BD148" s="6"/>
+      <c r="BE148" s="6"/>
       <c r="BF148" s="6"/>
-    </row>
-    <row r="149" spans="1:58">
+      <c r="BG148" s="6"/>
+      <c r="BH148" s="6"/>
+      <c r="BJ148" s="6"/>
+    </row>
+    <row r="149" spans="1:62">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="D149" s="6"/>
@@ -12729,9 +13340,13 @@
       <c r="BB149" s="6"/>
       <c r="BC149" s="6"/>
       <c r="BD149" s="6"/>
+      <c r="BE149" s="6"/>
       <c r="BF149" s="6"/>
-    </row>
-    <row r="150" spans="1:58">
+      <c r="BG149" s="6"/>
+      <c r="BH149" s="6"/>
+      <c r="BJ149" s="6"/>
+    </row>
+    <row r="150" spans="1:62">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="D150" s="6"/>
@@ -12787,9 +13402,13 @@
       <c r="BB150" s="6"/>
       <c r="BC150" s="6"/>
       <c r="BD150" s="6"/>
+      <c r="BE150" s="6"/>
       <c r="BF150" s="6"/>
-    </row>
-    <row r="151" spans="1:58">
+      <c r="BG150" s="6"/>
+      <c r="BH150" s="6"/>
+      <c r="BJ150" s="6"/>
+    </row>
+    <row r="151" spans="1:62">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="D151" s="6"/>
@@ -12845,9 +13464,13 @@
       <c r="BB151" s="6"/>
       <c r="BC151" s="6"/>
       <c r="BD151" s="6"/>
+      <c r="BE151" s="6"/>
       <c r="BF151" s="6"/>
-    </row>
-    <row r="152" spans="1:58">
+      <c r="BG151" s="6"/>
+      <c r="BH151" s="6"/>
+      <c r="BJ151" s="6"/>
+    </row>
+    <row r="152" spans="1:62">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="D152" s="6"/>
@@ -12903,9 +13526,13 @@
       <c r="BB152" s="6"/>
       <c r="BC152" s="6"/>
       <c r="BD152" s="6"/>
+      <c r="BE152" s="6"/>
       <c r="BF152" s="6"/>
-    </row>
-    <row r="153" spans="1:58">
+      <c r="BG152" s="6"/>
+      <c r="BH152" s="6"/>
+      <c r="BJ152" s="6"/>
+    </row>
+    <row r="153" spans="1:62">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="D153" s="6"/>
@@ -12961,9 +13588,13 @@
       <c r="BB153" s="6"/>
       <c r="BC153" s="6"/>
       <c r="BD153" s="6"/>
+      <c r="BE153" s="6"/>
       <c r="BF153" s="6"/>
-    </row>
-    <row r="154" spans="1:58">
+      <c r="BG153" s="6"/>
+      <c r="BH153" s="6"/>
+      <c r="BJ153" s="6"/>
+    </row>
+    <row r="154" spans="1:62">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="D154" s="6"/>
@@ -13019,9 +13650,13 @@
       <c r="BB154" s="6"/>
       <c r="BC154" s="6"/>
       <c r="BD154" s="6"/>
+      <c r="BE154" s="6"/>
       <c r="BF154" s="6"/>
-    </row>
-    <row r="155" spans="1:58">
+      <c r="BG154" s="6"/>
+      <c r="BH154" s="6"/>
+      <c r="BJ154" s="6"/>
+    </row>
+    <row r="155" spans="1:62">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="D155" s="6"/>
@@ -13077,9 +13712,13 @@
       <c r="BB155" s="6"/>
       <c r="BC155" s="6"/>
       <c r="BD155" s="6"/>
+      <c r="BE155" s="6"/>
       <c r="BF155" s="6"/>
-    </row>
-    <row r="156" spans="1:58">
+      <c r="BG155" s="6"/>
+      <c r="BH155" s="6"/>
+      <c r="BJ155" s="6"/>
+    </row>
+    <row r="156" spans="1:62">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="D156" s="6"/>
@@ -13135,9 +13774,13 @@
       <c r="BB156" s="6"/>
       <c r="BC156" s="6"/>
       <c r="BD156" s="6"/>
+      <c r="BE156" s="6"/>
       <c r="BF156" s="6"/>
-    </row>
-    <row r="157" spans="1:58">
+      <c r="BG156" s="6"/>
+      <c r="BH156" s="6"/>
+      <c r="BJ156" s="6"/>
+    </row>
+    <row r="157" spans="1:62">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="D157" s="6"/>
@@ -13193,9 +13836,13 @@
       <c r="BB157" s="6"/>
       <c r="BC157" s="6"/>
       <c r="BD157" s="6"/>
+      <c r="BE157" s="6"/>
       <c r="BF157" s="6"/>
-    </row>
-    <row r="158" spans="1:58">
+      <c r="BG157" s="6"/>
+      <c r="BH157" s="6"/>
+      <c r="BJ157" s="6"/>
+    </row>
+    <row r="158" spans="1:62">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="D158" s="6"/>
@@ -13251,9 +13898,13 @@
       <c r="BB158" s="6"/>
       <c r="BC158" s="6"/>
       <c r="BD158" s="6"/>
+      <c r="BE158" s="6"/>
       <c r="BF158" s="6"/>
-    </row>
-    <row r="159" spans="1:58">
+      <c r="BG158" s="6"/>
+      <c r="BH158" s="6"/>
+      <c r="BJ158" s="6"/>
+    </row>
+    <row r="159" spans="1:62">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="D159" s="6"/>
@@ -13309,9 +13960,13 @@
       <c r="BB159" s="6"/>
       <c r="BC159" s="6"/>
       <c r="BD159" s="6"/>
+      <c r="BE159" s="6"/>
       <c r="BF159" s="6"/>
-    </row>
-    <row r="160" spans="1:58">
+      <c r="BG159" s="6"/>
+      <c r="BH159" s="6"/>
+      <c r="BJ159" s="6"/>
+    </row>
+    <row r="160" spans="1:62">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="D160" s="6"/>
@@ -13367,9 +14022,13 @@
       <c r="BB160" s="6"/>
       <c r="BC160" s="6"/>
       <c r="BD160" s="6"/>
+      <c r="BE160" s="6"/>
       <c r="BF160" s="6"/>
-    </row>
-    <row r="161" spans="1:58">
+      <c r="BG160" s="6"/>
+      <c r="BH160" s="6"/>
+      <c r="BJ160" s="6"/>
+    </row>
+    <row r="161" spans="1:62">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="D161" s="6"/>
@@ -13425,9 +14084,13 @@
       <c r="BB161" s="6"/>
       <c r="BC161" s="6"/>
       <c r="BD161" s="6"/>
+      <c r="BE161" s="6"/>
       <c r="BF161" s="6"/>
-    </row>
-    <row r="162" spans="1:58">
+      <c r="BG161" s="6"/>
+      <c r="BH161" s="6"/>
+      <c r="BJ161" s="6"/>
+    </row>
+    <row r="162" spans="1:62">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="D162" s="6"/>
@@ -13483,9 +14146,13 @@
       <c r="BB162" s="6"/>
       <c r="BC162" s="6"/>
       <c r="BD162" s="6"/>
+      <c r="BE162" s="6"/>
       <c r="BF162" s="6"/>
-    </row>
-    <row r="163" spans="1:58">
+      <c r="BG162" s="6"/>
+      <c r="BH162" s="6"/>
+      <c r="BJ162" s="6"/>
+    </row>
+    <row r="163" spans="1:62">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="D163" s="6"/>
@@ -13541,9 +14208,13 @@
       <c r="BB163" s="6"/>
       <c r="BC163" s="6"/>
       <c r="BD163" s="6"/>
+      <c r="BE163" s="6"/>
       <c r="BF163" s="6"/>
-    </row>
-    <row r="164" spans="1:58">
+      <c r="BG163" s="6"/>
+      <c r="BH163" s="6"/>
+      <c r="BJ163" s="6"/>
+    </row>
+    <row r="164" spans="1:62">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="D164" s="6"/>
@@ -13599,9 +14270,13 @@
       <c r="BB164" s="6"/>
       <c r="BC164" s="6"/>
       <c r="BD164" s="6"/>
+      <c r="BE164" s="6"/>
       <c r="BF164" s="6"/>
-    </row>
-    <row r="165" spans="1:58">
+      <c r="BG164" s="6"/>
+      <c r="BH164" s="6"/>
+      <c r="BJ164" s="6"/>
+    </row>
+    <row r="165" spans="1:62">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="D165" s="6"/>
@@ -13657,9 +14332,13 @@
       <c r="BB165" s="6"/>
       <c r="BC165" s="6"/>
       <c r="BD165" s="6"/>
+      <c r="BE165" s="6"/>
       <c r="BF165" s="6"/>
-    </row>
-    <row r="166" spans="1:58">
+      <c r="BG165" s="6"/>
+      <c r="BH165" s="6"/>
+      <c r="BJ165" s="6"/>
+    </row>
+    <row r="166" spans="1:62">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="D166" s="6"/>
@@ -13715,9 +14394,13 @@
       <c r="BB166" s="6"/>
       <c r="BC166" s="6"/>
       <c r="BD166" s="6"/>
+      <c r="BE166" s="6"/>
       <c r="BF166" s="6"/>
-    </row>
-    <row r="167" spans="1:58">
+      <c r="BG166" s="6"/>
+      <c r="BH166" s="6"/>
+      <c r="BJ166" s="6"/>
+    </row>
+    <row r="167" spans="1:62">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="D167" s="6"/>
@@ -13773,9 +14456,13 @@
       <c r="BB167" s="6"/>
       <c r="BC167" s="6"/>
       <c r="BD167" s="6"/>
+      <c r="BE167" s="6"/>
       <c r="BF167" s="6"/>
-    </row>
-    <row r="168" spans="1:58">
+      <c r="BG167" s="6"/>
+      <c r="BH167" s="6"/>
+      <c r="BJ167" s="6"/>
+    </row>
+    <row r="168" spans="1:62">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="D168" s="6"/>
@@ -13831,9 +14518,13 @@
       <c r="BB168" s="6"/>
       <c r="BC168" s="6"/>
       <c r="BD168" s="6"/>
+      <c r="BE168" s="6"/>
       <c r="BF168" s="6"/>
-    </row>
-    <row r="169" spans="1:58">
+      <c r="BG168" s="6"/>
+      <c r="BH168" s="6"/>
+      <c r="BJ168" s="6"/>
+    </row>
+    <row r="169" spans="1:62">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="D169" s="6"/>
@@ -13889,9 +14580,13 @@
       <c r="BB169" s="6"/>
       <c r="BC169" s="6"/>
       <c r="BD169" s="6"/>
+      <c r="BE169" s="6"/>
       <c r="BF169" s="6"/>
-    </row>
-    <row r="170" spans="1:58">
+      <c r="BG169" s="6"/>
+      <c r="BH169" s="6"/>
+      <c r="BJ169" s="6"/>
+    </row>
+    <row r="170" spans="1:62">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="D170" s="6"/>
@@ -13947,9 +14642,13 @@
       <c r="BB170" s="6"/>
       <c r="BC170" s="6"/>
       <c r="BD170" s="6"/>
+      <c r="BE170" s="6"/>
       <c r="BF170" s="6"/>
-    </row>
-    <row r="171" spans="1:58">
+      <c r="BG170" s="6"/>
+      <c r="BH170" s="6"/>
+      <c r="BJ170" s="6"/>
+    </row>
+    <row r="171" spans="1:62">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="D171" s="6"/>
@@ -14005,9 +14704,13 @@
       <c r="BB171" s="6"/>
       <c r="BC171" s="6"/>
       <c r="BD171" s="6"/>
+      <c r="BE171" s="6"/>
       <c r="BF171" s="6"/>
-    </row>
-    <row r="172" spans="1:58">
+      <c r="BG171" s="6"/>
+      <c r="BH171" s="6"/>
+      <c r="BJ171" s="6"/>
+    </row>
+    <row r="172" spans="1:62">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="D172" s="6"/>
@@ -14063,9 +14766,13 @@
       <c r="BB172" s="6"/>
       <c r="BC172" s="6"/>
       <c r="BD172" s="6"/>
+      <c r="BE172" s="6"/>
       <c r="BF172" s="6"/>
-    </row>
-    <row r="173" spans="1:58">
+      <c r="BG172" s="6"/>
+      <c r="BH172" s="6"/>
+      <c r="BJ172" s="6"/>
+    </row>
+    <row r="173" spans="1:62">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="D173" s="6"/>
@@ -14121,9 +14828,13 @@
       <c r="BB173" s="6"/>
       <c r="BC173" s="6"/>
       <c r="BD173" s="6"/>
+      <c r="BE173" s="6"/>
       <c r="BF173" s="6"/>
-    </row>
-    <row r="174" spans="1:58">
+      <c r="BG173" s="6"/>
+      <c r="BH173" s="6"/>
+      <c r="BJ173" s="6"/>
+    </row>
+    <row r="174" spans="1:62">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="D174" s="6"/>
@@ -14179,9 +14890,13 @@
       <c r="BB174" s="6"/>
       <c r="BC174" s="6"/>
       <c r="BD174" s="6"/>
+      <c r="BE174" s="6"/>
       <c r="BF174" s="6"/>
-    </row>
-    <row r="175" spans="1:58">
+      <c r="BG174" s="6"/>
+      <c r="BH174" s="6"/>
+      <c r="BJ174" s="6"/>
+    </row>
+    <row r="175" spans="1:62">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="D175" s="6"/>
@@ -14237,9 +14952,13 @@
       <c r="BB175" s="6"/>
       <c r="BC175" s="6"/>
       <c r="BD175" s="6"/>
+      <c r="BE175" s="6"/>
       <c r="BF175" s="6"/>
-    </row>
-    <row r="176" spans="1:58">
+      <c r="BG175" s="6"/>
+      <c r="BH175" s="6"/>
+      <c r="BJ175" s="6"/>
+    </row>
+    <row r="176" spans="1:62">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="D176" s="6"/>
@@ -14295,9 +15014,13 @@
       <c r="BB176" s="6"/>
       <c r="BC176" s="6"/>
       <c r="BD176" s="6"/>
+      <c r="BE176" s="6"/>
       <c r="BF176" s="6"/>
-    </row>
-    <row r="177" spans="1:58">
+      <c r="BG176" s="6"/>
+      <c r="BH176" s="6"/>
+      <c r="BJ176" s="6"/>
+    </row>
+    <row r="177" spans="1:62">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="D177" s="6"/>
@@ -14353,9 +15076,13 @@
       <c r="BB177" s="6"/>
       <c r="BC177" s="6"/>
       <c r="BD177" s="6"/>
+      <c r="BE177" s="6"/>
       <c r="BF177" s="6"/>
-    </row>
-    <row r="178" spans="1:58">
+      <c r="BG177" s="6"/>
+      <c r="BH177" s="6"/>
+      <c r="BJ177" s="6"/>
+    </row>
+    <row r="178" spans="1:62">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="D178" s="6"/>
@@ -14411,9 +15138,13 @@
       <c r="BB178" s="6"/>
       <c r="BC178" s="6"/>
       <c r="BD178" s="6"/>
+      <c r="BE178" s="6"/>
       <c r="BF178" s="6"/>
-    </row>
-    <row r="179" spans="1:58">
+      <c r="BG178" s="6"/>
+      <c r="BH178" s="6"/>
+      <c r="BJ178" s="6"/>
+    </row>
+    <row r="179" spans="1:62">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="D179" s="6"/>
@@ -14469,9 +15200,13 @@
       <c r="BB179" s="6"/>
       <c r="BC179" s="6"/>
       <c r="BD179" s="6"/>
+      <c r="BE179" s="6"/>
       <c r="BF179" s="6"/>
-    </row>
-    <row r="180" spans="1:58">
+      <c r="BG179" s="6"/>
+      <c r="BH179" s="6"/>
+      <c r="BJ179" s="6"/>
+    </row>
+    <row r="180" spans="1:62">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="D180" s="6"/>
@@ -14527,9 +15262,13 @@
       <c r="BB180" s="6"/>
       <c r="BC180" s="6"/>
       <c r="BD180" s="6"/>
+      <c r="BE180" s="6"/>
       <c r="BF180" s="6"/>
-    </row>
-    <row r="181" spans="1:58">
+      <c r="BG180" s="6"/>
+      <c r="BH180" s="6"/>
+      <c r="BJ180" s="6"/>
+    </row>
+    <row r="181" spans="1:62">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="D181" s="6"/>
@@ -14585,9 +15324,13 @@
       <c r="BB181" s="6"/>
       <c r="BC181" s="6"/>
       <c r="BD181" s="6"/>
+      <c r="BE181" s="6"/>
       <c r="BF181" s="6"/>
-    </row>
-    <row r="182" spans="1:58">
+      <c r="BG181" s="6"/>
+      <c r="BH181" s="6"/>
+      <c r="BJ181" s="6"/>
+    </row>
+    <row r="182" spans="1:62">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="D182" s="6"/>
@@ -14643,9 +15386,13 @@
       <c r="BB182" s="6"/>
       <c r="BC182" s="6"/>
       <c r="BD182" s="6"/>
+      <c r="BE182" s="6"/>
       <c r="BF182" s="6"/>
-    </row>
-    <row r="183" spans="1:58">
+      <c r="BG182" s="6"/>
+      <c r="BH182" s="6"/>
+      <c r="BJ182" s="6"/>
+    </row>
+    <row r="183" spans="1:62">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="D183" s="6"/>
@@ -14701,9 +15448,13 @@
       <c r="BB183" s="6"/>
       <c r="BC183" s="6"/>
       <c r="BD183" s="6"/>
+      <c r="BE183" s="6"/>
       <c r="BF183" s="6"/>
-    </row>
-    <row r="184" spans="1:58">
+      <c r="BG183" s="6"/>
+      <c r="BH183" s="6"/>
+      <c r="BJ183" s="6"/>
+    </row>
+    <row r="184" spans="1:62">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="D184" s="6"/>
@@ -14759,9 +15510,13 @@
       <c r="BB184" s="6"/>
       <c r="BC184" s="6"/>
       <c r="BD184" s="6"/>
+      <c r="BE184" s="6"/>
       <c r="BF184" s="6"/>
-    </row>
-    <row r="185" spans="1:58">
+      <c r="BG184" s="6"/>
+      <c r="BH184" s="6"/>
+      <c r="BJ184" s="6"/>
+    </row>
+    <row r="185" spans="1:62">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="D185" s="6"/>
@@ -14817,9 +15572,13 @@
       <c r="BB185" s="6"/>
       <c r="BC185" s="6"/>
       <c r="BD185" s="6"/>
+      <c r="BE185" s="6"/>
       <c r="BF185" s="6"/>
-    </row>
-    <row r="186" spans="1:58">
+      <c r="BG185" s="6"/>
+      <c r="BH185" s="6"/>
+      <c r="BJ185" s="6"/>
+    </row>
+    <row r="186" spans="1:62">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="D186" s="6"/>
@@ -14875,9 +15634,13 @@
       <c r="BB186" s="6"/>
       <c r="BC186" s="6"/>
       <c r="BD186" s="6"/>
+      <c r="BE186" s="6"/>
       <c r="BF186" s="6"/>
-    </row>
-    <row r="187" spans="1:58">
+      <c r="BG186" s="6"/>
+      <c r="BH186" s="6"/>
+      <c r="BJ186" s="6"/>
+    </row>
+    <row r="187" spans="1:62">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="D187" s="6"/>
@@ -14933,9 +15696,13 @@
       <c r="BB187" s="6"/>
       <c r="BC187" s="6"/>
       <c r="BD187" s="6"/>
+      <c r="BE187" s="6"/>
       <c r="BF187" s="6"/>
-    </row>
-    <row r="188" spans="1:58">
+      <c r="BG187" s="6"/>
+      <c r="BH187" s="6"/>
+      <c r="BJ187" s="6"/>
+    </row>
+    <row r="188" spans="1:62">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="D188" s="6"/>
@@ -14991,9 +15758,13 @@
       <c r="BB188" s="6"/>
       <c r="BC188" s="6"/>
       <c r="BD188" s="6"/>
+      <c r="BE188" s="6"/>
       <c r="BF188" s="6"/>
-    </row>
-    <row r="189" spans="1:58">
+      <c r="BG188" s="6"/>
+      <c r="BH188" s="6"/>
+      <c r="BJ188" s="6"/>
+    </row>
+    <row r="189" spans="1:62">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="D189" s="6"/>
@@ -15049,9 +15820,13 @@
       <c r="BB189" s="6"/>
       <c r="BC189" s="6"/>
       <c r="BD189" s="6"/>
+      <c r="BE189" s="6"/>
       <c r="BF189" s="6"/>
-    </row>
-    <row r="190" spans="1:58">
+      <c r="BG189" s="6"/>
+      <c r="BH189" s="6"/>
+      <c r="BJ189" s="6"/>
+    </row>
+    <row r="190" spans="1:62">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="D190" s="6"/>
@@ -15107,9 +15882,13 @@
       <c r="BB190" s="6"/>
       <c r="BC190" s="6"/>
       <c r="BD190" s="6"/>
+      <c r="BE190" s="6"/>
       <c r="BF190" s="6"/>
-    </row>
-    <row r="191" spans="1:58">
+      <c r="BG190" s="6"/>
+      <c r="BH190" s="6"/>
+      <c r="BJ190" s="6"/>
+    </row>
+    <row r="191" spans="1:62">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="D191" s="6"/>
@@ -15165,9 +15944,13 @@
       <c r="BB191" s="6"/>
       <c r="BC191" s="6"/>
       <c r="BD191" s="6"/>
+      <c r="BE191" s="6"/>
       <c r="BF191" s="6"/>
-    </row>
-    <row r="192" spans="1:58">
+      <c r="BG191" s="6"/>
+      <c r="BH191" s="6"/>
+      <c r="BJ191" s="6"/>
+    </row>
+    <row r="192" spans="1:62">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="D192" s="6"/>
@@ -15223,9 +16006,13 @@
       <c r="BB192" s="6"/>
       <c r="BC192" s="6"/>
       <c r="BD192" s="6"/>
+      <c r="BE192" s="6"/>
       <c r="BF192" s="6"/>
-    </row>
-    <row r="193" spans="1:58">
+      <c r="BG192" s="6"/>
+      <c r="BH192" s="6"/>
+      <c r="BJ192" s="6"/>
+    </row>
+    <row r="193" spans="1:62">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="D193" s="6"/>
@@ -15281,9 +16068,13 @@
       <c r="BB193" s="6"/>
       <c r="BC193" s="6"/>
       <c r="BD193" s="6"/>
+      <c r="BE193" s="6"/>
       <c r="BF193" s="6"/>
-    </row>
-    <row r="194" spans="1:58">
+      <c r="BG193" s="6"/>
+      <c r="BH193" s="6"/>
+      <c r="BJ193" s="6"/>
+    </row>
+    <row r="194" spans="1:62">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="D194" s="6"/>
@@ -15339,9 +16130,13 @@
       <c r="BB194" s="6"/>
       <c r="BC194" s="6"/>
       <c r="BD194" s="6"/>
+      <c r="BE194" s="6"/>
       <c r="BF194" s="6"/>
-    </row>
-    <row r="195" spans="1:58">
+      <c r="BG194" s="6"/>
+      <c r="BH194" s="6"/>
+      <c r="BJ194" s="6"/>
+    </row>
+    <row r="195" spans="1:62">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="D195" s="6"/>
@@ -15397,9 +16192,13 @@
       <c r="BB195" s="6"/>
       <c r="BC195" s="6"/>
       <c r="BD195" s="6"/>
+      <c r="BE195" s="6"/>
       <c r="BF195" s="6"/>
-    </row>
-    <row r="196" spans="1:58">
+      <c r="BG195" s="6"/>
+      <c r="BH195" s="6"/>
+      <c r="BJ195" s="6"/>
+    </row>
+    <row r="196" spans="1:62">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="D196" s="6"/>
@@ -15455,9 +16254,13 @@
       <c r="BB196" s="6"/>
       <c r="BC196" s="6"/>
       <c r="BD196" s="6"/>
+      <c r="BE196" s="6"/>
       <c r="BF196" s="6"/>
-    </row>
-    <row r="197" spans="1:58">
+      <c r="BG196" s="6"/>
+      <c r="BH196" s="6"/>
+      <c r="BJ196" s="6"/>
+    </row>
+    <row r="197" spans="1:62">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="D197" s="6"/>
@@ -15513,9 +16316,13 @@
       <c r="BB197" s="6"/>
       <c r="BC197" s="6"/>
       <c r="BD197" s="6"/>
+      <c r="BE197" s="6"/>
       <c r="BF197" s="6"/>
-    </row>
-    <row r="198" spans="1:58">
+      <c r="BG197" s="6"/>
+      <c r="BH197" s="6"/>
+      <c r="BJ197" s="6"/>
+    </row>
+    <row r="198" spans="1:62">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="D198" s="6"/>
@@ -15571,9 +16378,13 @@
       <c r="BB198" s="6"/>
       <c r="BC198" s="6"/>
       <c r="BD198" s="6"/>
+      <c r="BE198" s="6"/>
       <c r="BF198" s="6"/>
-    </row>
-    <row r="199" spans="1:58">
+      <c r="BG198" s="6"/>
+      <c r="BH198" s="6"/>
+      <c r="BJ198" s="6"/>
+    </row>
+    <row r="199" spans="1:62">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="D199" s="6"/>
@@ -15629,9 +16440,13 @@
       <c r="BB199" s="6"/>
       <c r="BC199" s="6"/>
       <c r="BD199" s="6"/>
+      <c r="BE199" s="6"/>
       <c r="BF199" s="6"/>
-    </row>
-    <row r="200" spans="1:58">
+      <c r="BG199" s="6"/>
+      <c r="BH199" s="6"/>
+      <c r="BJ199" s="6"/>
+    </row>
+    <row r="200" spans="1:62">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="D200" s="6"/>
@@ -15687,9 +16502,13 @@
       <c r="BB200" s="6"/>
       <c r="BC200" s="6"/>
       <c r="BD200" s="6"/>
+      <c r="BE200" s="6"/>
       <c r="BF200" s="6"/>
-    </row>
-    <row r="201" spans="1:58">
+      <c r="BG200" s="6"/>
+      <c r="BH200" s="6"/>
+      <c r="BJ200" s="6"/>
+    </row>
+    <row r="201" spans="1:62">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="D201" s="6"/>
@@ -15745,9 +16564,13 @@
       <c r="BB201" s="6"/>
       <c r="BC201" s="6"/>
       <c r="BD201" s="6"/>
+      <c r="BE201" s="6"/>
       <c r="BF201" s="6"/>
-    </row>
-    <row r="202" spans="1:58">
+      <c r="BG201" s="6"/>
+      <c r="BH201" s="6"/>
+      <c r="BJ201" s="6"/>
+    </row>
+    <row r="202" spans="1:62">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="D202" s="6"/>
@@ -15803,9 +16626,13 @@
       <c r="BB202" s="6"/>
       <c r="BC202" s="6"/>
       <c r="BD202" s="6"/>
+      <c r="BE202" s="6"/>
       <c r="BF202" s="6"/>
-    </row>
-    <row r="203" spans="1:58">
+      <c r="BG202" s="6"/>
+      <c r="BH202" s="6"/>
+      <c r="BJ202" s="6"/>
+    </row>
+    <row r="203" spans="1:62">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="D203" s="6"/>
@@ -15861,9 +16688,13 @@
       <c r="BB203" s="6"/>
       <c r="BC203" s="6"/>
       <c r="BD203" s="6"/>
+      <c r="BE203" s="6"/>
       <c r="BF203" s="6"/>
-    </row>
-    <row r="204" spans="1:58">
+      <c r="BG203" s="6"/>
+      <c r="BH203" s="6"/>
+      <c r="BJ203" s="6"/>
+    </row>
+    <row r="204" spans="1:62">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="D204" s="6"/>
@@ -15919,9 +16750,13 @@
       <c r="BB204" s="6"/>
       <c r="BC204" s="6"/>
       <c r="BD204" s="6"/>
+      <c r="BE204" s="6"/>
       <c r="BF204" s="6"/>
-    </row>
-    <row r="205" spans="1:58">
+      <c r="BG204" s="6"/>
+      <c r="BH204" s="6"/>
+      <c r="BJ204" s="6"/>
+    </row>
+    <row r="205" spans="1:62">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="D205" s="6"/>
@@ -15977,9 +16812,13 @@
       <c r="BB205" s="6"/>
       <c r="BC205" s="6"/>
       <c r="BD205" s="6"/>
+      <c r="BE205" s="6"/>
       <c r="BF205" s="6"/>
-    </row>
-    <row r="206" spans="1:58">
+      <c r="BG205" s="6"/>
+      <c r="BH205" s="6"/>
+      <c r="BJ205" s="6"/>
+    </row>
+    <row r="206" spans="1:62">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="D206" s="6"/>
@@ -16035,9 +16874,13 @@
       <c r="BB206" s="6"/>
       <c r="BC206" s="6"/>
       <c r="BD206" s="6"/>
+      <c r="BE206" s="6"/>
       <c r="BF206" s="6"/>
-    </row>
-    <row r="207" spans="1:58">
+      <c r="BG206" s="6"/>
+      <c r="BH206" s="6"/>
+      <c r="BJ206" s="6"/>
+    </row>
+    <row r="207" spans="1:62">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="D207" s="6"/>
@@ -16093,9 +16936,13 @@
       <c r="BB207" s="6"/>
       <c r="BC207" s="6"/>
       <c r="BD207" s="6"/>
+      <c r="BE207" s="6"/>
       <c r="BF207" s="6"/>
-    </row>
-    <row r="208" spans="1:58">
+      <c r="BG207" s="6"/>
+      <c r="BH207" s="6"/>
+      <c r="BJ207" s="6"/>
+    </row>
+    <row r="208" spans="1:62">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="D208" s="6"/>
@@ -16151,9 +16998,13 @@
       <c r="BB208" s="6"/>
       <c r="BC208" s="6"/>
       <c r="BD208" s="6"/>
+      <c r="BE208" s="6"/>
       <c r="BF208" s="6"/>
-    </row>
-    <row r="209" spans="1:58">
+      <c r="BG208" s="6"/>
+      <c r="BH208" s="6"/>
+      <c r="BJ208" s="6"/>
+    </row>
+    <row r="209" spans="1:62">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="D209" s="6"/>
@@ -16209,9 +17060,13 @@
       <c r="BB209" s="6"/>
       <c r="BC209" s="6"/>
       <c r="BD209" s="6"/>
+      <c r="BE209" s="6"/>
       <c r="BF209" s="6"/>
-    </row>
-    <row r="210" spans="1:58">
+      <c r="BG209" s="6"/>
+      <c r="BH209" s="6"/>
+      <c r="BJ209" s="6"/>
+    </row>
+    <row r="210" spans="1:62">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="D210" s="6"/>
@@ -16267,9 +17122,13 @@
       <c r="BB210" s="6"/>
       <c r="BC210" s="6"/>
       <c r="BD210" s="6"/>
+      <c r="BE210" s="6"/>
       <c r="BF210" s="6"/>
-    </row>
-    <row r="211" spans="1:58">
+      <c r="BG210" s="6"/>
+      <c r="BH210" s="6"/>
+      <c r="BJ210" s="6"/>
+    </row>
+    <row r="211" spans="1:62">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="D211" s="6"/>
@@ -16325,9 +17184,13 @@
       <c r="BB211" s="6"/>
       <c r="BC211" s="6"/>
       <c r="BD211" s="6"/>
+      <c r="BE211" s="6"/>
       <c r="BF211" s="6"/>
-    </row>
-    <row r="212" spans="1:58">
+      <c r="BG211" s="6"/>
+      <c r="BH211" s="6"/>
+      <c r="BJ211" s="6"/>
+    </row>
+    <row r="212" spans="1:62">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="D212" s="6"/>
@@ -16383,9 +17246,13 @@
       <c r="BB212" s="6"/>
       <c r="BC212" s="6"/>
       <c r="BD212" s="6"/>
+      <c r="BE212" s="6"/>
       <c r="BF212" s="6"/>
-    </row>
-    <row r="213" spans="1:58">
+      <c r="BG212" s="6"/>
+      <c r="BH212" s="6"/>
+      <c r="BJ212" s="6"/>
+    </row>
+    <row r="213" spans="1:62">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="D213" s="6"/>
@@ -16441,9 +17308,13 @@
       <c r="BB213" s="6"/>
       <c r="BC213" s="6"/>
       <c r="BD213" s="6"/>
+      <c r="BE213" s="6"/>
       <c r="BF213" s="6"/>
-    </row>
-    <row r="214" spans="1:58">
+      <c r="BG213" s="6"/>
+      <c r="BH213" s="6"/>
+      <c r="BJ213" s="6"/>
+    </row>
+    <row r="214" spans="1:62">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="D214" s="6"/>
@@ -16499,9 +17370,13 @@
       <c r="BB214" s="6"/>
       <c r="BC214" s="6"/>
       <c r="BD214" s="6"/>
+      <c r="BE214" s="6"/>
       <c r="BF214" s="6"/>
-    </row>
-    <row r="215" spans="1:58">
+      <c r="BG214" s="6"/>
+      <c r="BH214" s="6"/>
+      <c r="BJ214" s="6"/>
+    </row>
+    <row r="215" spans="1:62">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="D215" s="6"/>
@@ -16557,9 +17432,13 @@
       <c r="BB215" s="6"/>
       <c r="BC215" s="6"/>
       <c r="BD215" s="6"/>
+      <c r="BE215" s="6"/>
       <c r="BF215" s="6"/>
-    </row>
-    <row r="216" spans="1:58">
+      <c r="BG215" s="6"/>
+      <c r="BH215" s="6"/>
+      <c r="BJ215" s="6"/>
+    </row>
+    <row r="216" spans="1:62">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="D216" s="6"/>
@@ -16615,9 +17494,13 @@
       <c r="BB216" s="6"/>
       <c r="BC216" s="6"/>
       <c r="BD216" s="6"/>
+      <c r="BE216" s="6"/>
       <c r="BF216" s="6"/>
-    </row>
-    <row r="217" spans="1:58">
+      <c r="BG216" s="6"/>
+      <c r="BH216" s="6"/>
+      <c r="BJ216" s="6"/>
+    </row>
+    <row r="217" spans="1:62">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="D217" s="6"/>
@@ -16673,9 +17556,13 @@
       <c r="BB217" s="6"/>
       <c r="BC217" s="6"/>
       <c r="BD217" s="6"/>
+      <c r="BE217" s="6"/>
       <c r="BF217" s="6"/>
-    </row>
-    <row r="218" spans="1:58">
+      <c r="BG217" s="6"/>
+      <c r="BH217" s="6"/>
+      <c r="BJ217" s="6"/>
+    </row>
+    <row r="218" spans="1:62">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="D218" s="6"/>
@@ -16731,9 +17618,13 @@
       <c r="BB218" s="6"/>
       <c r="BC218" s="6"/>
       <c r="BD218" s="6"/>
+      <c r="BE218" s="6"/>
       <c r="BF218" s="6"/>
-    </row>
-    <row r="219" spans="1:58">
+      <c r="BG218" s="6"/>
+      <c r="BH218" s="6"/>
+      <c r="BJ218" s="6"/>
+    </row>
+    <row r="219" spans="1:62">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
@@ -16789,9 +17680,13 @@
       <c r="BB219" s="6"/>
       <c r="BC219" s="6"/>
       <c r="BD219" s="6"/>
+      <c r="BE219" s="6"/>
       <c r="BF219" s="6"/>
-    </row>
-    <row r="220" spans="1:58">
+      <c r="BG219" s="6"/>
+      <c r="BH219" s="6"/>
+      <c r="BJ219" s="6"/>
+    </row>
+    <row r="220" spans="1:62">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
@@ -16847,9 +17742,13 @@
       <c r="BB220" s="6"/>
       <c r="BC220" s="6"/>
       <c r="BD220" s="6"/>
+      <c r="BE220" s="6"/>
       <c r="BF220" s="6"/>
-    </row>
-    <row r="221" spans="1:58">
+      <c r="BG220" s="6"/>
+      <c r="BH220" s="6"/>
+      <c r="BJ220" s="6"/>
+    </row>
+    <row r="221" spans="1:62">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="D221" s="6"/>
@@ -16905,9 +17804,13 @@
       <c r="BB221" s="6"/>
       <c r="BC221" s="6"/>
       <c r="BD221" s="6"/>
+      <c r="BE221" s="6"/>
       <c r="BF221" s="6"/>
-    </row>
-    <row r="222" spans="1:58">
+      <c r="BG221" s="6"/>
+      <c r="BH221" s="6"/>
+      <c r="BJ221" s="6"/>
+    </row>
+    <row r="222" spans="1:62">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="D222" s="6"/>
@@ -16963,9 +17866,13 @@
       <c r="BB222" s="6"/>
       <c r="BC222" s="6"/>
       <c r="BD222" s="6"/>
+      <c r="BE222" s="6"/>
       <c r="BF222" s="6"/>
-    </row>
-    <row r="223" spans="1:58">
+      <c r="BG222" s="6"/>
+      <c r="BH222" s="6"/>
+      <c r="BJ222" s="6"/>
+    </row>
+    <row r="223" spans="1:62">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="D223" s="6"/>
@@ -17021,9 +17928,13 @@
       <c r="BB223" s="6"/>
       <c r="BC223" s="6"/>
       <c r="BD223" s="6"/>
+      <c r="BE223" s="6"/>
       <c r="BF223" s="6"/>
-    </row>
-    <row r="224" spans="1:58">
+      <c r="BG223" s="6"/>
+      <c r="BH223" s="6"/>
+      <c r="BJ223" s="6"/>
+    </row>
+    <row r="224" spans="1:62">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="D224" s="6"/>
@@ -17079,9 +17990,13 @@
       <c r="BB224" s="6"/>
       <c r="BC224" s="6"/>
       <c r="BD224" s="6"/>
+      <c r="BE224" s="6"/>
       <c r="BF224" s="6"/>
-    </row>
-    <row r="225" spans="1:58">
+      <c r="BG224" s="6"/>
+      <c r="BH224" s="6"/>
+      <c r="BJ224" s="6"/>
+    </row>
+    <row r="225" spans="1:62">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="D225" s="6"/>
@@ -17137,9 +18052,13 @@
       <c r="BB225" s="6"/>
       <c r="BC225" s="6"/>
       <c r="BD225" s="6"/>
+      <c r="BE225" s="6"/>
       <c r="BF225" s="6"/>
-    </row>
-    <row r="226" spans="1:58">
+      <c r="BG225" s="6"/>
+      <c r="BH225" s="6"/>
+      <c r="BJ225" s="6"/>
+    </row>
+    <row r="226" spans="1:62">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="D226" s="6"/>
@@ -17195,9 +18114,13 @@
       <c r="BB226" s="6"/>
       <c r="BC226" s="6"/>
       <c r="BD226" s="6"/>
+      <c r="BE226" s="6"/>
       <c r="BF226" s="6"/>
-    </row>
-    <row r="227" spans="1:58">
+      <c r="BG226" s="6"/>
+      <c r="BH226" s="6"/>
+      <c r="BJ226" s="6"/>
+    </row>
+    <row r="227" spans="1:62">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="D227" s="6"/>
@@ -17253,9 +18176,13 @@
       <c r="BB227" s="6"/>
       <c r="BC227" s="6"/>
       <c r="BD227" s="6"/>
+      <c r="BE227" s="6"/>
       <c r="BF227" s="6"/>
-    </row>
-    <row r="228" spans="1:58">
+      <c r="BG227" s="6"/>
+      <c r="BH227" s="6"/>
+      <c r="BJ227" s="6"/>
+    </row>
+    <row r="228" spans="1:62">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="D228" s="6"/>
@@ -17311,9 +18238,13 @@
       <c r="BB228" s="6"/>
       <c r="BC228" s="6"/>
       <c r="BD228" s="6"/>
+      <c r="BE228" s="6"/>
       <c r="BF228" s="6"/>
-    </row>
-    <row r="229" spans="1:58">
+      <c r="BG228" s="6"/>
+      <c r="BH228" s="6"/>
+      <c r="BJ228" s="6"/>
+    </row>
+    <row r="229" spans="1:62">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="D229" s="6"/>
@@ -17369,9 +18300,13 @@
       <c r="BB229" s="6"/>
       <c r="BC229" s="6"/>
       <c r="BD229" s="6"/>
+      <c r="BE229" s="6"/>
       <c r="BF229" s="6"/>
-    </row>
-    <row r="230" spans="1:58">
+      <c r="BG229" s="6"/>
+      <c r="BH229" s="6"/>
+      <c r="BJ229" s="6"/>
+    </row>
+    <row r="230" spans="1:62">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="D230" s="6"/>
@@ -17427,9 +18362,13 @@
       <c r="BB230" s="6"/>
       <c r="BC230" s="6"/>
       <c r="BD230" s="6"/>
+      <c r="BE230" s="6"/>
       <c r="BF230" s="6"/>
-    </row>
-    <row r="231" spans="1:58">
+      <c r="BG230" s="6"/>
+      <c r="BH230" s="6"/>
+      <c r="BJ230" s="6"/>
+    </row>
+    <row r="231" spans="1:62">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="D231" s="6"/>
@@ -17485,9 +18424,13 @@
       <c r="BB231" s="6"/>
       <c r="BC231" s="6"/>
       <c r="BD231" s="6"/>
+      <c r="BE231" s="6"/>
       <c r="BF231" s="6"/>
-    </row>
-    <row r="232" spans="1:58">
+      <c r="BG231" s="6"/>
+      <c r="BH231" s="6"/>
+      <c r="BJ231" s="6"/>
+    </row>
+    <row r="232" spans="1:62">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="D232" s="6"/>
@@ -17543,9 +18486,13 @@
       <c r="BB232" s="6"/>
       <c r="BC232" s="6"/>
       <c r="BD232" s="6"/>
+      <c r="BE232" s="6"/>
       <c r="BF232" s="6"/>
-    </row>
-    <row r="233" spans="1:58">
+      <c r="BG232" s="6"/>
+      <c r="BH232" s="6"/>
+      <c r="BJ232" s="6"/>
+    </row>
+    <row r="233" spans="1:62">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="D233" s="6"/>
@@ -17601,9 +18548,13 @@
       <c r="BB233" s="6"/>
       <c r="BC233" s="6"/>
       <c r="BD233" s="6"/>
+      <c r="BE233" s="6"/>
       <c r="BF233" s="6"/>
-    </row>
-    <row r="234" spans="1:58">
+      <c r="BG233" s="6"/>
+      <c r="BH233" s="6"/>
+      <c r="BJ233" s="6"/>
+    </row>
+    <row r="234" spans="1:62">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="D234" s="6"/>
@@ -17659,9 +18610,13 @@
       <c r="BB234" s="6"/>
       <c r="BC234" s="6"/>
       <c r="BD234" s="6"/>
+      <c r="BE234" s="6"/>
       <c r="BF234" s="6"/>
-    </row>
-    <row r="235" spans="1:58">
+      <c r="BG234" s="6"/>
+      <c r="BH234" s="6"/>
+      <c r="BJ234" s="6"/>
+    </row>
+    <row r="235" spans="1:62">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="D235" s="6"/>
@@ -17717,9 +18672,13 @@
       <c r="BB235" s="6"/>
       <c r="BC235" s="6"/>
       <c r="BD235" s="6"/>
+      <c r="BE235" s="6"/>
       <c r="BF235" s="6"/>
-    </row>
-    <row r="236" spans="1:58">
+      <c r="BG235" s="6"/>
+      <c r="BH235" s="6"/>
+      <c r="BJ235" s="6"/>
+    </row>
+    <row r="236" spans="1:62">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="D236" s="6"/>
@@ -17775,9 +18734,13 @@
       <c r="BB236" s="6"/>
       <c r="BC236" s="6"/>
       <c r="BD236" s="6"/>
+      <c r="BE236" s="6"/>
       <c r="BF236" s="6"/>
-    </row>
-    <row r="237" spans="1:58">
+      <c r="BG236" s="6"/>
+      <c r="BH236" s="6"/>
+      <c r="BJ236" s="6"/>
+    </row>
+    <row r="237" spans="1:62">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="D237" s="6"/>
@@ -17833,9 +18796,13 @@
       <c r="BB237" s="6"/>
       <c r="BC237" s="6"/>
       <c r="BD237" s="6"/>
+      <c r="BE237" s="6"/>
       <c r="BF237" s="6"/>
-    </row>
-    <row r="238" spans="1:58">
+      <c r="BG237" s="6"/>
+      <c r="BH237" s="6"/>
+      <c r="BJ237" s="6"/>
+    </row>
+    <row r="238" spans="1:62">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="D238" s="6"/>
@@ -17891,9 +18858,13 @@
       <c r="BB238" s="6"/>
       <c r="BC238" s="6"/>
       <c r="BD238" s="6"/>
+      <c r="BE238" s="6"/>
       <c r="BF238" s="6"/>
-    </row>
-    <row r="239" spans="1:58">
+      <c r="BG238" s="6"/>
+      <c r="BH238" s="6"/>
+      <c r="BJ238" s="6"/>
+    </row>
+    <row r="239" spans="1:62">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="D239" s="6"/>
@@ -17949,9 +18920,13 @@
       <c r="BB239" s="6"/>
       <c r="BC239" s="6"/>
       <c r="BD239" s="6"/>
+      <c r="BE239" s="6"/>
       <c r="BF239" s="6"/>
-    </row>
-    <row r="240" spans="1:58">
+      <c r="BG239" s="6"/>
+      <c r="BH239" s="6"/>
+      <c r="BJ239" s="6"/>
+    </row>
+    <row r="240" spans="1:62">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="D240" s="6"/>
@@ -18007,9 +18982,13 @@
       <c r="BB240" s="6"/>
       <c r="BC240" s="6"/>
       <c r="BD240" s="6"/>
+      <c r="BE240" s="6"/>
       <c r="BF240" s="6"/>
-    </row>
-    <row r="241" spans="1:58">
+      <c r="BG240" s="6"/>
+      <c r="BH240" s="6"/>
+      <c r="BJ240" s="6"/>
+    </row>
+    <row r="241" spans="1:62">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="D241" s="6"/>
@@ -18065,9 +19044,13 @@
       <c r="BB241" s="6"/>
       <c r="BC241" s="6"/>
       <c r="BD241" s="6"/>
+      <c r="BE241" s="6"/>
       <c r="BF241" s="6"/>
-    </row>
-    <row r="242" spans="1:58">
+      <c r="BG241" s="6"/>
+      <c r="BH241" s="6"/>
+      <c r="BJ241" s="6"/>
+    </row>
+    <row r="242" spans="1:62">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="D242" s="6"/>
@@ -18123,9 +19106,13 @@
       <c r="BB242" s="6"/>
       <c r="BC242" s="6"/>
       <c r="BD242" s="6"/>
+      <c r="BE242" s="6"/>
       <c r="BF242" s="6"/>
-    </row>
-    <row r="243" spans="1:58">
+      <c r="BG242" s="6"/>
+      <c r="BH242" s="6"/>
+      <c r="BJ242" s="6"/>
+    </row>
+    <row r="243" spans="1:62">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="D243" s="6"/>
@@ -18181,9 +19168,13 @@
       <c r="BB243" s="6"/>
       <c r="BC243" s="6"/>
       <c r="BD243" s="6"/>
+      <c r="BE243" s="6"/>
       <c r="BF243" s="6"/>
-    </row>
-    <row r="244" spans="1:58">
+      <c r="BG243" s="6"/>
+      <c r="BH243" s="6"/>
+      <c r="BJ243" s="6"/>
+    </row>
+    <row r="244" spans="1:62">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="D244" s="6"/>
@@ -18239,9 +19230,13 @@
       <c r="BB244" s="6"/>
       <c r="BC244" s="6"/>
       <c r="BD244" s="6"/>
+      <c r="BE244" s="6"/>
       <c r="BF244" s="6"/>
-    </row>
-    <row r="245" spans="1:58">
+      <c r="BG244" s="6"/>
+      <c r="BH244" s="6"/>
+      <c r="BJ244" s="6"/>
+    </row>
+    <row r="245" spans="1:62">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="D245" s="6"/>
@@ -18297,9 +19292,13 @@
       <c r="BB245" s="6"/>
       <c r="BC245" s="6"/>
       <c r="BD245" s="6"/>
+      <c r="BE245" s="6"/>
       <c r="BF245" s="6"/>
-    </row>
-    <row r="246" spans="1:58">
+      <c r="BG245" s="6"/>
+      <c r="BH245" s="6"/>
+      <c r="BJ245" s="6"/>
+    </row>
+    <row r="246" spans="1:62">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="D246" s="6"/>
@@ -18355,9 +19354,13 @@
       <c r="BB246" s="6"/>
       <c r="BC246" s="6"/>
       <c r="BD246" s="6"/>
+      <c r="BE246" s="6"/>
       <c r="BF246" s="6"/>
-    </row>
-    <row r="247" spans="1:58">
+      <c r="BG246" s="6"/>
+      <c r="BH246" s="6"/>
+      <c r="BJ246" s="6"/>
+    </row>
+    <row r="247" spans="1:62">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="D247" s="6"/>
@@ -18413,9 +19416,13 @@
       <c r="BB247" s="6"/>
       <c r="BC247" s="6"/>
       <c r="BD247" s="6"/>
+      <c r="BE247" s="6"/>
       <c r="BF247" s="6"/>
-    </row>
-    <row r="248" spans="1:58">
+      <c r="BG247" s="6"/>
+      <c r="BH247" s="6"/>
+      <c r="BJ247" s="6"/>
+    </row>
+    <row r="248" spans="1:62">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="D248" s="6"/>
@@ -18471,9 +19478,13 @@
       <c r="BB248" s="6"/>
       <c r="BC248" s="6"/>
       <c r="BD248" s="6"/>
+      <c r="BE248" s="6"/>
       <c r="BF248" s="6"/>
-    </row>
-    <row r="249" spans="1:58">
+      <c r="BG248" s="6"/>
+      <c r="BH248" s="6"/>
+      <c r="BJ248" s="6"/>
+    </row>
+    <row r="249" spans="1:62">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="D249" s="6"/>
@@ -18529,9 +19540,13 @@
       <c r="BB249" s="6"/>
       <c r="BC249" s="6"/>
       <c r="BD249" s="6"/>
+      <c r="BE249" s="6"/>
       <c r="BF249" s="6"/>
-    </row>
-    <row r="250" spans="1:58">
+      <c r="BG249" s="6"/>
+      <c r="BH249" s="6"/>
+      <c r="BJ249" s="6"/>
+    </row>
+    <row r="250" spans="1:62">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="D250" s="6"/>
@@ -18587,9 +19602,13 @@
       <c r="BB250" s="6"/>
       <c r="BC250" s="6"/>
       <c r="BD250" s="6"/>
+      <c r="BE250" s="6"/>
       <c r="BF250" s="6"/>
-    </row>
-    <row r="251" spans="1:58">
+      <c r="BG250" s="6"/>
+      <c r="BH250" s="6"/>
+      <c r="BJ250" s="6"/>
+    </row>
+    <row r="251" spans="1:62">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="D251" s="6"/>
@@ -18645,9 +19664,13 @@
       <c r="BB251" s="6"/>
       <c r="BC251" s="6"/>
       <c r="BD251" s="6"/>
+      <c r="BE251" s="6"/>
       <c r="BF251" s="6"/>
-    </row>
-    <row r="252" spans="1:58">
+      <c r="BG251" s="6"/>
+      <c r="BH251" s="6"/>
+      <c r="BJ251" s="6"/>
+    </row>
+    <row r="252" spans="1:62">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="D252" s="6"/>
@@ -18703,9 +19726,13 @@
       <c r="BB252" s="6"/>
       <c r="BC252" s="6"/>
       <c r="BD252" s="6"/>
+      <c r="BE252" s="6"/>
       <c r="BF252" s="6"/>
-    </row>
-    <row r="253" spans="1:58">
+      <c r="BG252" s="6"/>
+      <c r="BH252" s="6"/>
+      <c r="BJ252" s="6"/>
+    </row>
+    <row r="253" spans="1:62">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="D253" s="6"/>
@@ -18761,9 +19788,13 @@
       <c r="BB253" s="6"/>
       <c r="BC253" s="6"/>
       <c r="BD253" s="6"/>
+      <c r="BE253" s="6"/>
       <c r="BF253" s="6"/>
-    </row>
-    <row r="254" spans="1:58">
+      <c r="BG253" s="6"/>
+      <c r="BH253" s="6"/>
+      <c r="BJ253" s="6"/>
+    </row>
+    <row r="254" spans="1:62">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="D254" s="6"/>
@@ -18819,9 +19850,13 @@
       <c r="BB254" s="6"/>
       <c r="BC254" s="6"/>
       <c r="BD254" s="6"/>
+      <c r="BE254" s="6"/>
       <c r="BF254" s="6"/>
-    </row>
-    <row r="255" spans="1:58">
+      <c r="BG254" s="6"/>
+      <c r="BH254" s="6"/>
+      <c r="BJ254" s="6"/>
+    </row>
+    <row r="255" spans="1:62">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="D255" s="6"/>
@@ -18877,9 +19912,13 @@
       <c r="BB255" s="6"/>
       <c r="BC255" s="6"/>
       <c r="BD255" s="6"/>
+      <c r="BE255" s="6"/>
       <c r="BF255" s="6"/>
-    </row>
-    <row r="256" spans="1:58">
+      <c r="BG255" s="6"/>
+      <c r="BH255" s="6"/>
+      <c r="BJ255" s="6"/>
+    </row>
+    <row r="256" spans="1:62">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="D256" s="6"/>
@@ -18935,9 +19974,13 @@
       <c r="BB256" s="6"/>
       <c r="BC256" s="6"/>
       <c r="BD256" s="6"/>
+      <c r="BE256" s="6"/>
       <c r="BF256" s="6"/>
-    </row>
-    <row r="257" spans="1:58">
+      <c r="BG256" s="6"/>
+      <c r="BH256" s="6"/>
+      <c r="BJ256" s="6"/>
+    </row>
+    <row r="257" spans="1:62">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="D257" s="6"/>
@@ -18993,9 +20036,13 @@
       <c r="BB257" s="6"/>
       <c r="BC257" s="6"/>
       <c r="BD257" s="6"/>
+      <c r="BE257" s="6"/>
       <c r="BF257" s="6"/>
-    </row>
-    <row r="258" spans="1:58">
+      <c r="BG257" s="6"/>
+      <c r="BH257" s="6"/>
+      <c r="BJ257" s="6"/>
+    </row>
+    <row r="258" spans="1:62">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="D258" s="6"/>
@@ -19051,9 +20098,13 @@
       <c r="BB258" s="6"/>
       <c r="BC258" s="6"/>
       <c r="BD258" s="6"/>
+      <c r="BE258" s="6"/>
       <c r="BF258" s="6"/>
-    </row>
-    <row r="259" spans="1:58">
+      <c r="BG258" s="6"/>
+      <c r="BH258" s="6"/>
+      <c r="BJ258" s="6"/>
+    </row>
+    <row r="259" spans="1:62">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="D259" s="6"/>
@@ -19109,9 +20160,13 @@
       <c r="BB259" s="6"/>
       <c r="BC259" s="6"/>
       <c r="BD259" s="6"/>
+      <c r="BE259" s="6"/>
       <c r="BF259" s="6"/>
-    </row>
-    <row r="260" spans="1:58">
+      <c r="BG259" s="6"/>
+      <c r="BH259" s="6"/>
+      <c r="BJ259" s="6"/>
+    </row>
+    <row r="260" spans="1:62">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="D260" s="6"/>
@@ -19167,9 +20222,13 @@
       <c r="BB260" s="6"/>
       <c r="BC260" s="6"/>
       <c r="BD260" s="6"/>
+      <c r="BE260" s="6"/>
       <c r="BF260" s="6"/>
-    </row>
-    <row r="261" spans="1:58">
+      <c r="BG260" s="6"/>
+      <c r="BH260" s="6"/>
+      <c r="BJ260" s="6"/>
+    </row>
+    <row r="261" spans="1:62">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="D261" s="6"/>
@@ -19225,9 +20284,13 @@
       <c r="BB261" s="6"/>
       <c r="BC261" s="6"/>
       <c r="BD261" s="6"/>
+      <c r="BE261" s="6"/>
       <c r="BF261" s="6"/>
-    </row>
-    <row r="262" spans="1:58">
+      <c r="BG261" s="6"/>
+      <c r="BH261" s="6"/>
+      <c r="BJ261" s="6"/>
+    </row>
+    <row r="262" spans="1:62">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="D262" s="6"/>
@@ -19283,9 +20346,13 @@
       <c r="BB262" s="6"/>
       <c r="BC262" s="6"/>
       <c r="BD262" s="6"/>
+      <c r="BE262" s="6"/>
       <c r="BF262" s="6"/>
-    </row>
-    <row r="263" spans="1:58">
+      <c r="BG262" s="6"/>
+      <c r="BH262" s="6"/>
+      <c r="BJ262" s="6"/>
+    </row>
+    <row r="263" spans="1:62">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="D263" s="6"/>
@@ -19341,9 +20408,13 @@
       <c r="BB263" s="6"/>
       <c r="BC263" s="6"/>
       <c r="BD263" s="6"/>
+      <c r="BE263" s="6"/>
       <c r="BF263" s="6"/>
-    </row>
-    <row r="264" spans="1:58">
+      <c r="BG263" s="6"/>
+      <c r="BH263" s="6"/>
+      <c r="BJ263" s="6"/>
+    </row>
+    <row r="264" spans="1:62">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="D264" s="6"/>
@@ -19399,9 +20470,13 @@
       <c r="BB264" s="6"/>
       <c r="BC264" s="6"/>
       <c r="BD264" s="6"/>
+      <c r="BE264" s="6"/>
       <c r="BF264" s="6"/>
-    </row>
-    <row r="265" spans="1:58">
+      <c r="BG264" s="6"/>
+      <c r="BH264" s="6"/>
+      <c r="BJ264" s="6"/>
+    </row>
+    <row r="265" spans="1:62">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="D265" s="6"/>
@@ -19457,9 +20532,13 @@
       <c r="BB265" s="6"/>
       <c r="BC265" s="6"/>
       <c r="BD265" s="6"/>
+      <c r="BE265" s="6"/>
       <c r="BF265" s="6"/>
-    </row>
-    <row r="266" spans="1:58">
+      <c r="BG265" s="6"/>
+      <c r="BH265" s="6"/>
+      <c r="BJ265" s="6"/>
+    </row>
+    <row r="266" spans="1:62">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="D266" s="6"/>
@@ -19515,9 +20594,13 @@
       <c r="BB266" s="6"/>
       <c r="BC266" s="6"/>
       <c r="BD266" s="6"/>
+      <c r="BE266" s="6"/>
       <c r="BF266" s="6"/>
-    </row>
-    <row r="267" spans="1:58">
+      <c r="BG266" s="6"/>
+      <c r="BH266" s="6"/>
+      <c r="BJ266" s="6"/>
+    </row>
+    <row r="267" spans="1:62">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="D267" s="6"/>
@@ -19573,9 +20656,13 @@
       <c r="BB267" s="6"/>
       <c r="BC267" s="6"/>
       <c r="BD267" s="6"/>
+      <c r="BE267" s="6"/>
       <c r="BF267" s="6"/>
-    </row>
-    <row r="268" spans="1:58">
+      <c r="BG267" s="6"/>
+      <c r="BH267" s="6"/>
+      <c r="BJ267" s="6"/>
+    </row>
+    <row r="268" spans="1:62">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="D268" s="6"/>
@@ -19631,9 +20718,13 @@
       <c r="BB268" s="6"/>
       <c r="BC268" s="6"/>
       <c r="BD268" s="6"/>
+      <c r="BE268" s="6"/>
       <c r="BF268" s="6"/>
-    </row>
-    <row r="269" spans="1:58">
+      <c r="BG268" s="6"/>
+      <c r="BH268" s="6"/>
+      <c r="BJ268" s="6"/>
+    </row>
+    <row r="269" spans="1:62">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="D269" s="6"/>
@@ -19689,9 +20780,13 @@
       <c r="BB269" s="6"/>
       <c r="BC269" s="6"/>
       <c r="BD269" s="6"/>
+      <c r="BE269" s="6"/>
       <c r="BF269" s="6"/>
-    </row>
-    <row r="270" spans="1:58">
+      <c r="BG269" s="6"/>
+      <c r="BH269" s="6"/>
+      <c r="BJ269" s="6"/>
+    </row>
+    <row r="270" spans="1:62">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="D270" s="6"/>
@@ -19747,9 +20842,13 @@
       <c r="BB270" s="6"/>
       <c r="BC270" s="6"/>
       <c r="BD270" s="6"/>
+      <c r="BE270" s="6"/>
       <c r="BF270" s="6"/>
-    </row>
-    <row r="271" spans="1:58">
+      <c r="BG270" s="6"/>
+      <c r="BH270" s="6"/>
+      <c r="BJ270" s="6"/>
+    </row>
+    <row r="271" spans="1:62">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="D271" s="6"/>
@@ -19805,9 +20904,13 @@
       <c r="BB271" s="6"/>
       <c r="BC271" s="6"/>
       <c r="BD271" s="6"/>
+      <c r="BE271" s="6"/>
       <c r="BF271" s="6"/>
-    </row>
-    <row r="272" spans="1:58">
+      <c r="BG271" s="6"/>
+      <c r="BH271" s="6"/>
+      <c r="BJ271" s="6"/>
+    </row>
+    <row r="272" spans="1:62">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="D272" s="6"/>
@@ -19863,9 +20966,13 @@
       <c r="BB272" s="6"/>
       <c r="BC272" s="6"/>
       <c r="BD272" s="6"/>
+      <c r="BE272" s="6"/>
       <c r="BF272" s="6"/>
-    </row>
-    <row r="273" spans="1:58">
+      <c r="BG272" s="6"/>
+      <c r="BH272" s="6"/>
+      <c r="BJ272" s="6"/>
+    </row>
+    <row r="273" spans="1:62">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="D273" s="6"/>
@@ -19921,9 +21028,13 @@
       <c r="BB273" s="6"/>
       <c r="BC273" s="6"/>
       <c r="BD273" s="6"/>
+      <c r="BE273" s="6"/>
       <c r="BF273" s="6"/>
-    </row>
-    <row r="274" spans="1:58">
+      <c r="BG273" s="6"/>
+      <c r="BH273" s="6"/>
+      <c r="BJ273" s="6"/>
+    </row>
+    <row r="274" spans="1:62">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="D274" s="6"/>
@@ -19979,9 +21090,13 @@
       <c r="BB274" s="6"/>
       <c r="BC274" s="6"/>
       <c r="BD274" s="6"/>
+      <c r="BE274" s="6"/>
       <c r="BF274" s="6"/>
-    </row>
-    <row r="275" spans="1:58">
+      <c r="BG274" s="6"/>
+      <c r="BH274" s="6"/>
+      <c r="BJ274" s="6"/>
+    </row>
+    <row r="275" spans="1:62">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="D275" s="6"/>
@@ -20037,9 +21152,13 @@
       <c r="BB275" s="6"/>
       <c r="BC275" s="6"/>
       <c r="BD275" s="6"/>
+      <c r="BE275" s="6"/>
       <c r="BF275" s="6"/>
-    </row>
-    <row r="276" spans="1:58">
+      <c r="BG275" s="6"/>
+      <c r="BH275" s="6"/>
+      <c r="BJ275" s="6"/>
+    </row>
+    <row r="276" spans="1:62">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="D276" s="6"/>
@@ -20095,9 +21214,13 @@
       <c r="BB276" s="6"/>
       <c r="BC276" s="6"/>
       <c r="BD276" s="6"/>
+      <c r="BE276" s="6"/>
       <c r="BF276" s="6"/>
-    </row>
-    <row r="277" spans="1:58">
+      <c r="BG276" s="6"/>
+      <c r="BH276" s="6"/>
+      <c r="BJ276" s="6"/>
+    </row>
+    <row r="277" spans="1:62">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="D277" s="6"/>
@@ -20153,9 +21276,13 @@
       <c r="BB277" s="6"/>
       <c r="BC277" s="6"/>
       <c r="BD277" s="6"/>
+      <c r="BE277" s="6"/>
       <c r="BF277" s="6"/>
-    </row>
-    <row r="278" spans="1:58">
+      <c r="BG277" s="6"/>
+      <c r="BH277" s="6"/>
+      <c r="BJ277" s="6"/>
+    </row>
+    <row r="278" spans="1:62">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="D278" s="6"/>
@@ -20211,9 +21338,13 @@
       <c r="BB278" s="6"/>
       <c r="BC278" s="6"/>
       <c r="BD278" s="6"/>
+      <c r="BE278" s="6"/>
       <c r="BF278" s="6"/>
-    </row>
-    <row r="279" spans="1:58">
+      <c r="BG278" s="6"/>
+      <c r="BH278" s="6"/>
+      <c r="BJ278" s="6"/>
+    </row>
+    <row r="279" spans="1:62">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="D279" s="6"/>
@@ -20269,9 +21400,13 @@
       <c r="BB279" s="6"/>
       <c r="BC279" s="6"/>
       <c r="BD279" s="6"/>
+      <c r="BE279" s="6"/>
       <c r="BF279" s="6"/>
-    </row>
-    <row r="280" spans="1:58">
+      <c r="BG279" s="6"/>
+      <c r="BH279" s="6"/>
+      <c r="BJ279" s="6"/>
+    </row>
+    <row r="280" spans="1:62">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="D280" s="6"/>
@@ -20327,9 +21462,13 @@
       <c r="BB280" s="6"/>
       <c r="BC280" s="6"/>
       <c r="BD280" s="6"/>
+      <c r="BE280" s="6"/>
       <c r="BF280" s="6"/>
-    </row>
-    <row r="281" spans="1:58">
+      <c r="BG280" s="6"/>
+      <c r="BH280" s="6"/>
+      <c r="BJ280" s="6"/>
+    </row>
+    <row r="281" spans="1:62">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="D281" s="6"/>
@@ -20385,9 +21524,13 @@
       <c r="BB281" s="6"/>
       <c r="BC281" s="6"/>
       <c r="BD281" s="6"/>
+      <c r="BE281" s="6"/>
       <c r="BF281" s="6"/>
-    </row>
-    <row r="282" spans="1:58">
+      <c r="BG281" s="6"/>
+      <c r="BH281" s="6"/>
+      <c r="BJ281" s="6"/>
+    </row>
+    <row r="282" spans="1:62">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="D282" s="6"/>
@@ -20443,9 +21586,13 @@
       <c r="BB282" s="6"/>
       <c r="BC282" s="6"/>
       <c r="BD282" s="6"/>
+      <c r="BE282" s="6"/>
       <c r="BF282" s="6"/>
-    </row>
-    <row r="283" spans="1:58">
+      <c r="BG282" s="6"/>
+      <c r="BH282" s="6"/>
+      <c r="BJ282" s="6"/>
+    </row>
+    <row r="283" spans="1:62">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="D283" s="6"/>
@@ -20501,9 +21648,13 @@
       <c r="BB283" s="6"/>
       <c r="BC283" s="6"/>
       <c r="BD283" s="6"/>
+      <c r="BE283" s="6"/>
       <c r="BF283" s="6"/>
-    </row>
-    <row r="284" spans="1:58">
+      <c r="BG283" s="6"/>
+      <c r="BH283" s="6"/>
+      <c r="BJ283" s="6"/>
+    </row>
+    <row r="284" spans="1:62">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="D284" s="6"/>
@@ -20559,9 +21710,13 @@
       <c r="BB284" s="6"/>
       <c r="BC284" s="6"/>
       <c r="BD284" s="6"/>
+      <c r="BE284" s="6"/>
       <c r="BF284" s="6"/>
-    </row>
-    <row r="285" spans="1:58">
+      <c r="BG284" s="6"/>
+      <c r="BH284" s="6"/>
+      <c r="BJ284" s="6"/>
+    </row>
+    <row r="285" spans="1:62">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="D285" s="6"/>
@@ -20617,9 +21772,13 @@
       <c r="BB285" s="6"/>
       <c r="BC285" s="6"/>
       <c r="BD285" s="6"/>
+      <c r="BE285" s="6"/>
       <c r="BF285" s="6"/>
-    </row>
-    <row r="286" spans="1:58">
+      <c r="BG285" s="6"/>
+      <c r="BH285" s="6"/>
+      <c r="BJ285" s="6"/>
+    </row>
+    <row r="286" spans="1:62">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="D286" s="6"/>
@@ -20675,9 +21834,13 @@
       <c r="BB286" s="6"/>
       <c r="BC286" s="6"/>
       <c r="BD286" s="6"/>
+      <c r="BE286" s="6"/>
       <c r="BF286" s="6"/>
-    </row>
-    <row r="287" spans="1:58">
+      <c r="BG286" s="6"/>
+      <c r="BH286" s="6"/>
+      <c r="BJ286" s="6"/>
+    </row>
+    <row r="287" spans="1:62">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="D287" s="6"/>
@@ -20733,9 +21896,13 @@
       <c r="BB287" s="6"/>
       <c r="BC287" s="6"/>
       <c r="BD287" s="6"/>
+      <c r="BE287" s="6"/>
       <c r="BF287" s="6"/>
-    </row>
-    <row r="288" spans="1:58">
+      <c r="BG287" s="6"/>
+      <c r="BH287" s="6"/>
+      <c r="BJ287" s="6"/>
+    </row>
+    <row r="288" spans="1:62">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="D288" s="6"/>
@@ -20791,9 +21958,13 @@
       <c r="BB288" s="6"/>
       <c r="BC288" s="6"/>
       <c r="BD288" s="6"/>
+      <c r="BE288" s="6"/>
       <c r="BF288" s="6"/>
-    </row>
-    <row r="289" spans="1:58">
+      <c r="BG288" s="6"/>
+      <c r="BH288" s="6"/>
+      <c r="BJ288" s="6"/>
+    </row>
+    <row r="289" spans="1:62">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="D289" s="6"/>
@@ -20849,9 +22020,13 @@
       <c r="BB289" s="6"/>
       <c r="BC289" s="6"/>
       <c r="BD289" s="6"/>
+      <c r="BE289" s="6"/>
       <c r="BF289" s="6"/>
-    </row>
-    <row r="290" spans="1:58">
+      <c r="BG289" s="6"/>
+      <c r="BH289" s="6"/>
+      <c r="BJ289" s="6"/>
+    </row>
+    <row r="290" spans="1:62">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="D290" s="6"/>
@@ -20907,9 +22082,13 @@
       <c r="BB290" s="6"/>
       <c r="BC290" s="6"/>
       <c r="BD290" s="6"/>
+      <c r="BE290" s="6"/>
       <c r="BF290" s="6"/>
-    </row>
-    <row r="291" spans="1:58">
+      <c r="BG290" s="6"/>
+      <c r="BH290" s="6"/>
+      <c r="BJ290" s="6"/>
+    </row>
+    <row r="291" spans="1:62">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="D291" s="6"/>
@@ -20965,9 +22144,13 @@
       <c r="BB291" s="6"/>
       <c r="BC291" s="6"/>
       <c r="BD291" s="6"/>
+      <c r="BE291" s="6"/>
       <c r="BF291" s="6"/>
-    </row>
-    <row r="292" spans="1:58">
+      <c r="BG291" s="6"/>
+      <c r="BH291" s="6"/>
+      <c r="BJ291" s="6"/>
+    </row>
+    <row r="292" spans="1:62">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="D292" s="6"/>
@@ -21023,9 +22206,13 @@
       <c r="BB292" s="6"/>
       <c r="BC292" s="6"/>
       <c r="BD292" s="6"/>
+      <c r="BE292" s="6"/>
       <c r="BF292" s="6"/>
-    </row>
-    <row r="293" spans="1:58">
+      <c r="BG292" s="6"/>
+      <c r="BH292" s="6"/>
+      <c r="BJ292" s="6"/>
+    </row>
+    <row r="293" spans="1:62">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="D293" s="6"/>
@@ -21081,9 +22268,13 @@
       <c r="BB293" s="6"/>
       <c r="BC293" s="6"/>
       <c r="BD293" s="6"/>
+      <c r="BE293" s="6"/>
       <c r="BF293" s="6"/>
-    </row>
-    <row r="294" spans="1:58">
+      <c r="BG293" s="6"/>
+      <c r="BH293" s="6"/>
+      <c r="BJ293" s="6"/>
+    </row>
+    <row r="294" spans="1:62">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="D294" s="6"/>
@@ -21139,9 +22330,13 @@
       <c r="BB294" s="6"/>
       <c r="BC294" s="6"/>
       <c r="BD294" s="6"/>
+      <c r="BE294" s="6"/>
       <c r="BF294" s="6"/>
-    </row>
-    <row r="295" spans="1:58">
+      <c r="BG294" s="6"/>
+      <c r="BH294" s="6"/>
+      <c r="BJ294" s="6"/>
+    </row>
+    <row r="295" spans="1:62">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="D295" s="6"/>
@@ -21197,9 +22392,13 @@
       <c r="BB295" s="6"/>
       <c r="BC295" s="6"/>
       <c r="BD295" s="6"/>
+      <c r="BE295" s="6"/>
       <c r="BF295" s="6"/>
-    </row>
-    <row r="296" spans="1:58">
+      <c r="BG295" s="6"/>
+      <c r="BH295" s="6"/>
+      <c r="BJ295" s="6"/>
+    </row>
+    <row r="296" spans="1:62">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="D296" s="6"/>
@@ -21255,9 +22454,13 @@
       <c r="BB296" s="6"/>
       <c r="BC296" s="6"/>
       <c r="BD296" s="6"/>
+      <c r="BE296" s="6"/>
       <c r="BF296" s="6"/>
-    </row>
-    <row r="297" spans="1:58">
+      <c r="BG296" s="6"/>
+      <c r="BH296" s="6"/>
+      <c r="BJ296" s="6"/>
+    </row>
+    <row r="297" spans="1:62">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="D297" s="6"/>
@@ -21313,9 +22516,13 @@
       <c r="BB297" s="6"/>
       <c r="BC297" s="6"/>
       <c r="BD297" s="6"/>
+      <c r="BE297" s="6"/>
       <c r="BF297" s="6"/>
-    </row>
-    <row r="298" spans="1:58">
+      <c r="BG297" s="6"/>
+      <c r="BH297" s="6"/>
+      <c r="BJ297" s="6"/>
+    </row>
+    <row r="298" spans="1:62">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="D298" s="6"/>
@@ -21371,9 +22578,13 @@
       <c r="BB298" s="6"/>
       <c r="BC298" s="6"/>
       <c r="BD298" s="6"/>
+      <c r="BE298" s="6"/>
       <c r="BF298" s="6"/>
-    </row>
-    <row r="299" spans="1:58">
+      <c r="BG298" s="6"/>
+      <c r="BH298" s="6"/>
+      <c r="BJ298" s="6"/>
+    </row>
+    <row r="299" spans="1:62">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="D299" s="6"/>
@@ -21429,9 +22640,13 @@
       <c r="BB299" s="6"/>
       <c r="BC299" s="6"/>
       <c r="BD299" s="6"/>
+      <c r="BE299" s="6"/>
       <c r="BF299" s="6"/>
-    </row>
-    <row r="300" spans="1:58">
+      <c r="BG299" s="6"/>
+      <c r="BH299" s="6"/>
+      <c r="BJ299" s="6"/>
+    </row>
+    <row r="300" spans="1:62">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="D300" s="6"/>
@@ -21487,9 +22702,13 @@
       <c r="BB300" s="6"/>
       <c r="BC300" s="6"/>
       <c r="BD300" s="6"/>
+      <c r="BE300" s="6"/>
       <c r="BF300" s="6"/>
-    </row>
-    <row r="301" spans="1:58">
+      <c r="BG300" s="6"/>
+      <c r="BH300" s="6"/>
+      <c r="BJ300" s="6"/>
+    </row>
+    <row r="301" spans="1:62">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="D301" s="6"/>
@@ -21545,9 +22764,13 @@
       <c r="BB301" s="6"/>
       <c r="BC301" s="6"/>
       <c r="BD301" s="6"/>
+      <c r="BE301" s="6"/>
       <c r="BF301" s="6"/>
-    </row>
-    <row r="302" spans="1:58">
+      <c r="BG301" s="6"/>
+      <c r="BH301" s="6"/>
+      <c r="BJ301" s="6"/>
+    </row>
+    <row r="302" spans="1:62">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="D302" s="6"/>
@@ -21603,9 +22826,13 @@
       <c r="BB302" s="6"/>
       <c r="BC302" s="6"/>
       <c r="BD302" s="6"/>
+      <c r="BE302" s="6"/>
       <c r="BF302" s="6"/>
-    </row>
-    <row r="303" spans="1:58">
+      <c r="BG302" s="6"/>
+      <c r="BH302" s="6"/>
+      <c r="BJ302" s="6"/>
+    </row>
+    <row r="303" spans="1:62">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="D303" s="6"/>
@@ -21661,9 +22888,13 @@
       <c r="BB303" s="6"/>
       <c r="BC303" s="6"/>
       <c r="BD303" s="6"/>
+      <c r="BE303" s="6"/>
       <c r="BF303" s="6"/>
-    </row>
-    <row r="304" spans="1:58">
+      <c r="BG303" s="6"/>
+      <c r="BH303" s="6"/>
+      <c r="BJ303" s="6"/>
+    </row>
+    <row r="304" spans="1:62">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="D304" s="6"/>
@@ -21719,9 +22950,13 @@
       <c r="BB304" s="6"/>
       <c r="BC304" s="6"/>
       <c r="BD304" s="6"/>
+      <c r="BE304" s="6"/>
       <c r="BF304" s="6"/>
-    </row>
-    <row r="305" spans="1:58">
+      <c r="BG304" s="6"/>
+      <c r="BH304" s="6"/>
+      <c r="BJ304" s="6"/>
+    </row>
+    <row r="305" spans="1:62">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="D305" s="6"/>
@@ -21777,9 +23012,13 @@
       <c r="BB305" s="6"/>
       <c r="BC305" s="6"/>
       <c r="BD305" s="6"/>
+      <c r="BE305" s="6"/>
       <c r="BF305" s="6"/>
-    </row>
-    <row r="306" spans="1:58">
+      <c r="BG305" s="6"/>
+      <c r="BH305" s="6"/>
+      <c r="BJ305" s="6"/>
+    </row>
+    <row r="306" spans="1:62">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="D306" s="6"/>
@@ -21835,9 +23074,13 @@
       <c r="BB306" s="6"/>
       <c r="BC306" s="6"/>
       <c r="BD306" s="6"/>
+      <c r="BE306" s="6"/>
       <c r="BF306" s="6"/>
-    </row>
-    <row r="307" spans="1:58">
+      <c r="BG306" s="6"/>
+      <c r="BH306" s="6"/>
+      <c r="BJ306" s="6"/>
+    </row>
+    <row r="307" spans="1:62">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="D307" s="6"/>
@@ -21893,9 +23136,13 @@
       <c r="BB307" s="6"/>
       <c r="BC307" s="6"/>
       <c r="BD307" s="6"/>
+      <c r="BE307" s="6"/>
       <c r="BF307" s="6"/>
-    </row>
-    <row r="308" spans="1:58">
+      <c r="BG307" s="6"/>
+      <c r="BH307" s="6"/>
+      <c r="BJ307" s="6"/>
+    </row>
+    <row r="308" spans="1:62">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="D308" s="6"/>
@@ -21951,9 +23198,13 @@
       <c r="BB308" s="6"/>
       <c r="BC308" s="6"/>
       <c r="BD308" s="6"/>
+      <c r="BE308" s="6"/>
       <c r="BF308" s="6"/>
-    </row>
-    <row r="309" spans="1:58">
+      <c r="BG308" s="6"/>
+      <c r="BH308" s="6"/>
+      <c r="BJ308" s="6"/>
+    </row>
+    <row r="309" spans="1:62">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="D309" s="6"/>
@@ -22009,9 +23260,13 @@
       <c r="BB309" s="6"/>
       <c r="BC309" s="6"/>
       <c r="BD309" s="6"/>
+      <c r="BE309" s="6"/>
       <c r="BF309" s="6"/>
-    </row>
-    <row r="310" spans="1:58">
+      <c r="BG309" s="6"/>
+      <c r="BH309" s="6"/>
+      <c r="BJ309" s="6"/>
+    </row>
+    <row r="310" spans="1:62">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="D310" s="6"/>
@@ -22067,9 +23322,13 @@
       <c r="BB310" s="6"/>
       <c r="BC310" s="6"/>
       <c r="BD310" s="6"/>
+      <c r="BE310" s="6"/>
       <c r="BF310" s="6"/>
-    </row>
-    <row r="311" spans="1:58">
+      <c r="BG310" s="6"/>
+      <c r="BH310" s="6"/>
+      <c r="BJ310" s="6"/>
+    </row>
+    <row r="311" spans="1:62">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="D311" s="6"/>
@@ -22125,9 +23384,13 @@
       <c r="BB311" s="6"/>
       <c r="BC311" s="6"/>
       <c r="BD311" s="6"/>
+      <c r="BE311" s="6"/>
       <c r="BF311" s="6"/>
-    </row>
-    <row r="312" spans="1:58">
+      <c r="BG311" s="6"/>
+      <c r="BH311" s="6"/>
+      <c r="BJ311" s="6"/>
+    </row>
+    <row r="312" spans="1:62">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="D312" s="6"/>
@@ -22183,9 +23446,13 @@
       <c r="BB312" s="6"/>
       <c r="BC312" s="6"/>
       <c r="BD312" s="6"/>
+      <c r="BE312" s="6"/>
       <c r="BF312" s="6"/>
-    </row>
-    <row r="313" spans="1:58">
+      <c r="BG312" s="6"/>
+      <c r="BH312" s="6"/>
+      <c r="BJ312" s="6"/>
+    </row>
+    <row r="313" spans="1:62">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="D313" s="6"/>
@@ -22241,9 +23508,13 @@
       <c r="BB313" s="6"/>
       <c r="BC313" s="6"/>
       <c r="BD313" s="6"/>
+      <c r="BE313" s="6"/>
       <c r="BF313" s="6"/>
-    </row>
-    <row r="314" spans="1:58">
+      <c r="BG313" s="6"/>
+      <c r="BH313" s="6"/>
+      <c r="BJ313" s="6"/>
+    </row>
+    <row r="314" spans="1:62">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="D314" s="6"/>
@@ -22299,9 +23570,13 @@
       <c r="BB314" s="6"/>
       <c r="BC314" s="6"/>
       <c r="BD314" s="6"/>
+      <c r="BE314" s="6"/>
       <c r="BF314" s="6"/>
-    </row>
-    <row r="315" spans="1:58">
+      <c r="BG314" s="6"/>
+      <c r="BH314" s="6"/>
+      <c r="BJ314" s="6"/>
+    </row>
+    <row r="315" spans="1:62">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="D315" s="6"/>
@@ -22357,9 +23632,13 @@
       <c r="BB315" s="6"/>
       <c r="BC315" s="6"/>
       <c r="BD315" s="6"/>
+      <c r="BE315" s="6"/>
       <c r="BF315" s="6"/>
-    </row>
-    <row r="316" spans="1:58">
+      <c r="BG315" s="6"/>
+      <c r="BH315" s="6"/>
+      <c r="BJ315" s="6"/>
+    </row>
+    <row r="316" spans="1:62">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="D316" s="6"/>
@@ -22415,9 +23694,13 @@
       <c r="BB316" s="6"/>
       <c r="BC316" s="6"/>
       <c r="BD316" s="6"/>
+      <c r="BE316" s="6"/>
       <c r="BF316" s="6"/>
-    </row>
-    <row r="317" spans="1:58">
+      <c r="BG316" s="6"/>
+      <c r="BH316" s="6"/>
+      <c r="BJ316" s="6"/>
+    </row>
+    <row r="317" spans="1:62">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="D317" s="6"/>
@@ -22473,9 +23756,13 @@
       <c r="BB317" s="6"/>
       <c r="BC317" s="6"/>
       <c r="BD317" s="6"/>
+      <c r="BE317" s="6"/>
       <c r="BF317" s="6"/>
-    </row>
-    <row r="318" spans="1:58">
+      <c r="BG317" s="6"/>
+      <c r="BH317" s="6"/>
+      <c r="BJ317" s="6"/>
+    </row>
+    <row r="318" spans="1:62">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="D318" s="6"/>
@@ -22531,9 +23818,13 @@
       <c r="BB318" s="6"/>
       <c r="BC318" s="6"/>
       <c r="BD318" s="6"/>
+      <c r="BE318" s="6"/>
       <c r="BF318" s="6"/>
-    </row>
-    <row r="319" spans="1:58">
+      <c r="BG318" s="6"/>
+      <c r="BH318" s="6"/>
+      <c r="BJ318" s="6"/>
+    </row>
+    <row r="319" spans="1:62">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="D319" s="6"/>
@@ -22589,9 +23880,13 @@
       <c r="BB319" s="6"/>
       <c r="BC319" s="6"/>
       <c r="BD319" s="6"/>
+      <c r="BE319" s="6"/>
       <c r="BF319" s="6"/>
-    </row>
-    <row r="320" spans="1:58">
+      <c r="BG319" s="6"/>
+      <c r="BH319" s="6"/>
+      <c r="BJ319" s="6"/>
+    </row>
+    <row r="320" spans="1:62">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="D320" s="6"/>
@@ -22647,9 +23942,13 @@
       <c r="BB320" s="6"/>
       <c r="BC320" s="6"/>
       <c r="BD320" s="6"/>
+      <c r="BE320" s="6"/>
       <c r="BF320" s="6"/>
-    </row>
-    <row r="321" spans="1:58">
+      <c r="BG320" s="6"/>
+      <c r="BH320" s="6"/>
+      <c r="BJ320" s="6"/>
+    </row>
+    <row r="321" spans="1:62">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="D321" s="6"/>
@@ -22705,9 +24004,13 @@
       <c r="BB321" s="6"/>
       <c r="BC321" s="6"/>
       <c r="BD321" s="6"/>
+      <c r="BE321" s="6"/>
       <c r="BF321" s="6"/>
-    </row>
-    <row r="322" spans="1:58">
+      <c r="BG321" s="6"/>
+      <c r="BH321" s="6"/>
+      <c r="BJ321" s="6"/>
+    </row>
+    <row r="322" spans="1:62">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="D322" s="6"/>
@@ -22763,9 +24066,13 @@
       <c r="BB322" s="6"/>
       <c r="BC322" s="6"/>
       <c r="BD322" s="6"/>
+      <c r="BE322" s="6"/>
       <c r="BF322" s="6"/>
-    </row>
-    <row r="323" spans="1:58">
+      <c r="BG322" s="6"/>
+      <c r="BH322" s="6"/>
+      <c r="BJ322" s="6"/>
+    </row>
+    <row r="323" spans="1:62">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="D323" s="6"/>
@@ -22821,9 +24128,13 @@
       <c r="BB323" s="6"/>
       <c r="BC323" s="6"/>
       <c r="BD323" s="6"/>
+      <c r="BE323" s="6"/>
       <c r="BF323" s="6"/>
-    </row>
-    <row r="324" spans="1:58">
+      <c r="BG323" s="6"/>
+      <c r="BH323" s="6"/>
+      <c r="BJ323" s="6"/>
+    </row>
+    <row r="324" spans="1:62">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="D324" s="6"/>
@@ -22879,9 +24190,13 @@
       <c r="BB324" s="6"/>
       <c r="BC324" s="6"/>
       <c r="BD324" s="6"/>
+      <c r="BE324" s="6"/>
       <c r="BF324" s="6"/>
-    </row>
-    <row r="325" spans="1:58">
+      <c r="BG324" s="6"/>
+      <c r="BH324" s="6"/>
+      <c r="BJ324" s="6"/>
+    </row>
+    <row r="325" spans="1:62">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="D325" s="6"/>
@@ -22937,9 +24252,13 @@
       <c r="BB325" s="6"/>
       <c r="BC325" s="6"/>
       <c r="BD325" s="6"/>
+      <c r="BE325" s="6"/>
       <c r="BF325" s="6"/>
-    </row>
-    <row r="326" spans="1:58">
+      <c r="BG325" s="6"/>
+      <c r="BH325" s="6"/>
+      <c r="BJ325" s="6"/>
+    </row>
+    <row r="326" spans="1:62">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="D326" s="6"/>
@@ -22995,9 +24314,13 @@
       <c r="BB326" s="6"/>
       <c r="BC326" s="6"/>
       <c r="BD326" s="6"/>
+      <c r="BE326" s="6"/>
       <c r="BF326" s="6"/>
-    </row>
-    <row r="327" spans="1:58">
+      <c r="BG326" s="6"/>
+      <c r="BH326" s="6"/>
+      <c r="BJ326" s="6"/>
+    </row>
+    <row r="327" spans="1:62">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="D327" s="6"/>
@@ -23053,9 +24376,13 @@
       <c r="BB327" s="6"/>
       <c r="BC327" s="6"/>
       <c r="BD327" s="6"/>
+      <c r="BE327" s="6"/>
       <c r="BF327" s="6"/>
-    </row>
-    <row r="328" spans="1:58">
+      <c r="BG327" s="6"/>
+      <c r="BH327" s="6"/>
+      <c r="BJ327" s="6"/>
+    </row>
+    <row r="328" spans="1:62">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="D328" s="6"/>
@@ -23111,9 +24438,13 @@
       <c r="BB328" s="6"/>
       <c r="BC328" s="6"/>
       <c r="BD328" s="6"/>
+      <c r="BE328" s="6"/>
       <c r="BF328" s="6"/>
-    </row>
-    <row r="329" spans="1:58">
+      <c r="BG328" s="6"/>
+      <c r="BH328" s="6"/>
+      <c r="BJ328" s="6"/>
+    </row>
+    <row r="329" spans="1:62">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="D329" s="6"/>
@@ -23169,9 +24500,13 @@
       <c r="BB329" s="6"/>
       <c r="BC329" s="6"/>
       <c r="BD329" s="6"/>
+      <c r="BE329" s="6"/>
       <c r="BF329" s="6"/>
-    </row>
-    <row r="330" spans="1:58">
+      <c r="BG329" s="6"/>
+      <c r="BH329" s="6"/>
+      <c r="BJ329" s="6"/>
+    </row>
+    <row r="330" spans="1:62">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="D330" s="6"/>
@@ -23227,9 +24562,13 @@
       <c r="BB330" s="6"/>
       <c r="BC330" s="6"/>
       <c r="BD330" s="6"/>
+      <c r="BE330" s="6"/>
       <c r="BF330" s="6"/>
-    </row>
-    <row r="331" spans="1:58">
+      <c r="BG330" s="6"/>
+      <c r="BH330" s="6"/>
+      <c r="BJ330" s="6"/>
+    </row>
+    <row r="331" spans="1:62">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="D331" s="6"/>
@@ -23285,9 +24624,13 @@
       <c r="BB331" s="6"/>
       <c r="BC331" s="6"/>
       <c r="BD331" s="6"/>
+      <c r="BE331" s="6"/>
       <c r="BF331" s="6"/>
-    </row>
-    <row r="332" spans="1:58">
+      <c r="BG331" s="6"/>
+      <c r="BH331" s="6"/>
+      <c r="BJ331" s="6"/>
+    </row>
+    <row r="332" spans="1:62">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="D332" s="6"/>
@@ -23343,9 +24686,13 @@
       <c r="BB332" s="6"/>
       <c r="BC332" s="6"/>
       <c r="BD332" s="6"/>
+      <c r="BE332" s="6"/>
       <c r="BF332" s="6"/>
-    </row>
-    <row r="333" spans="1:58">
+      <c r="BG332" s="6"/>
+      <c r="BH332" s="6"/>
+      <c r="BJ332" s="6"/>
+    </row>
+    <row r="333" spans="1:62">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="D333" s="6"/>
@@ -23401,9 +24748,13 @@
       <c r="BB333" s="6"/>
       <c r="BC333" s="6"/>
       <c r="BD333" s="6"/>
+      <c r="BE333" s="6"/>
       <c r="BF333" s="6"/>
-    </row>
-    <row r="334" spans="1:58">
+      <c r="BG333" s="6"/>
+      <c r="BH333" s="6"/>
+      <c r="BJ333" s="6"/>
+    </row>
+    <row r="334" spans="1:62">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="D334" s="6"/>
@@ -23459,9 +24810,13 @@
       <c r="BB334" s="6"/>
       <c r="BC334" s="6"/>
       <c r="BD334" s="6"/>
+      <c r="BE334" s="6"/>
       <c r="BF334" s="6"/>
-    </row>
-    <row r="335" spans="1:58">
+      <c r="BG334" s="6"/>
+      <c r="BH334" s="6"/>
+      <c r="BJ334" s="6"/>
+    </row>
+    <row r="335" spans="1:62">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="D335" s="6"/>
@@ -23517,9 +24872,13 @@
       <c r="BB335" s="6"/>
       <c r="BC335" s="6"/>
       <c r="BD335" s="6"/>
+      <c r="BE335" s="6"/>
       <c r="BF335" s="6"/>
-    </row>
-    <row r="336" spans="1:58">
+      <c r="BG335" s="6"/>
+      <c r="BH335" s="6"/>
+      <c r="BJ335" s="6"/>
+    </row>
+    <row r="336" spans="1:62">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="D336" s="6"/>
@@ -23575,9 +24934,13 @@
       <c r="BB336" s="6"/>
       <c r="BC336" s="6"/>
       <c r="BD336" s="6"/>
+      <c r="BE336" s="6"/>
       <c r="BF336" s="6"/>
-    </row>
-    <row r="337" spans="1:58">
+      <c r="BG336" s="6"/>
+      <c r="BH336" s="6"/>
+      <c r="BJ336" s="6"/>
+    </row>
+    <row r="337" spans="1:62">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="D337" s="6"/>
@@ -23633,9 +24996,13 @@
       <c r="BB337" s="6"/>
       <c r="BC337" s="6"/>
       <c r="BD337" s="6"/>
+      <c r="BE337" s="6"/>
       <c r="BF337" s="6"/>
-    </row>
-    <row r="338" spans="1:58">
+      <c r="BG337" s="6"/>
+      <c r="BH337" s="6"/>
+      <c r="BJ337" s="6"/>
+    </row>
+    <row r="338" spans="1:62">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="D338" s="6"/>
@@ -23691,9 +25058,13 @@
       <c r="BB338" s="6"/>
       <c r="BC338" s="6"/>
       <c r="BD338" s="6"/>
+      <c r="BE338" s="6"/>
       <c r="BF338" s="6"/>
-    </row>
-    <row r="339" spans="1:58">
+      <c r="BG338" s="6"/>
+      <c r="BH338" s="6"/>
+      <c r="BJ338" s="6"/>
+    </row>
+    <row r="339" spans="1:62">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="D339" s="6"/>
@@ -23749,9 +25120,13 @@
       <c r="BB339" s="6"/>
       <c r="BC339" s="6"/>
       <c r="BD339" s="6"/>
+      <c r="BE339" s="6"/>
       <c r="BF339" s="6"/>
-    </row>
-    <row r="340" spans="1:58">
+      <c r="BG339" s="6"/>
+      <c r="BH339" s="6"/>
+      <c r="BJ339" s="6"/>
+    </row>
+    <row r="340" spans="1:62">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="D340" s="6"/>
@@ -23807,9 +25182,13 @@
       <c r="BB340" s="6"/>
       <c r="BC340" s="6"/>
       <c r="BD340" s="6"/>
+      <c r="BE340" s="6"/>
       <c r="BF340" s="6"/>
-    </row>
-    <row r="341" spans="1:58">
+      <c r="BG340" s="6"/>
+      <c r="BH340" s="6"/>
+      <c r="BJ340" s="6"/>
+    </row>
+    <row r="341" spans="1:62">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="D341" s="6"/>
@@ -23865,9 +25244,13 @@
       <c r="BB341" s="6"/>
       <c r="BC341" s="6"/>
       <c r="BD341" s="6"/>
+      <c r="BE341" s="6"/>
       <c r="BF341" s="6"/>
-    </row>
-    <row r="342" spans="1:58">
+      <c r="BG341" s="6"/>
+      <c r="BH341" s="6"/>
+      <c r="BJ341" s="6"/>
+    </row>
+    <row r="342" spans="1:62">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="D342" s="6"/>
@@ -23923,9 +25306,13 @@
       <c r="BB342" s="6"/>
       <c r="BC342" s="6"/>
       <c r="BD342" s="6"/>
+      <c r="BE342" s="6"/>
       <c r="BF342" s="6"/>
-    </row>
-    <row r="343" spans="1:58">
+      <c r="BG342" s="6"/>
+      <c r="BH342" s="6"/>
+      <c r="BJ342" s="6"/>
+    </row>
+    <row r="343" spans="1:62">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="D343" s="6"/>
@@ -23981,9 +25368,13 @@
       <c r="BB343" s="6"/>
       <c r="BC343" s="6"/>
       <c r="BD343" s="6"/>
+      <c r="BE343" s="6"/>
       <c r="BF343" s="6"/>
-    </row>
-    <row r="344" spans="1:58">
+      <c r="BG343" s="6"/>
+      <c r="BH343" s="6"/>
+      <c r="BJ343" s="6"/>
+    </row>
+    <row r="344" spans="1:62">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="D344" s="6"/>
@@ -24039,9 +25430,13 @@
       <c r="BB344" s="6"/>
       <c r="BC344" s="6"/>
       <c r="BD344" s="6"/>
+      <c r="BE344" s="6"/>
       <c r="BF344" s="6"/>
-    </row>
-    <row r="345" spans="1:58">
+      <c r="BG344" s="6"/>
+      <c r="BH344" s="6"/>
+      <c r="BJ344" s="6"/>
+    </row>
+    <row r="345" spans="1:62">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="D345" s="6"/>
@@ -24097,9 +25492,13 @@
       <c r="BB345" s="6"/>
       <c r="BC345" s="6"/>
       <c r="BD345" s="6"/>
+      <c r="BE345" s="6"/>
       <c r="BF345" s="6"/>
-    </row>
-    <row r="346" spans="1:58">
+      <c r="BG345" s="6"/>
+      <c r="BH345" s="6"/>
+      <c r="BJ345" s="6"/>
+    </row>
+    <row r="346" spans="1:62">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="D346" s="6"/>
@@ -24155,9 +25554,13 @@
       <c r="BB346" s="6"/>
       <c r="BC346" s="6"/>
       <c r="BD346" s="6"/>
+      <c r="BE346" s="6"/>
       <c r="BF346" s="6"/>
-    </row>
-    <row r="347" spans="1:58">
+      <c r="BG346" s="6"/>
+      <c r="BH346" s="6"/>
+      <c r="BJ346" s="6"/>
+    </row>
+    <row r="347" spans="1:62">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="D347" s="6"/>
@@ -24213,9 +25616,13 @@
       <c r="BB347" s="6"/>
       <c r="BC347" s="6"/>
       <c r="BD347" s="6"/>
+      <c r="BE347" s="6"/>
       <c r="BF347" s="6"/>
-    </row>
-    <row r="348" spans="1:58">
+      <c r="BG347" s="6"/>
+      <c r="BH347" s="6"/>
+      <c r="BJ347" s="6"/>
+    </row>
+    <row r="348" spans="1:62">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="D348" s="6"/>
@@ -24271,9 +25678,13 @@
       <c r="BB348" s="6"/>
       <c r="BC348" s="6"/>
       <c r="BD348" s="6"/>
+      <c r="BE348" s="6"/>
       <c r="BF348" s="6"/>
-    </row>
-    <row r="349" spans="1:58">
+      <c r="BG348" s="6"/>
+      <c r="BH348" s="6"/>
+      <c r="BJ348" s="6"/>
+    </row>
+    <row r="349" spans="1:62">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="D349" s="6"/>
@@ -24329,9 +25740,13 @@
       <c r="BB349" s="6"/>
       <c r="BC349" s="6"/>
       <c r="BD349" s="6"/>
+      <c r="BE349" s="6"/>
       <c r="BF349" s="6"/>
-    </row>
-    <row r="350" spans="1:58">
+      <c r="BG349" s="6"/>
+      <c r="BH349" s="6"/>
+      <c r="BJ349" s="6"/>
+    </row>
+    <row r="350" spans="1:62">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="D350" s="6"/>
@@ -24387,9 +25802,13 @@
       <c r="BB350" s="6"/>
       <c r="BC350" s="6"/>
       <c r="BD350" s="6"/>
+      <c r="BE350" s="6"/>
       <c r="BF350" s="6"/>
-    </row>
-    <row r="351" spans="1:58">
+      <c r="BG350" s="6"/>
+      <c r="BH350" s="6"/>
+      <c r="BJ350" s="6"/>
+    </row>
+    <row r="351" spans="1:62">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="D351" s="6"/>
@@ -24445,9 +25864,13 @@
       <c r="BB351" s="6"/>
       <c r="BC351" s="6"/>
       <c r="BD351" s="6"/>
+      <c r="BE351" s="6"/>
       <c r="BF351" s="6"/>
-    </row>
-    <row r="352" spans="1:58">
+      <c r="BG351" s="6"/>
+      <c r="BH351" s="6"/>
+      <c r="BJ351" s="6"/>
+    </row>
+    <row r="352" spans="1:62">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="D352" s="6"/>
@@ -24503,9 +25926,13 @@
       <c r="BB352" s="6"/>
       <c r="BC352" s="6"/>
       <c r="BD352" s="6"/>
+      <c r="BE352" s="6"/>
       <c r="BF352" s="6"/>
-    </row>
-    <row r="353" spans="1:58">
+      <c r="BG352" s="6"/>
+      <c r="BH352" s="6"/>
+      <c r="BJ352" s="6"/>
+    </row>
+    <row r="353" spans="1:62">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="D353" s="6"/>
@@ -24561,9 +25988,13 @@
       <c r="BB353" s="6"/>
       <c r="BC353" s="6"/>
       <c r="BD353" s="6"/>
+      <c r="BE353" s="6"/>
       <c r="BF353" s="6"/>
-    </row>
-    <row r="354" spans="1:58">
+      <c r="BG353" s="6"/>
+      <c r="BH353" s="6"/>
+      <c r="BJ353" s="6"/>
+    </row>
+    <row r="354" spans="1:62">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="D354" s="6"/>
@@ -24619,9 +26050,13 @@
       <c r="BB354" s="6"/>
       <c r="BC354" s="6"/>
       <c r="BD354" s="6"/>
+      <c r="BE354" s="6"/>
       <c r="BF354" s="6"/>
-    </row>
-    <row r="355" spans="1:58">
+      <c r="BG354" s="6"/>
+      <c r="BH354" s="6"/>
+      <c r="BJ354" s="6"/>
+    </row>
+    <row r="355" spans="1:62">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="D355" s="6"/>
@@ -24677,9 +26112,13 @@
       <c r="BB355" s="6"/>
       <c r="BC355" s="6"/>
       <c r="BD355" s="6"/>
+      <c r="BE355" s="6"/>
       <c r="BF355" s="6"/>
-    </row>
-    <row r="356" spans="1:58">
+      <c r="BG355" s="6"/>
+      <c r="BH355" s="6"/>
+      <c r="BJ355" s="6"/>
+    </row>
+    <row r="356" spans="1:62">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="D356" s="6"/>
@@ -24735,9 +26174,13 @@
       <c r="BB356" s="6"/>
       <c r="BC356" s="6"/>
       <c r="BD356" s="6"/>
+      <c r="BE356" s="6"/>
       <c r="BF356" s="6"/>
-    </row>
-    <row r="357" spans="1:58">
+      <c r="BG356" s="6"/>
+      <c r="BH356" s="6"/>
+      <c r="BJ356" s="6"/>
+    </row>
+    <row r="357" spans="1:62">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="D357" s="6"/>
@@ -24793,9 +26236,13 @@
       <c r="BB357" s="6"/>
       <c r="BC357" s="6"/>
       <c r="BD357" s="6"/>
+      <c r="BE357" s="6"/>
       <c r="BF357" s="6"/>
-    </row>
-    <row r="358" spans="1:58">
+      <c r="BG357" s="6"/>
+      <c r="BH357" s="6"/>
+      <c r="BJ357" s="6"/>
+    </row>
+    <row r="358" spans="1:62">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="D358" s="6"/>
@@ -24851,9 +26298,13 @@
       <c r="BB358" s="6"/>
       <c r="BC358" s="6"/>
       <c r="BD358" s="6"/>
+      <c r="BE358" s="6"/>
       <c r="BF358" s="6"/>
-    </row>
-    <row r="359" spans="1:58">
+      <c r="BG358" s="6"/>
+      <c r="BH358" s="6"/>
+      <c r="BJ358" s="6"/>
+    </row>
+    <row r="359" spans="1:62">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="D359" s="6"/>
@@ -24909,9 +26360,13 @@
       <c r="BB359" s="6"/>
       <c r="BC359" s="6"/>
       <c r="BD359" s="6"/>
+      <c r="BE359" s="6"/>
       <c r="BF359" s="6"/>
-    </row>
-    <row r="360" spans="1:58">
+      <c r="BG359" s="6"/>
+      <c r="BH359" s="6"/>
+      <c r="BJ359" s="6"/>
+    </row>
+    <row r="360" spans="1:62">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="D360" s="6"/>
@@ -24967,9 +26422,13 @@
       <c r="BB360" s="6"/>
       <c r="BC360" s="6"/>
       <c r="BD360" s="6"/>
+      <c r="BE360" s="6"/>
       <c r="BF360" s="6"/>
-    </row>
-    <row r="361" spans="1:58">
+      <c r="BG360" s="6"/>
+      <c r="BH360" s="6"/>
+      <c r="BJ360" s="6"/>
+    </row>
+    <row r="361" spans="1:62">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="D361" s="6"/>
@@ -25025,9 +26484,13 @@
       <c r="BB361" s="6"/>
       <c r="BC361" s="6"/>
       <c r="BD361" s="6"/>
+      <c r="BE361" s="6"/>
       <c r="BF361" s="6"/>
-    </row>
-    <row r="362" spans="1:58">
+      <c r="BG361" s="6"/>
+      <c r="BH361" s="6"/>
+      <c r="BJ361" s="6"/>
+    </row>
+    <row r="362" spans="1:62">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="D362" s="6"/>
@@ -25083,9 +26546,13 @@
       <c r="BB362" s="6"/>
       <c r="BC362" s="6"/>
       <c r="BD362" s="6"/>
+      <c r="BE362" s="6"/>
       <c r="BF362" s="6"/>
-    </row>
-    <row r="363" spans="1:58">
+      <c r="BG362" s="6"/>
+      <c r="BH362" s="6"/>
+      <c r="BJ362" s="6"/>
+    </row>
+    <row r="363" spans="1:62">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="D363" s="6"/>
@@ -25141,9 +26608,13 @@
       <c r="BB363" s="6"/>
       <c r="BC363" s="6"/>
       <c r="BD363" s="6"/>
+      <c r="BE363" s="6"/>
       <c r="BF363" s="6"/>
-    </row>
-    <row r="364" spans="1:58">
+      <c r="BG363" s="6"/>
+      <c r="BH363" s="6"/>
+      <c r="BJ363" s="6"/>
+    </row>
+    <row r="364" spans="1:62">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="D364" s="6"/>
@@ -25199,9 +26670,13 @@
       <c r="BB364" s="6"/>
       <c r="BC364" s="6"/>
       <c r="BD364" s="6"/>
+      <c r="BE364" s="6"/>
       <c r="BF364" s="6"/>
-    </row>
-    <row r="365" spans="1:58">
+      <c r="BG364" s="6"/>
+      <c r="BH364" s="6"/>
+      <c r="BJ364" s="6"/>
+    </row>
+    <row r="365" spans="1:62">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="D365" s="6"/>
@@ -25257,9 +26732,13 @@
       <c r="BB365" s="6"/>
       <c r="BC365" s="6"/>
       <c r="BD365" s="6"/>
+      <c r="BE365" s="6"/>
       <c r="BF365" s="6"/>
-    </row>
-    <row r="366" spans="1:58">
+      <c r="BG365" s="6"/>
+      <c r="BH365" s="6"/>
+      <c r="BJ365" s="6"/>
+    </row>
+    <row r="366" spans="1:62">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="D366" s="6"/>
@@ -25315,9 +26794,13 @@
       <c r="BB366" s="6"/>
       <c r="BC366" s="6"/>
       <c r="BD366" s="6"/>
+      <c r="BE366" s="6"/>
       <c r="BF366" s="6"/>
-    </row>
-    <row r="367" spans="1:58">
+      <c r="BG366" s="6"/>
+      <c r="BH366" s="6"/>
+      <c r="BJ366" s="6"/>
+    </row>
+    <row r="367" spans="1:62">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="D367" s="6"/>
@@ -25373,9 +26856,13 @@
       <c r="BB367" s="6"/>
       <c r="BC367" s="6"/>
       <c r="BD367" s="6"/>
+      <c r="BE367" s="6"/>
       <c r="BF367" s="6"/>
-    </row>
-    <row r="368" spans="1:58">
+      <c r="BG367" s="6"/>
+      <c r="BH367" s="6"/>
+      <c r="BJ367" s="6"/>
+    </row>
+    <row r="368" spans="1:62">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="D368" s="6"/>
@@ -25431,9 +26918,13 @@
       <c r="BB368" s="6"/>
       <c r="BC368" s="6"/>
       <c r="BD368" s="6"/>
+      <c r="BE368" s="6"/>
       <c r="BF368" s="6"/>
-    </row>
-    <row r="369" spans="1:58">
+      <c r="BG368" s="6"/>
+      <c r="BH368" s="6"/>
+      <c r="BJ368" s="6"/>
+    </row>
+    <row r="369" spans="1:62">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="D369" s="6"/>
@@ -25489,9 +26980,13 @@
       <c r="BB369" s="6"/>
       <c r="BC369" s="6"/>
       <c r="BD369" s="6"/>
+      <c r="BE369" s="6"/>
       <c r="BF369" s="6"/>
-    </row>
-    <row r="370" spans="1:58">
+      <c r="BG369" s="6"/>
+      <c r="BH369" s="6"/>
+      <c r="BJ369" s="6"/>
+    </row>
+    <row r="370" spans="1:62">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="D370" s="6"/>
@@ -25547,9 +27042,13 @@
       <c r="BB370" s="6"/>
       <c r="BC370" s="6"/>
       <c r="BD370" s="6"/>
+      <c r="BE370" s="6"/>
       <c r="BF370" s="6"/>
-    </row>
-    <row r="371" spans="1:58">
+      <c r="BG370" s="6"/>
+      <c r="BH370" s="6"/>
+      <c r="BJ370" s="6"/>
+    </row>
+    <row r="371" spans="1:62">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="D371" s="6"/>
@@ -25605,9 +27104,13 @@
       <c r="BB371" s="6"/>
       <c r="BC371" s="6"/>
       <c r="BD371" s="6"/>
+      <c r="BE371" s="6"/>
       <c r="BF371" s="6"/>
-    </row>
-    <row r="372" spans="1:58">
+      <c r="BG371" s="6"/>
+      <c r="BH371" s="6"/>
+      <c r="BJ371" s="6"/>
+    </row>
+    <row r="372" spans="1:62">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="D372" s="6"/>
@@ -25663,9 +27166,13 @@
       <c r="BB372" s="6"/>
       <c r="BC372" s="6"/>
       <c r="BD372" s="6"/>
+      <c r="BE372" s="6"/>
       <c r="BF372" s="6"/>
-    </row>
-    <row r="373" spans="1:58">
+      <c r="BG372" s="6"/>
+      <c r="BH372" s="6"/>
+      <c r="BJ372" s="6"/>
+    </row>
+    <row r="373" spans="1:62">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="D373" s="6"/>
@@ -25721,9 +27228,13 @@
       <c r="BB373" s="6"/>
       <c r="BC373" s="6"/>
       <c r="BD373" s="6"/>
+      <c r="BE373" s="6"/>
       <c r="BF373" s="6"/>
-    </row>
-    <row r="374" spans="1:58">
+      <c r="BG373" s="6"/>
+      <c r="BH373" s="6"/>
+      <c r="BJ373" s="6"/>
+    </row>
+    <row r="374" spans="1:62">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="D374" s="6"/>
@@ -25779,9 +27290,13 @@
       <c r="BB374" s="6"/>
       <c r="BC374" s="6"/>
       <c r="BD374" s="6"/>
+      <c r="BE374" s="6"/>
       <c r="BF374" s="6"/>
-    </row>
-    <row r="375" spans="1:58">
+      <c r="BG374" s="6"/>
+      <c r="BH374" s="6"/>
+      <c r="BJ374" s="6"/>
+    </row>
+    <row r="375" spans="1:62">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="D375" s="6"/>
@@ -25837,9 +27352,13 @@
       <c r="BB375" s="6"/>
       <c r="BC375" s="6"/>
       <c r="BD375" s="6"/>
+      <c r="BE375" s="6"/>
       <c r="BF375" s="6"/>
-    </row>
-    <row r="376" spans="1:58">
+      <c r="BG375" s="6"/>
+      <c r="BH375" s="6"/>
+      <c r="BJ375" s="6"/>
+    </row>
+    <row r="376" spans="1:62">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="D376" s="6"/>
@@ -25895,9 +27414,13 @@
       <c r="BB376" s="6"/>
       <c r="BC376" s="6"/>
       <c r="BD376" s="6"/>
+      <c r="BE376" s="6"/>
       <c r="BF376" s="6"/>
-    </row>
-    <row r="377" spans="1:58">
+      <c r="BG376" s="6"/>
+      <c r="BH376" s="6"/>
+      <c r="BJ376" s="6"/>
+    </row>
+    <row r="377" spans="1:62">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="D377" s="6"/>
@@ -25953,9 +27476,13 @@
       <c r="BB377" s="6"/>
       <c r="BC377" s="6"/>
       <c r="BD377" s="6"/>
+      <c r="BE377" s="6"/>
       <c r="BF377" s="6"/>
-    </row>
-    <row r="378" spans="1:58">
+      <c r="BG377" s="6"/>
+      <c r="BH377" s="6"/>
+      <c r="BJ377" s="6"/>
+    </row>
+    <row r="378" spans="1:62">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="D378" s="6"/>
@@ -26011,9 +27538,13 @@
       <c r="BB378" s="6"/>
       <c r="BC378" s="6"/>
       <c r="BD378" s="6"/>
+      <c r="BE378" s="6"/>
       <c r="BF378" s="6"/>
-    </row>
-    <row r="379" spans="1:58">
+      <c r="BG378" s="6"/>
+      <c r="BH378" s="6"/>
+      <c r="BJ378" s="6"/>
+    </row>
+    <row r="379" spans="1:62">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="D379" s="6"/>
@@ -26069,9 +27600,13 @@
       <c r="BB379" s="6"/>
       <c r="BC379" s="6"/>
       <c r="BD379" s="6"/>
+      <c r="BE379" s="6"/>
       <c r="BF379" s="6"/>
-    </row>
-    <row r="380" spans="1:58">
+      <c r="BG379" s="6"/>
+      <c r="BH379" s="6"/>
+      <c r="BJ379" s="6"/>
+    </row>
+    <row r="380" spans="1:62">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="D380" s="6"/>
@@ -26127,9 +27662,13 @@
       <c r="BB380" s="6"/>
       <c r="BC380" s="6"/>
       <c r="BD380" s="6"/>
+      <c r="BE380" s="6"/>
       <c r="BF380" s="6"/>
-    </row>
-    <row r="381" spans="1:58">
+      <c r="BG380" s="6"/>
+      <c r="BH380" s="6"/>
+      <c r="BJ380" s="6"/>
+    </row>
+    <row r="381" spans="1:62">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="D381" s="6"/>
@@ -26185,9 +27724,13 @@
       <c r="BB381" s="6"/>
       <c r="BC381" s="6"/>
       <c r="BD381" s="6"/>
+      <c r="BE381" s="6"/>
       <c r="BF381" s="6"/>
-    </row>
-    <row r="382" spans="1:58">
+      <c r="BG381" s="6"/>
+      <c r="BH381" s="6"/>
+      <c r="BJ381" s="6"/>
+    </row>
+    <row r="382" spans="1:62">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="D382" s="6"/>
@@ -26243,9 +27786,13 @@
       <c r="BB382" s="6"/>
       <c r="BC382" s="6"/>
       <c r="BD382" s="6"/>
+      <c r="BE382" s="6"/>
       <c r="BF382" s="6"/>
-    </row>
-    <row r="383" spans="1:58">
+      <c r="BG382" s="6"/>
+      <c r="BH382" s="6"/>
+      <c r="BJ382" s="6"/>
+    </row>
+    <row r="383" spans="1:62">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="D383" s="6"/>
@@ -26301,9 +27848,13 @@
       <c r="BB383" s="6"/>
       <c r="BC383" s="6"/>
       <c r="BD383" s="6"/>
+      <c r="BE383" s="6"/>
       <c r="BF383" s="6"/>
-    </row>
-    <row r="384" spans="1:58">
+      <c r="BG383" s="6"/>
+      <c r="BH383" s="6"/>
+      <c r="BJ383" s="6"/>
+    </row>
+    <row r="384" spans="1:62">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="D384" s="6"/>
@@ -26359,9 +27910,13 @@
       <c r="BB384" s="6"/>
       <c r="BC384" s="6"/>
       <c r="BD384" s="6"/>
+      <c r="BE384" s="6"/>
       <c r="BF384" s="6"/>
-    </row>
-    <row r="385" spans="1:58">
+      <c r="BG384" s="6"/>
+      <c r="BH384" s="6"/>
+      <c r="BJ384" s="6"/>
+    </row>
+    <row r="385" spans="1:62">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="D385" s="6"/>
@@ -26417,9 +27972,13 @@
       <c r="BB385" s="6"/>
       <c r="BC385" s="6"/>
       <c r="BD385" s="6"/>
+      <c r="BE385" s="6"/>
       <c r="BF385" s="6"/>
-    </row>
-    <row r="386" spans="1:58">
+      <c r="BG385" s="6"/>
+      <c r="BH385" s="6"/>
+      <c r="BJ385" s="6"/>
+    </row>
+    <row r="386" spans="1:62">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="D386" s="6"/>
@@ -26475,9 +28034,13 @@
       <c r="BB386" s="6"/>
       <c r="BC386" s="6"/>
       <c r="BD386" s="6"/>
+      <c r="BE386" s="6"/>
       <c r="BF386" s="6"/>
-    </row>
-    <row r="387" spans="1:58">
+      <c r="BG386" s="6"/>
+      <c r="BH386" s="6"/>
+      <c r="BJ386" s="6"/>
+    </row>
+    <row r="387" spans="1:62">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="D387" s="6"/>
@@ -26533,9 +28096,13 @@
       <c r="BB387" s="6"/>
       <c r="BC387" s="6"/>
       <c r="BD387" s="6"/>
+      <c r="BE387" s="6"/>
       <c r="BF387" s="6"/>
-    </row>
-    <row r="388" spans="1:58">
+      <c r="BG387" s="6"/>
+      <c r="BH387" s="6"/>
+      <c r="BJ387" s="6"/>
+    </row>
+    <row r="388" spans="1:62">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="D388" s="6"/>
@@ -26591,9 +28158,13 @@
       <c r="BB388" s="6"/>
       <c r="BC388" s="6"/>
       <c r="BD388" s="6"/>
+      <c r="BE388" s="6"/>
       <c r="BF388" s="6"/>
-    </row>
-    <row r="389" spans="1:58">
+      <c r="BG388" s="6"/>
+      <c r="BH388" s="6"/>
+      <c r="BJ388" s="6"/>
+    </row>
+    <row r="389" spans="1:62">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="D389" s="6"/>
@@ -26649,9 +28220,13 @@
       <c r="BB389" s="6"/>
       <c r="BC389" s="6"/>
       <c r="BD389" s="6"/>
+      <c r="BE389" s="6"/>
       <c r="BF389" s="6"/>
-    </row>
-    <row r="390" spans="1:58">
+      <c r="BG389" s="6"/>
+      <c r="BH389" s="6"/>
+      <c r="BJ389" s="6"/>
+    </row>
+    <row r="390" spans="1:62">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="D390" s="6"/>
@@ -26707,9 +28282,13 @@
       <c r="BB390" s="6"/>
       <c r="BC390" s="6"/>
       <c r="BD390" s="6"/>
+      <c r="BE390" s="6"/>
       <c r="BF390" s="6"/>
-    </row>
-    <row r="391" spans="1:58">
+      <c r="BG390" s="6"/>
+      <c r="BH390" s="6"/>
+      <c r="BJ390" s="6"/>
+    </row>
+    <row r="391" spans="1:62">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="D391" s="6"/>
@@ -26765,9 +28344,13 @@
       <c r="BB391" s="6"/>
       <c r="BC391" s="6"/>
       <c r="BD391" s="6"/>
+      <c r="BE391" s="6"/>
       <c r="BF391" s="6"/>
-    </row>
-    <row r="392" spans="1:58">
+      <c r="BG391" s="6"/>
+      <c r="BH391" s="6"/>
+      <c r="BJ391" s="6"/>
+    </row>
+    <row r="392" spans="1:62">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="D392" s="6"/>
@@ -26823,9 +28406,13 @@
       <c r="BB392" s="6"/>
       <c r="BC392" s="6"/>
       <c r="BD392" s="6"/>
+      <c r="BE392" s="6"/>
       <c r="BF392" s="6"/>
-    </row>
-    <row r="393" spans="1:58">
+      <c r="BG392" s="6"/>
+      <c r="BH392" s="6"/>
+      <c r="BJ392" s="6"/>
+    </row>
+    <row r="393" spans="1:62">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="D393" s="6"/>
@@ -26881,9 +28468,13 @@
       <c r="BB393" s="6"/>
       <c r="BC393" s="6"/>
       <c r="BD393" s="6"/>
+      <c r="BE393" s="6"/>
       <c r="BF393" s="6"/>
-    </row>
-    <row r="394" spans="1:58">
+      <c r="BG393" s="6"/>
+      <c r="BH393" s="6"/>
+      <c r="BJ393" s="6"/>
+    </row>
+    <row r="394" spans="1:62">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="D394" s="6"/>
@@ -26939,9 +28530,13 @@
       <c r="BB394" s="6"/>
       <c r="BC394" s="6"/>
       <c r="BD394" s="6"/>
+      <c r="BE394" s="6"/>
       <c r="BF394" s="6"/>
-    </row>
-    <row r="395" spans="1:58">
+      <c r="BG394" s="6"/>
+      <c r="BH394" s="6"/>
+      <c r="BJ394" s="6"/>
+    </row>
+    <row r="395" spans="1:62">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="D395" s="6"/>
@@ -26997,9 +28592,13 @@
       <c r="BB395" s="6"/>
       <c r="BC395" s="6"/>
       <c r="BD395" s="6"/>
+      <c r="BE395" s="6"/>
       <c r="BF395" s="6"/>
-    </row>
-    <row r="396" spans="1:58">
+      <c r="BG395" s="6"/>
+      <c r="BH395" s="6"/>
+      <c r="BJ395" s="6"/>
+    </row>
+    <row r="396" spans="1:62">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="D396" s="6"/>
@@ -27055,9 +28654,13 @@
       <c r="BB396" s="6"/>
       <c r="BC396" s="6"/>
       <c r="BD396" s="6"/>
+      <c r="BE396" s="6"/>
       <c r="BF396" s="6"/>
-    </row>
-    <row r="397" spans="1:58">
+      <c r="BG396" s="6"/>
+      <c r="BH396" s="6"/>
+      <c r="BJ396" s="6"/>
+    </row>
+    <row r="397" spans="1:62">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="D397" s="6"/>
@@ -27113,9 +28716,13 @@
       <c r="BB397" s="6"/>
       <c r="BC397" s="6"/>
       <c r="BD397" s="6"/>
+      <c r="BE397" s="6"/>
       <c r="BF397" s="6"/>
-    </row>
-    <row r="398" spans="1:58">
+      <c r="BG397" s="6"/>
+      <c r="BH397" s="6"/>
+      <c r="BJ397" s="6"/>
+    </row>
+    <row r="398" spans="1:62">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="D398" s="6"/>
@@ -27171,9 +28778,13 @@
       <c r="BB398" s="6"/>
       <c r="BC398" s="6"/>
       <c r="BD398" s="6"/>
+      <c r="BE398" s="6"/>
       <c r="BF398" s="6"/>
-    </row>
-    <row r="399" spans="1:58">
+      <c r="BG398" s="6"/>
+      <c r="BH398" s="6"/>
+      <c r="BJ398" s="6"/>
+    </row>
+    <row r="399" spans="1:62">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="D399" s="6"/>
@@ -27229,9 +28840,13 @@
       <c r="BB399" s="6"/>
       <c r="BC399" s="6"/>
       <c r="BD399" s="6"/>
+      <c r="BE399" s="6"/>
       <c r="BF399" s="6"/>
-    </row>
-    <row r="400" spans="1:58">
+      <c r="BG399" s="6"/>
+      <c r="BH399" s="6"/>
+      <c r="BJ399" s="6"/>
+    </row>
+    <row r="400" spans="1:62">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="D400" s="6"/>
@@ -27287,9 +28902,13 @@
       <c r="BB400" s="6"/>
       <c r="BC400" s="6"/>
       <c r="BD400" s="6"/>
+      <c r="BE400" s="6"/>
       <c r="BF400" s="6"/>
-    </row>
-    <row r="401" spans="1:58">
+      <c r="BG400" s="6"/>
+      <c r="BH400" s="6"/>
+      <c r="BJ400" s="6"/>
+    </row>
+    <row r="401" spans="1:62">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="D401" s="6"/>
@@ -27345,9 +28964,13 @@
       <c r="BB401" s="6"/>
       <c r="BC401" s="6"/>
       <c r="BD401" s="6"/>
+      <c r="BE401" s="6"/>
       <c r="BF401" s="6"/>
-    </row>
-    <row r="402" spans="1:58">
+      <c r="BG401" s="6"/>
+      <c r="BH401" s="6"/>
+      <c r="BJ401" s="6"/>
+    </row>
+    <row r="402" spans="1:62">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="D402" s="6"/>
@@ -27403,9 +29026,13 @@
       <c r="BB402" s="6"/>
       <c r="BC402" s="6"/>
       <c r="BD402" s="6"/>
+      <c r="BE402" s="6"/>
       <c r="BF402" s="6"/>
-    </row>
-    <row r="403" spans="1:58">
+      <c r="BG402" s="6"/>
+      <c r="BH402" s="6"/>
+      <c r="BJ402" s="6"/>
+    </row>
+    <row r="403" spans="1:62">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="D403" s="6"/>
@@ -27461,9 +29088,13 @@
       <c r="BB403" s="6"/>
       <c r="BC403" s="6"/>
       <c r="BD403" s="6"/>
+      <c r="BE403" s="6"/>
       <c r="BF403" s="6"/>
-    </row>
-    <row r="404" spans="1:58">
+      <c r="BG403" s="6"/>
+      <c r="BH403" s="6"/>
+      <c r="BJ403" s="6"/>
+    </row>
+    <row r="404" spans="1:62">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="D404" s="6"/>
@@ -27519,9 +29150,13 @@
       <c r="BB404" s="6"/>
       <c r="BC404" s="6"/>
       <c r="BD404" s="6"/>
+      <c r="BE404" s="6"/>
       <c r="BF404" s="6"/>
-    </row>
-    <row r="405" spans="1:58">
+      <c r="BG404" s="6"/>
+      <c r="BH404" s="6"/>
+      <c r="BJ404" s="6"/>
+    </row>
+    <row r="405" spans="1:62">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="D405" s="6"/>
@@ -27577,9 +29212,13 @@
       <c r="BB405" s="6"/>
       <c r="BC405" s="6"/>
       <c r="BD405" s="6"/>
+      <c r="BE405" s="6"/>
       <c r="BF405" s="6"/>
-    </row>
-    <row r="406" spans="1:58">
+      <c r="BG405" s="6"/>
+      <c r="BH405" s="6"/>
+      <c r="BJ405" s="6"/>
+    </row>
+    <row r="406" spans="1:62">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="D406" s="6"/>
@@ -27635,9 +29274,13 @@
       <c r="BB406" s="6"/>
       <c r="BC406" s="6"/>
       <c r="BD406" s="6"/>
+      <c r="BE406" s="6"/>
       <c r="BF406" s="6"/>
-    </row>
-    <row r="407" spans="1:58">
+      <c r="BG406" s="6"/>
+      <c r="BH406" s="6"/>
+      <c r="BJ406" s="6"/>
+    </row>
+    <row r="407" spans="1:62">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="D407" s="6"/>
@@ -27693,9 +29336,13 @@
       <c r="BB407" s="6"/>
       <c r="BC407" s="6"/>
       <c r="BD407" s="6"/>
+      <c r="BE407" s="6"/>
       <c r="BF407" s="6"/>
-    </row>
-    <row r="408" spans="1:58">
+      <c r="BG407" s="6"/>
+      <c r="BH407" s="6"/>
+      <c r="BJ407" s="6"/>
+    </row>
+    <row r="408" spans="1:62">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="D408" s="6"/>
@@ -27751,9 +29398,13 @@
       <c r="BB408" s="6"/>
       <c r="BC408" s="6"/>
       <c r="BD408" s="6"/>
+      <c r="BE408" s="6"/>
       <c r="BF408" s="6"/>
-    </row>
-    <row r="409" spans="1:58">
+      <c r="BG408" s="6"/>
+      <c r="BH408" s="6"/>
+      <c r="BJ408" s="6"/>
+    </row>
+    <row r="409" spans="1:62">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="D409" s="6"/>
@@ -27809,9 +29460,13 @@
       <c r="BB409" s="6"/>
       <c r="BC409" s="6"/>
       <c r="BD409" s="6"/>
+      <c r="BE409" s="6"/>
       <c r="BF409" s="6"/>
-    </row>
-    <row r="410" spans="1:58">
+      <c r="BG409" s="6"/>
+      <c r="BH409" s="6"/>
+      <c r="BJ409" s="6"/>
+    </row>
+    <row r="410" spans="1:62">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="D410" s="6"/>
@@ -27867,9 +29522,13 @@
       <c r="BB410" s="6"/>
       <c r="BC410" s="6"/>
       <c r="BD410" s="6"/>
+      <c r="BE410" s="6"/>
       <c r="BF410" s="6"/>
-    </row>
-    <row r="411" spans="1:58">
+      <c r="BG410" s="6"/>
+      <c r="BH410" s="6"/>
+      <c r="BJ410" s="6"/>
+    </row>
+    <row r="411" spans="1:62">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="D411" s="6"/>
@@ -27925,9 +29584,13 @@
       <c r="BB411" s="6"/>
       <c r="BC411" s="6"/>
       <c r="BD411" s="6"/>
+      <c r="BE411" s="6"/>
       <c r="BF411" s="6"/>
-    </row>
-    <row r="412" spans="1:58">
+      <c r="BG411" s="6"/>
+      <c r="BH411" s="6"/>
+      <c r="BJ411" s="6"/>
+    </row>
+    <row r="412" spans="1:62">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="D412" s="6"/>
@@ -27983,9 +29646,13 @@
       <c r="BB412" s="6"/>
       <c r="BC412" s="6"/>
       <c r="BD412" s="6"/>
+      <c r="BE412" s="6"/>
       <c r="BF412" s="6"/>
-    </row>
-    <row r="413" spans="1:58">
+      <c r="BG412" s="6"/>
+      <c r="BH412" s="6"/>
+      <c r="BJ412" s="6"/>
+    </row>
+    <row r="413" spans="1:62">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="D413" s="6"/>
@@ -28041,9 +29708,13 @@
       <c r="BB413" s="6"/>
       <c r="BC413" s="6"/>
       <c r="BD413" s="6"/>
+      <c r="BE413" s="6"/>
       <c r="BF413" s="6"/>
-    </row>
-    <row r="414" spans="1:58">
+      <c r="BG413" s="6"/>
+      <c r="BH413" s="6"/>
+      <c r="BJ413" s="6"/>
+    </row>
+    <row r="414" spans="1:62">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="D414" s="6"/>
@@ -28099,9 +29770,13 @@
       <c r="BB414" s="6"/>
       <c r="BC414" s="6"/>
       <c r="BD414" s="6"/>
+      <c r="BE414" s="6"/>
       <c r="BF414" s="6"/>
-    </row>
-    <row r="415" spans="1:58">
+      <c r="BG414" s="6"/>
+      <c r="BH414" s="6"/>
+      <c r="BJ414" s="6"/>
+    </row>
+    <row r="415" spans="1:62">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="D415" s="6"/>
@@ -28157,9 +29832,13 @@
       <c r="BB415" s="6"/>
       <c r="BC415" s="6"/>
       <c r="BD415" s="6"/>
+      <c r="BE415" s="6"/>
       <c r="BF415" s="6"/>
-    </row>
-    <row r="416" spans="1:58">
+      <c r="BG415" s="6"/>
+      <c r="BH415" s="6"/>
+      <c r="BJ415" s="6"/>
+    </row>
+    <row r="416" spans="1:62">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="D416" s="6"/>
@@ -28215,9 +29894,13 @@
       <c r="BB416" s="6"/>
       <c r="BC416" s="6"/>
       <c r="BD416" s="6"/>
+      <c r="BE416" s="6"/>
       <c r="BF416" s="6"/>
-    </row>
-    <row r="417" spans="1:58">
+      <c r="BG416" s="6"/>
+      <c r="BH416" s="6"/>
+      <c r="BJ416" s="6"/>
+    </row>
+    <row r="417" spans="1:62">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="D417" s="6"/>
@@ -28273,9 +29956,13 @@
       <c r="BB417" s="6"/>
       <c r="BC417" s="6"/>
       <c r="BD417" s="6"/>
+      <c r="BE417" s="6"/>
       <c r="BF417" s="6"/>
-    </row>
-    <row r="418" spans="1:58">
+      <c r="BG417" s="6"/>
+      <c r="BH417" s="6"/>
+      <c r="BJ417" s="6"/>
+    </row>
+    <row r="418" spans="1:62">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="D418" s="6"/>
@@ -28331,9 +30018,13 @@
       <c r="BB418" s="6"/>
       <c r="BC418" s="6"/>
       <c r="BD418" s="6"/>
+      <c r="BE418" s="6"/>
       <c r="BF418" s="6"/>
-    </row>
-    <row r="419" spans="1:58">
+      <c r="BG418" s="6"/>
+      <c r="BH418" s="6"/>
+      <c r="BJ418" s="6"/>
+    </row>
+    <row r="419" spans="1:62">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="D419" s="6"/>
@@ -28389,9 +30080,13 @@
       <c r="BB419" s="6"/>
       <c r="BC419" s="6"/>
       <c r="BD419" s="6"/>
+      <c r="BE419" s="6"/>
       <c r="BF419" s="6"/>
-    </row>
-    <row r="420" spans="1:58">
+      <c r="BG419" s="6"/>
+      <c r="BH419" s="6"/>
+      <c r="BJ419" s="6"/>
+    </row>
+    <row r="420" spans="1:62">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="D420" s="6"/>
@@ -28447,9 +30142,13 @@
       <c r="BB420" s="6"/>
       <c r="BC420" s="6"/>
       <c r="BD420" s="6"/>
+      <c r="BE420" s="6"/>
       <c r="BF420" s="6"/>
-    </row>
-    <row r="421" spans="1:58">
+      <c r="BG420" s="6"/>
+      <c r="BH420" s="6"/>
+      <c r="BJ420" s="6"/>
+    </row>
+    <row r="421" spans="1:62">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="D421" s="6"/>
@@ -28505,9 +30204,13 @@
       <c r="BB421" s="6"/>
       <c r="BC421" s="6"/>
       <c r="BD421" s="6"/>
+      <c r="BE421" s="6"/>
       <c r="BF421" s="6"/>
-    </row>
-    <row r="422" spans="1:58">
+      <c r="BG421" s="6"/>
+      <c r="BH421" s="6"/>
+      <c r="BJ421" s="6"/>
+    </row>
+    <row r="422" spans="1:62">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="D422" s="6"/>
@@ -28563,9 +30266,13 @@
       <c r="BB422" s="6"/>
       <c r="BC422" s="6"/>
       <c r="BD422" s="6"/>
+      <c r="BE422" s="6"/>
       <c r="BF422" s="6"/>
-    </row>
-    <row r="423" spans="1:58">
+      <c r="BG422" s="6"/>
+      <c r="BH422" s="6"/>
+      <c r="BJ422" s="6"/>
+    </row>
+    <row r="423" spans="1:62">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="D423" s="6"/>
@@ -28621,9 +30328,13 @@
       <c r="BB423" s="6"/>
       <c r="BC423" s="6"/>
       <c r="BD423" s="6"/>
+      <c r="BE423" s="6"/>
       <c r="BF423" s="6"/>
-    </row>
-    <row r="424" spans="1:58">
+      <c r="BG423" s="6"/>
+      <c r="BH423" s="6"/>
+      <c r="BJ423" s="6"/>
+    </row>
+    <row r="424" spans="1:62">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="D424" s="6"/>
@@ -28679,9 +30390,13 @@
       <c r="BB424" s="6"/>
       <c r="BC424" s="6"/>
       <c r="BD424" s="6"/>
+      <c r="BE424" s="6"/>
       <c r="BF424" s="6"/>
-    </row>
-    <row r="425" spans="1:58">
+      <c r="BG424" s="6"/>
+      <c r="BH424" s="6"/>
+      <c r="BJ424" s="6"/>
+    </row>
+    <row r="425" spans="1:62">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="D425" s="6"/>
@@ -28737,9 +30452,13 @@
       <c r="BB425" s="6"/>
       <c r="BC425" s="6"/>
       <c r="BD425" s="6"/>
+      <c r="BE425" s="6"/>
       <c r="BF425" s="6"/>
-    </row>
-    <row r="426" spans="1:58">
+      <c r="BG425" s="6"/>
+      <c r="BH425" s="6"/>
+      <c r="BJ425" s="6"/>
+    </row>
+    <row r="426" spans="1:62">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="D426" s="6"/>
@@ -28795,9 +30514,13 @@
       <c r="BB426" s="6"/>
       <c r="BC426" s="6"/>
       <c r="BD426" s="6"/>
+      <c r="BE426" s="6"/>
       <c r="BF426" s="6"/>
-    </row>
-    <row r="427" spans="1:58">
+      <c r="BG426" s="6"/>
+      <c r="BH426" s="6"/>
+      <c r="BJ426" s="6"/>
+    </row>
+    <row r="427" spans="1:62">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="D427" s="6"/>
@@ -28853,9 +30576,13 @@
       <c r="BB427" s="6"/>
       <c r="BC427" s="6"/>
       <c r="BD427" s="6"/>
+      <c r="BE427" s="6"/>
       <c r="BF427" s="6"/>
-    </row>
-    <row r="428" spans="1:58">
+      <c r="BG427" s="6"/>
+      <c r="BH427" s="6"/>
+      <c r="BJ427" s="6"/>
+    </row>
+    <row r="428" spans="1:62">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="D428" s="6"/>
@@ -28911,9 +30638,13 @@
       <c r="BB428" s="6"/>
       <c r="BC428" s="6"/>
       <c r="BD428" s="6"/>
+      <c r="BE428" s="6"/>
       <c r="BF428" s="6"/>
-    </row>
-    <row r="429" spans="1:58">
+      <c r="BG428" s="6"/>
+      <c r="BH428" s="6"/>
+      <c r="BJ428" s="6"/>
+    </row>
+    <row r="429" spans="1:62">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="D429" s="6"/>
@@ -28969,9 +30700,13 @@
       <c r="BB429" s="6"/>
       <c r="BC429" s="6"/>
       <c r="BD429" s="6"/>
+      <c r="BE429" s="6"/>
       <c r="BF429" s="6"/>
-    </row>
-    <row r="430" spans="1:58">
+      <c r="BG429" s="6"/>
+      <c r="BH429" s="6"/>
+      <c r="BJ429" s="6"/>
+    </row>
+    <row r="430" spans="1:62">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="D430" s="6"/>
@@ -29027,9 +30762,13 @@
       <c r="BB430" s="6"/>
       <c r="BC430" s="6"/>
       <c r="BD430" s="6"/>
+      <c r="BE430" s="6"/>
       <c r="BF430" s="6"/>
-    </row>
-    <row r="431" spans="1:58">
+      <c r="BG430" s="6"/>
+      <c r="BH430" s="6"/>
+      <c r="BJ430" s="6"/>
+    </row>
+    <row r="431" spans="1:62">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="D431" s="6"/>
@@ -29085,9 +30824,13 @@
       <c r="BB431" s="6"/>
       <c r="BC431" s="6"/>
       <c r="BD431" s="6"/>
+      <c r="BE431" s="6"/>
       <c r="BF431" s="6"/>
-    </row>
-    <row r="432" spans="1:58">
+      <c r="BG431" s="6"/>
+      <c r="BH431" s="6"/>
+      <c r="BJ431" s="6"/>
+    </row>
+    <row r="432" spans="1:62">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="D432" s="6"/>
@@ -29143,9 +30886,13 @@
       <c r="BB432" s="6"/>
       <c r="BC432" s="6"/>
       <c r="BD432" s="6"/>
+      <c r="BE432" s="6"/>
       <c r="BF432" s="6"/>
-    </row>
-    <row r="433" spans="1:58">
+      <c r="BG432" s="6"/>
+      <c r="BH432" s="6"/>
+      <c r="BJ432" s="6"/>
+    </row>
+    <row r="433" spans="1:62">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="D433" s="6"/>
@@ -29201,9 +30948,13 @@
       <c r="BB433" s="6"/>
       <c r="BC433" s="6"/>
       <c r="BD433" s="6"/>
+      <c r="BE433" s="6"/>
       <c r="BF433" s="6"/>
-    </row>
-    <row r="434" spans="1:58">
+      <c r="BG433" s="6"/>
+      <c r="BH433" s="6"/>
+      <c r="BJ433" s="6"/>
+    </row>
+    <row r="434" spans="1:62">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="D434" s="6"/>
@@ -29259,9 +31010,13 @@
       <c r="BB434" s="6"/>
       <c r="BC434" s="6"/>
       <c r="BD434" s="6"/>
+      <c r="BE434" s="6"/>
       <c r="BF434" s="6"/>
-    </row>
-    <row r="435" spans="1:58">
+      <c r="BG434" s="6"/>
+      <c r="BH434" s="6"/>
+      <c r="BJ434" s="6"/>
+    </row>
+    <row r="435" spans="1:62">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="D435" s="6"/>
@@ -29317,9 +31072,13 @@
       <c r="BB435" s="6"/>
       <c r="BC435" s="6"/>
       <c r="BD435" s="6"/>
+      <c r="BE435" s="6"/>
       <c r="BF435" s="6"/>
-    </row>
-    <row r="436" spans="1:58">
+      <c r="BG435" s="6"/>
+      <c r="BH435" s="6"/>
+      <c r="BJ435" s="6"/>
+    </row>
+    <row r="436" spans="1:62">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="D436" s="6"/>
@@ -29375,9 +31134,13 @@
       <c r="BB436" s="6"/>
       <c r="BC436" s="6"/>
       <c r="BD436" s="6"/>
+      <c r="BE436" s="6"/>
       <c r="BF436" s="6"/>
-    </row>
-    <row r="437" spans="1:58">
+      <c r="BG436" s="6"/>
+      <c r="BH436" s="6"/>
+      <c r="BJ436" s="6"/>
+    </row>
+    <row r="437" spans="1:62">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="D437" s="6"/>
@@ -29433,9 +31196,13 @@
       <c r="BB437" s="6"/>
       <c r="BC437" s="6"/>
       <c r="BD437" s="6"/>
+      <c r="BE437" s="6"/>
       <c r="BF437" s="6"/>
-    </row>
-    <row r="438" spans="1:58">
+      <c r="BG437" s="6"/>
+      <c r="BH437" s="6"/>
+      <c r="BJ437" s="6"/>
+    </row>
+    <row r="438" spans="1:62">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="D438" s="6"/>
@@ -29491,9 +31258,13 @@
       <c r="BB438" s="6"/>
       <c r="BC438" s="6"/>
       <c r="BD438" s="6"/>
+      <c r="BE438" s="6"/>
       <c r="BF438" s="6"/>
-    </row>
-    <row r="439" spans="1:58">
+      <c r="BG438" s="6"/>
+      <c r="BH438" s="6"/>
+      <c r="BJ438" s="6"/>
+    </row>
+    <row r="439" spans="1:62">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="D439" s="6"/>
@@ -29549,9 +31320,13 @@
       <c r="BB439" s="6"/>
       <c r="BC439" s="6"/>
       <c r="BD439" s="6"/>
+      <c r="BE439" s="6"/>
       <c r="BF439" s="6"/>
-    </row>
-    <row r="440" spans="1:58">
+      <c r="BG439" s="6"/>
+      <c r="BH439" s="6"/>
+      <c r="BJ439" s="6"/>
+    </row>
+    <row r="440" spans="1:62">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="D440" s="6"/>
@@ -29607,9 +31382,13 @@
       <c r="BB440" s="6"/>
       <c r="BC440" s="6"/>
       <c r="BD440" s="6"/>
+      <c r="BE440" s="6"/>
       <c r="BF440" s="6"/>
-    </row>
-    <row r="441" spans="1:58">
+      <c r="BG440" s="6"/>
+      <c r="BH440" s="6"/>
+      <c r="BJ440" s="6"/>
+    </row>
+    <row r="441" spans="1:62">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="D441" s="6"/>
@@ -29665,9 +31444,13 @@
       <c r="BB441" s="6"/>
       <c r="BC441" s="6"/>
       <c r="BD441" s="6"/>
+      <c r="BE441" s="6"/>
       <c r="BF441" s="6"/>
-    </row>
-    <row r="442" spans="1:58">
+      <c r="BG441" s="6"/>
+      <c r="BH441" s="6"/>
+      <c r="BJ441" s="6"/>
+    </row>
+    <row r="442" spans="1:62">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="D442" s="6"/>
@@ -29723,9 +31506,13 @@
       <c r="BB442" s="6"/>
       <c r="BC442" s="6"/>
       <c r="BD442" s="6"/>
+      <c r="BE442" s="6"/>
       <c r="BF442" s="6"/>
-    </row>
-    <row r="443" spans="1:58">
+      <c r="BG442" s="6"/>
+      <c r="BH442" s="6"/>
+      <c r="BJ442" s="6"/>
+    </row>
+    <row r="443" spans="1:62">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="D443" s="6"/>
@@ -29781,9 +31568,13 @@
       <c r="BB443" s="6"/>
       <c r="BC443" s="6"/>
       <c r="BD443" s="6"/>
+      <c r="BE443" s="6"/>
       <c r="BF443" s="6"/>
-    </row>
-    <row r="444" spans="1:58">
+      <c r="BG443" s="6"/>
+      <c r="BH443" s="6"/>
+      <c r="BJ443" s="6"/>
+    </row>
+    <row r="444" spans="1:62">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="D444" s="6"/>
@@ -29839,9 +31630,13 @@
       <c r="BB444" s="6"/>
       <c r="BC444" s="6"/>
       <c r="BD444" s="6"/>
+      <c r="BE444" s="6"/>
       <c r="BF444" s="6"/>
-    </row>
-    <row r="445" spans="1:58">
+      <c r="BG444" s="6"/>
+      <c r="BH444" s="6"/>
+      <c r="BJ444" s="6"/>
+    </row>
+    <row r="445" spans="1:62">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="D445" s="6"/>
@@ -29897,9 +31692,13 @@
       <c r="BB445" s="6"/>
       <c r="BC445" s="6"/>
       <c r="BD445" s="6"/>
+      <c r="BE445" s="6"/>
       <c r="BF445" s="6"/>
-    </row>
-    <row r="446" spans="1:58">
+      <c r="BG445" s="6"/>
+      <c r="BH445" s="6"/>
+      <c r="BJ445" s="6"/>
+    </row>
+    <row r="446" spans="1:62">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="D446" s="6"/>
@@ -29955,9 +31754,13 @@
       <c r="BB446" s="6"/>
       <c r="BC446" s="6"/>
       <c r="BD446" s="6"/>
+      <c r="BE446" s="6"/>
       <c r="BF446" s="6"/>
-    </row>
-    <row r="447" spans="1:58">
+      <c r="BG446" s="6"/>
+      <c r="BH446" s="6"/>
+      <c r="BJ446" s="6"/>
+    </row>
+    <row r="447" spans="1:62">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="D447" s="6"/>
@@ -30013,9 +31816,13 @@
       <c r="BB447" s="6"/>
       <c r="BC447" s="6"/>
       <c r="BD447" s="6"/>
+      <c r="BE447" s="6"/>
       <c r="BF447" s="6"/>
-    </row>
-    <row r="448" spans="1:58">
+      <c r="BG447" s="6"/>
+      <c r="BH447" s="6"/>
+      <c r="BJ447" s="6"/>
+    </row>
+    <row r="448" spans="1:62">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="D448" s="6"/>
@@ -30071,9 +31878,13 @@
       <c r="BB448" s="6"/>
       <c r="BC448" s="6"/>
       <c r="BD448" s="6"/>
+      <c r="BE448" s="6"/>
       <c r="BF448" s="6"/>
-    </row>
-    <row r="449" spans="1:58">
+      <c r="BG448" s="6"/>
+      <c r="BH448" s="6"/>
+      <c r="BJ448" s="6"/>
+    </row>
+    <row r="449" spans="1:62">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="D449" s="6"/>
@@ -30129,9 +31940,13 @@
       <c r="BB449" s="6"/>
       <c r="BC449" s="6"/>
       <c r="BD449" s="6"/>
+      <c r="BE449" s="6"/>
       <c r="BF449" s="6"/>
-    </row>
-    <row r="450" spans="1:58">
+      <c r="BG449" s="6"/>
+      <c r="BH449" s="6"/>
+      <c r="BJ449" s="6"/>
+    </row>
+    <row r="450" spans="1:62">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="D450" s="6"/>
@@ -30187,9 +32002,13 @@
       <c r="BB450" s="6"/>
       <c r="BC450" s="6"/>
       <c r="BD450" s="6"/>
+      <c r="BE450" s="6"/>
       <c r="BF450" s="6"/>
-    </row>
-    <row r="451" spans="1:58">
+      <c r="BG450" s="6"/>
+      <c r="BH450" s="6"/>
+      <c r="BJ450" s="6"/>
+    </row>
+    <row r="451" spans="1:62">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="D451" s="6"/>
@@ -30245,9 +32064,13 @@
       <c r="BB451" s="6"/>
       <c r="BC451" s="6"/>
       <c r="BD451" s="6"/>
+      <c r="BE451" s="6"/>
       <c r="BF451" s="6"/>
-    </row>
-    <row r="452" spans="1:58">
+      <c r="BG451" s="6"/>
+      <c r="BH451" s="6"/>
+      <c r="BJ451" s="6"/>
+    </row>
+    <row r="452" spans="1:62">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="D452" s="6"/>
@@ -30303,9 +32126,13 @@
       <c r="BB452" s="6"/>
       <c r="BC452" s="6"/>
       <c r="BD452" s="6"/>
+      <c r="BE452" s="6"/>
       <c r="BF452" s="6"/>
-    </row>
-    <row r="453" spans="1:58">
+      <c r="BG452" s="6"/>
+      <c r="BH452" s="6"/>
+      <c r="BJ452" s="6"/>
+    </row>
+    <row r="453" spans="1:62">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="D453" s="6"/>
@@ -30361,9 +32188,13 @@
       <c r="BB453" s="6"/>
       <c r="BC453" s="6"/>
       <c r="BD453" s="6"/>
+      <c r="BE453" s="6"/>
       <c r="BF453" s="6"/>
-    </row>
-    <row r="454" spans="1:58">
+      <c r="BG453" s="6"/>
+      <c r="BH453" s="6"/>
+      <c r="BJ453" s="6"/>
+    </row>
+    <row r="454" spans="1:62">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="D454" s="6"/>
@@ -30419,9 +32250,13 @@
       <c r="BB454" s="6"/>
       <c r="BC454" s="6"/>
       <c r="BD454" s="6"/>
+      <c r="BE454" s="6"/>
       <c r="BF454" s="6"/>
-    </row>
-    <row r="455" spans="1:58">
+      <c r="BG454" s="6"/>
+      <c r="BH454" s="6"/>
+      <c r="BJ454" s="6"/>
+    </row>
+    <row r="455" spans="1:62">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="D455" s="6"/>
@@ -30477,9 +32312,13 @@
       <c r="BB455" s="6"/>
       <c r="BC455" s="6"/>
       <c r="BD455" s="6"/>
+      <c r="BE455" s="6"/>
       <c r="BF455" s="6"/>
-    </row>
-    <row r="456" spans="1:58">
+      <c r="BG455" s="6"/>
+      <c r="BH455" s="6"/>
+      <c r="BJ455" s="6"/>
+    </row>
+    <row r="456" spans="1:62">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="D456" s="6"/>
@@ -30535,9 +32374,13 @@
       <c r="BB456" s="6"/>
       <c r="BC456" s="6"/>
       <c r="BD456" s="6"/>
+      <c r="BE456" s="6"/>
       <c r="BF456" s="6"/>
-    </row>
-    <row r="457" spans="1:58">
+      <c r="BG456" s="6"/>
+      <c r="BH456" s="6"/>
+      <c r="BJ456" s="6"/>
+    </row>
+    <row r="457" spans="1:62">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="D457" s="6"/>
@@ -30593,9 +32436,13 @@
       <c r="BB457" s="6"/>
       <c r="BC457" s="6"/>
       <c r="BD457" s="6"/>
+      <c r="BE457" s="6"/>
       <c r="BF457" s="6"/>
-    </row>
-    <row r="458" spans="1:58">
+      <c r="BG457" s="6"/>
+      <c r="BH457" s="6"/>
+      <c r="BJ457" s="6"/>
+    </row>
+    <row r="458" spans="1:62">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="D458" s="6"/>
@@ -30651,9 +32498,13 @@
       <c r="BB458" s="6"/>
       <c r="BC458" s="6"/>
       <c r="BD458" s="6"/>
+      <c r="BE458" s="6"/>
       <c r="BF458" s="6"/>
-    </row>
-    <row r="459" spans="1:58">
+      <c r="BG458" s="6"/>
+      <c r="BH458" s="6"/>
+      <c r="BJ458" s="6"/>
+    </row>
+    <row r="459" spans="1:62">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="D459" s="6"/>
@@ -30709,9 +32560,13 @@
       <c r="BB459" s="6"/>
       <c r="BC459" s="6"/>
       <c r="BD459" s="6"/>
+      <c r="BE459" s="6"/>
       <c r="BF459" s="6"/>
-    </row>
-    <row r="460" spans="1:58">
+      <c r="BG459" s="6"/>
+      <c r="BH459" s="6"/>
+      <c r="BJ459" s="6"/>
+    </row>
+    <row r="460" spans="1:62">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="D460" s="6"/>
@@ -30767,9 +32622,13 @@
       <c r="BB460" s="6"/>
       <c r="BC460" s="6"/>
       <c r="BD460" s="6"/>
+      <c r="BE460" s="6"/>
       <c r="BF460" s="6"/>
-    </row>
-    <row r="461" spans="1:58">
+      <c r="BG460" s="6"/>
+      <c r="BH460" s="6"/>
+      <c r="BJ460" s="6"/>
+    </row>
+    <row r="461" spans="1:62">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="D461" s="6"/>
@@ -30825,9 +32684,13 @@
       <c r="BB461" s="6"/>
       <c r="BC461" s="6"/>
       <c r="BD461" s="6"/>
+      <c r="BE461" s="6"/>
       <c r="BF461" s="6"/>
-    </row>
-    <row r="462" spans="1:58">
+      <c r="BG461" s="6"/>
+      <c r="BH461" s="6"/>
+      <c r="BJ461" s="6"/>
+    </row>
+    <row r="462" spans="1:62">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="D462" s="6"/>
@@ -30883,9 +32746,13 @@
       <c r="BB462" s="6"/>
       <c r="BC462" s="6"/>
       <c r="BD462" s="6"/>
+      <c r="BE462" s="6"/>
       <c r="BF462" s="6"/>
-    </row>
-    <row r="463" spans="1:58">
+      <c r="BG462" s="6"/>
+      <c r="BH462" s="6"/>
+      <c r="BJ462" s="6"/>
+    </row>
+    <row r="463" spans="1:62">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="D463" s="6"/>
@@ -30941,9 +32808,13 @@
       <c r="BB463" s="6"/>
       <c r="BC463" s="6"/>
       <c r="BD463" s="6"/>
+      <c r="BE463" s="6"/>
       <c r="BF463" s="6"/>
-    </row>
-    <row r="464" spans="1:58">
+      <c r="BG463" s="6"/>
+      <c r="BH463" s="6"/>
+      <c r="BJ463" s="6"/>
+    </row>
+    <row r="464" spans="1:62">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="D464" s="6"/>
@@ -30999,9 +32870,13 @@
       <c r="BB464" s="6"/>
       <c r="BC464" s="6"/>
       <c r="BD464" s="6"/>
+      <c r="BE464" s="6"/>
       <c r="BF464" s="6"/>
-    </row>
-    <row r="465" spans="1:58">
+      <c r="BG464" s="6"/>
+      <c r="BH464" s="6"/>
+      <c r="BJ464" s="6"/>
+    </row>
+    <row r="465" spans="1:62">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="D465" s="6"/>
@@ -31057,9 +32932,13 @@
       <c r="BB465" s="6"/>
       <c r="BC465" s="6"/>
       <c r="BD465" s="6"/>
+      <c r="BE465" s="6"/>
       <c r="BF465" s="6"/>
-    </row>
-    <row r="466" spans="1:58">
+      <c r="BG465" s="6"/>
+      <c r="BH465" s="6"/>
+      <c r="BJ465" s="6"/>
+    </row>
+    <row r="466" spans="1:62">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="D466" s="6"/>
@@ -31115,9 +32994,13 @@
       <c r="BB466" s="6"/>
       <c r="BC466" s="6"/>
       <c r="BD466" s="6"/>
+      <c r="BE466" s="6"/>
       <c r="BF466" s="6"/>
-    </row>
-    <row r="467" spans="1:58">
+      <c r="BG466" s="6"/>
+      <c r="BH466" s="6"/>
+      <c r="BJ466" s="6"/>
+    </row>
+    <row r="467" spans="1:62">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="D467" s="6"/>
@@ -31173,9 +33056,13 @@
       <c r="BB467" s="6"/>
       <c r="BC467" s="6"/>
       <c r="BD467" s="6"/>
+      <c r="BE467" s="6"/>
       <c r="BF467" s="6"/>
-    </row>
-    <row r="468" spans="1:58">
+      <c r="BG467" s="6"/>
+      <c r="BH467" s="6"/>
+      <c r="BJ467" s="6"/>
+    </row>
+    <row r="468" spans="1:62">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="D468" s="6"/>
@@ -31231,9 +33118,13 @@
       <c r="BB468" s="6"/>
       <c r="BC468" s="6"/>
       <c r="BD468" s="6"/>
+      <c r="BE468" s="6"/>
       <c r="BF468" s="6"/>
-    </row>
-    <row r="469" spans="1:58">
+      <c r="BG468" s="6"/>
+      <c r="BH468" s="6"/>
+      <c r="BJ468" s="6"/>
+    </row>
+    <row r="469" spans="1:62">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="D469" s="6"/>
@@ -31289,9 +33180,13 @@
       <c r="BB469" s="6"/>
       <c r="BC469" s="6"/>
       <c r="BD469" s="6"/>
+      <c r="BE469" s="6"/>
       <c r="BF469" s="6"/>
-    </row>
-    <row r="470" spans="1:58">
+      <c r="BG469" s="6"/>
+      <c r="BH469" s="6"/>
+      <c r="BJ469" s="6"/>
+    </row>
+    <row r="470" spans="1:62">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="D470" s="6"/>
@@ -31347,9 +33242,13 @@
       <c r="BB470" s="6"/>
       <c r="BC470" s="6"/>
       <c r="BD470" s="6"/>
+      <c r="BE470" s="6"/>
       <c r="BF470" s="6"/>
-    </row>
-    <row r="471" spans="1:58">
+      <c r="BG470" s="6"/>
+      <c r="BH470" s="6"/>
+      <c r="BJ470" s="6"/>
+    </row>
+    <row r="471" spans="1:62">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="D471" s="6"/>
@@ -31405,7 +33304,11 @@
       <c r="BB471" s="6"/>
       <c r="BC471" s="6"/>
       <c r="BD471" s="6"/>
+      <c r="BE471" s="6"/>
       <c r="BF471" s="6"/>
+      <c r="BG471" s="6"/>
+      <c r="BH471" s="6"/>
+      <c r="BJ471" s="6"/>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="6"/>
@@ -31648,15 +33551,16 @@
       <c r="A551" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:AF1"/>
-    <mergeCell ref="AH1:AS1"/>
+    <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="M2:AF2"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -31670,16 +33574,16 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="BA2:BA3"/>
     <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="BC2:BC3"/>
     <mergeCell ref="BD2:BD3"/>
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1:C3" r:id="rId1" display="股票代码"/>
@@ -31709,31 +33613,31 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="CU1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="e">
-        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BF994,53,FALSE)))</f>
+        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ994,53,FALSE)))</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="3" t="e">
-        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BF994,53,FALSE),0))</f>
+        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ994,53,FALSE),0))</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -273,16 +273,16 @@
 (最后的价格收缩期间的成交量应低于50天的平均水平且有一到两天交易量极低)</t>
   </si>
   <si>
-    <t>近第一个季度</t>
+    <t>近第四个季度</t>
+  </si>
+  <si>
+    <t>近第三个季度</t>
   </si>
   <si>
     <t>近第二个季度</t>
   </si>
   <si>
-    <t>近第三个季度</t>
-  </si>
-  <si>
-    <t>近第四个季度</t>
+    <t>近第一个季度</t>
   </si>
   <si>
     <t>利润来源</t>
@@ -2917,11 +2917,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT3" sqref="AT3"/>
+      <selection pane="bottomRight" activeCell="AP3" sqref="AP3:AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -399,6 +399,36 @@
     <t>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</t>
   </si>
   <si>
+    <t>1018.94%</t>
+  </si>
+  <si>
+    <t>1628.25%</t>
+  </si>
+  <si>
+    <t>195.29%</t>
+  </si>
+  <si>
+    <t>187.08%</t>
+  </si>
+  <si>
+    <t>346.57%</t>
+  </si>
+  <si>
+    <t>1325.86%</t>
+  </si>
+  <si>
+    <t>185.25%</t>
+  </si>
+  <si>
+    <t>196.14%</t>
+  </si>
+  <si>
+    <t>78.21%</t>
+  </si>
+  <si>
+    <t>76.66%</t>
+  </si>
+  <si>
     <t>可以</t>
   </si>
   <si>
@@ -564,6 +594,18 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>-30.59%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>32.53%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
   </si>
   <si>
     <t>000021</t>
@@ -1532,7 +1574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1693,6 +1735,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2917,11 +2962,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP3" sqref="AP3:AS3"/>
+      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3016,56 +3061,56 @@
       <c r="AU1" s="10"/>
       <c r="AV1" s="10"/>
       <c r="AW1" s="10"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CC1" s="66"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CN1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CS1" s="66"/>
-      <c r="CT1" s="66"/>
-      <c r="CU1" s="66"/>
-      <c r="CV1" s="66"/>
-      <c r="CW1" s="66"/>
-      <c r="CX1" s="66"/>
-      <c r="CY1" s="66"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CS1" s="67"/>
+      <c r="CT1" s="67"/>
+      <c r="CU1" s="67"/>
+      <c r="CV1" s="67"/>
+      <c r="CW1" s="67"/>
+      <c r="CX1" s="67"/>
+      <c r="CY1" s="67"/>
     </row>
     <row r="2" ht="23.6" spans="1:103">
       <c r="A2" s="7"/>
@@ -3180,43 +3225,43 @@
       <c r="BJ2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="61"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BT2" s="66"/>
-      <c r="BU2" s="66"/>
-      <c r="BV2" s="66"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CC2" s="66"/>
-      <c r="CD2" s="66"/>
-      <c r="CE2" s="66"/>
-      <c r="CF2" s="66"/>
-      <c r="CG2" s="66"/>
-      <c r="CH2" s="66"/>
-      <c r="CI2" s="66"/>
-      <c r="CK2" s="66"/>
-      <c r="CL2" s="66"/>
-      <c r="CM2" s="66"/>
-      <c r="CN2" s="66"/>
-      <c r="CO2" s="66"/>
-      <c r="CP2" s="66"/>
-      <c r="CQ2" s="66"/>
-      <c r="CS2" s="66"/>
-      <c r="CT2" s="66"/>
-      <c r="CU2" s="66"/>
-      <c r="CV2" s="66"/>
-      <c r="CW2" s="66"/>
-      <c r="CX2" s="66"/>
-      <c r="CY2" s="66"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BT2" s="67"/>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="67"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="67"/>
+      <c r="CE2" s="67"/>
+      <c r="CF2" s="67"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67"/>
+      <c r="CI2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
     </row>
     <row r="3" ht="48" spans="1:103">
       <c r="A3" s="7"/>
@@ -3328,21 +3373,21 @@
       <c r="AS3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="54" t="s">
+      <c r="AT3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="54" t="s">
+      <c r="AU3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
       <c r="AX3" s="43" t="s">
         <v>58</v>
       </c>
       <c r="AY3" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="AZ3" s="55" t="s">
+      <c r="AZ3" s="56" t="s">
         <v>60</v>
       </c>
       <c r="BA3" s="12"/>
@@ -3355,46 +3400,46 @@
       <c r="BH3" s="12"/>
       <c r="BI3" s="12"/>
       <c r="BJ3" s="12"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="38" spans="1:103">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="14">
@@ -3499,10 +3544,6 @@
         <v>68</v>
       </c>
       <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
       <c r="AL4" s="47"/>
       <c r="AM4" s="47"/>
       <c r="AN4" s="47"/>
@@ -3542,7 +3583,7 @@
         <f>FLOOR(300/(BA4-BB4),100)</f>
         <v>100</v>
       </c>
-      <c r="BF4" s="58">
+      <c r="BF4" s="59">
         <f>(BC4-BA4)/(BA4-BB4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -3560,46 +3601,46 @@
       <c r="BJ4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="63"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="67"/>
-      <c r="BY4" s="67"/>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="67"/>
-      <c r="CF4" s="67"/>
-      <c r="CG4" s="67"/>
-      <c r="CH4" s="67"/>
-      <c r="CI4" s="67"/>
-      <c r="CK4" s="67"/>
-      <c r="CL4" s="67"/>
-      <c r="CM4" s="67"/>
-      <c r="CN4" s="67"/>
-      <c r="CO4" s="67"/>
-      <c r="CP4" s="67"/>
-      <c r="CQ4" s="67"/>
-      <c r="CS4" s="67"/>
-      <c r="CT4" s="67"/>
-      <c r="CU4" s="67"/>
-      <c r="CV4" s="67"/>
-      <c r="CW4" s="67"/>
-      <c r="CX4" s="67"/>
-      <c r="CY4" s="67"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68"/>
+      <c r="CI4" s="68"/>
+      <c r="CK4" s="68"/>
+      <c r="CL4" s="68"/>
+      <c r="CM4" s="68"/>
+      <c r="CN4" s="68"/>
+      <c r="CO4" s="68"/>
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CS4" s="68"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+      <c r="CV4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="38" spans="1:63">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="14">
@@ -3693,18 +3734,42 @@
         <v>74</v>
       </c>
       <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
+      <c r="AH5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ5" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR5" s="37">
+        <v>0.7636</v>
+      </c>
+      <c r="AS5" s="37">
+        <v>0.7607</v>
+      </c>
       <c r="AT5" s="18"/>
       <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
@@ -3736,7 +3801,7 @@
         <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
-      <c r="BF5" s="58">
+      <c r="BF5" s="59">
         <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
@@ -3752,19 +3817,19 @@
         <v>37.41</v>
       </c>
       <c r="BJ5" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK5" s="64"/>
+        <v>85</v>
+      </c>
+      <c r="BK5" s="65"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="38" spans="1:63">
-      <c r="A6" s="69" t="s">
-        <v>76</v>
+      <c r="A6" s="70" t="s">
+        <v>86</v>
       </c>
       <c r="B6" s="14">
         <v>44519</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D6" s="18">
         <v>28.2</v>
@@ -3821,7 +3886,7 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="44" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="45">
         <f t="shared" si="2"/>
@@ -3845,10 +3910,10 @@
       </c>
       <c r="AD6" s="17"/>
       <c r="AE6" s="49" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AF6" s="48" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG6" s="48"/>
       <c r="AH6" s="48"/>
@@ -3894,7 +3959,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF6" s="58">
+      <c r="BF6" s="59">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
@@ -3910,31 +3975,31 @@
         <v>28.82</v>
       </c>
       <c r="BJ6" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK6" s="64"/>
+        <v>85</v>
+      </c>
+      <c r="BK6" s="65"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="38" spans="1:63">
-      <c r="A7" s="69" t="s">
-        <v>81</v>
+      <c r="A7" s="70" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="19">
         <v>44525</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D7" s="21">
         <v>64.32</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F7" s="21">
         <v>68.37</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H7" s="21">
         <v>69.16</v>
@@ -3975,7 +4040,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Y7" s="45">
         <f t="shared" si="2"/>
@@ -3996,10 +4061,10 @@
       <c r="AC7" s="38"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AF7" s="50" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AG7" s="50"/>
       <c r="AH7" s="50"/>
@@ -4045,7 +4110,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BF7" s="58">
+      <c r="BF7" s="59">
         <f t="shared" si="9"/>
         <v>3.40487804878048</v>
       </c>
@@ -4061,19 +4126,19 @@
         <v>6.49</v>
       </c>
       <c r="BJ7" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK7" s="65"/>
+        <v>85</v>
+      </c>
+      <c r="BK7" s="66"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
-      <c r="A8" s="70" t="s">
-        <v>87</v>
+      <c r="A8" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="B8" s="19">
         <v>44522</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D8" s="21">
         <v>28.37</v>
@@ -4148,10 +4213,10 @@
       </c>
       <c r="AD8" s="21"/>
       <c r="AE8" s="21" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AF8" s="50" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AG8" s="50"/>
       <c r="AH8" s="50"/>
@@ -4176,7 +4241,7 @@
       <c r="AY8" s="21">
         <v>26.16</v>
       </c>
-      <c r="AZ8" s="57">
+      <c r="AZ8" s="58">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
@@ -4189,7 +4254,7 @@
       <c r="BC8" s="21">
         <v>38.71</v>
       </c>
-      <c r="BD8" s="57">
+      <c r="BD8" s="58">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
@@ -4197,7 +4262,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF8" s="59">
+      <c r="BF8" s="60">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
@@ -4215,17 +4280,17 @@
       <c r="BJ8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="BK8" s="65"/>
+      <c r="BK8" s="66"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="13" spans="1:63">
-      <c r="A9" s="70" t="s">
-        <v>90</v>
+      <c r="A9" s="71" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="22">
         <v>44529</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D9" s="17">
         <v>22.26</v>
@@ -4280,7 +4345,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="45">
         <f t="shared" si="2"/>
@@ -4304,7 +4369,7 @@
         <v>73</v>
       </c>
       <c r="AF9" s="51" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
@@ -4350,7 +4415,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF9" s="60">
+      <c r="BF9" s="61">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
@@ -4366,19 +4431,19 @@
         <v>17.95</v>
       </c>
       <c r="BJ9" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK9" s="64"/>
+        <v>85</v>
+      </c>
+      <c r="BK9" s="65"/>
     </row>
     <row r="10" ht="13" spans="1:62">
-      <c r="A10" s="69" t="s">
-        <v>93</v>
+      <c r="A10" s="70" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="24">
         <v>44531</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D10" s="17">
         <v>18.62</v>
@@ -4433,7 +4498,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="45">
         <f t="shared" si="2"/>
@@ -4457,21 +4522,45 @@
         <v>73</v>
       </c>
       <c r="AF10" s="51" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
+      <c r="AH10" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI10" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK10" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" s="54">
+        <v>-0.0419</v>
+      </c>
+      <c r="AM10" s="54">
+        <v>0.1981</v>
+      </c>
+      <c r="AN10" s="54">
+        <v>0.198</v>
+      </c>
+      <c r="AO10" s="54">
+        <v>0.1998</v>
+      </c>
+      <c r="AP10" s="54">
+        <v>0.2619</v>
+      </c>
+      <c r="AQ10" s="54">
+        <v>0.259</v>
+      </c>
+      <c r="AR10" s="37">
+        <v>0.2791</v>
+      </c>
+      <c r="AS10" s="37">
+        <v>0.1079</v>
+      </c>
       <c r="AT10" s="17"/>
       <c r="AU10" s="17"/>
       <c r="AV10" s="17"/>
@@ -4503,7 +4592,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF10" s="60">
+      <c r="BF10" s="61">
         <f t="shared" si="9"/>
         <v>2.09243697478991</v>
       </c>
@@ -4519,18 +4608,18 @@
         <v>56.67</v>
       </c>
       <c r="BJ10" s="51" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="13" spans="1:62">
-      <c r="A11" s="69" t="s">
-        <v>95</v>
+      <c r="A11" s="70" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="24">
         <v>44531</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D11" s="17">
         <v>22.96</v>
@@ -4593,7 +4682,7 @@
         <v>25.01</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="Y11" s="45">
         <f t="shared" si="2"/>
@@ -4620,10 +4709,10 @@
         <v>0.0931834662799129</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AF11" s="51" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AG11" s="51"/>
       <c r="AH11" s="51"/>
@@ -4669,7 +4758,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF11" s="60">
+      <c r="BF11" s="61">
         <f t="shared" si="9"/>
         <v>3.07003891050584</v>
       </c>
@@ -4685,12 +4774,12 @@
         <v>22.12</v>
       </c>
       <c r="BJ11" s="51" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:62">
-      <c r="A12" s="69" t="s">
-        <v>100</v>
+      <c r="A12" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4755,8 +4844,8 @@
       <c r="BJ12" s="17"/>
     </row>
     <row r="13" ht="13" spans="1:62">
-      <c r="A13" s="69" t="s">
-        <v>101</v>
+      <c r="A13" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4821,8 +4910,8 @@
       <c r="BJ13" s="17"/>
     </row>
     <row r="14" ht="13" spans="1:62">
-      <c r="A14" s="69" t="s">
-        <v>102</v>
+      <c r="A14" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4887,8 +4976,8 @@
       <c r="BJ14" s="17"/>
     </row>
     <row r="15" ht="13" spans="1:62">
-      <c r="A15" s="69" t="s">
-        <v>103</v>
+      <c r="A15" s="70" t="s">
+        <v>117</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4953,8 +5042,8 @@
       <c r="BJ15" s="17"/>
     </row>
     <row r="16" ht="13" spans="1:62">
-      <c r="A16" s="69" t="s">
-        <v>104</v>
+      <c r="A16" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5019,8 +5108,8 @@
       <c r="BJ16" s="17"/>
     </row>
     <row r="17" ht="13" spans="1:62">
-      <c r="A17" s="69" t="s">
-        <v>105</v>
+      <c r="A17" s="70" t="s">
+        <v>119</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5085,8 +5174,8 @@
       <c r="BJ17" s="17"/>
     </row>
     <row r="18" ht="13" spans="1:62">
-      <c r="A18" s="69" t="s">
-        <v>106</v>
+      <c r="A18" s="70" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5151,8 +5240,8 @@
       <c r="BJ18" s="17"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="69" t="s">
-        <v>107</v>
+      <c r="A19" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5217,8 +5306,8 @@
       <c r="BJ19" s="17"/>
     </row>
     <row r="20" ht="13" spans="1:62">
-      <c r="A20" s="71" t="s">
-        <v>108</v>
+      <c r="A20" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="B20" s="6"/>
       <c r="D20" s="6"/>
@@ -5281,8 +5370,8 @@
       <c r="BJ20" s="6"/>
     </row>
     <row r="21" ht="13" spans="1:62">
-      <c r="A21" s="71" t="s">
-        <v>109</v>
+      <c r="A21" s="72" t="s">
+        <v>123</v>
       </c>
       <c r="B21" s="6"/>
       <c r="D21" s="6"/>
@@ -5345,8 +5434,8 @@
       <c r="BJ21" s="6"/>
     </row>
     <row r="22" ht="13" spans="1:62">
-      <c r="A22" s="71" t="s">
-        <v>110</v>
+      <c r="A22" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="B22" s="6"/>
       <c r="D22" s="6"/>
@@ -5409,8 +5498,8 @@
       <c r="BJ22" s="6"/>
     </row>
     <row r="23" ht="13" spans="1:62">
-      <c r="A23" s="71" t="s">
-        <v>111</v>
+      <c r="A23" s="72" t="s">
+        <v>125</v>
       </c>
       <c r="B23" s="6"/>
       <c r="D23" s="6"/>
@@ -5473,8 +5562,8 @@
       <c r="BJ23" s="6"/>
     </row>
     <row r="24" ht="13" spans="1:62">
-      <c r="A24" s="71" t="s">
-        <v>112</v>
+      <c r="A24" s="72" t="s">
+        <v>126</v>
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
@@ -5537,8 +5626,8 @@
       <c r="BJ24" s="6"/>
     </row>
     <row r="25" ht="13" spans="1:62">
-      <c r="A25" s="71" t="s">
-        <v>113</v>
+      <c r="A25" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="6"/>
@@ -5601,8 +5690,8 @@
       <c r="BJ25" s="6"/>
     </row>
     <row r="26" ht="13" spans="1:62">
-      <c r="A26" s="71" t="s">
-        <v>114</v>
+      <c r="A26" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="6"/>
@@ -5665,8 +5754,8 @@
       <c r="BJ26" s="6"/>
     </row>
     <row r="27" ht="13" spans="1:62">
-      <c r="A27" s="71" t="s">
-        <v>115</v>
+      <c r="A27" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="6"/>
@@ -5729,8 +5818,8 @@
       <c r="BJ27" s="6"/>
     </row>
     <row r="28" ht="13" spans="1:62">
-      <c r="A28" s="71" t="s">
-        <v>116</v>
+      <c r="A28" s="72" t="s">
+        <v>130</v>
       </c>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
@@ -5793,8 +5882,8 @@
       <c r="BJ28" s="6"/>
     </row>
     <row r="29" ht="13" spans="1:62">
-      <c r="A29" s="71" t="s">
-        <v>117</v>
+      <c r="A29" s="72" t="s">
+        <v>131</v>
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
@@ -5857,8 +5946,8 @@
       <c r="BJ29" s="6"/>
     </row>
     <row r="30" ht="13" spans="1:62">
-      <c r="A30" s="71" t="s">
-        <v>118</v>
+      <c r="A30" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="6"/>
@@ -5921,8 +6010,8 @@
       <c r="BJ30" s="6"/>
     </row>
     <row r="31" ht="13" spans="1:62">
-      <c r="A31" s="71" t="s">
-        <v>119</v>
+      <c r="A31" s="72" t="s">
+        <v>133</v>
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
@@ -5985,8 +6074,8 @@
       <c r="BJ31" s="6"/>
     </row>
     <row r="32" ht="13" spans="1:62">
-      <c r="A32" s="71" t="s">
-        <v>120</v>
+      <c r="A32" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="B32" s="6"/>
       <c r="D32" s="6"/>
@@ -6049,8 +6138,8 @@
       <c r="BJ32" s="6"/>
     </row>
     <row r="33" ht="13" spans="1:62">
-      <c r="A33" s="71" t="s">
-        <v>121</v>
+      <c r="A33" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6"/>
@@ -6113,8 +6202,8 @@
       <c r="BJ33" s="6"/>
     </row>
     <row r="34" ht="13" spans="1:62">
-      <c r="A34" s="71" t="s">
-        <v>122</v>
+      <c r="A34" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
@@ -6177,8 +6266,8 @@
       <c r="BJ34" s="6"/>
     </row>
     <row r="35" ht="13" spans="1:62">
-      <c r="A35" s="71" t="s">
-        <v>123</v>
+      <c r="A35" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="6"/>
@@ -6241,8 +6330,8 @@
       <c r="BJ35" s="6"/>
     </row>
     <row r="36" ht="13" spans="1:62">
-      <c r="A36" s="71" t="s">
-        <v>124</v>
+      <c r="A36" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="B36" s="6"/>
       <c r="D36" s="6"/>
@@ -6305,8 +6394,8 @@
       <c r="BJ36" s="6"/>
     </row>
     <row r="37" ht="13" spans="1:62">
-      <c r="A37" s="71" t="s">
-        <v>125</v>
+      <c r="A37" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="6"/>
@@ -6369,8 +6458,8 @@
       <c r="BJ37" s="6"/>
     </row>
     <row r="38" ht="13" spans="1:62">
-      <c r="A38" s="71" t="s">
-        <v>126</v>
+      <c r="A38" s="72" t="s">
+        <v>140</v>
       </c>
       <c r="B38" s="6"/>
       <c r="D38" s="6"/>
@@ -6433,8 +6522,8 @@
       <c r="BJ38" s="6"/>
     </row>
     <row r="39" ht="13" spans="1:62">
-      <c r="A39" s="71" t="s">
-        <v>127</v>
+      <c r="A39" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="B39" s="6"/>
       <c r="D39" s="6"/>
@@ -6497,8 +6586,8 @@
       <c r="BJ39" s="6"/>
     </row>
     <row r="40" ht="13" spans="1:62">
-      <c r="A40" s="71" t="s">
-        <v>128</v>
+      <c r="A40" s="72" t="s">
+        <v>142</v>
       </c>
       <c r="B40" s="6"/>
       <c r="D40" s="6"/>
@@ -6561,8 +6650,8 @@
       <c r="BJ40" s="6"/>
     </row>
     <row r="41" ht="13" spans="1:62">
-      <c r="A41" s="71" t="s">
-        <v>129</v>
+      <c r="A41" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="B41" s="6"/>
       <c r="D41" s="6"/>
@@ -6625,8 +6714,8 @@
       <c r="BJ41" s="6"/>
     </row>
     <row r="42" ht="13" spans="1:62">
-      <c r="A42" s="71" t="s">
-        <v>130</v>
+      <c r="A42" s="72" t="s">
+        <v>144</v>
       </c>
       <c r="B42" s="6"/>
       <c r="D42" s="6"/>
@@ -6689,8 +6778,8 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" ht="13" spans="1:62">
-      <c r="A43" s="71" t="s">
-        <v>131</v>
+      <c r="A43" s="72" t="s">
+        <v>145</v>
       </c>
       <c r="B43" s="6"/>
       <c r="D43" s="6"/>
@@ -6753,8 +6842,8 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" ht="13" spans="1:62">
-      <c r="A44" s="71" t="s">
-        <v>132</v>
+      <c r="A44" s="72" t="s">
+        <v>146</v>
       </c>
       <c r="B44" s="6"/>
       <c r="D44" s="6"/>
@@ -6817,8 +6906,8 @@
       <c r="BJ44" s="6"/>
     </row>
     <row r="45" ht="13" spans="1:62">
-      <c r="A45" s="71" t="s">
-        <v>133</v>
+      <c r="A45" s="72" t="s">
+        <v>147</v>
       </c>
       <c r="B45" s="6"/>
       <c r="D45" s="6"/>
@@ -6881,8 +6970,8 @@
       <c r="BJ45" s="6"/>
     </row>
     <row r="46" ht="13" spans="1:62">
-      <c r="A46" s="71" t="s">
-        <v>134</v>
+      <c r="A46" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
@@ -6945,8 +7034,8 @@
       <c r="BJ46" s="6"/>
     </row>
     <row r="47" ht="13" spans="1:62">
-      <c r="A47" s="71" t="s">
-        <v>135</v>
+      <c r="A47" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
@@ -7009,8 +7098,8 @@
       <c r="BJ47" s="6"/>
     </row>
     <row r="48" ht="13" spans="1:62">
-      <c r="A48" s="71" t="s">
-        <v>136</v>
+      <c r="A48" s="72" t="s">
+        <v>150</v>
       </c>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
@@ -7073,8 +7162,8 @@
       <c r="BJ48" s="6"/>
     </row>
     <row r="49" ht="13" spans="1:62">
-      <c r="A49" s="71" t="s">
-        <v>137</v>
+      <c r="A49" s="72" t="s">
+        <v>151</v>
       </c>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
@@ -7137,8 +7226,8 @@
       <c r="BJ49" s="6"/>
     </row>
     <row r="50" ht="13" spans="1:62">
-      <c r="A50" s="71" t="s">
-        <v>138</v>
+      <c r="A50" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
@@ -7201,8 +7290,8 @@
       <c r="BJ50" s="6"/>
     </row>
     <row r="51" ht="13" spans="1:62">
-      <c r="A51" s="71" t="s">
-        <v>139</v>
+      <c r="A51" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
@@ -7265,8 +7354,8 @@
       <c r="BJ51" s="6"/>
     </row>
     <row r="52" ht="13" spans="1:62">
-      <c r="A52" s="71" t="s">
-        <v>140</v>
+      <c r="A52" s="72" t="s">
+        <v>154</v>
       </c>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
@@ -7329,8 +7418,8 @@
       <c r="BJ52" s="6"/>
     </row>
     <row r="53" ht="13" spans="1:62">
-      <c r="A53" s="71" t="s">
-        <v>141</v>
+      <c r="A53" s="72" t="s">
+        <v>155</v>
       </c>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
@@ -7393,8 +7482,8 @@
       <c r="BJ53" s="6"/>
     </row>
     <row r="54" ht="13" spans="1:62">
-      <c r="A54" s="71" t="s">
-        <v>142</v>
+      <c r="A54" s="72" t="s">
+        <v>156</v>
       </c>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
@@ -33613,22 +33702,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="CU1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -2966,7 +2966,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -2993,7 +2993,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -2989,11 +2989,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -867,7 +867,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,14 +1043,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -1071,6 +1063,14 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1462,7 +1462,7 @@
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1525,7 +1525,7 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1546,7 +1546,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1573,13 +1573,13 @@
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1629,10 +1629,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2989,11 +2992,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3067,7 +3070,7 @@
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="11" t="s">
@@ -3088,111 +3091,111 @@
       <c r="AU1" s="11"/>
       <c r="AV1" s="11"/>
       <c r="AW1" s="11"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BT1" s="68"/>
-      <c r="BU1" s="68"/>
-      <c r="BV1" s="68"/>
-      <c r="BW1" s="68"/>
-      <c r="BX1" s="68"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="68"/>
-      <c r="CA1" s="68"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="68"/>
-      <c r="CE1" s="68"/>
-      <c r="CF1" s="68"/>
-      <c r="CG1" s="68"/>
-      <c r="CH1" s="68"/>
-      <c r="CI1" s="68"/>
-      <c r="CK1" s="68"/>
-      <c r="CL1" s="68"/>
-      <c r="CM1" s="68"/>
-      <c r="CN1" s="68"/>
-      <c r="CO1" s="68"/>
-      <c r="CP1" s="68"/>
-      <c r="CQ1" s="68"/>
-      <c r="CS1" s="68"/>
-      <c r="CT1" s="68"/>
-      <c r="CU1" s="68"/>
-      <c r="CV1" s="68"/>
-      <c r="CW1" s="68"/>
-      <c r="CX1" s="68"/>
-      <c r="CY1" s="68"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="69"/>
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69"/>
+      <c r="CK1" s="69"/>
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69"/>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="69"/>
+      <c r="CS1" s="69"/>
+      <c r="CT1" s="69"/>
+      <c r="CU1" s="69"/>
+      <c r="CV1" s="69"/>
+      <c r="CW1" s="69"/>
+      <c r="CX1" s="69"/>
+      <c r="CY1" s="69"/>
     </row>
     <row r="2" ht="23.6" spans="1:103">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="52"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="53"/>
       <c r="AH2" s="8" t="s">
         <v>17</v>
       </c>
@@ -3209,1141 +3212,1145 @@
         <v>19</v>
       </c>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26" t="s">
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12" t="s">
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="26" t="s">
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="26" t="s">
+      <c r="BC2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="26" t="s">
+      <c r="BD2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="26" t="s">
+      <c r="BE2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BF2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="BJ2" s="26" t="s">
+      <c r="BJ2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="68"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CG2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
-      <c r="CK2" s="68"/>
-      <c r="CL2" s="68"/>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="68"/>
-      <c r="CO2" s="68"/>
-      <c r="CP2" s="68"/>
-      <c r="CQ2" s="68"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="68"/>
-      <c r="CU2" s="68"/>
-      <c r="CV2" s="68"/>
-      <c r="CW2" s="68"/>
-      <c r="CX2" s="68"/>
-      <c r="CY2" s="68"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CS2" s="69"/>
+      <c r="CT2" s="69"/>
+      <c r="CU2" s="69"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="69"/>
+      <c r="CX2" s="69"/>
+      <c r="CY2" s="69"/>
     </row>
     <row r="3" ht="48" spans="1:103">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="31" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AL3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="26" t="s">
+      <c r="AM3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AN3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="26" t="s">
+      <c r="AO3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="26" t="s">
+      <c r="AP3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="26" t="s">
+      <c r="AQ3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AR3" s="26" t="s">
+      <c r="AR3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AS3" s="26" t="s">
+      <c r="AS3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="55" t="s">
+      <c r="AT3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="55" t="s">
+      <c r="AU3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="43" t="s">
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="AY3" s="43" t="s">
+      <c r="AY3" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AZ3" s="56" t="s">
+      <c r="AZ3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BT3" s="68"/>
-      <c r="BU3" s="68"/>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="68"/>
-      <c r="BY3" s="68"/>
-      <c r="BZ3" s="68"/>
-      <c r="CA3" s="68"/>
-      <c r="CC3" s="68"/>
-      <c r="CD3" s="68"/>
-      <c r="CE3" s="68"/>
-      <c r="CF3" s="68"/>
-      <c r="CG3" s="68"/>
-      <c r="CH3" s="68"/>
-      <c r="CI3" s="68"/>
-      <c r="CK3" s="68"/>
-      <c r="CL3" s="68"/>
-      <c r="CM3" s="68"/>
-      <c r="CN3" s="68"/>
-      <c r="CO3" s="68"/>
-      <c r="CP3" s="68"/>
-      <c r="CQ3" s="68"/>
-      <c r="CS3" s="68"/>
-      <c r="CT3" s="68"/>
-      <c r="CU3" s="68"/>
-      <c r="CV3" s="68"/>
-      <c r="CW3" s="68"/>
-      <c r="CX3" s="68"/>
-      <c r="CY3" s="68"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="63"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="69"/>
+      <c r="BV3" s="69"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="69"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="69"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="69"/>
+      <c r="CE3" s="69"/>
+      <c r="CF3" s="69"/>
+      <c r="CG3" s="69"/>
+      <c r="CH3" s="69"/>
+      <c r="CI3" s="69"/>
+      <c r="CK3" s="69"/>
+      <c r="CL3" s="69"/>
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="69"/>
+      <c r="CO3" s="69"/>
+      <c r="CP3" s="69"/>
+      <c r="CQ3" s="69"/>
+      <c r="CS3" s="69"/>
+      <c r="CT3" s="69"/>
+      <c r="CU3" s="69"/>
+      <c r="CV3" s="69"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="69"/>
+      <c r="CY3" s="69"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="38" spans="1:103">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>44517</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>22.15</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <v>23.55</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>24.52</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>25.7</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="18">
         <v>5.46</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="18">
         <v>46.33</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="36">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="37">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="18">
         <v>20.79</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="18">
         <v>29.8</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="18">
         <v>21.88</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="18">
         <v>26.5</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="18">
         <v>22.1</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="18">
         <v>26.4</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="18">
         <v>24</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="15">
         <v>26.2</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="15">
         <v>24.52</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="35">
+      <c r="Y4" s="36">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4" s="36">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="36">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4" s="36">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="36">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="47">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="47" t="s">
+      <c r="AF4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17">
+      <c r="AG4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18">
         <v>28.15</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AY4" s="18">
         <v>21.87</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="AZ4" s="18">
         <f>AX4-AY4</f>
         <v>6.28</v>
       </c>
-      <c r="BA4" s="17">
+      <c r="BA4" s="18">
         <v>26.2</v>
       </c>
-      <c r="BB4" s="17">
+      <c r="BB4" s="18">
         <v>24.68</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BC4" s="18">
         <v>32.49</v>
       </c>
-      <c r="BD4" s="17">
+      <c r="BD4" s="18">
         <f>(BA4-BB4)*100</f>
         <v>152</v>
       </c>
-      <c r="BE4" s="17">
+      <c r="BE4" s="18">
         <f>FLOOR(300/(BA4-BB4),100)</f>
         <v>100</v>
       </c>
-      <c r="BF4" s="59">
+      <c r="BF4" s="60">
         <f>(BC4-BA4)/(BA4-BB4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BG4" s="35">
+      <c r="BG4" s="36">
         <f>(BA4-BB4)/BA4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BH4" s="35">
+      <c r="BH4" s="36">
         <f>(BC4-BA4)/BA4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BI4" s="17">
+      <c r="BI4" s="18">
         <v>150.88</v>
       </c>
-      <c r="BJ4" s="47" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="64"/>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="64"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="69"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="69"/>
-      <c r="CA4" s="69"/>
-      <c r="CC4" s="69"/>
-      <c r="CD4" s="69"/>
-      <c r="CE4" s="69"/>
-      <c r="CF4" s="69"/>
-      <c r="CG4" s="69"/>
-      <c r="CH4" s="69"/>
-      <c r="CI4" s="69"/>
-      <c r="CK4" s="69"/>
-      <c r="CL4" s="69"/>
-      <c r="CM4" s="69"/>
-      <c r="CN4" s="69"/>
-      <c r="CO4" s="69"/>
-      <c r="CP4" s="69"/>
-      <c r="CQ4" s="69"/>
-      <c r="CS4" s="69"/>
-      <c r="CT4" s="69"/>
-      <c r="CU4" s="69"/>
-      <c r="CV4" s="69"/>
-      <c r="CW4" s="69"/>
-      <c r="CX4" s="69"/>
-      <c r="CY4" s="69"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="70"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="70"/>
+      <c r="CF4" s="70"/>
+      <c r="CG4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CK4" s="70"/>
+      <c r="CL4" s="70"/>
+      <c r="CM4" s="70"/>
+      <c r="CN4" s="70"/>
+      <c r="CO4" s="70"/>
+      <c r="CP4" s="70"/>
+      <c r="CQ4" s="70"/>
+      <c r="CS4" s="70"/>
+      <c r="CT4" s="70"/>
+      <c r="CU4" s="70"/>
+      <c r="CV4" s="70"/>
+      <c r="CW4" s="70"/>
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="38" spans="1:63">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>44517</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>31.92</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>32.63</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <v>33.17</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
         <v>33.73</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>22.98</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <v>44.42</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <f t="shared" ref="K5:K11" si="0">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="38">
         <f t="shared" ref="L5:L11" si="1">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="19">
         <v>30.78</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="19">
         <v>35</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <v>31.27</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="19">
         <v>34.82</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="19">
         <v>32.12</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="19">
         <v>34.11</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="19">
         <v>32.53</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="46">
         <f t="shared" ref="Y5:Y11" si="2">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="46">
         <f t="shared" ref="Z5:Z11" si="3">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="46">
         <f t="shared" ref="AA5:AA11" si="4">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="46">
         <f t="shared" ref="AB5:AB11" si="5">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="45" t="e">
+      <c r="AC5" s="46" t="e">
         <f>(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="44" t="s">
+      <c r="AE5" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="AF5" s="48" t="s">
+      <c r="AF5" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="37">
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="38">
         <v>0.0351</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="38">
         <v>0.3603</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="38">
         <v>0.3371</v>
       </c>
-      <c r="AK5" s="37">
+      <c r="AK5" s="38">
         <v>0.2435</v>
       </c>
-      <c r="AL5" s="37">
+      <c r="AL5" s="38">
         <v>0.0073</v>
       </c>
-      <c r="AM5" s="37">
+      <c r="AM5" s="38">
         <v>0.2143</v>
       </c>
-      <c r="AN5" s="37">
+      <c r="AN5" s="38">
         <v>0.156</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AO5" s="38">
         <v>0.1125</v>
       </c>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18">
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19">
         <v>35.48</v>
       </c>
-      <c r="AY5" s="18">
+      <c r="AY5" s="19">
         <v>31.36</v>
       </c>
-      <c r="AZ5" s="18">
+      <c r="AZ5" s="19">
         <f t="shared" ref="AZ5:AZ11" si="6">AX5-AY5</f>
         <v>4.12</v>
       </c>
-      <c r="BA5" s="18">
+      <c r="BA5" s="19">
         <v>34.12</v>
       </c>
-      <c r="BB5" s="18">
+      <c r="BB5" s="19">
         <v>32.53</v>
       </c>
-      <c r="BC5" s="18">
+      <c r="BC5" s="19">
         <v>39.33</v>
       </c>
-      <c r="BD5" s="18">
+      <c r="BD5" s="19">
         <f t="shared" ref="BD5:BD11" si="7">(BA5-BB5)*100</f>
         <v>159</v>
       </c>
-      <c r="BE5" s="17">
+      <c r="BE5" s="18">
         <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
-      <c r="BF5" s="59">
+      <c r="BF5" s="60">
         <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BG5" s="35">
+      <c r="BG5" s="36">
         <f t="shared" ref="BG5:BG11" si="10">(BA5-BB5)/BA5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BH5" s="35">
+      <c r="BH5" s="36">
         <f t="shared" ref="BH5:BH11" si="11">(BC5-BA5)/BA5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BI5" s="18">
+      <c r="BI5" s="19">
         <v>37.41</v>
       </c>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="BK5" s="65"/>
+      <c r="BK5" s="66"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" spans="1:63">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>44519</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>28.2</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="30">
         <v>29.15</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="30">
         <v>31.53</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="30">
         <v>32.57</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="19">
         <v>20.61</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <v>41.5</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="38">
         <f t="shared" si="0"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="38">
         <f t="shared" si="1"/>
         <v>0.215180722891566</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="19">
         <v>28.42</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="19">
         <v>34.7</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="19">
         <v>29</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="19">
         <v>35.27</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="19">
         <v>30.89</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="42">
         <v>34.66</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="43">
         <v>32.59</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="44" t="s">
+      <c r="X6" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="46">
         <f t="shared" si="2"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="46">
         <f t="shared" si="3"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="46">
         <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="45">
+      <c r="AB6" s="46">
         <f t="shared" si="5"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="45" t="e">
+      <c r="AC6" s="46" t="e">
         <f>(T6-U6)/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="49" t="s">
+      <c r="AE6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" s="48" t="s">
+      <c r="AF6" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48" t="s">
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AI6" s="48" t="s">
+      <c r="AI6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AJ6" s="48" t="s">
+      <c r="AJ6" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="AK6" s="48" t="s">
+      <c r="AK6" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AL6" s="48" t="s">
+      <c r="AL6" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AM6" s="48" t="s">
+      <c r="AM6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AN6" s="48" t="s">
+      <c r="AN6" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AO6" s="48" t="s">
+      <c r="AO6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19">
         <v>36.21</v>
       </c>
-      <c r="AY6" s="18">
+      <c r="AY6" s="19">
         <v>27.35</v>
       </c>
-      <c r="AZ6" s="18">
+      <c r="AZ6" s="19">
         <f t="shared" si="6"/>
         <v>8.86</v>
       </c>
-      <c r="BA6" s="18">
+      <c r="BA6" s="19">
         <v>32.65</v>
       </c>
-      <c r="BB6" s="18">
+      <c r="BB6" s="19">
         <v>30.89</v>
       </c>
-      <c r="BC6" s="18">
+      <c r="BC6" s="19">
         <v>36.22</v>
       </c>
-      <c r="BD6" s="18">
+      <c r="BD6" s="19">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="BE6" s="17">
+      <c r="BE6" s="18">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF6" s="59">
+      <c r="BF6" s="60">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BG6" s="35">
+      <c r="BG6" s="36">
         <f t="shared" si="10"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BH6" s="35">
+      <c r="BH6" s="36">
         <f t="shared" si="11"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BI6" s="18">
+      <c r="BI6" s="19">
         <v>28.82</v>
       </c>
-      <c r="BJ6" s="44" t="s">
+      <c r="BJ6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="BK6" s="66"/>
+      <c r="BK6" s="67"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="38" spans="1:63">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>44525</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>64.32</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>68.37</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <v>69.16</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <v>40.64</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="22">
         <v>90.29</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="38">
         <f t="shared" si="0"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="38">
         <f t="shared" si="1"/>
         <v>0.234023701406579</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="22">
         <v>60.05</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="22">
         <v>74.75</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <v>65.5</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="22">
         <v>70.98</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="22">
         <v>66.88</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21" t="s">
+      <c r="R7" s="22">
+        <v>77.98</v>
+      </c>
+      <c r="S7" s="22">
+        <v>71.58</v>
+      </c>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="46">
         <f t="shared" si="2"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="46">
         <f t="shared" si="3"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7" s="46">
         <f t="shared" si="4"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="45" t="e">
+      <c r="AB7" s="46">
+        <f t="shared" si="5"/>
+        <v>0.0820723262374969</v>
+      </c>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ7" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL7" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM7" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN7" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO7" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP7" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ7" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR7" s="38">
+        <v>0.7636</v>
+      </c>
+      <c r="AS7" s="38">
+        <v>0.7607</v>
+      </c>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22">
+        <v>75.02</v>
+      </c>
+      <c r="AY7" s="22">
+        <v>62.33</v>
+      </c>
+      <c r="AZ7" s="19">
+        <f t="shared" si="6"/>
+        <v>12.69</v>
+      </c>
+      <c r="BA7" s="22">
+        <v>70.98</v>
+      </c>
+      <c r="BB7" s="22">
+        <v>66.88</v>
+      </c>
+      <c r="BC7" s="22">
+        <v>84.94</v>
+      </c>
+      <c r="BD7" s="19">
+        <f t="shared" si="7"/>
+        <v>410.000000000001</v>
+      </c>
+      <c r="BE7" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="60">
+        <f t="shared" si="9"/>
+        <v>3.40487804878048</v>
+      </c>
+      <c r="BG7" s="36">
+        <f t="shared" si="10"/>
+        <v>0.0577627500704425</v>
+      </c>
+      <c r="BH7" s="36">
+        <f t="shared" si="11"/>
+        <v>0.196675119752043</v>
+      </c>
+      <c r="BI7" s="22">
+        <v>6.49</v>
+      </c>
+      <c r="BJ7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK7" s="68"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
+      <c r="A8" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="20">
+        <v>44522</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="22">
+        <v>28.37</v>
+      </c>
+      <c r="E8" s="22">
+        <v>29.06</v>
+      </c>
+      <c r="F8" s="22">
+        <v>29.49</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
+        <v>29.69</v>
+      </c>
+      <c r="I8" s="22">
+        <v>17.54</v>
+      </c>
+      <c r="J8" s="22">
+        <v>48.5</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="0"/>
+        <v>0.692702394526796</v>
+      </c>
+      <c r="L8" s="40">
+        <f t="shared" si="1"/>
+        <v>0.387835051546392</v>
+      </c>
+      <c r="M8" s="22">
+        <v>24.11</v>
+      </c>
+      <c r="N8" s="22">
+        <v>38.16</v>
+      </c>
+      <c r="O8" s="22">
+        <v>25.12</v>
+      </c>
+      <c r="P8" s="22">
+        <v>30.9</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>29.2</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="39">
+        <f t="shared" si="2"/>
+        <v>0.502886597938144</v>
+      </c>
+      <c r="Z8" s="39">
+        <f t="shared" si="3"/>
+        <v>0.341719077568134</v>
+      </c>
+      <c r="AA8" s="39">
+        <f t="shared" si="4"/>
+        <v>0.0550161812297734</v>
+      </c>
+      <c r="AB8" s="39" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF7" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI7" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ7" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK7" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL7" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM7" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN7" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO7" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP7" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ7" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR7" s="37">
-        <v>0.7636</v>
-      </c>
-      <c r="AS7" s="37">
-        <v>0.7607</v>
-      </c>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21">
-        <v>75.02</v>
-      </c>
-      <c r="AY7" s="21">
-        <v>62.33</v>
-      </c>
-      <c r="AZ7" s="18">
-        <f t="shared" si="6"/>
-        <v>12.69</v>
-      </c>
-      <c r="BA7" s="21">
-        <v>70.98</v>
-      </c>
-      <c r="BB7" s="21">
-        <v>66.88</v>
-      </c>
-      <c r="BC7" s="21">
-        <v>84.94</v>
-      </c>
-      <c r="BD7" s="18">
-        <f t="shared" si="7"/>
-        <v>410.000000000001</v>
-      </c>
-      <c r="BE7" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BF7" s="59">
-        <f t="shared" si="9"/>
-        <v>3.40487804878048</v>
-      </c>
-      <c r="BG7" s="35">
-        <f t="shared" si="10"/>
-        <v>0.0577627500704425</v>
-      </c>
-      <c r="BH7" s="35">
-        <f t="shared" si="11"/>
-        <v>0.196675119752043</v>
-      </c>
-      <c r="BI7" s="21">
-        <v>6.49</v>
-      </c>
-      <c r="BJ7" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK7" s="67"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
-      <c r="A8" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="19">
-        <v>44522</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="21">
-        <v>28.37</v>
-      </c>
-      <c r="E8" s="21">
-        <v>29.06</v>
-      </c>
-      <c r="F8" s="21">
-        <v>29.49</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
-        <v>29.69</v>
-      </c>
-      <c r="I8" s="21">
-        <v>17.54</v>
-      </c>
-      <c r="J8" s="21">
-        <v>48.5</v>
-      </c>
-      <c r="K8" s="38">
-        <f t="shared" si="0"/>
-        <v>0.692702394526796</v>
-      </c>
-      <c r="L8" s="39">
-        <f t="shared" si="1"/>
-        <v>0.387835051546392</v>
-      </c>
-      <c r="M8" s="21">
-        <v>24.11</v>
-      </c>
-      <c r="N8" s="21">
-        <v>38.16</v>
-      </c>
-      <c r="O8" s="21">
-        <v>25.12</v>
-      </c>
-      <c r="P8" s="21">
-        <v>30.9</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>29.2</v>
-      </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="38">
-        <f t="shared" si="2"/>
-        <v>0.502886597938144</v>
-      </c>
-      <c r="Z8" s="38">
-        <f t="shared" si="3"/>
-        <v>0.341719077568134</v>
-      </c>
-      <c r="AA8" s="38">
-        <f t="shared" si="4"/>
-        <v>0.0550161812297734</v>
-      </c>
-      <c r="AB8" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC8" s="38" t="e">
+      <c r="AC8" s="39" t="e">
         <f>(T8-U8)/T8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21" t="s">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AF8" s="50" t="s">
+      <c r="AF8" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21">
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22">
         <v>32.43</v>
       </c>
-      <c r="AY8" s="21">
+      <c r="AY8" s="22">
         <v>26.16</v>
       </c>
-      <c r="AZ8" s="58">
+      <c r="AZ8" s="59">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
-      <c r="BA8" s="21">
+      <c r="BA8" s="22">
         <v>30.66</v>
       </c>
-      <c r="BB8" s="21">
+      <c r="BB8" s="22">
         <v>29.35</v>
       </c>
-      <c r="BC8" s="21">
+      <c r="BC8" s="22">
         <v>38.71</v>
       </c>
-      <c r="BD8" s="58">
+      <c r="BD8" s="59">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="BE8" s="21">
+      <c r="BE8" s="22">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF8" s="60">
+      <c r="BF8" s="61">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BG8" s="38">
+      <c r="BG8" s="39">
         <f t="shared" si="10"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BH8" s="38">
+      <c r="BH8" s="39">
         <f t="shared" si="11"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BI8" s="21">
+      <c r="BI8" s="22">
         <v>38.46</v>
       </c>
-      <c r="BJ8" s="50" t="s">
+      <c r="BJ8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="BK8" s="67"/>
+      <c r="BK8" s="68"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="13" spans="1:63">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="23">
         <v>44529</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="5">
@@ -4365,11 +4372,11 @@
       <c r="J9" s="5">
         <v>31.94</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="38">
         <f t="shared" si="0"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="38">
         <f t="shared" si="1"/>
         <v>0.0923606762680026</v>
       </c>
@@ -4401,19 +4408,19 @@
       <c r="X9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="46">
         <f t="shared" si="2"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="46">
         <f t="shared" si="3"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="46">
         <f t="shared" si="4"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="AB9" s="46">
         <f t="shared" si="5"/>
         <v>0.0666666666666667</v>
       </c>
@@ -4422,20 +4429,20 @@
       <c r="AE9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AF9" s="51" t="s">
+      <c r="AF9" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -4448,7 +4455,7 @@
       <c r="AY9" s="5">
         <v>21.1</v>
       </c>
-      <c r="AZ9" s="18">
+      <c r="AZ9" s="19">
         <f t="shared" si="6"/>
         <v>10.08</v>
       </c>
@@ -4461,7 +4468,7 @@
       <c r="BC9" s="5">
         <v>34.93</v>
       </c>
-      <c r="BD9" s="18">
+      <c r="BD9" s="19">
         <f t="shared" si="7"/>
         <v>205</v>
       </c>
@@ -4469,34 +4476,34 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF9" s="61">
+      <c r="BF9" s="62">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BG9" s="37">
+      <c r="BG9" s="38">
         <f t="shared" si="10"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BH9" s="37">
+      <c r="BH9" s="38">
         <f t="shared" si="11"/>
         <v>0.173328854551562</v>
       </c>
       <c r="BI9" s="5">
         <v>17.95</v>
       </c>
-      <c r="BJ9" s="51" t="s">
+      <c r="BJ9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="BK9" s="66"/>
+      <c r="BK9" s="67"/>
     </row>
     <row r="10" ht="13" spans="1:62">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>44531</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="5">
@@ -4518,11 +4525,11 @@
       <c r="J10" s="5">
         <v>26.64</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="38">
         <f t="shared" si="0"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="38">
         <f t="shared" si="1"/>
         <v>0.123498498498498</v>
       </c>
@@ -4554,19 +4561,19 @@
       <c r="X10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="46">
         <f t="shared" si="2"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="45">
+      <c r="Z10" s="46">
         <f t="shared" si="3"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="46">
         <f t="shared" si="4"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="46">
         <f t="shared" si="5"/>
         <v>0.0583226905065984</v>
       </c>
@@ -4575,44 +4582,44 @@
       <c r="AE10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AF10" s="51" t="s">
+      <c r="AF10" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="47" t="s">
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="AI10" s="47" t="s">
+      <c r="AI10" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="AJ10" s="47" t="s">
+      <c r="AJ10" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" s="47" t="s">
+      <c r="AK10" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="AL10" s="54">
+      <c r="AL10" s="55">
         <v>-0.0419</v>
       </c>
-      <c r="AM10" s="54">
+      <c r="AM10" s="55">
         <v>0.1981</v>
       </c>
-      <c r="AN10" s="54">
+      <c r="AN10" s="55">
         <v>0.198</v>
       </c>
-      <c r="AO10" s="54">
+      <c r="AO10" s="55">
         <v>0.1998</v>
       </c>
-      <c r="AP10" s="54">
+      <c r="AP10" s="55">
         <v>0.2619</v>
       </c>
-      <c r="AQ10" s="54">
+      <c r="AQ10" s="55">
         <v>0.259</v>
       </c>
-      <c r="AR10" s="37">
+      <c r="AR10" s="38">
         <v>0.2791</v>
       </c>
-      <c r="AS10" s="37">
+      <c r="AS10" s="38">
         <v>0.1079</v>
       </c>
       <c r="AT10" s="5"/>
@@ -4625,7 +4632,7 @@
       <c r="AY10" s="5">
         <v>18.59</v>
       </c>
-      <c r="AZ10" s="18">
+      <c r="AZ10" s="19">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -4638,7 +4645,7 @@
       <c r="BC10" s="5">
         <v>26.77</v>
       </c>
-      <c r="BD10" s="18">
+      <c r="BD10" s="19">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
@@ -4646,33 +4653,33 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF10" s="61">
+      <c r="BF10" s="62">
         <f t="shared" si="9"/>
         <v>2.09243697478991</v>
       </c>
-      <c r="BG10" s="37">
+      <c r="BG10" s="38">
         <f t="shared" si="10"/>
         <v>0.049011532125206</v>
       </c>
-      <c r="BH10" s="37">
+      <c r="BH10" s="38">
         <f t="shared" si="11"/>
         <v>0.102553542009885</v>
       </c>
       <c r="BI10" s="5">
         <v>56.67</v>
       </c>
-      <c r="BJ10" s="51" t="s">
+      <c r="BJ10" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" ht="13" spans="1:62">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>44531</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="5">
@@ -4694,11 +4701,11 @@
       <c r="J11" s="5">
         <v>33.51</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="38">
         <f t="shared" si="0"/>
         <v>0.555690072639225</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="38">
         <f t="shared" si="1"/>
         <v>0.233064756789018</v>
       </c>
@@ -4738,47 +4745,47 @@
       <c r="X11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="46">
         <f t="shared" si="2"/>
         <v>0.405550581915846</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11" s="46">
         <f t="shared" si="3"/>
         <v>0.229323308270677</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="46">
         <f t="shared" si="4"/>
         <v>0.208813559322034</v>
       </c>
-      <c r="AB11" s="45">
+      <c r="AB11" s="46">
         <f t="shared" si="5"/>
         <v>0.125795053003534</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC11" s="38">
         <f>(T11-U11)/T11</f>
         <v>0.0974729241877256</v>
       </c>
-      <c r="AD11" s="37">
+      <c r="AD11" s="38">
         <f>(V11-W11)/V11</f>
         <v>0.0931834662799129</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="51" t="s">
+      <c r="AF11" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -4791,7 +4798,7 @@
       <c r="AY11" s="5">
         <v>21.86</v>
       </c>
-      <c r="AZ11" s="18">
+      <c r="AZ11" s="19">
         <f t="shared" si="6"/>
         <v>7.84</v>
       </c>
@@ -4804,7 +4811,7 @@
       <c r="BC11" s="5">
         <v>35.47</v>
       </c>
-      <c r="BD11" s="18">
+      <c r="BD11" s="19">
         <f t="shared" si="7"/>
         <v>257</v>
       </c>
@@ -4812,27 +4819,27 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF11" s="61">
+      <c r="BF11" s="62">
         <f t="shared" si="9"/>
         <v>3.07003891050584</v>
       </c>
-      <c r="BG11" s="37">
+      <c r="BG11" s="38">
         <f t="shared" si="10"/>
         <v>0.0931834662799129</v>
       </c>
-      <c r="BH11" s="37">
+      <c r="BH11" s="38">
         <f t="shared" si="11"/>
         <v>0.286076867295141</v>
       </c>
       <c r="BI11" s="5">
         <v>22.12</v>
       </c>
-      <c r="BJ11" s="51" t="s">
+      <c r="BJ11" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:62">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="5"/>
@@ -4898,7 +4905,7 @@
       <c r="BJ12" s="5"/>
     </row>
     <row r="13" ht="13" spans="1:62">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="5"/>
@@ -4964,7 +4971,7 @@
       <c r="BJ13" s="5"/>
     </row>
     <row r="14" ht="13" spans="1:62">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="5"/>
@@ -5030,7 +5037,7 @@
       <c r="BJ14" s="5"/>
     </row>
     <row r="15" ht="13" spans="1:62">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="72" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="5"/>
@@ -5096,7 +5103,7 @@
       <c r="BJ15" s="5"/>
     </row>
     <row r="16" ht="13" spans="1:62">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="5"/>
@@ -5162,7 +5169,7 @@
       <c r="BJ16" s="5"/>
     </row>
     <row r="17" ht="13" spans="1:62">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="72" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="5"/>
@@ -5228,7 +5235,7 @@
       <c r="BJ17" s="5"/>
     </row>
     <row r="18" ht="13" spans="1:62">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="72" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="5"/>
@@ -5294,7 +5301,7 @@
       <c r="BJ18" s="5"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="72" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="5"/>
@@ -5360,7 +5367,7 @@
       <c r="BJ19" s="5"/>
     </row>
     <row r="20" ht="13" spans="1:62">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="74" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="7"/>
@@ -5424,7 +5431,7 @@
       <c r="BJ20" s="7"/>
     </row>
     <row r="21" ht="13" spans="1:62">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="7"/>
@@ -5488,7 +5495,7 @@
       <c r="BJ21" s="7"/>
     </row>
     <row r="22" ht="13" spans="1:62">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="74" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="7"/>
@@ -5552,7 +5559,7 @@
       <c r="BJ22" s="7"/>
     </row>
     <row r="23" ht="13" spans="1:62">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="7"/>
@@ -5616,7 +5623,7 @@
       <c r="BJ23" s="7"/>
     </row>
     <row r="24" ht="13" spans="1:62">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="7"/>
@@ -5680,7 +5687,7 @@
       <c r="BJ24" s="7"/>
     </row>
     <row r="25" ht="13" spans="1:62">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="74" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="7"/>
@@ -5744,7 +5751,7 @@
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" ht="13" spans="1:62">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="74" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="7"/>
@@ -5808,7 +5815,7 @@
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" ht="13" spans="1:62">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="74" t="s">
         <v>137</v>
       </c>
       <c r="B27" s="7"/>
@@ -5872,7 +5879,7 @@
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" ht="13" spans="1:62">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="74" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="7"/>
@@ -5936,7 +5943,7 @@
       <c r="BJ28" s="7"/>
     </row>
     <row r="29" ht="13" spans="1:62">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="74" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="7"/>
@@ -6000,7 +6007,7 @@
       <c r="BJ29" s="7"/>
     </row>
     <row r="30" ht="13" spans="1:62">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="74" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="7"/>
@@ -6064,7 +6071,7 @@
       <c r="BJ30" s="7"/>
     </row>
     <row r="31" ht="13" spans="1:62">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="7"/>
@@ -6128,7 +6135,7 @@
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" ht="13" spans="1:62">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="74" t="s">
         <v>142</v>
       </c>
       <c r="B32" s="7"/>
@@ -6192,7 +6199,7 @@
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" ht="13" spans="1:62">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="74" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="7"/>
@@ -6256,7 +6263,7 @@
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" ht="13" spans="1:62">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="74" t="s">
         <v>144</v>
       </c>
       <c r="B34" s="7"/>
@@ -6320,7 +6327,7 @@
       <c r="BJ34" s="7"/>
     </row>
     <row r="35" ht="13" spans="1:62">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="74" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="7"/>
@@ -6384,7 +6391,7 @@
       <c r="BJ35" s="7"/>
     </row>
     <row r="36" ht="13" spans="1:62">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="74" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="7"/>
@@ -6448,7 +6455,7 @@
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" ht="13" spans="1:62">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="74" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="7"/>
@@ -6512,7 +6519,7 @@
       <c r="BJ37" s="7"/>
     </row>
     <row r="38" ht="13" spans="1:62">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="74" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="7"/>
@@ -6576,7 +6583,7 @@
       <c r="BJ38" s="7"/>
     </row>
     <row r="39" ht="13" spans="1:62">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="74" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="7"/>
@@ -6640,7 +6647,7 @@
       <c r="BJ39" s="7"/>
     </row>
     <row r="40" ht="13" spans="1:62">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="74" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="7"/>
@@ -6704,7 +6711,7 @@
       <c r="BJ40" s="7"/>
     </row>
     <row r="41" ht="13" spans="1:62">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="74" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="7"/>
@@ -6768,7 +6775,7 @@
       <c r="BJ41" s="7"/>
     </row>
     <row r="42" ht="13" spans="1:62">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="74" t="s">
         <v>152</v>
       </c>
       <c r="B42" s="7"/>
@@ -6832,7 +6839,7 @@
       <c r="BJ42" s="7"/>
     </row>
     <row r="43" ht="13" spans="1:62">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="74" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="7"/>
@@ -6896,7 +6903,7 @@
       <c r="BJ43" s="7"/>
     </row>
     <row r="44" ht="13" spans="1:62">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="7"/>
@@ -6960,7 +6967,7 @@
       <c r="BJ44" s="7"/>
     </row>
     <row r="45" ht="13" spans="1:62">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="74" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="7"/>
@@ -7024,7 +7031,7 @@
       <c r="BJ45" s="7"/>
     </row>
     <row r="46" ht="13" spans="1:62">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="74" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="7"/>
@@ -7088,7 +7095,7 @@
       <c r="BJ46" s="7"/>
     </row>
     <row r="47" ht="13" spans="1:62">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="74" t="s">
         <v>157</v>
       </c>
       <c r="B47" s="7"/>
@@ -7152,7 +7159,7 @@
       <c r="BJ47" s="7"/>
     </row>
     <row r="48" ht="13" spans="1:62">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="74" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="7"/>
@@ -7216,7 +7223,7 @@
       <c r="BJ48" s="7"/>
     </row>
     <row r="49" ht="13" spans="1:62">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="74" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="7"/>
@@ -7280,7 +7287,7 @@
       <c r="BJ49" s="7"/>
     </row>
     <row r="50" ht="13" spans="1:62">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="74" t="s">
         <v>160</v>
       </c>
       <c r="B50" s="7"/>
@@ -7344,7 +7351,7 @@
       <c r="BJ50" s="7"/>
     </row>
     <row r="51" ht="13" spans="1:62">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="74" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="7"/>
@@ -7408,7 +7415,7 @@
       <c r="BJ51" s="7"/>
     </row>
     <row r="52" ht="13" spans="1:62">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="74" t="s">
         <v>162</v>
       </c>
       <c r="B52" s="7"/>
@@ -7472,7 +7479,7 @@
       <c r="BJ52" s="7"/>
     </row>
     <row r="53" ht="13" spans="1:62">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="74" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="7"/>
@@ -7536,7 +7543,7 @@
       <c r="BJ53" s="7"/>
     </row>
     <row r="54" ht="13" spans="1:62">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="74" t="s">
         <v>164</v>
       </c>
       <c r="B54" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -1598,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1765,6 +1765,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2992,11 +2995,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3091,56 +3094,56 @@
       <c r="AU1" s="11"/>
       <c r="AV1" s="11"/>
       <c r="AW1" s="11"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BT1" s="69"/>
-      <c r="BU1" s="69"/>
-      <c r="BV1" s="69"/>
-      <c r="BW1" s="69"/>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
-      <c r="CC1" s="69"/>
-      <c r="CD1" s="69"/>
-      <c r="CE1" s="69"/>
-      <c r="CF1" s="69"/>
-      <c r="CG1" s="69"/>
-      <c r="CH1" s="69"/>
-      <c r="CI1" s="69"/>
-      <c r="CK1" s="69"/>
-      <c r="CL1" s="69"/>
-      <c r="CM1" s="69"/>
-      <c r="CN1" s="69"/>
-      <c r="CO1" s="69"/>
-      <c r="CP1" s="69"/>
-      <c r="CQ1" s="69"/>
-      <c r="CS1" s="69"/>
-      <c r="CT1" s="69"/>
-      <c r="CU1" s="69"/>
-      <c r="CV1" s="69"/>
-      <c r="CW1" s="69"/>
-      <c r="CX1" s="69"/>
-      <c r="CY1" s="69"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="70"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="70"/>
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="70"/>
+      <c r="CE1" s="70"/>
+      <c r="CF1" s="70"/>
+      <c r="CG1" s="70"/>
+      <c r="CH1" s="70"/>
+      <c r="CI1" s="70"/>
+      <c r="CK1" s="70"/>
+      <c r="CL1" s="70"/>
+      <c r="CM1" s="70"/>
+      <c r="CN1" s="70"/>
+      <c r="CO1" s="70"/>
+      <c r="CP1" s="70"/>
+      <c r="CQ1" s="70"/>
+      <c r="CS1" s="70"/>
+      <c r="CT1" s="70"/>
+      <c r="CU1" s="70"/>
+      <c r="CV1" s="70"/>
+      <c r="CW1" s="70"/>
+      <c r="CX1" s="70"/>
+      <c r="CY1" s="70"/>
     </row>
     <row r="2" ht="23.6" spans="1:103">
       <c r="A2" s="8"/>
@@ -3255,43 +3258,43 @@
       <c r="BJ2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CK2" s="69"/>
-      <c r="CL2" s="69"/>
-      <c r="CM2" s="69"/>
-      <c r="CN2" s="69"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CS2" s="69"/>
-      <c r="CT2" s="69"/>
-      <c r="CU2" s="69"/>
-      <c r="CV2" s="69"/>
-      <c r="CW2" s="69"/>
-      <c r="CX2" s="69"/>
-      <c r="CY2" s="69"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
     </row>
     <row r="3" ht="48" spans="1:103">
       <c r="A3" s="8"/>
@@ -3403,21 +3406,21 @@
       <c r="AS3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="56" t="s">
+      <c r="AT3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="56" t="s">
+      <c r="AU3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
       <c r="AX3" s="44" t="s">
         <v>58</v>
       </c>
       <c r="AY3" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AZ3" s="57" t="s">
+      <c r="AZ3" s="58" t="s">
         <v>60</v>
       </c>
       <c r="BA3" s="14"/>
@@ -3430,46 +3433,46 @@
       <c r="BH3" s="14"/>
       <c r="BI3" s="14"/>
       <c r="BJ3" s="14"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="38" spans="1:103">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="16">
@@ -3613,7 +3616,7 @@
         <f>FLOOR(300/(BA4-BB4),100)</f>
         <v>100</v>
       </c>
-      <c r="BF4" s="60">
+      <c r="BF4" s="61">
         <f>(BC4-BA4)/(BA4-BB4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -3631,46 +3634,46 @@
       <c r="BJ4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="70"/>
-      <c r="BW4" s="70"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="70"/>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="70"/>
-      <c r="CE4" s="70"/>
-      <c r="CF4" s="70"/>
-      <c r="CG4" s="70"/>
-      <c r="CH4" s="70"/>
-      <c r="CI4" s="70"/>
-      <c r="CK4" s="70"/>
-      <c r="CL4" s="70"/>
-      <c r="CM4" s="70"/>
-      <c r="CN4" s="70"/>
-      <c r="CO4" s="70"/>
-      <c r="CP4" s="70"/>
-      <c r="CQ4" s="70"/>
-      <c r="CS4" s="70"/>
-      <c r="CT4" s="70"/>
-      <c r="CU4" s="70"/>
-      <c r="CV4" s="70"/>
-      <c r="CW4" s="70"/>
-      <c r="CX4" s="70"/>
-      <c r="CY4" s="70"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="66"/>
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="71"/>
+      <c r="CF4" s="71"/>
+      <c r="CG4" s="71"/>
+      <c r="CH4" s="71"/>
+      <c r="CI4" s="71"/>
+      <c r="CK4" s="71"/>
+      <c r="CL4" s="71"/>
+      <c r="CM4" s="71"/>
+      <c r="CN4" s="71"/>
+      <c r="CO4" s="71"/>
+      <c r="CP4" s="71"/>
+      <c r="CQ4" s="71"/>
+      <c r="CS4" s="71"/>
+      <c r="CT4" s="71"/>
+      <c r="CU4" s="71"/>
+      <c r="CV4" s="71"/>
+      <c r="CW4" s="71"/>
+      <c r="CX4" s="71"/>
+      <c r="CY4" s="71"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="38" spans="1:63">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="16">
@@ -3787,6 +3790,18 @@
       <c r="AO5" s="38">
         <v>0.1125</v>
       </c>
+      <c r="AP5" s="56">
+        <v>0.4704</v>
+      </c>
+      <c r="AQ5" s="56">
+        <v>0.4673</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>0.4797</v>
+      </c>
+      <c r="AS5" s="56">
+        <v>0.4796</v>
+      </c>
       <c r="AT5" s="19"/>
       <c r="AU5" s="19"/>
       <c r="AV5" s="19"/>
@@ -3818,7 +3833,7 @@
         <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
-      <c r="BF5" s="60">
+      <c r="BF5" s="61">
         <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
@@ -3836,10 +3851,10 @@
       <c r="BJ5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="BK5" s="66"/>
+      <c r="BK5" s="67"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" spans="1:63">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="16">
@@ -3957,10 +3972,18 @@
       <c r="AO6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
+      <c r="AP6" s="55">
+        <v>0.2133</v>
+      </c>
+      <c r="AQ6" s="55">
+        <v>0.1848</v>
+      </c>
+      <c r="AR6" s="38">
+        <v>0.1718</v>
+      </c>
+      <c r="AS6" s="38">
+        <v>0.1605</v>
+      </c>
       <c r="AT6" s="19"/>
       <c r="AU6" s="19"/>
       <c r="AV6" s="19"/>
@@ -3992,7 +4015,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF6" s="60">
+      <c r="BF6" s="61">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
@@ -4010,10 +4033,10 @@
       <c r="BJ6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="BK6" s="67"/>
+      <c r="BK6" s="68"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="38" spans="1:63">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="20">
@@ -4171,7 +4194,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BF7" s="60">
+      <c r="BF7" s="61">
         <f t="shared" si="9"/>
         <v>3.40487804878048</v>
       </c>
@@ -4189,10 +4212,10 @@
       <c r="BJ7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BK7" s="68"/>
+      <c r="BK7" s="69"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="20">
@@ -4302,7 +4325,7 @@
       <c r="AY8" s="22">
         <v>26.16</v>
       </c>
-      <c r="AZ8" s="59">
+      <c r="AZ8" s="60">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
@@ -4315,7 +4338,7 @@
       <c r="BC8" s="22">
         <v>38.71</v>
       </c>
-      <c r="BD8" s="59">
+      <c r="BD8" s="60">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
@@ -4323,7 +4346,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF8" s="61">
+      <c r="BF8" s="62">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
@@ -4341,10 +4364,10 @@
       <c r="BJ8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="BK8" s="68"/>
+      <c r="BK8" s="69"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="13" spans="1:63">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="23">
@@ -4476,7 +4499,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF9" s="62">
+      <c r="BF9" s="63">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
@@ -4494,10 +4517,10 @@
       <c r="BJ9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="BK9" s="67"/>
+      <c r="BK9" s="68"/>
     </row>
     <row r="10" ht="13" spans="1:62">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="25">
@@ -4653,7 +4676,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF10" s="62">
+      <c r="BF10" s="63">
         <f t="shared" si="9"/>
         <v>2.09243697478991</v>
       </c>
@@ -4673,7 +4696,7 @@
       </c>
     </row>
     <row r="11" ht="13" spans="1:62">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="25">
@@ -4819,7 +4842,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF11" s="62">
+      <c r="BF11" s="63">
         <f t="shared" si="9"/>
         <v>3.07003891050584</v>
       </c>
@@ -4839,7 +4862,7 @@
       </c>
     </row>
     <row r="12" ht="13" spans="1:62">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="5"/>
@@ -4905,7 +4928,7 @@
       <c r="BJ12" s="5"/>
     </row>
     <row r="13" ht="13" spans="1:62">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="5"/>
@@ -4971,7 +4994,7 @@
       <c r="BJ13" s="5"/>
     </row>
     <row r="14" ht="13" spans="1:62">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="73" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="5"/>
@@ -5037,7 +5060,7 @@
       <c r="BJ14" s="5"/>
     </row>
     <row r="15" ht="13" spans="1:62">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="5"/>
@@ -5103,7 +5126,7 @@
       <c r="BJ15" s="5"/>
     </row>
     <row r="16" ht="13" spans="1:62">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="5"/>
@@ -5169,7 +5192,7 @@
       <c r="BJ16" s="5"/>
     </row>
     <row r="17" ht="13" spans="1:62">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="5"/>
@@ -5235,7 +5258,7 @@
       <c r="BJ17" s="5"/>
     </row>
     <row r="18" ht="13" spans="1:62">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="5"/>
@@ -5301,7 +5324,7 @@
       <c r="BJ18" s="5"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="73" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="5"/>
@@ -5367,7 +5390,7 @@
       <c r="BJ19" s="5"/>
     </row>
     <row r="20" ht="13" spans="1:62">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="7"/>
@@ -5431,7 +5454,7 @@
       <c r="BJ20" s="7"/>
     </row>
     <row r="21" ht="13" spans="1:62">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="75" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="7"/>
@@ -5495,7 +5518,7 @@
       <c r="BJ21" s="7"/>
     </row>
     <row r="22" ht="13" spans="1:62">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="75" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="7"/>
@@ -5559,7 +5582,7 @@
       <c r="BJ22" s="7"/>
     </row>
     <row r="23" ht="13" spans="1:62">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="7"/>
@@ -5623,7 +5646,7 @@
       <c r="BJ23" s="7"/>
     </row>
     <row r="24" ht="13" spans="1:62">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="75" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="7"/>
@@ -5687,7 +5710,7 @@
       <c r="BJ24" s="7"/>
     </row>
     <row r="25" ht="13" spans="1:62">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="7"/>
@@ -5751,7 +5774,7 @@
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" ht="13" spans="1:62">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="75" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="7"/>
@@ -5815,7 +5838,7 @@
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" ht="13" spans="1:62">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="75" t="s">
         <v>137</v>
       </c>
       <c r="B27" s="7"/>
@@ -5879,7 +5902,7 @@
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" ht="13" spans="1:62">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="75" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="7"/>
@@ -5943,7 +5966,7 @@
       <c r="BJ28" s="7"/>
     </row>
     <row r="29" ht="13" spans="1:62">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="75" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="7"/>
@@ -6007,7 +6030,7 @@
       <c r="BJ29" s="7"/>
     </row>
     <row r="30" ht="13" spans="1:62">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="75" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="7"/>
@@ -6071,7 +6094,7 @@
       <c r="BJ30" s="7"/>
     </row>
     <row r="31" ht="13" spans="1:62">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="75" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="7"/>
@@ -6135,7 +6158,7 @@
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" ht="13" spans="1:62">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="75" t="s">
         <v>142</v>
       </c>
       <c r="B32" s="7"/>
@@ -6199,7 +6222,7 @@
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" ht="13" spans="1:62">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="75" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="7"/>
@@ -6263,7 +6286,7 @@
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" ht="13" spans="1:62">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="75" t="s">
         <v>144</v>
       </c>
       <c r="B34" s="7"/>
@@ -6327,7 +6350,7 @@
       <c r="BJ34" s="7"/>
     </row>
     <row r="35" ht="13" spans="1:62">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="75" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="7"/>
@@ -6391,7 +6414,7 @@
       <c r="BJ35" s="7"/>
     </row>
     <row r="36" ht="13" spans="1:62">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="75" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="7"/>
@@ -6455,7 +6478,7 @@
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" ht="13" spans="1:62">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="75" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="7"/>
@@ -6519,7 +6542,7 @@
       <c r="BJ37" s="7"/>
     </row>
     <row r="38" ht="13" spans="1:62">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="75" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="7"/>
@@ -6583,7 +6606,7 @@
       <c r="BJ38" s="7"/>
     </row>
     <row r="39" ht="13" spans="1:62">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="7"/>
@@ -6647,7 +6670,7 @@
       <c r="BJ39" s="7"/>
     </row>
     <row r="40" ht="13" spans="1:62">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="75" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="7"/>
@@ -6711,7 +6734,7 @@
       <c r="BJ40" s="7"/>
     </row>
     <row r="41" ht="13" spans="1:62">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="75" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="7"/>
@@ -6775,7 +6798,7 @@
       <c r="BJ41" s="7"/>
     </row>
     <row r="42" ht="13" spans="1:62">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B42" s="7"/>
@@ -6839,7 +6862,7 @@
       <c r="BJ42" s="7"/>
     </row>
     <row r="43" ht="13" spans="1:62">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="75" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="7"/>
@@ -6903,7 +6926,7 @@
       <c r="BJ43" s="7"/>
     </row>
     <row r="44" ht="13" spans="1:62">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="75" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="7"/>
@@ -6967,7 +6990,7 @@
       <c r="BJ44" s="7"/>
     </row>
     <row r="45" ht="13" spans="1:62">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="75" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="7"/>
@@ -7031,7 +7054,7 @@
       <c r="BJ45" s="7"/>
     </row>
     <row r="46" ht="13" spans="1:62">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="75" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="7"/>
@@ -7095,7 +7118,7 @@
       <c r="BJ46" s="7"/>
     </row>
     <row r="47" ht="13" spans="1:62">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="75" t="s">
         <v>157</v>
       </c>
       <c r="B47" s="7"/>
@@ -7159,7 +7182,7 @@
       <c r="BJ47" s="7"/>
     </row>
     <row r="48" ht="13" spans="1:62">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="75" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="7"/>
@@ -7223,7 +7246,7 @@
       <c r="BJ48" s="7"/>
     </row>
     <row r="49" ht="13" spans="1:62">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="75" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="7"/>
@@ -7287,7 +7310,7 @@
       <c r="BJ49" s="7"/>
     </row>
     <row r="50" ht="13" spans="1:62">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="75" t="s">
         <v>160</v>
       </c>
       <c r="B50" s="7"/>
@@ -7351,7 +7374,7 @@
       <c r="BJ50" s="7"/>
     </row>
     <row r="51" ht="13" spans="1:62">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="75" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="7"/>
@@ -7415,7 +7438,7 @@
       <c r="BJ51" s="7"/>
     </row>
     <row r="52" ht="13" spans="1:62">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="75" t="s">
         <v>162</v>
       </c>
       <c r="B52" s="7"/>
@@ -7479,7 +7502,7 @@
       <c r="BJ52" s="7"/>
     </row>
     <row r="53" ht="13" spans="1:62">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="75" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="7"/>
@@ -7543,7 +7566,7 @@
       <c r="BJ53" s="7"/>
     </row>
     <row r="54" ht="13" spans="1:62">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="75" t="s">
         <v>164</v>
       </c>
       <c r="B54" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -2995,11 +2995,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -1598,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1765,6 +1765,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2995,11 +3001,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3094,56 +3100,56 @@
       <c r="AU1" s="11"/>
       <c r="AV1" s="11"/>
       <c r="AW1" s="11"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
-      <c r="CE1" s="70"/>
-      <c r="CF1" s="70"/>
-      <c r="CG1" s="70"/>
-      <c r="CH1" s="70"/>
-      <c r="CI1" s="70"/>
-      <c r="CK1" s="70"/>
-      <c r="CL1" s="70"/>
-      <c r="CM1" s="70"/>
-      <c r="CN1" s="70"/>
-      <c r="CO1" s="70"/>
-      <c r="CP1" s="70"/>
-      <c r="CQ1" s="70"/>
-      <c r="CS1" s="70"/>
-      <c r="CT1" s="70"/>
-      <c r="CU1" s="70"/>
-      <c r="CV1" s="70"/>
-      <c r="CW1" s="70"/>
-      <c r="CX1" s="70"/>
-      <c r="CY1" s="70"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CC1" s="72"/>
+      <c r="CD1" s="72"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CS1" s="72"/>
+      <c r="CT1" s="72"/>
+      <c r="CU1" s="72"/>
+      <c r="CV1" s="72"/>
+      <c r="CW1" s="72"/>
+      <c r="CX1" s="72"/>
+      <c r="CY1" s="72"/>
     </row>
     <row r="2" ht="23.6" spans="1:103">
       <c r="A2" s="8"/>
@@ -3258,43 +3264,43 @@
       <c r="BJ2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="66"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
     </row>
     <row r="3" ht="48" spans="1:103">
       <c r="A3" s="8"/>
@@ -3406,21 +3412,21 @@
       <c r="AS3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="57" t="s">
+      <c r="AT3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="57" t="s">
+      <c r="AU3" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
       <c r="AX3" s="44" t="s">
         <v>58</v>
       </c>
       <c r="AY3" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AZ3" s="58" t="s">
+      <c r="AZ3" s="60" t="s">
         <v>60</v>
       </c>
       <c r="BA3" s="14"/>
@@ -3433,46 +3439,46 @@
       <c r="BH3" s="14"/>
       <c r="BI3" s="14"/>
       <c r="BJ3" s="14"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BT3" s="70"/>
-      <c r="BU3" s="70"/>
-      <c r="BV3" s="70"/>
-      <c r="BW3" s="70"/>
-      <c r="BX3" s="70"/>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="70"/>
-      <c r="CA3" s="70"/>
-      <c r="CC3" s="70"/>
-      <c r="CD3" s="70"/>
-      <c r="CE3" s="70"/>
-      <c r="CF3" s="70"/>
-      <c r="CG3" s="70"/>
-      <c r="CH3" s="70"/>
-      <c r="CI3" s="70"/>
-      <c r="CK3" s="70"/>
-      <c r="CL3" s="70"/>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="70"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="70"/>
-      <c r="CQ3" s="70"/>
-      <c r="CS3" s="70"/>
-      <c r="CT3" s="70"/>
-      <c r="CU3" s="70"/>
-      <c r="CV3" s="70"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="70"/>
-      <c r="CY3" s="70"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CC3" s="72"/>
+      <c r="CD3" s="72"/>
+      <c r="CE3" s="72"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="72"/>
+      <c r="CH3" s="72"/>
+      <c r="CI3" s="72"/>
+      <c r="CK3" s="72"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="72"/>
+      <c r="CP3" s="72"/>
+      <c r="CQ3" s="72"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
+      <c r="CY3" s="72"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="38" spans="1:103">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="16">
@@ -3616,7 +3622,7 @@
         <f>FLOOR(300/(BA4-BB4),100)</f>
         <v>100</v>
       </c>
-      <c r="BF4" s="61">
+      <c r="BF4" s="63">
         <f>(BC4-BA4)/(BA4-BB4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -3634,46 +3640,46 @@
       <c r="BJ4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="71"/>
-      <c r="CF4" s="71"/>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
-      <c r="CI4" s="71"/>
-      <c r="CK4" s="71"/>
-      <c r="CL4" s="71"/>
-      <c r="CM4" s="71"/>
-      <c r="CN4" s="71"/>
-      <c r="CO4" s="71"/>
-      <c r="CP4" s="71"/>
-      <c r="CQ4" s="71"/>
-      <c r="CS4" s="71"/>
-      <c r="CT4" s="71"/>
-      <c r="CU4" s="71"/>
-      <c r="CV4" s="71"/>
-      <c r="CW4" s="71"/>
-      <c r="CX4" s="71"/>
-      <c r="CY4" s="71"/>
+      <c r="BK4" s="67"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BT4" s="73"/>
+      <c r="BU4" s="73"/>
+      <c r="BV4" s="73"/>
+      <c r="BW4" s="73"/>
+      <c r="BX4" s="73"/>
+      <c r="BY4" s="73"/>
+      <c r="BZ4" s="73"/>
+      <c r="CA4" s="73"/>
+      <c r="CC4" s="73"/>
+      <c r="CD4" s="73"/>
+      <c r="CE4" s="73"/>
+      <c r="CF4" s="73"/>
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
+      <c r="CI4" s="73"/>
+      <c r="CK4" s="73"/>
+      <c r="CL4" s="73"/>
+      <c r="CM4" s="73"/>
+      <c r="CN4" s="73"/>
+      <c r="CO4" s="73"/>
+      <c r="CP4" s="73"/>
+      <c r="CQ4" s="73"/>
+      <c r="CS4" s="73"/>
+      <c r="CT4" s="73"/>
+      <c r="CU4" s="73"/>
+      <c r="CV4" s="73"/>
+      <c r="CW4" s="73"/>
+      <c r="CX4" s="73"/>
+      <c r="CY4" s="73"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="38" spans="1:63">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="16">
@@ -3790,16 +3796,16 @@
       <c r="AO5" s="38">
         <v>0.1125</v>
       </c>
-      <c r="AP5" s="56">
+      <c r="AP5" s="58">
         <v>0.4704</v>
       </c>
-      <c r="AQ5" s="56">
+      <c r="AQ5" s="58">
         <v>0.4673</v>
       </c>
-      <c r="AR5" s="56">
+      <c r="AR5" s="58">
         <v>0.4797</v>
       </c>
-      <c r="AS5" s="56">
+      <c r="AS5" s="58">
         <v>0.4796</v>
       </c>
       <c r="AT5" s="19"/>
@@ -3833,7 +3839,7 @@
         <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
-      <c r="BF5" s="61">
+      <c r="BF5" s="63">
         <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
@@ -3851,10 +3857,10 @@
       <c r="BJ5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="BK5" s="67"/>
+      <c r="BK5" s="69"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="38" spans="1:63">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="16">
@@ -4015,7 +4021,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF6" s="61">
+      <c r="BF6" s="63">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
@@ -4033,10 +4039,10 @@
       <c r="BJ6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="BK6" s="68"/>
+      <c r="BK6" s="70"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="38" spans="1:63">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="20">
@@ -4145,10 +4151,10 @@
       <c r="AM7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="AN7" s="49" t="s">
+      <c r="AN7" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="56" t="s">
         <v>102</v>
       </c>
       <c r="AP7" s="49" t="s">
@@ -4194,7 +4200,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BF7" s="61">
+      <c r="BF7" s="63">
         <f t="shared" si="9"/>
         <v>3.40487804878048</v>
       </c>
@@ -4212,10 +4218,10 @@
       <c r="BJ7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BK7" s="69"/>
+      <c r="BK7" s="71"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="24" spans="1:63">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="20">
@@ -4325,7 +4331,7 @@
       <c r="AY8" s="22">
         <v>26.16</v>
       </c>
-      <c r="AZ8" s="60">
+      <c r="AZ8" s="62">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
@@ -4338,7 +4344,7 @@
       <c r="BC8" s="22">
         <v>38.71</v>
       </c>
-      <c r="BD8" s="60">
+      <c r="BD8" s="62">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
@@ -4346,7 +4352,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF8" s="62">
+      <c r="BF8" s="64">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
@@ -4364,10 +4370,10 @@
       <c r="BJ8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="BK8" s="69"/>
+      <c r="BK8" s="71"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="13" spans="1:63">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="23">
@@ -4456,18 +4462,42 @@
         <v>110</v>
       </c>
       <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
+      <c r="AH9" s="55">
+        <v>1.5016</v>
+      </c>
+      <c r="AI9" s="55">
+        <v>5.5181</v>
+      </c>
+      <c r="AJ9" s="55">
+        <v>3.3249</v>
+      </c>
+      <c r="AK9" s="55">
+        <v>1.8449</v>
+      </c>
+      <c r="AL9" s="57">
+        <v>0.0437</v>
+      </c>
+      <c r="AM9" s="57">
+        <v>1.1403</v>
+      </c>
+      <c r="AN9" s="57">
+        <v>1.4349</v>
+      </c>
+      <c r="AO9" s="57">
+        <v>1.2425</v>
+      </c>
+      <c r="AP9" s="55">
+        <v>0.3392</v>
+      </c>
+      <c r="AQ9" s="55">
+        <v>0.3777</v>
+      </c>
+      <c r="AR9" s="38">
+        <v>0.3722</v>
+      </c>
+      <c r="AS9" s="38">
+        <v>0.3621</v>
+      </c>
       <c r="AT9" s="5"/>
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
@@ -4499,7 +4529,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF9" s="63">
+      <c r="BF9" s="65">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
@@ -4517,10 +4547,10 @@
       <c r="BJ9" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="BK9" s="68"/>
+      <c r="BK9" s="70"/>
     </row>
     <row r="10" ht="13" spans="1:62">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="25">
@@ -4621,16 +4651,16 @@
       <c r="AK10" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="AL10" s="55">
+      <c r="AL10" s="57">
         <v>-0.0419</v>
       </c>
-      <c r="AM10" s="55">
+      <c r="AM10" s="57">
         <v>0.1981</v>
       </c>
-      <c r="AN10" s="55">
+      <c r="AN10" s="57">
         <v>0.198</v>
       </c>
-      <c r="AO10" s="55">
+      <c r="AO10" s="57">
         <v>0.1998</v>
       </c>
       <c r="AP10" s="55">
@@ -4676,7 +4706,7 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="BF10" s="63">
+      <c r="BF10" s="65">
         <f t="shared" si="9"/>
         <v>2.09243697478991</v>
       </c>
@@ -4696,7 +4726,7 @@
       </c>
     </row>
     <row r="11" ht="13" spans="1:62">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="25">
@@ -4842,7 +4872,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="BF11" s="63">
+      <c r="BF11" s="65">
         <f t="shared" si="9"/>
         <v>3.07003891050584</v>
       </c>
@@ -4862,7 +4892,7 @@
       </c>
     </row>
     <row r="12" ht="13" spans="1:62">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>122</v>
       </c>
       <c r="B12" s="5"/>
@@ -4928,7 +4958,7 @@
       <c r="BJ12" s="5"/>
     </row>
     <row r="13" ht="13" spans="1:62">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="5"/>
@@ -4994,7 +5024,7 @@
       <c r="BJ13" s="5"/>
     </row>
     <row r="14" ht="13" spans="1:62">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>124</v>
       </c>
       <c r="B14" s="5"/>
@@ -5060,7 +5090,7 @@
       <c r="BJ14" s="5"/>
     </row>
     <row r="15" ht="13" spans="1:62">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="75" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="5"/>
@@ -5126,7 +5156,7 @@
       <c r="BJ15" s="5"/>
     </row>
     <row r="16" ht="13" spans="1:62">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="5"/>
@@ -5192,7 +5222,7 @@
       <c r="BJ16" s="5"/>
     </row>
     <row r="17" ht="13" spans="1:62">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="5"/>
@@ -5258,7 +5288,7 @@
       <c r="BJ17" s="5"/>
     </row>
     <row r="18" ht="13" spans="1:62">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>128</v>
       </c>
       <c r="B18" s="5"/>
@@ -5324,7 +5354,7 @@
       <c r="BJ18" s="5"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="75" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="5"/>
@@ -5390,7 +5420,7 @@
       <c r="BJ19" s="5"/>
     </row>
     <row r="20" ht="13" spans="1:62">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="7"/>
@@ -5454,7 +5484,7 @@
       <c r="BJ20" s="7"/>
     </row>
     <row r="21" ht="13" spans="1:62">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="7"/>
@@ -5518,7 +5548,7 @@
       <c r="BJ21" s="7"/>
     </row>
     <row r="22" ht="13" spans="1:62">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="7"/>
@@ -5582,7 +5612,7 @@
       <c r="BJ22" s="7"/>
     </row>
     <row r="23" ht="13" spans="1:62">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="77" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="7"/>
@@ -5646,7 +5676,7 @@
       <c r="BJ23" s="7"/>
     </row>
     <row r="24" ht="13" spans="1:62">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="77" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="7"/>
@@ -5710,7 +5740,7 @@
       <c r="BJ24" s="7"/>
     </row>
     <row r="25" ht="13" spans="1:62">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="77" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="7"/>
@@ -5774,7 +5804,7 @@
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" ht="13" spans="1:62">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="77" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="7"/>
@@ -5838,7 +5868,7 @@
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" ht="13" spans="1:62">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>137</v>
       </c>
       <c r="B27" s="7"/>
@@ -5902,7 +5932,7 @@
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" ht="13" spans="1:62">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="7"/>
@@ -5966,7 +5996,7 @@
       <c r="BJ28" s="7"/>
     </row>
     <row r="29" ht="13" spans="1:62">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="77" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="7"/>
@@ -6030,7 +6060,7 @@
       <c r="BJ29" s="7"/>
     </row>
     <row r="30" ht="13" spans="1:62">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="77" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="7"/>
@@ -6094,7 +6124,7 @@
       <c r="BJ30" s="7"/>
     </row>
     <row r="31" ht="13" spans="1:62">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="7"/>
@@ -6158,7 +6188,7 @@
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" ht="13" spans="1:62">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="77" t="s">
         <v>142</v>
       </c>
       <c r="B32" s="7"/>
@@ -6222,7 +6252,7 @@
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" ht="13" spans="1:62">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="77" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="7"/>
@@ -6286,7 +6316,7 @@
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" ht="13" spans="1:62">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="77" t="s">
         <v>144</v>
       </c>
       <c r="B34" s="7"/>
@@ -6350,7 +6380,7 @@
       <c r="BJ34" s="7"/>
     </row>
     <row r="35" ht="13" spans="1:62">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="77" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="7"/>
@@ -6414,7 +6444,7 @@
       <c r="BJ35" s="7"/>
     </row>
     <row r="36" ht="13" spans="1:62">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="77" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="7"/>
@@ -6478,7 +6508,7 @@
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" ht="13" spans="1:62">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="77" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="7"/>
@@ -6542,7 +6572,7 @@
       <c r="BJ37" s="7"/>
     </row>
     <row r="38" ht="13" spans="1:62">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="77" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="7"/>
@@ -6606,7 +6636,7 @@
       <c r="BJ38" s="7"/>
     </row>
     <row r="39" ht="13" spans="1:62">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="77" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="7"/>
@@ -6670,7 +6700,7 @@
       <c r="BJ39" s="7"/>
     </row>
     <row r="40" ht="13" spans="1:62">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="77" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="7"/>
@@ -6734,7 +6764,7 @@
       <c r="BJ40" s="7"/>
     </row>
     <row r="41" ht="13" spans="1:62">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="77" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="7"/>
@@ -6798,7 +6828,7 @@
       <c r="BJ41" s="7"/>
     </row>
     <row r="42" ht="13" spans="1:62">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>152</v>
       </c>
       <c r="B42" s="7"/>
@@ -6862,7 +6892,7 @@
       <c r="BJ42" s="7"/>
     </row>
     <row r="43" ht="13" spans="1:62">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="77" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="7"/>
@@ -6926,7 +6956,7 @@
       <c r="BJ43" s="7"/>
     </row>
     <row r="44" ht="13" spans="1:62">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="77" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="7"/>
@@ -6990,7 +7020,7 @@
       <c r="BJ44" s="7"/>
     </row>
     <row r="45" ht="13" spans="1:62">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="77" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="7"/>
@@ -7054,7 +7084,7 @@
       <c r="BJ45" s="7"/>
     </row>
     <row r="46" ht="13" spans="1:62">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="77" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="7"/>
@@ -7118,7 +7148,7 @@
       <c r="BJ46" s="7"/>
     </row>
     <row r="47" ht="13" spans="1:62">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="77" t="s">
         <v>157</v>
       </c>
       <c r="B47" s="7"/>
@@ -7182,7 +7212,7 @@
       <c r="BJ47" s="7"/>
     </row>
     <row r="48" ht="13" spans="1:62">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="77" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="7"/>
@@ -7246,7 +7276,7 @@
       <c r="BJ48" s="7"/>
     </row>
     <row r="49" ht="13" spans="1:62">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="77" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="7"/>
@@ -7310,7 +7340,7 @@
       <c r="BJ49" s="7"/>
     </row>
     <row r="50" ht="13" spans="1:62">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="77" t="s">
         <v>160</v>
       </c>
       <c r="B50" s="7"/>
@@ -7374,7 +7404,7 @@
       <c r="BJ50" s="7"/>
     </row>
     <row r="51" ht="13" spans="1:62">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="77" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="7"/>
@@ -7438,7 +7468,7 @@
       <c r="BJ51" s="7"/>
     </row>
     <row r="52" ht="13" spans="1:62">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="77" t="s">
         <v>162</v>
       </c>
       <c r="B52" s="7"/>
@@ -7502,7 +7532,7 @@
       <c r="BJ52" s="7"/>
     </row>
     <row r="53" ht="13" spans="1:62">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="77" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="7"/>
@@ -7566,7 +7596,7 @@
       <c r="BJ53" s="7"/>
     </row>
     <row r="54" ht="13" spans="1:62">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="77" t="s">
         <v>164</v>
       </c>
       <c r="B54" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3001,11 +3001,11 @@
   <dimension ref="A1:CY551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4639,16 +4639,16 @@
         <v>110</v>
       </c>
       <c r="AG10" s="52"/>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AI10" s="48" t="s">
+      <c r="AI10" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AJ10" s="48" t="s">
+      <c r="AJ10" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" s="48" t="s">
+      <c r="AK10" s="56" t="s">
         <v>116</v>
       </c>
       <c r="AL10" s="57">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -632,17 +632,11 @@
     <t>57.14%</t>
   </si>
   <si>
-    <t>000021</t>
+    <t>000027</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>605028(</t>
+      <t>603599(</t>
     </r>
     <r>
       <rPr>
@@ -651,7 +645,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>世贸能源</t>
+      <t>广信股份</t>
     </r>
     <r>
       <rPr>
@@ -662,18 +656,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>16w</t>
-  </si>
-  <si>
-    <t>6T</t>
-  </si>
-  <si>
-    <t>减少明显，空A头几乎被榨干</t>
-  </si>
-  <si>
-    <t>000027</t>
   </si>
   <si>
     <t>000028</t>
@@ -2998,14 +2980,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:CY551"/>
+  <dimension ref="A1:CY550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
+      <selection pane="bottomRight" activeCell="BE10" sqref="BE10:BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3832,23 +3814,23 @@
         <v>39.33</v>
       </c>
       <c r="BD5" s="19">
-        <f t="shared" ref="BD5:BD11" si="7">(BA5-BB5)*100</f>
+        <f>(BA5-BB5)*100</f>
         <v>159</v>
       </c>
       <c r="BE5" s="18">
-        <f t="shared" ref="BE5:BE11" si="8">FLOOR(300/(BA5-BB5),100)</f>
+        <f t="shared" ref="BE5:BE11" si="7">FLOOR(300/(BA5-BB5),100)</f>
         <v>100</v>
       </c>
       <c r="BF5" s="63">
-        <f t="shared" ref="BF5:BF11" si="9">(BC5-BA5)/(BA5-BB5)</f>
+        <f t="shared" ref="BF5:BF11" si="8">(BC5-BA5)/(BA5-BB5)</f>
         <v>3.27672955974844</v>
       </c>
       <c r="BG5" s="36">
-        <f t="shared" ref="BG5:BG11" si="10">(BA5-BB5)/BA5</f>
+        <f t="shared" ref="BG5:BG11" si="9">(BA5-BB5)/BA5</f>
         <v>0.0466002344665884</v>
       </c>
       <c r="BH5" s="36">
-        <f t="shared" ref="BH5:BH11" si="11">(BC5-BA5)/BA5</f>
+        <f t="shared" ref="BH5:BH11" si="10">(BC5-BA5)/BA5</f>
         <v>0.152696365767878</v>
       </c>
       <c r="BI5" s="19">
@@ -4014,23 +3996,23 @@
         <v>36.22</v>
       </c>
       <c r="BD6" s="19">
+        <f>(BA6-BB6)*100</f>
+        <v>176</v>
+      </c>
+      <c r="BE6" s="18">
         <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="BE6" s="18">
+        <v>100</v>
+      </c>
+      <c r="BF6" s="63">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="BF6" s="63">
+        <v>2.02840909090909</v>
+      </c>
+      <c r="BG6" s="36">
         <f t="shared" si="9"/>
-        <v>2.02840909090909</v>
-      </c>
-      <c r="BG6" s="36">
+        <v>0.0539050535987748</v>
+      </c>
+      <c r="BH6" s="36">
         <f t="shared" si="10"/>
-        <v>0.0539050535987748</v>
-      </c>
-      <c r="BH6" s="36">
-        <f t="shared" si="11"/>
         <v>0.109341500765697</v>
       </c>
       <c r="BI6" s="19">
@@ -4193,23 +4175,23 @@
         <v>84.94</v>
       </c>
       <c r="BD7" s="19">
+        <f>(BA7-BB7)*100</f>
+        <v>410.000000000001</v>
+      </c>
+      <c r="BE7" s="18">
         <f t="shared" si="7"/>
-        <v>410.000000000001</v>
-      </c>
-      <c r="BE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BF7" s="63">
+        <v>3.40487804878048</v>
+      </c>
+      <c r="BG7" s="36">
         <f t="shared" si="9"/>
-        <v>3.40487804878048</v>
-      </c>
-      <c r="BG7" s="36">
+        <v>0.0577627500704425</v>
+      </c>
+      <c r="BH7" s="36">
         <f t="shared" si="10"/>
-        <v>0.0577627500704425</v>
-      </c>
-      <c r="BH7" s="36">
-        <f t="shared" si="11"/>
         <v>0.196675119752043</v>
       </c>
       <c r="BI7" s="22">
@@ -4345,23 +4327,23 @@
         <v>38.71</v>
       </c>
       <c r="BD8" s="62">
+        <f>(BA8-BB8)*100</f>
+        <v>131</v>
+      </c>
+      <c r="BE8" s="22">
         <f t="shared" si="7"/>
-        <v>131</v>
-      </c>
-      <c r="BE8" s="22">
+        <v>200</v>
+      </c>
+      <c r="BF8" s="64">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="BF8" s="64">
+        <v>6.14503816793894</v>
+      </c>
+      <c r="BG8" s="39">
         <f t="shared" si="9"/>
-        <v>6.14503816793894</v>
-      </c>
-      <c r="BG8" s="39">
+        <v>0.042726679712981</v>
+      </c>
+      <c r="BH8" s="39">
         <f t="shared" si="10"/>
-        <v>0.042726679712981</v>
-      </c>
-      <c r="BH8" s="39">
-        <f t="shared" si="11"/>
         <v>0.262557077625571</v>
       </c>
       <c r="BI8" s="22">
@@ -4430,8 +4412,12 @@
       <c r="S9" s="5">
         <v>27.72</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="T9" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="U9" s="5">
+        <v>27.44</v>
+      </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5" t="s">
@@ -4453,7 +4439,10 @@
         <f t="shared" si="5"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="39">
+        <f>(T9-U9)/T9</f>
+        <v>0.076094276094276</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5" t="s">
         <v>73</v>
@@ -4522,23 +4511,23 @@
         <v>34.93</v>
       </c>
       <c r="BD9" s="19">
+        <f>(BA9-BB9)*100</f>
+        <v>205</v>
+      </c>
+      <c r="BE9" s="5">
         <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="BE9" s="5">
+        <v>100</v>
+      </c>
+      <c r="BF9" s="65">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="BF9" s="65">
+        <v>2.51707317073171</v>
+      </c>
+      <c r="BG9" s="38">
         <f t="shared" si="9"/>
-        <v>2.51707317073171</v>
-      </c>
-      <c r="BG9" s="38">
+        <v>0.0688612697346322</v>
+      </c>
+      <c r="BH9" s="38">
         <f t="shared" si="10"/>
-        <v>0.0688612697346322</v>
-      </c>
-      <c r="BH9" s="38">
-        <f t="shared" si="11"/>
         <v>0.173328854551562</v>
       </c>
       <c r="BI9" s="5">
@@ -4602,10 +4591,10 @@
         <v>20.89</v>
       </c>
       <c r="R10" s="5">
-        <v>23.49</v>
+        <v>24.28</v>
       </c>
       <c r="S10" s="5">
-        <v>22.12</v>
+        <v>22.26</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -4628,7 +4617,7 @@
       </c>
       <c r="AB10" s="46">
         <f t="shared" si="5"/>
-        <v>0.0583226905065984</v>
+        <v>0.0831960461285008</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -4693,30 +4682,30 @@
         <v>24.28</v>
       </c>
       <c r="BB10" s="5">
-        <v>23.09</v>
+        <v>22.26</v>
       </c>
       <c r="BC10" s="5">
-        <v>26.77</v>
+        <v>26.72</v>
       </c>
       <c r="BD10" s="19">
-        <f t="shared" si="7"/>
-        <v>119</v>
+        <f>(BA10-BB10)*100</f>
+        <v>202</v>
       </c>
       <c r="BE10" s="5">
+        <f>FLOOR(304/(BA10-BB10),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BF10" s="65">
         <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="BF10" s="65">
+        <v>1.20792079207921</v>
+      </c>
+      <c r="BG10" s="38">
         <f t="shared" si="9"/>
-        <v>2.09243697478991</v>
-      </c>
-      <c r="BG10" s="38">
+        <v>0.0831960461285008</v>
+      </c>
+      <c r="BH10" s="38">
         <f t="shared" si="10"/>
-        <v>0.049011532125206</v>
-      </c>
-      <c r="BH10" s="38">
-        <f t="shared" si="11"/>
-        <v>0.102553542009885</v>
+        <v>0.100494233937397</v>
       </c>
       <c r="BI10" s="5">
         <v>56.67</v>
@@ -4729,163 +4718,171 @@
       <c r="A11" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="25">
-        <v>44531</v>
+      <c r="B11" s="23">
+        <v>44533</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="5">
-        <v>22.96</v>
+        <v>32.27</v>
       </c>
       <c r="E11" s="5">
-        <v>23.55</v>
+        <v>32.93</v>
       </c>
       <c r="F11" s="5">
-        <v>25.45</v>
+        <v>35.63</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
-        <v>25.7</v>
+        <v>38.7</v>
       </c>
       <c r="I11" s="5">
-        <v>16.52</v>
+        <v>21.24</v>
       </c>
       <c r="J11" s="5">
-        <v>33.51</v>
+        <v>40.75</v>
       </c>
       <c r="K11" s="38">
-        <f t="shared" si="0"/>
-        <v>0.555690072639225</v>
+        <f>(H11-I11)/I11</f>
+        <v>0.822033898305085</v>
       </c>
       <c r="L11" s="38">
-        <f t="shared" si="1"/>
-        <v>0.233064756789018</v>
+        <f>(J11-H11)/J11</f>
+        <v>0.0503067484662576</v>
       </c>
       <c r="M11" s="5">
-        <v>19.92</v>
+        <v>28.83</v>
       </c>
       <c r="N11" s="5">
-        <v>26.6</v>
+        <v>37.84</v>
       </c>
       <c r="O11" s="5">
-        <v>20.5</v>
+        <v>34.35</v>
       </c>
       <c r="P11" s="5">
-        <v>29.5</v>
+        <v>38.88</v>
       </c>
       <c r="Q11" s="5">
-        <v>23.34</v>
+        <v>35.01</v>
       </c>
       <c r="R11" s="5">
-        <v>28.3</v>
+        <v>41.3</v>
       </c>
       <c r="S11" s="5">
-        <v>24.74</v>
-      </c>
-      <c r="T11">
-        <v>27.7</v>
-      </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11" s="5">
-        <v>27.58</v>
-      </c>
-      <c r="W11" s="5">
-        <v>25.01</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>38.2</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="46">
-        <f t="shared" si="2"/>
-        <v>0.405550581915846</v>
+        <f>(J11-M11)/J11</f>
+        <v>0.292515337423313</v>
       </c>
       <c r="Z11" s="46">
-        <f t="shared" si="3"/>
-        <v>0.229323308270677</v>
+        <f>(N11-O11)/N11</f>
+        <v>0.0922304439746301</v>
       </c>
       <c r="AA11" s="46">
-        <f t="shared" si="4"/>
-        <v>0.208813559322034</v>
+        <f>(P11-Q11)/P11</f>
+        <v>0.0995370370370371</v>
       </c>
       <c r="AB11" s="46">
-        <f t="shared" si="5"/>
-        <v>0.125795053003534</v>
-      </c>
-      <c r="AC11" s="38">
-        <f>(T11-U11)/T11</f>
-        <v>0.0974729241877256</v>
-      </c>
-      <c r="AD11" s="38">
-        <f>(V11-W11)/V11</f>
-        <v>0.0931834662799129</v>
-      </c>
+        <f>(R11-S11)/R11</f>
+        <v>0.0750605326876512</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
       <c r="AE11" s="5" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="AF11" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="37">
+        <v>0.1643</v>
+      </c>
+      <c r="AI11" s="37">
+        <v>1.4491</v>
+      </c>
+      <c r="AJ11" s="37">
+        <v>1.2198</v>
+      </c>
+      <c r="AK11" s="37">
+        <v>1.372</v>
+      </c>
+      <c r="AL11" s="37">
+        <v>-0.1821</v>
+      </c>
+      <c r="AM11" s="37">
+        <v>0.2394</v>
+      </c>
+      <c r="AN11" s="37">
+        <v>0.7485</v>
+      </c>
+      <c r="AO11" s="37">
+        <v>1.2456</v>
+      </c>
+      <c r="AP11" s="37">
+        <v>0.3524</v>
+      </c>
+      <c r="AQ11" s="37">
+        <v>0.3393</v>
+      </c>
+      <c r="AR11" s="37">
+        <v>0.4071</v>
+      </c>
+      <c r="AS11" s="37">
+        <v>0.4102</v>
+      </c>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5">
-        <v>29.7</v>
+        <v>41.47</v>
       </c>
       <c r="AY11" s="5">
-        <v>21.86</v>
+        <v>32.56</v>
       </c>
       <c r="AZ11" s="19">
-        <f t="shared" si="6"/>
-        <v>7.84</v>
+        <f>AX11-AY11</f>
+        <v>8.91</v>
       </c>
       <c r="BA11" s="5">
-        <v>27.58</v>
+        <v>41.3</v>
       </c>
       <c r="BB11" s="5">
-        <v>25.01</v>
+        <v>38.2</v>
       </c>
       <c r="BC11" s="5">
-        <v>35.47</v>
+        <v>45.39</v>
       </c>
       <c r="BD11" s="19">
-        <f t="shared" si="7"/>
-        <v>257</v>
+        <f>(BA11-BB11)*100</f>
+        <v>309.999999999999</v>
       </c>
       <c r="BE11" s="5">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f>FLOOR(304/(BA11-BB11),100)</f>
+        <v>0</v>
       </c>
       <c r="BF11" s="65">
-        <f t="shared" si="9"/>
-        <v>3.07003891050584</v>
+        <f>(BC11-BA11)/(BA11-BB11)</f>
+        <v>1.31935483870968</v>
       </c>
       <c r="BG11" s="38">
-        <f t="shared" si="10"/>
-        <v>0.0931834662799129</v>
+        <f>(BA11-BB11)/BA11</f>
+        <v>0.0750605326876512</v>
       </c>
       <c r="BH11" s="38">
-        <f t="shared" si="11"/>
-        <v>0.286076867295141</v>
+        <f>(BC11-BA11)/BA11</f>
+        <v>0.0990314769975788</v>
       </c>
       <c r="BI11" s="5">
-        <v>22.12</v>
+        <v>15.37</v>
       </c>
       <c r="BJ11" s="52" t="s">
         <v>75</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row r="12" ht="13" spans="1:62">
       <c r="A12" s="75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="13" ht="13" spans="1:62">
       <c r="A13" s="75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="14" ht="13" spans="1:62">
       <c r="A14" s="75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="15" ht="13" spans="1:62">
       <c r="A15" s="75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="16" ht="13" spans="1:62">
       <c r="A16" s="75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="17" ht="13" spans="1:62">
       <c r="A17" s="75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="18" ht="13" spans="1:62">
       <c r="A18" s="75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5354,74 +5351,72 @@
       <c r="BJ18" s="5"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="5"/>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
-      <c r="BE19" s="5"/>
-      <c r="BF19" s="5"/>
-      <c r="BG19" s="5"/>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="5"/>
+      <c r="A19" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BJ19" s="7"/>
     </row>
     <row r="20" ht="13" spans="1:62">
       <c r="A20" s="77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="7"/>
@@ -5485,7 +5480,7 @@
     </row>
     <row r="21" ht="13" spans="1:62">
       <c r="A21" s="77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="7"/>
@@ -5549,7 +5544,7 @@
     </row>
     <row r="22" ht="13" spans="1:62">
       <c r="A22" s="77" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B22" s="7"/>
       <c r="D22" s="7"/>
@@ -5613,7 +5608,7 @@
     </row>
     <row r="23" ht="13" spans="1:62">
       <c r="A23" s="77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" s="7"/>
       <c r="D23" s="7"/>
@@ -5677,7 +5672,7 @@
     </row>
     <row r="24" ht="13" spans="1:62">
       <c r="A24" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" s="7"/>
       <c r="D24" s="7"/>
@@ -5741,7 +5736,7 @@
     </row>
     <row r="25" ht="13" spans="1:62">
       <c r="A25" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" s="7"/>
       <c r="D25" s="7"/>
@@ -5805,7 +5800,7 @@
     </row>
     <row r="26" ht="13" spans="1:62">
       <c r="A26" s="77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7"/>
       <c r="D26" s="7"/>
@@ -5869,7 +5864,7 @@
     </row>
     <row r="27" ht="13" spans="1:62">
       <c r="A27" s="77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="7"/>
       <c r="D27" s="7"/>
@@ -5933,7 +5928,7 @@
     </row>
     <row r="28" ht="13" spans="1:62">
       <c r="A28" s="77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B28" s="7"/>
       <c r="D28" s="7"/>
@@ -5997,7 +5992,7 @@
     </row>
     <row r="29" ht="13" spans="1:62">
       <c r="A29" s="77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B29" s="7"/>
       <c r="D29" s="7"/>
@@ -6061,7 +6056,7 @@
     </row>
     <row r="30" ht="13" spans="1:62">
       <c r="A30" s="77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B30" s="7"/>
       <c r="D30" s="7"/>
@@ -6125,7 +6120,7 @@
     </row>
     <row r="31" ht="13" spans="1:62">
       <c r="A31" s="77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="7"/>
       <c r="D31" s="7"/>
@@ -6189,7 +6184,7 @@
     </row>
     <row r="32" ht="13" spans="1:62">
       <c r="A32" s="77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
@@ -6253,7 +6248,7 @@
     </row>
     <row r="33" ht="13" spans="1:62">
       <c r="A33" s="77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B33" s="7"/>
       <c r="D33" s="7"/>
@@ -6317,7 +6312,7 @@
     </row>
     <row r="34" ht="13" spans="1:62">
       <c r="A34" s="77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B34" s="7"/>
       <c r="D34" s="7"/>
@@ -6381,7 +6376,7 @@
     </row>
     <row r="35" ht="13" spans="1:62">
       <c r="A35" s="77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B35" s="7"/>
       <c r="D35" s="7"/>
@@ -6445,7 +6440,7 @@
     </row>
     <row r="36" ht="13" spans="1:62">
       <c r="A36" s="77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B36" s="7"/>
       <c r="D36" s="7"/>
@@ -6509,7 +6504,7 @@
     </row>
     <row r="37" ht="13" spans="1:62">
       <c r="A37" s="77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B37" s="7"/>
       <c r="D37" s="7"/>
@@ -6573,7 +6568,7 @@
     </row>
     <row r="38" ht="13" spans="1:62">
       <c r="A38" s="77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B38" s="7"/>
       <c r="D38" s="7"/>
@@ -6637,7 +6632,7 @@
     </row>
     <row r="39" ht="13" spans="1:62">
       <c r="A39" s="77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B39" s="7"/>
       <c r="D39" s="7"/>
@@ -6701,7 +6696,7 @@
     </row>
     <row r="40" ht="13" spans="1:62">
       <c r="A40" s="77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B40" s="7"/>
       <c r="D40" s="7"/>
@@ -6765,7 +6760,7 @@
     </row>
     <row r="41" ht="13" spans="1:62">
       <c r="A41" s="77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B41" s="7"/>
       <c r="D41" s="7"/>
@@ -6829,7 +6824,7 @@
     </row>
     <row r="42" ht="13" spans="1:62">
       <c r="A42" s="77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" s="7"/>
       <c r="D42" s="7"/>
@@ -6893,7 +6888,7 @@
     </row>
     <row r="43" ht="13" spans="1:62">
       <c r="A43" s="77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B43" s="7"/>
       <c r="D43" s="7"/>
@@ -6957,7 +6952,7 @@
     </row>
     <row r="44" ht="13" spans="1:62">
       <c r="A44" s="77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="7"/>
       <c r="D44" s="7"/>
@@ -7021,7 +7016,7 @@
     </row>
     <row r="45" ht="13" spans="1:62">
       <c r="A45" s="77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7"/>
       <c r="D45" s="7"/>
@@ -7085,7 +7080,7 @@
     </row>
     <row r="46" ht="13" spans="1:62">
       <c r="A46" s="77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" s="7"/>
       <c r="D46" s="7"/>
@@ -7149,7 +7144,7 @@
     </row>
     <row r="47" ht="13" spans="1:62">
       <c r="A47" s="77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B47" s="7"/>
       <c r="D47" s="7"/>
@@ -7213,7 +7208,7 @@
     </row>
     <row r="48" ht="13" spans="1:62">
       <c r="A48" s="77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B48" s="7"/>
       <c r="D48" s="7"/>
@@ -7277,7 +7272,7 @@
     </row>
     <row r="49" ht="13" spans="1:62">
       <c r="A49" s="77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7"/>
       <c r="D49" s="7"/>
@@ -7341,7 +7336,7 @@
     </row>
     <row r="50" ht="13" spans="1:62">
       <c r="A50" s="77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" s="7"/>
       <c r="D50" s="7"/>
@@ -7405,7 +7400,7 @@
     </row>
     <row r="51" ht="13" spans="1:62">
       <c r="A51" s="77" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B51" s="7"/>
       <c r="D51" s="7"/>
@@ -7469,7 +7464,7 @@
     </row>
     <row r="52" ht="13" spans="1:62">
       <c r="A52" s="77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B52" s="7"/>
       <c r="D52" s="7"/>
@@ -7533,7 +7528,7 @@
     </row>
     <row r="53" ht="13" spans="1:62">
       <c r="A53" s="77" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B53" s="7"/>
       <c r="D53" s="7"/>
@@ -7595,10 +7590,8 @@
       <c r="BH53" s="7"/>
       <c r="BJ53" s="7"/>
     </row>
-    <row r="54" ht="13" spans="1:62">
-      <c r="A54" s="77" t="s">
-        <v>164</v>
-      </c>
+    <row r="54" spans="1:62">
+      <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -33451,67 +33444,8 @@
       <c r="BH470" s="7"/>
       <c r="BJ470" s="7"/>
     </row>
-    <row r="471" spans="1:62">
+    <row r="471" spans="1:1">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
-      <c r="D471" s="7"/>
-      <c r="E471" s="7"/>
-      <c r="F471" s="7"/>
-      <c r="G471" s="7"/>
-      <c r="H471" s="7"/>
-      <c r="I471" s="7"/>
-      <c r="J471" s="7"/>
-      <c r="K471" s="7"/>
-      <c r="L471" s="7"/>
-      <c r="M471" s="7"/>
-      <c r="N471" s="7"/>
-      <c r="O471" s="7"/>
-      <c r="P471" s="7"/>
-      <c r="Q471" s="7"/>
-      <c r="R471" s="7"/>
-      <c r="S471" s="7"/>
-      <c r="T471" s="7"/>
-      <c r="U471" s="7"/>
-      <c r="V471" s="7"/>
-      <c r="W471" s="7"/>
-      <c r="X471" s="7"/>
-      <c r="Y471" s="7"/>
-      <c r="Z471" s="7"/>
-      <c r="AA471" s="7"/>
-      <c r="AB471" s="7"/>
-      <c r="AC471" s="7"/>
-      <c r="AD471" s="7"/>
-      <c r="AE471" s="7"/>
-      <c r="AF471" s="7"/>
-      <c r="AG471" s="7"/>
-      <c r="AH471" s="7"/>
-      <c r="AI471" s="7"/>
-      <c r="AJ471" s="7"/>
-      <c r="AK471" s="7"/>
-      <c r="AL471" s="7"/>
-      <c r="AM471" s="7"/>
-      <c r="AN471" s="7"/>
-      <c r="AO471" s="7"/>
-      <c r="AP471" s="7"/>
-      <c r="AQ471" s="7"/>
-      <c r="AR471" s="7"/>
-      <c r="AS471" s="7"/>
-      <c r="AT471" s="7"/>
-      <c r="AU471" s="7"/>
-      <c r="AV471" s="7"/>
-      <c r="AW471" s="7"/>
-      <c r="AX471" s="7"/>
-      <c r="AY471" s="7"/>
-      <c r="AZ471" s="7"/>
-      <c r="BA471" s="7"/>
-      <c r="BB471" s="7"/>
-      <c r="BC471" s="7"/>
-      <c r="BD471" s="7"/>
-      <c r="BE471" s="7"/>
-      <c r="BF471" s="7"/>
-      <c r="BG471" s="7"/>
-      <c r="BH471" s="7"/>
-      <c r="BJ471" s="7"/>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="7"/>
@@ -33749,9 +33683,6 @@
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="7"/>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -33816,31 +33747,31 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="CU1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="e">
-        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ994,53,FALSE)))</f>
+        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ993,53,FALSE)))</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="3" t="e">
-        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ994,53,FALSE),0))</f>
+        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BJ993,53,FALSE),0))</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -661,13 +661,105 @@
     <t>000028</t>
   </si>
   <si>
+    <r>
+      <t>002806(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华锋股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000029</t>
+  </si>
+  <si>
+    <r>
+      <t>600392(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盛和资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>000030</t>
   </si>
   <si>
+    <r>
+      <t>002346(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拓中股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000031</t>
+  </si>
+  <si>
+    <r>
+      <t>603203(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快克股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>000032</t>
@@ -1810,6 +1902,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2983,11 +3078,11 @@
   <dimension ref="A1:CY550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE10" sqref="BE10:BE11"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4892,168 +4987,434 @@
       <c r="A12" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12.76</v>
+      </c>
+      <c r="E12" s="5">
+        <v>13.44</v>
+      </c>
+      <c r="F12" s="5">
+        <v>15.17</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="H12" s="5">
+        <v>15.88</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7.96</v>
+      </c>
+      <c r="J12" s="5">
+        <v>18.68</v>
+      </c>
+      <c r="K12" s="38">
+        <f>(H12-I12)/I12</f>
+        <v>0.994974874371859</v>
+      </c>
+      <c r="L12" s="38">
+        <f>(J12-H12)/J12</f>
+        <v>0.149892933618844</v>
+      </c>
+      <c r="M12" s="5">
+        <v>12.75</v>
+      </c>
+      <c r="N12" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="O12" s="5">
+        <v>13.57</v>
+      </c>
+      <c r="P12" s="5">
+        <v>16.97</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="S12" s="5">
+        <v>15.82</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="X12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" s="46">
+        <f>(J12-M12)/J12</f>
+        <v>0.31745182012848</v>
+      </c>
+      <c r="Z12" s="46">
+        <f>(N12-O12)/N12</f>
+        <v>0.130128205128205</v>
+      </c>
+      <c r="AA12" s="46">
+        <f>(P12-Q12)/P12</f>
+        <v>0.0866234531526222</v>
+      </c>
+      <c r="AB12" s="46">
+        <f>(R12-S12)/R12</f>
+        <v>0.0666666666666666</v>
+      </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="AE12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" s="52" t="s">
+        <v>110</v>
+      </c>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
+      <c r="AH12" s="37">
+        <v>-9.0812</v>
+      </c>
+      <c r="AI12" s="37">
+        <v>0.343</v>
+      </c>
+      <c r="AJ12" s="37">
+        <v>1.3283</v>
+      </c>
+      <c r="AK12" s="37">
+        <v>1.5245</v>
+      </c>
+      <c r="AL12" s="37">
+        <v>-0.0933</v>
+      </c>
+      <c r="AM12" s="37">
+        <v>0.2858</v>
+      </c>
+      <c r="AN12" s="37">
+        <v>0.1697</v>
+      </c>
+      <c r="AO12" s="37">
+        <v>0.2437</v>
+      </c>
+      <c r="AP12" s="37">
+        <v>0.0533</v>
+      </c>
+      <c r="AQ12" s="37">
+        <v>0.1366</v>
+      </c>
+      <c r="AR12" s="37">
+        <v>0.1882</v>
+      </c>
+      <c r="AS12" s="37">
+        <v>0.1944</v>
+      </c>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="5"/>
+      <c r="AX12" s="5">
+        <v>17.9</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>13.37</v>
+      </c>
+      <c r="AZ12" s="19">
+        <f>AX12-AY12</f>
+        <v>4.53</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>15.82</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>18.92</v>
+      </c>
+      <c r="BD12" s="19">
+        <f>(BA12-BB12)*100</f>
+        <v>113</v>
+      </c>
+      <c r="BE12" s="5">
+        <f>FLOOR(304/(BA12-BB12),100)</f>
+        <v>200</v>
+      </c>
+      <c r="BF12" s="65">
+        <f>(BC12-BA12)/(BA12-BB12)</f>
+        <v>1.74336283185841</v>
+      </c>
+      <c r="BG12" s="38">
+        <f>(BA12-BB12)/BA12</f>
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="BH12" s="38">
+        <f>(BC12-BA12)/BA12</f>
+        <v>0.116224188790561</v>
+      </c>
+      <c r="BI12" s="5">
+        <v>-12.36</v>
+      </c>
+      <c r="BJ12" s="52" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" ht="13" spans="1:62">
       <c r="A13" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="B13" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20.71</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21.02</v>
+      </c>
+      <c r="F13" s="5">
+        <v>21.31</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="H13" s="5">
+        <v>22.29</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7.66</v>
+      </c>
+      <c r="J13" s="5">
+        <v>29.28</v>
+      </c>
+      <c r="K13" s="38">
+        <f>(H13-I13)/I13</f>
+        <v>1.90992167101828</v>
+      </c>
+      <c r="L13" s="38">
+        <f>(J13-H13)/J13</f>
+        <v>0.238729508196721</v>
+      </c>
+      <c r="M13" s="5">
+        <v>18.34</v>
+      </c>
+      <c r="N13" s="5">
+        <v>21.65</v>
+      </c>
+      <c r="O13" s="5">
+        <v>18.61</v>
+      </c>
+      <c r="P13" s="5">
+        <v>21.14</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>18.86</v>
+      </c>
+      <c r="R13" s="5">
+        <v>23.35</v>
+      </c>
+      <c r="S13" s="5">
+        <v>21.6</v>
+      </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="X13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="46">
+        <f>(J13-M13)/J13</f>
+        <v>0.373633879781421</v>
+      </c>
+      <c r="Z13" s="46">
+        <f>(N13-O13)/N13</f>
+        <v>0.140415704387991</v>
+      </c>
+      <c r="AA13" s="46">
+        <f>(P13-Q13)/P13</f>
+        <v>0.107852412488174</v>
+      </c>
+      <c r="AB13" s="46">
+        <f>(R13-S13)/R13</f>
+        <v>0.0749464668094218</v>
+      </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="AE13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="52" t="s">
+        <v>110</v>
+      </c>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
+      <c r="AH13" s="38">
+        <v>3.6019</v>
+      </c>
+      <c r="AI13" s="38">
+        <v>16.933</v>
+      </c>
+      <c r="AJ13" s="38">
+        <v>7.9794</v>
+      </c>
+      <c r="AK13" s="38">
+        <v>3.2905</v>
+      </c>
+      <c r="AL13" s="38">
+        <v>0.0496</v>
+      </c>
+      <c r="AM13" s="38">
+        <v>0.7137</v>
+      </c>
+      <c r="AN13" s="37">
+        <v>0.3284</v>
+      </c>
+      <c r="AO13" s="37">
+        <v>0.4288</v>
+      </c>
+      <c r="AP13" s="38">
+        <v>0.1781</v>
+      </c>
+      <c r="AQ13" s="38">
+        <v>0.2286</v>
+      </c>
+      <c r="AR13" s="38">
+        <v>0.2077</v>
+      </c>
+      <c r="AS13" s="38">
+        <v>0.1904</v>
+      </c>
       <c r="AT13" s="5"/>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="5"/>
+      <c r="AX13" s="5">
+        <v>24.2</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>18.22</v>
+      </c>
+      <c r="AZ13" s="19">
+        <f>AX13-AY13</f>
+        <v>5.98</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>23.35</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>28.54</v>
+      </c>
+      <c r="BD13" s="19">
+        <f>(BA13-BB13)*100</f>
+        <v>175</v>
+      </c>
+      <c r="BE13" s="5">
+        <f>FLOOR(304/(BA13-BB13),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BF13" s="65">
+        <f>(BC13-BA13)/(BA13-BB13)</f>
+        <v>2.96571428571428</v>
+      </c>
+      <c r="BG13" s="38">
+        <f>(BA13-BB13)/BA13</f>
+        <v>0.0749464668094218</v>
+      </c>
+      <c r="BH13" s="38">
+        <f>(BC13-BA13)/BA13</f>
+        <v>0.222269807280514</v>
+      </c>
+      <c r="BI13" s="6">
+        <v>39.84</v>
+      </c>
+      <c r="BJ13" s="52"/>
     </row>
     <row r="14" ht="13" spans="1:62">
       <c r="A14" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="B14" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.94</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17.93</v>
+      </c>
+      <c r="F14" s="5">
+        <v>19.69</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="H14" s="5">
+        <v>19.13</v>
+      </c>
+      <c r="I14" s="5">
+        <v>8.83</v>
+      </c>
+      <c r="J14" s="5">
+        <v>25</v>
+      </c>
+      <c r="K14" s="38">
+        <f>(H14-I14)/I14</f>
+        <v>1.16647791619479</v>
+      </c>
+      <c r="L14" s="38">
+        <f>(J14-H14)/J14</f>
+        <v>0.2348</v>
+      </c>
+      <c r="M14" s="5">
+        <v>17.84</v>
+      </c>
+      <c r="N14" s="5">
+        <v>21.44</v>
+      </c>
+      <c r="O14" s="5">
+        <v>18.13</v>
+      </c>
+      <c r="P14" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>18.82</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
+      <c r="X14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y14" s="46">
+        <f>(J14-M14)/J14</f>
+        <v>0.2864</v>
+      </c>
+      <c r="Z14" s="46">
+        <f>(N14-O14)/N14</f>
+        <v>0.154384328358209</v>
+      </c>
+      <c r="AA14" s="46">
+        <f>(P14-Q14)/P14</f>
+        <v>0.0951923076923077</v>
+      </c>
+      <c r="AB14" s="46" t="e">
+        <f>(R14-S14)/R14</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -5074,87 +5435,217 @@
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
+      <c r="AZ14" s="19">
+        <f>AX14-AY14</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>20.74</v>
+      </c>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
+      <c r="BD14" s="19">
+        <f>(BA14-BB14)*100</f>
+        <v>2074</v>
+      </c>
+      <c r="BE14" s="5">
+        <f>FLOOR(304/(BA14-BB14),100)</f>
+        <v>0</v>
+      </c>
+      <c r="BF14" s="65">
+        <f>(BC14-BA14)/(BA14-BB14)</f>
+        <v>-1</v>
+      </c>
+      <c r="BG14" s="38">
+        <f>(BA14-BB14)/BA14</f>
+        <v>1</v>
+      </c>
+      <c r="BH14" s="38">
+        <f>(BC14-BA14)/BA14</f>
+        <v>-1</v>
+      </c>
       <c r="BI14" s="6"/>
-      <c r="BJ14" s="5"/>
+      <c r="BJ14" s="52" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" ht="13" spans="1:62">
       <c r="A15" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="B15" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="5">
+        <v>30.42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>32.04</v>
+      </c>
+      <c r="F15" s="5">
+        <v>36.43</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="H15" s="5">
+        <v>39.7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>18.82</v>
+      </c>
+      <c r="J15" s="5">
+        <v>41.66</v>
+      </c>
+      <c r="K15" s="38">
+        <f>(H15-I15)/I15</f>
+        <v>1.10945802337938</v>
+      </c>
+      <c r="L15" s="38">
+        <f>(J15-H15)/J15</f>
+        <v>0.0470475276044166</v>
+      </c>
+      <c r="M15" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="N15" s="5">
+        <v>36.69</v>
+      </c>
+      <c r="O15" s="5">
+        <v>32.91</v>
+      </c>
+      <c r="P15" s="5">
+        <v>38.45</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>36.04</v>
+      </c>
+      <c r="R15" s="5">
+        <v>41.38</v>
+      </c>
+      <c r="S15" s="5">
+        <v>38.36</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="X15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y15" s="46">
+        <f>(J15-M15)/J15</f>
+        <v>0.249879980796927</v>
+      </c>
+      <c r="Z15" s="46">
+        <f>(N15-O15)/N15</f>
+        <v>0.103025347506132</v>
+      </c>
+      <c r="AA15" s="46">
+        <f>(P15-Q15)/P15</f>
+        <v>0.0626788036410924</v>
+      </c>
+      <c r="AB15" s="46">
+        <f>(R15-S15)/R15</f>
+        <v>0.0729821169647173</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
+      <c r="AH15" s="38">
+        <v>0.0112</v>
+      </c>
+      <c r="AI15" s="38">
+        <v>0.8116</v>
+      </c>
+      <c r="AJ15" s="38">
+        <v>0.7087</v>
+      </c>
+      <c r="AK15" s="38">
+        <v>0.7083</v>
+      </c>
+      <c r="AL15" s="38">
+        <v>0.1618</v>
+      </c>
+      <c r="AM15" s="38">
+        <v>1.016</v>
+      </c>
+      <c r="AN15" s="38">
+        <v>0.5767</v>
+      </c>
+      <c r="AO15" s="38">
+        <v>0.477</v>
+      </c>
+      <c r="AP15" s="38">
+        <v>0.5316</v>
+      </c>
+      <c r="AQ15" s="38">
+        <v>0.5499</v>
+      </c>
+      <c r="AR15" s="38">
+        <v>0.5374</v>
+      </c>
+      <c r="AS15" s="38">
+        <v>0.5361</v>
+      </c>
       <c r="AT15" s="5"/>
       <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="5"/>
+      <c r="AX15" s="5">
+        <v>42.71</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>32.98</v>
+      </c>
+      <c r="AZ15" s="19">
+        <f>AX15-AY15</f>
+        <v>9.73</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>40.42</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>38.36</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>42.87</v>
+      </c>
+      <c r="BD15" s="19">
+        <f>(BA15-BB15)*100</f>
+        <v>206</v>
+      </c>
+      <c r="BE15" s="5">
+        <f>FLOOR(304/(BA15-BB15),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BF15" s="65">
+        <f>(BC15-BA15)/(BA15-BB15)</f>
+        <v>1.18932038834951</v>
+      </c>
+      <c r="BG15" s="38">
+        <f>(BA15-BB15)/BA15</f>
+        <v>0.0509648688767937</v>
+      </c>
+      <c r="BH15" s="38">
+        <f>(BC15-BA15)/BA15</f>
+        <v>0.0606135576447302</v>
+      </c>
+      <c r="BI15" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="BJ15" s="52" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" ht="13" spans="1:62">
       <c r="A16" s="75" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5220,7 +5711,7 @@
     </row>
     <row r="17" ht="13" spans="1:62">
       <c r="A17" s="75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5286,7 +5777,7 @@
     </row>
     <row r="18" ht="13" spans="1:62">
       <c r="A18" s="75" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5351,8 +5842,8 @@
       <c r="BJ18" s="5"/>
     </row>
     <row r="19" ht="13" spans="1:62">
-      <c r="A19" s="77" t="s">
-        <v>126</v>
+      <c r="A19" s="78" t="s">
+        <v>130</v>
       </c>
       <c r="B19" s="7"/>
       <c r="D19" s="7"/>
@@ -5415,8 +5906,8 @@
       <c r="BJ19" s="7"/>
     </row>
     <row r="20" ht="13" spans="1:62">
-      <c r="A20" s="77" t="s">
-        <v>127</v>
+      <c r="A20" s="78" t="s">
+        <v>131</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="7"/>
@@ -5479,8 +5970,8 @@
       <c r="BJ20" s="7"/>
     </row>
     <row r="21" ht="13" spans="1:62">
-      <c r="A21" s="77" t="s">
-        <v>128</v>
+      <c r="A21" s="78" t="s">
+        <v>132</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="7"/>
@@ -5543,8 +6034,8 @@
       <c r="BJ21" s="7"/>
     </row>
     <row r="22" ht="13" spans="1:62">
-      <c r="A22" s="77" t="s">
-        <v>129</v>
+      <c r="A22" s="78" t="s">
+        <v>133</v>
       </c>
       <c r="B22" s="7"/>
       <c r="D22" s="7"/>
@@ -5607,8 +6098,8 @@
       <c r="BJ22" s="7"/>
     </row>
     <row r="23" ht="13" spans="1:62">
-      <c r="A23" s="77" t="s">
-        <v>130</v>
+      <c r="A23" s="78" t="s">
+        <v>134</v>
       </c>
       <c r="B23" s="7"/>
       <c r="D23" s="7"/>
@@ -5671,8 +6162,8 @@
       <c r="BJ23" s="7"/>
     </row>
     <row r="24" ht="13" spans="1:62">
-      <c r="A24" s="77" t="s">
-        <v>131</v>
+      <c r="A24" s="78" t="s">
+        <v>135</v>
       </c>
       <c r="B24" s="7"/>
       <c r="D24" s="7"/>
@@ -5735,8 +6226,8 @@
       <c r="BJ24" s="7"/>
     </row>
     <row r="25" ht="13" spans="1:62">
-      <c r="A25" s="77" t="s">
-        <v>132</v>
+      <c r="A25" s="78" t="s">
+        <v>136</v>
       </c>
       <c r="B25" s="7"/>
       <c r="D25" s="7"/>
@@ -5799,8 +6290,8 @@
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" ht="13" spans="1:62">
-      <c r="A26" s="77" t="s">
-        <v>133</v>
+      <c r="A26" s="78" t="s">
+        <v>137</v>
       </c>
       <c r="B26" s="7"/>
       <c r="D26" s="7"/>
@@ -5863,8 +6354,8 @@
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" ht="13" spans="1:62">
-      <c r="A27" s="77" t="s">
-        <v>134</v>
+      <c r="A27" s="78" t="s">
+        <v>138</v>
       </c>
       <c r="B27" s="7"/>
       <c r="D27" s="7"/>
@@ -5927,8 +6418,8 @@
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" ht="13" spans="1:62">
-      <c r="A28" s="77" t="s">
-        <v>135</v>
+      <c r="A28" s="78" t="s">
+        <v>139</v>
       </c>
       <c r="B28" s="7"/>
       <c r="D28" s="7"/>
@@ -5991,8 +6482,8 @@
       <c r="BJ28" s="7"/>
     </row>
     <row r="29" ht="13" spans="1:62">
-      <c r="A29" s="77" t="s">
-        <v>136</v>
+      <c r="A29" s="78" t="s">
+        <v>140</v>
       </c>
       <c r="B29" s="7"/>
       <c r="D29" s="7"/>
@@ -6055,8 +6546,8 @@
       <c r="BJ29" s="7"/>
     </row>
     <row r="30" ht="13" spans="1:62">
-      <c r="A30" s="77" t="s">
-        <v>137</v>
+      <c r="A30" s="78" t="s">
+        <v>141</v>
       </c>
       <c r="B30" s="7"/>
       <c r="D30" s="7"/>
@@ -6119,8 +6610,8 @@
       <c r="BJ30" s="7"/>
     </row>
     <row r="31" ht="13" spans="1:62">
-      <c r="A31" s="77" t="s">
-        <v>138</v>
+      <c r="A31" s="78" t="s">
+        <v>142</v>
       </c>
       <c r="B31" s="7"/>
       <c r="D31" s="7"/>
@@ -6183,8 +6674,8 @@
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" ht="13" spans="1:62">
-      <c r="A32" s="77" t="s">
-        <v>139</v>
+      <c r="A32" s="78" t="s">
+        <v>143</v>
       </c>
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
@@ -6247,8 +6738,8 @@
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" ht="13" spans="1:62">
-      <c r="A33" s="77" t="s">
-        <v>140</v>
+      <c r="A33" s="78" t="s">
+        <v>144</v>
       </c>
       <c r="B33" s="7"/>
       <c r="D33" s="7"/>
@@ -6311,8 +6802,8 @@
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" ht="13" spans="1:62">
-      <c r="A34" s="77" t="s">
-        <v>141</v>
+      <c r="A34" s="78" t="s">
+        <v>145</v>
       </c>
       <c r="B34" s="7"/>
       <c r="D34" s="7"/>
@@ -6375,8 +6866,8 @@
       <c r="BJ34" s="7"/>
     </row>
     <row r="35" ht="13" spans="1:62">
-      <c r="A35" s="77" t="s">
-        <v>142</v>
+      <c r="A35" s="78" t="s">
+        <v>146</v>
       </c>
       <c r="B35" s="7"/>
       <c r="D35" s="7"/>
@@ -6439,8 +6930,8 @@
       <c r="BJ35" s="7"/>
     </row>
     <row r="36" ht="13" spans="1:62">
-      <c r="A36" s="77" t="s">
-        <v>143</v>
+      <c r="A36" s="78" t="s">
+        <v>147</v>
       </c>
       <c r="B36" s="7"/>
       <c r="D36" s="7"/>
@@ -6503,8 +6994,8 @@
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" ht="13" spans="1:62">
-      <c r="A37" s="77" t="s">
-        <v>144</v>
+      <c r="A37" s="78" t="s">
+        <v>148</v>
       </c>
       <c r="B37" s="7"/>
       <c r="D37" s="7"/>
@@ -6567,8 +7058,8 @@
       <c r="BJ37" s="7"/>
     </row>
     <row r="38" ht="13" spans="1:62">
-      <c r="A38" s="77" t="s">
-        <v>145</v>
+      <c r="A38" s="78" t="s">
+        <v>149</v>
       </c>
       <c r="B38" s="7"/>
       <c r="D38" s="7"/>
@@ -6631,8 +7122,8 @@
       <c r="BJ38" s="7"/>
     </row>
     <row r="39" ht="13" spans="1:62">
-      <c r="A39" s="77" t="s">
-        <v>146</v>
+      <c r="A39" s="78" t="s">
+        <v>150</v>
       </c>
       <c r="B39" s="7"/>
       <c r="D39" s="7"/>
@@ -6695,8 +7186,8 @@
       <c r="BJ39" s="7"/>
     </row>
     <row r="40" ht="13" spans="1:62">
-      <c r="A40" s="77" t="s">
-        <v>147</v>
+      <c r="A40" s="78" t="s">
+        <v>151</v>
       </c>
       <c r="B40" s="7"/>
       <c r="D40" s="7"/>
@@ -6759,8 +7250,8 @@
       <c r="BJ40" s="7"/>
     </row>
     <row r="41" ht="13" spans="1:62">
-      <c r="A41" s="77" t="s">
-        <v>148</v>
+      <c r="A41" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="B41" s="7"/>
       <c r="D41" s="7"/>
@@ -6823,8 +7314,8 @@
       <c r="BJ41" s="7"/>
     </row>
     <row r="42" ht="13" spans="1:62">
-      <c r="A42" s="77" t="s">
-        <v>149</v>
+      <c r="A42" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="B42" s="7"/>
       <c r="D42" s="7"/>
@@ -6887,8 +7378,8 @@
       <c r="BJ42" s="7"/>
     </row>
     <row r="43" ht="13" spans="1:62">
-      <c r="A43" s="77" t="s">
-        <v>150</v>
+      <c r="A43" s="78" t="s">
+        <v>154</v>
       </c>
       <c r="B43" s="7"/>
       <c r="D43" s="7"/>
@@ -6951,8 +7442,8 @@
       <c r="BJ43" s="7"/>
     </row>
     <row r="44" ht="13" spans="1:62">
-      <c r="A44" s="77" t="s">
-        <v>151</v>
+      <c r="A44" s="78" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="7"/>
       <c r="D44" s="7"/>
@@ -7015,8 +7506,8 @@
       <c r="BJ44" s="7"/>
     </row>
     <row r="45" ht="13" spans="1:62">
-      <c r="A45" s="77" t="s">
-        <v>152</v>
+      <c r="A45" s="78" t="s">
+        <v>156</v>
       </c>
       <c r="B45" s="7"/>
       <c r="D45" s="7"/>
@@ -7079,8 +7570,8 @@
       <c r="BJ45" s="7"/>
     </row>
     <row r="46" ht="13" spans="1:62">
-      <c r="A46" s="77" t="s">
-        <v>153</v>
+      <c r="A46" s="78" t="s">
+        <v>157</v>
       </c>
       <c r="B46" s="7"/>
       <c r="D46" s="7"/>
@@ -7143,8 +7634,8 @@
       <c r="BJ46" s="7"/>
     </row>
     <row r="47" ht="13" spans="1:62">
-      <c r="A47" s="77" t="s">
-        <v>154</v>
+      <c r="A47" s="78" t="s">
+        <v>158</v>
       </c>
       <c r="B47" s="7"/>
       <c r="D47" s="7"/>
@@ -7207,8 +7698,8 @@
       <c r="BJ47" s="7"/>
     </row>
     <row r="48" ht="13" spans="1:62">
-      <c r="A48" s="77" t="s">
-        <v>155</v>
+      <c r="A48" s="78" t="s">
+        <v>159</v>
       </c>
       <c r="B48" s="7"/>
       <c r="D48" s="7"/>
@@ -7271,8 +7762,8 @@
       <c r="BJ48" s="7"/>
     </row>
     <row r="49" ht="13" spans="1:62">
-      <c r="A49" s="77" t="s">
-        <v>156</v>
+      <c r="A49" s="78" t="s">
+        <v>160</v>
       </c>
       <c r="B49" s="7"/>
       <c r="D49" s="7"/>
@@ -7335,8 +7826,8 @@
       <c r="BJ49" s="7"/>
     </row>
     <row r="50" ht="13" spans="1:62">
-      <c r="A50" s="77" t="s">
-        <v>157</v>
+      <c r="A50" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="B50" s="7"/>
       <c r="D50" s="7"/>
@@ -7399,8 +7890,8 @@
       <c r="BJ50" s="7"/>
     </row>
     <row r="51" ht="13" spans="1:62">
-      <c r="A51" s="77" t="s">
-        <v>158</v>
+      <c r="A51" s="78" t="s">
+        <v>162</v>
       </c>
       <c r="B51" s="7"/>
       <c r="D51" s="7"/>
@@ -7463,8 +7954,8 @@
       <c r="BJ51" s="7"/>
     </row>
     <row r="52" ht="13" spans="1:62">
-      <c r="A52" s="77" t="s">
-        <v>159</v>
+      <c r="A52" s="78" t="s">
+        <v>163</v>
       </c>
       <c r="B52" s="7"/>
       <c r="D52" s="7"/>
@@ -7527,8 +8018,8 @@
       <c r="BJ52" s="7"/>
     </row>
     <row r="53" ht="13" spans="1:62">
-      <c r="A53" s="77" t="s">
-        <v>160</v>
+      <c r="A53" s="78" t="s">
+        <v>164</v>
       </c>
       <c r="B53" s="7"/>
       <c r="D53" s="7"/>
@@ -33747,22 +34238,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="CU1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -179,7 +179,7 @@
     <t>销售额环比增长情况</t>
   </si>
   <si>
-    <t>利润率</t>
+    <t>毛利润率</t>
   </si>
   <si>
     <t>利润质量</t>
@@ -3068,11 +3068,11 @@
   <dimension ref="A1:DG548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12:AW12"/>
+      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3090,8 +3090,17 @@
     <col min="32" max="33" width="26.3303571428571" customWidth="1"/>
     <col min="34" max="34" width="13.2410714285714" customWidth="1"/>
     <col min="35" max="42" width="11.5982142857143" customWidth="1"/>
-    <col min="43" max="51" width="13.6964285714286" customWidth="1"/>
-    <col min="52" max="53" width="16.8125" customWidth="1"/>
+    <col min="43" max="43" width="12.5" customWidth="1"/>
+    <col min="44" max="44" width="12.7946428571429" customWidth="1"/>
+    <col min="45" max="45" width="12.3482142857143" customWidth="1"/>
+    <col min="46" max="46" width="11.9017857142857" customWidth="1"/>
+    <col min="47" max="47" width="12.3482142857143" customWidth="1"/>
+    <col min="48" max="48" width="12.1964285714286" customWidth="1"/>
+    <col min="49" max="49" width="12.5" customWidth="1"/>
+    <col min="50" max="50" width="12.1964285714286" customWidth="1"/>
+    <col min="51" max="51" width="11.4553571428571" customWidth="1"/>
+    <col min="52" max="52" width="12.7946428571429" customWidth="1"/>
+    <col min="53" max="53" width="11.9017857142857" customWidth="1"/>
     <col min="55" max="55" width="13.9732142857143" customWidth="1"/>
     <col min="61" max="61" width="11.9017857142857" customWidth="1"/>
     <col min="62" max="62" width="13.5357142857143" customWidth="1"/>
@@ -4680,10 +4689,18 @@
       <c r="AK9" s="55">
         <v>1.8449</v>
       </c>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
+      <c r="AL9" s="57">
+        <v>0.3554</v>
+      </c>
+      <c r="AM9" s="57">
+        <v>0.2495</v>
+      </c>
+      <c r="AN9" s="57">
+        <v>0.1071</v>
+      </c>
+      <c r="AO9" s="57">
+        <v>-0.134</v>
+      </c>
       <c r="AP9" s="57">
         <v>0.0437</v>
       </c>
@@ -4696,10 +4713,18 @@
       <c r="AS9" s="57">
         <v>1.2425</v>
       </c>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
+      <c r="AT9" s="55">
+        <v>0.2131</v>
+      </c>
+      <c r="AU9" s="55">
+        <v>0.2062</v>
+      </c>
+      <c r="AV9" s="55">
+        <v>0.334</v>
+      </c>
+      <c r="AW9" s="55">
+        <v>0.0105</v>
+      </c>
       <c r="AX9" s="55">
         <v>0.3392</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>技术足迹</t>
+  </si>
+  <si>
+    <t>最近一季度的利润
+(单位:亿)</t>
   </si>
   <si>
     <t>利润同比增长情况</t>
@@ -405,6 +409,9 @@
     <t>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</t>
   </si>
   <si>
+    <t>14.04</t>
+  </si>
+  <si>
     <t>可以</t>
   </si>
   <si>
@@ -421,6 +428,9 @@
   </si>
   <si>
     <t>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</t>
+  </si>
+  <si>
+    <t>1.22</t>
   </si>
   <si>
     <t>76.43%</t>
@@ -1846,11 +1856,11 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1870,9 +1880,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,6 +1888,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3065,14 +3075,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DG548"/>
+  <dimension ref="A1:DH548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3087,32 +3097,32 @@
     <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="25" max="25" width="9.85714285714286"/>
     <col min="29" max="30" width="12.7857142857143"/>
-    <col min="32" max="33" width="26.3303571428571" customWidth="1"/>
-    <col min="34" max="34" width="13.2410714285714" customWidth="1"/>
-    <col min="35" max="42" width="11.5982142857143" customWidth="1"/>
-    <col min="43" max="43" width="12.5" customWidth="1"/>
-    <col min="44" max="44" width="12.7946428571429" customWidth="1"/>
-    <col min="45" max="45" width="12.3482142857143" customWidth="1"/>
-    <col min="46" max="46" width="11.9017857142857" customWidth="1"/>
-    <col min="47" max="47" width="12.3482142857143" customWidth="1"/>
-    <col min="48" max="48" width="12.1964285714286" customWidth="1"/>
-    <col min="49" max="49" width="12.5" customWidth="1"/>
-    <col min="50" max="50" width="12.1964285714286" customWidth="1"/>
-    <col min="51" max="51" width="11.4553571428571" customWidth="1"/>
-    <col min="52" max="52" width="12.7946428571429" customWidth="1"/>
-    <col min="53" max="53" width="11.9017857142857" customWidth="1"/>
-    <col min="55" max="55" width="13.9732142857143" customWidth="1"/>
-    <col min="61" max="61" width="11.9017857142857" customWidth="1"/>
-    <col min="62" max="62" width="13.5357142857143" customWidth="1"/>
-    <col min="63" max="65" width="14.1339285714286" customWidth="1"/>
-    <col min="66" max="66" width="14"/>
-    <col min="67" max="67" width="11.3035714285714" customWidth="1"/>
-    <col min="68" max="68" width="11.1607142857143" customWidth="1"/>
-    <col min="69" max="69" width="10.2589285714286" customWidth="1"/>
-    <col min="70" max="70" width="13.8303571428571" customWidth="1"/>
+    <col min="32" max="34" width="26.3303571428571" customWidth="1"/>
+    <col min="35" max="35" width="13.2410714285714" customWidth="1"/>
+    <col min="36" max="43" width="11.5982142857143" customWidth="1"/>
+    <col min="44" max="44" width="12.5" customWidth="1"/>
+    <col min="45" max="45" width="12.7946428571429" customWidth="1"/>
+    <col min="46" max="46" width="12.3482142857143" customWidth="1"/>
+    <col min="47" max="47" width="11.9017857142857" customWidth="1"/>
+    <col min="48" max="48" width="12.3482142857143" customWidth="1"/>
+    <col min="49" max="49" width="12.1964285714286" customWidth="1"/>
+    <col min="50" max="50" width="12.5" customWidth="1"/>
+    <col min="51" max="51" width="12.1964285714286" customWidth="1"/>
+    <col min="52" max="52" width="11.4553571428571" customWidth="1"/>
+    <col min="53" max="53" width="12.7946428571429" customWidth="1"/>
+    <col min="54" max="54" width="11.9017857142857" customWidth="1"/>
+    <col min="56" max="56" width="13.9732142857143" customWidth="1"/>
+    <col min="62" max="62" width="11.9017857142857" customWidth="1"/>
+    <col min="63" max="63" width="13.5357142857143" customWidth="1"/>
+    <col min="64" max="66" width="14.1339285714286" customWidth="1"/>
+    <col min="67" max="67" width="14"/>
+    <col min="68" max="68" width="11.3035714285714" customWidth="1"/>
+    <col min="69" max="69" width="11.1607142857143" customWidth="1"/>
+    <col min="70" max="70" width="10.2589285714286" customWidth="1"/>
+    <col min="71" max="71" width="13.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:111">
+    <row r="1" ht="23.6" spans="1:112">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3184,20 +3194,20 @@
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="67"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
       <c r="BT1" s="67"/>
       <c r="BU1" s="67"/>
       <c r="BV1" s="67"/>
@@ -3205,7 +3215,7 @@
       <c r="BX1" s="67"/>
       <c r="BY1" s="67"/>
       <c r="BZ1" s="67"/>
-      <c r="CB1" s="73"/>
+      <c r="CA1" s="67"/>
       <c r="CC1" s="73"/>
       <c r="CD1" s="73"/>
       <c r="CE1" s="73"/>
@@ -3213,29 +3223,30 @@
       <c r="CG1" s="73"/>
       <c r="CH1" s="73"/>
       <c r="CI1" s="73"/>
-      <c r="CK1" s="73"/>
+      <c r="CJ1" s="73"/>
       <c r="CL1" s="73"/>
       <c r="CM1" s="73"/>
       <c r="CN1" s="73"/>
       <c r="CO1" s="73"/>
       <c r="CP1" s="73"/>
       <c r="CQ1" s="73"/>
-      <c r="CS1" s="73"/>
+      <c r="CR1" s="73"/>
       <c r="CT1" s="73"/>
       <c r="CU1" s="73"/>
       <c r="CV1" s="73"/>
       <c r="CW1" s="73"/>
       <c r="CX1" s="73"/>
       <c r="CY1" s="73"/>
-      <c r="DA1" s="73"/>
+      <c r="CZ1" s="73"/>
       <c r="DB1" s="73"/>
       <c r="DC1" s="73"/>
       <c r="DD1" s="73"/>
       <c r="DE1" s="73"/>
       <c r="DF1" s="73"/>
       <c r="DG1" s="73"/>
-    </row>
-    <row r="2" ht="23.6" spans="1:111">
+      <c r="DH1" s="73"/>
+    </row>
+    <row r="2" ht="23.6" spans="1:112">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="12"/>
@@ -3289,50 +3300,50 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="53"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="8"/>
+      <c r="AI2" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
-      <c r="AL2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
-      <c r="AX2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="27"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="8"/>
       <c r="BA2" s="27"/>
-      <c r="BB2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC2" s="13"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="BD2" s="13"/>
       <c r="BE2" s="13"/>
-      <c r="BF2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG2" s="14"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="BH2" s="14"/>
-      <c r="BI2" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="BI2" s="14"/>
       <c r="BJ2" s="27" t="s">
         <v>25</v>
       </c>
@@ -3345,7 +3356,7 @@
       <c r="BM2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BN2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="BO2" s="13" t="s">
@@ -3357,10 +3368,12 @@
       <c r="BQ2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="BR2" s="27" t="s">
+      <c r="BR2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="BS2" s="67"/>
+      <c r="BS2" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="BT2" s="67"/>
       <c r="BU2" s="67"/>
       <c r="BV2" s="67"/>
@@ -3368,7 +3381,7 @@
       <c r="BX2" s="67"/>
       <c r="BY2" s="67"/>
       <c r="BZ2" s="67"/>
-      <c r="CB2" s="73"/>
+      <c r="CA2" s="67"/>
       <c r="CC2" s="73"/>
       <c r="CD2" s="73"/>
       <c r="CE2" s="73"/>
@@ -3376,29 +3389,30 @@
       <c r="CG2" s="73"/>
       <c r="CH2" s="73"/>
       <c r="CI2" s="73"/>
-      <c r="CK2" s="73"/>
+      <c r="CJ2" s="73"/>
       <c r="CL2" s="73"/>
       <c r="CM2" s="73"/>
       <c r="CN2" s="73"/>
       <c r="CO2" s="73"/>
       <c r="CP2" s="73"/>
       <c r="CQ2" s="73"/>
-      <c r="CS2" s="73"/>
+      <c r="CR2" s="73"/>
       <c r="CT2" s="73"/>
       <c r="CU2" s="73"/>
       <c r="CV2" s="73"/>
       <c r="CW2" s="73"/>
       <c r="CX2" s="73"/>
       <c r="CY2" s="73"/>
-      <c r="DA2" s="73"/>
+      <c r="CZ2" s="73"/>
       <c r="DB2" s="73"/>
       <c r="DC2" s="73"/>
       <c r="DD2" s="73"/>
       <c r="DE2" s="73"/>
       <c r="DF2" s="73"/>
       <c r="DG2" s="73"/>
-    </row>
-    <row r="3" ht="48" spans="1:111">
+      <c r="DH2" s="73"/>
+    </row>
+    <row r="3" ht="48" spans="1:112">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -3412,69 +3426,67 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF3" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" s="54"/>
-      <c r="AH3" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="AH3" s="54"/>
       <c r="AI3" s="27" t="s">
         <v>55</v>
       </c>
@@ -3485,7 +3497,7 @@
         <v>57</v>
       </c>
       <c r="AL3" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="27" t="s">
         <v>55</v>
@@ -3497,7 +3509,7 @@
         <v>57</v>
       </c>
       <c r="AP3" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AQ3" s="27" t="s">
         <v>55</v>
@@ -3509,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="AT3" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AU3" s="27" t="s">
         <v>55</v>
@@ -3521,7 +3533,7 @@
         <v>57</v>
       </c>
       <c r="AX3" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AY3" s="27" t="s">
         <v>55</v>
@@ -3532,34 +3544,36 @@
       <c r="BA3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="BB3" s="60" t="s">
+      <c r="BB3" s="27" t="s">
         <v>58</v>
       </c>
       <c r="BC3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="44" t="s">
+      <c r="BD3" s="60" t="s">
         <v>60</v>
       </c>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
       <c r="BG3" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="BH3" s="61" t="s">
+      <c r="BH3" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="BI3" s="14"/>
+      <c r="BI3" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="BJ3" s="14"/>
       <c r="BK3" s="14"/>
-      <c r="BL3" s="27"/>
+      <c r="BL3" s="14"/>
       <c r="BM3" s="27"/>
-      <c r="BN3" s="14"/>
+      <c r="BN3" s="27"/>
       <c r="BO3" s="14"/>
       <c r="BP3" s="14"/>
       <c r="BQ3" s="14"/>
       <c r="BR3" s="14"/>
-      <c r="BS3" s="67"/>
+      <c r="BS3" s="14"/>
       <c r="BT3" s="67"/>
       <c r="BU3" s="67"/>
       <c r="BV3" s="67"/>
@@ -3567,7 +3581,7 @@
       <c r="BX3" s="67"/>
       <c r="BY3" s="67"/>
       <c r="BZ3" s="67"/>
-      <c r="CB3" s="73"/>
+      <c r="CA3" s="67"/>
       <c r="CC3" s="73"/>
       <c r="CD3" s="73"/>
       <c r="CE3" s="73"/>
@@ -3575,37 +3589,38 @@
       <c r="CG3" s="73"/>
       <c r="CH3" s="73"/>
       <c r="CI3" s="73"/>
-      <c r="CK3" s="73"/>
+      <c r="CJ3" s="73"/>
       <c r="CL3" s="73"/>
       <c r="CM3" s="73"/>
       <c r="CN3" s="73"/>
       <c r="CO3" s="73"/>
       <c r="CP3" s="73"/>
       <c r="CQ3" s="73"/>
-      <c r="CS3" s="73"/>
+      <c r="CR3" s="73"/>
       <c r="CT3" s="73"/>
       <c r="CU3" s="73"/>
       <c r="CV3" s="73"/>
       <c r="CW3" s="73"/>
       <c r="CX3" s="73"/>
       <c r="CY3" s="73"/>
-      <c r="DA3" s="73"/>
+      <c r="CZ3" s="73"/>
       <c r="DB3" s="73"/>
       <c r="DC3" s="73"/>
       <c r="DD3" s="73"/>
       <c r="DE3" s="73"/>
       <c r="DF3" s="73"/>
       <c r="DG3" s="73"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="38" spans="1:111">
+      <c r="DH3" s="73"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="38" spans="1:112">
       <c r="A4" s="75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="16">
         <v>44517</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="18">
         <v>22.15</v>
@@ -3617,7 +3632,7 @@
         <v>24.52</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="18">
         <v>25.7</v>
@@ -3664,13 +3679,13 @@
         <v>24.52</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="36">
         <f>(J4-M4)/J4</f>
@@ -3697,13 +3712,13 @@
         <v>0.0823442136498517</v>
       </c>
       <c r="AE4" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF4" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG4" s="48"/>
-      <c r="AL4" s="48"/>
+      <c r="AH4" s="48"/>
       <c r="AM4" s="48"/>
       <c r="AN4" s="48"/>
       <c r="AO4" s="48"/>
@@ -3717,66 +3732,66 @@
       <c r="AW4" s="48"/>
       <c r="AX4" s="48"/>
       <c r="AY4" s="48"/>
-      <c r="AZ4" s="18"/>
+      <c r="AZ4" s="48"/>
       <c r="BA4" s="18"/>
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
       <c r="BD4" s="18"/>
       <c r="BE4" s="18"/>
-      <c r="BF4" s="18">
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18">
         <v>28.15</v>
       </c>
-      <c r="BG4" s="18">
+      <c r="BH4" s="18">
         <v>21.87</v>
       </c>
-      <c r="BH4" s="18">
-        <f>BF4-BG4</f>
+      <c r="BI4" s="18">
+        <f>BG4-BH4</f>
         <v>6.28</v>
       </c>
-      <c r="BI4" s="18">
+      <c r="BJ4" s="18">
         <v>26.2</v>
       </c>
-      <c r="BJ4" s="18">
+      <c r="BK4" s="18">
         <v>24.68</v>
       </c>
-      <c r="BK4" s="18">
+      <c r="BL4" s="18">
         <v>32.49</v>
       </c>
-      <c r="BL4" s="18">
-        <f>(BI4-BJ4)*100</f>
+      <c r="BM4" s="18">
+        <f>(BJ4-BK4)*100</f>
         <v>152</v>
       </c>
-      <c r="BM4" s="18">
-        <f>FLOOR(300/(BI4-BJ4),100)</f>
+      <c r="BN4" s="18">
+        <f>FLOOR(300/(BJ4-BK4),100)</f>
         <v>100</v>
       </c>
-      <c r="BN4" s="64">
-        <f>(BK4-BI4)/(BI4-BJ4)</f>
+      <c r="BO4" s="64">
+        <f>(BL4-BJ4)/(BJ4-BK4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BO4" s="36">
-        <f>(BI4-BJ4)/BI4</f>
+      <c r="BP4" s="36">
+        <f>(BJ4-BK4)/BJ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BP4" s="36">
-        <f>(BK4-BI4)/BI4</f>
+      <c r="BQ4" s="36">
+        <f>(BL4-BJ4)/BJ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BQ4" s="18">
+      <c r="BR4" s="18">
         <v>150.88</v>
       </c>
-      <c r="BR4" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="69"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="69"/>
-      <c r="CB4" s="74"/>
+      <c r="BS4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="72"/>
       <c r="CC4" s="74"/>
       <c r="CD4" s="74"/>
       <c r="CE4" s="74"/>
@@ -3784,37 +3799,38 @@
       <c r="CG4" s="74"/>
       <c r="CH4" s="74"/>
       <c r="CI4" s="74"/>
-      <c r="CK4" s="74"/>
+      <c r="CJ4" s="74"/>
       <c r="CL4" s="74"/>
       <c r="CM4" s="74"/>
       <c r="CN4" s="74"/>
       <c r="CO4" s="74"/>
       <c r="CP4" s="74"/>
       <c r="CQ4" s="74"/>
-      <c r="CS4" s="74"/>
+      <c r="CR4" s="74"/>
       <c r="CT4" s="74"/>
       <c r="CU4" s="74"/>
       <c r="CV4" s="74"/>
       <c r="CW4" s="74"/>
       <c r="CX4" s="74"/>
       <c r="CY4" s="74"/>
-      <c r="DA4" s="74"/>
+      <c r="CZ4" s="74"/>
       <c r="DB4" s="74"/>
       <c r="DC4" s="74"/>
       <c r="DD4" s="74"/>
       <c r="DE4" s="74"/>
       <c r="DF4" s="74"/>
       <c r="DG4" s="74"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="38" spans="1:71">
+      <c r="DH4" s="74"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="38" spans="1:72">
       <c r="A5" s="76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="16">
         <v>44517</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="19">
         <v>31.92</v>
@@ -3826,7 +3842,7 @@
         <v>33.17</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="19">
         <v>33.73</v>
@@ -3871,7 +3887,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="46">
         <f t="shared" ref="Y5:Y11" si="2">(J5-M5)/J5</f>
@@ -3894,132 +3910,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE5" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" s="49"/>
-      <c r="AH5" s="38">
+      <c r="AH5" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI5" s="38">
         <v>0.0351</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AJ5" s="38">
         <v>0.3603</v>
       </c>
-      <c r="AJ5" s="38">
+      <c r="AK5" s="38">
         <v>0.3371</v>
       </c>
-      <c r="AK5" s="38">
+      <c r="AL5" s="38">
         <v>0.2435</v>
       </c>
-      <c r="AL5" s="38">
+      <c r="AM5" s="38">
         <v>0.263</v>
       </c>
-      <c r="AM5" s="38">
+      <c r="AN5" s="38">
         <v>0.003</v>
       </c>
-      <c r="AN5" s="38">
+      <c r="AO5" s="38">
         <v>0.0758</v>
       </c>
-      <c r="AO5" s="38">
+      <c r="AP5" s="38">
         <v>-0.2476</v>
       </c>
-      <c r="AP5" s="38">
+      <c r="AQ5" s="38">
         <v>0.0073</v>
       </c>
-      <c r="AQ5" s="38">
+      <c r="AR5" s="38">
         <v>0.2143</v>
       </c>
-      <c r="AR5" s="38">
+      <c r="AS5" s="38">
         <v>0.156</v>
       </c>
-      <c r="AS5" s="38">
+      <c r="AT5" s="38">
         <v>0.1125</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AU5" s="59">
         <v>0.2584</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AV5" s="59">
         <v>-0.0411</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AW5" s="59">
         <v>0.0156</v>
       </c>
-      <c r="AW5" s="59">
+      <c r="AX5" s="59">
         <v>-0.167</v>
       </c>
-      <c r="AX5" s="59">
+      <c r="AY5" s="59">
         <v>0.4704</v>
       </c>
-      <c r="AY5" s="59">
+      <c r="AZ5" s="59">
         <v>0.4673</v>
       </c>
-      <c r="AZ5" s="59">
+      <c r="BA5" s="59">
         <v>0.4797</v>
       </c>
-      <c r="BA5" s="59">
+      <c r="BB5" s="59">
         <v>0.4796</v>
       </c>
-      <c r="BB5" s="19"/>
       <c r="BC5" s="19"/>
       <c r="BD5" s="19"/>
       <c r="BE5" s="19"/>
-      <c r="BF5" s="19">
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19">
         <v>35.48</v>
       </c>
-      <c r="BG5" s="19">
+      <c r="BH5" s="19">
         <v>31.36</v>
       </c>
-      <c r="BH5" s="19">
-        <f t="shared" ref="BH5:BH11" si="6">BF5-BG5</f>
+      <c r="BI5" s="19">
+        <f t="shared" ref="BI5:BI11" si="6">BG5-BH5</f>
         <v>4.12</v>
       </c>
-      <c r="BI5" s="19">
+      <c r="BJ5" s="19">
         <v>34.12</v>
       </c>
-      <c r="BJ5" s="19">
+      <c r="BK5" s="19">
         <v>32.53</v>
       </c>
-      <c r="BK5" s="19">
+      <c r="BL5" s="19">
         <v>39.33</v>
       </c>
-      <c r="BL5" s="19">
-        <f>(BI5-BJ5)*100</f>
+      <c r="BM5" s="19">
+        <f>(BJ5-BK5)*100</f>
         <v>159</v>
       </c>
-      <c r="BM5" s="18">
-        <f t="shared" ref="BM5:BM11" si="7">FLOOR(300/(BI5-BJ5),100)</f>
+      <c r="BN5" s="18">
+        <f t="shared" ref="BN5:BN11" si="7">FLOOR(300/(BJ5-BK5),100)</f>
         <v>100</v>
       </c>
-      <c r="BN5" s="64">
-        <f t="shared" ref="BN5:BN11" si="8">(BK5-BI5)/(BI5-BJ5)</f>
+      <c r="BO5" s="64">
+        <f t="shared" ref="BO5:BO11" si="8">(BL5-BJ5)/(BJ5-BK5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BO5" s="36">
-        <f t="shared" ref="BO5:BO11" si="9">(BI5-BJ5)/BI5</f>
+      <c r="BP5" s="36">
+        <f t="shared" ref="BP5:BP11" si="9">(BJ5-BK5)/BJ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BP5" s="36">
-        <f t="shared" ref="BP5:BP11" si="10">(BK5-BI5)/BI5</f>
+      <c r="BQ5" s="36">
+        <f t="shared" ref="BQ5:BQ11" si="10">(BL5-BJ5)/BJ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BQ5" s="19">
+      <c r="BR5" s="19">
         <v>37.41</v>
       </c>
-      <c r="BR5" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS5" s="70"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="38" spans="1:71">
+      <c r="BS5" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT5" s="69"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="38" spans="1:72">
       <c r="A6" s="76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="16">
         <v>44519</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="19">
         <v>28.2</v>
@@ -4031,7 +4050,7 @@
         <v>31.53</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="30">
         <v>32.57</v>
@@ -4076,7 +4095,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="46">
         <f t="shared" si="2"/>
@@ -4100,144 +4119,147 @@
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF6" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" s="49"/>
       <c r="AH6" s="49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI6" s="49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ6" s="49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK6" s="49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL6" s="49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AM6" s="49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AN6" s="49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AO6" s="49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AP6" s="49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AQ6" s="49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AR6" s="49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AS6" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT6" s="55">
+        <v>96</v>
+      </c>
+      <c r="AT6" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU6" s="55">
         <v>0.0455</v>
       </c>
-      <c r="AU6" s="55">
+      <c r="AV6" s="55">
         <v>-0.0116</v>
       </c>
-      <c r="AV6" s="55">
+      <c r="AW6" s="55">
         <v>0.1549</v>
       </c>
-      <c r="AW6" s="55">
+      <c r="AX6" s="55">
         <v>-0.1474</v>
       </c>
-      <c r="AX6" s="55">
+      <c r="AY6" s="55">
         <v>0.2133</v>
       </c>
-      <c r="AY6" s="55">
+      <c r="AZ6" s="55">
         <v>0.1848</v>
       </c>
-      <c r="AZ6" s="38">
+      <c r="BA6" s="38">
         <v>0.1718</v>
       </c>
-      <c r="BA6" s="38">
+      <c r="BB6" s="38">
         <v>0.1605</v>
       </c>
-      <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
       <c r="BD6" s="19"/>
       <c r="BE6" s="19"/>
-      <c r="BF6" s="19">
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19">
         <v>36.21</v>
       </c>
-      <c r="BG6" s="19">
+      <c r="BH6" s="19">
         <v>27.35</v>
       </c>
-      <c r="BH6" s="19">
+      <c r="BI6" s="19">
         <f t="shared" si="6"/>
         <v>8.86</v>
       </c>
-      <c r="BI6" s="19">
+      <c r="BJ6" s="19">
         <v>32.65</v>
       </c>
-      <c r="BJ6" s="19">
+      <c r="BK6" s="19">
         <v>30.89</v>
       </c>
-      <c r="BK6" s="19">
+      <c r="BL6" s="19">
         <v>36.22</v>
       </c>
-      <c r="BL6" s="19">
-        <f>(BI6-BJ6)*100</f>
+      <c r="BM6" s="19">
+        <f>(BJ6-BK6)*100</f>
         <v>176</v>
       </c>
-      <c r="BM6" s="18">
+      <c r="BN6" s="18">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BN6" s="64">
+      <c r="BO6" s="64">
         <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BO6" s="36">
+      <c r="BP6" s="36">
         <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BP6" s="36">
+      <c r="BQ6" s="36">
         <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BQ6" s="19">
+      <c r="BR6" s="19">
         <v>28.82</v>
       </c>
-      <c r="BR6" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS6" s="71"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="38" spans="1:71">
+      <c r="BS6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT6" s="70"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="38" spans="1:72">
       <c r="A7" s="76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="20">
         <v>44525</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" s="22">
         <v>64.32</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F7" s="22">
         <v>68.37</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H7" s="22">
         <v>69.16</v>
@@ -4282,7 +4304,7 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="46">
         <f t="shared" si="2"/>
@@ -4303,132 +4325,135 @@
       <c r="AC7" s="39"/>
       <c r="AD7" s="22"/>
       <c r="AE7" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="51"/>
-      <c r="AH7" s="49" t="s">
-        <v>101</v>
+      <c r="AH7" s="51">
+        <v>10.35</v>
       </c>
       <c r="AI7" s="49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ7" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK7" s="49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AL7" s="49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM7" s="49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AN7" s="49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO7" s="49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP7" s="49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AQ7" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR7" s="56" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AR7" s="49" t="s">
+        <v>113</v>
       </c>
       <c r="AS7" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT7" s="49" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AT7" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="AU7" s="49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AV7" s="49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AW7" s="49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AX7" s="49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AY7" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ7" s="38">
+        <v>120</v>
+      </c>
+      <c r="AZ7" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA7" s="38">
         <v>0.7636</v>
       </c>
-      <c r="BA7" s="38">
+      <c r="BB7" s="38">
         <v>0.7607</v>
       </c>
-      <c r="BB7" s="22"/>
       <c r="BC7" s="22"/>
       <c r="BD7" s="22"/>
       <c r="BE7" s="22"/>
-      <c r="BF7" s="22">
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22">
         <v>75.02</v>
       </c>
-      <c r="BG7" s="22">
+      <c r="BH7" s="22">
         <v>62.33</v>
       </c>
-      <c r="BH7" s="19">
+      <c r="BI7" s="19">
         <f t="shared" si="6"/>
         <v>12.69</v>
       </c>
-      <c r="BI7" s="22">
+      <c r="BJ7" s="22">
         <v>70.98</v>
       </c>
-      <c r="BJ7" s="22">
+      <c r="BK7" s="22">
         <v>66.88</v>
       </c>
-      <c r="BK7" s="22">
+      <c r="BL7" s="22">
         <v>84.94</v>
       </c>
-      <c r="BL7" s="19">
-        <f>(BI7-BJ7)*100</f>
+      <c r="BM7" s="19">
+        <f>(BJ7-BK7)*100</f>
         <v>410.000000000001</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BN7" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BN7" s="64">
+      <c r="BO7" s="64">
         <f t="shared" si="8"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BO7" s="36">
+      <c r="BP7" s="36">
         <f t="shared" si="9"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BP7" s="36">
+      <c r="BQ7" s="36">
         <f t="shared" si="10"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BQ7" s="22">
+      <c r="BR7" s="22">
         <v>6.49</v>
       </c>
-      <c r="BR7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS7" s="72"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="24" spans="1:71">
+      <c r="BS7" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT7" s="71"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="24" spans="1:72">
       <c r="A8" s="77" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" s="20">
         <v>44522</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D8" s="22">
         <v>28.37</v>
@@ -4479,7 +4504,7 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="39">
         <f t="shared" si="2"/>
@@ -4503,10 +4528,10 @@
       </c>
       <c r="AD8" s="22"/>
       <c r="AE8" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF8" s="51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG8" s="51"/>
       <c r="AH8" s="51"/>
@@ -4527,68 +4552,69 @@
       <c r="AW8" s="51"/>
       <c r="AX8" s="51"/>
       <c r="AY8" s="51"/>
-      <c r="AZ8" s="22"/>
+      <c r="AZ8" s="51"/>
       <c r="BA8" s="22"/>
       <c r="BB8" s="22"/>
       <c r="BC8" s="22"/>
       <c r="BD8" s="22"/>
       <c r="BE8" s="22"/>
-      <c r="BF8" s="22">
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22">
         <v>32.43</v>
       </c>
-      <c r="BG8" s="22">
+      <c r="BH8" s="22">
         <v>26.16</v>
       </c>
-      <c r="BH8" s="63">
+      <c r="BI8" s="63">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
-      <c r="BI8" s="22">
+      <c r="BJ8" s="22">
         <v>30.66</v>
       </c>
-      <c r="BJ8" s="22">
+      <c r="BK8" s="22">
         <v>29.35</v>
       </c>
-      <c r="BK8" s="22">
+      <c r="BL8" s="22">
         <v>38.71</v>
       </c>
-      <c r="BL8" s="63">
-        <f>(BI8-BJ8)*100</f>
+      <c r="BM8" s="63">
+        <f>(BJ8-BK8)*100</f>
         <v>131</v>
       </c>
-      <c r="BM8" s="22">
+      <c r="BN8" s="22">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="BN8" s="65">
+      <c r="BO8" s="65">
         <f t="shared" si="8"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BO8" s="39">
+      <c r="BP8" s="39">
         <f t="shared" si="9"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BP8" s="39">
+      <c r="BQ8" s="39">
         <f t="shared" si="10"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BQ8" s="22">
+      <c r="BR8" s="22">
         <v>38.46</v>
       </c>
-      <c r="BR8" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS8" s="72"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="13" spans="1:71">
+      <c r="BS8" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT8" s="71"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="13" spans="1:72">
       <c r="A9" s="77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" s="23">
         <v>44529</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5">
         <v>22.26</v>
@@ -4647,7 +4673,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="46">
         <f t="shared" si="2"/>
@@ -4671,132 +4697,135 @@
       </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG9" s="52"/>
-      <c r="AH9" s="55">
+      <c r="AH9" s="52">
+        <v>6.25</v>
+      </c>
+      <c r="AI9" s="55">
         <v>1.5016</v>
       </c>
-      <c r="AI9" s="55">
+      <c r="AJ9" s="55">
         <v>5.5181</v>
       </c>
-      <c r="AJ9" s="55">
+      <c r="AK9" s="55">
         <v>3.3249</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AL9" s="55">
         <v>1.8449</v>
       </c>
-      <c r="AL9" s="57">
+      <c r="AM9" s="57">
         <v>0.3554</v>
       </c>
-      <c r="AM9" s="57">
+      <c r="AN9" s="57">
         <v>0.2495</v>
       </c>
-      <c r="AN9" s="57">
+      <c r="AO9" s="57">
         <v>0.1071</v>
       </c>
-      <c r="AO9" s="57">
+      <c r="AP9" s="57">
         <v>-0.134</v>
       </c>
-      <c r="AP9" s="57">
+      <c r="AQ9" s="57">
         <v>0.0437</v>
       </c>
-      <c r="AQ9" s="57">
+      <c r="AR9" s="57">
         <v>1.1403</v>
       </c>
-      <c r="AR9" s="57">
+      <c r="AS9" s="57">
         <v>1.4349</v>
       </c>
-      <c r="AS9" s="57">
+      <c r="AT9" s="57">
         <v>1.2425</v>
       </c>
-      <c r="AT9" s="55">
+      <c r="AU9" s="55">
         <v>0.2131</v>
       </c>
-      <c r="AU9" s="55">
+      <c r="AV9" s="55">
         <v>0.2062</v>
       </c>
-      <c r="AV9" s="55">
+      <c r="AW9" s="55">
         <v>0.334</v>
       </c>
-      <c r="AW9" s="55">
+      <c r="AX9" s="55">
         <v>0.0105</v>
       </c>
-      <c r="AX9" s="55">
+      <c r="AY9" s="55">
         <v>0.3392</v>
       </c>
-      <c r="AY9" s="55">
+      <c r="AZ9" s="55">
         <v>0.3777</v>
       </c>
-      <c r="AZ9" s="38">
+      <c r="BA9" s="38">
         <v>0.3722</v>
       </c>
-      <c r="BA9" s="38">
+      <c r="BB9" s="38">
         <v>0.3621</v>
       </c>
-      <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
-      <c r="BF9" s="5">
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5">
         <v>31.18</v>
       </c>
-      <c r="BG9" s="5">
+      <c r="BH9" s="5">
         <v>21.1</v>
       </c>
-      <c r="BH9" s="19">
+      <c r="BI9" s="19">
         <f t="shared" si="6"/>
         <v>10.08</v>
       </c>
-      <c r="BI9" s="5">
+      <c r="BJ9" s="5">
         <v>29.77</v>
       </c>
-      <c r="BJ9" s="5">
+      <c r="BK9" s="5">
         <v>27.72</v>
       </c>
-      <c r="BK9" s="5">
+      <c r="BL9" s="5">
         <v>34.93</v>
       </c>
-      <c r="BL9" s="19">
-        <f>(BI9-BJ9)*100</f>
+      <c r="BM9" s="19">
+        <f>(BJ9-BK9)*100</f>
         <v>205</v>
       </c>
-      <c r="BM9" s="5">
+      <c r="BN9" s="5">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BN9" s="66">
+      <c r="BO9" s="66">
         <f t="shared" si="8"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BO9" s="38">
+      <c r="BP9" s="38">
         <f t="shared" si="9"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BP9" s="38">
+      <c r="BQ9" s="38">
         <f t="shared" si="10"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BQ9" s="5">
+      <c r="BR9" s="5">
         <v>17.95</v>
       </c>
-      <c r="BR9" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS9" s="71"/>
-    </row>
-    <row r="10" ht="13" spans="1:70">
+      <c r="BS9" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT9" s="70"/>
+    </row>
+    <row r="10" ht="13" spans="1:71">
       <c r="A10" s="76" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" s="25">
         <v>44531</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="5">
         <v>18.62</v>
@@ -4851,7 +4880,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y10" s="46">
         <f t="shared" si="2"/>
@@ -4872,131 +4901,134 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF10" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG10" s="52"/>
-      <c r="AH10" s="56" t="s">
-        <v>127</v>
+      <c r="AH10" s="52">
+        <v>0.77</v>
       </c>
       <c r="AI10" s="56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ10" s="56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK10" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL10" s="57">
+        <v>132</v>
+      </c>
+      <c r="AL10" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM10" s="57">
         <v>2.6193</v>
       </c>
-      <c r="AM10" s="57">
+      <c r="AN10" s="57">
         <v>0.0893</v>
       </c>
-      <c r="AN10" s="57">
+      <c r="AO10" s="57">
         <v>-0.0175</v>
       </c>
-      <c r="AO10" s="57">
+      <c r="AP10" s="57">
         <v>-0.2195</v>
       </c>
-      <c r="AP10" s="58">
+      <c r="AQ10" s="58">
         <v>-0.0419</v>
       </c>
-      <c r="AQ10" s="58">
+      <c r="AR10" s="58">
         <v>0.1981</v>
       </c>
-      <c r="AR10" s="58">
+      <c r="AS10" s="58">
         <v>0.198</v>
       </c>
-      <c r="AS10" s="58">
+      <c r="AT10" s="58">
         <v>0.1998</v>
       </c>
-      <c r="AT10" s="55">
+      <c r="AU10" s="55">
         <v>0.1893</v>
       </c>
-      <c r="AU10" s="58">
+      <c r="AV10" s="58">
         <v>-0.0513</v>
       </c>
-      <c r="AV10" s="58">
+      <c r="AW10" s="58">
         <v>0.0188</v>
       </c>
-      <c r="AW10" s="58">
+      <c r="AX10" s="58">
         <v>0.0467</v>
       </c>
-      <c r="AX10" s="55">
+      <c r="AY10" s="55">
         <v>0.2619</v>
       </c>
-      <c r="AY10" s="55">
+      <c r="AZ10" s="55">
         <v>0.259</v>
       </c>
-      <c r="AZ10" s="38">
+      <c r="BA10" s="38">
         <v>0.2791</v>
       </c>
-      <c r="BA10" s="38">
+      <c r="BB10" s="38">
         <v>0.1079</v>
       </c>
-      <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
-      <c r="BF10" s="5">
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5">
         <v>25.59</v>
       </c>
-      <c r="BG10" s="5">
+      <c r="BH10" s="5">
         <v>18.59</v>
       </c>
-      <c r="BH10" s="19">
+      <c r="BI10" s="19">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BI10" s="5">
+      <c r="BJ10" s="5">
         <v>24.28</v>
       </c>
-      <c r="BJ10" s="5">
+      <c r="BK10" s="5">
         <v>22.26</v>
       </c>
-      <c r="BK10" s="5">
+      <c r="BL10" s="5">
         <v>26.72</v>
       </c>
-      <c r="BL10" s="19">
-        <f>(BI10-BJ10)*100</f>
+      <c r="BM10" s="19">
+        <f>(BJ10-BK10)*100</f>
         <v>202</v>
       </c>
-      <c r="BM10" s="5">
-        <f>FLOOR(304/(BI10-BJ10),100)</f>
+      <c r="BN10" s="5">
+        <f>FLOOR(304/(BJ10-BK10),100)</f>
         <v>100</v>
       </c>
-      <c r="BN10" s="66">
+      <c r="BO10" s="66">
         <f t="shared" si="8"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BO10" s="38">
+      <c r="BP10" s="38">
         <f t="shared" si="9"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BP10" s="38">
+      <c r="BQ10" s="38">
         <f t="shared" si="10"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BQ10" s="5">
+      <c r="BR10" s="5">
         <v>56.67</v>
       </c>
-      <c r="BR10" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" ht="13" spans="1:70">
+      <c r="BS10" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="13" spans="1:71">
       <c r="A11" s="76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" s="23">
         <v>44533</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D11" s="5">
         <v>32.27</v>
@@ -5070,131 +5102,134 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF11" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="37">
+      <c r="AH11" s="5">
+        <v>10.33</v>
+      </c>
+      <c r="AI11" s="37">
         <v>0.1643</v>
       </c>
-      <c r="AI11" s="37">
+      <c r="AJ11" s="37">
         <v>1.4491</v>
       </c>
-      <c r="AJ11" s="37">
+      <c r="AK11" s="37">
         <v>1.2198</v>
       </c>
-      <c r="AK11" s="37">
+      <c r="AL11" s="37">
         <v>1.372</v>
       </c>
-      <c r="AL11" s="36">
+      <c r="AM11" s="36">
         <v>0.0119</v>
       </c>
-      <c r="AM11" s="36">
+      <c r="AN11" s="36">
         <v>0.8391</v>
       </c>
-      <c r="AN11" s="36">
+      <c r="AO11" s="36">
         <v>0.2361</v>
       </c>
-      <c r="AO11" s="36">
+      <c r="AP11" s="36">
         <v>0.1551</v>
       </c>
-      <c r="AP11" s="37">
+      <c r="AQ11" s="37">
         <v>-0.1821</v>
       </c>
-      <c r="AQ11" s="37">
+      <c r="AR11" s="37">
         <v>0.2394</v>
       </c>
-      <c r="AR11" s="37">
+      <c r="AS11" s="37">
         <v>0.7485</v>
       </c>
-      <c r="AS11" s="37">
+      <c r="AT11" s="37">
         <v>1.2456</v>
       </c>
-      <c r="AT11" s="36">
+      <c r="AU11" s="36">
         <v>-0.45</v>
       </c>
-      <c r="AU11" s="36">
+      <c r="AV11" s="36">
         <v>1.6658</v>
       </c>
-      <c r="AV11" s="37">
+      <c r="AW11" s="37">
         <v>0.4034</v>
       </c>
-      <c r="AW11" s="37">
+      <c r="AX11" s="37">
         <v>0.5783</v>
       </c>
-      <c r="AX11" s="37">
+      <c r="AY11" s="37">
         <v>0.3524</v>
       </c>
-      <c r="AY11" s="37">
+      <c r="AZ11" s="37">
         <v>0.3393</v>
       </c>
-      <c r="AZ11" s="37">
+      <c r="BA11" s="37">
         <v>0.4071</v>
       </c>
-      <c r="BA11" s="37">
+      <c r="BB11" s="37">
         <v>0.4102</v>
       </c>
-      <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="5"/>
-      <c r="BF11" s="5">
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5">
         <v>41.47</v>
       </c>
-      <c r="BG11" s="5">
+      <c r="BH11" s="5">
         <v>32.56</v>
       </c>
-      <c r="BH11" s="19">
-        <f>BF11-BG11</f>
+      <c r="BI11" s="19">
+        <f>BG11-BH11</f>
         <v>8.91</v>
       </c>
-      <c r="BI11" s="5">
+      <c r="BJ11" s="5">
         <v>41.3</v>
       </c>
-      <c r="BJ11" s="5">
+      <c r="BK11" s="5">
         <v>38.2</v>
       </c>
-      <c r="BK11" s="5">
+      <c r="BL11" s="5">
         <v>45.39</v>
       </c>
-      <c r="BL11" s="19">
-        <f>(BI11-BJ11)*100</f>
+      <c r="BM11" s="19">
+        <f>(BJ11-BK11)*100</f>
         <v>309.999999999999</v>
       </c>
-      <c r="BM11" s="5">
-        <f>FLOOR(304/(BI11-BJ11),100)</f>
+      <c r="BN11" s="5">
+        <f>FLOOR(304/(BJ11-BK11),100)</f>
         <v>0</v>
       </c>
-      <c r="BN11" s="66">
-        <f>(BK11-BI11)/(BI11-BJ11)</f>
+      <c r="BO11" s="66">
+        <f>(BL11-BJ11)/(BJ11-BK11)</f>
         <v>1.31935483870968</v>
       </c>
-      <c r="BO11" s="38">
-        <f>(BI11-BJ11)/BI11</f>
+      <c r="BP11" s="38">
+        <f>(BJ11-BK11)/BJ11</f>
         <v>0.0750605326876512</v>
       </c>
-      <c r="BP11" s="38">
-        <f>(BK11-BI11)/BI11</f>
+      <c r="BQ11" s="38">
+        <f>(BL11-BJ11)/BJ11</f>
         <v>0.0990314769975788</v>
       </c>
-      <c r="BQ11" s="5">
+      <c r="BR11" s="5">
         <v>15.37</v>
       </c>
-      <c r="BR11" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" ht="13" spans="1:70">
+      <c r="BS11" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="13" spans="1:71">
       <c r="A12" s="76" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" s="23">
         <v>44533</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D12" s="5">
         <v>20.71</v>
@@ -5249,7 +5284,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y12" s="46">
         <f>(J12-M12)/J12</f>
@@ -5270,131 +5305,134 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF12" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="38">
+      <c r="AH12" s="5">
+        <v>8.51</v>
+      </c>
+      <c r="AI12" s="38">
         <v>3.6019</v>
       </c>
-      <c r="AI12" s="38">
+      <c r="AJ12" s="38">
         <v>16.933</v>
       </c>
-      <c r="AJ12" s="38">
+      <c r="AK12" s="38">
         <v>7.9794</v>
       </c>
-      <c r="AK12" s="38">
+      <c r="AL12" s="38">
         <v>3.2905</v>
       </c>
-      <c r="AL12" s="38">
+      <c r="AM12" s="38">
         <v>1.3176</v>
       </c>
-      <c r="AM12" s="38">
+      <c r="AN12" s="38">
         <v>0.0128</v>
       </c>
-      <c r="AN12" s="37">
+      <c r="AO12" s="37">
         <v>-0.2701</v>
       </c>
-      <c r="AO12" s="37">
+      <c r="AP12" s="37">
         <v>0.2668</v>
       </c>
-      <c r="AP12" s="38">
+      <c r="AQ12" s="38">
         <v>0.0496</v>
       </c>
-      <c r="AQ12" s="38">
+      <c r="AR12" s="38">
         <v>0.7137</v>
       </c>
-      <c r="AR12" s="37">
+      <c r="AS12" s="37">
         <v>0.3284</v>
       </c>
-      <c r="AS12" s="37">
+      <c r="AT12" s="37">
         <v>0.4288</v>
       </c>
-      <c r="AT12" s="38">
+      <c r="AU12" s="38">
         <v>0.52</v>
       </c>
-      <c r="AU12" s="37">
+      <c r="AV12" s="37">
         <v>-0.119</v>
       </c>
-      <c r="AV12" s="37">
+      <c r="AW12" s="37">
         <v>0.0208</v>
       </c>
-      <c r="AW12" s="37">
+      <c r="AX12" s="37">
         <v>0.1948</v>
       </c>
-      <c r="AX12" s="38">
+      <c r="AY12" s="38">
         <v>0.1781</v>
       </c>
-      <c r="AY12" s="38">
+      <c r="AZ12" s="38">
         <v>0.2286</v>
       </c>
-      <c r="AZ12" s="38">
+      <c r="BA12" s="38">
         <v>0.2077</v>
       </c>
-      <c r="BA12" s="38">
+      <c r="BB12" s="38">
         <v>0.1904</v>
       </c>
-      <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="5"/>
       <c r="BE12" s="5"/>
-      <c r="BF12" s="5">
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5">
         <v>24.2</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BH12" s="5">
         <v>18.22</v>
       </c>
-      <c r="BH12" s="19">
-        <f>BF12-BG12</f>
+      <c r="BI12" s="19">
+        <f>BG12-BH12</f>
         <v>5.98</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BJ12" s="5">
         <v>23.35</v>
       </c>
-      <c r="BJ12" s="5">
+      <c r="BK12" s="5">
         <v>21.6</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BL12" s="5">
         <v>28.54</v>
       </c>
-      <c r="BL12" s="19">
-        <f>(BI12-BJ12)*100</f>
+      <c r="BM12" s="19">
+        <f>(BJ12-BK12)*100</f>
         <v>175</v>
       </c>
-      <c r="BM12" s="5">
-        <f>FLOOR(304/(BI12-BJ12),100)</f>
+      <c r="BN12" s="5">
+        <f>FLOOR(304/(BJ12-BK12),100)</f>
         <v>100</v>
       </c>
-      <c r="BN12" s="66">
-        <f>(BK12-BI12)/(BI12-BJ12)</f>
+      <c r="BO12" s="66">
+        <f>(BL12-BJ12)/(BJ12-BK12)</f>
         <v>2.96571428571428</v>
       </c>
-      <c r="BO12" s="38">
-        <f>(BI12-BJ12)/BI12</f>
+      <c r="BP12" s="38">
+        <f>(BJ12-BK12)/BJ12</f>
         <v>0.0749464668094218</v>
       </c>
-      <c r="BP12" s="38">
-        <f>(BK12-BI12)/BI12</f>
+      <c r="BQ12" s="38">
+        <f>(BL12-BJ12)/BJ12</f>
         <v>0.222269807280514</v>
       </c>
-      <c r="BQ12" s="5">
+      <c r="BR12" s="5">
         <v>39.84</v>
       </c>
-      <c r="BR12" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="13" spans="1:70">
+      <c r="BS12" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="13" spans="1:71">
       <c r="A13" s="76" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" s="23">
         <v>44533</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D13" s="5">
         <v>30.42</v>
@@ -5449,7 +5487,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="46">
         <f>(J13-M13)/J13</f>
@@ -5470,123 +5508,126 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="38">
+      <c r="AH13" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="AI13" s="38">
         <v>0.0112</v>
       </c>
-      <c r="AI13" s="38">
+      <c r="AJ13" s="38">
         <v>0.8116</v>
       </c>
-      <c r="AJ13" s="38">
+      <c r="AK13" s="38">
         <v>0.7087</v>
       </c>
-      <c r="AK13" s="38">
+      <c r="AL13" s="38">
         <v>0.7083</v>
       </c>
-      <c r="AL13" s="38">
+      <c r="AM13" s="38">
         <v>0.006</v>
       </c>
-      <c r="AM13" s="38">
+      <c r="AN13" s="38">
         <v>0.3442</v>
       </c>
-      <c r="AN13" s="38">
+      <c r="AO13" s="38">
         <v>0.247</v>
       </c>
-      <c r="AO13" s="38">
+      <c r="AP13" s="38">
         <v>0.0127</v>
       </c>
-      <c r="AP13" s="38">
+      <c r="AQ13" s="38">
         <v>0.1618</v>
       </c>
-      <c r="AQ13" s="38">
+      <c r="AR13" s="38">
         <v>1.016</v>
       </c>
-      <c r="AR13" s="38">
+      <c r="AS13" s="38">
         <v>0.5767</v>
       </c>
-      <c r="AS13" s="38">
+      <c r="AT13" s="38">
         <v>0.477</v>
       </c>
-      <c r="AT13" s="38">
+      <c r="AU13" s="38">
         <v>0.4664</v>
       </c>
-      <c r="AU13" s="37">
+      <c r="AV13" s="37">
         <v>-0.1139</v>
       </c>
-      <c r="AV13" s="37">
+      <c r="AW13" s="37">
         <v>-0.0272</v>
       </c>
-      <c r="AW13" s="37">
+      <c r="AX13" s="37">
         <v>0.0402</v>
       </c>
-      <c r="AX13" s="38">
+      <c r="AY13" s="38">
         <v>0.5316</v>
       </c>
-      <c r="AY13" s="38">
+      <c r="AZ13" s="38">
         <v>0.5499</v>
       </c>
-      <c r="AZ13" s="38">
+      <c r="BA13" s="38">
         <v>0.5374</v>
       </c>
-      <c r="BA13" s="38">
+      <c r="BB13" s="38">
         <v>0.5361</v>
       </c>
-      <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
-      <c r="BF13" s="5">
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5">
         <v>42.71</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BH13" s="5">
         <v>32.98</v>
       </c>
-      <c r="BH13" s="19">
-        <f>BF13-BG13</f>
+      <c r="BI13" s="19">
+        <f>BG13-BH13</f>
         <v>9.73</v>
       </c>
-      <c r="BI13" s="5">
+      <c r="BJ13" s="5">
         <v>40.42</v>
       </c>
-      <c r="BJ13" s="5">
+      <c r="BK13" s="5">
         <v>38.36</v>
       </c>
-      <c r="BK13" s="5">
+      <c r="BL13" s="5">
         <v>42.87</v>
       </c>
-      <c r="BL13" s="19">
-        <f>(BI13-BJ13)*100</f>
+      <c r="BM13" s="19">
+        <f>(BJ13-BK13)*100</f>
         <v>206</v>
       </c>
-      <c r="BM13" s="5">
-        <f>FLOOR(304/(BI13-BJ13),100)</f>
+      <c r="BN13" s="5">
+        <f>FLOOR(304/(BJ13-BK13),100)</f>
         <v>100</v>
       </c>
-      <c r="BN13" s="66">
-        <f>(BK13-BI13)/(BI13-BJ13)</f>
+      <c r="BO13" s="66">
+        <f>(BL13-BJ13)/(BJ13-BK13)</f>
         <v>1.18932038834951</v>
       </c>
-      <c r="BO13" s="38">
-        <f>(BI13-BJ13)/BI13</f>
+      <c r="BP13" s="38">
+        <f>(BJ13-BK13)/BJ13</f>
         <v>0.0509648688767937</v>
       </c>
-      <c r="BP13" s="38">
-        <f>(BK13-BI13)/BI13</f>
+      <c r="BQ13" s="38">
+        <f>(BL13-BJ13)/BJ13</f>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BQ13" s="5">
+      <c r="BR13" s="5">
         <v>25.4</v>
       </c>
-      <c r="BR13" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="13" spans="1:70">
+      <c r="BS13" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="13" spans="1:71">
       <c r="A14" s="76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5655,12 +5696,13 @@
       <c r="BN14" s="5"/>
       <c r="BO14" s="5"/>
       <c r="BP14" s="5"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="5"/>
-    </row>
-    <row r="15" ht="13" spans="1:70">
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="5"/>
+    </row>
+    <row r="15" ht="13" spans="1:71">
       <c r="A15" s="76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5729,12 +5771,13 @@
       <c r="BN15" s="5"/>
       <c r="BO15" s="5"/>
       <c r="BP15" s="5"/>
-      <c r="BQ15" s="6"/>
-      <c r="BR15" s="5"/>
-    </row>
-    <row r="16" ht="13" spans="1:70">
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="5"/>
+    </row>
+    <row r="16" ht="13" spans="1:71">
       <c r="A16" s="76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5803,12 +5846,13 @@
       <c r="BN16" s="5"/>
       <c r="BO16" s="5"/>
       <c r="BP16" s="5"/>
-      <c r="BQ16" s="6"/>
-      <c r="BR16" s="5"/>
-    </row>
-    <row r="17" ht="13" spans="1:70">
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="5"/>
+    </row>
+    <row r="17" ht="13" spans="1:71">
       <c r="A17" s="78" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7"/>
       <c r="D17" s="7"/>
@@ -5876,11 +5920,12 @@
       <c r="BN17" s="7"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="7"/>
-      <c r="BR17" s="7"/>
-    </row>
-    <row r="18" ht="13" spans="1:70">
+      <c r="BQ17" s="7"/>
+      <c r="BS17" s="7"/>
+    </row>
+    <row r="18" ht="13" spans="1:71">
       <c r="A18" s="78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B18" s="7"/>
       <c r="D18" s="7"/>
@@ -5948,11 +5993,12 @@
       <c r="BN18" s="7"/>
       <c r="BO18" s="7"/>
       <c r="BP18" s="7"/>
-      <c r="BR18" s="7"/>
-    </row>
-    <row r="19" ht="13" spans="1:70">
+      <c r="BQ18" s="7"/>
+      <c r="BS18" s="7"/>
+    </row>
+    <row r="19" ht="13" spans="1:71">
       <c r="A19" s="78" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" s="7"/>
       <c r="D19" s="7"/>
@@ -6020,11 +6066,12 @@
       <c r="BN19" s="7"/>
       <c r="BO19" s="7"/>
       <c r="BP19" s="7"/>
-      <c r="BR19" s="7"/>
-    </row>
-    <row r="20" ht="13" spans="1:70">
+      <c r="BQ19" s="7"/>
+      <c r="BS19" s="7"/>
+    </row>
+    <row r="20" ht="13" spans="1:71">
       <c r="A20" s="78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" s="7"/>
       <c r="D20" s="7"/>
@@ -6092,11 +6139,12 @@
       <c r="BN20" s="7"/>
       <c r="BO20" s="7"/>
       <c r="BP20" s="7"/>
-      <c r="BR20" s="7"/>
-    </row>
-    <row r="21" ht="13" spans="1:70">
+      <c r="BQ20" s="7"/>
+      <c r="BS20" s="7"/>
+    </row>
+    <row r="21" ht="13" spans="1:71">
       <c r="A21" s="78" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B21" s="7"/>
       <c r="D21" s="7"/>
@@ -6164,11 +6212,12 @@
       <c r="BN21" s="7"/>
       <c r="BO21" s="7"/>
       <c r="BP21" s="7"/>
-      <c r="BR21" s="7"/>
-    </row>
-    <row r="22" ht="13" spans="1:70">
+      <c r="BQ21" s="7"/>
+      <c r="BS21" s="7"/>
+    </row>
+    <row r="22" ht="13" spans="1:71">
       <c r="A22" s="78" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="7"/>
       <c r="D22" s="7"/>
@@ -6236,11 +6285,12 @@
       <c r="BN22" s="7"/>
       <c r="BO22" s="7"/>
       <c r="BP22" s="7"/>
-      <c r="BR22" s="7"/>
-    </row>
-    <row r="23" ht="13" spans="1:70">
+      <c r="BQ22" s="7"/>
+      <c r="BS22" s="7"/>
+    </row>
+    <row r="23" ht="13" spans="1:71">
       <c r="A23" s="78" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B23" s="7"/>
       <c r="D23" s="7"/>
@@ -6308,11 +6358,12 @@
       <c r="BN23" s="7"/>
       <c r="BO23" s="7"/>
       <c r="BP23" s="7"/>
-      <c r="BR23" s="7"/>
-    </row>
-    <row r="24" ht="13" spans="1:70">
+      <c r="BQ23" s="7"/>
+      <c r="BS23" s="7"/>
+    </row>
+    <row r="24" ht="13" spans="1:71">
       <c r="A24" s="78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="7"/>
       <c r="D24" s="7"/>
@@ -6380,11 +6431,12 @@
       <c r="BN24" s="7"/>
       <c r="BO24" s="7"/>
       <c r="BP24" s="7"/>
-      <c r="BR24" s="7"/>
-    </row>
-    <row r="25" ht="13" spans="1:70">
+      <c r="BQ24" s="7"/>
+      <c r="BS24" s="7"/>
+    </row>
+    <row r="25" ht="13" spans="1:71">
       <c r="A25" s="78" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B25" s="7"/>
       <c r="D25" s="7"/>
@@ -6452,11 +6504,12 @@
       <c r="BN25" s="7"/>
       <c r="BO25" s="7"/>
       <c r="BP25" s="7"/>
-      <c r="BR25" s="7"/>
-    </row>
-    <row r="26" ht="13" spans="1:70">
+      <c r="BQ25" s="7"/>
+      <c r="BS25" s="7"/>
+    </row>
+    <row r="26" ht="13" spans="1:71">
       <c r="A26" s="78" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B26" s="7"/>
       <c r="D26" s="7"/>
@@ -6524,11 +6577,12 @@
       <c r="BN26" s="7"/>
       <c r="BO26" s="7"/>
       <c r="BP26" s="7"/>
-      <c r="BR26" s="7"/>
-    </row>
-    <row r="27" ht="13" spans="1:70">
+      <c r="BQ26" s="7"/>
+      <c r="BS26" s="7"/>
+    </row>
+    <row r="27" ht="13" spans="1:71">
       <c r="A27" s="78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B27" s="7"/>
       <c r="D27" s="7"/>
@@ -6596,11 +6650,12 @@
       <c r="BN27" s="7"/>
       <c r="BO27" s="7"/>
       <c r="BP27" s="7"/>
-      <c r="BR27" s="7"/>
-    </row>
-    <row r="28" ht="13" spans="1:70">
+      <c r="BQ27" s="7"/>
+      <c r="BS27" s="7"/>
+    </row>
+    <row r="28" ht="13" spans="1:71">
       <c r="A28" s="78" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B28" s="7"/>
       <c r="D28" s="7"/>
@@ -6668,11 +6723,12 @@
       <c r="BN28" s="7"/>
       <c r="BO28" s="7"/>
       <c r="BP28" s="7"/>
-      <c r="BR28" s="7"/>
-    </row>
-    <row r="29" ht="13" spans="1:70">
+      <c r="BQ28" s="7"/>
+      <c r="BS28" s="7"/>
+    </row>
+    <row r="29" ht="13" spans="1:71">
       <c r="A29" s="78" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B29" s="7"/>
       <c r="D29" s="7"/>
@@ -6740,11 +6796,12 @@
       <c r="BN29" s="7"/>
       <c r="BO29" s="7"/>
       <c r="BP29" s="7"/>
-      <c r="BR29" s="7"/>
-    </row>
-    <row r="30" ht="13" spans="1:70">
+      <c r="BQ29" s="7"/>
+      <c r="BS29" s="7"/>
+    </row>
+    <row r="30" ht="13" spans="1:71">
       <c r="A30" s="78" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B30" s="7"/>
       <c r="D30" s="7"/>
@@ -6812,11 +6869,12 @@
       <c r="BN30" s="7"/>
       <c r="BO30" s="7"/>
       <c r="BP30" s="7"/>
-      <c r="BR30" s="7"/>
-    </row>
-    <row r="31" ht="13" spans="1:70">
+      <c r="BQ30" s="7"/>
+      <c r="BS30" s="7"/>
+    </row>
+    <row r="31" ht="13" spans="1:71">
       <c r="A31" s="78" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B31" s="7"/>
       <c r="D31" s="7"/>
@@ -6884,11 +6942,12 @@
       <c r="BN31" s="7"/>
       <c r="BO31" s="7"/>
       <c r="BP31" s="7"/>
-      <c r="BR31" s="7"/>
-    </row>
-    <row r="32" ht="13" spans="1:70">
+      <c r="BQ31" s="7"/>
+      <c r="BS31" s="7"/>
+    </row>
+    <row r="32" ht="13" spans="1:71">
       <c r="A32" s="78" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
@@ -6956,11 +7015,12 @@
       <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
       <c r="BP32" s="7"/>
-      <c r="BR32" s="7"/>
-    </row>
-    <row r="33" ht="13" spans="1:70">
+      <c r="BQ32" s="7"/>
+      <c r="BS32" s="7"/>
+    </row>
+    <row r="33" ht="13" spans="1:71">
       <c r="A33" s="78" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B33" s="7"/>
       <c r="D33" s="7"/>
@@ -7028,11 +7088,12 @@
       <c r="BN33" s="7"/>
       <c r="BO33" s="7"/>
       <c r="BP33" s="7"/>
-      <c r="BR33" s="7"/>
-    </row>
-    <row r="34" ht="13" spans="1:70">
+      <c r="BQ33" s="7"/>
+      <c r="BS33" s="7"/>
+    </row>
+    <row r="34" ht="13" spans="1:71">
       <c r="A34" s="78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B34" s="7"/>
       <c r="D34" s="7"/>
@@ -7100,11 +7161,12 @@
       <c r="BN34" s="7"/>
       <c r="BO34" s="7"/>
       <c r="BP34" s="7"/>
-      <c r="BR34" s="7"/>
-    </row>
-    <row r="35" ht="13" spans="1:70">
+      <c r="BQ34" s="7"/>
+      <c r="BS34" s="7"/>
+    </row>
+    <row r="35" ht="13" spans="1:71">
       <c r="A35" s="78" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B35" s="7"/>
       <c r="D35" s="7"/>
@@ -7172,11 +7234,12 @@
       <c r="BN35" s="7"/>
       <c r="BO35" s="7"/>
       <c r="BP35" s="7"/>
-      <c r="BR35" s="7"/>
-    </row>
-    <row r="36" ht="13" spans="1:70">
+      <c r="BQ35" s="7"/>
+      <c r="BS35" s="7"/>
+    </row>
+    <row r="36" ht="13" spans="1:71">
       <c r="A36" s="78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B36" s="7"/>
       <c r="D36" s="7"/>
@@ -7244,11 +7307,12 @@
       <c r="BN36" s="7"/>
       <c r="BO36" s="7"/>
       <c r="BP36" s="7"/>
-      <c r="BR36" s="7"/>
-    </row>
-    <row r="37" ht="13" spans="1:70">
+      <c r="BQ36" s="7"/>
+      <c r="BS36" s="7"/>
+    </row>
+    <row r="37" ht="13" spans="1:71">
       <c r="A37" s="78" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B37" s="7"/>
       <c r="D37" s="7"/>
@@ -7316,11 +7380,12 @@
       <c r="BN37" s="7"/>
       <c r="BO37" s="7"/>
       <c r="BP37" s="7"/>
-      <c r="BR37" s="7"/>
-    </row>
-    <row r="38" ht="13" spans="1:70">
+      <c r="BQ37" s="7"/>
+      <c r="BS37" s="7"/>
+    </row>
+    <row r="38" ht="13" spans="1:71">
       <c r="A38" s="78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B38" s="7"/>
       <c r="D38" s="7"/>
@@ -7388,11 +7453,12 @@
       <c r="BN38" s="7"/>
       <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
-      <c r="BR38" s="7"/>
-    </row>
-    <row r="39" ht="13" spans="1:70">
+      <c r="BQ38" s="7"/>
+      <c r="BS38" s="7"/>
+    </row>
+    <row r="39" ht="13" spans="1:71">
       <c r="A39" s="78" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B39" s="7"/>
       <c r="D39" s="7"/>
@@ -7460,11 +7526,12 @@
       <c r="BN39" s="7"/>
       <c r="BO39" s="7"/>
       <c r="BP39" s="7"/>
-      <c r="BR39" s="7"/>
-    </row>
-    <row r="40" ht="13" spans="1:70">
+      <c r="BQ39" s="7"/>
+      <c r="BS39" s="7"/>
+    </row>
+    <row r="40" ht="13" spans="1:71">
       <c r="A40" s="78" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B40" s="7"/>
       <c r="D40" s="7"/>
@@ -7532,11 +7599,12 @@
       <c r="BN40" s="7"/>
       <c r="BO40" s="7"/>
       <c r="BP40" s="7"/>
-      <c r="BR40" s="7"/>
-    </row>
-    <row r="41" ht="13" spans="1:70">
+      <c r="BQ40" s="7"/>
+      <c r="BS40" s="7"/>
+    </row>
+    <row r="41" ht="13" spans="1:71">
       <c r="A41" s="78" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B41" s="7"/>
       <c r="D41" s="7"/>
@@ -7604,11 +7672,12 @@
       <c r="BN41" s="7"/>
       <c r="BO41" s="7"/>
       <c r="BP41" s="7"/>
-      <c r="BR41" s="7"/>
-    </row>
-    <row r="42" ht="13" spans="1:70">
+      <c r="BQ41" s="7"/>
+      <c r="BS41" s="7"/>
+    </row>
+    <row r="42" ht="13" spans="1:71">
       <c r="A42" s="78" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B42" s="7"/>
       <c r="D42" s="7"/>
@@ -7676,11 +7745,12 @@
       <c r="BN42" s="7"/>
       <c r="BO42" s="7"/>
       <c r="BP42" s="7"/>
-      <c r="BR42" s="7"/>
-    </row>
-    <row r="43" ht="13" spans="1:70">
+      <c r="BQ42" s="7"/>
+      <c r="BS42" s="7"/>
+    </row>
+    <row r="43" ht="13" spans="1:71">
       <c r="A43" s="78" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B43" s="7"/>
       <c r="D43" s="7"/>
@@ -7748,11 +7818,12 @@
       <c r="BN43" s="7"/>
       <c r="BO43" s="7"/>
       <c r="BP43" s="7"/>
-      <c r="BR43" s="7"/>
-    </row>
-    <row r="44" ht="13" spans="1:70">
+      <c r="BQ43" s="7"/>
+      <c r="BS43" s="7"/>
+    </row>
+    <row r="44" ht="13" spans="1:71">
       <c r="A44" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B44" s="7"/>
       <c r="D44" s="7"/>
@@ -7820,11 +7891,12 @@
       <c r="BN44" s="7"/>
       <c r="BO44" s="7"/>
       <c r="BP44" s="7"/>
-      <c r="BR44" s="7"/>
-    </row>
-    <row r="45" ht="13" spans="1:70">
+      <c r="BQ44" s="7"/>
+      <c r="BS44" s="7"/>
+    </row>
+    <row r="45" ht="13" spans="1:71">
       <c r="A45" s="78" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B45" s="7"/>
       <c r="D45" s="7"/>
@@ -7892,11 +7964,12 @@
       <c r="BN45" s="7"/>
       <c r="BO45" s="7"/>
       <c r="BP45" s="7"/>
-      <c r="BR45" s="7"/>
-    </row>
-    <row r="46" ht="13" spans="1:70">
+      <c r="BQ45" s="7"/>
+      <c r="BS45" s="7"/>
+    </row>
+    <row r="46" ht="13" spans="1:71">
       <c r="A46" s="78" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B46" s="7"/>
       <c r="D46" s="7"/>
@@ -7964,11 +8037,12 @@
       <c r="BN46" s="7"/>
       <c r="BO46" s="7"/>
       <c r="BP46" s="7"/>
-      <c r="BR46" s="7"/>
-    </row>
-    <row r="47" ht="13" spans="1:70">
+      <c r="BQ46" s="7"/>
+      <c r="BS46" s="7"/>
+    </row>
+    <row r="47" ht="13" spans="1:71">
       <c r="A47" s="78" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B47" s="7"/>
       <c r="D47" s="7"/>
@@ -8036,11 +8110,12 @@
       <c r="BN47" s="7"/>
       <c r="BO47" s="7"/>
       <c r="BP47" s="7"/>
-      <c r="BR47" s="7"/>
-    </row>
-    <row r="48" ht="13" spans="1:70">
+      <c r="BQ47" s="7"/>
+      <c r="BS47" s="7"/>
+    </row>
+    <row r="48" ht="13" spans="1:71">
       <c r="A48" s="78" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B48" s="7"/>
       <c r="D48" s="7"/>
@@ -8108,11 +8183,12 @@
       <c r="BN48" s="7"/>
       <c r="BO48" s="7"/>
       <c r="BP48" s="7"/>
-      <c r="BR48" s="7"/>
-    </row>
-    <row r="49" ht="13" spans="1:70">
+      <c r="BQ48" s="7"/>
+      <c r="BS48" s="7"/>
+    </row>
+    <row r="49" ht="13" spans="1:71">
       <c r="A49" s="78" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B49" s="7"/>
       <c r="D49" s="7"/>
@@ -8180,11 +8256,12 @@
       <c r="BN49" s="7"/>
       <c r="BO49" s="7"/>
       <c r="BP49" s="7"/>
-      <c r="BR49" s="7"/>
-    </row>
-    <row r="50" ht="13" spans="1:70">
+      <c r="BQ49" s="7"/>
+      <c r="BS49" s="7"/>
+    </row>
+    <row r="50" ht="13" spans="1:71">
       <c r="A50" s="78" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B50" s="7"/>
       <c r="D50" s="7"/>
@@ -8252,11 +8329,12 @@
       <c r="BN50" s="7"/>
       <c r="BO50" s="7"/>
       <c r="BP50" s="7"/>
-      <c r="BR50" s="7"/>
-    </row>
-    <row r="51" ht="13" spans="1:70">
+      <c r="BQ50" s="7"/>
+      <c r="BS50" s="7"/>
+    </row>
+    <row r="51" ht="13" spans="1:71">
       <c r="A51" s="78" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B51" s="7"/>
       <c r="D51" s="7"/>
@@ -8324,9 +8402,10 @@
       <c r="BN51" s="7"/>
       <c r="BO51" s="7"/>
       <c r="BP51" s="7"/>
-      <c r="BR51" s="7"/>
-    </row>
-    <row r="52" spans="1:70">
+      <c r="BQ51" s="7"/>
+      <c r="BS51" s="7"/>
+    </row>
+    <row r="52" spans="1:71">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="D52" s="7"/>
@@ -8394,9 +8473,10 @@
       <c r="BN52" s="7"/>
       <c r="BO52" s="7"/>
       <c r="BP52" s="7"/>
-      <c r="BR52" s="7"/>
-    </row>
-    <row r="53" spans="1:70">
+      <c r="BQ52" s="7"/>
+      <c r="BS52" s="7"/>
+    </row>
+    <row r="53" spans="1:71">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="D53" s="7"/>
@@ -8464,9 +8544,10 @@
       <c r="BN53" s="7"/>
       <c r="BO53" s="7"/>
       <c r="BP53" s="7"/>
-      <c r="BR53" s="7"/>
-    </row>
-    <row r="54" spans="1:70">
+      <c r="BQ53" s="7"/>
+      <c r="BS53" s="7"/>
+    </row>
+    <row r="54" spans="1:71">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="D54" s="7"/>
@@ -8534,9 +8615,10 @@
       <c r="BN54" s="7"/>
       <c r="BO54" s="7"/>
       <c r="BP54" s="7"/>
-      <c r="BR54" s="7"/>
-    </row>
-    <row r="55" spans="1:70">
+      <c r="BQ54" s="7"/>
+      <c r="BS54" s="7"/>
+    </row>
+    <row r="55" spans="1:71">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="D55" s="7"/>
@@ -8604,9 +8686,10 @@
       <c r="BN55" s="7"/>
       <c r="BO55" s="7"/>
       <c r="BP55" s="7"/>
-      <c r="BR55" s="7"/>
-    </row>
-    <row r="56" spans="1:70">
+      <c r="BQ55" s="7"/>
+      <c r="BS55" s="7"/>
+    </row>
+    <row r="56" spans="1:71">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="D56" s="7"/>
@@ -8674,9 +8757,10 @@
       <c r="BN56" s="7"/>
       <c r="BO56" s="7"/>
       <c r="BP56" s="7"/>
-      <c r="BR56" s="7"/>
-    </row>
-    <row r="57" spans="1:70">
+      <c r="BQ56" s="7"/>
+      <c r="BS56" s="7"/>
+    </row>
+    <row r="57" spans="1:71">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="D57" s="7"/>
@@ -8744,9 +8828,10 @@
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
-      <c r="BR57" s="7"/>
-    </row>
-    <row r="58" spans="1:70">
+      <c r="BQ57" s="7"/>
+      <c r="BS57" s="7"/>
+    </row>
+    <row r="58" spans="1:71">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="D58" s="7"/>
@@ -8814,9 +8899,10 @@
       <c r="BN58" s="7"/>
       <c r="BO58" s="7"/>
       <c r="BP58" s="7"/>
-      <c r="BR58" s="7"/>
-    </row>
-    <row r="59" spans="1:70">
+      <c r="BQ58" s="7"/>
+      <c r="BS58" s="7"/>
+    </row>
+    <row r="59" spans="1:71">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="D59" s="7"/>
@@ -8884,9 +8970,10 @@
       <c r="BN59" s="7"/>
       <c r="BO59" s="7"/>
       <c r="BP59" s="7"/>
-      <c r="BR59" s="7"/>
-    </row>
-    <row r="60" spans="1:70">
+      <c r="BQ59" s="7"/>
+      <c r="BS59" s="7"/>
+    </row>
+    <row r="60" spans="1:71">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="D60" s="7"/>
@@ -8954,9 +9041,10 @@
       <c r="BN60" s="7"/>
       <c r="BO60" s="7"/>
       <c r="BP60" s="7"/>
-      <c r="BR60" s="7"/>
-    </row>
-    <row r="61" spans="1:70">
+      <c r="BQ60" s="7"/>
+      <c r="BS60" s="7"/>
+    </row>
+    <row r="61" spans="1:71">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="D61" s="7"/>
@@ -9024,9 +9112,10 @@
       <c r="BN61" s="7"/>
       <c r="BO61" s="7"/>
       <c r="BP61" s="7"/>
-      <c r="BR61" s="7"/>
-    </row>
-    <row r="62" spans="1:70">
+      <c r="BQ61" s="7"/>
+      <c r="BS61" s="7"/>
+    </row>
+    <row r="62" spans="1:71">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="D62" s="7"/>
@@ -9094,9 +9183,10 @@
       <c r="BN62" s="7"/>
       <c r="BO62" s="7"/>
       <c r="BP62" s="7"/>
-      <c r="BR62" s="7"/>
-    </row>
-    <row r="63" spans="1:70">
+      <c r="BQ62" s="7"/>
+      <c r="BS62" s="7"/>
+    </row>
+    <row r="63" spans="1:71">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="D63" s="7"/>
@@ -9164,9 +9254,10 @@
       <c r="BN63" s="7"/>
       <c r="BO63" s="7"/>
       <c r="BP63" s="7"/>
-      <c r="BR63" s="7"/>
-    </row>
-    <row r="64" spans="1:70">
+      <c r="BQ63" s="7"/>
+      <c r="BS63" s="7"/>
+    </row>
+    <row r="64" spans="1:71">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="D64" s="7"/>
@@ -9234,9 +9325,10 @@
       <c r="BN64" s="7"/>
       <c r="BO64" s="7"/>
       <c r="BP64" s="7"/>
-      <c r="BR64" s="7"/>
-    </row>
-    <row r="65" spans="1:70">
+      <c r="BQ64" s="7"/>
+      <c r="BS64" s="7"/>
+    </row>
+    <row r="65" spans="1:71">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="D65" s="7"/>
@@ -9304,9 +9396,10 @@
       <c r="BN65" s="7"/>
       <c r="BO65" s="7"/>
       <c r="BP65" s="7"/>
-      <c r="BR65" s="7"/>
-    </row>
-    <row r="66" spans="1:70">
+      <c r="BQ65" s="7"/>
+      <c r="BS65" s="7"/>
+    </row>
+    <row r="66" spans="1:71">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="D66" s="7"/>
@@ -9374,9 +9467,10 @@
       <c r="BN66" s="7"/>
       <c r="BO66" s="7"/>
       <c r="BP66" s="7"/>
-      <c r="BR66" s="7"/>
-    </row>
-    <row r="67" spans="1:70">
+      <c r="BQ66" s="7"/>
+      <c r="BS66" s="7"/>
+    </row>
+    <row r="67" spans="1:71">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="D67" s="7"/>
@@ -9444,9 +9538,10 @@
       <c r="BN67" s="7"/>
       <c r="BO67" s="7"/>
       <c r="BP67" s="7"/>
-      <c r="BR67" s="7"/>
-    </row>
-    <row r="68" spans="1:70">
+      <c r="BQ67" s="7"/>
+      <c r="BS67" s="7"/>
+    </row>
+    <row r="68" spans="1:71">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="D68" s="7"/>
@@ -9514,9 +9609,10 @@
       <c r="BN68" s="7"/>
       <c r="BO68" s="7"/>
       <c r="BP68" s="7"/>
-      <c r="BR68" s="7"/>
-    </row>
-    <row r="69" spans="1:70">
+      <c r="BQ68" s="7"/>
+      <c r="BS68" s="7"/>
+    </row>
+    <row r="69" spans="1:71">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="D69" s="7"/>
@@ -9584,9 +9680,10 @@
       <c r="BN69" s="7"/>
       <c r="BO69" s="7"/>
       <c r="BP69" s="7"/>
-      <c r="BR69" s="7"/>
-    </row>
-    <row r="70" spans="1:70">
+      <c r="BQ69" s="7"/>
+      <c r="BS69" s="7"/>
+    </row>
+    <row r="70" spans="1:71">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="D70" s="7"/>
@@ -9654,9 +9751,10 @@
       <c r="BN70" s="7"/>
       <c r="BO70" s="7"/>
       <c r="BP70" s="7"/>
-      <c r="BR70" s="7"/>
-    </row>
-    <row r="71" spans="1:70">
+      <c r="BQ70" s="7"/>
+      <c r="BS70" s="7"/>
+    </row>
+    <row r="71" spans="1:71">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="D71" s="7"/>
@@ -9724,9 +9822,10 @@
       <c r="BN71" s="7"/>
       <c r="BO71" s="7"/>
       <c r="BP71" s="7"/>
-      <c r="BR71" s="7"/>
-    </row>
-    <row r="72" spans="1:70">
+      <c r="BQ71" s="7"/>
+      <c r="BS71" s="7"/>
+    </row>
+    <row r="72" spans="1:71">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="D72" s="7"/>
@@ -9794,9 +9893,10 @@
       <c r="BN72" s="7"/>
       <c r="BO72" s="7"/>
       <c r="BP72" s="7"/>
-      <c r="BR72" s="7"/>
-    </row>
-    <row r="73" spans="1:70">
+      <c r="BQ72" s="7"/>
+      <c r="BS72" s="7"/>
+    </row>
+    <row r="73" spans="1:71">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="D73" s="7"/>
@@ -9864,9 +9964,10 @@
       <c r="BN73" s="7"/>
       <c r="BO73" s="7"/>
       <c r="BP73" s="7"/>
-      <c r="BR73" s="7"/>
-    </row>
-    <row r="74" spans="1:70">
+      <c r="BQ73" s="7"/>
+      <c r="BS73" s="7"/>
+    </row>
+    <row r="74" spans="1:71">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="D74" s="7"/>
@@ -9934,9 +10035,10 @@
       <c r="BN74" s="7"/>
       <c r="BO74" s="7"/>
       <c r="BP74" s="7"/>
-      <c r="BR74" s="7"/>
-    </row>
-    <row r="75" spans="1:70">
+      <c r="BQ74" s="7"/>
+      <c r="BS74" s="7"/>
+    </row>
+    <row r="75" spans="1:71">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="D75" s="7"/>
@@ -10004,9 +10106,10 @@
       <c r="BN75" s="7"/>
       <c r="BO75" s="7"/>
       <c r="BP75" s="7"/>
-      <c r="BR75" s="7"/>
-    </row>
-    <row r="76" spans="1:70">
+      <c r="BQ75" s="7"/>
+      <c r="BS75" s="7"/>
+    </row>
+    <row r="76" spans="1:71">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="D76" s="7"/>
@@ -10074,9 +10177,10 @@
       <c r="BN76" s="7"/>
       <c r="BO76" s="7"/>
       <c r="BP76" s="7"/>
-      <c r="BR76" s="7"/>
-    </row>
-    <row r="77" spans="1:70">
+      <c r="BQ76" s="7"/>
+      <c r="BS76" s="7"/>
+    </row>
+    <row r="77" spans="1:71">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="D77" s="7"/>
@@ -10144,9 +10248,10 @@
       <c r="BN77" s="7"/>
       <c r="BO77" s="7"/>
       <c r="BP77" s="7"/>
-      <c r="BR77" s="7"/>
-    </row>
-    <row r="78" spans="1:70">
+      <c r="BQ77" s="7"/>
+      <c r="BS77" s="7"/>
+    </row>
+    <row r="78" spans="1:71">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="D78" s="7"/>
@@ -10214,9 +10319,10 @@
       <c r="BN78" s="7"/>
       <c r="BO78" s="7"/>
       <c r="BP78" s="7"/>
-      <c r="BR78" s="7"/>
-    </row>
-    <row r="79" spans="1:70">
+      <c r="BQ78" s="7"/>
+      <c r="BS78" s="7"/>
+    </row>
+    <row r="79" spans="1:71">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="D79" s="7"/>
@@ -10284,9 +10390,10 @@
       <c r="BN79" s="7"/>
       <c r="BO79" s="7"/>
       <c r="BP79" s="7"/>
-      <c r="BR79" s="7"/>
-    </row>
-    <row r="80" spans="1:70">
+      <c r="BQ79" s="7"/>
+      <c r="BS79" s="7"/>
+    </row>
+    <row r="80" spans="1:71">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="D80" s="7"/>
@@ -10354,9 +10461,10 @@
       <c r="BN80" s="7"/>
       <c r="BO80" s="7"/>
       <c r="BP80" s="7"/>
-      <c r="BR80" s="7"/>
-    </row>
-    <row r="81" spans="1:70">
+      <c r="BQ80" s="7"/>
+      <c r="BS80" s="7"/>
+    </row>
+    <row r="81" spans="1:71">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="D81" s="7"/>
@@ -10424,9 +10532,10 @@
       <c r="BN81" s="7"/>
       <c r="BO81" s="7"/>
       <c r="BP81" s="7"/>
-      <c r="BR81" s="7"/>
-    </row>
-    <row r="82" spans="1:70">
+      <c r="BQ81" s="7"/>
+      <c r="BS81" s="7"/>
+    </row>
+    <row r="82" spans="1:71">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="D82" s="7"/>
@@ -10494,9 +10603,10 @@
       <c r="BN82" s="7"/>
       <c r="BO82" s="7"/>
       <c r="BP82" s="7"/>
-      <c r="BR82" s="7"/>
-    </row>
-    <row r="83" spans="1:70">
+      <c r="BQ82" s="7"/>
+      <c r="BS82" s="7"/>
+    </row>
+    <row r="83" spans="1:71">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="D83" s="7"/>
@@ -10564,9 +10674,10 @@
       <c r="BN83" s="7"/>
       <c r="BO83" s="7"/>
       <c r="BP83" s="7"/>
-      <c r="BR83" s="7"/>
-    </row>
-    <row r="84" spans="1:70">
+      <c r="BQ83" s="7"/>
+      <c r="BS83" s="7"/>
+    </row>
+    <row r="84" spans="1:71">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="D84" s="7"/>
@@ -10634,9 +10745,10 @@
       <c r="BN84" s="7"/>
       <c r="BO84" s="7"/>
       <c r="BP84" s="7"/>
-      <c r="BR84" s="7"/>
-    </row>
-    <row r="85" spans="1:70">
+      <c r="BQ84" s="7"/>
+      <c r="BS84" s="7"/>
+    </row>
+    <row r="85" spans="1:71">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="D85" s="7"/>
@@ -10704,9 +10816,10 @@
       <c r="BN85" s="7"/>
       <c r="BO85" s="7"/>
       <c r="BP85" s="7"/>
-      <c r="BR85" s="7"/>
-    </row>
-    <row r="86" spans="1:70">
+      <c r="BQ85" s="7"/>
+      <c r="BS85" s="7"/>
+    </row>
+    <row r="86" spans="1:71">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="D86" s="7"/>
@@ -10774,9 +10887,10 @@
       <c r="BN86" s="7"/>
       <c r="BO86" s="7"/>
       <c r="BP86" s="7"/>
-      <c r="BR86" s="7"/>
-    </row>
-    <row r="87" spans="1:70">
+      <c r="BQ86" s="7"/>
+      <c r="BS86" s="7"/>
+    </row>
+    <row r="87" spans="1:71">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="D87" s="7"/>
@@ -10844,9 +10958,10 @@
       <c r="BN87" s="7"/>
       <c r="BO87" s="7"/>
       <c r="BP87" s="7"/>
-      <c r="BR87" s="7"/>
-    </row>
-    <row r="88" spans="1:70">
+      <c r="BQ87" s="7"/>
+      <c r="BS87" s="7"/>
+    </row>
+    <row r="88" spans="1:71">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="D88" s="7"/>
@@ -10914,9 +11029,10 @@
       <c r="BN88" s="7"/>
       <c r="BO88" s="7"/>
       <c r="BP88" s="7"/>
-      <c r="BR88" s="7"/>
-    </row>
-    <row r="89" spans="1:70">
+      <c r="BQ88" s="7"/>
+      <c r="BS88" s="7"/>
+    </row>
+    <row r="89" spans="1:71">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="D89" s="7"/>
@@ -10984,9 +11100,10 @@
       <c r="BN89" s="7"/>
       <c r="BO89" s="7"/>
       <c r="BP89" s="7"/>
-      <c r="BR89" s="7"/>
-    </row>
-    <row r="90" spans="1:70">
+      <c r="BQ89" s="7"/>
+      <c r="BS89" s="7"/>
+    </row>
+    <row r="90" spans="1:71">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="D90" s="7"/>
@@ -11054,9 +11171,10 @@
       <c r="BN90" s="7"/>
       <c r="BO90" s="7"/>
       <c r="BP90" s="7"/>
-      <c r="BR90" s="7"/>
-    </row>
-    <row r="91" spans="1:70">
+      <c r="BQ90" s="7"/>
+      <c r="BS90" s="7"/>
+    </row>
+    <row r="91" spans="1:71">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="D91" s="7"/>
@@ -11124,9 +11242,10 @@
       <c r="BN91" s="7"/>
       <c r="BO91" s="7"/>
       <c r="BP91" s="7"/>
-      <c r="BR91" s="7"/>
-    </row>
-    <row r="92" spans="1:70">
+      <c r="BQ91" s="7"/>
+      <c r="BS91" s="7"/>
+    </row>
+    <row r="92" spans="1:71">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="D92" s="7"/>
@@ -11194,9 +11313,10 @@
       <c r="BN92" s="7"/>
       <c r="BO92" s="7"/>
       <c r="BP92" s="7"/>
-      <c r="BR92" s="7"/>
-    </row>
-    <row r="93" spans="1:70">
+      <c r="BQ92" s="7"/>
+      <c r="BS92" s="7"/>
+    </row>
+    <row r="93" spans="1:71">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="D93" s="7"/>
@@ -11264,9 +11384,10 @@
       <c r="BN93" s="7"/>
       <c r="BO93" s="7"/>
       <c r="BP93" s="7"/>
-      <c r="BR93" s="7"/>
-    </row>
-    <row r="94" spans="1:70">
+      <c r="BQ93" s="7"/>
+      <c r="BS93" s="7"/>
+    </row>
+    <row r="94" spans="1:71">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="D94" s="7"/>
@@ -11334,9 +11455,10 @@
       <c r="BN94" s="7"/>
       <c r="BO94" s="7"/>
       <c r="BP94" s="7"/>
-      <c r="BR94" s="7"/>
-    </row>
-    <row r="95" spans="1:70">
+      <c r="BQ94" s="7"/>
+      <c r="BS94" s="7"/>
+    </row>
+    <row r="95" spans="1:71">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="D95" s="7"/>
@@ -11404,9 +11526,10 @@
       <c r="BN95" s="7"/>
       <c r="BO95" s="7"/>
       <c r="BP95" s="7"/>
-      <c r="BR95" s="7"/>
-    </row>
-    <row r="96" spans="1:70">
+      <c r="BQ95" s="7"/>
+      <c r="BS95" s="7"/>
+    </row>
+    <row r="96" spans="1:71">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="D96" s="7"/>
@@ -11474,9 +11597,10 @@
       <c r="BN96" s="7"/>
       <c r="BO96" s="7"/>
       <c r="BP96" s="7"/>
-      <c r="BR96" s="7"/>
-    </row>
-    <row r="97" spans="1:70">
+      <c r="BQ96" s="7"/>
+      <c r="BS96" s="7"/>
+    </row>
+    <row r="97" spans="1:71">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="D97" s="7"/>
@@ -11544,9 +11668,10 @@
       <c r="BN97" s="7"/>
       <c r="BO97" s="7"/>
       <c r="BP97" s="7"/>
-      <c r="BR97" s="7"/>
-    </row>
-    <row r="98" spans="1:70">
+      <c r="BQ97" s="7"/>
+      <c r="BS97" s="7"/>
+    </row>
+    <row r="98" spans="1:71">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="D98" s="7"/>
@@ -11614,9 +11739,10 @@
       <c r="BN98" s="7"/>
       <c r="BO98" s="7"/>
       <c r="BP98" s="7"/>
-      <c r="BR98" s="7"/>
-    </row>
-    <row r="99" spans="1:70">
+      <c r="BQ98" s="7"/>
+      <c r="BS98" s="7"/>
+    </row>
+    <row r="99" spans="1:71">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="D99" s="7"/>
@@ -11684,9 +11810,10 @@
       <c r="BN99" s="7"/>
       <c r="BO99" s="7"/>
       <c r="BP99" s="7"/>
-      <c r="BR99" s="7"/>
-    </row>
-    <row r="100" spans="1:70">
+      <c r="BQ99" s="7"/>
+      <c r="BS99" s="7"/>
+    </row>
+    <row r="100" spans="1:71">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="D100" s="7"/>
@@ -11754,9 +11881,10 @@
       <c r="BN100" s="7"/>
       <c r="BO100" s="7"/>
       <c r="BP100" s="7"/>
-      <c r="BR100" s="7"/>
-    </row>
-    <row r="101" spans="1:70">
+      <c r="BQ100" s="7"/>
+      <c r="BS100" s="7"/>
+    </row>
+    <row r="101" spans="1:71">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="D101" s="7"/>
@@ -11824,9 +11952,10 @@
       <c r="BN101" s="7"/>
       <c r="BO101" s="7"/>
       <c r="BP101" s="7"/>
-      <c r="BR101" s="7"/>
-    </row>
-    <row r="102" spans="1:70">
+      <c r="BQ101" s="7"/>
+      <c r="BS101" s="7"/>
+    </row>
+    <row r="102" spans="1:71">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="D102" s="7"/>
@@ -11894,9 +12023,10 @@
       <c r="BN102" s="7"/>
       <c r="BO102" s="7"/>
       <c r="BP102" s="7"/>
-      <c r="BR102" s="7"/>
-    </row>
-    <row r="103" spans="1:70">
+      <c r="BQ102" s="7"/>
+      <c r="BS102" s="7"/>
+    </row>
+    <row r="103" spans="1:71">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="D103" s="7"/>
@@ -11964,9 +12094,10 @@
       <c r="BN103" s="7"/>
       <c r="BO103" s="7"/>
       <c r="BP103" s="7"/>
-      <c r="BR103" s="7"/>
-    </row>
-    <row r="104" spans="1:70">
+      <c r="BQ103" s="7"/>
+      <c r="BS103" s="7"/>
+    </row>
+    <row r="104" spans="1:71">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="D104" s="7"/>
@@ -12034,9 +12165,10 @@
       <c r="BN104" s="7"/>
       <c r="BO104" s="7"/>
       <c r="BP104" s="7"/>
-      <c r="BR104" s="7"/>
-    </row>
-    <row r="105" spans="1:70">
+      <c r="BQ104" s="7"/>
+      <c r="BS104" s="7"/>
+    </row>
+    <row r="105" spans="1:71">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="D105" s="7"/>
@@ -12104,9 +12236,10 @@
       <c r="BN105" s="7"/>
       <c r="BO105" s="7"/>
       <c r="BP105" s="7"/>
-      <c r="BR105" s="7"/>
-    </row>
-    <row r="106" spans="1:70">
+      <c r="BQ105" s="7"/>
+      <c r="BS105" s="7"/>
+    </row>
+    <row r="106" spans="1:71">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="D106" s="7"/>
@@ -12174,9 +12307,10 @@
       <c r="BN106" s="7"/>
       <c r="BO106" s="7"/>
       <c r="BP106" s="7"/>
-      <c r="BR106" s="7"/>
-    </row>
-    <row r="107" spans="1:70">
+      <c r="BQ106" s="7"/>
+      <c r="BS106" s="7"/>
+    </row>
+    <row r="107" spans="1:71">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="D107" s="7"/>
@@ -12244,9 +12378,10 @@
       <c r="BN107" s="7"/>
       <c r="BO107" s="7"/>
       <c r="BP107" s="7"/>
-      <c r="BR107" s="7"/>
-    </row>
-    <row r="108" spans="1:70">
+      <c r="BQ107" s="7"/>
+      <c r="BS107" s="7"/>
+    </row>
+    <row r="108" spans="1:71">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="D108" s="7"/>
@@ -12314,9 +12449,10 @@
       <c r="BN108" s="7"/>
       <c r="BO108" s="7"/>
       <c r="BP108" s="7"/>
-      <c r="BR108" s="7"/>
-    </row>
-    <row r="109" spans="1:70">
+      <c r="BQ108" s="7"/>
+      <c r="BS108" s="7"/>
+    </row>
+    <row r="109" spans="1:71">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="D109" s="7"/>
@@ -12384,9 +12520,10 @@
       <c r="BN109" s="7"/>
       <c r="BO109" s="7"/>
       <c r="BP109" s="7"/>
-      <c r="BR109" s="7"/>
-    </row>
-    <row r="110" spans="1:70">
+      <c r="BQ109" s="7"/>
+      <c r="BS109" s="7"/>
+    </row>
+    <row r="110" spans="1:71">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="D110" s="7"/>
@@ -12454,9 +12591,10 @@
       <c r="BN110" s="7"/>
       <c r="BO110" s="7"/>
       <c r="BP110" s="7"/>
-      <c r="BR110" s="7"/>
-    </row>
-    <row r="111" spans="1:70">
+      <c r="BQ110" s="7"/>
+      <c r="BS110" s="7"/>
+    </row>
+    <row r="111" spans="1:71">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="D111" s="7"/>
@@ -12524,9 +12662,10 @@
       <c r="BN111" s="7"/>
       <c r="BO111" s="7"/>
       <c r="BP111" s="7"/>
-      <c r="BR111" s="7"/>
-    </row>
-    <row r="112" spans="1:70">
+      <c r="BQ111" s="7"/>
+      <c r="BS111" s="7"/>
+    </row>
+    <row r="112" spans="1:71">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="D112" s="7"/>
@@ -12594,9 +12733,10 @@
       <c r="BN112" s="7"/>
       <c r="BO112" s="7"/>
       <c r="BP112" s="7"/>
-      <c r="BR112" s="7"/>
-    </row>
-    <row r="113" spans="1:70">
+      <c r="BQ112" s="7"/>
+      <c r="BS112" s="7"/>
+    </row>
+    <row r="113" spans="1:71">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="D113" s="7"/>
@@ -12664,9 +12804,10 @@
       <c r="BN113" s="7"/>
       <c r="BO113" s="7"/>
       <c r="BP113" s="7"/>
-      <c r="BR113" s="7"/>
-    </row>
-    <row r="114" spans="1:70">
+      <c r="BQ113" s="7"/>
+      <c r="BS113" s="7"/>
+    </row>
+    <row r="114" spans="1:71">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="D114" s="7"/>
@@ -12734,9 +12875,10 @@
       <c r="BN114" s="7"/>
       <c r="BO114" s="7"/>
       <c r="BP114" s="7"/>
-      <c r="BR114" s="7"/>
-    </row>
-    <row r="115" spans="1:70">
+      <c r="BQ114" s="7"/>
+      <c r="BS114" s="7"/>
+    </row>
+    <row r="115" spans="1:71">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="D115" s="7"/>
@@ -12804,9 +12946,10 @@
       <c r="BN115" s="7"/>
       <c r="BO115" s="7"/>
       <c r="BP115" s="7"/>
-      <c r="BR115" s="7"/>
-    </row>
-    <row r="116" spans="1:70">
+      <c r="BQ115" s="7"/>
+      <c r="BS115" s="7"/>
+    </row>
+    <row r="116" spans="1:71">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="D116" s="7"/>
@@ -12874,9 +13017,10 @@
       <c r="BN116" s="7"/>
       <c r="BO116" s="7"/>
       <c r="BP116" s="7"/>
-      <c r="BR116" s="7"/>
-    </row>
-    <row r="117" spans="1:70">
+      <c r="BQ116" s="7"/>
+      <c r="BS116" s="7"/>
+    </row>
+    <row r="117" spans="1:71">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="D117" s="7"/>
@@ -12944,9 +13088,10 @@
       <c r="BN117" s="7"/>
       <c r="BO117" s="7"/>
       <c r="BP117" s="7"/>
-      <c r="BR117" s="7"/>
-    </row>
-    <row r="118" spans="1:70">
+      <c r="BQ117" s="7"/>
+      <c r="BS117" s="7"/>
+    </row>
+    <row r="118" spans="1:71">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="D118" s="7"/>
@@ -13014,9 +13159,10 @@
       <c r="BN118" s="7"/>
       <c r="BO118" s="7"/>
       <c r="BP118" s="7"/>
-      <c r="BR118" s="7"/>
-    </row>
-    <row r="119" spans="1:70">
+      <c r="BQ118" s="7"/>
+      <c r="BS118" s="7"/>
+    </row>
+    <row r="119" spans="1:71">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="D119" s="7"/>
@@ -13084,9 +13230,10 @@
       <c r="BN119" s="7"/>
       <c r="BO119" s="7"/>
       <c r="BP119" s="7"/>
-      <c r="BR119" s="7"/>
-    </row>
-    <row r="120" spans="1:70">
+      <c r="BQ119" s="7"/>
+      <c r="BS119" s="7"/>
+    </row>
+    <row r="120" spans="1:71">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="D120" s="7"/>
@@ -13154,9 +13301,10 @@
       <c r="BN120" s="7"/>
       <c r="BO120" s="7"/>
       <c r="BP120" s="7"/>
-      <c r="BR120" s="7"/>
-    </row>
-    <row r="121" spans="1:70">
+      <c r="BQ120" s="7"/>
+      <c r="BS120" s="7"/>
+    </row>
+    <row r="121" spans="1:71">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="D121" s="7"/>
@@ -13224,9 +13372,10 @@
       <c r="BN121" s="7"/>
       <c r="BO121" s="7"/>
       <c r="BP121" s="7"/>
-      <c r="BR121" s="7"/>
-    </row>
-    <row r="122" spans="1:70">
+      <c r="BQ121" s="7"/>
+      <c r="BS121" s="7"/>
+    </row>
+    <row r="122" spans="1:71">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="D122" s="7"/>
@@ -13294,9 +13443,10 @@
       <c r="BN122" s="7"/>
       <c r="BO122" s="7"/>
       <c r="BP122" s="7"/>
-      <c r="BR122" s="7"/>
-    </row>
-    <row r="123" spans="1:70">
+      <c r="BQ122" s="7"/>
+      <c r="BS122" s="7"/>
+    </row>
+    <row r="123" spans="1:71">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="D123" s="7"/>
@@ -13364,9 +13514,10 @@
       <c r="BN123" s="7"/>
       <c r="BO123" s="7"/>
       <c r="BP123" s="7"/>
-      <c r="BR123" s="7"/>
-    </row>
-    <row r="124" spans="1:70">
+      <c r="BQ123" s="7"/>
+      <c r="BS123" s="7"/>
+    </row>
+    <row r="124" spans="1:71">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="D124" s="7"/>
@@ -13434,9 +13585,10 @@
       <c r="BN124" s="7"/>
       <c r="BO124" s="7"/>
       <c r="BP124" s="7"/>
-      <c r="BR124" s="7"/>
-    </row>
-    <row r="125" spans="1:70">
+      <c r="BQ124" s="7"/>
+      <c r="BS124" s="7"/>
+    </row>
+    <row r="125" spans="1:71">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="D125" s="7"/>
@@ -13504,9 +13656,10 @@
       <c r="BN125" s="7"/>
       <c r="BO125" s="7"/>
       <c r="BP125" s="7"/>
-      <c r="BR125" s="7"/>
-    </row>
-    <row r="126" spans="1:70">
+      <c r="BQ125" s="7"/>
+      <c r="BS125" s="7"/>
+    </row>
+    <row r="126" spans="1:71">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="D126" s="7"/>
@@ -13574,9 +13727,10 @@
       <c r="BN126" s="7"/>
       <c r="BO126" s="7"/>
       <c r="BP126" s="7"/>
-      <c r="BR126" s="7"/>
-    </row>
-    <row r="127" spans="1:70">
+      <c r="BQ126" s="7"/>
+      <c r="BS126" s="7"/>
+    </row>
+    <row r="127" spans="1:71">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="D127" s="7"/>
@@ -13644,9 +13798,10 @@
       <c r="BN127" s="7"/>
       <c r="BO127" s="7"/>
       <c r="BP127" s="7"/>
-      <c r="BR127" s="7"/>
-    </row>
-    <row r="128" spans="1:70">
+      <c r="BQ127" s="7"/>
+      <c r="BS127" s="7"/>
+    </row>
+    <row r="128" spans="1:71">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="D128" s="7"/>
@@ -13714,9 +13869,10 @@
       <c r="BN128" s="7"/>
       <c r="BO128" s="7"/>
       <c r="BP128" s="7"/>
-      <c r="BR128" s="7"/>
-    </row>
-    <row r="129" spans="1:70">
+      <c r="BQ128" s="7"/>
+      <c r="BS128" s="7"/>
+    </row>
+    <row r="129" spans="1:71">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="D129" s="7"/>
@@ -13784,9 +13940,10 @@
       <c r="BN129" s="7"/>
       <c r="BO129" s="7"/>
       <c r="BP129" s="7"/>
-      <c r="BR129" s="7"/>
-    </row>
-    <row r="130" spans="1:70">
+      <c r="BQ129" s="7"/>
+      <c r="BS129" s="7"/>
+    </row>
+    <row r="130" spans="1:71">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="D130" s="7"/>
@@ -13854,9 +14011,10 @@
       <c r="BN130" s="7"/>
       <c r="BO130" s="7"/>
       <c r="BP130" s="7"/>
-      <c r="BR130" s="7"/>
-    </row>
-    <row r="131" spans="1:70">
+      <c r="BQ130" s="7"/>
+      <c r="BS130" s="7"/>
+    </row>
+    <row r="131" spans="1:71">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="D131" s="7"/>
@@ -13924,9 +14082,10 @@
       <c r="BN131" s="7"/>
       <c r="BO131" s="7"/>
       <c r="BP131" s="7"/>
-      <c r="BR131" s="7"/>
-    </row>
-    <row r="132" spans="1:70">
+      <c r="BQ131" s="7"/>
+      <c r="BS131" s="7"/>
+    </row>
+    <row r="132" spans="1:71">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="D132" s="7"/>
@@ -13994,9 +14153,10 @@
       <c r="BN132" s="7"/>
       <c r="BO132" s="7"/>
       <c r="BP132" s="7"/>
-      <c r="BR132" s="7"/>
-    </row>
-    <row r="133" spans="1:70">
+      <c r="BQ132" s="7"/>
+      <c r="BS132" s="7"/>
+    </row>
+    <row r="133" spans="1:71">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="D133" s="7"/>
@@ -14064,9 +14224,10 @@
       <c r="BN133" s="7"/>
       <c r="BO133" s="7"/>
       <c r="BP133" s="7"/>
-      <c r="BR133" s="7"/>
-    </row>
-    <row r="134" spans="1:70">
+      <c r="BQ133" s="7"/>
+      <c r="BS133" s="7"/>
+    </row>
+    <row r="134" spans="1:71">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="D134" s="7"/>
@@ -14134,9 +14295,10 @@
       <c r="BN134" s="7"/>
       <c r="BO134" s="7"/>
       <c r="BP134" s="7"/>
-      <c r="BR134" s="7"/>
-    </row>
-    <row r="135" spans="1:70">
+      <c r="BQ134" s="7"/>
+      <c r="BS134" s="7"/>
+    </row>
+    <row r="135" spans="1:71">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="D135" s="7"/>
@@ -14204,9 +14366,10 @@
       <c r="BN135" s="7"/>
       <c r="BO135" s="7"/>
       <c r="BP135" s="7"/>
-      <c r="BR135" s="7"/>
-    </row>
-    <row r="136" spans="1:70">
+      <c r="BQ135" s="7"/>
+      <c r="BS135" s="7"/>
+    </row>
+    <row r="136" spans="1:71">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="D136" s="7"/>
@@ -14274,9 +14437,10 @@
       <c r="BN136" s="7"/>
       <c r="BO136" s="7"/>
       <c r="BP136" s="7"/>
-      <c r="BR136" s="7"/>
-    </row>
-    <row r="137" spans="1:70">
+      <c r="BQ136" s="7"/>
+      <c r="BS136" s="7"/>
+    </row>
+    <row r="137" spans="1:71">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="D137" s="7"/>
@@ -14344,9 +14508,10 @@
       <c r="BN137" s="7"/>
       <c r="BO137" s="7"/>
       <c r="BP137" s="7"/>
-      <c r="BR137" s="7"/>
-    </row>
-    <row r="138" spans="1:70">
+      <c r="BQ137" s="7"/>
+      <c r="BS137" s="7"/>
+    </row>
+    <row r="138" spans="1:71">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="D138" s="7"/>
@@ -14414,9 +14579,10 @@
       <c r="BN138" s="7"/>
       <c r="BO138" s="7"/>
       <c r="BP138" s="7"/>
-      <c r="BR138" s="7"/>
-    </row>
-    <row r="139" spans="1:70">
+      <c r="BQ138" s="7"/>
+      <c r="BS138" s="7"/>
+    </row>
+    <row r="139" spans="1:71">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="D139" s="7"/>
@@ -14484,9 +14650,10 @@
       <c r="BN139" s="7"/>
       <c r="BO139" s="7"/>
       <c r="BP139" s="7"/>
-      <c r="BR139" s="7"/>
-    </row>
-    <row r="140" spans="1:70">
+      <c r="BQ139" s="7"/>
+      <c r="BS139" s="7"/>
+    </row>
+    <row r="140" spans="1:71">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="D140" s="7"/>
@@ -14554,9 +14721,10 @@
       <c r="BN140" s="7"/>
       <c r="BO140" s="7"/>
       <c r="BP140" s="7"/>
-      <c r="BR140" s="7"/>
-    </row>
-    <row r="141" spans="1:70">
+      <c r="BQ140" s="7"/>
+      <c r="BS140" s="7"/>
+    </row>
+    <row r="141" spans="1:71">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="D141" s="7"/>
@@ -14624,9 +14792,10 @@
       <c r="BN141" s="7"/>
       <c r="BO141" s="7"/>
       <c r="BP141" s="7"/>
-      <c r="BR141" s="7"/>
-    </row>
-    <row r="142" spans="1:70">
+      <c r="BQ141" s="7"/>
+      <c r="BS141" s="7"/>
+    </row>
+    <row r="142" spans="1:71">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="D142" s="7"/>
@@ -14694,9 +14863,10 @@
       <c r="BN142" s="7"/>
       <c r="BO142" s="7"/>
       <c r="BP142" s="7"/>
-      <c r="BR142" s="7"/>
-    </row>
-    <row r="143" spans="1:70">
+      <c r="BQ142" s="7"/>
+      <c r="BS142" s="7"/>
+    </row>
+    <row r="143" spans="1:71">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="D143" s="7"/>
@@ -14764,9 +14934,10 @@
       <c r="BN143" s="7"/>
       <c r="BO143" s="7"/>
       <c r="BP143" s="7"/>
-      <c r="BR143" s="7"/>
-    </row>
-    <row r="144" spans="1:70">
+      <c r="BQ143" s="7"/>
+      <c r="BS143" s="7"/>
+    </row>
+    <row r="144" spans="1:71">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="D144" s="7"/>
@@ -14834,9 +15005,10 @@
       <c r="BN144" s="7"/>
       <c r="BO144" s="7"/>
       <c r="BP144" s="7"/>
-      <c r="BR144" s="7"/>
-    </row>
-    <row r="145" spans="1:70">
+      <c r="BQ144" s="7"/>
+      <c r="BS144" s="7"/>
+    </row>
+    <row r="145" spans="1:71">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="D145" s="7"/>
@@ -14904,9 +15076,10 @@
       <c r="BN145" s="7"/>
       <c r="BO145" s="7"/>
       <c r="BP145" s="7"/>
-      <c r="BR145" s="7"/>
-    </row>
-    <row r="146" spans="1:70">
+      <c r="BQ145" s="7"/>
+      <c r="BS145" s="7"/>
+    </row>
+    <row r="146" spans="1:71">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="D146" s="7"/>
@@ -14974,9 +15147,10 @@
       <c r="BN146" s="7"/>
       <c r="BO146" s="7"/>
       <c r="BP146" s="7"/>
-      <c r="BR146" s="7"/>
-    </row>
-    <row r="147" spans="1:70">
+      <c r="BQ146" s="7"/>
+      <c r="BS146" s="7"/>
+    </row>
+    <row r="147" spans="1:71">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="D147" s="7"/>
@@ -15044,9 +15218,10 @@
       <c r="BN147" s="7"/>
       <c r="BO147" s="7"/>
       <c r="BP147" s="7"/>
-      <c r="BR147" s="7"/>
-    </row>
-    <row r="148" spans="1:70">
+      <c r="BQ147" s="7"/>
+      <c r="BS147" s="7"/>
+    </row>
+    <row r="148" spans="1:71">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="D148" s="7"/>
@@ -15114,9 +15289,10 @@
       <c r="BN148" s="7"/>
       <c r="BO148" s="7"/>
       <c r="BP148" s="7"/>
-      <c r="BR148" s="7"/>
-    </row>
-    <row r="149" spans="1:70">
+      <c r="BQ148" s="7"/>
+      <c r="BS148" s="7"/>
+    </row>
+    <row r="149" spans="1:71">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="D149" s="7"/>
@@ -15184,9 +15360,10 @@
       <c r="BN149" s="7"/>
       <c r="BO149" s="7"/>
       <c r="BP149" s="7"/>
-      <c r="BR149" s="7"/>
-    </row>
-    <row r="150" spans="1:70">
+      <c r="BQ149" s="7"/>
+      <c r="BS149" s="7"/>
+    </row>
+    <row r="150" spans="1:71">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="D150" s="7"/>
@@ -15254,9 +15431,10 @@
       <c r="BN150" s="7"/>
       <c r="BO150" s="7"/>
       <c r="BP150" s="7"/>
-      <c r="BR150" s="7"/>
-    </row>
-    <row r="151" spans="1:70">
+      <c r="BQ150" s="7"/>
+      <c r="BS150" s="7"/>
+    </row>
+    <row r="151" spans="1:71">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="D151" s="7"/>
@@ -15324,9 +15502,10 @@
       <c r="BN151" s="7"/>
       <c r="BO151" s="7"/>
       <c r="BP151" s="7"/>
-      <c r="BR151" s="7"/>
-    </row>
-    <row r="152" spans="1:70">
+      <c r="BQ151" s="7"/>
+      <c r="BS151" s="7"/>
+    </row>
+    <row r="152" spans="1:71">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="D152" s="7"/>
@@ -15394,9 +15573,10 @@
       <c r="BN152" s="7"/>
       <c r="BO152" s="7"/>
       <c r="BP152" s="7"/>
-      <c r="BR152" s="7"/>
-    </row>
-    <row r="153" spans="1:70">
+      <c r="BQ152" s="7"/>
+      <c r="BS152" s="7"/>
+    </row>
+    <row r="153" spans="1:71">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="D153" s="7"/>
@@ -15464,9 +15644,10 @@
       <c r="BN153" s="7"/>
       <c r="BO153" s="7"/>
       <c r="BP153" s="7"/>
-      <c r="BR153" s="7"/>
-    </row>
-    <row r="154" spans="1:70">
+      <c r="BQ153" s="7"/>
+      <c r="BS153" s="7"/>
+    </row>
+    <row r="154" spans="1:71">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="D154" s="7"/>
@@ -15534,9 +15715,10 @@
       <c r="BN154" s="7"/>
       <c r="BO154" s="7"/>
       <c r="BP154" s="7"/>
-      <c r="BR154" s="7"/>
-    </row>
-    <row r="155" spans="1:70">
+      <c r="BQ154" s="7"/>
+      <c r="BS154" s="7"/>
+    </row>
+    <row r="155" spans="1:71">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="D155" s="7"/>
@@ -15604,9 +15786,10 @@
       <c r="BN155" s="7"/>
       <c r="BO155" s="7"/>
       <c r="BP155" s="7"/>
-      <c r="BR155" s="7"/>
-    </row>
-    <row r="156" spans="1:70">
+      <c r="BQ155" s="7"/>
+      <c r="BS155" s="7"/>
+    </row>
+    <row r="156" spans="1:71">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="D156" s="7"/>
@@ -15674,9 +15857,10 @@
       <c r="BN156" s="7"/>
       <c r="BO156" s="7"/>
       <c r="BP156" s="7"/>
-      <c r="BR156" s="7"/>
-    </row>
-    <row r="157" spans="1:70">
+      <c r="BQ156" s="7"/>
+      <c r="BS156" s="7"/>
+    </row>
+    <row r="157" spans="1:71">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="D157" s="7"/>
@@ -15744,9 +15928,10 @@
       <c r="BN157" s="7"/>
       <c r="BO157" s="7"/>
       <c r="BP157" s="7"/>
-      <c r="BR157" s="7"/>
-    </row>
-    <row r="158" spans="1:70">
+      <c r="BQ157" s="7"/>
+      <c r="BS157" s="7"/>
+    </row>
+    <row r="158" spans="1:71">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="D158" s="7"/>
@@ -15814,9 +15999,10 @@
       <c r="BN158" s="7"/>
       <c r="BO158" s="7"/>
       <c r="BP158" s="7"/>
-      <c r="BR158" s="7"/>
-    </row>
-    <row r="159" spans="1:70">
+      <c r="BQ158" s="7"/>
+      <c r="BS158" s="7"/>
+    </row>
+    <row r="159" spans="1:71">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="D159" s="7"/>
@@ -15884,9 +16070,10 @@
       <c r="BN159" s="7"/>
       <c r="BO159" s="7"/>
       <c r="BP159" s="7"/>
-      <c r="BR159" s="7"/>
-    </row>
-    <row r="160" spans="1:70">
+      <c r="BQ159" s="7"/>
+      <c r="BS159" s="7"/>
+    </row>
+    <row r="160" spans="1:71">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="D160" s="7"/>
@@ -15954,9 +16141,10 @@
       <c r="BN160" s="7"/>
       <c r="BO160" s="7"/>
       <c r="BP160" s="7"/>
-      <c r="BR160" s="7"/>
-    </row>
-    <row r="161" spans="1:70">
+      <c r="BQ160" s="7"/>
+      <c r="BS160" s="7"/>
+    </row>
+    <row r="161" spans="1:71">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="D161" s="7"/>
@@ -16024,9 +16212,10 @@
       <c r="BN161" s="7"/>
       <c r="BO161" s="7"/>
       <c r="BP161" s="7"/>
-      <c r="BR161" s="7"/>
-    </row>
-    <row r="162" spans="1:70">
+      <c r="BQ161" s="7"/>
+      <c r="BS161" s="7"/>
+    </row>
+    <row r="162" spans="1:71">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="D162" s="7"/>
@@ -16094,9 +16283,10 @@
       <c r="BN162" s="7"/>
       <c r="BO162" s="7"/>
       <c r="BP162" s="7"/>
-      <c r="BR162" s="7"/>
-    </row>
-    <row r="163" spans="1:70">
+      <c r="BQ162" s="7"/>
+      <c r="BS162" s="7"/>
+    </row>
+    <row r="163" spans="1:71">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="D163" s="7"/>
@@ -16164,9 +16354,10 @@
       <c r="BN163" s="7"/>
       <c r="BO163" s="7"/>
       <c r="BP163" s="7"/>
-      <c r="BR163" s="7"/>
-    </row>
-    <row r="164" spans="1:70">
+      <c r="BQ163" s="7"/>
+      <c r="BS163" s="7"/>
+    </row>
+    <row r="164" spans="1:71">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="D164" s="7"/>
@@ -16234,9 +16425,10 @@
       <c r="BN164" s="7"/>
       <c r="BO164" s="7"/>
       <c r="BP164" s="7"/>
-      <c r="BR164" s="7"/>
-    </row>
-    <row r="165" spans="1:70">
+      <c r="BQ164" s="7"/>
+      <c r="BS164" s="7"/>
+    </row>
+    <row r="165" spans="1:71">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="D165" s="7"/>
@@ -16304,9 +16496,10 @@
       <c r="BN165" s="7"/>
       <c r="BO165" s="7"/>
       <c r="BP165" s="7"/>
-      <c r="BR165" s="7"/>
-    </row>
-    <row r="166" spans="1:70">
+      <c r="BQ165" s="7"/>
+      <c r="BS165" s="7"/>
+    </row>
+    <row r="166" spans="1:71">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="D166" s="7"/>
@@ -16374,9 +16567,10 @@
       <c r="BN166" s="7"/>
       <c r="BO166" s="7"/>
       <c r="BP166" s="7"/>
-      <c r="BR166" s="7"/>
-    </row>
-    <row r="167" spans="1:70">
+      <c r="BQ166" s="7"/>
+      <c r="BS166" s="7"/>
+    </row>
+    <row r="167" spans="1:71">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="D167" s="7"/>
@@ -16444,9 +16638,10 @@
       <c r="BN167" s="7"/>
       <c r="BO167" s="7"/>
       <c r="BP167" s="7"/>
-      <c r="BR167" s="7"/>
-    </row>
-    <row r="168" spans="1:70">
+      <c r="BQ167" s="7"/>
+      <c r="BS167" s="7"/>
+    </row>
+    <row r="168" spans="1:71">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="D168" s="7"/>
@@ -16514,9 +16709,10 @@
       <c r="BN168" s="7"/>
       <c r="BO168" s="7"/>
       <c r="BP168" s="7"/>
-      <c r="BR168" s="7"/>
-    </row>
-    <row r="169" spans="1:70">
+      <c r="BQ168" s="7"/>
+      <c r="BS168" s="7"/>
+    </row>
+    <row r="169" spans="1:71">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="D169" s="7"/>
@@ -16584,9 +16780,10 @@
       <c r="BN169" s="7"/>
       <c r="BO169" s="7"/>
       <c r="BP169" s="7"/>
-      <c r="BR169" s="7"/>
-    </row>
-    <row r="170" spans="1:70">
+      <c r="BQ169" s="7"/>
+      <c r="BS169" s="7"/>
+    </row>
+    <row r="170" spans="1:71">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="D170" s="7"/>
@@ -16654,9 +16851,10 @@
       <c r="BN170" s="7"/>
       <c r="BO170" s="7"/>
       <c r="BP170" s="7"/>
-      <c r="BR170" s="7"/>
-    </row>
-    <row r="171" spans="1:70">
+      <c r="BQ170" s="7"/>
+      <c r="BS170" s="7"/>
+    </row>
+    <row r="171" spans="1:71">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="D171" s="7"/>
@@ -16724,9 +16922,10 @@
       <c r="BN171" s="7"/>
       <c r="BO171" s="7"/>
       <c r="BP171" s="7"/>
-      <c r="BR171" s="7"/>
-    </row>
-    <row r="172" spans="1:70">
+      <c r="BQ171" s="7"/>
+      <c r="BS171" s="7"/>
+    </row>
+    <row r="172" spans="1:71">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="D172" s="7"/>
@@ -16794,9 +16993,10 @@
       <c r="BN172" s="7"/>
       <c r="BO172" s="7"/>
       <c r="BP172" s="7"/>
-      <c r="BR172" s="7"/>
-    </row>
-    <row r="173" spans="1:70">
+      <c r="BQ172" s="7"/>
+      <c r="BS172" s="7"/>
+    </row>
+    <row r="173" spans="1:71">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="D173" s="7"/>
@@ -16864,9 +17064,10 @@
       <c r="BN173" s="7"/>
       <c r="BO173" s="7"/>
       <c r="BP173" s="7"/>
-      <c r="BR173" s="7"/>
-    </row>
-    <row r="174" spans="1:70">
+      <c r="BQ173" s="7"/>
+      <c r="BS173" s="7"/>
+    </row>
+    <row r="174" spans="1:71">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="D174" s="7"/>
@@ -16934,9 +17135,10 @@
       <c r="BN174" s="7"/>
       <c r="BO174" s="7"/>
       <c r="BP174" s="7"/>
-      <c r="BR174" s="7"/>
-    </row>
-    <row r="175" spans="1:70">
+      <c r="BQ174" s="7"/>
+      <c r="BS174" s="7"/>
+    </row>
+    <row r="175" spans="1:71">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="D175" s="7"/>
@@ -17004,9 +17206,10 @@
       <c r="BN175" s="7"/>
       <c r="BO175" s="7"/>
       <c r="BP175" s="7"/>
-      <c r="BR175" s="7"/>
-    </row>
-    <row r="176" spans="1:70">
+      <c r="BQ175" s="7"/>
+      <c r="BS175" s="7"/>
+    </row>
+    <row r="176" spans="1:71">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="D176" s="7"/>
@@ -17074,9 +17277,10 @@
       <c r="BN176" s="7"/>
       <c r="BO176" s="7"/>
       <c r="BP176" s="7"/>
-      <c r="BR176" s="7"/>
-    </row>
-    <row r="177" spans="1:70">
+      <c r="BQ176" s="7"/>
+      <c r="BS176" s="7"/>
+    </row>
+    <row r="177" spans="1:71">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="D177" s="7"/>
@@ -17144,9 +17348,10 @@
       <c r="BN177" s="7"/>
       <c r="BO177" s="7"/>
       <c r="BP177" s="7"/>
-      <c r="BR177" s="7"/>
-    </row>
-    <row r="178" spans="1:70">
+      <c r="BQ177" s="7"/>
+      <c r="BS177" s="7"/>
+    </row>
+    <row r="178" spans="1:71">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="D178" s="7"/>
@@ -17214,9 +17419,10 @@
       <c r="BN178" s="7"/>
       <c r="BO178" s="7"/>
       <c r="BP178" s="7"/>
-      <c r="BR178" s="7"/>
-    </row>
-    <row r="179" spans="1:70">
+      <c r="BQ178" s="7"/>
+      <c r="BS178" s="7"/>
+    </row>
+    <row r="179" spans="1:71">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="D179" s="7"/>
@@ -17284,9 +17490,10 @@
       <c r="BN179" s="7"/>
       <c r="BO179" s="7"/>
       <c r="BP179" s="7"/>
-      <c r="BR179" s="7"/>
-    </row>
-    <row r="180" spans="1:70">
+      <c r="BQ179" s="7"/>
+      <c r="BS179" s="7"/>
+    </row>
+    <row r="180" spans="1:71">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="D180" s="7"/>
@@ -17354,9 +17561,10 @@
       <c r="BN180" s="7"/>
       <c r="BO180" s="7"/>
       <c r="BP180" s="7"/>
-      <c r="BR180" s="7"/>
-    </row>
-    <row r="181" spans="1:70">
+      <c r="BQ180" s="7"/>
+      <c r="BS180" s="7"/>
+    </row>
+    <row r="181" spans="1:71">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="D181" s="7"/>
@@ -17424,9 +17632,10 @@
       <c r="BN181" s="7"/>
       <c r="BO181" s="7"/>
       <c r="BP181" s="7"/>
-      <c r="BR181" s="7"/>
-    </row>
-    <row r="182" spans="1:70">
+      <c r="BQ181" s="7"/>
+      <c r="BS181" s="7"/>
+    </row>
+    <row r="182" spans="1:71">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="D182" s="7"/>
@@ -17494,9 +17703,10 @@
       <c r="BN182" s="7"/>
       <c r="BO182" s="7"/>
       <c r="BP182" s="7"/>
-      <c r="BR182" s="7"/>
-    </row>
-    <row r="183" spans="1:70">
+      <c r="BQ182" s="7"/>
+      <c r="BS182" s="7"/>
+    </row>
+    <row r="183" spans="1:71">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="D183" s="7"/>
@@ -17564,9 +17774,10 @@
       <c r="BN183" s="7"/>
       <c r="BO183" s="7"/>
       <c r="BP183" s="7"/>
-      <c r="BR183" s="7"/>
-    </row>
-    <row r="184" spans="1:70">
+      <c r="BQ183" s="7"/>
+      <c r="BS183" s="7"/>
+    </row>
+    <row r="184" spans="1:71">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="D184" s="7"/>
@@ -17634,9 +17845,10 @@
       <c r="BN184" s="7"/>
       <c r="BO184" s="7"/>
       <c r="BP184" s="7"/>
-      <c r="BR184" s="7"/>
-    </row>
-    <row r="185" spans="1:70">
+      <c r="BQ184" s="7"/>
+      <c r="BS184" s="7"/>
+    </row>
+    <row r="185" spans="1:71">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="D185" s="7"/>
@@ -17704,9 +17916,10 @@
       <c r="BN185" s="7"/>
       <c r="BO185" s="7"/>
       <c r="BP185" s="7"/>
-      <c r="BR185" s="7"/>
-    </row>
-    <row r="186" spans="1:70">
+      <c r="BQ185" s="7"/>
+      <c r="BS185" s="7"/>
+    </row>
+    <row r="186" spans="1:71">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="D186" s="7"/>
@@ -17774,9 +17987,10 @@
       <c r="BN186" s="7"/>
       <c r="BO186" s="7"/>
       <c r="BP186" s="7"/>
-      <c r="BR186" s="7"/>
-    </row>
-    <row r="187" spans="1:70">
+      <c r="BQ186" s="7"/>
+      <c r="BS186" s="7"/>
+    </row>
+    <row r="187" spans="1:71">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="D187" s="7"/>
@@ -17844,9 +18058,10 @@
       <c r="BN187" s="7"/>
       <c r="BO187" s="7"/>
       <c r="BP187" s="7"/>
-      <c r="BR187" s="7"/>
-    </row>
-    <row r="188" spans="1:70">
+      <c r="BQ187" s="7"/>
+      <c r="BS187" s="7"/>
+    </row>
+    <row r="188" spans="1:71">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="D188" s="7"/>
@@ -17914,9 +18129,10 @@
       <c r="BN188" s="7"/>
       <c r="BO188" s="7"/>
       <c r="BP188" s="7"/>
-      <c r="BR188" s="7"/>
-    </row>
-    <row r="189" spans="1:70">
+      <c r="BQ188" s="7"/>
+      <c r="BS188" s="7"/>
+    </row>
+    <row r="189" spans="1:71">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="D189" s="7"/>
@@ -17984,9 +18200,10 @@
       <c r="BN189" s="7"/>
       <c r="BO189" s="7"/>
       <c r="BP189" s="7"/>
-      <c r="BR189" s="7"/>
-    </row>
-    <row r="190" spans="1:70">
+      <c r="BQ189" s="7"/>
+      <c r="BS189" s="7"/>
+    </row>
+    <row r="190" spans="1:71">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="D190" s="7"/>
@@ -18054,9 +18271,10 @@
       <c r="BN190" s="7"/>
       <c r="BO190" s="7"/>
       <c r="BP190" s="7"/>
-      <c r="BR190" s="7"/>
-    </row>
-    <row r="191" spans="1:70">
+      <c r="BQ190" s="7"/>
+      <c r="BS190" s="7"/>
+    </row>
+    <row r="191" spans="1:71">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="D191" s="7"/>
@@ -18124,9 +18342,10 @@
       <c r="BN191" s="7"/>
       <c r="BO191" s="7"/>
       <c r="BP191" s="7"/>
-      <c r="BR191" s="7"/>
-    </row>
-    <row r="192" spans="1:70">
+      <c r="BQ191" s="7"/>
+      <c r="BS191" s="7"/>
+    </row>
+    <row r="192" spans="1:71">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="D192" s="7"/>
@@ -18194,9 +18413,10 @@
       <c r="BN192" s="7"/>
       <c r="BO192" s="7"/>
       <c r="BP192" s="7"/>
-      <c r="BR192" s="7"/>
-    </row>
-    <row r="193" spans="1:70">
+      <c r="BQ192" s="7"/>
+      <c r="BS192" s="7"/>
+    </row>
+    <row r="193" spans="1:71">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="D193" s="7"/>
@@ -18264,9 +18484,10 @@
       <c r="BN193" s="7"/>
       <c r="BO193" s="7"/>
       <c r="BP193" s="7"/>
-      <c r="BR193" s="7"/>
-    </row>
-    <row r="194" spans="1:70">
+      <c r="BQ193" s="7"/>
+      <c r="BS193" s="7"/>
+    </row>
+    <row r="194" spans="1:71">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="D194" s="7"/>
@@ -18334,9 +18555,10 @@
       <c r="BN194" s="7"/>
       <c r="BO194" s="7"/>
       <c r="BP194" s="7"/>
-      <c r="BR194" s="7"/>
-    </row>
-    <row r="195" spans="1:70">
+      <c r="BQ194" s="7"/>
+      <c r="BS194" s="7"/>
+    </row>
+    <row r="195" spans="1:71">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="D195" s="7"/>
@@ -18404,9 +18626,10 @@
       <c r="BN195" s="7"/>
       <c r="BO195" s="7"/>
       <c r="BP195" s="7"/>
-      <c r="BR195" s="7"/>
-    </row>
-    <row r="196" spans="1:70">
+      <c r="BQ195" s="7"/>
+      <c r="BS195" s="7"/>
+    </row>
+    <row r="196" spans="1:71">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="D196" s="7"/>
@@ -18474,9 +18697,10 @@
       <c r="BN196" s="7"/>
       <c r="BO196" s="7"/>
       <c r="BP196" s="7"/>
-      <c r="BR196" s="7"/>
-    </row>
-    <row r="197" spans="1:70">
+      <c r="BQ196" s="7"/>
+      <c r="BS196" s="7"/>
+    </row>
+    <row r="197" spans="1:71">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="D197" s="7"/>
@@ -18544,9 +18768,10 @@
       <c r="BN197" s="7"/>
       <c r="BO197" s="7"/>
       <c r="BP197" s="7"/>
-      <c r="BR197" s="7"/>
-    </row>
-    <row r="198" spans="1:70">
+      <c r="BQ197" s="7"/>
+      <c r="BS197" s="7"/>
+    </row>
+    <row r="198" spans="1:71">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="D198" s="7"/>
@@ -18614,9 +18839,10 @@
       <c r="BN198" s="7"/>
       <c r="BO198" s="7"/>
       <c r="BP198" s="7"/>
-      <c r="BR198" s="7"/>
-    </row>
-    <row r="199" spans="1:70">
+      <c r="BQ198" s="7"/>
+      <c r="BS198" s="7"/>
+    </row>
+    <row r="199" spans="1:71">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="D199" s="7"/>
@@ -18684,9 +18910,10 @@
       <c r="BN199" s="7"/>
       <c r="BO199" s="7"/>
       <c r="BP199" s="7"/>
-      <c r="BR199" s="7"/>
-    </row>
-    <row r="200" spans="1:70">
+      <c r="BQ199" s="7"/>
+      <c r="BS199" s="7"/>
+    </row>
+    <row r="200" spans="1:71">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="D200" s="7"/>
@@ -18754,9 +18981,10 @@
       <c r="BN200" s="7"/>
       <c r="BO200" s="7"/>
       <c r="BP200" s="7"/>
-      <c r="BR200" s="7"/>
-    </row>
-    <row r="201" spans="1:70">
+      <c r="BQ200" s="7"/>
+      <c r="BS200" s="7"/>
+    </row>
+    <row r="201" spans="1:71">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="D201" s="7"/>
@@ -18824,9 +19052,10 @@
       <c r="BN201" s="7"/>
       <c r="BO201" s="7"/>
       <c r="BP201" s="7"/>
-      <c r="BR201" s="7"/>
-    </row>
-    <row r="202" spans="1:70">
+      <c r="BQ201" s="7"/>
+      <c r="BS201" s="7"/>
+    </row>
+    <row r="202" spans="1:71">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="D202" s="7"/>
@@ -18894,9 +19123,10 @@
       <c r="BN202" s="7"/>
       <c r="BO202" s="7"/>
       <c r="BP202" s="7"/>
-      <c r="BR202" s="7"/>
-    </row>
-    <row r="203" spans="1:70">
+      <c r="BQ202" s="7"/>
+      <c r="BS202" s="7"/>
+    </row>
+    <row r="203" spans="1:71">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="D203" s="7"/>
@@ -18964,9 +19194,10 @@
       <c r="BN203" s="7"/>
       <c r="BO203" s="7"/>
       <c r="BP203" s="7"/>
-      <c r="BR203" s="7"/>
-    </row>
-    <row r="204" spans="1:70">
+      <c r="BQ203" s="7"/>
+      <c r="BS203" s="7"/>
+    </row>
+    <row r="204" spans="1:71">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="D204" s="7"/>
@@ -19034,9 +19265,10 @@
       <c r="BN204" s="7"/>
       <c r="BO204" s="7"/>
       <c r="BP204" s="7"/>
-      <c r="BR204" s="7"/>
-    </row>
-    <row r="205" spans="1:70">
+      <c r="BQ204" s="7"/>
+      <c r="BS204" s="7"/>
+    </row>
+    <row r="205" spans="1:71">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="D205" s="7"/>
@@ -19104,9 +19336,10 @@
       <c r="BN205" s="7"/>
       <c r="BO205" s="7"/>
       <c r="BP205" s="7"/>
-      <c r="BR205" s="7"/>
-    </row>
-    <row r="206" spans="1:70">
+      <c r="BQ205" s="7"/>
+      <c r="BS205" s="7"/>
+    </row>
+    <row r="206" spans="1:71">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="D206" s="7"/>
@@ -19174,9 +19407,10 @@
       <c r="BN206" s="7"/>
       <c r="BO206" s="7"/>
       <c r="BP206" s="7"/>
-      <c r="BR206" s="7"/>
-    </row>
-    <row r="207" spans="1:70">
+      <c r="BQ206" s="7"/>
+      <c r="BS206" s="7"/>
+    </row>
+    <row r="207" spans="1:71">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="D207" s="7"/>
@@ -19244,9 +19478,10 @@
       <c r="BN207" s="7"/>
       <c r="BO207" s="7"/>
       <c r="BP207" s="7"/>
-      <c r="BR207" s="7"/>
-    </row>
-    <row r="208" spans="1:70">
+      <c r="BQ207" s="7"/>
+      <c r="BS207" s="7"/>
+    </row>
+    <row r="208" spans="1:71">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="D208" s="7"/>
@@ -19314,9 +19549,10 @@
       <c r="BN208" s="7"/>
       <c r="BO208" s="7"/>
       <c r="BP208" s="7"/>
-      <c r="BR208" s="7"/>
-    </row>
-    <row r="209" spans="1:70">
+      <c r="BQ208" s="7"/>
+      <c r="BS208" s="7"/>
+    </row>
+    <row r="209" spans="1:71">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="D209" s="7"/>
@@ -19384,9 +19620,10 @@
       <c r="BN209" s="7"/>
       <c r="BO209" s="7"/>
       <c r="BP209" s="7"/>
-      <c r="BR209" s="7"/>
-    </row>
-    <row r="210" spans="1:70">
+      <c r="BQ209" s="7"/>
+      <c r="BS209" s="7"/>
+    </row>
+    <row r="210" spans="1:71">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="D210" s="7"/>
@@ -19454,9 +19691,10 @@
       <c r="BN210" s="7"/>
       <c r="BO210" s="7"/>
       <c r="BP210" s="7"/>
-      <c r="BR210" s="7"/>
-    </row>
-    <row r="211" spans="1:70">
+      <c r="BQ210" s="7"/>
+      <c r="BS210" s="7"/>
+    </row>
+    <row r="211" spans="1:71">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="D211" s="7"/>
@@ -19524,9 +19762,10 @@
       <c r="BN211" s="7"/>
       <c r="BO211" s="7"/>
       <c r="BP211" s="7"/>
-      <c r="BR211" s="7"/>
-    </row>
-    <row r="212" spans="1:70">
+      <c r="BQ211" s="7"/>
+      <c r="BS211" s="7"/>
+    </row>
+    <row r="212" spans="1:71">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="D212" s="7"/>
@@ -19594,9 +19833,10 @@
       <c r="BN212" s="7"/>
       <c r="BO212" s="7"/>
       <c r="BP212" s="7"/>
-      <c r="BR212" s="7"/>
-    </row>
-    <row r="213" spans="1:70">
+      <c r="BQ212" s="7"/>
+      <c r="BS212" s="7"/>
+    </row>
+    <row r="213" spans="1:71">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="D213" s="7"/>
@@ -19664,9 +19904,10 @@
       <c r="BN213" s="7"/>
       <c r="BO213" s="7"/>
       <c r="BP213" s="7"/>
-      <c r="BR213" s="7"/>
-    </row>
-    <row r="214" spans="1:70">
+      <c r="BQ213" s="7"/>
+      <c r="BS213" s="7"/>
+    </row>
+    <row r="214" spans="1:71">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="D214" s="7"/>
@@ -19734,9 +19975,10 @@
       <c r="BN214" s="7"/>
       <c r="BO214" s="7"/>
       <c r="BP214" s="7"/>
-      <c r="BR214" s="7"/>
-    </row>
-    <row r="215" spans="1:70">
+      <c r="BQ214" s="7"/>
+      <c r="BS214" s="7"/>
+    </row>
+    <row r="215" spans="1:71">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="D215" s="7"/>
@@ -19804,9 +20046,10 @@
       <c r="BN215" s="7"/>
       <c r="BO215" s="7"/>
       <c r="BP215" s="7"/>
-      <c r="BR215" s="7"/>
-    </row>
-    <row r="216" spans="1:70">
+      <c r="BQ215" s="7"/>
+      <c r="BS215" s="7"/>
+    </row>
+    <row r="216" spans="1:71">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="D216" s="7"/>
@@ -19874,9 +20117,10 @@
       <c r="BN216" s="7"/>
       <c r="BO216" s="7"/>
       <c r="BP216" s="7"/>
-      <c r="BR216" s="7"/>
-    </row>
-    <row r="217" spans="1:70">
+      <c r="BQ216" s="7"/>
+      <c r="BS216" s="7"/>
+    </row>
+    <row r="217" spans="1:71">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="D217" s="7"/>
@@ -19944,9 +20188,10 @@
       <c r="BN217" s="7"/>
       <c r="BO217" s="7"/>
       <c r="BP217" s="7"/>
-      <c r="BR217" s="7"/>
-    </row>
-    <row r="218" spans="1:70">
+      <c r="BQ217" s="7"/>
+      <c r="BS217" s="7"/>
+    </row>
+    <row r="218" spans="1:71">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="D218" s="7"/>
@@ -20014,9 +20259,10 @@
       <c r="BN218" s="7"/>
       <c r="BO218" s="7"/>
       <c r="BP218" s="7"/>
-      <c r="BR218" s="7"/>
-    </row>
-    <row r="219" spans="1:70">
+      <c r="BQ218" s="7"/>
+      <c r="BS218" s="7"/>
+    </row>
+    <row r="219" spans="1:71">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="D219" s="7"/>
@@ -20084,9 +20330,10 @@
       <c r="BN219" s="7"/>
       <c r="BO219" s="7"/>
       <c r="BP219" s="7"/>
-      <c r="BR219" s="7"/>
-    </row>
-    <row r="220" spans="1:70">
+      <c r="BQ219" s="7"/>
+      <c r="BS219" s="7"/>
+    </row>
+    <row r="220" spans="1:71">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="D220" s="7"/>
@@ -20154,9 +20401,10 @@
       <c r="BN220" s="7"/>
       <c r="BO220" s="7"/>
       <c r="BP220" s="7"/>
-      <c r="BR220" s="7"/>
-    </row>
-    <row r="221" spans="1:70">
+      <c r="BQ220" s="7"/>
+      <c r="BS220" s="7"/>
+    </row>
+    <row r="221" spans="1:71">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="D221" s="7"/>
@@ -20224,9 +20472,10 @@
       <c r="BN221" s="7"/>
       <c r="BO221" s="7"/>
       <c r="BP221" s="7"/>
-      <c r="BR221" s="7"/>
-    </row>
-    <row r="222" spans="1:70">
+      <c r="BQ221" s="7"/>
+      <c r="BS221" s="7"/>
+    </row>
+    <row r="222" spans="1:71">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="D222" s="7"/>
@@ -20294,9 +20543,10 @@
       <c r="BN222" s="7"/>
       <c r="BO222" s="7"/>
       <c r="BP222" s="7"/>
-      <c r="BR222" s="7"/>
-    </row>
-    <row r="223" spans="1:70">
+      <c r="BQ222" s="7"/>
+      <c r="BS222" s="7"/>
+    </row>
+    <row r="223" spans="1:71">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="D223" s="7"/>
@@ -20364,9 +20614,10 @@
       <c r="BN223" s="7"/>
       <c r="BO223" s="7"/>
       <c r="BP223" s="7"/>
-      <c r="BR223" s="7"/>
-    </row>
-    <row r="224" spans="1:70">
+      <c r="BQ223" s="7"/>
+      <c r="BS223" s="7"/>
+    </row>
+    <row r="224" spans="1:71">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="D224" s="7"/>
@@ -20434,9 +20685,10 @@
       <c r="BN224" s="7"/>
       <c r="BO224" s="7"/>
       <c r="BP224" s="7"/>
-      <c r="BR224" s="7"/>
-    </row>
-    <row r="225" spans="1:70">
+      <c r="BQ224" s="7"/>
+      <c r="BS224" s="7"/>
+    </row>
+    <row r="225" spans="1:71">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="D225" s="7"/>
@@ -20504,9 +20756,10 @@
       <c r="BN225" s="7"/>
       <c r="BO225" s="7"/>
       <c r="BP225" s="7"/>
-      <c r="BR225" s="7"/>
-    </row>
-    <row r="226" spans="1:70">
+      <c r="BQ225" s="7"/>
+      <c r="BS225" s="7"/>
+    </row>
+    <row r="226" spans="1:71">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="D226" s="7"/>
@@ -20574,9 +20827,10 @@
       <c r="BN226" s="7"/>
       <c r="BO226" s="7"/>
       <c r="BP226" s="7"/>
-      <c r="BR226" s="7"/>
-    </row>
-    <row r="227" spans="1:70">
+      <c r="BQ226" s="7"/>
+      <c r="BS226" s="7"/>
+    </row>
+    <row r="227" spans="1:71">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="D227" s="7"/>
@@ -20644,9 +20898,10 @@
       <c r="BN227" s="7"/>
       <c r="BO227" s="7"/>
       <c r="BP227" s="7"/>
-      <c r="BR227" s="7"/>
-    </row>
-    <row r="228" spans="1:70">
+      <c r="BQ227" s="7"/>
+      <c r="BS227" s="7"/>
+    </row>
+    <row r="228" spans="1:71">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="D228" s="7"/>
@@ -20714,9 +20969,10 @@
       <c r="BN228" s="7"/>
       <c r="BO228" s="7"/>
       <c r="BP228" s="7"/>
-      <c r="BR228" s="7"/>
-    </row>
-    <row r="229" spans="1:70">
+      <c r="BQ228" s="7"/>
+      <c r="BS228" s="7"/>
+    </row>
+    <row r="229" spans="1:71">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="D229" s="7"/>
@@ -20784,9 +21040,10 @@
       <c r="BN229" s="7"/>
       <c r="BO229" s="7"/>
       <c r="BP229" s="7"/>
-      <c r="BR229" s="7"/>
-    </row>
-    <row r="230" spans="1:70">
+      <c r="BQ229" s="7"/>
+      <c r="BS229" s="7"/>
+    </row>
+    <row r="230" spans="1:71">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="D230" s="7"/>
@@ -20854,9 +21111,10 @@
       <c r="BN230" s="7"/>
       <c r="BO230" s="7"/>
       <c r="BP230" s="7"/>
-      <c r="BR230" s="7"/>
-    </row>
-    <row r="231" spans="1:70">
+      <c r="BQ230" s="7"/>
+      <c r="BS230" s="7"/>
+    </row>
+    <row r="231" spans="1:71">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="D231" s="7"/>
@@ -20924,9 +21182,10 @@
       <c r="BN231" s="7"/>
       <c r="BO231" s="7"/>
       <c r="BP231" s="7"/>
-      <c r="BR231" s="7"/>
-    </row>
-    <row r="232" spans="1:70">
+      <c r="BQ231" s="7"/>
+      <c r="BS231" s="7"/>
+    </row>
+    <row r="232" spans="1:71">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="D232" s="7"/>
@@ -20994,9 +21253,10 @@
       <c r="BN232" s="7"/>
       <c r="BO232" s="7"/>
       <c r="BP232" s="7"/>
-      <c r="BR232" s="7"/>
-    </row>
-    <row r="233" spans="1:70">
+      <c r="BQ232" s="7"/>
+      <c r="BS232" s="7"/>
+    </row>
+    <row r="233" spans="1:71">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="D233" s="7"/>
@@ -21064,9 +21324,10 @@
       <c r="BN233" s="7"/>
       <c r="BO233" s="7"/>
       <c r="BP233" s="7"/>
-      <c r="BR233" s="7"/>
-    </row>
-    <row r="234" spans="1:70">
+      <c r="BQ233" s="7"/>
+      <c r="BS233" s="7"/>
+    </row>
+    <row r="234" spans="1:71">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="D234" s="7"/>
@@ -21134,9 +21395,10 @@
       <c r="BN234" s="7"/>
       <c r="BO234" s="7"/>
       <c r="BP234" s="7"/>
-      <c r="BR234" s="7"/>
-    </row>
-    <row r="235" spans="1:70">
+      <c r="BQ234" s="7"/>
+      <c r="BS234" s="7"/>
+    </row>
+    <row r="235" spans="1:71">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="D235" s="7"/>
@@ -21204,9 +21466,10 @@
       <c r="BN235" s="7"/>
       <c r="BO235" s="7"/>
       <c r="BP235" s="7"/>
-      <c r="BR235" s="7"/>
-    </row>
-    <row r="236" spans="1:70">
+      <c r="BQ235" s="7"/>
+      <c r="BS235" s="7"/>
+    </row>
+    <row r="236" spans="1:71">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="D236" s="7"/>
@@ -21274,9 +21537,10 @@
       <c r="BN236" s="7"/>
       <c r="BO236" s="7"/>
       <c r="BP236" s="7"/>
-      <c r="BR236" s="7"/>
-    </row>
-    <row r="237" spans="1:70">
+      <c r="BQ236" s="7"/>
+      <c r="BS236" s="7"/>
+    </row>
+    <row r="237" spans="1:71">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="D237" s="7"/>
@@ -21344,9 +21608,10 @@
       <c r="BN237" s="7"/>
       <c r="BO237" s="7"/>
       <c r="BP237" s="7"/>
-      <c r="BR237" s="7"/>
-    </row>
-    <row r="238" spans="1:70">
+      <c r="BQ237" s="7"/>
+      <c r="BS237" s="7"/>
+    </row>
+    <row r="238" spans="1:71">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="D238" s="7"/>
@@ -21414,9 +21679,10 @@
       <c r="BN238" s="7"/>
       <c r="BO238" s="7"/>
       <c r="BP238" s="7"/>
-      <c r="BR238" s="7"/>
-    </row>
-    <row r="239" spans="1:70">
+      <c r="BQ238" s="7"/>
+      <c r="BS238" s="7"/>
+    </row>
+    <row r="239" spans="1:71">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="D239" s="7"/>
@@ -21484,9 +21750,10 @@
       <c r="BN239" s="7"/>
       <c r="BO239" s="7"/>
       <c r="BP239" s="7"/>
-      <c r="BR239" s="7"/>
-    </row>
-    <row r="240" spans="1:70">
+      <c r="BQ239" s="7"/>
+      <c r="BS239" s="7"/>
+    </row>
+    <row r="240" spans="1:71">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="D240" s="7"/>
@@ -21554,9 +21821,10 @@
       <c r="BN240" s="7"/>
       <c r="BO240" s="7"/>
       <c r="BP240" s="7"/>
-      <c r="BR240" s="7"/>
-    </row>
-    <row r="241" spans="1:70">
+      <c r="BQ240" s="7"/>
+      <c r="BS240" s="7"/>
+    </row>
+    <row r="241" spans="1:71">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="D241" s="7"/>
@@ -21624,9 +21892,10 @@
       <c r="BN241" s="7"/>
       <c r="BO241" s="7"/>
       <c r="BP241" s="7"/>
-      <c r="BR241" s="7"/>
-    </row>
-    <row r="242" spans="1:70">
+      <c r="BQ241" s="7"/>
+      <c r="BS241" s="7"/>
+    </row>
+    <row r="242" spans="1:71">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="D242" s="7"/>
@@ -21694,9 +21963,10 @@
       <c r="BN242" s="7"/>
       <c r="BO242" s="7"/>
       <c r="BP242" s="7"/>
-      <c r="BR242" s="7"/>
-    </row>
-    <row r="243" spans="1:70">
+      <c r="BQ242" s="7"/>
+      <c r="BS242" s="7"/>
+    </row>
+    <row r="243" spans="1:71">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="D243" s="7"/>
@@ -21764,9 +22034,10 @@
       <c r="BN243" s="7"/>
       <c r="BO243" s="7"/>
       <c r="BP243" s="7"/>
-      <c r="BR243" s="7"/>
-    </row>
-    <row r="244" spans="1:70">
+      <c r="BQ243" s="7"/>
+      <c r="BS243" s="7"/>
+    </row>
+    <row r="244" spans="1:71">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="D244" s="7"/>
@@ -21834,9 +22105,10 @@
       <c r="BN244" s="7"/>
       <c r="BO244" s="7"/>
       <c r="BP244" s="7"/>
-      <c r="BR244" s="7"/>
-    </row>
-    <row r="245" spans="1:70">
+      <c r="BQ244" s="7"/>
+      <c r="BS244" s="7"/>
+    </row>
+    <row r="245" spans="1:71">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="D245" s="7"/>
@@ -21904,9 +22176,10 @@
       <c r="BN245" s="7"/>
       <c r="BO245" s="7"/>
       <c r="BP245" s="7"/>
-      <c r="BR245" s="7"/>
-    </row>
-    <row r="246" spans="1:70">
+      <c r="BQ245" s="7"/>
+      <c r="BS245" s="7"/>
+    </row>
+    <row r="246" spans="1:71">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="D246" s="7"/>
@@ -21974,9 +22247,10 @@
       <c r="BN246" s="7"/>
       <c r="BO246" s="7"/>
       <c r="BP246" s="7"/>
-      <c r="BR246" s="7"/>
-    </row>
-    <row r="247" spans="1:70">
+      <c r="BQ246" s="7"/>
+      <c r="BS246" s="7"/>
+    </row>
+    <row r="247" spans="1:71">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="D247" s="7"/>
@@ -22044,9 +22318,10 @@
       <c r="BN247" s="7"/>
       <c r="BO247" s="7"/>
       <c r="BP247" s="7"/>
-      <c r="BR247" s="7"/>
-    </row>
-    <row r="248" spans="1:70">
+      <c r="BQ247" s="7"/>
+      <c r="BS247" s="7"/>
+    </row>
+    <row r="248" spans="1:71">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="D248" s="7"/>
@@ -22114,9 +22389,10 @@
       <c r="BN248" s="7"/>
       <c r="BO248" s="7"/>
       <c r="BP248" s="7"/>
-      <c r="BR248" s="7"/>
-    </row>
-    <row r="249" spans="1:70">
+      <c r="BQ248" s="7"/>
+      <c r="BS248" s="7"/>
+    </row>
+    <row r="249" spans="1:71">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="D249" s="7"/>
@@ -22184,9 +22460,10 @@
       <c r="BN249" s="7"/>
       <c r="BO249" s="7"/>
       <c r="BP249" s="7"/>
-      <c r="BR249" s="7"/>
-    </row>
-    <row r="250" spans="1:70">
+      <c r="BQ249" s="7"/>
+      <c r="BS249" s="7"/>
+    </row>
+    <row r="250" spans="1:71">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="D250" s="7"/>
@@ -22254,9 +22531,10 @@
       <c r="BN250" s="7"/>
       <c r="BO250" s="7"/>
       <c r="BP250" s="7"/>
-      <c r="BR250" s="7"/>
-    </row>
-    <row r="251" spans="1:70">
+      <c r="BQ250" s="7"/>
+      <c r="BS250" s="7"/>
+    </row>
+    <row r="251" spans="1:71">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="D251" s="7"/>
@@ -22324,9 +22602,10 @@
       <c r="BN251" s="7"/>
       <c r="BO251" s="7"/>
       <c r="BP251" s="7"/>
-      <c r="BR251" s="7"/>
-    </row>
-    <row r="252" spans="1:70">
+      <c r="BQ251" s="7"/>
+      <c r="BS251" s="7"/>
+    </row>
+    <row r="252" spans="1:71">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="D252" s="7"/>
@@ -22394,9 +22673,10 @@
       <c r="BN252" s="7"/>
       <c r="BO252" s="7"/>
       <c r="BP252" s="7"/>
-      <c r="BR252" s="7"/>
-    </row>
-    <row r="253" spans="1:70">
+      <c r="BQ252" s="7"/>
+      <c r="BS252" s="7"/>
+    </row>
+    <row r="253" spans="1:71">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="D253" s="7"/>
@@ -22464,9 +22744,10 @@
       <c r="BN253" s="7"/>
       <c r="BO253" s="7"/>
       <c r="BP253" s="7"/>
-      <c r="BR253" s="7"/>
-    </row>
-    <row r="254" spans="1:70">
+      <c r="BQ253" s="7"/>
+      <c r="BS253" s="7"/>
+    </row>
+    <row r="254" spans="1:71">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="D254" s="7"/>
@@ -22534,9 +22815,10 @@
       <c r="BN254" s="7"/>
       <c r="BO254" s="7"/>
       <c r="BP254" s="7"/>
-      <c r="BR254" s="7"/>
-    </row>
-    <row r="255" spans="1:70">
+      <c r="BQ254" s="7"/>
+      <c r="BS254" s="7"/>
+    </row>
+    <row r="255" spans="1:71">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="D255" s="7"/>
@@ -22604,9 +22886,10 @@
       <c r="BN255" s="7"/>
       <c r="BO255" s="7"/>
       <c r="BP255" s="7"/>
-      <c r="BR255" s="7"/>
-    </row>
-    <row r="256" spans="1:70">
+      <c r="BQ255" s="7"/>
+      <c r="BS255" s="7"/>
+    </row>
+    <row r="256" spans="1:71">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="D256" s="7"/>
@@ -22674,9 +22957,10 @@
       <c r="BN256" s="7"/>
       <c r="BO256" s="7"/>
       <c r="BP256" s="7"/>
-      <c r="BR256" s="7"/>
-    </row>
-    <row r="257" spans="1:70">
+      <c r="BQ256" s="7"/>
+      <c r="BS256" s="7"/>
+    </row>
+    <row r="257" spans="1:71">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="D257" s="7"/>
@@ -22744,9 +23028,10 @@
       <c r="BN257" s="7"/>
       <c r="BO257" s="7"/>
       <c r="BP257" s="7"/>
-      <c r="BR257" s="7"/>
-    </row>
-    <row r="258" spans="1:70">
+      <c r="BQ257" s="7"/>
+      <c r="BS257" s="7"/>
+    </row>
+    <row r="258" spans="1:71">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="D258" s="7"/>
@@ -22814,9 +23099,10 @@
       <c r="BN258" s="7"/>
       <c r="BO258" s="7"/>
       <c r="BP258" s="7"/>
-      <c r="BR258" s="7"/>
-    </row>
-    <row r="259" spans="1:70">
+      <c r="BQ258" s="7"/>
+      <c r="BS258" s="7"/>
+    </row>
+    <row r="259" spans="1:71">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="D259" s="7"/>
@@ -22884,9 +23170,10 @@
       <c r="BN259" s="7"/>
       <c r="BO259" s="7"/>
       <c r="BP259" s="7"/>
-      <c r="BR259" s="7"/>
-    </row>
-    <row r="260" spans="1:70">
+      <c r="BQ259" s="7"/>
+      <c r="BS259" s="7"/>
+    </row>
+    <row r="260" spans="1:71">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="D260" s="7"/>
@@ -22954,9 +23241,10 @@
       <c r="BN260" s="7"/>
       <c r="BO260" s="7"/>
       <c r="BP260" s="7"/>
-      <c r="BR260" s="7"/>
-    </row>
-    <row r="261" spans="1:70">
+      <c r="BQ260" s="7"/>
+      <c r="BS260" s="7"/>
+    </row>
+    <row r="261" spans="1:71">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="D261" s="7"/>
@@ -23024,9 +23312,10 @@
       <c r="BN261" s="7"/>
       <c r="BO261" s="7"/>
       <c r="BP261" s="7"/>
-      <c r="BR261" s="7"/>
-    </row>
-    <row r="262" spans="1:70">
+      <c r="BQ261" s="7"/>
+      <c r="BS261" s="7"/>
+    </row>
+    <row r="262" spans="1:71">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="D262" s="7"/>
@@ -23094,9 +23383,10 @@
       <c r="BN262" s="7"/>
       <c r="BO262" s="7"/>
       <c r="BP262" s="7"/>
-      <c r="BR262" s="7"/>
-    </row>
-    <row r="263" spans="1:70">
+      <c r="BQ262" s="7"/>
+      <c r="BS262" s="7"/>
+    </row>
+    <row r="263" spans="1:71">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="D263" s="7"/>
@@ -23164,9 +23454,10 @@
       <c r="BN263" s="7"/>
       <c r="BO263" s="7"/>
       <c r="BP263" s="7"/>
-      <c r="BR263" s="7"/>
-    </row>
-    <row r="264" spans="1:70">
+      <c r="BQ263" s="7"/>
+      <c r="BS263" s="7"/>
+    </row>
+    <row r="264" spans="1:71">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="D264" s="7"/>
@@ -23234,9 +23525,10 @@
       <c r="BN264" s="7"/>
       <c r="BO264" s="7"/>
       <c r="BP264" s="7"/>
-      <c r="BR264" s="7"/>
-    </row>
-    <row r="265" spans="1:70">
+      <c r="BQ264" s="7"/>
+      <c r="BS264" s="7"/>
+    </row>
+    <row r="265" spans="1:71">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="D265" s="7"/>
@@ -23304,9 +23596,10 @@
       <c r="BN265" s="7"/>
       <c r="BO265" s="7"/>
       <c r="BP265" s="7"/>
-      <c r="BR265" s="7"/>
-    </row>
-    <row r="266" spans="1:70">
+      <c r="BQ265" s="7"/>
+      <c r="BS265" s="7"/>
+    </row>
+    <row r="266" spans="1:71">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="D266" s="7"/>
@@ -23374,9 +23667,10 @@
       <c r="BN266" s="7"/>
       <c r="BO266" s="7"/>
       <c r="BP266" s="7"/>
-      <c r="BR266" s="7"/>
-    </row>
-    <row r="267" spans="1:70">
+      <c r="BQ266" s="7"/>
+      <c r="BS266" s="7"/>
+    </row>
+    <row r="267" spans="1:71">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="D267" s="7"/>
@@ -23444,9 +23738,10 @@
       <c r="BN267" s="7"/>
       <c r="BO267" s="7"/>
       <c r="BP267" s="7"/>
-      <c r="BR267" s="7"/>
-    </row>
-    <row r="268" spans="1:70">
+      <c r="BQ267" s="7"/>
+      <c r="BS267" s="7"/>
+    </row>
+    <row r="268" spans="1:71">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="D268" s="7"/>
@@ -23514,9 +23809,10 @@
       <c r="BN268" s="7"/>
       <c r="BO268" s="7"/>
       <c r="BP268" s="7"/>
-      <c r="BR268" s="7"/>
-    </row>
-    <row r="269" spans="1:70">
+      <c r="BQ268" s="7"/>
+      <c r="BS268" s="7"/>
+    </row>
+    <row r="269" spans="1:71">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="D269" s="7"/>
@@ -23584,9 +23880,10 @@
       <c r="BN269" s="7"/>
       <c r="BO269" s="7"/>
       <c r="BP269" s="7"/>
-      <c r="BR269" s="7"/>
-    </row>
-    <row r="270" spans="1:70">
+      <c r="BQ269" s="7"/>
+      <c r="BS269" s="7"/>
+    </row>
+    <row r="270" spans="1:71">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="D270" s="7"/>
@@ -23654,9 +23951,10 @@
       <c r="BN270" s="7"/>
       <c r="BO270" s="7"/>
       <c r="BP270" s="7"/>
-      <c r="BR270" s="7"/>
-    </row>
-    <row r="271" spans="1:70">
+      <c r="BQ270" s="7"/>
+      <c r="BS270" s="7"/>
+    </row>
+    <row r="271" spans="1:71">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="D271" s="7"/>
@@ -23724,9 +24022,10 @@
       <c r="BN271" s="7"/>
       <c r="BO271" s="7"/>
       <c r="BP271" s="7"/>
-      <c r="BR271" s="7"/>
-    </row>
-    <row r="272" spans="1:70">
+      <c r="BQ271" s="7"/>
+      <c r="BS271" s="7"/>
+    </row>
+    <row r="272" spans="1:71">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="D272" s="7"/>
@@ -23794,9 +24093,10 @@
       <c r="BN272" s="7"/>
       <c r="BO272" s="7"/>
       <c r="BP272" s="7"/>
-      <c r="BR272" s="7"/>
-    </row>
-    <row r="273" spans="1:70">
+      <c r="BQ272" s="7"/>
+      <c r="BS272" s="7"/>
+    </row>
+    <row r="273" spans="1:71">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="D273" s="7"/>
@@ -23864,9 +24164,10 @@
       <c r="BN273" s="7"/>
       <c r="BO273" s="7"/>
       <c r="BP273" s="7"/>
-      <c r="BR273" s="7"/>
-    </row>
-    <row r="274" spans="1:70">
+      <c r="BQ273" s="7"/>
+      <c r="BS273" s="7"/>
+    </row>
+    <row r="274" spans="1:71">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="D274" s="7"/>
@@ -23934,9 +24235,10 @@
       <c r="BN274" s="7"/>
       <c r="BO274" s="7"/>
       <c r="BP274" s="7"/>
-      <c r="BR274" s="7"/>
-    </row>
-    <row r="275" spans="1:70">
+      <c r="BQ274" s="7"/>
+      <c r="BS274" s="7"/>
+    </row>
+    <row r="275" spans="1:71">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="D275" s="7"/>
@@ -24004,9 +24306,10 @@
       <c r="BN275" s="7"/>
       <c r="BO275" s="7"/>
       <c r="BP275" s="7"/>
-      <c r="BR275" s="7"/>
-    </row>
-    <row r="276" spans="1:70">
+      <c r="BQ275" s="7"/>
+      <c r="BS275" s="7"/>
+    </row>
+    <row r="276" spans="1:71">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="D276" s="7"/>
@@ -24074,9 +24377,10 @@
       <c r="BN276" s="7"/>
       <c r="BO276" s="7"/>
       <c r="BP276" s="7"/>
-      <c r="BR276" s="7"/>
-    </row>
-    <row r="277" spans="1:70">
+      <c r="BQ276" s="7"/>
+      <c r="BS276" s="7"/>
+    </row>
+    <row r="277" spans="1:71">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="D277" s="7"/>
@@ -24144,9 +24448,10 @@
       <c r="BN277" s="7"/>
       <c r="BO277" s="7"/>
       <c r="BP277" s="7"/>
-      <c r="BR277" s="7"/>
-    </row>
-    <row r="278" spans="1:70">
+      <c r="BQ277" s="7"/>
+      <c r="BS277" s="7"/>
+    </row>
+    <row r="278" spans="1:71">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="D278" s="7"/>
@@ -24214,9 +24519,10 @@
       <c r="BN278" s="7"/>
       <c r="BO278" s="7"/>
       <c r="BP278" s="7"/>
-      <c r="BR278" s="7"/>
-    </row>
-    <row r="279" spans="1:70">
+      <c r="BQ278" s="7"/>
+      <c r="BS278" s="7"/>
+    </row>
+    <row r="279" spans="1:71">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="D279" s="7"/>
@@ -24284,9 +24590,10 @@
       <c r="BN279" s="7"/>
       <c r="BO279" s="7"/>
       <c r="BP279" s="7"/>
-      <c r="BR279" s="7"/>
-    </row>
-    <row r="280" spans="1:70">
+      <c r="BQ279" s="7"/>
+      <c r="BS279" s="7"/>
+    </row>
+    <row r="280" spans="1:71">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="D280" s="7"/>
@@ -24354,9 +24661,10 @@
       <c r="BN280" s="7"/>
       <c r="BO280" s="7"/>
       <c r="BP280" s="7"/>
-      <c r="BR280" s="7"/>
-    </row>
-    <row r="281" spans="1:70">
+      <c r="BQ280" s="7"/>
+      <c r="BS280" s="7"/>
+    </row>
+    <row r="281" spans="1:71">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="D281" s="7"/>
@@ -24424,9 +24732,10 @@
       <c r="BN281" s="7"/>
       <c r="BO281" s="7"/>
       <c r="BP281" s="7"/>
-      <c r="BR281" s="7"/>
-    </row>
-    <row r="282" spans="1:70">
+      <c r="BQ281" s="7"/>
+      <c r="BS281" s="7"/>
+    </row>
+    <row r="282" spans="1:71">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="D282" s="7"/>
@@ -24494,9 +24803,10 @@
       <c r="BN282" s="7"/>
       <c r="BO282" s="7"/>
       <c r="BP282" s="7"/>
-      <c r="BR282" s="7"/>
-    </row>
-    <row r="283" spans="1:70">
+      <c r="BQ282" s="7"/>
+      <c r="BS282" s="7"/>
+    </row>
+    <row r="283" spans="1:71">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="D283" s="7"/>
@@ -24564,9 +24874,10 @@
       <c r="BN283" s="7"/>
       <c r="BO283" s="7"/>
       <c r="BP283" s="7"/>
-      <c r="BR283" s="7"/>
-    </row>
-    <row r="284" spans="1:70">
+      <c r="BQ283" s="7"/>
+      <c r="BS283" s="7"/>
+    </row>
+    <row r="284" spans="1:71">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="D284" s="7"/>
@@ -24634,9 +24945,10 @@
       <c r="BN284" s="7"/>
       <c r="BO284" s="7"/>
       <c r="BP284" s="7"/>
-      <c r="BR284" s="7"/>
-    </row>
-    <row r="285" spans="1:70">
+      <c r="BQ284" s="7"/>
+      <c r="BS284" s="7"/>
+    </row>
+    <row r="285" spans="1:71">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="D285" s="7"/>
@@ -24704,9 +25016,10 @@
       <c r="BN285" s="7"/>
       <c r="BO285" s="7"/>
       <c r="BP285" s="7"/>
-      <c r="BR285" s="7"/>
-    </row>
-    <row r="286" spans="1:70">
+      <c r="BQ285" s="7"/>
+      <c r="BS285" s="7"/>
+    </row>
+    <row r="286" spans="1:71">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="D286" s="7"/>
@@ -24774,9 +25087,10 @@
       <c r="BN286" s="7"/>
       <c r="BO286" s="7"/>
       <c r="BP286" s="7"/>
-      <c r="BR286" s="7"/>
-    </row>
-    <row r="287" spans="1:70">
+      <c r="BQ286" s="7"/>
+      <c r="BS286" s="7"/>
+    </row>
+    <row r="287" spans="1:71">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="D287" s="7"/>
@@ -24844,9 +25158,10 @@
       <c r="BN287" s="7"/>
       <c r="BO287" s="7"/>
       <c r="BP287" s="7"/>
-      <c r="BR287" s="7"/>
-    </row>
-    <row r="288" spans="1:70">
+      <c r="BQ287" s="7"/>
+      <c r="BS287" s="7"/>
+    </row>
+    <row r="288" spans="1:71">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="D288" s="7"/>
@@ -24914,9 +25229,10 @@
       <c r="BN288" s="7"/>
       <c r="BO288" s="7"/>
       <c r="BP288" s="7"/>
-      <c r="BR288" s="7"/>
-    </row>
-    <row r="289" spans="1:70">
+      <c r="BQ288" s="7"/>
+      <c r="BS288" s="7"/>
+    </row>
+    <row r="289" spans="1:71">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="D289" s="7"/>
@@ -24984,9 +25300,10 @@
       <c r="BN289" s="7"/>
       <c r="BO289" s="7"/>
       <c r="BP289" s="7"/>
-      <c r="BR289" s="7"/>
-    </row>
-    <row r="290" spans="1:70">
+      <c r="BQ289" s="7"/>
+      <c r="BS289" s="7"/>
+    </row>
+    <row r="290" spans="1:71">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="D290" s="7"/>
@@ -25054,9 +25371,10 @@
       <c r="BN290" s="7"/>
       <c r="BO290" s="7"/>
       <c r="BP290" s="7"/>
-      <c r="BR290" s="7"/>
-    </row>
-    <row r="291" spans="1:70">
+      <c r="BQ290" s="7"/>
+      <c r="BS290" s="7"/>
+    </row>
+    <row r="291" spans="1:71">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="D291" s="7"/>
@@ -25124,9 +25442,10 @@
       <c r="BN291" s="7"/>
       <c r="BO291" s="7"/>
       <c r="BP291" s="7"/>
-      <c r="BR291" s="7"/>
-    </row>
-    <row r="292" spans="1:70">
+      <c r="BQ291" s="7"/>
+      <c r="BS291" s="7"/>
+    </row>
+    <row r="292" spans="1:71">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="D292" s="7"/>
@@ -25194,9 +25513,10 @@
       <c r="BN292" s="7"/>
       <c r="BO292" s="7"/>
       <c r="BP292" s="7"/>
-      <c r="BR292" s="7"/>
-    </row>
-    <row r="293" spans="1:70">
+      <c r="BQ292" s="7"/>
+      <c r="BS292" s="7"/>
+    </row>
+    <row r="293" spans="1:71">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="D293" s="7"/>
@@ -25264,9 +25584,10 @@
       <c r="BN293" s="7"/>
       <c r="BO293" s="7"/>
       <c r="BP293" s="7"/>
-      <c r="BR293" s="7"/>
-    </row>
-    <row r="294" spans="1:70">
+      <c r="BQ293" s="7"/>
+      <c r="BS293" s="7"/>
+    </row>
+    <row r="294" spans="1:71">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="D294" s="7"/>
@@ -25334,9 +25655,10 @@
       <c r="BN294" s="7"/>
       <c r="BO294" s="7"/>
       <c r="BP294" s="7"/>
-      <c r="BR294" s="7"/>
-    </row>
-    <row r="295" spans="1:70">
+      <c r="BQ294" s="7"/>
+      <c r="BS294" s="7"/>
+    </row>
+    <row r="295" spans="1:71">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="D295" s="7"/>
@@ -25404,9 +25726,10 @@
       <c r="BN295" s="7"/>
       <c r="BO295" s="7"/>
       <c r="BP295" s="7"/>
-      <c r="BR295" s="7"/>
-    </row>
-    <row r="296" spans="1:70">
+      <c r="BQ295" s="7"/>
+      <c r="BS295" s="7"/>
+    </row>
+    <row r="296" spans="1:71">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="D296" s="7"/>
@@ -25474,9 +25797,10 @@
       <c r="BN296" s="7"/>
       <c r="BO296" s="7"/>
       <c r="BP296" s="7"/>
-      <c r="BR296" s="7"/>
-    </row>
-    <row r="297" spans="1:70">
+      <c r="BQ296" s="7"/>
+      <c r="BS296" s="7"/>
+    </row>
+    <row r="297" spans="1:71">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="D297" s="7"/>
@@ -25544,9 +25868,10 @@
       <c r="BN297" s="7"/>
       <c r="BO297" s="7"/>
       <c r="BP297" s="7"/>
-      <c r="BR297" s="7"/>
-    </row>
-    <row r="298" spans="1:70">
+      <c r="BQ297" s="7"/>
+      <c r="BS297" s="7"/>
+    </row>
+    <row r="298" spans="1:71">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="D298" s="7"/>
@@ -25614,9 +25939,10 @@
       <c r="BN298" s="7"/>
       <c r="BO298" s="7"/>
       <c r="BP298" s="7"/>
-      <c r="BR298" s="7"/>
-    </row>
-    <row r="299" spans="1:70">
+      <c r="BQ298" s="7"/>
+      <c r="BS298" s="7"/>
+    </row>
+    <row r="299" spans="1:71">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="D299" s="7"/>
@@ -25684,9 +26010,10 @@
       <c r="BN299" s="7"/>
       <c r="BO299" s="7"/>
       <c r="BP299" s="7"/>
-      <c r="BR299" s="7"/>
-    </row>
-    <row r="300" spans="1:70">
+      <c r="BQ299" s="7"/>
+      <c r="BS299" s="7"/>
+    </row>
+    <row r="300" spans="1:71">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="D300" s="7"/>
@@ -25754,9 +26081,10 @@
       <c r="BN300" s="7"/>
       <c r="BO300" s="7"/>
       <c r="BP300" s="7"/>
-      <c r="BR300" s="7"/>
-    </row>
-    <row r="301" spans="1:70">
+      <c r="BQ300" s="7"/>
+      <c r="BS300" s="7"/>
+    </row>
+    <row r="301" spans="1:71">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="D301" s="7"/>
@@ -25824,9 +26152,10 @@
       <c r="BN301" s="7"/>
       <c r="BO301" s="7"/>
       <c r="BP301" s="7"/>
-      <c r="BR301" s="7"/>
-    </row>
-    <row r="302" spans="1:70">
+      <c r="BQ301" s="7"/>
+      <c r="BS301" s="7"/>
+    </row>
+    <row r="302" spans="1:71">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="D302" s="7"/>
@@ -25894,9 +26223,10 @@
       <c r="BN302" s="7"/>
       <c r="BO302" s="7"/>
       <c r="BP302" s="7"/>
-      <c r="BR302" s="7"/>
-    </row>
-    <row r="303" spans="1:70">
+      <c r="BQ302" s="7"/>
+      <c r="BS302" s="7"/>
+    </row>
+    <row r="303" spans="1:71">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="D303" s="7"/>
@@ -25964,9 +26294,10 @@
       <c r="BN303" s="7"/>
       <c r="BO303" s="7"/>
       <c r="BP303" s="7"/>
-      <c r="BR303" s="7"/>
-    </row>
-    <row r="304" spans="1:70">
+      <c r="BQ303" s="7"/>
+      <c r="BS303" s="7"/>
+    </row>
+    <row r="304" spans="1:71">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="D304" s="7"/>
@@ -26034,9 +26365,10 @@
       <c r="BN304" s="7"/>
       <c r="BO304" s="7"/>
       <c r="BP304" s="7"/>
-      <c r="BR304" s="7"/>
-    </row>
-    <row r="305" spans="1:70">
+      <c r="BQ304" s="7"/>
+      <c r="BS304" s="7"/>
+    </row>
+    <row r="305" spans="1:71">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="D305" s="7"/>
@@ -26104,9 +26436,10 @@
       <c r="BN305" s="7"/>
       <c r="BO305" s="7"/>
       <c r="BP305" s="7"/>
-      <c r="BR305" s="7"/>
-    </row>
-    <row r="306" spans="1:70">
+      <c r="BQ305" s="7"/>
+      <c r="BS305" s="7"/>
+    </row>
+    <row r="306" spans="1:71">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="D306" s="7"/>
@@ -26174,9 +26507,10 @@
       <c r="BN306" s="7"/>
       <c r="BO306" s="7"/>
       <c r="BP306" s="7"/>
-      <c r="BR306" s="7"/>
-    </row>
-    <row r="307" spans="1:70">
+      <c r="BQ306" s="7"/>
+      <c r="BS306" s="7"/>
+    </row>
+    <row r="307" spans="1:71">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="D307" s="7"/>
@@ -26244,9 +26578,10 @@
       <c r="BN307" s="7"/>
       <c r="BO307" s="7"/>
       <c r="BP307" s="7"/>
-      <c r="BR307" s="7"/>
-    </row>
-    <row r="308" spans="1:70">
+      <c r="BQ307" s="7"/>
+      <c r="BS307" s="7"/>
+    </row>
+    <row r="308" spans="1:71">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="D308" s="7"/>
@@ -26314,9 +26649,10 @@
       <c r="BN308" s="7"/>
       <c r="BO308" s="7"/>
       <c r="BP308" s="7"/>
-      <c r="BR308" s="7"/>
-    </row>
-    <row r="309" spans="1:70">
+      <c r="BQ308" s="7"/>
+      <c r="BS308" s="7"/>
+    </row>
+    <row r="309" spans="1:71">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="D309" s="7"/>
@@ -26384,9 +26720,10 @@
       <c r="BN309" s="7"/>
       <c r="BO309" s="7"/>
       <c r="BP309" s="7"/>
-      <c r="BR309" s="7"/>
-    </row>
-    <row r="310" spans="1:70">
+      <c r="BQ309" s="7"/>
+      <c r="BS309" s="7"/>
+    </row>
+    <row r="310" spans="1:71">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="D310" s="7"/>
@@ -26454,9 +26791,10 @@
       <c r="BN310" s="7"/>
       <c r="BO310" s="7"/>
       <c r="BP310" s="7"/>
-      <c r="BR310" s="7"/>
-    </row>
-    <row r="311" spans="1:70">
+      <c r="BQ310" s="7"/>
+      <c r="BS310" s="7"/>
+    </row>
+    <row r="311" spans="1:71">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="D311" s="7"/>
@@ -26524,9 +26862,10 @@
       <c r="BN311" s="7"/>
       <c r="BO311" s="7"/>
       <c r="BP311" s="7"/>
-      <c r="BR311" s="7"/>
-    </row>
-    <row r="312" spans="1:70">
+      <c r="BQ311" s="7"/>
+      <c r="BS311" s="7"/>
+    </row>
+    <row r="312" spans="1:71">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="D312" s="7"/>
@@ -26594,9 +26933,10 @@
       <c r="BN312" s="7"/>
       <c r="BO312" s="7"/>
       <c r="BP312" s="7"/>
-      <c r="BR312" s="7"/>
-    </row>
-    <row r="313" spans="1:70">
+      <c r="BQ312" s="7"/>
+      <c r="BS312" s="7"/>
+    </row>
+    <row r="313" spans="1:71">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="D313" s="7"/>
@@ -26664,9 +27004,10 @@
       <c r="BN313" s="7"/>
       <c r="BO313" s="7"/>
       <c r="BP313" s="7"/>
-      <c r="BR313" s="7"/>
-    </row>
-    <row r="314" spans="1:70">
+      <c r="BQ313" s="7"/>
+      <c r="BS313" s="7"/>
+    </row>
+    <row r="314" spans="1:71">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="D314" s="7"/>
@@ -26734,9 +27075,10 @@
       <c r="BN314" s="7"/>
       <c r="BO314" s="7"/>
       <c r="BP314" s="7"/>
-      <c r="BR314" s="7"/>
-    </row>
-    <row r="315" spans="1:70">
+      <c r="BQ314" s="7"/>
+      <c r="BS314" s="7"/>
+    </row>
+    <row r="315" spans="1:71">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="D315" s="7"/>
@@ -26804,9 +27146,10 @@
       <c r="BN315" s="7"/>
       <c r="BO315" s="7"/>
       <c r="BP315" s="7"/>
-      <c r="BR315" s="7"/>
-    </row>
-    <row r="316" spans="1:70">
+      <c r="BQ315" s="7"/>
+      <c r="BS315" s="7"/>
+    </row>
+    <row r="316" spans="1:71">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="D316" s="7"/>
@@ -26874,9 +27217,10 @@
       <c r="BN316" s="7"/>
       <c r="BO316" s="7"/>
       <c r="BP316" s="7"/>
-      <c r="BR316" s="7"/>
-    </row>
-    <row r="317" spans="1:70">
+      <c r="BQ316" s="7"/>
+      <c r="BS316" s="7"/>
+    </row>
+    <row r="317" spans="1:71">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="D317" s="7"/>
@@ -26944,9 +27288,10 @@
       <c r="BN317" s="7"/>
       <c r="BO317" s="7"/>
       <c r="BP317" s="7"/>
-      <c r="BR317" s="7"/>
-    </row>
-    <row r="318" spans="1:70">
+      <c r="BQ317" s="7"/>
+      <c r="BS317" s="7"/>
+    </row>
+    <row r="318" spans="1:71">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="D318" s="7"/>
@@ -27014,9 +27359,10 @@
       <c r="BN318" s="7"/>
       <c r="BO318" s="7"/>
       <c r="BP318" s="7"/>
-      <c r="BR318" s="7"/>
-    </row>
-    <row r="319" spans="1:70">
+      <c r="BQ318" s="7"/>
+      <c r="BS318" s="7"/>
+    </row>
+    <row r="319" spans="1:71">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="D319" s="7"/>
@@ -27084,9 +27430,10 @@
       <c r="BN319" s="7"/>
       <c r="BO319" s="7"/>
       <c r="BP319" s="7"/>
-      <c r="BR319" s="7"/>
-    </row>
-    <row r="320" spans="1:70">
+      <c r="BQ319" s="7"/>
+      <c r="BS319" s="7"/>
+    </row>
+    <row r="320" spans="1:71">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="D320" s="7"/>
@@ -27154,9 +27501,10 @@
       <c r="BN320" s="7"/>
       <c r="BO320" s="7"/>
       <c r="BP320" s="7"/>
-      <c r="BR320" s="7"/>
-    </row>
-    <row r="321" spans="1:70">
+      <c r="BQ320" s="7"/>
+      <c r="BS320" s="7"/>
+    </row>
+    <row r="321" spans="1:71">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="D321" s="7"/>
@@ -27224,9 +27572,10 @@
       <c r="BN321" s="7"/>
       <c r="BO321" s="7"/>
       <c r="BP321" s="7"/>
-      <c r="BR321" s="7"/>
-    </row>
-    <row r="322" spans="1:70">
+      <c r="BQ321" s="7"/>
+      <c r="BS321" s="7"/>
+    </row>
+    <row r="322" spans="1:71">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="D322" s="7"/>
@@ -27294,9 +27643,10 @@
       <c r="BN322" s="7"/>
       <c r="BO322" s="7"/>
       <c r="BP322" s="7"/>
-      <c r="BR322" s="7"/>
-    </row>
-    <row r="323" spans="1:70">
+      <c r="BQ322" s="7"/>
+      <c r="BS322" s="7"/>
+    </row>
+    <row r="323" spans="1:71">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="D323" s="7"/>
@@ -27364,9 +27714,10 @@
       <c r="BN323" s="7"/>
       <c r="BO323" s="7"/>
       <c r="BP323" s="7"/>
-      <c r="BR323" s="7"/>
-    </row>
-    <row r="324" spans="1:70">
+      <c r="BQ323" s="7"/>
+      <c r="BS323" s="7"/>
+    </row>
+    <row r="324" spans="1:71">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="D324" s="7"/>
@@ -27434,9 +27785,10 @@
       <c r="BN324" s="7"/>
       <c r="BO324" s="7"/>
       <c r="BP324" s="7"/>
-      <c r="BR324" s="7"/>
-    </row>
-    <row r="325" spans="1:70">
+      <c r="BQ324" s="7"/>
+      <c r="BS324" s="7"/>
+    </row>
+    <row r="325" spans="1:71">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="D325" s="7"/>
@@ -27504,9 +27856,10 @@
       <c r="BN325" s="7"/>
       <c r="BO325" s="7"/>
       <c r="BP325" s="7"/>
-      <c r="BR325" s="7"/>
-    </row>
-    <row r="326" spans="1:70">
+      <c r="BQ325" s="7"/>
+      <c r="BS325" s="7"/>
+    </row>
+    <row r="326" spans="1:71">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="D326" s="7"/>
@@ -27574,9 +27927,10 @@
       <c r="BN326" s="7"/>
       <c r="BO326" s="7"/>
       <c r="BP326" s="7"/>
-      <c r="BR326" s="7"/>
-    </row>
-    <row r="327" spans="1:70">
+      <c r="BQ326" s="7"/>
+      <c r="BS326" s="7"/>
+    </row>
+    <row r="327" spans="1:71">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="D327" s="7"/>
@@ -27644,9 +27998,10 @@
       <c r="BN327" s="7"/>
       <c r="BO327" s="7"/>
       <c r="BP327" s="7"/>
-      <c r="BR327" s="7"/>
-    </row>
-    <row r="328" spans="1:70">
+      <c r="BQ327" s="7"/>
+      <c r="BS327" s="7"/>
+    </row>
+    <row r="328" spans="1:71">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="D328" s="7"/>
@@ -27714,9 +28069,10 @@
       <c r="BN328" s="7"/>
       <c r="BO328" s="7"/>
       <c r="BP328" s="7"/>
-      <c r="BR328" s="7"/>
-    </row>
-    <row r="329" spans="1:70">
+      <c r="BQ328" s="7"/>
+      <c r="BS328" s="7"/>
+    </row>
+    <row r="329" spans="1:71">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="D329" s="7"/>
@@ -27784,9 +28140,10 @@
       <c r="BN329" s="7"/>
       <c r="BO329" s="7"/>
       <c r="BP329" s="7"/>
-      <c r="BR329" s="7"/>
-    </row>
-    <row r="330" spans="1:70">
+      <c r="BQ329" s="7"/>
+      <c r="BS329" s="7"/>
+    </row>
+    <row r="330" spans="1:71">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="D330" s="7"/>
@@ -27854,9 +28211,10 @@
       <c r="BN330" s="7"/>
       <c r="BO330" s="7"/>
       <c r="BP330" s="7"/>
-      <c r="BR330" s="7"/>
-    </row>
-    <row r="331" spans="1:70">
+      <c r="BQ330" s="7"/>
+      <c r="BS330" s="7"/>
+    </row>
+    <row r="331" spans="1:71">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="D331" s="7"/>
@@ -27924,9 +28282,10 @@
       <c r="BN331" s="7"/>
       <c r="BO331" s="7"/>
       <c r="BP331" s="7"/>
-      <c r="BR331" s="7"/>
-    </row>
-    <row r="332" spans="1:70">
+      <c r="BQ331" s="7"/>
+      <c r="BS331" s="7"/>
+    </row>
+    <row r="332" spans="1:71">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="D332" s="7"/>
@@ -27994,9 +28353,10 @@
       <c r="BN332" s="7"/>
       <c r="BO332" s="7"/>
       <c r="BP332" s="7"/>
-      <c r="BR332" s="7"/>
-    </row>
-    <row r="333" spans="1:70">
+      <c r="BQ332" s="7"/>
+      <c r="BS332" s="7"/>
+    </row>
+    <row r="333" spans="1:71">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="D333" s="7"/>
@@ -28064,9 +28424,10 @@
       <c r="BN333" s="7"/>
       <c r="BO333" s="7"/>
       <c r="BP333" s="7"/>
-      <c r="BR333" s="7"/>
-    </row>
-    <row r="334" spans="1:70">
+      <c r="BQ333" s="7"/>
+      <c r="BS333" s="7"/>
+    </row>
+    <row r="334" spans="1:71">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="D334" s="7"/>
@@ -28134,9 +28495,10 @@
       <c r="BN334" s="7"/>
       <c r="BO334" s="7"/>
       <c r="BP334" s="7"/>
-      <c r="BR334" s="7"/>
-    </row>
-    <row r="335" spans="1:70">
+      <c r="BQ334" s="7"/>
+      <c r="BS334" s="7"/>
+    </row>
+    <row r="335" spans="1:71">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="D335" s="7"/>
@@ -28204,9 +28566,10 @@
       <c r="BN335" s="7"/>
       <c r="BO335" s="7"/>
       <c r="BP335" s="7"/>
-      <c r="BR335" s="7"/>
-    </row>
-    <row r="336" spans="1:70">
+      <c r="BQ335" s="7"/>
+      <c r="BS335" s="7"/>
+    </row>
+    <row r="336" spans="1:71">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="D336" s="7"/>
@@ -28274,9 +28637,10 @@
       <c r="BN336" s="7"/>
       <c r="BO336" s="7"/>
       <c r="BP336" s="7"/>
-      <c r="BR336" s="7"/>
-    </row>
-    <row r="337" spans="1:70">
+      <c r="BQ336" s="7"/>
+      <c r="BS336" s="7"/>
+    </row>
+    <row r="337" spans="1:71">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="D337" s="7"/>
@@ -28344,9 +28708,10 @@
       <c r="BN337" s="7"/>
       <c r="BO337" s="7"/>
       <c r="BP337" s="7"/>
-      <c r="BR337" s="7"/>
-    </row>
-    <row r="338" spans="1:70">
+      <c r="BQ337" s="7"/>
+      <c r="BS337" s="7"/>
+    </row>
+    <row r="338" spans="1:71">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="D338" s="7"/>
@@ -28414,9 +28779,10 @@
       <c r="BN338" s="7"/>
       <c r="BO338" s="7"/>
       <c r="BP338" s="7"/>
-      <c r="BR338" s="7"/>
-    </row>
-    <row r="339" spans="1:70">
+      <c r="BQ338" s="7"/>
+      <c r="BS338" s="7"/>
+    </row>
+    <row r="339" spans="1:71">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="D339" s="7"/>
@@ -28484,9 +28850,10 @@
       <c r="BN339" s="7"/>
       <c r="BO339" s="7"/>
       <c r="BP339" s="7"/>
-      <c r="BR339" s="7"/>
-    </row>
-    <row r="340" spans="1:70">
+      <c r="BQ339" s="7"/>
+      <c r="BS339" s="7"/>
+    </row>
+    <row r="340" spans="1:71">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="D340" s="7"/>
@@ -28554,9 +28921,10 @@
       <c r="BN340" s="7"/>
       <c r="BO340" s="7"/>
       <c r="BP340" s="7"/>
-      <c r="BR340" s="7"/>
-    </row>
-    <row r="341" spans="1:70">
+      <c r="BQ340" s="7"/>
+      <c r="BS340" s="7"/>
+    </row>
+    <row r="341" spans="1:71">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="D341" s="7"/>
@@ -28624,9 +28992,10 @@
       <c r="BN341" s="7"/>
       <c r="BO341" s="7"/>
       <c r="BP341" s="7"/>
-      <c r="BR341" s="7"/>
-    </row>
-    <row r="342" spans="1:70">
+      <c r="BQ341" s="7"/>
+      <c r="BS341" s="7"/>
+    </row>
+    <row r="342" spans="1:71">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="D342" s="7"/>
@@ -28694,9 +29063,10 @@
       <c r="BN342" s="7"/>
       <c r="BO342" s="7"/>
       <c r="BP342" s="7"/>
-      <c r="BR342" s="7"/>
-    </row>
-    <row r="343" spans="1:70">
+      <c r="BQ342" s="7"/>
+      <c r="BS342" s="7"/>
+    </row>
+    <row r="343" spans="1:71">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="D343" s="7"/>
@@ -28764,9 +29134,10 @@
       <c r="BN343" s="7"/>
       <c r="BO343" s="7"/>
       <c r="BP343" s="7"/>
-      <c r="BR343" s="7"/>
-    </row>
-    <row r="344" spans="1:70">
+      <c r="BQ343" s="7"/>
+      <c r="BS343" s="7"/>
+    </row>
+    <row r="344" spans="1:71">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="D344" s="7"/>
@@ -28834,9 +29205,10 @@
       <c r="BN344" s="7"/>
       <c r="BO344" s="7"/>
       <c r="BP344" s="7"/>
-      <c r="BR344" s="7"/>
-    </row>
-    <row r="345" spans="1:70">
+      <c r="BQ344" s="7"/>
+      <c r="BS344" s="7"/>
+    </row>
+    <row r="345" spans="1:71">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="D345" s="7"/>
@@ -28904,9 +29276,10 @@
       <c r="BN345" s="7"/>
       <c r="BO345" s="7"/>
       <c r="BP345" s="7"/>
-      <c r="BR345" s="7"/>
-    </row>
-    <row r="346" spans="1:70">
+      <c r="BQ345" s="7"/>
+      <c r="BS345" s="7"/>
+    </row>
+    <row r="346" spans="1:71">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="D346" s="7"/>
@@ -28974,9 +29347,10 @@
       <c r="BN346" s="7"/>
       <c r="BO346" s="7"/>
       <c r="BP346" s="7"/>
-      <c r="BR346" s="7"/>
-    </row>
-    <row r="347" spans="1:70">
+      <c r="BQ346" s="7"/>
+      <c r="BS346" s="7"/>
+    </row>
+    <row r="347" spans="1:71">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="D347" s="7"/>
@@ -29044,9 +29418,10 @@
       <c r="BN347" s="7"/>
       <c r="BO347" s="7"/>
       <c r="BP347" s="7"/>
-      <c r="BR347" s="7"/>
-    </row>
-    <row r="348" spans="1:70">
+      <c r="BQ347" s="7"/>
+      <c r="BS347" s="7"/>
+    </row>
+    <row r="348" spans="1:71">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="D348" s="7"/>
@@ -29114,9 +29489,10 @@
       <c r="BN348" s="7"/>
       <c r="BO348" s="7"/>
       <c r="BP348" s="7"/>
-      <c r="BR348" s="7"/>
-    </row>
-    <row r="349" spans="1:70">
+      <c r="BQ348" s="7"/>
+      <c r="BS348" s="7"/>
+    </row>
+    <row r="349" spans="1:71">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="D349" s="7"/>
@@ -29184,9 +29560,10 @@
       <c r="BN349" s="7"/>
       <c r="BO349" s="7"/>
       <c r="BP349" s="7"/>
-      <c r="BR349" s="7"/>
-    </row>
-    <row r="350" spans="1:70">
+      <c r="BQ349" s="7"/>
+      <c r="BS349" s="7"/>
+    </row>
+    <row r="350" spans="1:71">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="D350" s="7"/>
@@ -29254,9 +29631,10 @@
       <c r="BN350" s="7"/>
       <c r="BO350" s="7"/>
       <c r="BP350" s="7"/>
-      <c r="BR350" s="7"/>
-    </row>
-    <row r="351" spans="1:70">
+      <c r="BQ350" s="7"/>
+      <c r="BS350" s="7"/>
+    </row>
+    <row r="351" spans="1:71">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="D351" s="7"/>
@@ -29324,9 +29702,10 @@
       <c r="BN351" s="7"/>
       <c r="BO351" s="7"/>
       <c r="BP351" s="7"/>
-      <c r="BR351" s="7"/>
-    </row>
-    <row r="352" spans="1:70">
+      <c r="BQ351" s="7"/>
+      <c r="BS351" s="7"/>
+    </row>
+    <row r="352" spans="1:71">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="D352" s="7"/>
@@ -29394,9 +29773,10 @@
       <c r="BN352" s="7"/>
       <c r="BO352" s="7"/>
       <c r="BP352" s="7"/>
-      <c r="BR352" s="7"/>
-    </row>
-    <row r="353" spans="1:70">
+      <c r="BQ352" s="7"/>
+      <c r="BS352" s="7"/>
+    </row>
+    <row r="353" spans="1:71">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="D353" s="7"/>
@@ -29464,9 +29844,10 @@
       <c r="BN353" s="7"/>
       <c r="BO353" s="7"/>
       <c r="BP353" s="7"/>
-      <c r="BR353" s="7"/>
-    </row>
-    <row r="354" spans="1:70">
+      <c r="BQ353" s="7"/>
+      <c r="BS353" s="7"/>
+    </row>
+    <row r="354" spans="1:71">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="D354" s="7"/>
@@ -29534,9 +29915,10 @@
       <c r="BN354" s="7"/>
       <c r="BO354" s="7"/>
       <c r="BP354" s="7"/>
-      <c r="BR354" s="7"/>
-    </row>
-    <row r="355" spans="1:70">
+      <c r="BQ354" s="7"/>
+      <c r="BS354" s="7"/>
+    </row>
+    <row r="355" spans="1:71">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="D355" s="7"/>
@@ -29604,9 +29986,10 @@
       <c r="BN355" s="7"/>
       <c r="BO355" s="7"/>
       <c r="BP355" s="7"/>
-      <c r="BR355" s="7"/>
-    </row>
-    <row r="356" spans="1:70">
+      <c r="BQ355" s="7"/>
+      <c r="BS355" s="7"/>
+    </row>
+    <row r="356" spans="1:71">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="D356" s="7"/>
@@ -29674,9 +30057,10 @@
       <c r="BN356" s="7"/>
       <c r="BO356" s="7"/>
       <c r="BP356" s="7"/>
-      <c r="BR356" s="7"/>
-    </row>
-    <row r="357" spans="1:70">
+      <c r="BQ356" s="7"/>
+      <c r="BS356" s="7"/>
+    </row>
+    <row r="357" spans="1:71">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="D357" s="7"/>
@@ -29744,9 +30128,10 @@
       <c r="BN357" s="7"/>
       <c r="BO357" s="7"/>
       <c r="BP357" s="7"/>
-      <c r="BR357" s="7"/>
-    </row>
-    <row r="358" spans="1:70">
+      <c r="BQ357" s="7"/>
+      <c r="BS357" s="7"/>
+    </row>
+    <row r="358" spans="1:71">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="D358" s="7"/>
@@ -29814,9 +30199,10 @@
       <c r="BN358" s="7"/>
       <c r="BO358" s="7"/>
       <c r="BP358" s="7"/>
-      <c r="BR358" s="7"/>
-    </row>
-    <row r="359" spans="1:70">
+      <c r="BQ358" s="7"/>
+      <c r="BS358" s="7"/>
+    </row>
+    <row r="359" spans="1:71">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="D359" s="7"/>
@@ -29884,9 +30270,10 @@
       <c r="BN359" s="7"/>
       <c r="BO359" s="7"/>
       <c r="BP359" s="7"/>
-      <c r="BR359" s="7"/>
-    </row>
-    <row r="360" spans="1:70">
+      <c r="BQ359" s="7"/>
+      <c r="BS359" s="7"/>
+    </row>
+    <row r="360" spans="1:71">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="D360" s="7"/>
@@ -29954,9 +30341,10 @@
       <c r="BN360" s="7"/>
       <c r="BO360" s="7"/>
       <c r="BP360" s="7"/>
-      <c r="BR360" s="7"/>
-    </row>
-    <row r="361" spans="1:70">
+      <c r="BQ360" s="7"/>
+      <c r="BS360" s="7"/>
+    </row>
+    <row r="361" spans="1:71">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="D361" s="7"/>
@@ -30024,9 +30412,10 @@
       <c r="BN361" s="7"/>
       <c r="BO361" s="7"/>
       <c r="BP361" s="7"/>
-      <c r="BR361" s="7"/>
-    </row>
-    <row r="362" spans="1:70">
+      <c r="BQ361" s="7"/>
+      <c r="BS361" s="7"/>
+    </row>
+    <row r="362" spans="1:71">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="D362" s="7"/>
@@ -30094,9 +30483,10 @@
       <c r="BN362" s="7"/>
       <c r="BO362" s="7"/>
       <c r="BP362" s="7"/>
-      <c r="BR362" s="7"/>
-    </row>
-    <row r="363" spans="1:70">
+      <c r="BQ362" s="7"/>
+      <c r="BS362" s="7"/>
+    </row>
+    <row r="363" spans="1:71">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="D363" s="7"/>
@@ -30164,9 +30554,10 @@
       <c r="BN363" s="7"/>
       <c r="BO363" s="7"/>
       <c r="BP363" s="7"/>
-      <c r="BR363" s="7"/>
-    </row>
-    <row r="364" spans="1:70">
+      <c r="BQ363" s="7"/>
+      <c r="BS363" s="7"/>
+    </row>
+    <row r="364" spans="1:71">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="D364" s="7"/>
@@ -30234,9 +30625,10 @@
       <c r="BN364" s="7"/>
       <c r="BO364" s="7"/>
       <c r="BP364" s="7"/>
-      <c r="BR364" s="7"/>
-    </row>
-    <row r="365" spans="1:70">
+      <c r="BQ364" s="7"/>
+      <c r="BS364" s="7"/>
+    </row>
+    <row r="365" spans="1:71">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="D365" s="7"/>
@@ -30304,9 +30696,10 @@
       <c r="BN365" s="7"/>
       <c r="BO365" s="7"/>
       <c r="BP365" s="7"/>
-      <c r="BR365" s="7"/>
-    </row>
-    <row r="366" spans="1:70">
+      <c r="BQ365" s="7"/>
+      <c r="BS365" s="7"/>
+    </row>
+    <row r="366" spans="1:71">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="D366" s="7"/>
@@ -30374,9 +30767,10 @@
       <c r="BN366" s="7"/>
       <c r="BO366" s="7"/>
       <c r="BP366" s="7"/>
-      <c r="BR366" s="7"/>
-    </row>
-    <row r="367" spans="1:70">
+      <c r="BQ366" s="7"/>
+      <c r="BS366" s="7"/>
+    </row>
+    <row r="367" spans="1:71">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="D367" s="7"/>
@@ -30444,9 +30838,10 @@
       <c r="BN367" s="7"/>
       <c r="BO367" s="7"/>
       <c r="BP367" s="7"/>
-      <c r="BR367" s="7"/>
-    </row>
-    <row r="368" spans="1:70">
+      <c r="BQ367" s="7"/>
+      <c r="BS367" s="7"/>
+    </row>
+    <row r="368" spans="1:71">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="D368" s="7"/>
@@ -30514,9 +30909,10 @@
       <c r="BN368" s="7"/>
       <c r="BO368" s="7"/>
       <c r="BP368" s="7"/>
-      <c r="BR368" s="7"/>
-    </row>
-    <row r="369" spans="1:70">
+      <c r="BQ368" s="7"/>
+      <c r="BS368" s="7"/>
+    </row>
+    <row r="369" spans="1:71">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="D369" s="7"/>
@@ -30584,9 +30980,10 @@
       <c r="BN369" s="7"/>
       <c r="BO369" s="7"/>
       <c r="BP369" s="7"/>
-      <c r="BR369" s="7"/>
-    </row>
-    <row r="370" spans="1:70">
+      <c r="BQ369" s="7"/>
+      <c r="BS369" s="7"/>
+    </row>
+    <row r="370" spans="1:71">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="D370" s="7"/>
@@ -30654,9 +31051,10 @@
       <c r="BN370" s="7"/>
       <c r="BO370" s="7"/>
       <c r="BP370" s="7"/>
-      <c r="BR370" s="7"/>
-    </row>
-    <row r="371" spans="1:70">
+      <c r="BQ370" s="7"/>
+      <c r="BS370" s="7"/>
+    </row>
+    <row r="371" spans="1:71">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="D371" s="7"/>
@@ -30724,9 +31122,10 @@
       <c r="BN371" s="7"/>
       <c r="BO371" s="7"/>
       <c r="BP371" s="7"/>
-      <c r="BR371" s="7"/>
-    </row>
-    <row r="372" spans="1:70">
+      <c r="BQ371" s="7"/>
+      <c r="BS371" s="7"/>
+    </row>
+    <row r="372" spans="1:71">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="D372" s="7"/>
@@ -30794,9 +31193,10 @@
       <c r="BN372" s="7"/>
       <c r="BO372" s="7"/>
       <c r="BP372" s="7"/>
-      <c r="BR372" s="7"/>
-    </row>
-    <row r="373" spans="1:70">
+      <c r="BQ372" s="7"/>
+      <c r="BS372" s="7"/>
+    </row>
+    <row r="373" spans="1:71">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="D373" s="7"/>
@@ -30864,9 +31264,10 @@
       <c r="BN373" s="7"/>
       <c r="BO373" s="7"/>
       <c r="BP373" s="7"/>
-      <c r="BR373" s="7"/>
-    </row>
-    <row r="374" spans="1:70">
+      <c r="BQ373" s="7"/>
+      <c r="BS373" s="7"/>
+    </row>
+    <row r="374" spans="1:71">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="D374" s="7"/>
@@ -30934,9 +31335,10 @@
       <c r="BN374" s="7"/>
       <c r="BO374" s="7"/>
       <c r="BP374" s="7"/>
-      <c r="BR374" s="7"/>
-    </row>
-    <row r="375" spans="1:70">
+      <c r="BQ374" s="7"/>
+      <c r="BS374" s="7"/>
+    </row>
+    <row r="375" spans="1:71">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="D375" s="7"/>
@@ -31004,9 +31406,10 @@
       <c r="BN375" s="7"/>
       <c r="BO375" s="7"/>
       <c r="BP375" s="7"/>
-      <c r="BR375" s="7"/>
-    </row>
-    <row r="376" spans="1:70">
+      <c r="BQ375" s="7"/>
+      <c r="BS375" s="7"/>
+    </row>
+    <row r="376" spans="1:71">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="D376" s="7"/>
@@ -31074,9 +31477,10 @@
       <c r="BN376" s="7"/>
       <c r="BO376" s="7"/>
       <c r="BP376" s="7"/>
-      <c r="BR376" s="7"/>
-    </row>
-    <row r="377" spans="1:70">
+      <c r="BQ376" s="7"/>
+      <c r="BS376" s="7"/>
+    </row>
+    <row r="377" spans="1:71">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="D377" s="7"/>
@@ -31144,9 +31548,10 @@
       <c r="BN377" s="7"/>
       <c r="BO377" s="7"/>
       <c r="BP377" s="7"/>
-      <c r="BR377" s="7"/>
-    </row>
-    <row r="378" spans="1:70">
+      <c r="BQ377" s="7"/>
+      <c r="BS377" s="7"/>
+    </row>
+    <row r="378" spans="1:71">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="D378" s="7"/>
@@ -31214,9 +31619,10 @@
       <c r="BN378" s="7"/>
       <c r="BO378" s="7"/>
       <c r="BP378" s="7"/>
-      <c r="BR378" s="7"/>
-    </row>
-    <row r="379" spans="1:70">
+      <c r="BQ378" s="7"/>
+      <c r="BS378" s="7"/>
+    </row>
+    <row r="379" spans="1:71">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="D379" s="7"/>
@@ -31284,9 +31690,10 @@
       <c r="BN379" s="7"/>
       <c r="BO379" s="7"/>
       <c r="BP379" s="7"/>
-      <c r="BR379" s="7"/>
-    </row>
-    <row r="380" spans="1:70">
+      <c r="BQ379" s="7"/>
+      <c r="BS379" s="7"/>
+    </row>
+    <row r="380" spans="1:71">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="D380" s="7"/>
@@ -31354,9 +31761,10 @@
       <c r="BN380" s="7"/>
       <c r="BO380" s="7"/>
       <c r="BP380" s="7"/>
-      <c r="BR380" s="7"/>
-    </row>
-    <row r="381" spans="1:70">
+      <c r="BQ380" s="7"/>
+      <c r="BS380" s="7"/>
+    </row>
+    <row r="381" spans="1:71">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="D381" s="7"/>
@@ -31424,9 +31832,10 @@
       <c r="BN381" s="7"/>
       <c r="BO381" s="7"/>
       <c r="BP381" s="7"/>
-      <c r="BR381" s="7"/>
-    </row>
-    <row r="382" spans="1:70">
+      <c r="BQ381" s="7"/>
+      <c r="BS381" s="7"/>
+    </row>
+    <row r="382" spans="1:71">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="D382" s="7"/>
@@ -31494,9 +31903,10 @@
       <c r="BN382" s="7"/>
       <c r="BO382" s="7"/>
       <c r="BP382" s="7"/>
-      <c r="BR382" s="7"/>
-    </row>
-    <row r="383" spans="1:70">
+      <c r="BQ382" s="7"/>
+      <c r="BS382" s="7"/>
+    </row>
+    <row r="383" spans="1:71">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="D383" s="7"/>
@@ -31564,9 +31974,10 @@
       <c r="BN383" s="7"/>
       <c r="BO383" s="7"/>
       <c r="BP383" s="7"/>
-      <c r="BR383" s="7"/>
-    </row>
-    <row r="384" spans="1:70">
+      <c r="BQ383" s="7"/>
+      <c r="BS383" s="7"/>
+    </row>
+    <row r="384" spans="1:71">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="D384" s="7"/>
@@ -31634,9 +32045,10 @@
       <c r="BN384" s="7"/>
       <c r="BO384" s="7"/>
       <c r="BP384" s="7"/>
-      <c r="BR384" s="7"/>
-    </row>
-    <row r="385" spans="1:70">
+      <c r="BQ384" s="7"/>
+      <c r="BS384" s="7"/>
+    </row>
+    <row r="385" spans="1:71">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="D385" s="7"/>
@@ -31704,9 +32116,10 @@
       <c r="BN385" s="7"/>
       <c r="BO385" s="7"/>
       <c r="BP385" s="7"/>
-      <c r="BR385" s="7"/>
-    </row>
-    <row r="386" spans="1:70">
+      <c r="BQ385" s="7"/>
+      <c r="BS385" s="7"/>
+    </row>
+    <row r="386" spans="1:71">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="D386" s="7"/>
@@ -31774,9 +32187,10 @@
       <c r="BN386" s="7"/>
       <c r="BO386" s="7"/>
       <c r="BP386" s="7"/>
-      <c r="BR386" s="7"/>
-    </row>
-    <row r="387" spans="1:70">
+      <c r="BQ386" s="7"/>
+      <c r="BS386" s="7"/>
+    </row>
+    <row r="387" spans="1:71">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="D387" s="7"/>
@@ -31844,9 +32258,10 @@
       <c r="BN387" s="7"/>
       <c r="BO387" s="7"/>
       <c r="BP387" s="7"/>
-      <c r="BR387" s="7"/>
-    </row>
-    <row r="388" spans="1:70">
+      <c r="BQ387" s="7"/>
+      <c r="BS387" s="7"/>
+    </row>
+    <row r="388" spans="1:71">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="D388" s="7"/>
@@ -31914,9 +32329,10 @@
       <c r="BN388" s="7"/>
       <c r="BO388" s="7"/>
       <c r="BP388" s="7"/>
-      <c r="BR388" s="7"/>
-    </row>
-    <row r="389" spans="1:70">
+      <c r="BQ388" s="7"/>
+      <c r="BS388" s="7"/>
+    </row>
+    <row r="389" spans="1:71">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="D389" s="7"/>
@@ -31984,9 +32400,10 @@
       <c r="BN389" s="7"/>
       <c r="BO389" s="7"/>
       <c r="BP389" s="7"/>
-      <c r="BR389" s="7"/>
-    </row>
-    <row r="390" spans="1:70">
+      <c r="BQ389" s="7"/>
+      <c r="BS389" s="7"/>
+    </row>
+    <row r="390" spans="1:71">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="D390" s="7"/>
@@ -32054,9 +32471,10 @@
       <c r="BN390" s="7"/>
       <c r="BO390" s="7"/>
       <c r="BP390" s="7"/>
-      <c r="BR390" s="7"/>
-    </row>
-    <row r="391" spans="1:70">
+      <c r="BQ390" s="7"/>
+      <c r="BS390" s="7"/>
+    </row>
+    <row r="391" spans="1:71">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="D391" s="7"/>
@@ -32124,9 +32542,10 @@
       <c r="BN391" s="7"/>
       <c r="BO391" s="7"/>
       <c r="BP391" s="7"/>
-      <c r="BR391" s="7"/>
-    </row>
-    <row r="392" spans="1:70">
+      <c r="BQ391" s="7"/>
+      <c r="BS391" s="7"/>
+    </row>
+    <row r="392" spans="1:71">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="D392" s="7"/>
@@ -32194,9 +32613,10 @@
       <c r="BN392" s="7"/>
       <c r="BO392" s="7"/>
       <c r="BP392" s="7"/>
-      <c r="BR392" s="7"/>
-    </row>
-    <row r="393" spans="1:70">
+      <c r="BQ392" s="7"/>
+      <c r="BS392" s="7"/>
+    </row>
+    <row r="393" spans="1:71">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="D393" s="7"/>
@@ -32264,9 +32684,10 @@
       <c r="BN393" s="7"/>
       <c r="BO393" s="7"/>
       <c r="BP393" s="7"/>
-      <c r="BR393" s="7"/>
-    </row>
-    <row r="394" spans="1:70">
+      <c r="BQ393" s="7"/>
+      <c r="BS393" s="7"/>
+    </row>
+    <row r="394" spans="1:71">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="D394" s="7"/>
@@ -32334,9 +32755,10 @@
       <c r="BN394" s="7"/>
       <c r="BO394" s="7"/>
       <c r="BP394" s="7"/>
-      <c r="BR394" s="7"/>
-    </row>
-    <row r="395" spans="1:70">
+      <c r="BQ394" s="7"/>
+      <c r="BS394" s="7"/>
+    </row>
+    <row r="395" spans="1:71">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="D395" s="7"/>
@@ -32404,9 +32826,10 @@
       <c r="BN395" s="7"/>
       <c r="BO395" s="7"/>
       <c r="BP395" s="7"/>
-      <c r="BR395" s="7"/>
-    </row>
-    <row r="396" spans="1:70">
+      <c r="BQ395" s="7"/>
+      <c r="BS395" s="7"/>
+    </row>
+    <row r="396" spans="1:71">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="D396" s="7"/>
@@ -32474,9 +32897,10 @@
       <c r="BN396" s="7"/>
       <c r="BO396" s="7"/>
       <c r="BP396" s="7"/>
-      <c r="BR396" s="7"/>
-    </row>
-    <row r="397" spans="1:70">
+      <c r="BQ396" s="7"/>
+      <c r="BS396" s="7"/>
+    </row>
+    <row r="397" spans="1:71">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="D397" s="7"/>
@@ -32544,9 +32968,10 @@
       <c r="BN397" s="7"/>
       <c r="BO397" s="7"/>
       <c r="BP397" s="7"/>
-      <c r="BR397" s="7"/>
-    </row>
-    <row r="398" spans="1:70">
+      <c r="BQ397" s="7"/>
+      <c r="BS397" s="7"/>
+    </row>
+    <row r="398" spans="1:71">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="D398" s="7"/>
@@ -32614,9 +33039,10 @@
       <c r="BN398" s="7"/>
       <c r="BO398" s="7"/>
       <c r="BP398" s="7"/>
-      <c r="BR398" s="7"/>
-    </row>
-    <row r="399" spans="1:70">
+      <c r="BQ398" s="7"/>
+      <c r="BS398" s="7"/>
+    </row>
+    <row r="399" spans="1:71">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="D399" s="7"/>
@@ -32684,9 +33110,10 @@
       <c r="BN399" s="7"/>
       <c r="BO399" s="7"/>
       <c r="BP399" s="7"/>
-      <c r="BR399" s="7"/>
-    </row>
-    <row r="400" spans="1:70">
+      <c r="BQ399" s="7"/>
+      <c r="BS399" s="7"/>
+    </row>
+    <row r="400" spans="1:71">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="D400" s="7"/>
@@ -32754,9 +33181,10 @@
       <c r="BN400" s="7"/>
       <c r="BO400" s="7"/>
       <c r="BP400" s="7"/>
-      <c r="BR400" s="7"/>
-    </row>
-    <row r="401" spans="1:70">
+      <c r="BQ400" s="7"/>
+      <c r="BS400" s="7"/>
+    </row>
+    <row r="401" spans="1:71">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="D401" s="7"/>
@@ -32824,9 +33252,10 @@
       <c r="BN401" s="7"/>
       <c r="BO401" s="7"/>
       <c r="BP401" s="7"/>
-      <c r="BR401" s="7"/>
-    </row>
-    <row r="402" spans="1:70">
+      <c r="BQ401" s="7"/>
+      <c r="BS401" s="7"/>
+    </row>
+    <row r="402" spans="1:71">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="D402" s="7"/>
@@ -32894,9 +33323,10 @@
       <c r="BN402" s="7"/>
       <c r="BO402" s="7"/>
       <c r="BP402" s="7"/>
-      <c r="BR402" s="7"/>
-    </row>
-    <row r="403" spans="1:70">
+      <c r="BQ402" s="7"/>
+      <c r="BS402" s="7"/>
+    </row>
+    <row r="403" spans="1:71">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="D403" s="7"/>
@@ -32964,9 +33394,10 @@
       <c r="BN403" s="7"/>
       <c r="BO403" s="7"/>
       <c r="BP403" s="7"/>
-      <c r="BR403" s="7"/>
-    </row>
-    <row r="404" spans="1:70">
+      <c r="BQ403" s="7"/>
+      <c r="BS403" s="7"/>
+    </row>
+    <row r="404" spans="1:71">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="D404" s="7"/>
@@ -33034,9 +33465,10 @@
       <c r="BN404" s="7"/>
       <c r="BO404" s="7"/>
       <c r="BP404" s="7"/>
-      <c r="BR404" s="7"/>
-    </row>
-    <row r="405" spans="1:70">
+      <c r="BQ404" s="7"/>
+      <c r="BS404" s="7"/>
+    </row>
+    <row r="405" spans="1:71">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="D405" s="7"/>
@@ -33104,9 +33536,10 @@
       <c r="BN405" s="7"/>
       <c r="BO405" s="7"/>
       <c r="BP405" s="7"/>
-      <c r="BR405" s="7"/>
-    </row>
-    <row r="406" spans="1:70">
+      <c r="BQ405" s="7"/>
+      <c r="BS405" s="7"/>
+    </row>
+    <row r="406" spans="1:71">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="D406" s="7"/>
@@ -33174,9 +33607,10 @@
       <c r="BN406" s="7"/>
       <c r="BO406" s="7"/>
       <c r="BP406" s="7"/>
-      <c r="BR406" s="7"/>
-    </row>
-    <row r="407" spans="1:70">
+      <c r="BQ406" s="7"/>
+      <c r="BS406" s="7"/>
+    </row>
+    <row r="407" spans="1:71">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="D407" s="7"/>
@@ -33244,9 +33678,10 @@
       <c r="BN407" s="7"/>
       <c r="BO407" s="7"/>
       <c r="BP407" s="7"/>
-      <c r="BR407" s="7"/>
-    </row>
-    <row r="408" spans="1:70">
+      <c r="BQ407" s="7"/>
+      <c r="BS407" s="7"/>
+    </row>
+    <row r="408" spans="1:71">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="D408" s="7"/>
@@ -33314,9 +33749,10 @@
       <c r="BN408" s="7"/>
       <c r="BO408" s="7"/>
       <c r="BP408" s="7"/>
-      <c r="BR408" s="7"/>
-    </row>
-    <row r="409" spans="1:70">
+      <c r="BQ408" s="7"/>
+      <c r="BS408" s="7"/>
+    </row>
+    <row r="409" spans="1:71">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="D409" s="7"/>
@@ -33384,9 +33820,10 @@
       <c r="BN409" s="7"/>
       <c r="BO409" s="7"/>
       <c r="BP409" s="7"/>
-      <c r="BR409" s="7"/>
-    </row>
-    <row r="410" spans="1:70">
+      <c r="BQ409" s="7"/>
+      <c r="BS409" s="7"/>
+    </row>
+    <row r="410" spans="1:71">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="D410" s="7"/>
@@ -33454,9 +33891,10 @@
       <c r="BN410" s="7"/>
       <c r="BO410" s="7"/>
       <c r="BP410" s="7"/>
-      <c r="BR410" s="7"/>
-    </row>
-    <row r="411" spans="1:70">
+      <c r="BQ410" s="7"/>
+      <c r="BS410" s="7"/>
+    </row>
+    <row r="411" spans="1:71">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="D411" s="7"/>
@@ -33524,9 +33962,10 @@
       <c r="BN411" s="7"/>
       <c r="BO411" s="7"/>
       <c r="BP411" s="7"/>
-      <c r="BR411" s="7"/>
-    </row>
-    <row r="412" spans="1:70">
+      <c r="BQ411" s="7"/>
+      <c r="BS411" s="7"/>
+    </row>
+    <row r="412" spans="1:71">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="D412" s="7"/>
@@ -33594,9 +34033,10 @@
       <c r="BN412" s="7"/>
       <c r="BO412" s="7"/>
       <c r="BP412" s="7"/>
-      <c r="BR412" s="7"/>
-    </row>
-    <row r="413" spans="1:70">
+      <c r="BQ412" s="7"/>
+      <c r="BS412" s="7"/>
+    </row>
+    <row r="413" spans="1:71">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="D413" s="7"/>
@@ -33664,9 +34104,10 @@
       <c r="BN413" s="7"/>
       <c r="BO413" s="7"/>
       <c r="BP413" s="7"/>
-      <c r="BR413" s="7"/>
-    </row>
-    <row r="414" spans="1:70">
+      <c r="BQ413" s="7"/>
+      <c r="BS413" s="7"/>
+    </row>
+    <row r="414" spans="1:71">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="D414" s="7"/>
@@ -33734,9 +34175,10 @@
       <c r="BN414" s="7"/>
       <c r="BO414" s="7"/>
       <c r="BP414" s="7"/>
-      <c r="BR414" s="7"/>
-    </row>
-    <row r="415" spans="1:70">
+      <c r="BQ414" s="7"/>
+      <c r="BS414" s="7"/>
+    </row>
+    <row r="415" spans="1:71">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="D415" s="7"/>
@@ -33804,9 +34246,10 @@
       <c r="BN415" s="7"/>
       <c r="BO415" s="7"/>
       <c r="BP415" s="7"/>
-      <c r="BR415" s="7"/>
-    </row>
-    <row r="416" spans="1:70">
+      <c r="BQ415" s="7"/>
+      <c r="BS415" s="7"/>
+    </row>
+    <row r="416" spans="1:71">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="D416" s="7"/>
@@ -33874,9 +34317,10 @@
       <c r="BN416" s="7"/>
       <c r="BO416" s="7"/>
       <c r="BP416" s="7"/>
-      <c r="BR416" s="7"/>
-    </row>
-    <row r="417" spans="1:70">
+      <c r="BQ416" s="7"/>
+      <c r="BS416" s="7"/>
+    </row>
+    <row r="417" spans="1:71">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="D417" s="7"/>
@@ -33944,9 +34388,10 @@
       <c r="BN417" s="7"/>
       <c r="BO417" s="7"/>
       <c r="BP417" s="7"/>
-      <c r="BR417" s="7"/>
-    </row>
-    <row r="418" spans="1:70">
+      <c r="BQ417" s="7"/>
+      <c r="BS417" s="7"/>
+    </row>
+    <row r="418" spans="1:71">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="D418" s="7"/>
@@ -34014,9 +34459,10 @@
       <c r="BN418" s="7"/>
       <c r="BO418" s="7"/>
       <c r="BP418" s="7"/>
-      <c r="BR418" s="7"/>
-    </row>
-    <row r="419" spans="1:70">
+      <c r="BQ418" s="7"/>
+      <c r="BS418" s="7"/>
+    </row>
+    <row r="419" spans="1:71">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="D419" s="7"/>
@@ -34084,9 +34530,10 @@
       <c r="BN419" s="7"/>
       <c r="BO419" s="7"/>
       <c r="BP419" s="7"/>
-      <c r="BR419" s="7"/>
-    </row>
-    <row r="420" spans="1:70">
+      <c r="BQ419" s="7"/>
+      <c r="BS419" s="7"/>
+    </row>
+    <row r="420" spans="1:71">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="D420" s="7"/>
@@ -34154,9 +34601,10 @@
       <c r="BN420" s="7"/>
       <c r="BO420" s="7"/>
       <c r="BP420" s="7"/>
-      <c r="BR420" s="7"/>
-    </row>
-    <row r="421" spans="1:70">
+      <c r="BQ420" s="7"/>
+      <c r="BS420" s="7"/>
+    </row>
+    <row r="421" spans="1:71">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="D421" s="7"/>
@@ -34224,9 +34672,10 @@
       <c r="BN421" s="7"/>
       <c r="BO421" s="7"/>
       <c r="BP421" s="7"/>
-      <c r="BR421" s="7"/>
-    </row>
-    <row r="422" spans="1:70">
+      <c r="BQ421" s="7"/>
+      <c r="BS421" s="7"/>
+    </row>
+    <row r="422" spans="1:71">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="D422" s="7"/>
@@ -34294,9 +34743,10 @@
       <c r="BN422" s="7"/>
       <c r="BO422" s="7"/>
       <c r="BP422" s="7"/>
-      <c r="BR422" s="7"/>
-    </row>
-    <row r="423" spans="1:70">
+      <c r="BQ422" s="7"/>
+      <c r="BS422" s="7"/>
+    </row>
+    <row r="423" spans="1:71">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="D423" s="7"/>
@@ -34364,9 +34814,10 @@
       <c r="BN423" s="7"/>
       <c r="BO423" s="7"/>
       <c r="BP423" s="7"/>
-      <c r="BR423" s="7"/>
-    </row>
-    <row r="424" spans="1:70">
+      <c r="BQ423" s="7"/>
+      <c r="BS423" s="7"/>
+    </row>
+    <row r="424" spans="1:71">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="D424" s="7"/>
@@ -34434,9 +34885,10 @@
       <c r="BN424" s="7"/>
       <c r="BO424" s="7"/>
       <c r="BP424" s="7"/>
-      <c r="BR424" s="7"/>
-    </row>
-    <row r="425" spans="1:70">
+      <c r="BQ424" s="7"/>
+      <c r="BS424" s="7"/>
+    </row>
+    <row r="425" spans="1:71">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="D425" s="7"/>
@@ -34504,9 +34956,10 @@
       <c r="BN425" s="7"/>
       <c r="BO425" s="7"/>
       <c r="BP425" s="7"/>
-      <c r="BR425" s="7"/>
-    </row>
-    <row r="426" spans="1:70">
+      <c r="BQ425" s="7"/>
+      <c r="BS425" s="7"/>
+    </row>
+    <row r="426" spans="1:71">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="D426" s="7"/>
@@ -34574,9 +35027,10 @@
       <c r="BN426" s="7"/>
       <c r="BO426" s="7"/>
       <c r="BP426" s="7"/>
-      <c r="BR426" s="7"/>
-    </row>
-    <row r="427" spans="1:70">
+      <c r="BQ426" s="7"/>
+      <c r="BS426" s="7"/>
+    </row>
+    <row r="427" spans="1:71">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="D427" s="7"/>
@@ -34644,9 +35098,10 @@
       <c r="BN427" s="7"/>
       <c r="BO427" s="7"/>
       <c r="BP427" s="7"/>
-      <c r="BR427" s="7"/>
-    </row>
-    <row r="428" spans="1:70">
+      <c r="BQ427" s="7"/>
+      <c r="BS427" s="7"/>
+    </row>
+    <row r="428" spans="1:71">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="D428" s="7"/>
@@ -34714,9 +35169,10 @@
       <c r="BN428" s="7"/>
       <c r="BO428" s="7"/>
       <c r="BP428" s="7"/>
-      <c r="BR428" s="7"/>
-    </row>
-    <row r="429" spans="1:70">
+      <c r="BQ428" s="7"/>
+      <c r="BS428" s="7"/>
+    </row>
+    <row r="429" spans="1:71">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="D429" s="7"/>
@@ -34784,9 +35240,10 @@
       <c r="BN429" s="7"/>
       <c r="BO429" s="7"/>
       <c r="BP429" s="7"/>
-      <c r="BR429" s="7"/>
-    </row>
-    <row r="430" spans="1:70">
+      <c r="BQ429" s="7"/>
+      <c r="BS429" s="7"/>
+    </row>
+    <row r="430" spans="1:71">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="D430" s="7"/>
@@ -34854,9 +35311,10 @@
       <c r="BN430" s="7"/>
       <c r="BO430" s="7"/>
       <c r="BP430" s="7"/>
-      <c r="BR430" s="7"/>
-    </row>
-    <row r="431" spans="1:70">
+      <c r="BQ430" s="7"/>
+      <c r="BS430" s="7"/>
+    </row>
+    <row r="431" spans="1:71">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="D431" s="7"/>
@@ -34924,9 +35382,10 @@
       <c r="BN431" s="7"/>
       <c r="BO431" s="7"/>
       <c r="BP431" s="7"/>
-      <c r="BR431" s="7"/>
-    </row>
-    <row r="432" spans="1:70">
+      <c r="BQ431" s="7"/>
+      <c r="BS431" s="7"/>
+    </row>
+    <row r="432" spans="1:71">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="D432" s="7"/>
@@ -34994,9 +35453,10 @@
       <c r="BN432" s="7"/>
       <c r="BO432" s="7"/>
       <c r="BP432" s="7"/>
-      <c r="BR432" s="7"/>
-    </row>
-    <row r="433" spans="1:70">
+      <c r="BQ432" s="7"/>
+      <c r="BS432" s="7"/>
+    </row>
+    <row r="433" spans="1:71">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="D433" s="7"/>
@@ -35064,9 +35524,10 @@
       <c r="BN433" s="7"/>
       <c r="BO433" s="7"/>
       <c r="BP433" s="7"/>
-      <c r="BR433" s="7"/>
-    </row>
-    <row r="434" spans="1:70">
+      <c r="BQ433" s="7"/>
+      <c r="BS433" s="7"/>
+    </row>
+    <row r="434" spans="1:71">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="D434" s="7"/>
@@ -35134,9 +35595,10 @@
       <c r="BN434" s="7"/>
       <c r="BO434" s="7"/>
       <c r="BP434" s="7"/>
-      <c r="BR434" s="7"/>
-    </row>
-    <row r="435" spans="1:70">
+      <c r="BQ434" s="7"/>
+      <c r="BS434" s="7"/>
+    </row>
+    <row r="435" spans="1:71">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="D435" s="7"/>
@@ -35204,9 +35666,10 @@
       <c r="BN435" s="7"/>
       <c r="BO435" s="7"/>
       <c r="BP435" s="7"/>
-      <c r="BR435" s="7"/>
-    </row>
-    <row r="436" spans="1:70">
+      <c r="BQ435" s="7"/>
+      <c r="BS435" s="7"/>
+    </row>
+    <row r="436" spans="1:71">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="D436" s="7"/>
@@ -35274,9 +35737,10 @@
       <c r="BN436" s="7"/>
       <c r="BO436" s="7"/>
       <c r="BP436" s="7"/>
-      <c r="BR436" s="7"/>
-    </row>
-    <row r="437" spans="1:70">
+      <c r="BQ436" s="7"/>
+      <c r="BS436" s="7"/>
+    </row>
+    <row r="437" spans="1:71">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="D437" s="7"/>
@@ -35344,9 +35808,10 @@
       <c r="BN437" s="7"/>
       <c r="BO437" s="7"/>
       <c r="BP437" s="7"/>
-      <c r="BR437" s="7"/>
-    </row>
-    <row r="438" spans="1:70">
+      <c r="BQ437" s="7"/>
+      <c r="BS437" s="7"/>
+    </row>
+    <row r="438" spans="1:71">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="D438" s="7"/>
@@ -35414,9 +35879,10 @@
       <c r="BN438" s="7"/>
       <c r="BO438" s="7"/>
       <c r="BP438" s="7"/>
-      <c r="BR438" s="7"/>
-    </row>
-    <row r="439" spans="1:70">
+      <c r="BQ438" s="7"/>
+      <c r="BS438" s="7"/>
+    </row>
+    <row r="439" spans="1:71">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="D439" s="7"/>
@@ -35484,9 +35950,10 @@
       <c r="BN439" s="7"/>
       <c r="BO439" s="7"/>
       <c r="BP439" s="7"/>
-      <c r="BR439" s="7"/>
-    </row>
-    <row r="440" spans="1:70">
+      <c r="BQ439" s="7"/>
+      <c r="BS439" s="7"/>
+    </row>
+    <row r="440" spans="1:71">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="D440" s="7"/>
@@ -35554,9 +36021,10 @@
       <c r="BN440" s="7"/>
       <c r="BO440" s="7"/>
       <c r="BP440" s="7"/>
-      <c r="BR440" s="7"/>
-    </row>
-    <row r="441" spans="1:70">
+      <c r="BQ440" s="7"/>
+      <c r="BS440" s="7"/>
+    </row>
+    <row r="441" spans="1:71">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="D441" s="7"/>
@@ -35624,9 +36092,10 @@
       <c r="BN441" s="7"/>
       <c r="BO441" s="7"/>
       <c r="BP441" s="7"/>
-      <c r="BR441" s="7"/>
-    </row>
-    <row r="442" spans="1:70">
+      <c r="BQ441" s="7"/>
+      <c r="BS441" s="7"/>
+    </row>
+    <row r="442" spans="1:71">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="D442" s="7"/>
@@ -35694,9 +36163,10 @@
       <c r="BN442" s="7"/>
       <c r="BO442" s="7"/>
       <c r="BP442" s="7"/>
-      <c r="BR442" s="7"/>
-    </row>
-    <row r="443" spans="1:70">
+      <c r="BQ442" s="7"/>
+      <c r="BS442" s="7"/>
+    </row>
+    <row r="443" spans="1:71">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="D443" s="7"/>
@@ -35764,9 +36234,10 @@
       <c r="BN443" s="7"/>
       <c r="BO443" s="7"/>
       <c r="BP443" s="7"/>
-      <c r="BR443" s="7"/>
-    </row>
-    <row r="444" spans="1:70">
+      <c r="BQ443" s="7"/>
+      <c r="BS443" s="7"/>
+    </row>
+    <row r="444" spans="1:71">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="D444" s="7"/>
@@ -35834,9 +36305,10 @@
       <c r="BN444" s="7"/>
       <c r="BO444" s="7"/>
       <c r="BP444" s="7"/>
-      <c r="BR444" s="7"/>
-    </row>
-    <row r="445" spans="1:70">
+      <c r="BQ444" s="7"/>
+      <c r="BS444" s="7"/>
+    </row>
+    <row r="445" spans="1:71">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="D445" s="7"/>
@@ -35904,9 +36376,10 @@
       <c r="BN445" s="7"/>
       <c r="BO445" s="7"/>
       <c r="BP445" s="7"/>
-      <c r="BR445" s="7"/>
-    </row>
-    <row r="446" spans="1:70">
+      <c r="BQ445" s="7"/>
+      <c r="BS445" s="7"/>
+    </row>
+    <row r="446" spans="1:71">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="D446" s="7"/>
@@ -35974,9 +36447,10 @@
       <c r="BN446" s="7"/>
       <c r="BO446" s="7"/>
       <c r="BP446" s="7"/>
-      <c r="BR446" s="7"/>
-    </row>
-    <row r="447" spans="1:70">
+      <c r="BQ446" s="7"/>
+      <c r="BS446" s="7"/>
+    </row>
+    <row r="447" spans="1:71">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="D447" s="7"/>
@@ -36044,9 +36518,10 @@
       <c r="BN447" s="7"/>
       <c r="BO447" s="7"/>
       <c r="BP447" s="7"/>
-      <c r="BR447" s="7"/>
-    </row>
-    <row r="448" spans="1:70">
+      <c r="BQ447" s="7"/>
+      <c r="BS447" s="7"/>
+    </row>
+    <row r="448" spans="1:71">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="D448" s="7"/>
@@ -36114,9 +36589,10 @@
       <c r="BN448" s="7"/>
       <c r="BO448" s="7"/>
       <c r="BP448" s="7"/>
-      <c r="BR448" s="7"/>
-    </row>
-    <row r="449" spans="1:70">
+      <c r="BQ448" s="7"/>
+      <c r="BS448" s="7"/>
+    </row>
+    <row r="449" spans="1:71">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="D449" s="7"/>
@@ -36184,9 +36660,10 @@
       <c r="BN449" s="7"/>
       <c r="BO449" s="7"/>
       <c r="BP449" s="7"/>
-      <c r="BR449" s="7"/>
-    </row>
-    <row r="450" spans="1:70">
+      <c r="BQ449" s="7"/>
+      <c r="BS449" s="7"/>
+    </row>
+    <row r="450" spans="1:71">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="D450" s="7"/>
@@ -36254,9 +36731,10 @@
       <c r="BN450" s="7"/>
       <c r="BO450" s="7"/>
       <c r="BP450" s="7"/>
-      <c r="BR450" s="7"/>
-    </row>
-    <row r="451" spans="1:70">
+      <c r="BQ450" s="7"/>
+      <c r="BS450" s="7"/>
+    </row>
+    <row r="451" spans="1:71">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="D451" s="7"/>
@@ -36324,9 +36802,10 @@
       <c r="BN451" s="7"/>
       <c r="BO451" s="7"/>
       <c r="BP451" s="7"/>
-      <c r="BR451" s="7"/>
-    </row>
-    <row r="452" spans="1:70">
+      <c r="BQ451" s="7"/>
+      <c r="BS451" s="7"/>
+    </row>
+    <row r="452" spans="1:71">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="D452" s="7"/>
@@ -36394,9 +36873,10 @@
       <c r="BN452" s="7"/>
       <c r="BO452" s="7"/>
       <c r="BP452" s="7"/>
-      <c r="BR452" s="7"/>
-    </row>
-    <row r="453" spans="1:70">
+      <c r="BQ452" s="7"/>
+      <c r="BS452" s="7"/>
+    </row>
+    <row r="453" spans="1:71">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="D453" s="7"/>
@@ -36464,9 +36944,10 @@
       <c r="BN453" s="7"/>
       <c r="BO453" s="7"/>
       <c r="BP453" s="7"/>
-      <c r="BR453" s="7"/>
-    </row>
-    <row r="454" spans="1:70">
+      <c r="BQ453" s="7"/>
+      <c r="BS453" s="7"/>
+    </row>
+    <row r="454" spans="1:71">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="D454" s="7"/>
@@ -36534,9 +37015,10 @@
       <c r="BN454" s="7"/>
       <c r="BO454" s="7"/>
       <c r="BP454" s="7"/>
-      <c r="BR454" s="7"/>
-    </row>
-    <row r="455" spans="1:70">
+      <c r="BQ454" s="7"/>
+      <c r="BS454" s="7"/>
+    </row>
+    <row r="455" spans="1:71">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="D455" s="7"/>
@@ -36604,9 +37086,10 @@
       <c r="BN455" s="7"/>
       <c r="BO455" s="7"/>
       <c r="BP455" s="7"/>
-      <c r="BR455" s="7"/>
-    </row>
-    <row r="456" spans="1:70">
+      <c r="BQ455" s="7"/>
+      <c r="BS455" s="7"/>
+    </row>
+    <row r="456" spans="1:71">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="D456" s="7"/>
@@ -36674,9 +37157,10 @@
       <c r="BN456" s="7"/>
       <c r="BO456" s="7"/>
       <c r="BP456" s="7"/>
-      <c r="BR456" s="7"/>
-    </row>
-    <row r="457" spans="1:70">
+      <c r="BQ456" s="7"/>
+      <c r="BS456" s="7"/>
+    </row>
+    <row r="457" spans="1:71">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="D457" s="7"/>
@@ -36744,9 +37228,10 @@
       <c r="BN457" s="7"/>
       <c r="BO457" s="7"/>
       <c r="BP457" s="7"/>
-      <c r="BR457" s="7"/>
-    </row>
-    <row r="458" spans="1:70">
+      <c r="BQ457" s="7"/>
+      <c r="BS457" s="7"/>
+    </row>
+    <row r="458" spans="1:71">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="D458" s="7"/>
@@ -36814,9 +37299,10 @@
       <c r="BN458" s="7"/>
       <c r="BO458" s="7"/>
       <c r="BP458" s="7"/>
-      <c r="BR458" s="7"/>
-    </row>
-    <row r="459" spans="1:70">
+      <c r="BQ458" s="7"/>
+      <c r="BS458" s="7"/>
+    </row>
+    <row r="459" spans="1:71">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="D459" s="7"/>
@@ -36884,9 +37370,10 @@
       <c r="BN459" s="7"/>
       <c r="BO459" s="7"/>
       <c r="BP459" s="7"/>
-      <c r="BR459" s="7"/>
-    </row>
-    <row r="460" spans="1:70">
+      <c r="BQ459" s="7"/>
+      <c r="BS459" s="7"/>
+    </row>
+    <row r="460" spans="1:71">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="D460" s="7"/>
@@ -36954,9 +37441,10 @@
       <c r="BN460" s="7"/>
       <c r="BO460" s="7"/>
       <c r="BP460" s="7"/>
-      <c r="BR460" s="7"/>
-    </row>
-    <row r="461" spans="1:70">
+      <c r="BQ460" s="7"/>
+      <c r="BS460" s="7"/>
+    </row>
+    <row r="461" spans="1:71">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="D461" s="7"/>
@@ -37024,9 +37512,10 @@
       <c r="BN461" s="7"/>
       <c r="BO461" s="7"/>
       <c r="BP461" s="7"/>
-      <c r="BR461" s="7"/>
-    </row>
-    <row r="462" spans="1:70">
+      <c r="BQ461" s="7"/>
+      <c r="BS461" s="7"/>
+    </row>
+    <row r="462" spans="1:71">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="D462" s="7"/>
@@ -37094,9 +37583,10 @@
       <c r="BN462" s="7"/>
       <c r="BO462" s="7"/>
       <c r="BP462" s="7"/>
-      <c r="BR462" s="7"/>
-    </row>
-    <row r="463" spans="1:70">
+      <c r="BQ462" s="7"/>
+      <c r="BS462" s="7"/>
+    </row>
+    <row r="463" spans="1:71">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="D463" s="7"/>
@@ -37164,9 +37654,10 @@
       <c r="BN463" s="7"/>
       <c r="BO463" s="7"/>
       <c r="BP463" s="7"/>
-      <c r="BR463" s="7"/>
-    </row>
-    <row r="464" spans="1:70">
+      <c r="BQ463" s="7"/>
+      <c r="BS463" s="7"/>
+    </row>
+    <row r="464" spans="1:71">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="D464" s="7"/>
@@ -37234,9 +37725,10 @@
       <c r="BN464" s="7"/>
       <c r="BO464" s="7"/>
       <c r="BP464" s="7"/>
-      <c r="BR464" s="7"/>
-    </row>
-    <row r="465" spans="1:70">
+      <c r="BQ464" s="7"/>
+      <c r="BS464" s="7"/>
+    </row>
+    <row r="465" spans="1:71">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="D465" s="7"/>
@@ -37304,9 +37796,10 @@
       <c r="BN465" s="7"/>
       <c r="BO465" s="7"/>
       <c r="BP465" s="7"/>
-      <c r="BR465" s="7"/>
-    </row>
-    <row r="466" spans="1:70">
+      <c r="BQ465" s="7"/>
+      <c r="BS465" s="7"/>
+    </row>
+    <row r="466" spans="1:71">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="D466" s="7"/>
@@ -37374,9 +37867,10 @@
       <c r="BN466" s="7"/>
       <c r="BO466" s="7"/>
       <c r="BP466" s="7"/>
-      <c r="BR466" s="7"/>
-    </row>
-    <row r="467" spans="1:70">
+      <c r="BQ466" s="7"/>
+      <c r="BS466" s="7"/>
+    </row>
+    <row r="467" spans="1:71">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="D467" s="7"/>
@@ -37444,9 +37938,10 @@
       <c r="BN467" s="7"/>
       <c r="BO467" s="7"/>
       <c r="BP467" s="7"/>
-      <c r="BR467" s="7"/>
-    </row>
-    <row r="468" spans="1:70">
+      <c r="BQ467" s="7"/>
+      <c r="BS467" s="7"/>
+    </row>
+    <row r="468" spans="1:71">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="D468" s="7"/>
@@ -37514,7 +38009,8 @@
       <c r="BN468" s="7"/>
       <c r="BO468" s="7"/>
       <c r="BP468" s="7"/>
-      <c r="BR468" s="7"/>
+      <c r="BQ468" s="7"/>
+      <c r="BS468" s="7"/>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="7"/>
@@ -37757,18 +38253,18 @@
       <c r="A548" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:AF1"/>
-    <mergeCell ref="AH1:BE1"/>
+    <mergeCell ref="AH1:BF1"/>
     <mergeCell ref="M2:AF2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -37782,7 +38278,7 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="BJ2:BJ3"/>
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="BL2:BL3"/>
@@ -37792,6 +38288,7 @@
     <mergeCell ref="BP2:BP3"/>
     <mergeCell ref="BQ2:BQ3"/>
     <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1:C3" r:id="rId1" display="股票代码"/>
@@ -37821,31 +38318,31 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="CU1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="e">
-        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BR991,53,FALSE)))</f>
+        <f>SUM(交易计划及执行表!#REF!)-SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BS991,53,FALSE)))</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="3" t="e">
-        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BR991,53,FALSE),0))</f>
+        <f>SUM(IF(交易计划及执行表!#REF!&gt;0,VLOOKUP(交易计划及执行表!$A4,交易计划及执行表!A4:BS991,53,FALSE),0))</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3078,11 +3078,11 @@
   <dimension ref="A1:DH548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="BP9" sqref="BP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -29,7 +29,7 @@
     <t>趋势</t>
   </si>
   <si>
-    <t>波动收窄幅度模式</t>
+    <t>波动收窄幅度</t>
   </si>
   <si>
     <t>相对实力排名（除了实力排名外，应该关注股价的表现是否优于其他公司）</t>
@@ -3078,11 +3078,11 @@
   <dimension ref="A1:DH548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BP9" sqref="BP9"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3078,11 +3078,11 @@
   <dimension ref="A1:DH548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:AF1"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -1821,7 +1821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1862,6 +1862,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3343,10 +3346,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BT16" sqref="BT16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3430,32 +3433,32 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="64" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
       <c r="BC1" s="13"/>
       <c r="BD1" s="13"/>
       <c r="BE1" s="13"/>
@@ -3471,474 +3474,474 @@
       <c r="BM1" s="13"/>
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="88"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="89"/>
       <c r="BS1" s="13"/>
-      <c r="BT1" s="89"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
-      <c r="BX1" s="101"/>
-      <c r="BY1" s="101"/>
-      <c r="BZ1" s="101"/>
-      <c r="CA1" s="101"/>
-      <c r="CC1" s="108"/>
-      <c r="CD1" s="108"/>
-      <c r="CE1" s="108"/>
-      <c r="CF1" s="108"/>
-      <c r="CG1" s="108"/>
-      <c r="CH1" s="108"/>
-      <c r="CI1" s="108"/>
-      <c r="CJ1" s="108"/>
-      <c r="CL1" s="108"/>
-      <c r="CM1" s="108"/>
-      <c r="CN1" s="108"/>
-      <c r="CO1" s="108"/>
-      <c r="CP1" s="108"/>
-      <c r="CQ1" s="108"/>
-      <c r="CR1" s="108"/>
-      <c r="CT1" s="108"/>
-      <c r="CU1" s="108"/>
-      <c r="CV1" s="108"/>
-      <c r="CW1" s="108"/>
-      <c r="CX1" s="108"/>
-      <c r="CY1" s="108"/>
-      <c r="CZ1" s="108"/>
-      <c r="DB1" s="108"/>
-      <c r="DC1" s="108"/>
-      <c r="DD1" s="108"/>
-      <c r="DE1" s="108"/>
-      <c r="DF1" s="108"/>
-      <c r="DG1" s="108"/>
-      <c r="DH1" s="108"/>
+      <c r="BT1" s="90"/>
+      <c r="BU1" s="102"/>
+      <c r="BV1" s="102"/>
+      <c r="BW1" s="102"/>
+      <c r="BX1" s="102"/>
+      <c r="BY1" s="102"/>
+      <c r="BZ1" s="102"/>
+      <c r="CA1" s="102"/>
+      <c r="CC1" s="109"/>
+      <c r="CD1" s="109"/>
+      <c r="CE1" s="109"/>
+      <c r="CF1" s="109"/>
+      <c r="CG1" s="109"/>
+      <c r="CH1" s="109"/>
+      <c r="CI1" s="109"/>
+      <c r="CJ1" s="109"/>
+      <c r="CL1" s="109"/>
+      <c r="CM1" s="109"/>
+      <c r="CN1" s="109"/>
+      <c r="CO1" s="109"/>
+      <c r="CP1" s="109"/>
+      <c r="CQ1" s="109"/>
+      <c r="CR1" s="109"/>
+      <c r="CT1" s="109"/>
+      <c r="CU1" s="109"/>
+      <c r="CV1" s="109"/>
+      <c r="CW1" s="109"/>
+      <c r="CX1" s="109"/>
+      <c r="CY1" s="109"/>
+      <c r="CZ1" s="109"/>
+      <c r="DB1" s="109"/>
+      <c r="DC1" s="109"/>
+      <c r="DD1" s="109"/>
+      <c r="DE1" s="109"/>
+      <c r="DF1" s="109"/>
+      <c r="DG1" s="109"/>
+      <c r="DH1" s="109"/>
     </row>
     <row r="2" ht="23.6" spans="1:112">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="65" t="s">
+      <c r="AI2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65" t="s">
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65" t="s">
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65" t="s">
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="37" t="s">
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14" t="s">
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="37" t="s">
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="37" t="s">
+      <c r="BK2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="37" t="s">
+      <c r="BL2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="BM2" s="37" t="s">
+      <c r="BM2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="37" t="s">
+      <c r="BN2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BO2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="83" t="s">
+      <c r="BP2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="83" t="s">
+      <c r="BQ2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="BR2" s="90" t="s">
+      <c r="BR2" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="BS2" s="37" t="s">
+      <c r="BS2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="91" t="s">
+      <c r="BT2" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="101"/>
-      <c r="BY2" s="101"/>
-      <c r="BZ2" s="101"/>
-      <c r="CA2" s="101"/>
-      <c r="CC2" s="108"/>
-      <c r="CD2" s="108"/>
-      <c r="CE2" s="108"/>
-      <c r="CF2" s="108"/>
-      <c r="CG2" s="108"/>
-      <c r="CH2" s="108"/>
-      <c r="CI2" s="108"/>
-      <c r="CJ2" s="108"/>
-      <c r="CL2" s="108"/>
-      <c r="CM2" s="108"/>
-      <c r="CN2" s="108"/>
-      <c r="CO2" s="108"/>
-      <c r="CP2" s="108"/>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="108"/>
-      <c r="CT2" s="108"/>
-      <c r="CU2" s="108"/>
-      <c r="CV2" s="108"/>
-      <c r="CW2" s="108"/>
-      <c r="CX2" s="108"/>
-      <c r="CY2" s="108"/>
-      <c r="CZ2" s="108"/>
-      <c r="DB2" s="108"/>
-      <c r="DC2" s="108"/>
-      <c r="DD2" s="108"/>
-      <c r="DE2" s="108"/>
-      <c r="DF2" s="108"/>
-      <c r="DG2" s="108"/>
-      <c r="DH2" s="108"/>
+      <c r="BU2" s="102"/>
+      <c r="BV2" s="102"/>
+      <c r="BW2" s="102"/>
+      <c r="BX2" s="102"/>
+      <c r="BY2" s="102"/>
+      <c r="BZ2" s="102"/>
+      <c r="CA2" s="102"/>
+      <c r="CC2" s="109"/>
+      <c r="CD2" s="109"/>
+      <c r="CE2" s="109"/>
+      <c r="CF2" s="109"/>
+      <c r="CG2" s="109"/>
+      <c r="CH2" s="109"/>
+      <c r="CI2" s="109"/>
+      <c r="CJ2" s="109"/>
+      <c r="CL2" s="109"/>
+      <c r="CM2" s="109"/>
+      <c r="CN2" s="109"/>
+      <c r="CO2" s="109"/>
+      <c r="CP2" s="109"/>
+      <c r="CQ2" s="109"/>
+      <c r="CR2" s="109"/>
+      <c r="CT2" s="109"/>
+      <c r="CU2" s="109"/>
+      <c r="CV2" s="109"/>
+      <c r="CW2" s="109"/>
+      <c r="CX2" s="109"/>
+      <c r="CY2" s="109"/>
+      <c r="CZ2" s="109"/>
+      <c r="DB2" s="109"/>
+      <c r="DC2" s="109"/>
+      <c r="DD2" s="109"/>
+      <c r="DE2" s="109"/>
+      <c r="DF2" s="109"/>
+      <c r="DG2" s="109"/>
+      <c r="DH2" s="109"/>
     </row>
     <row r="3" ht="48" spans="1:112">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="39" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AC3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="65" t="s">
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="65" t="s">
+      <c r="AJ3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="65" t="s">
+      <c r="AK3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="65" t="s">
+      <c r="AM3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="65" t="s">
+      <c r="AN3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="65" t="s">
+      <c r="AO3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="65" t="s">
+      <c r="AP3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="65" t="s">
+      <c r="AQ3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="65" t="s">
+      <c r="AR3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="65" t="s">
+      <c r="AS3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="65" t="s">
+      <c r="AT3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="65" t="s">
+      <c r="AU3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="65" t="s">
+      <c r="AV3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="65" t="s">
+      <c r="AW3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="65" t="s">
+      <c r="AX3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="65" t="s">
+      <c r="AY3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="65" t="s">
+      <c r="AZ3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="65" t="s">
+      <c r="BA3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="65" t="s">
+      <c r="BB3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="77" t="s">
+      <c r="BC3" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="77" t="s">
+      <c r="BD3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="79" t="s">
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="79" t="s">
+      <c r="BH3" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="78" t="s">
+      <c r="BI3" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="92"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="101"/>
-      <c r="CA3" s="101"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
-      <c r="CF3" s="108"/>
-      <c r="CG3" s="108"/>
-      <c r="CH3" s="108"/>
-      <c r="CI3" s="108"/>
-      <c r="CJ3" s="108"/>
-      <c r="CL3" s="108"/>
-      <c r="CM3" s="108"/>
-      <c r="CN3" s="108"/>
-      <c r="CO3" s="108"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CT3" s="108"/>
-      <c r="CU3" s="108"/>
-      <c r="CV3" s="108"/>
-      <c r="CW3" s="108"/>
-      <c r="CX3" s="108"/>
-      <c r="CY3" s="108"/>
-      <c r="CZ3" s="108"/>
-      <c r="DB3" s="108"/>
-      <c r="DC3" s="108"/>
-      <c r="DD3" s="108"/>
-      <c r="DE3" s="108"/>
-      <c r="DF3" s="108"/>
-      <c r="DG3" s="108"/>
-      <c r="DH3" s="108"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="102"/>
+      <c r="BV3" s="102"/>
+      <c r="BW3" s="102"/>
+      <c r="BX3" s="102"/>
+      <c r="BY3" s="102"/>
+      <c r="BZ3" s="102"/>
+      <c r="CA3" s="102"/>
+      <c r="CC3" s="109"/>
+      <c r="CD3" s="109"/>
+      <c r="CE3" s="109"/>
+      <c r="CF3" s="109"/>
+      <c r="CG3" s="109"/>
+      <c r="CH3" s="109"/>
+      <c r="CI3" s="109"/>
+      <c r="CJ3" s="109"/>
+      <c r="CL3" s="109"/>
+      <c r="CM3" s="109"/>
+      <c r="CN3" s="109"/>
+      <c r="CO3" s="109"/>
+      <c r="CP3" s="109"/>
+      <c r="CQ3" s="109"/>
+      <c r="CR3" s="109"/>
+      <c r="CT3" s="109"/>
+      <c r="CU3" s="109"/>
+      <c r="CV3" s="109"/>
+      <c r="CW3" s="109"/>
+      <c r="CX3" s="109"/>
+      <c r="CY3" s="109"/>
+      <c r="CZ3" s="109"/>
+      <c r="DB3" s="109"/>
+      <c r="DC3" s="109"/>
+      <c r="DD3" s="109"/>
+      <c r="DE3" s="109"/>
+      <c r="DF3" s="109"/>
+      <c r="DG3" s="109"/>
+      <c r="DH3" s="109"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:112">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>44517</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>22.15</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>23.55</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="19">
         <v>24.52</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>25.7</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="19">
         <v>5.46</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>46.33</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="44">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="19">
         <v>20.79</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="19">
         <v>29.8</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="19">
         <v>21.88</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="19">
         <v>26.5</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="19">
         <v>22.1</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="19">
         <v>26.4</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="19">
         <v>24</v>
       </c>
       <c r="T4" s="2">
@@ -3947,2857 +3950,2859 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="44">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4" s="44">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4" s="44">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="43">
+      <c r="AB4" s="44">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="43">
+      <c r="AC4" s="44">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="56">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="56" t="s">
+      <c r="AF4" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18">
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19">
         <v>28.15</v>
       </c>
-      <c r="BH4" s="18">
+      <c r="BH4" s="19">
         <v>21.87</v>
       </c>
-      <c r="BI4" s="18">
+      <c r="BI4" s="19">
         <f>BG4-BH4</f>
         <v>6.28</v>
       </c>
-      <c r="BJ4" s="18">
+      <c r="BJ4" s="19">
         <v>26.2</v>
       </c>
-      <c r="BK4" s="18">
+      <c r="BK4" s="19">
         <v>24.68</v>
       </c>
-      <c r="BL4" s="18">
+      <c r="BL4" s="19">
         <v>32.49</v>
       </c>
-      <c r="BM4" s="18">
+      <c r="BM4" s="19">
         <f t="shared" ref="BM4:BM14" si="0">(BJ4-BK4)*100</f>
         <v>152</v>
       </c>
-      <c r="BN4" s="18">
+      <c r="BN4" s="19">
         <f>FLOOR(300/(BJ4-BK4),100)</f>
         <v>100</v>
       </c>
-      <c r="BO4" s="84">
+      <c r="BO4" s="85">
         <f>(BL4-BJ4)/(BJ4-BK4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BP4" s="43">
+      <c r="BP4" s="44">
         <f>(BJ4-BK4)/BJ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BQ4" s="43">
+      <c r="BQ4" s="44">
         <f>(BL4-BJ4)/BJ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BR4" s="93">
+      <c r="BR4" s="94">
         <v>150.88</v>
       </c>
-      <c r="BS4" s="56" t="s">
+      <c r="BS4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" s="94" t="s">
+      <c r="BT4" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="103"/>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="103"/>
-      <c r="CA4" s="103"/>
-      <c r="CC4" s="109"/>
-      <c r="CD4" s="109"/>
-      <c r="CE4" s="109"/>
-      <c r="CF4" s="109"/>
-      <c r="CG4" s="109"/>
-      <c r="CH4" s="109"/>
-      <c r="CI4" s="109"/>
-      <c r="CJ4" s="109"/>
-      <c r="CL4" s="109"/>
-      <c r="CM4" s="109"/>
-      <c r="CN4" s="109"/>
-      <c r="CO4" s="109"/>
-      <c r="CP4" s="109"/>
-      <c r="CQ4" s="109"/>
-      <c r="CR4" s="109"/>
-      <c r="CT4" s="109"/>
-      <c r="CU4" s="109"/>
-      <c r="CV4" s="109"/>
-      <c r="CW4" s="109"/>
-      <c r="CX4" s="109"/>
-      <c r="CY4" s="109"/>
-      <c r="CZ4" s="109"/>
-      <c r="DB4" s="109"/>
-      <c r="DC4" s="109"/>
-      <c r="DD4" s="109"/>
-      <c r="DE4" s="109"/>
-      <c r="DF4" s="109"/>
-      <c r="DG4" s="109"/>
-      <c r="DH4" s="109"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="104"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="104"/>
+      <c r="BY4" s="104"/>
+      <c r="BZ4" s="104"/>
+      <c r="CA4" s="104"/>
+      <c r="CC4" s="110"/>
+      <c r="CD4" s="110"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="110"/>
+      <c r="CI4" s="110"/>
+      <c r="CJ4" s="110"/>
+      <c r="CL4" s="110"/>
+      <c r="CM4" s="110"/>
+      <c r="CN4" s="110"/>
+      <c r="CO4" s="110"/>
+      <c r="CP4" s="110"/>
+      <c r="CQ4" s="110"/>
+      <c r="CR4" s="110"/>
+      <c r="CT4" s="110"/>
+      <c r="CU4" s="110"/>
+      <c r="CV4" s="110"/>
+      <c r="CW4" s="110"/>
+      <c r="CX4" s="110"/>
+      <c r="CY4" s="110"/>
+      <c r="CZ4" s="110"/>
+      <c r="DB4" s="110"/>
+      <c r="DC4" s="110"/>
+      <c r="DD4" s="110"/>
+      <c r="DE4" s="110"/>
+      <c r="DF4" s="110"/>
+      <c r="DG4" s="110"/>
+      <c r="DH4" s="110"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:73">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>44517</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>31.92</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>32.63</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19">
         <v>33.17</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
         <v>33.73</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>22.98</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <v>44.42</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="44">
         <f t="shared" ref="K5:K14" si="1">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="44">
         <f t="shared" ref="L5:L14" si="2">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="19">
         <v>30.78</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="19">
         <v>35</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <v>31.27</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="19">
         <v>34.82</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="19">
         <v>32.12</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="19">
         <v>34.11</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="19">
         <v>32.53</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="X5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="44">
         <f t="shared" ref="Y5:Y14" si="3">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="43">
+      <c r="Z5" s="44">
         <f t="shared" ref="Z5:Z14" si="4">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="43">
+      <c r="AA5" s="44">
         <f t="shared" ref="AA5:AA14" si="5">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="43">
+      <c r="AB5" s="44">
         <f t="shared" ref="AB5:AB14" si="6">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="43" t="e">
+      <c r="AC5" s="44" t="e">
         <f>(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="52" t="s">
+      <c r="AE5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="56" t="s">
+      <c r="AF5" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56" t="s">
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="43">
+      <c r="AI5" s="44">
         <v>0.0351</v>
       </c>
-      <c r="AJ5" s="43">
+      <c r="AJ5" s="44">
         <v>0.3603</v>
       </c>
-      <c r="AK5" s="43">
+      <c r="AK5" s="44">
         <v>0.3371</v>
       </c>
-      <c r="AL5" s="43">
+      <c r="AL5" s="44">
         <v>0.2435</v>
       </c>
-      <c r="AM5" s="43">
+      <c r="AM5" s="44">
         <v>0.263</v>
       </c>
-      <c r="AN5" s="43">
+      <c r="AN5" s="44">
         <v>0.003</v>
       </c>
-      <c r="AO5" s="43">
+      <c r="AO5" s="44">
         <v>0.0758</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AP5" s="44">
         <v>-0.2476</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AQ5" s="44">
         <v>0.0073</v>
       </c>
-      <c r="AR5" s="43">
+      <c r="AR5" s="44">
         <v>0.2143</v>
       </c>
-      <c r="AS5" s="43">
+      <c r="AS5" s="44">
         <v>0.156</v>
       </c>
-      <c r="AT5" s="43">
+      <c r="AT5" s="44">
         <v>0.1125</v>
       </c>
-      <c r="AU5" s="76">
+      <c r="AU5" s="77">
         <v>0.2584</v>
       </c>
-      <c r="AV5" s="76">
+      <c r="AV5" s="77">
         <v>-0.0411</v>
       </c>
-      <c r="AW5" s="76">
+      <c r="AW5" s="77">
         <v>0.0156</v>
       </c>
-      <c r="AX5" s="76">
+      <c r="AX5" s="77">
         <v>-0.167</v>
       </c>
-      <c r="AY5" s="76">
+      <c r="AY5" s="77">
         <v>0.4704</v>
       </c>
-      <c r="AZ5" s="76">
+      <c r="AZ5" s="77">
         <v>0.4673</v>
       </c>
-      <c r="BA5" s="76">
+      <c r="BA5" s="77">
         <v>0.4797</v>
       </c>
-      <c r="BB5" s="76">
+      <c r="BB5" s="77">
         <v>0.4796</v>
       </c>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18">
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19">
         <v>35.48</v>
       </c>
-      <c r="BH5" s="18">
+      <c r="BH5" s="19">
         <v>31.36</v>
       </c>
-      <c r="BI5" s="18">
+      <c r="BI5" s="19">
         <f t="shared" ref="BI5:BI14" si="7">BG5-BH5</f>
         <v>4.12</v>
       </c>
-      <c r="BJ5" s="18">
+      <c r="BJ5" s="19">
         <v>34.12</v>
       </c>
-      <c r="BK5" s="18">
+      <c r="BK5" s="19">
         <v>32.53</v>
       </c>
-      <c r="BL5" s="18">
+      <c r="BL5" s="19">
         <v>39.33</v>
       </c>
-      <c r="BM5" s="18">
+      <c r="BM5" s="19">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="BN5" s="18">
+      <c r="BN5" s="19">
         <f>FLOOR(300/(BJ5-BK5),100)</f>
         <v>100</v>
       </c>
-      <c r="BO5" s="84">
+      <c r="BO5" s="85">
         <f t="shared" ref="BO5:BO14" si="8">(BL5-BJ5)/(BJ5-BK5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BP5" s="43">
+      <c r="BP5" s="44">
         <f t="shared" ref="BP5:BP14" si="9">(BJ5-BK5)/BJ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BQ5" s="43">
+      <c r="BQ5" s="44">
         <f t="shared" ref="BQ5:BQ14" si="10">(BL5-BJ5)/BJ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BR5" s="93">
+      <c r="BR5" s="94">
         <v>37.41</v>
       </c>
-      <c r="BS5" s="52" t="s">
+      <c r="BS5" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT5" s="94" t="s">
+      <c r="BT5" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BU5" s="104"/>
+      <c r="BU5" s="105"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>44519</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>28.2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>29.15</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <v>31.53</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="19">
         <v>32.57</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="19">
         <v>20.61</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <v>41.5</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="44">
         <f t="shared" si="1"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="44">
         <f t="shared" si="2"/>
         <v>0.215180722891566</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="19">
         <v>28.42</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="19">
         <v>34.7</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="19">
         <v>29</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="19">
         <v>35.27</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="19">
         <v>30.89</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="50">
         <v>34.66</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="51">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="52" t="s">
+      <c r="X6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="44">
         <f t="shared" si="3"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="44">
         <f t="shared" si="4"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="44">
         <f t="shared" si="5"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="44">
         <f t="shared" si="6"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="43" t="e">
+      <c r="AC6" s="44" t="e">
         <f>(T6-U6)/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="52" t="s">
+      <c r="AE6" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="56" t="s">
+      <c r="AF6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56" t="s">
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="68" t="s">
+      <c r="AI6" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="68" t="s">
+      <c r="AJ6" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="68" t="s">
+      <c r="AK6" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" s="68" t="s">
+      <c r="AL6" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="68" t="s">
+      <c r="AM6" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="68" t="s">
+      <c r="AN6" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="68" t="s">
+      <c r="AO6" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" s="68" t="s">
+      <c r="AP6" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" s="68" t="s">
+      <c r="AQ6" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="68" t="s">
+      <c r="AR6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="68" t="s">
+      <c r="AS6" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="68" t="s">
+      <c r="AT6" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AU6" s="68">
+      <c r="AU6" s="69">
         <v>0.0455</v>
       </c>
-      <c r="AV6" s="68">
+      <c r="AV6" s="69">
         <v>-0.0116</v>
       </c>
-      <c r="AW6" s="68">
+      <c r="AW6" s="69">
         <v>0.1549</v>
       </c>
-      <c r="AX6" s="68">
+      <c r="AX6" s="69">
         <v>-0.1474</v>
       </c>
-      <c r="AY6" s="68">
+      <c r="AY6" s="69">
         <v>0.2133</v>
       </c>
-      <c r="AZ6" s="68">
+      <c r="AZ6" s="69">
         <v>0.1848</v>
       </c>
-      <c r="BA6" s="43">
+      <c r="BA6" s="44">
         <v>0.1718</v>
       </c>
-      <c r="BB6" s="43">
+      <c r="BB6" s="44">
         <v>0.1605</v>
       </c>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18">
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19">
         <v>36.21</v>
       </c>
-      <c r="BH6" s="18">
+      <c r="BH6" s="19">
         <v>27.35</v>
       </c>
-      <c r="BI6" s="18">
+      <c r="BI6" s="19">
         <f t="shared" si="7"/>
         <v>8.86</v>
       </c>
-      <c r="BJ6" s="18">
+      <c r="BJ6" s="19">
         <v>32.65</v>
       </c>
-      <c r="BK6" s="18">
+      <c r="BK6" s="19">
         <v>30.89</v>
       </c>
-      <c r="BL6" s="18">
+      <c r="BL6" s="19">
         <v>36.22</v>
       </c>
-      <c r="BM6" s="18">
+      <c r="BM6" s="19">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="BN6" s="18">
+      <c r="BN6" s="19">
         <f>FLOOR(300/(BJ6-BK6),100)</f>
         <v>100</v>
       </c>
-      <c r="BO6" s="84">
+      <c r="BO6" s="85">
         <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BP6" s="43">
+      <c r="BP6" s="44">
         <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BQ6" s="43">
+      <c r="BQ6" s="44">
         <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BR6" s="93">
+      <c r="BR6" s="94">
         <v>28.82</v>
       </c>
-      <c r="BS6" s="52" t="s">
+      <c r="BS6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT6" s="94" t="s">
+      <c r="BT6" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BU6" s="105"/>
+      <c r="BU6" s="106"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>44525</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>64.32</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>68.37</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <v>69.16</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <v>40.64</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="22">
         <v>90.29</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="44">
         <f t="shared" si="1"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="44">
         <f t="shared" si="2"/>
         <v>0.234023701406579</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="22">
         <v>60.05</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="22">
         <v>74.75</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="22">
         <v>65.5</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="22">
         <v>70.98</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="22">
         <v>66.88</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="22">
         <v>77.98</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="22">
         <v>71.58</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21" t="s">
+      <c r="T7" s="22">
+        <v>77.98</v>
+      </c>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="44">
         <f t="shared" si="3"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="43">
+      <c r="Z7" s="44">
         <f t="shared" si="4"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="43">
+      <c r="AA7" s="44">
         <f t="shared" si="5"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="43">
+      <c r="AB7" s="44">
         <f t="shared" si="6"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21" t="s">
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AF7" s="57" t="s">
+      <c r="AF7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57">
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58">
         <v>10.35</v>
       </c>
-      <c r="AI7" s="68" t="s">
+      <c r="AI7" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="68" t="s">
+      <c r="AJ7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="68" t="s">
+      <c r="AK7" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="68" t="s">
+      <c r="AL7" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="68" t="s">
+      <c r="AM7" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" s="68" t="s">
+      <c r="AN7" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="68" t="s">
+      <c r="AO7" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AP7" s="68" t="s">
+      <c r="AP7" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AQ7" s="68" t="s">
+      <c r="AQ7" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="AR7" s="68" t="s">
+      <c r="AR7" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" s="68" t="s">
+      <c r="AS7" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="AT7" s="68" t="s">
+      <c r="AT7" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="AU7" s="68" t="s">
+      <c r="AU7" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="68" t="s">
+      <c r="AV7" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="AW7" s="68" t="s">
+      <c r="AW7" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="AX7" s="68" t="s">
+      <c r="AX7" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="68" t="s">
+      <c r="AY7" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AZ7" s="68" t="s">
+      <c r="AZ7" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="BA7" s="43">
+      <c r="BA7" s="44">
         <v>0.7636</v>
       </c>
-      <c r="BB7" s="43">
+      <c r="BB7" s="44">
         <v>0.7607</v>
       </c>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21">
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22">
         <v>75.02</v>
       </c>
-      <c r="BH7" s="21">
+      <c r="BH7" s="22">
         <v>62.33</v>
       </c>
-      <c r="BI7" s="18">
+      <c r="BI7" s="19">
         <f t="shared" si="7"/>
         <v>12.69</v>
       </c>
-      <c r="BJ7" s="21">
+      <c r="BJ7" s="22">
         <v>70.98</v>
       </c>
-      <c r="BK7" s="21">
+      <c r="BK7" s="22">
         <v>66.88</v>
       </c>
-      <c r="BL7" s="21">
+      <c r="BL7" s="22">
         <v>84.94</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="19">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="19">
         <f>FLOOR(300/(BJ7-BK7),100)</f>
         <v>0</v>
       </c>
-      <c r="BO7" s="84">
+      <c r="BO7" s="85">
         <f t="shared" si="8"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BP7" s="43">
+      <c r="BP7" s="44">
         <f t="shared" si="9"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BQ7" s="43">
+      <c r="BQ7" s="44">
         <f t="shared" si="10"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BR7" s="95">
+      <c r="BR7" s="96">
         <v>6.49</v>
       </c>
-      <c r="BS7" s="57" t="s">
+      <c r="BS7" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="BT7" s="94" t="s">
+      <c r="BT7" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BU7" s="105"/>
+      <c r="BU7" s="106"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:73">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <v>44522</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>28.37</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="22">
         <v>29.06</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>29.49</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
         <v>29.69</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="22">
         <v>17.54</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="22">
         <v>48.5</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="45">
         <f t="shared" si="1"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="45">
         <f t="shared" si="2"/>
         <v>0.387835051546392</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="22">
         <v>24.11</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="22">
         <v>38.16</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="22">
         <v>25.12</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="22">
         <v>30.9</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="22">
         <v>29.2</v>
       </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21" t="s">
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="45">
         <f t="shared" si="3"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="44">
+      <c r="Z8" s="45">
         <f t="shared" si="4"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="44">
+      <c r="AA8" s="45">
         <f t="shared" si="5"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="44" t="e">
+      <c r="AB8" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="44" t="e">
+      <c r="AC8" s="45" t="e">
         <f>(T8-U8)/T8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21" t="s">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="57" t="s">
+      <c r="AF8" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21">
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22">
         <v>32.43</v>
       </c>
-      <c r="BH8" s="21">
+      <c r="BH8" s="22">
         <v>26.16</v>
       </c>
-      <c r="BI8" s="80">
+      <c r="BI8" s="81">
         <f t="shared" si="7"/>
         <v>6.27</v>
       </c>
-      <c r="BJ8" s="21">
+      <c r="BJ8" s="22">
         <v>30.66</v>
       </c>
-      <c r="BK8" s="21">
+      <c r="BK8" s="22">
         <v>29.35</v>
       </c>
-      <c r="BL8" s="21">
+      <c r="BL8" s="22">
         <v>38.71</v>
       </c>
-      <c r="BM8" s="80">
+      <c r="BM8" s="81">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="BN8" s="21">
+      <c r="BN8" s="22">
         <f>FLOOR(300/(BJ8-BK8),100)</f>
         <v>200</v>
       </c>
-      <c r="BO8" s="85">
+      <c r="BO8" s="86">
         <f t="shared" si="8"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BP8" s="44">
+      <c r="BP8" s="45">
         <f t="shared" si="9"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BQ8" s="44">
+      <c r="BQ8" s="45">
         <f t="shared" si="10"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BR8" s="95">
+      <c r="BR8" s="96">
         <v>38.46</v>
       </c>
-      <c r="BS8" s="57" t="s">
+      <c r="BS8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" s="94" t="s">
+      <c r="BT8" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BU8" s="105"/>
+      <c r="BU8" s="106"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="13" spans="1:73">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="23">
         <v>44529</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>22.26</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>22.69</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="25">
         <v>24.83</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
         <v>28.99</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="25">
         <v>14.46</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="25">
         <v>31.94</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="46">
         <f t="shared" si="1"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="46">
         <f t="shared" si="2"/>
         <v>0.0923606762680026</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="25">
         <v>20.63</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="25">
         <v>25.66</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="25">
         <v>21.46</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="25">
         <v>28.89</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="25">
         <v>24.22</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="25">
         <v>29.7</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="25">
         <v>27.72</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24" t="s">
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="44">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="44">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="43">
+      <c r="AA9" s="44">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="43">
+      <c r="AB9" s="44">
         <f t="shared" si="6"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="44" t="e">
+      <c r="AC9" s="45" t="e">
         <f>(T9-U9)/T9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24" t="s">
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="58" t="s">
+      <c r="AF9" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58">
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59">
         <v>6.25</v>
       </c>
-      <c r="AI9" s="70">
+      <c r="AI9" s="71">
         <v>1.5016</v>
       </c>
-      <c r="AJ9" s="70">
+      <c r="AJ9" s="71">
         <v>5.5181</v>
       </c>
-      <c r="AK9" s="70">
+      <c r="AK9" s="71">
         <v>3.3249</v>
       </c>
-      <c r="AL9" s="70">
+      <c r="AL9" s="71">
         <v>1.8449</v>
       </c>
-      <c r="AM9" s="68">
+      <c r="AM9" s="69">
         <v>0.3554</v>
       </c>
-      <c r="AN9" s="68">
+      <c r="AN9" s="69">
         <v>0.2495</v>
       </c>
-      <c r="AO9" s="68">
+      <c r="AO9" s="69">
         <v>0.1071</v>
       </c>
-      <c r="AP9" s="68">
+      <c r="AP9" s="69">
         <v>-0.134</v>
       </c>
-      <c r="AQ9" s="68">
+      <c r="AQ9" s="69">
         <v>0.0437</v>
       </c>
-      <c r="AR9" s="68">
+      <c r="AR9" s="69">
         <v>1.1403</v>
       </c>
-      <c r="AS9" s="68">
+      <c r="AS9" s="69">
         <v>1.4349</v>
       </c>
-      <c r="AT9" s="68">
+      <c r="AT9" s="69">
         <v>1.2425</v>
       </c>
-      <c r="AU9" s="70">
+      <c r="AU9" s="71">
         <v>0.2131</v>
       </c>
-      <c r="AV9" s="70">
+      <c r="AV9" s="71">
         <v>0.2062</v>
       </c>
-      <c r="AW9" s="70">
+      <c r="AW9" s="71">
         <v>0.334</v>
       </c>
-      <c r="AX9" s="70">
+      <c r="AX9" s="71">
         <v>0.0105</v>
       </c>
-      <c r="AY9" s="70">
+      <c r="AY9" s="71">
         <v>0.3392</v>
       </c>
-      <c r="AZ9" s="70">
+      <c r="AZ9" s="71">
         <v>0.3777</v>
       </c>
-      <c r="BA9" s="45">
+      <c r="BA9" s="46">
         <v>0.3722</v>
       </c>
-      <c r="BB9" s="45">
+      <c r="BB9" s="46">
         <v>0.3621</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="25">
         <v>31.18</v>
       </c>
-      <c r="BH9" s="24">
+      <c r="BH9" s="25">
         <v>21.1</v>
       </c>
-      <c r="BI9" s="81">
+      <c r="BI9" s="82">
         <f t="shared" si="7"/>
         <v>10.08</v>
       </c>
-      <c r="BJ9" s="24">
+      <c r="BJ9" s="25">
         <v>29.77</v>
       </c>
-      <c r="BK9" s="24">
+      <c r="BK9" s="25">
         <v>27.72</v>
       </c>
-      <c r="BL9" s="24">
+      <c r="BL9" s="25">
         <v>34.93</v>
       </c>
-      <c r="BM9" s="81">
+      <c r="BM9" s="82">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="BN9" s="24">
+      <c r="BN9" s="25">
         <f>FLOOR(300/(BJ9-BK9),100)</f>
         <v>100</v>
       </c>
-      <c r="BO9" s="86">
+      <c r="BO9" s="87">
         <f t="shared" si="8"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BP9" s="45">
+      <c r="BP9" s="46">
         <f t="shared" si="9"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BQ9" s="45">
+      <c r="BQ9" s="46">
         <f t="shared" si="10"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BR9" s="96">
+      <c r="BR9" s="97">
         <v>17.95</v>
       </c>
-      <c r="BS9" s="58" t="s">
+      <c r="BS9" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="BT9" s="58" t="s">
+      <c r="BT9" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="BU9" s="106"/>
+      <c r="BU9" s="107"/>
     </row>
     <row r="10" ht="13" spans="1:72">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>44531</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="26">
         <v>18.62</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="26">
         <v>19.35</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="26">
         <v>21.48</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26">
         <v>23.35</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <v>13.04</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="26">
         <v>26.64</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="47">
         <f t="shared" si="1"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="47">
         <f t="shared" si="2"/>
         <v>0.123498498498498</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="26">
         <v>18.5</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="26">
         <v>22.39</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="26">
         <v>18.85</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="26">
         <v>23.56</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="26">
         <v>20.89</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="26">
         <v>24.3</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="26">
         <v>22.26</v>
       </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25" t="s">
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="Y10" s="53">
+      <c r="Y10" s="54">
         <f t="shared" si="3"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="54">
         <f t="shared" si="4"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="54">
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="53">
+      <c r="AB10" s="54">
         <f t="shared" si="6"/>
         <v>0.0839506172839506</v>
       </c>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25" t="s">
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="59" t="s">
+      <c r="AF10" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59">
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="71" t="s">
+      <c r="AI10" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="71" t="s">
+      <c r="AJ10" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="71" t="s">
+      <c r="AK10" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="71" t="s">
+      <c r="AL10" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="74">
+      <c r="AM10" s="75">
         <v>2.6193</v>
       </c>
-      <c r="AN10" s="74">
+      <c r="AN10" s="75">
         <v>0.0893</v>
       </c>
-      <c r="AO10" s="74">
+      <c r="AO10" s="75">
         <v>-0.0175</v>
       </c>
-      <c r="AP10" s="74">
+      <c r="AP10" s="75">
         <v>-0.2195</v>
       </c>
-      <c r="AQ10" s="71">
+      <c r="AQ10" s="72">
         <v>-0.0419</v>
       </c>
-      <c r="AR10" s="71">
+      <c r="AR10" s="72">
         <v>0.1981</v>
       </c>
-      <c r="AS10" s="71">
+      <c r="AS10" s="72">
         <v>0.198</v>
       </c>
-      <c r="AT10" s="71">
+      <c r="AT10" s="72">
         <v>0.1998</v>
       </c>
-      <c r="AU10" s="72">
+      <c r="AU10" s="73">
         <v>0.1893</v>
       </c>
-      <c r="AV10" s="71">
+      <c r="AV10" s="72">
         <v>-0.0513</v>
       </c>
-      <c r="AW10" s="71">
+      <c r="AW10" s="72">
         <v>0.0188</v>
       </c>
-      <c r="AX10" s="71">
+      <c r="AX10" s="72">
         <v>0.0467</v>
       </c>
-      <c r="AY10" s="72">
+      <c r="AY10" s="73">
         <v>0.2619</v>
       </c>
-      <c r="AZ10" s="72">
+      <c r="AZ10" s="73">
         <v>0.259</v>
       </c>
-      <c r="BA10" s="46">
+      <c r="BA10" s="47">
         <v>0.2791</v>
       </c>
-      <c r="BB10" s="46">
+      <c r="BB10" s="47">
         <v>0.1079</v>
       </c>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25">
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26">
         <v>25.59</v>
       </c>
-      <c r="BH10" s="25">
+      <c r="BH10" s="26">
         <v>18.59</v>
       </c>
-      <c r="BI10" s="82">
+      <c r="BI10" s="83">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="BJ10" s="25">
+      <c r="BJ10" s="26">
         <v>24.28</v>
       </c>
-      <c r="BK10" s="25">
+      <c r="BK10" s="26">
         <v>22.26</v>
       </c>
-      <c r="BL10" s="25">
+      <c r="BL10" s="26">
         <v>26.72</v>
       </c>
-      <c r="BM10" s="82">
+      <c r="BM10" s="83">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="BN10" s="25">
+      <c r="BN10" s="26">
         <f>FLOOR(304/(BJ10-BK10),100)</f>
         <v>100</v>
       </c>
-      <c r="BO10" s="87">
+      <c r="BO10" s="88">
         <f t="shared" si="8"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BP10" s="46">
+      <c r="BP10" s="47">
         <f t="shared" si="9"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BQ10" s="46">
+      <c r="BQ10" s="47">
         <f t="shared" si="10"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BR10" s="97">
+      <c r="BR10" s="98">
         <v>56.67</v>
       </c>
-      <c r="BS10" s="59" t="s">
+      <c r="BS10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BT10" s="62" t="s">
+      <c r="BT10" s="63" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" ht="13" spans="1:72">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="29">
         <v>44533</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <v>20.71</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>21.02</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="26">
         <v>21.31</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26">
         <v>22.29</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <v>7.66</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="26">
         <v>29.28</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="47">
         <f>(H11-I11)/I11</f>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="47">
         <f>(J11-H11)/J11</f>
         <v>0.238729508196721</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="26">
         <v>18.34</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="26">
         <v>21.65</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="26">
         <v>18.61</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="26">
         <v>21.14</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="26">
         <v>18.86</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="26">
         <v>23.35</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="26">
         <v>21.6</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25" t="s">
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Y11" s="53">
+      <c r="Y11" s="54">
         <f>(J11-M11)/J11</f>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="54">
         <f>(N11-O11)/N11</f>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="53">
+      <c r="AA11" s="54">
         <f>(P11-Q11)/P11</f>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="53">
+      <c r="AB11" s="54">
         <f>(R11-S11)/R11</f>
         <v>0.0749464668094218</v>
       </c>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25" t="s">
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AF11" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25">
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26">
         <v>8.51</v>
       </c>
-      <c r="AI11" s="46">
+      <c r="AI11" s="47">
         <v>3.6019</v>
       </c>
-      <c r="AJ11" s="46">
+      <c r="AJ11" s="47">
         <v>16.933</v>
       </c>
-      <c r="AK11" s="46">
+      <c r="AK11" s="47">
         <v>7.9794</v>
       </c>
-      <c r="AL11" s="46">
+      <c r="AL11" s="47">
         <v>3.2905</v>
       </c>
-      <c r="AM11" s="46">
+      <c r="AM11" s="47">
         <v>1.3176</v>
       </c>
-      <c r="AN11" s="46">
+      <c r="AN11" s="47">
         <v>0.0128</v>
       </c>
-      <c r="AO11" s="75">
+      <c r="AO11" s="76">
         <v>-0.2701</v>
       </c>
-      <c r="AP11" s="75">
+      <c r="AP11" s="76">
         <v>0.2668</v>
       </c>
-      <c r="AQ11" s="46">
+      <c r="AQ11" s="47">
         <v>0.0496</v>
       </c>
-      <c r="AR11" s="46">
+      <c r="AR11" s="47">
         <v>0.7137</v>
       </c>
-      <c r="AS11" s="75">
+      <c r="AS11" s="76">
         <v>0.3284</v>
       </c>
-      <c r="AT11" s="75">
+      <c r="AT11" s="76">
         <v>0.4288</v>
       </c>
-      <c r="AU11" s="46">
+      <c r="AU11" s="47">
         <v>0.52</v>
       </c>
-      <c r="AV11" s="75">
+      <c r="AV11" s="76">
         <v>-0.119</v>
       </c>
-      <c r="AW11" s="75">
+      <c r="AW11" s="76">
         <v>0.0208</v>
       </c>
-      <c r="AX11" s="75">
+      <c r="AX11" s="76">
         <v>0.1948</v>
       </c>
-      <c r="AY11" s="46">
+      <c r="AY11" s="47">
         <v>0.1781</v>
       </c>
-      <c r="AZ11" s="46">
+      <c r="AZ11" s="47">
         <v>0.2286</v>
       </c>
-      <c r="BA11" s="46">
+      <c r="BA11" s="47">
         <v>0.2077</v>
       </c>
-      <c r="BB11" s="46">
+      <c r="BB11" s="47">
         <v>0.1904</v>
       </c>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25">
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26">
         <v>24.2</v>
       </c>
-      <c r="BH11" s="25">
+      <c r="BH11" s="26">
         <v>18.22</v>
       </c>
-      <c r="BI11" s="82">
+      <c r="BI11" s="83">
         <f>BG11-BH11</f>
         <v>5.98</v>
       </c>
-      <c r="BJ11" s="25">
+      <c r="BJ11" s="26">
         <v>23.35</v>
       </c>
-      <c r="BK11" s="25">
+      <c r="BK11" s="26">
         <v>21.6</v>
       </c>
-      <c r="BL11" s="25">
+      <c r="BL11" s="26">
         <v>28.54</v>
       </c>
-      <c r="BM11" s="82">
+      <c r="BM11" s="83">
         <f>(BJ11-BK11)*100</f>
         <v>175</v>
       </c>
-      <c r="BN11" s="25">
+      <c r="BN11" s="26">
         <f>FLOOR(304/(BJ11-BK11),100)</f>
         <v>100</v>
       </c>
-      <c r="BO11" s="87">
+      <c r="BO11" s="88">
         <f>(BL11-BJ11)/(BJ11-BK11)</f>
         <v>2.96571428571428</v>
       </c>
-      <c r="BP11" s="46">
+      <c r="BP11" s="47">
         <f>(BJ11-BK11)/BJ11</f>
         <v>0.0749464668094218</v>
       </c>
-      <c r="BQ11" s="46">
+      <c r="BQ11" s="47">
         <f>(BL11-BJ11)/BJ11</f>
         <v>0.222269807280514</v>
       </c>
-      <c r="BR11" s="97">
+      <c r="BR11" s="98">
         <v>39.84</v>
       </c>
-      <c r="BS11" s="59" t="s">
+      <c r="BS11" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="62" t="s">
+      <c r="BT11" s="63" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:72">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="29">
         <v>44533</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="26">
         <v>30.42</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="26">
         <v>32.04</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="26">
         <v>36.43</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26">
         <v>39.7</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <v>18.82</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="26">
         <v>41.66</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="47">
         <f>(H12-I12)/I12</f>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="47">
         <f>(J12-H12)/J12</f>
         <v>0.0470475276044166</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="26">
         <v>31.25</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="26">
         <v>36.69</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="26">
         <v>32.91</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="26">
         <v>38.45</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="26">
         <v>36.04</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="26">
         <v>41.38</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12" s="26">
         <v>38.36</v>
       </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25" t="s">
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" s="53">
+      <c r="Y12" s="54">
         <f>(J12-M12)/J12</f>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="53">
+      <c r="Z12" s="54">
         <f>(N12-O12)/N12</f>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="53">
+      <c r="AA12" s="54">
         <f>(P12-Q12)/P12</f>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AB12" s="54">
         <f>(R12-S12)/R12</f>
         <v>0.0729821169647173</v>
       </c>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25" t="s">
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25">
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26">
         <v>2.2</v>
       </c>
-      <c r="AI12" s="46">
+      <c r="AI12" s="47">
         <v>0.0112</v>
       </c>
-      <c r="AJ12" s="46">
+      <c r="AJ12" s="47">
         <v>0.8116</v>
       </c>
-      <c r="AK12" s="46">
+      <c r="AK12" s="47">
         <v>0.7087</v>
       </c>
-      <c r="AL12" s="46">
+      <c r="AL12" s="47">
         <v>0.7083</v>
       </c>
-      <c r="AM12" s="46">
+      <c r="AM12" s="47">
         <v>0.006</v>
       </c>
-      <c r="AN12" s="46">
+      <c r="AN12" s="47">
         <v>0.3442</v>
       </c>
-      <c r="AO12" s="46">
+      <c r="AO12" s="47">
         <v>0.247</v>
       </c>
-      <c r="AP12" s="46">
+      <c r="AP12" s="47">
         <v>0.0127</v>
       </c>
-      <c r="AQ12" s="46">
+      <c r="AQ12" s="47">
         <v>0.1618</v>
       </c>
-      <c r="AR12" s="46">
+      <c r="AR12" s="47">
         <v>1.016</v>
       </c>
-      <c r="AS12" s="46">
+      <c r="AS12" s="47">
         <v>0.5767</v>
       </c>
-      <c r="AT12" s="46">
+      <c r="AT12" s="47">
         <v>0.477</v>
       </c>
-      <c r="AU12" s="46">
+      <c r="AU12" s="47">
         <v>0.4664</v>
       </c>
-      <c r="AV12" s="75">
+      <c r="AV12" s="76">
         <v>-0.1139</v>
       </c>
-      <c r="AW12" s="75">
+      <c r="AW12" s="76">
         <v>-0.0272</v>
       </c>
-      <c r="AX12" s="75">
+      <c r="AX12" s="76">
         <v>0.0402</v>
       </c>
-      <c r="AY12" s="46">
+      <c r="AY12" s="47">
         <v>0.5316</v>
       </c>
-      <c r="AZ12" s="46">
+      <c r="AZ12" s="47">
         <v>0.5499</v>
       </c>
-      <c r="BA12" s="46">
+      <c r="BA12" s="47">
         <v>0.5374</v>
       </c>
-      <c r="BB12" s="46">
+      <c r="BB12" s="47">
         <v>0.5361</v>
       </c>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="25"/>
-      <c r="BE12" s="25"/>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25">
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26">
         <v>42.71</v>
       </c>
-      <c r="BH12" s="25">
+      <c r="BH12" s="26">
         <v>32.98</v>
       </c>
-      <c r="BI12" s="82">
+      <c r="BI12" s="83">
         <f>BG12-BH12</f>
         <v>9.73</v>
       </c>
-      <c r="BJ12" s="25">
+      <c r="BJ12" s="26">
         <v>40.42</v>
       </c>
-      <c r="BK12" s="25">
+      <c r="BK12" s="26">
         <v>38.36</v>
       </c>
-      <c r="BL12" s="25">
+      <c r="BL12" s="26">
         <v>42.87</v>
       </c>
-      <c r="BM12" s="82">
+      <c r="BM12" s="83">
         <f>(BJ12-BK12)*100</f>
         <v>206</v>
       </c>
-      <c r="BN12" s="25">
+      <c r="BN12" s="26">
         <f>FLOOR(304/(BJ12-BK12),100)</f>
         <v>100</v>
       </c>
-      <c r="BO12" s="87">
+      <c r="BO12" s="88">
         <f>(BL12-BJ12)/(BJ12-BK12)</f>
         <v>1.18932038834951</v>
       </c>
-      <c r="BP12" s="46">
+      <c r="BP12" s="47">
         <f>(BJ12-BK12)/BJ12</f>
         <v>0.0509648688767937</v>
       </c>
-      <c r="BQ12" s="46">
+      <c r="BQ12" s="47">
         <f>(BL12-BJ12)/BJ12</f>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BR12" s="97">
+      <c r="BR12" s="98">
         <v>25.4</v>
       </c>
-      <c r="BS12" s="59" t="s">
+      <c r="BS12" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BT12" s="62" t="s">
+      <c r="BT12" s="63" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="36" spans="1:73">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="29">
         <v>44533</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="26">
         <v>22.61</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>23.06</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <v>25.4</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26">
         <v>27.76</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <v>14.46</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <v>31.94</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="47">
         <f>(H13-I13)/I13</f>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="47">
         <f>(J13-H13)/J13</f>
         <v>0.130870381966187</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="26">
         <v>20.63</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="26">
         <v>25.66</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="26">
         <v>21.46</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="26">
         <v>28.89</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="26">
         <v>24.22</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="26">
         <v>30.32</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="26">
         <v>27.44</v>
       </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25" t="s">
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="53">
+      <c r="Y13" s="54">
         <f>(J13-M13)/J13</f>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="53">
+      <c r="Z13" s="54">
         <f>(N13-O13)/N13</f>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="54">
         <f>(P13-Q13)/P13</f>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="53">
+      <c r="AB13" s="54">
         <f>(R13-S13)/R13</f>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25" t="s">
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AF13" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59">
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60">
         <v>6.25</v>
       </c>
-      <c r="AI13" s="72">
+      <c r="AI13" s="73">
         <v>1.5016</v>
       </c>
-      <c r="AJ13" s="72">
+      <c r="AJ13" s="73">
         <v>5.5181</v>
       </c>
-      <c r="AK13" s="72">
+      <c r="AK13" s="73">
         <v>3.3249</v>
       </c>
-      <c r="AL13" s="72">
+      <c r="AL13" s="73">
         <v>1.8449</v>
       </c>
-      <c r="AM13" s="74">
+      <c r="AM13" s="75">
         <v>0.3554</v>
       </c>
-      <c r="AN13" s="74">
+      <c r="AN13" s="75">
         <v>0.2495</v>
       </c>
-      <c r="AO13" s="74">
+      <c r="AO13" s="75">
         <v>0.1071</v>
       </c>
-      <c r="AP13" s="74">
+      <c r="AP13" s="75">
         <v>-0.134</v>
       </c>
-      <c r="AQ13" s="74">
+      <c r="AQ13" s="75">
         <v>0.0437</v>
       </c>
-      <c r="AR13" s="74">
+      <c r="AR13" s="75">
         <v>1.1403</v>
       </c>
-      <c r="AS13" s="74">
+      <c r="AS13" s="75">
         <v>1.4349</v>
       </c>
-      <c r="AT13" s="74">
+      <c r="AT13" s="75">
         <v>1.2425</v>
       </c>
-      <c r="AU13" s="72">
+      <c r="AU13" s="73">
         <v>0.2131</v>
       </c>
-      <c r="AV13" s="72">
+      <c r="AV13" s="73">
         <v>0.2062</v>
       </c>
-      <c r="AW13" s="72">
+      <c r="AW13" s="73">
         <v>0.334</v>
       </c>
-      <c r="AX13" s="72">
+      <c r="AX13" s="73">
         <v>0.0105</v>
       </c>
-      <c r="AY13" s="72">
+      <c r="AY13" s="73">
         <v>0.3392</v>
       </c>
-      <c r="AZ13" s="72">
+      <c r="AZ13" s="73">
         <v>0.3777</v>
       </c>
-      <c r="BA13" s="46">
+      <c r="BA13" s="47">
         <v>0.3722</v>
       </c>
-      <c r="BB13" s="46">
+      <c r="BB13" s="47">
         <v>0.3621</v>
       </c>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25">
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26">
         <v>31.21</v>
       </c>
-      <c r="BH13" s="25">
+      <c r="BH13" s="26">
         <v>22.41</v>
       </c>
-      <c r="BI13" s="82">
+      <c r="BI13" s="83">
         <f>BG13-BH13</f>
         <v>8.8</v>
       </c>
-      <c r="BJ13" s="25">
+      <c r="BJ13" s="26">
         <v>30.32</v>
       </c>
-      <c r="BK13" s="25">
+      <c r="BK13" s="26">
         <v>27.44</v>
       </c>
-      <c r="BL13" s="25">
+      <c r="BL13" s="26">
         <v>35.16</v>
       </c>
-      <c r="BM13" s="82">
+      <c r="BM13" s="83">
         <f>(BJ13-BK13)*100</f>
         <v>288</v>
       </c>
-      <c r="BN13" s="25">
+      <c r="BN13" s="26">
         <f>FLOOR(304/(BJ13-BK13),100)</f>
         <v>100</v>
       </c>
-      <c r="BO13" s="87">
+      <c r="BO13" s="88">
         <f>(BL13-BJ13)/(BJ13-BK13)</f>
         <v>1.68055555555555</v>
       </c>
-      <c r="BP13" s="46">
+      <c r="BP13" s="47">
         <f>(BJ13-BK13)/BJ13</f>
         <v>0.0949868073878628</v>
       </c>
-      <c r="BQ13" s="46">
+      <c r="BQ13" s="47">
         <f>(BL13-BJ13)/BJ13</f>
         <v>0.159630606860158</v>
       </c>
-      <c r="BR13" s="97">
+      <c r="BR13" s="98">
         <v>17.95</v>
       </c>
-      <c r="BS13" s="59" t="s">
+      <c r="BS13" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BT13" s="59" t="s">
+      <c r="BT13" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="BU13" s="107"/>
+      <c r="BU13" s="108"/>
     </row>
     <row r="14" ht="38" spans="1:72">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="29">
         <v>44533</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="26">
         <v>37.56</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="26">
         <v>40.82</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="26">
         <v>49.41</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26">
         <v>53.96</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <v>9.87</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <v>62.1</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="47">
         <f>(H14-I14)/I14</f>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="47">
         <f>(J14-H14)/J14</f>
         <v>0.131078904991948</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="26">
         <v>40.92</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="26">
         <v>55</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="26">
         <v>43.54</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="26">
         <v>51.15</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="26">
         <v>44.98</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="26">
         <v>57.34</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="26">
         <v>52.29</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="27" t="s">
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="53">
+      <c r="Y14" s="54">
         <f>(J14-M14)/J14</f>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="Z14" s="54">
         <f>(N14-O14)/N14</f>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AA14" s="54">
         <f>(P14-Q14)/P14</f>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="53">
+      <c r="AB14" s="54">
         <f>(R14-S14)/R14</f>
         <v>0.0880711545169167</v>
       </c>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25" t="s">
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="59" t="s">
+      <c r="AF14" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25">
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26">
         <v>34.76</v>
       </c>
-      <c r="AI14" s="46">
+      <c r="AI14" s="47">
         <v>0.4151</v>
       </c>
-      <c r="AJ14" s="46">
+      <c r="AJ14" s="47">
         <v>4.3101</v>
       </c>
-      <c r="AK14" s="46">
+      <c r="AK14" s="47">
         <v>5.7893</v>
       </c>
-      <c r="AL14" s="46">
+      <c r="AL14" s="47">
         <v>5.2189</v>
       </c>
-      <c r="AM14" s="46">
+      <c r="AM14" s="47">
         <v>0.5076</v>
       </c>
-      <c r="AN14" s="46">
+      <c r="AN14" s="47">
         <v>1.5097</v>
       </c>
-      <c r="AO14" s="46">
+      <c r="AO14" s="47">
         <v>0.5596</v>
       </c>
-      <c r="AP14" s="46">
+      <c r="AP14" s="47">
         <v>-0.084</v>
       </c>
-      <c r="AQ14" s="46">
+      <c r="AQ14" s="47">
         <v>0.1501</v>
       </c>
-      <c r="AR14" s="46">
+      <c r="AR14" s="47">
         <v>0.3924</v>
       </c>
-      <c r="AS14" s="46">
+      <c r="AS14" s="47">
         <v>0.602</v>
       </c>
-      <c r="AT14" s="46">
+      <c r="AT14" s="47">
         <v>0.755</v>
       </c>
-      <c r="AU14" s="46">
+      <c r="AU14" s="47">
         <v>0.9365</v>
       </c>
-      <c r="AV14" s="46">
+      <c r="AV14" s="47">
         <v>-0.3372</v>
       </c>
-      <c r="AW14" s="46">
+      <c r="AW14" s="47">
         <v>0.7463</v>
       </c>
-      <c r="AX14" s="46">
+      <c r="AX14" s="47">
         <v>-0.1096</v>
       </c>
-      <c r="AY14" s="46">
+      <c r="AY14" s="47">
         <v>0.1174</v>
       </c>
-      <c r="AZ14" s="46">
+      <c r="AZ14" s="47">
         <v>0.2187</v>
       </c>
-      <c r="BA14" s="46">
+      <c r="BA14" s="47">
         <v>0.2433</v>
       </c>
-      <c r="BB14" s="46">
+      <c r="BB14" s="47">
         <v>0.2275</v>
       </c>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25">
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26">
         <v>57.34</v>
       </c>
-      <c r="BK14" s="25">
+      <c r="BK14" s="26">
         <v>52.29</v>
       </c>
-      <c r="BL14" s="25">
+      <c r="BL14" s="26">
         <v>65.25</v>
       </c>
-      <c r="BM14" s="82">
+      <c r="BM14" s="83">
         <f>(BJ14-BK14)*100</f>
         <v>505</v>
       </c>
-      <c r="BN14" s="25">
+      <c r="BN14" s="26">
         <f>FLOOR(304/(BJ14-BK14),100)</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="87">
+      <c r="BO14" s="88">
         <f>(BL14-BJ14)/(BJ14-BK14)</f>
         <v>1.56633663366336</v>
       </c>
-      <c r="BP14" s="46">
+      <c r="BP14" s="47">
         <f>(BJ14-BK14)/BJ14</f>
         <v>0.0880711545169167</v>
       </c>
-      <c r="BQ14" s="46">
+      <c r="BQ14" s="47">
         <f>(BL14-BJ14)/BJ14</f>
         <v>0.137949075688873</v>
       </c>
-      <c r="BR14" s="97">
+      <c r="BR14" s="98">
         <v>56.78</v>
       </c>
-      <c r="BS14" s="59" t="s">
+      <c r="BS14" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BT14" s="62" t="s">
+      <c r="BT14" s="63" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" ht="38" spans="1:72">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="33">
         <v>44533</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="32">
         <v>32.83</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="32">
         <v>35.44</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="32">
         <v>41.78</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32">
         <v>48.86</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="32">
         <v>11.48</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="32">
         <v>59.8</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="48">
         <f>(H15-I15)/I15</f>
         <v>3.25609756097561</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="48">
         <f>(J15-H15)/J15</f>
         <v>0.182943143812709</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="32">
         <v>33.16</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="32">
         <v>41.67</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="32">
         <v>34.71</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="32">
         <v>41.9</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="32">
         <v>37.47</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="32">
         <v>47.34</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="32">
         <v>42.8</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31" t="s">
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="Y15" s="54">
+      <c r="Y15" s="55">
         <f>(J15-M15)/J15</f>
         <v>0.445484949832776</v>
       </c>
-      <c r="Z15" s="54">
+      <c r="Z15" s="55">
         <f>(N15-O15)/N15</f>
         <v>0.16702663786897</v>
       </c>
-      <c r="AA15" s="54">
+      <c r="AA15" s="55">
         <f>(P15-Q15)/P15</f>
         <v>0.105727923627685</v>
       </c>
-      <c r="AB15" s="54">
+      <c r="AB15" s="55">
         <f>(R15-S15)/R15</f>
         <v>0.0959019856358261</v>
       </c>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31" t="s">
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="61" t="s">
+      <c r="AF15" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
-      <c r="AP15" s="47"/>
-      <c r="AQ15" s="47"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="47"/>
-      <c r="AV15" s="47"/>
-      <c r="AW15" s="47"/>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="47"/>
-      <c r="AZ15" s="47"/>
-      <c r="BA15" s="47"/>
-      <c r="BB15" s="47"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="82">
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="83">
         <f>(BJ15-BK15)*100</f>
         <v>0</v>
       </c>
-      <c r="BN15" s="25" t="e">
+      <c r="BN15" s="26" t="e">
         <f>FLOOR(304/(BJ15-BK15),100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO15" s="87" t="e">
+      <c r="BO15" s="88" t="e">
         <f>(BL15-BJ15)/(BJ15-BK15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP15" s="46" t="e">
+      <c r="BP15" s="47" t="e">
         <f>(BJ15-BK15)/BJ15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ15" s="46" t="e">
+      <c r="BQ15" s="47" t="e">
         <f>(BL15-BJ15)/BJ15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BR15" s="98"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="99" t="s">
+      <c r="BR15" s="99"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="62" spans="1:72">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="36">
         <v>44533</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="35">
         <v>20.45</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="35">
         <v>22.14</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="35">
         <v>25.99</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35">
         <v>27.05</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="35">
         <v>7.98</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="35">
         <v>30.1</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="48">
         <f>(H16-I16)/I16</f>
         <v>2.38972431077694</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="48">
         <f>(J16-H16)/J16</f>
         <v>0.101328903654485</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="35">
         <v>21.96</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="35">
         <v>28.5</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="35">
         <v>25.47</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="35">
         <v>28.82</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="35">
         <v>26.31</v>
       </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34" t="s">
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Y16" s="54">
+      <c r="Y16" s="55">
         <f>(J16-M16)/J16</f>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z16" s="54">
+      <c r="Z16" s="55">
         <f>(N16-O16)/N16</f>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA16" s="54">
+      <c r="AA16" s="55">
         <f>(P16-Q16)/P16</f>
         <v>0.0870922970159612</v>
       </c>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34" t="s">
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="AF16" s="62" t="s">
+      <c r="AF16" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34">
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="35">
         <v>28.82</v>
       </c>
-      <c r="BK16" s="34">
+      <c r="BK16" s="35">
         <v>26.31</v>
       </c>
-      <c r="BL16" s="34">
+      <c r="BL16" s="35">
         <v>32.36</v>
       </c>
-      <c r="BM16" s="82">
+      <c r="BM16" s="83">
         <f>(BJ16-BK16)*100</f>
         <v>251</v>
       </c>
-      <c r="BN16" s="25">
+      <c r="BN16" s="26">
         <f>FLOOR(304/(BJ16-BK16),100)</f>
         <v>100</v>
       </c>
-      <c r="BO16" s="87">
+      <c r="BO16" s="88">
         <f>(BL16-BJ16)/(BJ16-BK16)</f>
         <v>1.41035856573705</v>
       </c>
-      <c r="BP16" s="46">
+      <c r="BP16" s="47">
         <f>(BJ16-BK16)/BJ16</f>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BQ16" s="46">
+      <c r="BQ16" s="47">
         <f>(BL16-BJ16)/BJ16</f>
         <v>0.122831367106176</v>
       </c>
-      <c r="BR16" s="100">
+      <c r="BR16" s="101">
         <v>25.15</v>
       </c>
-      <c r="BS16" s="62" t="s">
+      <c r="BS16" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BT16" s="62" t="s">
+      <c r="BT16" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="34"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="73"/>
-      <c r="BQ17" s="73"/>
-      <c r="BR17" s="100"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="74"/>
+      <c r="BQ17" s="74"/>
+      <c r="BR17" s="101"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="73"/>
-      <c r="BQ18" s="73"/>
-      <c r="BR18" s="100"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
+      <c r="BJ18" s="35"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="35"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="35"/>
+      <c r="BP18" s="74"/>
+      <c r="BQ18" s="74"/>
+      <c r="BR18" s="101"/>
+      <c r="BS18" s="35"/>
+      <c r="BT18" s="35"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="73"/>
-      <c r="BQ19" s="73"/>
-      <c r="BR19" s="100"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="35"/>
+      <c r="BG19" s="35"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="35"/>
+      <c r="BJ19" s="35"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="74"/>
+      <c r="BQ19" s="74"/>
+      <c r="BR19" s="101"/>
+      <c r="BS19" s="35"/>
+      <c r="BT19" s="35"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="73"/>
-      <c r="BQ20" s="73"/>
-      <c r="BR20" s="100"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="35"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="35"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="74"/>
+      <c r="BQ20" s="74"/>
+      <c r="BR20" s="101"/>
+      <c r="BS20" s="35"/>
+      <c r="BT20" s="35"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="73"/>
-      <c r="BQ21" s="73"/>
-      <c r="BR21" s="100"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="35"/>
+      <c r="BF21" s="35"/>
+      <c r="BG21" s="35"/>
+      <c r="BH21" s="35"/>
+      <c r="BI21" s="35"/>
+      <c r="BJ21" s="35"/>
+      <c r="BK21" s="35"/>
+      <c r="BL21" s="35"/>
+      <c r="BM21" s="35"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="35"/>
+      <c r="BP21" s="74"/>
+      <c r="BQ21" s="74"/>
+      <c r="BR21" s="101"/>
+      <c r="BS21" s="35"/>
+      <c r="BT21" s="35"/>
     </row>
     <row r="22" ht="13" spans="1:71">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="118" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="6"/>
@@ -6870,7 +6875,7 @@
       <c r="BS22" s="6"/>
     </row>
     <row r="23" ht="13" spans="1:71">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="118" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="6"/>
@@ -6943,7 +6948,7 @@
       <c r="BS23" s="6"/>
     </row>
     <row r="24" ht="13" spans="1:71">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="118" t="s">
         <v>160</v>
       </c>
       <c r="B24" s="6"/>
@@ -7016,7 +7021,7 @@
       <c r="BS24" s="6"/>
     </row>
     <row r="25" ht="13" spans="1:71">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="118" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="6"/>
@@ -7089,7 +7094,7 @@
       <c r="BS25" s="6"/>
     </row>
     <row r="26" ht="13" spans="1:71">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="118" t="s">
         <v>162</v>
       </c>
       <c r="B26" s="6"/>
@@ -7162,7 +7167,7 @@
       <c r="BS26" s="6"/>
     </row>
     <row r="27" ht="13" spans="1:71">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="118" t="s">
         <v>163</v>
       </c>
       <c r="B27" s="6"/>
@@ -7235,7 +7240,7 @@
       <c r="BS27" s="6"/>
     </row>
     <row r="28" ht="13" spans="1:71">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="118" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="6"/>
@@ -7308,7 +7313,7 @@
       <c r="BS28" s="6"/>
     </row>
     <row r="29" ht="13" spans="1:71">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="118" t="s">
         <v>165</v>
       </c>
       <c r="B29" s="6"/>
@@ -7381,7 +7386,7 @@
       <c r="BS29" s="6"/>
     </row>
     <row r="30" ht="13" spans="1:71">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>166</v>
       </c>
       <c r="B30" s="6"/>
@@ -7454,7 +7459,7 @@
       <c r="BS30" s="6"/>
     </row>
     <row r="31" ht="13" spans="1:71">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="118" t="s">
         <v>167</v>
       </c>
       <c r="B31" s="6"/>
@@ -7527,7 +7532,7 @@
       <c r="BS31" s="6"/>
     </row>
     <row r="32" ht="13" spans="1:71">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="118" t="s">
         <v>168</v>
       </c>
       <c r="B32" s="6"/>
@@ -7600,7 +7605,7 @@
       <c r="BS32" s="6"/>
     </row>
     <row r="33" ht="13" spans="1:71">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="118" t="s">
         <v>169</v>
       </c>
       <c r="B33" s="6"/>
@@ -7673,7 +7678,7 @@
       <c r="BS33" s="6"/>
     </row>
     <row r="34" ht="13" spans="1:71">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="118" t="s">
         <v>170</v>
       </c>
       <c r="B34" s="6"/>
@@ -7746,7 +7751,7 @@
       <c r="BS34" s="6"/>
     </row>
     <row r="35" ht="13" spans="1:71">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="118" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="6"/>
@@ -7819,7 +7824,7 @@
       <c r="BS35" s="6"/>
     </row>
     <row r="36" ht="13" spans="1:71">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="118" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="6"/>
@@ -7892,7 +7897,7 @@
       <c r="BS36" s="6"/>
     </row>
     <row r="37" ht="13" spans="1:71">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="118" t="s">
         <v>173</v>
       </c>
       <c r="B37" s="6"/>
@@ -7965,7 +7970,7 @@
       <c r="BS37" s="6"/>
     </row>
     <row r="38" ht="13" spans="1:71">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="118" t="s">
         <v>174</v>
       </c>
       <c r="B38" s="6"/>
@@ -8038,7 +8043,7 @@
       <c r="BS38" s="6"/>
     </row>
     <row r="39" ht="13" spans="1:71">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="118" t="s">
         <v>175</v>
       </c>
       <c r="B39" s="6"/>
@@ -8111,7 +8116,7 @@
       <c r="BS39" s="6"/>
     </row>
     <row r="40" ht="13" spans="1:71">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="118" t="s">
         <v>176</v>
       </c>
       <c r="B40" s="6"/>
@@ -8184,7 +8189,7 @@
       <c r="BS40" s="6"/>
     </row>
     <row r="41" ht="13" spans="1:71">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="118" t="s">
         <v>177</v>
       </c>
       <c r="B41" s="6"/>
@@ -8257,7 +8262,7 @@
       <c r="BS41" s="6"/>
     </row>
     <row r="42" ht="13" spans="1:71">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="118" t="s">
         <v>178</v>
       </c>
       <c r="B42" s="6"/>
@@ -8330,7 +8335,7 @@
       <c r="BS42" s="6"/>
     </row>
     <row r="43" ht="13" spans="1:71">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="118" t="s">
         <v>179</v>
       </c>
       <c r="B43" s="6"/>
@@ -8403,7 +8408,7 @@
       <c r="BS43" s="6"/>
     </row>
     <row r="44" ht="13" spans="1:71">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="118" t="s">
         <v>180</v>
       </c>
       <c r="B44" s="6"/>
@@ -8476,7 +8481,7 @@
       <c r="BS44" s="6"/>
     </row>
     <row r="45" ht="13" spans="1:71">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="118" t="s">
         <v>181</v>
       </c>
       <c r="B45" s="6"/>
@@ -8549,7 +8554,7 @@
       <c r="BS45" s="6"/>
     </row>
     <row r="46" ht="13" spans="1:71">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="118" t="s">
         <v>182</v>
       </c>
       <c r="B46" s="6"/>
@@ -8622,7 +8627,7 @@
       <c r="BS46" s="6"/>
     </row>
     <row r="47" ht="13" spans="1:71">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="118" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="6"/>
@@ -8695,7 +8700,7 @@
       <c r="BS47" s="6"/>
     </row>
     <row r="48" ht="13" spans="1:71">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="118" t="s">
         <v>184</v>
       </c>
       <c r="B48" s="6"/>
@@ -8768,7 +8773,7 @@
       <c r="BS48" s="6"/>
     </row>
     <row r="49" ht="13" spans="1:71">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="118" t="s">
         <v>185</v>
       </c>
       <c r="B49" s="6"/>
@@ -8841,7 +8846,7 @@
       <c r="BS49" s="6"/>
     </row>
     <row r="50" ht="13" spans="1:71">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="118" t="s">
         <v>186</v>
       </c>
       <c r="B50" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -868,39 +868,6 @@
         <charset val="134"/>
       </rPr>
       <t>双星新材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>待执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等待跌到28.10以下再涨回来时买入</t>
     </r>
     <r>
       <rPr>
@@ -3346,10 +3313,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="BT16" sqref="BT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6271,7 +6238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="62" spans="1:72">
+    <row r="16" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A16" s="117" t="s">
         <v>150</v>
       </c>
@@ -6418,12 +6385,12 @@
         <v>82</v>
       </c>
       <c r="BT16" s="63" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A17" s="117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6499,7 +6466,7 @@
     </row>
     <row r="18" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A18" s="117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -6575,7 +6542,7 @@
     </row>
     <row r="19" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A19" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6651,7 +6618,7 @@
     </row>
     <row r="20" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A20" s="117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -6727,7 +6694,7 @@
     </row>
     <row r="21" s="5" customFormat="1" ht="13" spans="1:72">
       <c r="A21" s="117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6803,7 +6770,7 @@
     </row>
     <row r="22" ht="13" spans="1:71">
       <c r="A22" s="118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="6"/>
       <c r="D22" s="6"/>
@@ -6876,7 +6843,7 @@
     </row>
     <row r="23" ht="13" spans="1:71">
       <c r="A23" s="118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="6"/>
       <c r="D23" s="6"/>
@@ -6949,7 +6916,7 @@
     </row>
     <row r="24" ht="13" spans="1:71">
       <c r="A24" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
@@ -7022,7 +6989,7 @@
     </row>
     <row r="25" ht="13" spans="1:71">
       <c r="A25" s="118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="6"/>
@@ -7095,7 +7062,7 @@
     </row>
     <row r="26" ht="13" spans="1:71">
       <c r="A26" s="118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="6"/>
@@ -7168,7 +7135,7 @@
     </row>
     <row r="27" ht="13" spans="1:71">
       <c r="A27" s="118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="6"/>
@@ -7241,7 +7208,7 @@
     </row>
     <row r="28" ht="13" spans="1:71">
       <c r="A28" s="118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
@@ -7314,7 +7281,7 @@
     </row>
     <row r="29" ht="13" spans="1:71">
       <c r="A29" s="118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
@@ -7387,7 +7354,7 @@
     </row>
     <row r="30" ht="13" spans="1:71">
       <c r="A30" s="118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="6"/>
@@ -7460,7 +7427,7 @@
     </row>
     <row r="31" ht="13" spans="1:71">
       <c r="A31" s="118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
@@ -7533,7 +7500,7 @@
     </row>
     <row r="32" ht="13" spans="1:71">
       <c r="A32" s="118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="6"/>
       <c r="D32" s="6"/>
@@ -7606,7 +7573,7 @@
     </row>
     <row r="33" ht="13" spans="1:71">
       <c r="A33" s="118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6"/>
@@ -7679,7 +7646,7 @@
     </row>
     <row r="34" ht="13" spans="1:71">
       <c r="A34" s="118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
@@ -7752,7 +7719,7 @@
     </row>
     <row r="35" ht="13" spans="1:71">
       <c r="A35" s="118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="6"/>
@@ -7825,7 +7792,7 @@
     </row>
     <row r="36" ht="13" spans="1:71">
       <c r="A36" s="118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="6"/>
       <c r="D36" s="6"/>
@@ -7898,7 +7865,7 @@
     </row>
     <row r="37" ht="13" spans="1:71">
       <c r="A37" s="118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="6"/>
@@ -7971,7 +7938,7 @@
     </row>
     <row r="38" ht="13" spans="1:71">
       <c r="A38" s="118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="6"/>
       <c r="D38" s="6"/>
@@ -8044,7 +8011,7 @@
     </row>
     <row r="39" ht="13" spans="1:71">
       <c r="A39" s="118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="6"/>
       <c r="D39" s="6"/>
@@ -8117,7 +8084,7 @@
     </row>
     <row r="40" ht="13" spans="1:71">
       <c r="A40" s="118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="6"/>
       <c r="D40" s="6"/>
@@ -8190,7 +8157,7 @@
     </row>
     <row r="41" ht="13" spans="1:71">
       <c r="A41" s="118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="6"/>
       <c r="D41" s="6"/>
@@ -8263,7 +8230,7 @@
     </row>
     <row r="42" ht="13" spans="1:71">
       <c r="A42" s="118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="6"/>
       <c r="D42" s="6"/>
@@ -8336,7 +8303,7 @@
     </row>
     <row r="43" ht="13" spans="1:71">
       <c r="A43" s="118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="6"/>
       <c r="D43" s="6"/>
@@ -8409,7 +8376,7 @@
     </row>
     <row r="44" ht="13" spans="1:71">
       <c r="A44" s="118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="6"/>
       <c r="D44" s="6"/>
@@ -8482,7 +8449,7 @@
     </row>
     <row r="45" ht="13" spans="1:71">
       <c r="A45" s="118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="6"/>
       <c r="D45" s="6"/>
@@ -8555,7 +8522,7 @@
     </row>
     <row r="46" ht="13" spans="1:71">
       <c r="A46" s="118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
@@ -8628,7 +8595,7 @@
     </row>
     <row r="47" ht="13" spans="1:71">
       <c r="A47" s="118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
@@ -8701,7 +8668,7 @@
     </row>
     <row r="48" ht="13" spans="1:71">
       <c r="A48" s="118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
@@ -8774,7 +8741,7 @@
     </row>
     <row r="49" ht="13" spans="1:71">
       <c r="A49" s="118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
@@ -8847,7 +8814,7 @@
     </row>
     <row r="50" ht="13" spans="1:71">
       <c r="A50" s="118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3313,10 +3313,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BT16" sqref="BT16"/>
+      <selection pane="bottomLeft" activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6051,7 +6051,10 @@
       <c r="BF14" s="26"/>
       <c r="BG14" s="26"/>
       <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
+      <c r="BI14" s="83">
+        <f>BG14-BH14</f>
+        <v>0</v>
+      </c>
       <c r="BJ14" s="26">
         <v>57.34</v>
       </c>
@@ -6181,34 +6184,79 @@
         <v>130</v>
       </c>
       <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
+      <c r="AH15" s="32">
+        <v>2.07</v>
+      </c>
+      <c r="AI15" s="48">
+        <v>2.0414</v>
+      </c>
+      <c r="AJ15" s="48">
+        <v>7.8404</v>
+      </c>
+      <c r="AK15" s="48">
+        <v>0.0573</v>
+      </c>
+      <c r="AL15" s="48">
+        <v>0.4733</v>
+      </c>
+      <c r="AM15" s="48">
+        <v>6.5677</v>
+      </c>
+      <c r="AN15" s="48">
+        <v>-0.3008</v>
+      </c>
+      <c r="AO15" s="48">
+        <v>-0.2734</v>
+      </c>
+      <c r="AP15" s="48">
+        <v>-0.5858</v>
+      </c>
+      <c r="AQ15" s="48">
+        <v>-0.1511</v>
+      </c>
+      <c r="AR15" s="48">
+        <v>1.1435</v>
+      </c>
+      <c r="AS15" s="48">
+        <v>1.059</v>
+      </c>
+      <c r="AT15" s="48">
+        <v>0.7237</v>
+      </c>
+      <c r="AU15" s="48">
+        <v>0.0276</v>
+      </c>
+      <c r="AV15" s="48">
+        <v>0.2692</v>
+      </c>
+      <c r="AW15" s="48">
+        <v>-0.1848</v>
+      </c>
+      <c r="AX15" s="48">
+        <v>0.2588</v>
+      </c>
+      <c r="AY15" s="48">
+        <v>0.1894</v>
+      </c>
+      <c r="AZ15" s="48">
+        <v>0.1883</v>
+      </c>
+      <c r="BA15" s="48">
+        <v>0.1993</v>
+      </c>
+      <c r="BB15" s="48">
+        <v>0.0681</v>
+      </c>
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="32"/>
       <c r="BF15" s="32"/>
       <c r="BG15" s="32"/>
       <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
+      <c r="BI15" s="83">
+        <f>BG15-BH15</f>
+        <v>0</v>
+      </c>
       <c r="BJ15" s="32"/>
       <c r="BK15" s="32"/>
       <c r="BL15" s="32"/>
@@ -6321,34 +6369,83 @@
         <v>130</v>
       </c>
       <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="74"/>
-      <c r="AU16" s="74"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="74"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="74"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="74"/>
+      <c r="AH16" s="35">
+        <v>9.73</v>
+      </c>
+      <c r="AI16" s="74">
+        <v>3.1533</v>
+      </c>
+      <c r="AJ16" s="74">
+        <v>2.152</v>
+      </c>
+      <c r="AK16" s="74">
+        <v>1.6028</v>
+      </c>
+      <c r="AL16" s="74">
+        <v>1.161</v>
+      </c>
+      <c r="AM16" s="74">
+        <v>0.2365</v>
+      </c>
+      <c r="AN16" s="74">
+        <v>0.0229</v>
+      </c>
+      <c r="AO16" s="74">
+        <v>0.1857</v>
+      </c>
+      <c r="AP16" s="74">
+        <v>0.1281</v>
+      </c>
+      <c r="AQ16" s="74">
+        <v>0.1124</v>
+      </c>
+      <c r="AR16" s="74">
+        <v>0.3139</v>
+      </c>
+      <c r="AS16" s="74">
+        <v>0.0935</v>
+      </c>
+      <c r="AT16" s="74">
+        <v>0.1211</v>
+      </c>
+      <c r="AU16" s="74">
+        <v>-0.3125</v>
+      </c>
+      <c r="AV16" s="74">
+        <v>0.2292</v>
+      </c>
+      <c r="AW16" s="74">
+        <v>0.1278</v>
+      </c>
+      <c r="AX16" s="74">
+        <v>0.2239</v>
+      </c>
+      <c r="AY16" s="74">
+        <v>0.2428</v>
+      </c>
+      <c r="AZ16" s="74">
+        <v>0.3271</v>
+      </c>
+      <c r="BA16" s="74">
+        <v>0.347</v>
+      </c>
+      <c r="BB16" s="74">
+        <v>0.3263</v>
+      </c>
       <c r="BC16" s="35"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
+      <c r="BG16" s="35">
+        <v>30.41</v>
+      </c>
+      <c r="BH16" s="35">
+        <v>22.76</v>
+      </c>
+      <c r="BI16" s="83">
+        <f>BG16-BH16</f>
+        <v>7.65</v>
+      </c>
       <c r="BJ16" s="35">
         <v>28.82</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -692,7 +692,8 @@
     <t>57.14%</t>
   </si>
   <si>
-    <t>执行中</t>
+    <t>待执行
+(等待波动一周后)</t>
   </si>
   <si>
     <t>000029</t>
@@ -727,6 +728,9 @@
     </r>
   </si>
   <si>
+    <t>执行中</t>
+  </si>
+  <si>
     <t>000031</t>
   </si>
   <si>
@@ -759,14 +763,7 @@
     </r>
   </si>
   <si>
-    <t>待执行</t>
-  </si>
-  <si>
     <t>000032</t>
-  </si>
-  <si>
-    <t>待执行
-(等待波动一周后)</t>
   </si>
   <si>
     <t>000033</t>
@@ -881,6 +878,29 @@
   </si>
   <si>
     <t>000036</t>
+  </si>
+  <si>
+    <r>
+      <t>600399(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抚顺特钢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>000037</t>
@@ -1788,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1909,6 +1929,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,6 +1969,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,6 +2082,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2066,6 +2098,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,6 +2149,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3334,10 +3381,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="BT17" sqref="BT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3421,32 +3468,32 @@
       <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
-      <c r="AG1" s="67" t="s">
+      <c r="AG1" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
       <c r="BC1" s="14"/>
       <c r="BD1" s="14"/>
       <c r="BE1" s="14"/>
@@ -3462,47 +3509,47 @@
       <c r="BM1" s="14"/>
       <c r="BN1" s="14"/>
       <c r="BO1" s="14"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="93"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="100"/>
       <c r="BS1" s="14"/>
-      <c r="BT1" s="94"/>
-      <c r="BU1" s="108"/>
-      <c r="BV1" s="108"/>
-      <c r="BW1" s="108"/>
-      <c r="BX1" s="108"/>
-      <c r="BY1" s="108"/>
-      <c r="BZ1" s="108"/>
-      <c r="CA1" s="108"/>
-      <c r="CC1" s="115"/>
-      <c r="CD1" s="115"/>
-      <c r="CE1" s="115"/>
-      <c r="CF1" s="115"/>
-      <c r="CG1" s="115"/>
-      <c r="CH1" s="115"/>
-      <c r="CI1" s="115"/>
-      <c r="CJ1" s="115"/>
-      <c r="CL1" s="115"/>
-      <c r="CM1" s="115"/>
-      <c r="CN1" s="115"/>
-      <c r="CO1" s="115"/>
-      <c r="CP1" s="115"/>
-      <c r="CQ1" s="115"/>
-      <c r="CR1" s="115"/>
-      <c r="CT1" s="115"/>
-      <c r="CU1" s="115"/>
-      <c r="CV1" s="115"/>
-      <c r="CW1" s="115"/>
-      <c r="CX1" s="115"/>
-      <c r="CY1" s="115"/>
-      <c r="CZ1" s="115"/>
-      <c r="DB1" s="115"/>
-      <c r="DC1" s="115"/>
-      <c r="DD1" s="115"/>
-      <c r="DE1" s="115"/>
-      <c r="DF1" s="115"/>
-      <c r="DG1" s="115"/>
-      <c r="DH1" s="115"/>
+      <c r="BT1" s="101"/>
+      <c r="BU1" s="117"/>
+      <c r="BV1" s="117"/>
+      <c r="BW1" s="117"/>
+      <c r="BX1" s="117"/>
+      <c r="BY1" s="117"/>
+      <c r="BZ1" s="117"/>
+      <c r="CA1" s="117"/>
+      <c r="CC1" s="124"/>
+      <c r="CD1" s="124"/>
+      <c r="CE1" s="124"/>
+      <c r="CF1" s="124"/>
+      <c r="CG1" s="124"/>
+      <c r="CH1" s="124"/>
+      <c r="CI1" s="124"/>
+      <c r="CJ1" s="124"/>
+      <c r="CL1" s="124"/>
+      <c r="CM1" s="124"/>
+      <c r="CN1" s="124"/>
+      <c r="CO1" s="124"/>
+      <c r="CP1" s="124"/>
+      <c r="CQ1" s="124"/>
+      <c r="CR1" s="124"/>
+      <c r="CT1" s="124"/>
+      <c r="CU1" s="124"/>
+      <c r="CV1" s="124"/>
+      <c r="CW1" s="124"/>
+      <c r="CX1" s="124"/>
+      <c r="CY1" s="124"/>
+      <c r="CZ1" s="124"/>
+      <c r="DB1" s="124"/>
+      <c r="DC1" s="124"/>
+      <c r="DD1" s="124"/>
+      <c r="DE1" s="124"/>
+      <c r="DF1" s="124"/>
+      <c r="DG1" s="124"/>
+      <c r="DH1" s="124"/>
     </row>
     <row r="2" ht="23.6" spans="1:112">
       <c r="A2" s="11"/>
@@ -3517,25 +3564,25 @@
       <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="17"/>
@@ -3557,41 +3604,41 @@
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67" t="s">
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="69" t="s">
+      <c r="AI2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="40" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="BD2" s="16"/>
@@ -3602,75 +3649,75 @@
       </c>
       <c r="BH2" s="17"/>
       <c r="BI2" s="17"/>
-      <c r="BJ2" s="40" t="s">
+      <c r="BJ2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="40" t="s">
+      <c r="BK2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="40" t="s">
+      <c r="BL2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="BM2" s="40" t="s">
+      <c r="BM2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="40" t="s">
+      <c r="BN2" s="42" t="s">
         <v>30</v>
       </c>
       <c r="BO2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="88" t="s">
+      <c r="BP2" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="88" t="s">
+      <c r="BQ2" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="BR2" s="95" t="s">
+      <c r="BR2" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="BS2" s="40" t="s">
+      <c r="BS2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="96" t="s">
+      <c r="BT2" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="BU2" s="108"/>
-      <c r="BV2" s="108"/>
-      <c r="BW2" s="108"/>
-      <c r="BX2" s="108"/>
-      <c r="BY2" s="108"/>
-      <c r="BZ2" s="108"/>
-      <c r="CA2" s="108"/>
-      <c r="CC2" s="115"/>
-      <c r="CD2" s="115"/>
-      <c r="CE2" s="115"/>
-      <c r="CF2" s="115"/>
-      <c r="CG2" s="115"/>
-      <c r="CH2" s="115"/>
-      <c r="CI2" s="115"/>
-      <c r="CJ2" s="115"/>
-      <c r="CL2" s="115"/>
-      <c r="CM2" s="115"/>
-      <c r="CN2" s="115"/>
-      <c r="CO2" s="115"/>
-      <c r="CP2" s="115"/>
-      <c r="CQ2" s="115"/>
-      <c r="CR2" s="115"/>
-      <c r="CT2" s="115"/>
-      <c r="CU2" s="115"/>
-      <c r="CV2" s="115"/>
-      <c r="CW2" s="115"/>
-      <c r="CX2" s="115"/>
-      <c r="CY2" s="115"/>
-      <c r="CZ2" s="115"/>
-      <c r="DB2" s="115"/>
-      <c r="DC2" s="115"/>
-      <c r="DD2" s="115"/>
-      <c r="DE2" s="115"/>
-      <c r="DF2" s="115"/>
-      <c r="DG2" s="115"/>
-      <c r="DH2" s="115"/>
+      <c r="BU2" s="117"/>
+      <c r="BV2" s="117"/>
+      <c r="BW2" s="117"/>
+      <c r="BX2" s="117"/>
+      <c r="BY2" s="117"/>
+      <c r="BZ2" s="117"/>
+      <c r="CA2" s="117"/>
+      <c r="CC2" s="124"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="124"/>
+      <c r="CG2" s="124"/>
+      <c r="CH2" s="124"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="124"/>
+      <c r="CL2" s="124"/>
+      <c r="CM2" s="124"/>
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="124"/>
+      <c r="CP2" s="124"/>
+      <c r="CQ2" s="124"/>
+      <c r="CR2" s="124"/>
+      <c r="CT2" s="124"/>
+      <c r="CU2" s="124"/>
+      <c r="CV2" s="124"/>
+      <c r="CW2" s="124"/>
+      <c r="CX2" s="124"/>
+      <c r="CY2" s="124"/>
+      <c r="CZ2" s="124"/>
+      <c r="DB2" s="124"/>
+      <c r="DC2" s="124"/>
+      <c r="DD2" s="124"/>
+      <c r="DE2" s="124"/>
+      <c r="DF2" s="124"/>
+      <c r="DG2" s="124"/>
+      <c r="DH2" s="124"/>
     </row>
     <row r="3" ht="48" spans="1:112">
       <c r="A3" s="11"/>
@@ -3681,41 +3728,41 @@
       <c r="F3" s="17"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="42" t="s">
+      <c r="V3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="44" t="s">
         <v>47</v>
       </c>
       <c r="X3" s="16" t="s">
@@ -3742,138 +3789,138 @@
       <c r="AE3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AF3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="69" t="s">
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="69" t="s">
+      <c r="AJ3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="69" t="s">
+      <c r="AK3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="69" t="s">
+      <c r="AL3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="69" t="s">
+      <c r="AM3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="69" t="s">
+      <c r="AN3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="69" t="s">
+      <c r="AO3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="69" t="s">
+      <c r="AP3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="69" t="s">
+      <c r="AQ3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="69" t="s">
+      <c r="AR3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="69" t="s">
+      <c r="AS3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="69" t="s">
+      <c r="AT3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="69" t="s">
+      <c r="AU3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="69" t="s">
+      <c r="AV3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="69" t="s">
+      <c r="AW3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="69" t="s">
+      <c r="AX3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="69" t="s">
+      <c r="AY3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="69" t="s">
+      <c r="AZ3" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="69" t="s">
+      <c r="BA3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="69" t="s">
+      <c r="BB3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="82" t="s">
+      <c r="BC3" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="82" t="s">
+      <c r="BD3" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84" t="s">
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="84" t="s">
+      <c r="BH3" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="83" t="s">
+      <c r="BI3" s="86" t="s">
         <v>65</v>
       </c>
       <c r="BJ3" s="17"/>
       <c r="BK3" s="17"/>
       <c r="BL3" s="17"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
       <c r="BO3" s="17"/>
-      <c r="BP3" s="88"/>
-      <c r="BQ3" s="88"/>
-      <c r="BR3" s="95"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
+      <c r="BR3" s="102"/>
       <c r="BS3" s="17"/>
-      <c r="BT3" s="97"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CC3" s="115"/>
-      <c r="CD3" s="115"/>
-      <c r="CE3" s="115"/>
-      <c r="CF3" s="115"/>
-      <c r="CG3" s="115"/>
-      <c r="CH3" s="115"/>
-      <c r="CI3" s="115"/>
-      <c r="CJ3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="115"/>
-      <c r="CN3" s="115"/>
-      <c r="CO3" s="115"/>
-      <c r="CP3" s="115"/>
-      <c r="CQ3" s="115"/>
-      <c r="CR3" s="115"/>
-      <c r="CT3" s="115"/>
-      <c r="CU3" s="115"/>
-      <c r="CV3" s="115"/>
-      <c r="CW3" s="115"/>
-      <c r="CX3" s="115"/>
-      <c r="CY3" s="115"/>
-      <c r="CZ3" s="115"/>
-      <c r="DB3" s="115"/>
-      <c r="DC3" s="115"/>
-      <c r="DD3" s="115"/>
-      <c r="DE3" s="115"/>
-      <c r="DF3" s="115"/>
-      <c r="DG3" s="115"/>
-      <c r="DH3" s="115"/>
+      <c r="BT3" s="104"/>
+      <c r="BU3" s="117"/>
+      <c r="BV3" s="117"/>
+      <c r="BW3" s="117"/>
+      <c r="BX3" s="117"/>
+      <c r="BY3" s="117"/>
+      <c r="BZ3" s="117"/>
+      <c r="CA3" s="117"/>
+      <c r="CC3" s="124"/>
+      <c r="CD3" s="124"/>
+      <c r="CE3" s="124"/>
+      <c r="CF3" s="124"/>
+      <c r="CG3" s="124"/>
+      <c r="CH3" s="124"/>
+      <c r="CI3" s="124"/>
+      <c r="CJ3" s="124"/>
+      <c r="CL3" s="124"/>
+      <c r="CM3" s="124"/>
+      <c r="CN3" s="124"/>
+      <c r="CO3" s="124"/>
+      <c r="CP3" s="124"/>
+      <c r="CQ3" s="124"/>
+      <c r="CR3" s="124"/>
+      <c r="CT3" s="124"/>
+      <c r="CU3" s="124"/>
+      <c r="CV3" s="124"/>
+      <c r="CW3" s="124"/>
+      <c r="CX3" s="124"/>
+      <c r="CY3" s="124"/>
+      <c r="CZ3" s="124"/>
+      <c r="DB3" s="124"/>
+      <c r="DC3" s="124"/>
+      <c r="DD3" s="124"/>
+      <c r="DE3" s="124"/>
+      <c r="DF3" s="124"/>
+      <c r="DG3" s="124"/>
+      <c r="DH3" s="124"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:112">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="126" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="18">
@@ -3891,7 +3938,7 @@
       <c r="F4" s="20">
         <v>24.52</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="20">
@@ -3903,11 +3950,11 @@
       <c r="J4" s="20">
         <v>46.33</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="48">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="48">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
@@ -3938,67 +3985,67 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="48">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="48">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="48">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="48">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="48">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="59">
+      <c r="AD4" s="62">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="56" t="s">
+      <c r="AE4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="60" t="s">
+      <c r="AF4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
       <c r="BC4" s="20"/>
       <c r="BD4" s="20"/>
       <c r="BE4" s="20"/>
@@ -4030,66 +4077,66 @@
         <f>FLOOR(300/(BJ4-BK4),100)</f>
         <v>100</v>
       </c>
-      <c r="BO4" s="89">
+      <c r="BO4" s="93">
         <f>(BL4-BJ4)/(BJ4-BK4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BP4" s="46">
+      <c r="BP4" s="48">
         <f>(BJ4-BK4)/BJ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BQ4" s="46">
+      <c r="BQ4" s="48">
         <f>(BL4-BJ4)/BJ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BR4" s="98">
+      <c r="BR4" s="105">
         <v>150.88</v>
       </c>
-      <c r="BS4" s="60" t="s">
+      <c r="BS4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" s="99" t="s">
+      <c r="BT4" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BU4" s="109"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
-      <c r="CF4" s="116"/>
-      <c r="CG4" s="116"/>
-      <c r="CH4" s="116"/>
-      <c r="CI4" s="116"/>
-      <c r="CJ4" s="116"/>
-      <c r="CL4" s="116"/>
-      <c r="CM4" s="116"/>
-      <c r="CN4" s="116"/>
-      <c r="CO4" s="116"/>
-      <c r="CP4" s="116"/>
-      <c r="CQ4" s="116"/>
-      <c r="CR4" s="116"/>
-      <c r="CT4" s="116"/>
-      <c r="CU4" s="116"/>
-      <c r="CV4" s="116"/>
-      <c r="CW4" s="116"/>
-      <c r="CX4" s="116"/>
-      <c r="CY4" s="116"/>
-      <c r="CZ4" s="116"/>
-      <c r="DB4" s="116"/>
-      <c r="DC4" s="116"/>
-      <c r="DD4" s="116"/>
-      <c r="DE4" s="116"/>
-      <c r="DF4" s="116"/>
-      <c r="DG4" s="116"/>
-      <c r="DH4" s="116"/>
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="119"/>
+      <c r="CC4" s="125"/>
+      <c r="CD4" s="125"/>
+      <c r="CE4" s="125"/>
+      <c r="CF4" s="125"/>
+      <c r="CG4" s="125"/>
+      <c r="CH4" s="125"/>
+      <c r="CI4" s="125"/>
+      <c r="CJ4" s="125"/>
+      <c r="CL4" s="125"/>
+      <c r="CM4" s="125"/>
+      <c r="CN4" s="125"/>
+      <c r="CO4" s="125"/>
+      <c r="CP4" s="125"/>
+      <c r="CQ4" s="125"/>
+      <c r="CR4" s="125"/>
+      <c r="CT4" s="125"/>
+      <c r="CU4" s="125"/>
+      <c r="CV4" s="125"/>
+      <c r="CW4" s="125"/>
+      <c r="CX4" s="125"/>
+      <c r="CY4" s="125"/>
+      <c r="CZ4" s="125"/>
+      <c r="DB4" s="125"/>
+      <c r="DC4" s="125"/>
+      <c r="DD4" s="125"/>
+      <c r="DE4" s="125"/>
+      <c r="DF4" s="125"/>
+      <c r="DG4" s="125"/>
+      <c r="DH4" s="125"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:73">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="126" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="18">
@@ -4107,7 +4154,7 @@
       <c r="F5" s="20">
         <v>33.17</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="20">
@@ -4119,11 +4166,11 @@
       <c r="J5" s="20">
         <v>44.42</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="48">
         <f t="shared" ref="K5:K14" si="1">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="48">
         <f t="shared" ref="L5:L14" si="2">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
@@ -4148,97 +4195,97 @@
       <c r="S5" s="20">
         <v>32.53</v>
       </c>
-      <c r="X5" s="56" t="s">
+      <c r="X5" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="48">
         <f t="shared" ref="Y5:Y14" si="3">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="48">
         <f t="shared" ref="Z5:Z14" si="4">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="48">
         <f t="shared" ref="AA5:AA14" si="5">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="48">
         <f t="shared" ref="AB5:AB14" si="6">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="46" t="e">
+      <c r="AC5" s="48" t="e">
         <f>(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="56" t="s">
+      <c r="AE5" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="60" t="s">
+      <c r="AF5" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60" t="s">
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="46">
+      <c r="AI5" s="48">
         <v>0.0351</v>
       </c>
-      <c r="AJ5" s="46">
+      <c r="AJ5" s="48">
         <v>0.3603</v>
       </c>
-      <c r="AK5" s="46">
+      <c r="AK5" s="48">
         <v>0.3371</v>
       </c>
-      <c r="AL5" s="46">
+      <c r="AL5" s="48">
         <v>0.2435</v>
       </c>
-      <c r="AM5" s="46">
+      <c r="AM5" s="48">
         <v>0.263</v>
       </c>
-      <c r="AN5" s="46">
+      <c r="AN5" s="48">
         <v>0.003</v>
       </c>
-      <c r="AO5" s="46">
+      <c r="AO5" s="48">
         <v>0.0758</v>
       </c>
-      <c r="AP5" s="46">
+      <c r="AP5" s="48">
         <v>-0.2476</v>
       </c>
-      <c r="AQ5" s="46">
+      <c r="AQ5" s="48">
         <v>0.0073</v>
       </c>
-      <c r="AR5" s="46">
+      <c r="AR5" s="48">
         <v>0.2143</v>
       </c>
-      <c r="AS5" s="46">
+      <c r="AS5" s="48">
         <v>0.156</v>
       </c>
-      <c r="AT5" s="46">
+      <c r="AT5" s="48">
         <v>0.1125</v>
       </c>
-      <c r="AU5" s="81">
+      <c r="AU5" s="84">
         <v>0.2584</v>
       </c>
-      <c r="AV5" s="81">
+      <c r="AV5" s="84">
         <v>-0.0411</v>
       </c>
-      <c r="AW5" s="81">
+      <c r="AW5" s="84">
         <v>0.0156</v>
       </c>
-      <c r="AX5" s="81">
+      <c r="AX5" s="84">
         <v>-0.167</v>
       </c>
-      <c r="AY5" s="81">
+      <c r="AY5" s="84">
         <v>0.4704</v>
       </c>
-      <c r="AZ5" s="81">
+      <c r="AZ5" s="84">
         <v>0.4673</v>
       </c>
-      <c r="BA5" s="81">
+      <c r="BA5" s="84">
         <v>0.4797</v>
       </c>
-      <c r="BB5" s="81">
+      <c r="BB5" s="84">
         <v>0.4796</v>
       </c>
       <c r="BC5" s="20"/>
@@ -4272,31 +4319,31 @@
         <f>FLOOR(300/(BJ5-BK5),100)</f>
         <v>100</v>
       </c>
-      <c r="BO5" s="89">
+      <c r="BO5" s="93">
         <f t="shared" ref="BO5:BO14" si="8">(BL5-BJ5)/(BJ5-BK5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BP5" s="46">
+      <c r="BP5" s="48">
         <f t="shared" ref="BP5:BP14" si="9">(BJ5-BK5)/BJ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BQ5" s="46">
+      <c r="BQ5" s="48">
         <f t="shared" ref="BQ5:BQ14" si="10">(BL5-BJ5)/BJ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BR5" s="98">
+      <c r="BR5" s="105">
         <v>37.41</v>
       </c>
-      <c r="BS5" s="56" t="s">
+      <c r="BS5" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="BT5" s="99" t="s">
+      <c r="BT5" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BU5" s="111"/>
+      <c r="BU5" s="120"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="126" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="18">
@@ -4314,7 +4361,7 @@
       <c r="F6" s="20">
         <v>31.53</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="20">
@@ -4326,11 +4373,11 @@
       <c r="J6" s="20">
         <v>41.5</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="48">
         <f t="shared" si="1"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="48">
         <f t="shared" si="2"/>
         <v>0.215180722891566</v>
       </c>
@@ -4349,108 +4396,108 @@
       <c r="Q6" s="20">
         <v>30.89</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="56">
         <v>34.66</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="57">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="56" t="s">
+      <c r="X6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="48">
         <f t="shared" si="3"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="48">
         <f t="shared" si="4"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="48">
         <f t="shared" si="5"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6" s="48">
         <f t="shared" si="6"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="46" t="e">
+      <c r="AC6" s="48" t="e">
         <f>(T6-U6)/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="56" t="s">
+      <c r="AE6" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="60" t="s">
+      <c r="AF6" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60" t="s">
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="72" t="s">
+      <c r="AI6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="72" t="s">
+      <c r="AJ6" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="72" t="s">
+      <c r="AK6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" s="72" t="s">
+      <c r="AL6" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="72" t="s">
+      <c r="AM6" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="72" t="s">
+      <c r="AN6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="72" t="s">
+      <c r="AO6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" s="72" t="s">
+      <c r="AP6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" s="72" t="s">
+      <c r="AQ6" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="72" t="s">
+      <c r="AR6" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="72" t="s">
+      <c r="AS6" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="72" t="s">
+      <c r="AT6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="AU6" s="72">
+      <c r="AU6" s="75">
         <v>0.0455</v>
       </c>
-      <c r="AV6" s="72">
+      <c r="AV6" s="75">
         <v>-0.0116</v>
       </c>
-      <c r="AW6" s="72">
+      <c r="AW6" s="75">
         <v>0.1549</v>
       </c>
-      <c r="AX6" s="72">
+      <c r="AX6" s="75">
         <v>-0.1474</v>
       </c>
-      <c r="AY6" s="72">
+      <c r="AY6" s="75">
         <v>0.2133</v>
       </c>
-      <c r="AZ6" s="72">
+      <c r="AZ6" s="75">
         <v>0.1848</v>
       </c>
-      <c r="BA6" s="46">
+      <c r="BA6" s="48">
         <v>0.1718</v>
       </c>
-      <c r="BB6" s="46">
+      <c r="BB6" s="48">
         <v>0.1605</v>
       </c>
       <c r="BC6" s="20"/>
@@ -4484,31 +4531,31 @@
         <f>FLOOR(300/(BJ6-BK6),100)</f>
         <v>100</v>
       </c>
-      <c r="BO6" s="89">
+      <c r="BO6" s="93">
         <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BP6" s="46">
+      <c r="BP6" s="48">
         <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BQ6" s="46">
+      <c r="BQ6" s="48">
         <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BR6" s="98">
+      <c r="BR6" s="105">
         <v>28.82</v>
       </c>
-      <c r="BS6" s="56" t="s">
+      <c r="BS6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="BT6" s="99" t="s">
+      <c r="BT6" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BU6" s="112"/>
+      <c r="BU6" s="121"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="126" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="21">
@@ -4538,11 +4585,11 @@
       <c r="J7" s="23">
         <v>90.29</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="48">
         <f t="shared" si="1"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="48">
         <f t="shared" si="2"/>
         <v>0.234023701406579</v>
       </c>
@@ -4576,92 +4623,92 @@
       <c r="X7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="48">
         <f t="shared" si="3"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7" s="48">
         <f t="shared" si="4"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="48">
         <f t="shared" si="5"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7" s="48">
         <f t="shared" si="6"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="47"/>
+      <c r="AC7" s="49"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AF7" s="61" t="s">
+      <c r="AF7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61">
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64">
         <v>10.35</v>
       </c>
-      <c r="AI7" s="72" t="s">
+      <c r="AI7" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="72" t="s">
+      <c r="AJ7" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="72" t="s">
+      <c r="AK7" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="72" t="s">
+      <c r="AL7" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="72" t="s">
+      <c r="AM7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" s="72" t="s">
+      <c r="AN7" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="72" t="s">
+      <c r="AO7" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="AP7" s="72" t="s">
+      <c r="AP7" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="AQ7" s="72" t="s">
+      <c r="AQ7" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="AR7" s="72" t="s">
+      <c r="AR7" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" s="72" t="s">
+      <c r="AS7" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="AT7" s="72" t="s">
+      <c r="AT7" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="AU7" s="72" t="s">
+      <c r="AU7" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="72" t="s">
+      <c r="AV7" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="AW7" s="72" t="s">
+      <c r="AW7" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="AX7" s="72" t="s">
+      <c r="AX7" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="72" t="s">
+      <c r="AY7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="AZ7" s="72" t="s">
+      <c r="AZ7" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="BA7" s="46">
+      <c r="BA7" s="48">
         <v>0.7636</v>
       </c>
-      <c r="BB7" s="46">
+      <c r="BB7" s="48">
         <v>0.7607</v>
       </c>
       <c r="BC7" s="23"/>
@@ -4695,31 +4742,31 @@
         <f>FLOOR(300/(BJ7-BK7),100)</f>
         <v>0</v>
       </c>
-      <c r="BO7" s="89">
+      <c r="BO7" s="93">
         <f t="shared" si="8"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BP7" s="46">
+      <c r="BP7" s="48">
         <f t="shared" si="9"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BQ7" s="46">
+      <c r="BQ7" s="48">
         <f t="shared" si="10"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BR7" s="100">
+      <c r="BR7" s="107">
         <v>6.49</v>
       </c>
-      <c r="BS7" s="61" t="s">
+      <c r="BS7" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="BT7" s="99" t="s">
+      <c r="BT7" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BU7" s="112"/>
+      <c r="BU7" s="121"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:73">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="127" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="21">
@@ -4747,11 +4794,11 @@
       <c r="J8" s="23">
         <v>48.5</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="49">
         <f t="shared" si="1"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="49">
         <f t="shared" si="2"/>
         <v>0.387835051546392</v>
       </c>
@@ -4779,23 +4826,23 @@
       <c r="X8" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="47">
+      <c r="Y8" s="49">
         <f t="shared" si="3"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="47">
+      <c r="Z8" s="49">
         <f t="shared" si="4"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="47">
+      <c r="AA8" s="49">
         <f t="shared" si="5"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="47" t="e">
+      <c r="AB8" s="49" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="47" t="e">
+      <c r="AC8" s="49" t="e">
         <f>(T8-U8)/T8</f>
         <v>#DIV/0!</v>
       </c>
@@ -4803,31 +4850,31 @@
       <c r="AE8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="61" t="s">
+      <c r="AF8" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="47"/>
-      <c r="BB8" s="47"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
       <c r="BC8" s="23"/>
       <c r="BD8" s="23"/>
       <c r="BE8" s="23"/>
@@ -4838,7 +4885,7 @@
       <c r="BH8" s="23">
         <v>26.16</v>
       </c>
-      <c r="BI8" s="85">
+      <c r="BI8" s="88">
         <f t="shared" si="7"/>
         <v>6.27</v>
       </c>
@@ -4851,7 +4898,7 @@
       <c r="BL8" s="23">
         <v>38.71</v>
       </c>
-      <c r="BM8" s="85">
+      <c r="BM8" s="88">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -4859,31 +4906,31 @@
         <f>FLOOR(300/(BJ8-BK8),100)</f>
         <v>200</v>
       </c>
-      <c r="BO8" s="90">
+      <c r="BO8" s="94">
         <f t="shared" si="8"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BP8" s="47">
+      <c r="BP8" s="49">
         <f t="shared" si="9"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BQ8" s="47">
+      <c r="BQ8" s="49">
         <f t="shared" si="10"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BR8" s="100">
+      <c r="BR8" s="107">
         <v>38.46</v>
       </c>
-      <c r="BS8" s="61" t="s">
+      <c r="BS8" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" s="99" t="s">
+      <c r="BT8" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="BU8" s="112"/>
+      <c r="BU8" s="121"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="13" spans="1:73">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="127" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="24">
@@ -4911,11 +4958,11 @@
       <c r="J9" s="26">
         <v>31.94</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="50">
         <f t="shared" si="1"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="50">
         <f t="shared" si="2"/>
         <v>0.0923606762680026</v>
       </c>
@@ -4947,23 +4994,23 @@
       <c r="X9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="48">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="48">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="48">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="48">
         <f t="shared" si="6"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="47" t="e">
+      <c r="AC9" s="49" t="e">
         <f>(T9-U9)/T9</f>
         <v>#DIV/0!</v>
       </c>
@@ -4971,71 +5018,71 @@
       <c r="AE9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="62" t="s">
+      <c r="AF9" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62">
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65">
         <v>6.25</v>
       </c>
-      <c r="AI9" s="74">
+      <c r="AI9" s="77">
         <v>1.5016</v>
       </c>
-      <c r="AJ9" s="74">
+      <c r="AJ9" s="77">
         <v>5.5181</v>
       </c>
-      <c r="AK9" s="74">
+      <c r="AK9" s="77">
         <v>3.3249</v>
       </c>
-      <c r="AL9" s="74">
+      <c r="AL9" s="77">
         <v>1.8449</v>
       </c>
-      <c r="AM9" s="72">
+      <c r="AM9" s="75">
         <v>0.3554</v>
       </c>
-      <c r="AN9" s="72">
+      <c r="AN9" s="75">
         <v>0.2495</v>
       </c>
-      <c r="AO9" s="72">
+      <c r="AO9" s="75">
         <v>0.1071</v>
       </c>
-      <c r="AP9" s="72">
+      <c r="AP9" s="75">
         <v>-0.134</v>
       </c>
-      <c r="AQ9" s="72">
+      <c r="AQ9" s="75">
         <v>0.0437</v>
       </c>
-      <c r="AR9" s="72">
+      <c r="AR9" s="75">
         <v>1.1403</v>
       </c>
-      <c r="AS9" s="72">
+      <c r="AS9" s="75">
         <v>1.4349</v>
       </c>
-      <c r="AT9" s="72">
+      <c r="AT9" s="75">
         <v>1.2425</v>
       </c>
-      <c r="AU9" s="74">
+      <c r="AU9" s="77">
         <v>0.2131</v>
       </c>
-      <c r="AV9" s="74">
+      <c r="AV9" s="77">
         <v>0.2062</v>
       </c>
-      <c r="AW9" s="74">
+      <c r="AW9" s="77">
         <v>0.334</v>
       </c>
-      <c r="AX9" s="74">
+      <c r="AX9" s="77">
         <v>0.0105</v>
       </c>
-      <c r="AY9" s="74">
+      <c r="AY9" s="77">
         <v>0.3392</v>
       </c>
-      <c r="AZ9" s="74">
+      <c r="AZ9" s="77">
         <v>0.3777</v>
       </c>
-      <c r="BA9" s="48">
+      <c r="BA9" s="50">
         <v>0.3722</v>
       </c>
-      <c r="BB9" s="48">
+      <c r="BB9" s="50">
         <v>0.3621</v>
       </c>
       <c r="BC9" s="26"/>
@@ -5048,7 +5095,7 @@
       <c r="BH9" s="26">
         <v>21.1</v>
       </c>
-      <c r="BI9" s="86">
+      <c r="BI9" s="89">
         <f t="shared" si="7"/>
         <v>10.08</v>
       </c>
@@ -5061,7 +5108,7 @@
       <c r="BL9" s="26">
         <v>34.93</v>
       </c>
-      <c r="BM9" s="86">
+      <c r="BM9" s="89">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -5069,31 +5116,31 @@
         <f>FLOOR(300/(BJ9-BK9),100)</f>
         <v>100</v>
       </c>
-      <c r="BO9" s="91">
+      <c r="BO9" s="95">
         <f t="shared" si="8"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BP9" s="48">
+      <c r="BP9" s="50">
         <f t="shared" si="9"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BQ9" s="48">
+      <c r="BQ9" s="50">
         <f t="shared" si="10"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BR9" s="101">
+      <c r="BR9" s="108">
         <v>17.95</v>
       </c>
-      <c r="BS9" s="62" t="s">
+      <c r="BS9" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="BT9" s="62" t="s">
+      <c r="BT9" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="BU9" s="113"/>
-    </row>
-    <row r="10" ht="13" spans="1:72">
-      <c r="A10" s="119" t="s">
+      <c r="BU9" s="122"/>
+    </row>
+    <row r="10" ht="36" spans="1:72">
+      <c r="A10" s="128" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="28">
@@ -5121,11 +5168,11 @@
       <c r="J10" s="27">
         <v>26.64</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="51">
         <f t="shared" si="1"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="51">
         <f t="shared" si="2"/>
         <v>0.123498498498498</v>
       </c>
@@ -5157,19 +5204,19 @@
       <c r="X10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="Y10" s="57">
+      <c r="Y10" s="60">
         <f t="shared" si="3"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="57">
+      <c r="Z10" s="60">
         <f t="shared" si="4"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="57">
+      <c r="AA10" s="60">
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="57">
+      <c r="AB10" s="60">
         <f t="shared" si="6"/>
         <v>0.0839506172839506</v>
       </c>
@@ -5178,71 +5225,71 @@
       <c r="AE10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="63" t="s">
+      <c r="AF10" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63">
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="75" t="s">
+      <c r="AI10" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="75" t="s">
+      <c r="AJ10" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="75" t="s">
+      <c r="AK10" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="75" t="s">
+      <c r="AL10" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="79">
+      <c r="AM10" s="82">
         <v>2.6193</v>
       </c>
-      <c r="AN10" s="79">
+      <c r="AN10" s="82">
         <v>0.0893</v>
       </c>
-      <c r="AO10" s="79">
+      <c r="AO10" s="82">
         <v>-0.0175</v>
       </c>
-      <c r="AP10" s="79">
+      <c r="AP10" s="82">
         <v>-0.2195</v>
       </c>
-      <c r="AQ10" s="75">
+      <c r="AQ10" s="78">
         <v>-0.0419</v>
       </c>
-      <c r="AR10" s="75">
+      <c r="AR10" s="78">
         <v>0.1981</v>
       </c>
-      <c r="AS10" s="75">
+      <c r="AS10" s="78">
         <v>0.198</v>
       </c>
-      <c r="AT10" s="75">
+      <c r="AT10" s="78">
         <v>0.1998</v>
       </c>
-      <c r="AU10" s="76">
+      <c r="AU10" s="79">
         <v>0.1893</v>
       </c>
-      <c r="AV10" s="75">
+      <c r="AV10" s="78">
         <v>-0.0513</v>
       </c>
-      <c r="AW10" s="75">
+      <c r="AW10" s="78">
         <v>0.0188</v>
       </c>
-      <c r="AX10" s="75">
+      <c r="AX10" s="78">
         <v>0.0467</v>
       </c>
-      <c r="AY10" s="76">
+      <c r="AY10" s="79">
         <v>0.2619</v>
       </c>
-      <c r="AZ10" s="76">
+      <c r="AZ10" s="79">
         <v>0.259</v>
       </c>
-      <c r="BA10" s="49">
+      <c r="BA10" s="51">
         <v>0.2791</v>
       </c>
-      <c r="BB10" s="49">
+      <c r="BB10" s="51">
         <v>0.1079</v>
       </c>
       <c r="BC10" s="27"/>
@@ -5255,7 +5302,7 @@
       <c r="BH10" s="27">
         <v>18.59</v>
       </c>
-      <c r="BI10" s="87">
+      <c r="BI10" s="90">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -5268,7 +5315,7 @@
       <c r="BL10" s="27">
         <v>26.72</v>
       </c>
-      <c r="BM10" s="87">
+      <c r="BM10" s="90">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
@@ -5276,30 +5323,30 @@
         <f>FLOOR(304/(BJ10-BK10),100)</f>
         <v>100</v>
       </c>
-      <c r="BO10" s="92">
+      <c r="BO10" s="96">
         <f t="shared" si="8"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BP10" s="49">
+      <c r="BP10" s="51">
         <f t="shared" si="9"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BQ10" s="49">
+      <c r="BQ10" s="51">
         <f t="shared" si="10"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BR10" s="102">
+      <c r="BR10" s="109">
         <v>56.67</v>
       </c>
-      <c r="BS10" s="63" t="s">
+      <c r="BS10" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BT10" s="103" t="s">
+      <c r="BT10" s="110" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" ht="13" spans="1:72">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="128" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="30">
@@ -5327,11 +5374,11 @@
       <c r="J11" s="27">
         <v>29.28</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="51">
         <f>(H11-I11)/I11</f>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="51">
         <f>(J11-H11)/J11</f>
         <v>0.238729508196721</v>
       </c>
@@ -5363,19 +5410,19 @@
       <c r="X11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Y11" s="57">
+      <c r="Y11" s="60">
         <f>(J11-M11)/J11</f>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="57">
+      <c r="Z11" s="60">
         <f>(N11-O11)/N11</f>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="57">
+      <c r="AA11" s="60">
         <f>(P11-Q11)/P11</f>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="57">
+      <c r="AB11" s="60">
         <f>(R11-S11)/R11</f>
         <v>0.0749464668094218</v>
       </c>
@@ -5384,71 +5431,71 @@
       <c r="AE11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="63" t="s">
+      <c r="AF11" s="66" t="s">
         <v>130</v>
       </c>
       <c r="AG11" s="27"/>
       <c r="AH11" s="27">
         <v>8.51</v>
       </c>
-      <c r="AI11" s="49">
+      <c r="AI11" s="51">
         <v>3.6019</v>
       </c>
-      <c r="AJ11" s="49">
+      <c r="AJ11" s="51">
         <v>16.933</v>
       </c>
-      <c r="AK11" s="49">
+      <c r="AK11" s="51">
         <v>7.9794</v>
       </c>
-      <c r="AL11" s="49">
+      <c r="AL11" s="51">
         <v>3.2905</v>
       </c>
-      <c r="AM11" s="49">
+      <c r="AM11" s="51">
         <v>1.3176</v>
       </c>
-      <c r="AN11" s="49">
+      <c r="AN11" s="51">
         <v>0.0128</v>
       </c>
-      <c r="AO11" s="80">
+      <c r="AO11" s="83">
         <v>-0.2701</v>
       </c>
-      <c r="AP11" s="80">
+      <c r="AP11" s="83">
         <v>0.2668</v>
       </c>
-      <c r="AQ11" s="49">
+      <c r="AQ11" s="51">
         <v>0.0496</v>
       </c>
-      <c r="AR11" s="49">
+      <c r="AR11" s="51">
         <v>0.7137</v>
       </c>
-      <c r="AS11" s="80">
+      <c r="AS11" s="83">
         <v>0.3284</v>
       </c>
-      <c r="AT11" s="80">
+      <c r="AT11" s="83">
         <v>0.4288</v>
       </c>
-      <c r="AU11" s="49">
+      <c r="AU11" s="51">
         <v>0.52</v>
       </c>
-      <c r="AV11" s="80">
+      <c r="AV11" s="83">
         <v>-0.119</v>
       </c>
-      <c r="AW11" s="80">
+      <c r="AW11" s="83">
         <v>0.0208</v>
       </c>
-      <c r="AX11" s="80">
+      <c r="AX11" s="83">
         <v>0.1948</v>
       </c>
-      <c r="AY11" s="49">
+      <c r="AY11" s="51">
         <v>0.1781</v>
       </c>
-      <c r="AZ11" s="49">
+      <c r="AZ11" s="51">
         <v>0.2286</v>
       </c>
-      <c r="BA11" s="49">
+      <c r="BA11" s="51">
         <v>0.2077</v>
       </c>
-      <c r="BB11" s="49">
+      <c r="BB11" s="51">
         <v>0.1904</v>
       </c>
       <c r="BC11" s="27"/>
@@ -5461,7 +5508,7 @@
       <c r="BH11" s="27">
         <v>18.22</v>
       </c>
-      <c r="BI11" s="87">
+      <c r="BI11" s="90">
         <f>BG11-BH11</f>
         <v>5.98</v>
       </c>
@@ -5474,7 +5521,7 @@
       <c r="BL11" s="27">
         <v>28.54</v>
       </c>
-      <c r="BM11" s="87">
+      <c r="BM11" s="90">
         <f>(BJ11-BK11)*100</f>
         <v>175</v>
       </c>
@@ -5482,37 +5529,37 @@
         <f>FLOOR(304/(BJ11-BK11),100)</f>
         <v>100</v>
       </c>
-      <c r="BO11" s="92">
+      <c r="BO11" s="96">
         <f>(BL11-BJ11)/(BJ11-BK11)</f>
         <v>2.96571428571428</v>
       </c>
-      <c r="BP11" s="49">
+      <c r="BP11" s="51">
         <f>(BJ11-BK11)/BJ11</f>
         <v>0.0749464668094218</v>
       </c>
-      <c r="BQ11" s="49">
+      <c r="BQ11" s="51">
         <f>(BL11-BJ11)/BJ11</f>
         <v>0.222269807280514</v>
       </c>
-      <c r="BR11" s="102">
+      <c r="BR11" s="109">
         <v>39.84</v>
       </c>
-      <c r="BS11" s="63" t="s">
+      <c r="BS11" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="103" t="s">
-        <v>137</v>
+      <c r="BT11" s="110" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="13" spans="1:72">
-      <c r="A12" s="119" t="s">
-        <v>140</v>
+      <c r="A12" s="128" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="30">
         <v>44533</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D12" s="27">
         <v>30.42</v>
@@ -5533,11 +5580,11 @@
       <c r="J12" s="27">
         <v>41.66</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="51">
         <f>(H12-I12)/I12</f>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="51">
         <f>(J12-H12)/J12</f>
         <v>0.0470475276044166</v>
       </c>
@@ -5569,19 +5616,19 @@
       <c r="X12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" s="57">
+      <c r="Y12" s="60">
         <f>(J12-M12)/J12</f>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="57">
+      <c r="Z12" s="60">
         <f>(N12-O12)/N12</f>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="57">
+      <c r="AA12" s="60">
         <f>(P12-Q12)/P12</f>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="57">
+      <c r="AB12" s="60">
         <f>(R12-S12)/R12</f>
         <v>0.0729821169647173</v>
       </c>
@@ -5595,64 +5642,64 @@
       <c r="AH12" s="27">
         <v>2.2</v>
       </c>
-      <c r="AI12" s="49">
+      <c r="AI12" s="51">
         <v>0.0112</v>
       </c>
-      <c r="AJ12" s="49">
+      <c r="AJ12" s="51">
         <v>0.8116</v>
       </c>
-      <c r="AK12" s="49">
+      <c r="AK12" s="51">
         <v>0.7087</v>
       </c>
-      <c r="AL12" s="49">
+      <c r="AL12" s="51">
         <v>0.7083</v>
       </c>
-      <c r="AM12" s="49">
+      <c r="AM12" s="51">
         <v>0.006</v>
       </c>
-      <c r="AN12" s="49">
+      <c r="AN12" s="51">
         <v>0.3442</v>
       </c>
-      <c r="AO12" s="49">
+      <c r="AO12" s="51">
         <v>0.247</v>
       </c>
-      <c r="AP12" s="49">
+      <c r="AP12" s="51">
         <v>0.0127</v>
       </c>
-      <c r="AQ12" s="49">
+      <c r="AQ12" s="51">
         <v>0.1618</v>
       </c>
-      <c r="AR12" s="49">
+      <c r="AR12" s="51">
         <v>1.016</v>
       </c>
-      <c r="AS12" s="49">
+      <c r="AS12" s="51">
         <v>0.5767</v>
       </c>
-      <c r="AT12" s="49">
+      <c r="AT12" s="51">
         <v>0.477</v>
       </c>
-      <c r="AU12" s="49">
+      <c r="AU12" s="51">
         <v>0.4664</v>
       </c>
-      <c r="AV12" s="80">
+      <c r="AV12" s="83">
         <v>-0.1139</v>
       </c>
-      <c r="AW12" s="80">
+      <c r="AW12" s="83">
         <v>-0.0272</v>
       </c>
-      <c r="AX12" s="80">
+      <c r="AX12" s="83">
         <v>0.0402</v>
       </c>
-      <c r="AY12" s="49">
+      <c r="AY12" s="51">
         <v>0.5316</v>
       </c>
-      <c r="AZ12" s="49">
+      <c r="AZ12" s="51">
         <v>0.5499</v>
       </c>
-      <c r="BA12" s="49">
+      <c r="BA12" s="51">
         <v>0.5374</v>
       </c>
-      <c r="BB12" s="49">
+      <c r="BB12" s="51">
         <v>0.5361</v>
       </c>
       <c r="BC12" s="27"/>
@@ -5665,7 +5712,7 @@
       <c r="BH12" s="27">
         <v>32.98</v>
       </c>
-      <c r="BI12" s="87">
+      <c r="BI12" s="90">
         <f>BG12-BH12</f>
         <v>9.73</v>
       </c>
@@ -5678,7 +5725,7 @@
       <c r="BL12" s="27">
         <v>42.87</v>
       </c>
-      <c r="BM12" s="87">
+      <c r="BM12" s="90">
         <f>(BJ12-BK12)*100</f>
         <v>206</v>
       </c>
@@ -5686,30 +5733,30 @@
         <f>FLOOR(304/(BJ12-BK12),100)</f>
         <v>100</v>
       </c>
-      <c r="BO12" s="92">
+      <c r="BO12" s="96">
         <f>(BL12-BJ12)/(BJ12-BK12)</f>
         <v>1.18932038834951</v>
       </c>
-      <c r="BP12" s="49">
+      <c r="BP12" s="51">
         <f>(BJ12-BK12)/BJ12</f>
         <v>0.0509648688767937</v>
       </c>
-      <c r="BQ12" s="49">
+      <c r="BQ12" s="51">
         <f>(BL12-BJ12)/BJ12</f>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BR12" s="102">
+      <c r="BR12" s="109">
         <v>25.4</v>
       </c>
-      <c r="BS12" s="63" t="s">
+      <c r="BS12" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BT12" s="103" t="s">
-        <v>142</v>
+      <c r="BT12" s="110" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="36" spans="1:73">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="129" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="30">
@@ -5737,11 +5784,11 @@
       <c r="J13" s="27">
         <v>31.94</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="51">
         <f>(H13-I13)/I13</f>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="51">
         <f>(J13-H13)/J13</f>
         <v>0.130870381966187</v>
       </c>
@@ -5771,92 +5818,92 @@
       <c r="X13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="57">
+      <c r="Y13" s="60">
         <f>(J13-M13)/J13</f>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="57">
+      <c r="Z13" s="60">
         <f>(N13-O13)/N13</f>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="57">
+      <c r="AA13" s="60">
         <f>(P13-Q13)/P13</f>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="57">
+      <c r="AB13" s="60">
         <f>(R13-S13)/R13</f>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="64"/>
+      <c r="AC13" s="67"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="63" t="s">
+      <c r="AF13" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63">
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66">
         <v>6.25</v>
       </c>
-      <c r="AI13" s="76">
+      <c r="AI13" s="79">
         <v>1.5016</v>
       </c>
-      <c r="AJ13" s="76">
+      <c r="AJ13" s="79">
         <v>5.5181</v>
       </c>
-      <c r="AK13" s="76">
+      <c r="AK13" s="79">
         <v>3.3249</v>
       </c>
-      <c r="AL13" s="76">
+      <c r="AL13" s="79">
         <v>1.8449</v>
       </c>
-      <c r="AM13" s="79">
+      <c r="AM13" s="82">
         <v>0.3554</v>
       </c>
-      <c r="AN13" s="79">
+      <c r="AN13" s="82">
         <v>0.2495</v>
       </c>
-      <c r="AO13" s="79">
+      <c r="AO13" s="82">
         <v>0.1071</v>
       </c>
-      <c r="AP13" s="79">
+      <c r="AP13" s="82">
         <v>-0.134</v>
       </c>
-      <c r="AQ13" s="79">
+      <c r="AQ13" s="82">
         <v>0.0437</v>
       </c>
-      <c r="AR13" s="79">
+      <c r="AR13" s="82">
         <v>1.1403</v>
       </c>
-      <c r="AS13" s="79">
+      <c r="AS13" s="82">
         <v>1.4349</v>
       </c>
-      <c r="AT13" s="79">
+      <c r="AT13" s="82">
         <v>1.2425</v>
       </c>
-      <c r="AU13" s="76">
+      <c r="AU13" s="79">
         <v>0.2131</v>
       </c>
-      <c r="AV13" s="76">
+      <c r="AV13" s="79">
         <v>0.2062</v>
       </c>
-      <c r="AW13" s="76">
+      <c r="AW13" s="79">
         <v>0.334</v>
       </c>
-      <c r="AX13" s="76">
+      <c r="AX13" s="79">
         <v>0.0105</v>
       </c>
-      <c r="AY13" s="76">
+      <c r="AY13" s="79">
         <v>0.3392</v>
       </c>
-      <c r="AZ13" s="76">
+      <c r="AZ13" s="79">
         <v>0.3777</v>
       </c>
-      <c r="BA13" s="49">
+      <c r="BA13" s="51">
         <v>0.3722</v>
       </c>
-      <c r="BB13" s="49">
+      <c r="BB13" s="51">
         <v>0.3621</v>
       </c>
       <c r="BC13" s="27"/>
@@ -5869,7 +5916,7 @@
       <c r="BH13" s="27">
         <v>22.41</v>
       </c>
-      <c r="BI13" s="87">
+      <c r="BI13" s="90">
         <f>BG13-BH13</f>
         <v>8.8</v>
       </c>
@@ -5882,7 +5929,7 @@
       <c r="BL13" s="27">
         <v>35.16</v>
       </c>
-      <c r="BM13" s="87">
+      <c r="BM13" s="90">
         <f>(BJ13-BK13)*100</f>
         <v>288</v>
       </c>
@@ -5890,38 +5937,38 @@
         <f>FLOOR(304/(BJ13-BK13),100)</f>
         <v>100</v>
       </c>
-      <c r="BO13" s="92">
+      <c r="BO13" s="96">
         <f>(BL13-BJ13)/(BJ13-BK13)</f>
         <v>1.68055555555555</v>
       </c>
-      <c r="BP13" s="49">
+      <c r="BP13" s="51">
         <f>(BJ13-BK13)/BJ13</f>
         <v>0.0949868073878628</v>
       </c>
-      <c r="BQ13" s="49">
+      <c r="BQ13" s="51">
         <f>(BL13-BJ13)/BJ13</f>
         <v>0.159630606860158</v>
       </c>
-      <c r="BR13" s="102">
+      <c r="BR13" s="109">
         <v>17.95</v>
       </c>
-      <c r="BS13" s="63" t="s">
+      <c r="BS13" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BT13" s="63" t="s">
+      <c r="BT13" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU13" s="123"/>
+    </row>
+    <row r="14" ht="38" spans="1:72">
+      <c r="A14" s="128" t="s">
         <v>144</v>
-      </c>
-      <c r="BU13" s="114"/>
-    </row>
-    <row r="14" ht="38" spans="1:72">
-      <c r="A14" s="119" t="s">
-        <v>145</v>
       </c>
       <c r="B14" s="30">
         <v>44533</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="27">
         <v>37.56</v>
@@ -5942,11 +5989,11 @@
       <c r="J14" s="27">
         <v>62.1</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="51">
         <f>(H14-I14)/I14</f>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="51">
         <f>(J14-H14)/J14</f>
         <v>0.131078904991948</v>
       </c>
@@ -5978,19 +6025,19 @@
       <c r="X14" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="60">
         <f>(J14-M14)/J14</f>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="57">
+      <c r="Z14" s="60">
         <f>(N14-O14)/N14</f>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="57">
+      <c r="AA14" s="60">
         <f>(P14-Q14)/P14</f>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="57">
+      <c r="AB14" s="60">
         <f>(R14-S14)/R14</f>
         <v>0.0880711545169167</v>
       </c>
@@ -5999,71 +6046,71 @@
       <c r="AE14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="63" t="s">
+      <c r="AF14" s="66" t="s">
         <v>130</v>
       </c>
       <c r="AG14" s="27"/>
       <c r="AH14" s="27">
         <v>34.76</v>
       </c>
-      <c r="AI14" s="49">
+      <c r="AI14" s="51">
         <v>0.4151</v>
       </c>
-      <c r="AJ14" s="49">
+      <c r="AJ14" s="51">
         <v>4.3101</v>
       </c>
-      <c r="AK14" s="49">
+      <c r="AK14" s="51">
         <v>5.7893</v>
       </c>
-      <c r="AL14" s="49">
+      <c r="AL14" s="51">
         <v>5.2189</v>
       </c>
-      <c r="AM14" s="49">
+      <c r="AM14" s="51">
         <v>0.5076</v>
       </c>
-      <c r="AN14" s="49">
+      <c r="AN14" s="51">
         <v>1.5097</v>
       </c>
-      <c r="AO14" s="49">
+      <c r="AO14" s="51">
         <v>0.5596</v>
       </c>
-      <c r="AP14" s="49">
+      <c r="AP14" s="51">
         <v>-0.084</v>
       </c>
-      <c r="AQ14" s="49">
+      <c r="AQ14" s="51">
         <v>0.1501</v>
       </c>
-      <c r="AR14" s="49">
+      <c r="AR14" s="51">
         <v>0.3924</v>
       </c>
-      <c r="AS14" s="49">
+      <c r="AS14" s="51">
         <v>0.602</v>
       </c>
-      <c r="AT14" s="49">
+      <c r="AT14" s="51">
         <v>0.755</v>
       </c>
-      <c r="AU14" s="49">
+      <c r="AU14" s="51">
         <v>0.9365</v>
       </c>
-      <c r="AV14" s="49">
+      <c r="AV14" s="51">
         <v>-0.3372</v>
       </c>
-      <c r="AW14" s="49">
+      <c r="AW14" s="51">
         <v>0.7463</v>
       </c>
-      <c r="AX14" s="49">
+      <c r="AX14" s="51">
         <v>-0.1096</v>
       </c>
-      <c r="AY14" s="49">
+      <c r="AY14" s="51">
         <v>0.1174</v>
       </c>
-      <c r="AZ14" s="49">
+      <c r="AZ14" s="51">
         <v>0.2187</v>
       </c>
-      <c r="BA14" s="49">
+      <c r="BA14" s="51">
         <v>0.2433</v>
       </c>
-      <c r="BB14" s="49">
+      <c r="BB14" s="51">
         <v>0.2275</v>
       </c>
       <c r="BC14" s="27"/>
@@ -6072,7 +6119,7 @@
       <c r="BF14" s="27"/>
       <c r="BG14" s="27"/>
       <c r="BH14" s="27"/>
-      <c r="BI14" s="87">
+      <c r="BI14" s="90">
         <f>BG14-BH14</f>
         <v>0</v>
       </c>
@@ -6085,7 +6132,7 @@
       <c r="BL14" s="27">
         <v>65.25</v>
       </c>
-      <c r="BM14" s="87">
+      <c r="BM14" s="90">
         <f>(BJ14-BK14)*100</f>
         <v>505</v>
       </c>
@@ -6093,37 +6140,37 @@
         <f>FLOOR(304/(BJ14-BK14),100)</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="92">
+      <c r="BO14" s="96">
         <f>(BL14-BJ14)/(BJ14-BK14)</f>
         <v>1.56633663366336</v>
       </c>
-      <c r="BP14" s="49">
+      <c r="BP14" s="51">
         <f>(BJ14-BK14)/BJ14</f>
         <v>0.0880711545169167</v>
       </c>
-      <c r="BQ14" s="49">
+      <c r="BQ14" s="51">
         <f>(BL14-BJ14)/BJ14</f>
         <v>0.137949075688873</v>
       </c>
-      <c r="BR14" s="102">
+      <c r="BR14" s="109">
         <v>56.78</v>
       </c>
-      <c r="BS14" s="63" t="s">
+      <c r="BS14" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="BT14" s="103" t="s">
+      <c r="BT14" s="110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" ht="38" spans="1:72">
+      <c r="A15" s="130" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="15" ht="38" spans="1:72">
-      <c r="A15" s="121" t="s">
-        <v>148</v>
       </c>
       <c r="B15" s="34">
         <v>44533</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>149</v>
+      <c r="C15" s="131" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="33">
         <v>32.83</v>
@@ -6144,11 +6191,11 @@
       <c r="J15" s="33">
         <v>59.8</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="52">
         <f>(H15-I15)/I15</f>
         <v>3.25609756097561</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="52">
         <f>(J15-H15)/J15</f>
         <v>0.182943143812709</v>
       </c>
@@ -6180,19 +6227,19 @@
       <c r="X15" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Y15" s="58">
+      <c r="Y15" s="61">
         <f>(J15-M15)/J15</f>
         <v>0.445484949832776</v>
       </c>
-      <c r="Z15" s="58">
+      <c r="Z15" s="61">
         <f>(N15-O15)/N15</f>
         <v>0.16702663786897</v>
       </c>
-      <c r="AA15" s="58">
+      <c r="AA15" s="61">
         <f>(P15-Q15)/P15</f>
         <v>0.105727923627685</v>
       </c>
-      <c r="AB15" s="58">
+      <c r="AB15" s="61">
         <f>(R15-S15)/R15</f>
         <v>0.0959019856358261</v>
       </c>
@@ -6201,71 +6248,71 @@
       <c r="AE15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="65" t="s">
+      <c r="AF15" s="68" t="s">
         <v>130</v>
       </c>
       <c r="AG15" s="33"/>
       <c r="AH15" s="33">
         <v>2.07</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15" s="52">
         <v>2.0414</v>
       </c>
-      <c r="AJ15" s="50">
+      <c r="AJ15" s="52">
         <v>7.8404</v>
       </c>
-      <c r="AK15" s="50">
+      <c r="AK15" s="52">
         <v>0.0573</v>
       </c>
-      <c r="AL15" s="50">
+      <c r="AL15" s="52">
         <v>0.4733</v>
       </c>
-      <c r="AM15" s="50">
+      <c r="AM15" s="52">
         <v>6.5677</v>
       </c>
-      <c r="AN15" s="50">
+      <c r="AN15" s="52">
         <v>-0.3008</v>
       </c>
-      <c r="AO15" s="50">
+      <c r="AO15" s="52">
         <v>-0.2734</v>
       </c>
-      <c r="AP15" s="50">
+      <c r="AP15" s="52">
         <v>-0.5858</v>
       </c>
-      <c r="AQ15" s="50">
+      <c r="AQ15" s="52">
         <v>-0.1511</v>
       </c>
-      <c r="AR15" s="50">
+      <c r="AR15" s="52">
         <v>1.1435</v>
       </c>
-      <c r="AS15" s="50">
+      <c r="AS15" s="52">
         <v>1.059</v>
       </c>
-      <c r="AT15" s="50">
+      <c r="AT15" s="52">
         <v>0.7237</v>
       </c>
-      <c r="AU15" s="50">
+      <c r="AU15" s="52">
         <v>0.0276</v>
       </c>
-      <c r="AV15" s="50">
+      <c r="AV15" s="52">
         <v>0.2692</v>
       </c>
-      <c r="AW15" s="50">
+      <c r="AW15" s="52">
         <v>-0.1848</v>
       </c>
-      <c r="AX15" s="50">
+      <c r="AX15" s="52">
         <v>0.2588</v>
       </c>
-      <c r="AY15" s="50">
+      <c r="AY15" s="52">
         <v>0.1894</v>
       </c>
-      <c r="AZ15" s="50">
+      <c r="AZ15" s="52">
         <v>0.1883</v>
       </c>
-      <c r="BA15" s="50">
+      <c r="BA15" s="52">
         <v>0.1993</v>
       </c>
-      <c r="BB15" s="50">
+      <c r="BB15" s="52">
         <v>0.0681</v>
       </c>
       <c r="BC15" s="33"/>
@@ -6274,14 +6321,14 @@
       <c r="BF15" s="33"/>
       <c r="BG15" s="33"/>
       <c r="BH15" s="33"/>
-      <c r="BI15" s="87">
+      <c r="BI15" s="90">
         <f>BG15-BH15</f>
         <v>0</v>
       </c>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="33"/>
       <c r="BL15" s="33"/>
-      <c r="BM15" s="87">
+      <c r="BM15" s="90">
         <f>(BJ15-BK15)*100</f>
         <v>0</v>
       </c>
@@ -6289,33 +6336,33 @@
         <f>FLOOR(304/(BJ15-BK15),100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO15" s="92" t="e">
+      <c r="BO15" s="96" t="e">
         <f>(BL15-BJ15)/(BJ15-BK15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP15" s="49" t="e">
+      <c r="BP15" s="51" t="e">
         <f>(BJ15-BK15)/BJ15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ15" s="49" t="e">
+      <c r="BQ15" s="51" t="e">
         <f>(BL15-BJ15)/BJ15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BR15" s="104"/>
+      <c r="BR15" s="111"/>
       <c r="BS15" s="33"/>
-      <c r="BT15" s="105" t="s">
-        <v>147</v>
+      <c r="BT15" s="112" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A16" s="123" t="s">
-        <v>150</v>
+      <c r="A16" s="132" t="s">
+        <v>149</v>
       </c>
       <c r="B16" s="37">
         <v>44533</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="36">
         <v>20.45</v>
@@ -6336,11 +6383,11 @@
       <c r="J16" s="36">
         <v>30.1</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="53">
         <f>(H16-I16)/I16</f>
         <v>2.38972431077694</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="53">
         <f>(J16-H16)/J16</f>
         <v>0.101328903654485</v>
       </c>
@@ -6368,89 +6415,92 @@
       <c r="X16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Y16" s="51">
+      <c r="Y16" s="53">
         <f>(J16-M16)/J16</f>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z16" s="51">
+      <c r="Z16" s="53">
         <f>(N16-O16)/N16</f>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA16" s="51">
+      <c r="AA16" s="53">
         <f>(P16-Q16)/P16</f>
         <v>0.0870922970159612</v>
       </c>
-      <c r="AB16" s="36"/>
+      <c r="AB16" s="61" t="e">
+        <f>(R16-S16)/R16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AC16" s="36"/>
       <c r="AD16" s="36"/>
       <c r="AE16" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AF16" s="66" t="s">
+      <c r="AF16" s="69" t="s">
         <v>130</v>
       </c>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36">
         <v>9.73</v>
       </c>
-      <c r="AI16" s="77">
+      <c r="AI16" s="80">
         <v>3.1533</v>
       </c>
-      <c r="AJ16" s="77">
+      <c r="AJ16" s="80">
         <v>2.152</v>
       </c>
-      <c r="AK16" s="77">
+      <c r="AK16" s="80">
         <v>1.6028</v>
       </c>
-      <c r="AL16" s="77">
+      <c r="AL16" s="80">
         <v>1.161</v>
       </c>
-      <c r="AM16" s="77">
+      <c r="AM16" s="80">
         <v>0.2365</v>
       </c>
-      <c r="AN16" s="77">
+      <c r="AN16" s="80">
         <v>0.0229</v>
       </c>
-      <c r="AO16" s="77">
+      <c r="AO16" s="80">
         <v>0.1857</v>
       </c>
-      <c r="AP16" s="77">
+      <c r="AP16" s="80">
         <v>0.1281</v>
       </c>
-      <c r="AQ16" s="77">
+      <c r="AQ16" s="80">
         <v>0.1124</v>
       </c>
-      <c r="AR16" s="77">
+      <c r="AR16" s="80">
         <v>0.3139</v>
       </c>
-      <c r="AS16" s="77">
+      <c r="AS16" s="80">
         <v>0.0935</v>
       </c>
-      <c r="AT16" s="77">
+      <c r="AT16" s="80">
         <v>0.1211</v>
       </c>
-      <c r="AU16" s="77">
+      <c r="AU16" s="80">
         <v>-0.3125</v>
       </c>
-      <c r="AV16" s="77">
+      <c r="AV16" s="80">
         <v>0.2292</v>
       </c>
-      <c r="AW16" s="77">
+      <c r="AW16" s="80">
         <v>0.1278</v>
       </c>
-      <c r="AX16" s="77">
+      <c r="AX16" s="80">
         <v>0.2239</v>
       </c>
-      <c r="AY16" s="77">
+      <c r="AY16" s="80">
         <v>0.2428</v>
       </c>
-      <c r="AZ16" s="77">
+      <c r="AZ16" s="80">
         <v>0.3271</v>
       </c>
-      <c r="BA16" s="77">
+      <c r="BA16" s="80">
         <v>0.347</v>
       </c>
-      <c r="BB16" s="77">
+      <c r="BB16" s="80">
         <v>0.3263</v>
       </c>
       <c r="BC16" s="36"/>
@@ -6484,106 +6534,194 @@
         <f>FLOOR(304/(BJ16-BK16),100)</f>
         <v>100</v>
       </c>
-      <c r="BO16" s="89">
+      <c r="BO16" s="93">
         <f>(BL16-BJ16)/(BJ16-BK16)</f>
         <v>1.41035856573705</v>
       </c>
-      <c r="BP16" s="46">
+      <c r="BP16" s="48">
         <f>(BJ16-BK16)/BJ16</f>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BQ16" s="46">
+      <c r="BQ16" s="48">
         <f>(BL16-BJ16)/BJ16</f>
         <v>0.122831367106176</v>
       </c>
-      <c r="BR16" s="106">
+      <c r="BR16" s="113">
         <v>25.15</v>
       </c>
-      <c r="BS16" s="66" t="s">
+      <c r="BS16" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="BT16" s="66" t="s">
+      <c r="BT16" s="69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="13" spans="1:72">
-      <c r="A17" s="124" t="s">
+    <row r="17" s="6" customFormat="1" ht="36" spans="1:72">
+      <c r="A17" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="40">
+        <v>44534</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="39">
+        <v>20.1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>21.01</v>
+      </c>
+      <c r="F17" s="39">
+        <v>23.24</v>
+      </c>
       <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
+      <c r="H17" s="39">
+        <v>24.5</v>
+      </c>
+      <c r="I17" s="39">
+        <v>9.18</v>
+      </c>
+      <c r="J17" s="39">
+        <v>29.3</v>
+      </c>
+      <c r="K17" s="54">
+        <f>(H17-I17)/I17</f>
+        <v>1.66884531590414</v>
+      </c>
+      <c r="L17" s="54">
+        <f>(J17-H17)/J17</f>
+        <v>0.16382252559727</v>
+      </c>
+      <c r="M17" s="39">
+        <v>19.05</v>
+      </c>
+      <c r="N17" s="39">
+        <v>22.91</v>
+      </c>
+      <c r="O17" s="39">
+        <v>19.73</v>
+      </c>
+      <c r="P17" s="39">
+        <v>26.45</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>22.8</v>
+      </c>
+      <c r="R17" s="39">
+        <v>25.95</v>
+      </c>
+      <c r="S17" s="39">
+        <v>23.58</v>
+      </c>
       <c r="T17" s="39"/>
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
+      <c r="X17" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y17" s="54">
+        <f>(J17-M17)/J17</f>
+        <v>0.349829351535836</v>
+      </c>
+      <c r="Z17" s="54">
+        <f>(N17-O17)/N17</f>
+        <v>0.138804015713662</v>
+      </c>
+      <c r="AA17" s="54">
+        <f>(P17-Q17)/P17</f>
+        <v>0.137996219281663</v>
+      </c>
+      <c r="AB17" s="61">
+        <f>(R17-S17)/R17</f>
+        <v>0.0913294797687862</v>
+      </c>
       <c r="AC17" s="39"/>
       <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
+      <c r="AE17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF17" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="AG17" s="39"/>
       <c r="AH17" s="39"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="81"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="81"/>
+      <c r="AZ17" s="81"/>
+      <c r="BA17" s="81"/>
+      <c r="BB17" s="81"/>
       <c r="BC17" s="39"/>
       <c r="BD17" s="39"/>
       <c r="BE17" s="39"/>
       <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
-      <c r="BM17" s="39"/>
-      <c r="BN17" s="39"/>
-      <c r="BO17" s="39"/>
-      <c r="BP17" s="78"/>
-      <c r="BQ17" s="78"/>
-      <c r="BR17" s="107"/>
-      <c r="BS17" s="39"/>
-      <c r="BT17" s="39"/>
+      <c r="BG17" s="39">
+        <v>27.49</v>
+      </c>
+      <c r="BH17" s="39">
+        <v>19.96</v>
+      </c>
+      <c r="BI17" s="91">
+        <f>BG17-BH17</f>
+        <v>7.53</v>
+      </c>
+      <c r="BJ17" s="39">
+        <v>25.95</v>
+      </c>
+      <c r="BK17" s="39">
+        <v>23.58</v>
+      </c>
+      <c r="BL17" s="39">
+        <v>29.66</v>
+      </c>
+      <c r="BM17" s="91">
+        <f>(BJ17-BK17)*100</f>
+        <v>237</v>
+      </c>
+      <c r="BN17" s="97">
+        <f>FLOOR(304/(BJ17-BK17),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BO17" s="98">
+        <f>(BL17-BJ17)/(BJ17-BK17)</f>
+        <v>1.56540084388186</v>
+      </c>
+      <c r="BP17" s="99">
+        <f>(BJ17-BK17)/BJ17</f>
+        <v>0.0913294797687862</v>
+      </c>
+      <c r="BQ17" s="99">
+        <f>(BL17-BJ17)/BJ17</f>
+        <v>0.142967244701349</v>
+      </c>
+      <c r="BR17" s="114">
+        <v>26.15</v>
+      </c>
+      <c r="BS17" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT17" s="115" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="13" spans="1:72">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="133" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="39"/>
@@ -6619,26 +6757,26 @@
       <c r="AF18" s="39"/>
       <c r="AG18" s="39"/>
       <c r="AH18" s="39"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="81"/>
+      <c r="AP18" s="81"/>
+      <c r="AQ18" s="81"/>
+      <c r="AR18" s="81"/>
+      <c r="AS18" s="81"/>
+      <c r="AT18" s="81"/>
+      <c r="AU18" s="81"/>
+      <c r="AV18" s="81"/>
+      <c r="AW18" s="81"/>
+      <c r="AX18" s="81"/>
+      <c r="AY18" s="81"/>
+      <c r="AZ18" s="81"/>
+      <c r="BA18" s="81"/>
+      <c r="BB18" s="81"/>
       <c r="BC18" s="39"/>
       <c r="BD18" s="39"/>
       <c r="BE18" s="39"/>
@@ -6652,14 +6790,14 @@
       <c r="BM18" s="39"/>
       <c r="BN18" s="39"/>
       <c r="BO18" s="39"/>
-      <c r="BP18" s="78"/>
-      <c r="BQ18" s="78"/>
-      <c r="BR18" s="107"/>
+      <c r="BP18" s="81"/>
+      <c r="BQ18" s="81"/>
+      <c r="BR18" s="116"/>
       <c r="BS18" s="39"/>
       <c r="BT18" s="39"/>
     </row>
     <row r="19" s="6" customFormat="1" ht="13" spans="1:72">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="133" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="39"/>
@@ -6695,26 +6833,26 @@
       <c r="AF19" s="39"/>
       <c r="AG19" s="39"/>
       <c r="AH19" s="39"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="81"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="81"/>
+      <c r="AR19" s="81"/>
+      <c r="AS19" s="81"/>
+      <c r="AT19" s="81"/>
+      <c r="AU19" s="81"/>
+      <c r="AV19" s="81"/>
+      <c r="AW19" s="81"/>
+      <c r="AX19" s="81"/>
+      <c r="AY19" s="81"/>
+      <c r="AZ19" s="81"/>
+      <c r="BA19" s="81"/>
+      <c r="BB19" s="81"/>
       <c r="BC19" s="39"/>
       <c r="BD19" s="39"/>
       <c r="BE19" s="39"/>
@@ -6728,14 +6866,14 @@
       <c r="BM19" s="39"/>
       <c r="BN19" s="39"/>
       <c r="BO19" s="39"/>
-      <c r="BP19" s="78"/>
-      <c r="BQ19" s="78"/>
-      <c r="BR19" s="107"/>
+      <c r="BP19" s="81"/>
+      <c r="BQ19" s="81"/>
+      <c r="BR19" s="116"/>
       <c r="BS19" s="39"/>
       <c r="BT19" s="39"/>
     </row>
     <row r="20" s="6" customFormat="1" ht="13" spans="1:72">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="133" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="39"/>
@@ -6771,26 +6909,26 @@
       <c r="AF20" s="39"/>
       <c r="AG20" s="39"/>
       <c r="AH20" s="39"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="81"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="81"/>
+      <c r="AT20" s="81"/>
+      <c r="AU20" s="81"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="81"/>
+      <c r="AX20" s="81"/>
+      <c r="AY20" s="81"/>
+      <c r="AZ20" s="81"/>
+      <c r="BA20" s="81"/>
+      <c r="BB20" s="81"/>
       <c r="BC20" s="39"/>
       <c r="BD20" s="39"/>
       <c r="BE20" s="39"/>
@@ -6804,14 +6942,14 @@
       <c r="BM20" s="39"/>
       <c r="BN20" s="39"/>
       <c r="BO20" s="39"/>
-      <c r="BP20" s="78"/>
-      <c r="BQ20" s="78"/>
-      <c r="BR20" s="107"/>
+      <c r="BP20" s="81"/>
+      <c r="BQ20" s="81"/>
+      <c r="BR20" s="116"/>
       <c r="BS20" s="39"/>
       <c r="BT20" s="39"/>
     </row>
     <row r="21" s="6" customFormat="1" ht="13" spans="1:72">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="133" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="39"/>
@@ -6847,26 +6985,26 @@
       <c r="AF21" s="39"/>
       <c r="AG21" s="39"/>
       <c r="AH21" s="39"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="78"/>
-      <c r="BB21" s="78"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="81"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="81"/>
+      <c r="AS21" s="81"/>
+      <c r="AT21" s="81"/>
+      <c r="AU21" s="81"/>
+      <c r="AV21" s="81"/>
+      <c r="AW21" s="81"/>
+      <c r="AX21" s="81"/>
+      <c r="AY21" s="81"/>
+      <c r="AZ21" s="81"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="81"/>
       <c r="BC21" s="39"/>
       <c r="BD21" s="39"/>
       <c r="BE21" s="39"/>
@@ -6880,14 +7018,14 @@
       <c r="BM21" s="39"/>
       <c r="BN21" s="39"/>
       <c r="BO21" s="39"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="107"/>
+      <c r="BP21" s="81"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="116"/>
       <c r="BS21" s="39"/>
       <c r="BT21" s="39"/>
     </row>
     <row r="22" ht="13" spans="1:71">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="134" t="s">
         <v>157</v>
       </c>
       <c r="B22" s="7"/>
@@ -6960,7 +7098,7 @@
       <c r="BS22" s="7"/>
     </row>
     <row r="23" ht="13" spans="1:71">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="134" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="7"/>
@@ -7033,7 +7171,7 @@
       <c r="BS23" s="7"/>
     </row>
     <row r="24" ht="13" spans="1:71">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="134" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="7"/>
@@ -7106,7 +7244,7 @@
       <c r="BS24" s="7"/>
     </row>
     <row r="25" ht="13" spans="1:71">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="134" t="s">
         <v>160</v>
       </c>
       <c r="B25" s="7"/>
@@ -7179,7 +7317,7 @@
       <c r="BS25" s="7"/>
     </row>
     <row r="26" ht="13" spans="1:71">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="134" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="7"/>
@@ -7252,7 +7390,7 @@
       <c r="BS26" s="7"/>
     </row>
     <row r="27" ht="13" spans="1:71">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="134" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="7"/>
@@ -7325,7 +7463,7 @@
       <c r="BS27" s="7"/>
     </row>
     <row r="28" ht="13" spans="1:71">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="134" t="s">
         <v>163</v>
       </c>
       <c r="B28" s="7"/>
@@ -7398,7 +7536,7 @@
       <c r="BS28" s="7"/>
     </row>
     <row r="29" ht="13" spans="1:71">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="134" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="7"/>
@@ -7471,7 +7609,7 @@
       <c r="BS29" s="7"/>
     </row>
     <row r="30" ht="13" spans="1:71">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="134" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="7"/>
@@ -7544,7 +7682,7 @@
       <c r="BS30" s="7"/>
     </row>
     <row r="31" ht="13" spans="1:71">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="134" t="s">
         <v>166</v>
       </c>
       <c r="B31" s="7"/>
@@ -7617,7 +7755,7 @@
       <c r="BS31" s="7"/>
     </row>
     <row r="32" ht="13" spans="1:71">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="134" t="s">
         <v>167</v>
       </c>
       <c r="B32" s="7"/>
@@ -7690,7 +7828,7 @@
       <c r="BS32" s="7"/>
     </row>
     <row r="33" ht="13" spans="1:71">
-      <c r="A33" s="125" t="s">
+      <c r="A33" s="134" t="s">
         <v>168</v>
       </c>
       <c r="B33" s="7"/>
@@ -7763,7 +7901,7 @@
       <c r="BS33" s="7"/>
     </row>
     <row r="34" ht="13" spans="1:71">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="134" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="7"/>
@@ -7836,7 +7974,7 @@
       <c r="BS34" s="7"/>
     </row>
     <row r="35" ht="13" spans="1:71">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="134" t="s">
         <v>170</v>
       </c>
       <c r="B35" s="7"/>
@@ -7909,7 +8047,7 @@
       <c r="BS35" s="7"/>
     </row>
     <row r="36" ht="13" spans="1:71">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="134" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="7"/>
@@ -7982,7 +8120,7 @@
       <c r="BS36" s="7"/>
     </row>
     <row r="37" ht="13" spans="1:71">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="134" t="s">
         <v>172</v>
       </c>
       <c r="B37" s="7"/>
@@ -8055,7 +8193,7 @@
       <c r="BS37" s="7"/>
     </row>
     <row r="38" ht="13" spans="1:71">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="134" t="s">
         <v>173</v>
       </c>
       <c r="B38" s="7"/>
@@ -8128,7 +8266,7 @@
       <c r="BS38" s="7"/>
     </row>
     <row r="39" ht="13" spans="1:71">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="134" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="7"/>
@@ -8201,7 +8339,7 @@
       <c r="BS39" s="7"/>
     </row>
     <row r="40" ht="13" spans="1:71">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="134" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="7"/>
@@ -8274,7 +8412,7 @@
       <c r="BS40" s="7"/>
     </row>
     <row r="41" ht="13" spans="1:71">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="134" t="s">
         <v>176</v>
       </c>
       <c r="B41" s="7"/>
@@ -8347,7 +8485,7 @@
       <c r="BS41" s="7"/>
     </row>
     <row r="42" ht="13" spans="1:71">
-      <c r="A42" s="125" t="s">
+      <c r="A42" s="134" t="s">
         <v>177</v>
       </c>
       <c r="B42" s="7"/>
@@ -8420,7 +8558,7 @@
       <c r="BS42" s="7"/>
     </row>
     <row r="43" ht="13" spans="1:71">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="134" t="s">
         <v>178</v>
       </c>
       <c r="B43" s="7"/>
@@ -8493,7 +8631,7 @@
       <c r="BS43" s="7"/>
     </row>
     <row r="44" ht="13" spans="1:71">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="134" t="s">
         <v>179</v>
       </c>
       <c r="B44" s="7"/>
@@ -8566,7 +8704,7 @@
       <c r="BS44" s="7"/>
     </row>
     <row r="45" ht="13" spans="1:71">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="134" t="s">
         <v>180</v>
       </c>
       <c r="B45" s="7"/>
@@ -8639,7 +8777,7 @@
       <c r="BS45" s="7"/>
     </row>
     <row r="46" ht="13" spans="1:71">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="134" t="s">
         <v>181</v>
       </c>
       <c r="B46" s="7"/>
@@ -8712,7 +8850,7 @@
       <c r="BS46" s="7"/>
     </row>
     <row r="47" ht="13" spans="1:71">
-      <c r="A47" s="125" t="s">
+      <c r="A47" s="134" t="s">
         <v>182</v>
       </c>
       <c r="B47" s="7"/>
@@ -8785,7 +8923,7 @@
       <c r="BS47" s="7"/>
     </row>
     <row r="48" ht="13" spans="1:71">
-      <c r="A48" s="125" t="s">
+      <c r="A48" s="134" t="s">
         <v>183</v>
       </c>
       <c r="B48" s="7"/>
@@ -8858,7 +8996,7 @@
       <c r="BS48" s="7"/>
     </row>
     <row r="49" ht="13" spans="1:71">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="134" t="s">
         <v>184</v>
       </c>
       <c r="B49" s="7"/>
@@ -8931,7 +9069,7 @@
       <c r="BS49" s="7"/>
     </row>
     <row r="50" ht="13" spans="1:71">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="134" t="s">
         <v>185</v>
       </c>
       <c r="B50" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -936,6 +936,32 @@
     <t>000037</t>
   </si>
   <si>
+    <r>
+      <t>600779(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水井坊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>20w</t>
+  </si>
+  <si>
     <t>000038</t>
   </si>
   <si>
@@ -1037,13 +1063,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1175,6 +1201,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -1182,8 +1216,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1198,41 +1246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,21 +1271,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,6 +1301,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -1291,7 +1317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,7 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,7 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1454,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,13 +1514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,79 +1532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,6 +1620,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1605,15 +1640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,21 +1663,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1682,99 +1693,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1786,43 +1812,43 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1854,7 +1880,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,7 +1925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,6 +2009,12 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,9 +2037,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,7 +2087,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,40 +2126,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3321,10 +3347,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BI3" sqref="BI3"/>
+      <selection pane="bottomLeft" activeCell="BC18" sqref="BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3338,7 +3364,8 @@
     <col min="11" max="11" width="18.6071428571429" customWidth="1"/>
     <col min="12" max="12" width="15.625" customWidth="1"/>
     <col min="25" max="25" width="9.85714285714286"/>
-    <col min="29" max="30" width="12.7857142857143"/>
+    <col min="29" max="29" width="12.7857142857143" style="5"/>
+    <col min="30" max="30" width="12.7857142857143"/>
     <col min="32" max="34" width="26.3303571428571" customWidth="1"/>
     <col min="35" max="35" width="13.2410714285714" style="5" customWidth="1"/>
     <col min="36" max="43" width="11.5982142857143" style="5" customWidth="1"/>
@@ -3404,36 +3431,36 @@
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="AC1" s="50"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
-      <c r="AG1" s="57" t="s">
+      <c r="AG1" s="59" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11"/>
@@ -3449,8 +3476,8 @@
       <c r="BM1" s="11"/>
       <c r="BN1" s="11"/>
       <c r="BO1" s="11"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
       <c r="BR1" s="82"/>
       <c r="BS1" s="11"/>
       <c r="BT1" s="11"/>
@@ -3540,44 +3567,44 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="AC2" s="51"/>
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
       <c r="AF2" s="13"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57" t="s">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="59" t="s">
+      <c r="AI2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59" t="s">
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59" t="s">
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
       <c r="BC2" s="31" t="s">
         <v>24</v>
       </c>
@@ -3607,10 +3634,10 @@
       <c r="BO2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BP2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="75" t="s">
+      <c r="BQ2" s="51" t="s">
         <v>33</v>
       </c>
       <c r="BR2" s="83" t="s">
@@ -3720,7 +3747,7 @@
       <c r="AB3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="51" t="s">
         <v>53</v>
       </c>
       <c r="AD3" s="12" t="s">
@@ -3732,83 +3759,83 @@
       <c r="AF3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="59" t="s">
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="59" t="s">
+      <c r="AJ3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="59" t="s">
+      <c r="AK3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="59" t="s">
+      <c r="AL3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="59" t="s">
+      <c r="AM3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="59" t="s">
+      <c r="AN3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="59" t="s">
+      <c r="AO3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="59" t="s">
+      <c r="AP3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="59" t="s">
+      <c r="AQ3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="59" t="s">
+      <c r="AR3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="59" t="s">
+      <c r="AS3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="59" t="s">
+      <c r="AT3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="59" t="s">
+      <c r="AU3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="59" t="s">
+      <c r="AV3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="59" t="s">
+      <c r="AW3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="59" t="s">
+      <c r="AX3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="59" t="s">
+      <c r="AY3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="59" t="s">
+      <c r="AZ3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="59" t="s">
+      <c r="BA3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="59" t="s">
+      <c r="BB3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="69" t="s">
+      <c r="BC3" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="69" t="s">
+      <c r="BD3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="71" t="s">
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="71" t="s">
+      <c r="BH3" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="70" t="s">
+      <c r="BI3" s="71" t="s">
         <v>65</v>
       </c>
       <c r="BJ3" s="13"/>
@@ -3817,8 +3844,8 @@
       <c r="BM3" s="31"/>
       <c r="BN3" s="31"/>
       <c r="BO3" s="13"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
       <c r="BR3" s="83"/>
       <c r="BS3" s="13"/>
       <c r="BT3" s="85"/>
@@ -3954,36 +3981,36 @@
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="50">
+      <c r="AD4" s="52">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
       <c r="AE4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
       <c r="BA4" s="37"/>
       <c r="BB4" s="37"/>
       <c r="BC4" s="16"/>
@@ -4032,10 +4059,10 @@
       <c r="BR4" s="86">
         <v>150.88</v>
       </c>
-      <c r="BS4" s="51" t="s">
+      <c r="BS4" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" s="53" t="s">
+      <c r="BT4" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU4" s="93"/>
@@ -4161,11 +4188,11 @@
       <c r="AE5" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="51" t="s">
+      <c r="AF5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51" t="s">
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53" t="s">
         <v>81</v>
       </c>
       <c r="AI5" s="37">
@@ -4204,28 +4231,28 @@
       <c r="AT5" s="37">
         <v>0.1125</v>
       </c>
-      <c r="AU5" s="68">
+      <c r="AU5" s="69">
         <v>0.2584</v>
       </c>
-      <c r="AV5" s="68">
+      <c r="AV5" s="69">
         <v>-0.0411</v>
       </c>
-      <c r="AW5" s="68">
+      <c r="AW5" s="69">
         <v>0.0156</v>
       </c>
-      <c r="AX5" s="68">
+      <c r="AX5" s="69">
         <v>-0.167</v>
       </c>
-      <c r="AY5" s="68">
+      <c r="AY5" s="69">
         <v>0.4704</v>
       </c>
-      <c r="AZ5" s="68">
+      <c r="AZ5" s="69">
         <v>0.4673</v>
       </c>
-      <c r="BA5" s="68">
+      <c r="BA5" s="69">
         <v>0.4797</v>
       </c>
-      <c r="BB5" s="68">
+      <c r="BB5" s="69">
         <v>0.4796</v>
       </c>
       <c r="BC5" s="16"/>
@@ -4277,7 +4304,7 @@
       <c r="BS5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="BT5" s="53" t="s">
+      <c r="BT5" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU5" s="95"/>
@@ -4373,65 +4400,65 @@
       <c r="AE6" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="51" t="s">
+      <c r="AF6" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51" t="s">
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="62" t="s">
+      <c r="AI6" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="62" t="s">
+      <c r="AJ6" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="62" t="s">
+      <c r="AK6" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" s="62" t="s">
+      <c r="AL6" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="62" t="s">
+      <c r="AM6" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="62" t="s">
+      <c r="AN6" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="62" t="s">
+      <c r="AO6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" s="62" t="s">
+      <c r="AP6" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" s="62" t="s">
+      <c r="AQ6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="62" t="s">
+      <c r="AR6" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="62" t="s">
+      <c r="AS6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="62" t="s">
+      <c r="AT6" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AU6" s="62">
+      <c r="AU6" s="63">
         <v>0.0455</v>
       </c>
-      <c r="AV6" s="62">
+      <c r="AV6" s="63">
         <v>-0.0116</v>
       </c>
-      <c r="AW6" s="62">
+      <c r="AW6" s="63">
         <v>0.1549</v>
       </c>
-      <c r="AX6" s="62">
+      <c r="AX6" s="63">
         <v>-0.1474</v>
       </c>
-      <c r="AY6" s="62">
+      <c r="AY6" s="63">
         <v>0.2133</v>
       </c>
-      <c r="AZ6" s="62">
+      <c r="AZ6" s="63">
         <v>0.1848</v>
       </c>
       <c r="BA6" s="37">
@@ -4489,7 +4516,7 @@
       <c r="BS6" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="BT6" s="53" t="s">
+      <c r="BT6" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU6" s="96"/>
@@ -4584,65 +4611,65 @@
       <c r="AE7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52">
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54">
         <v>10.35</v>
       </c>
-      <c r="AI7" s="62" t="s">
+      <c r="AI7" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="62" t="s">
+      <c r="AJ7" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="62" t="s">
+      <c r="AK7" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="62" t="s">
+      <c r="AL7" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="62" t="s">
+      <c r="AM7" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" s="62" t="s">
+      <c r="AN7" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="62" t="s">
+      <c r="AO7" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="AP7" s="62" t="s">
+      <c r="AP7" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AQ7" s="62" t="s">
+      <c r="AQ7" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="AR7" s="62" t="s">
+      <c r="AR7" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" s="62" t="s">
+      <c r="AS7" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="AT7" s="62" t="s">
+      <c r="AT7" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="AU7" s="62" t="s">
+      <c r="AU7" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="62" t="s">
+      <c r="AV7" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="AW7" s="62" t="s">
+      <c r="AW7" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AX7" s="62" t="s">
+      <c r="AX7" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="62" t="s">
+      <c r="AY7" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AZ7" s="62" t="s">
+      <c r="AZ7" s="63" t="s">
         <v>124</v>
       </c>
       <c r="BA7" s="37">
@@ -4697,10 +4724,10 @@
       <c r="BR7" s="87">
         <v>6.49</v>
       </c>
-      <c r="BS7" s="52" t="s">
+      <c r="BS7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BT7" s="53" t="s">
+      <c r="BT7" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU7" s="96"/>
@@ -4790,29 +4817,29 @@
       <c r="AE8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="52" t="s">
+      <c r="AF8" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="19"/>
@@ -4825,7 +4852,7 @@
       <c r="BH8" s="19">
         <v>26.16</v>
       </c>
-      <c r="BI8" s="72">
+      <c r="BI8" s="73">
         <f t="shared" si="8"/>
         <v>6.27</v>
       </c>
@@ -4838,7 +4865,7 @@
       <c r="BL8" s="19">
         <v>38.71</v>
       </c>
-      <c r="BM8" s="72">
+      <c r="BM8" s="73">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -4861,10 +4888,10 @@
       <c r="BR8" s="87">
         <v>38.46</v>
       </c>
-      <c r="BS8" s="52" t="s">
+      <c r="BS8" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" s="53" t="s">
+      <c r="BT8" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU8" s="96"/>
@@ -4958,65 +4985,65 @@
       <c r="AE9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="53" t="s">
+      <c r="AF9" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53">
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55">
         <v>6.25</v>
       </c>
-      <c r="AI9" s="62">
+      <c r="AI9" s="63">
         <v>1.5016</v>
       </c>
-      <c r="AJ9" s="62">
+      <c r="AJ9" s="63">
         <v>5.5181</v>
       </c>
-      <c r="AK9" s="62">
+      <c r="AK9" s="63">
         <v>3.3249</v>
       </c>
-      <c r="AL9" s="62">
+      <c r="AL9" s="63">
         <v>1.8449</v>
       </c>
-      <c r="AM9" s="62">
+      <c r="AM9" s="63">
         <v>0.3554</v>
       </c>
-      <c r="AN9" s="62">
+      <c r="AN9" s="63">
         <v>0.2495</v>
       </c>
-      <c r="AO9" s="62">
+      <c r="AO9" s="63">
         <v>0.1071</v>
       </c>
-      <c r="AP9" s="62">
+      <c r="AP9" s="63">
         <v>-0.134</v>
       </c>
-      <c r="AQ9" s="62">
+      <c r="AQ9" s="63">
         <v>0.0437</v>
       </c>
-      <c r="AR9" s="62">
+      <c r="AR9" s="63">
         <v>1.1403</v>
       </c>
-      <c r="AS9" s="62">
+      <c r="AS9" s="63">
         <v>1.4349</v>
       </c>
-      <c r="AT9" s="62">
+      <c r="AT9" s="63">
         <v>1.2425</v>
       </c>
-      <c r="AU9" s="62">
+      <c r="AU9" s="63">
         <v>0.2131</v>
       </c>
-      <c r="AV9" s="62">
+      <c r="AV9" s="63">
         <v>0.2062</v>
       </c>
-      <c r="AW9" s="62">
+      <c r="AW9" s="63">
         <v>0.334</v>
       </c>
-      <c r="AX9" s="62">
+      <c r="AX9" s="63">
         <v>0.0105</v>
       </c>
-      <c r="AY9" s="62">
+      <c r="AY9" s="63">
         <v>0.3392</v>
       </c>
-      <c r="AZ9" s="62">
+      <c r="AZ9" s="63">
         <v>0.3777</v>
       </c>
       <c r="BA9" s="37">
@@ -5071,10 +5098,10 @@
       <c r="BR9" s="86">
         <v>17.95</v>
       </c>
-      <c r="BS9" s="53" t="s">
+      <c r="BS9" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="BT9" s="53" t="s">
+      <c r="BT9" s="55" t="s">
         <v>75</v>
       </c>
       <c r="BU9" s="96"/>
@@ -5160,70 +5187,70 @@
         <f t="shared" si="7"/>
         <v>0.0839506172839506</v>
       </c>
-      <c r="AC10" s="21"/>
+      <c r="AC10" s="39"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="54" t="s">
+      <c r="AF10" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54">
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="64" t="s">
+      <c r="AI10" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="64" t="s">
+      <c r="AJ10" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="64" t="s">
+      <c r="AK10" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="64" t="s">
+      <c r="AL10" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="66">
+      <c r="AM10" s="67">
         <v>2.6193</v>
       </c>
-      <c r="AN10" s="66">
+      <c r="AN10" s="67">
         <v>0.0893</v>
       </c>
-      <c r="AO10" s="66">
+      <c r="AO10" s="67">
         <v>-0.0175</v>
       </c>
-      <c r="AP10" s="66">
+      <c r="AP10" s="67">
         <v>-0.2195</v>
       </c>
-      <c r="AQ10" s="64">
+      <c r="AQ10" s="65">
         <v>-0.0419</v>
       </c>
-      <c r="AR10" s="64">
+      <c r="AR10" s="65">
         <v>0.1981</v>
       </c>
-      <c r="AS10" s="64">
+      <c r="AS10" s="65">
         <v>0.198</v>
       </c>
-      <c r="AT10" s="64">
+      <c r="AT10" s="65">
         <v>0.1998</v>
       </c>
-      <c r="AU10" s="65">
+      <c r="AU10" s="66">
         <v>0.1893</v>
       </c>
-      <c r="AV10" s="64">
+      <c r="AV10" s="65">
         <v>-0.0513</v>
       </c>
-      <c r="AW10" s="64">
+      <c r="AW10" s="65">
         <v>0.0188</v>
       </c>
-      <c r="AX10" s="64">
+      <c r="AX10" s="65">
         <v>0.0467</v>
       </c>
-      <c r="AY10" s="65">
+      <c r="AY10" s="66">
         <v>0.2619</v>
       </c>
-      <c r="AZ10" s="65">
+      <c r="AZ10" s="66">
         <v>0.259</v>
       </c>
       <c r="BA10" s="39">
@@ -5242,7 +5269,7 @@
       <c r="BH10" s="21">
         <v>18.59</v>
       </c>
-      <c r="BI10" s="73">
+      <c r="BI10" s="74">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -5255,7 +5282,7 @@
       <c r="BL10" s="21">
         <v>26.72</v>
       </c>
-      <c r="BM10" s="73">
+      <c r="BM10" s="74">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
@@ -5278,10 +5305,10 @@
       <c r="BR10" s="88">
         <v>56.67</v>
       </c>
-      <c r="BS10" s="54" t="s">
+      <c r="BS10" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BT10" s="54" t="s">
+      <c r="BT10" s="56" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5366,12 +5393,12 @@
         <f t="shared" si="7"/>
         <v>0.0749464668094218</v>
       </c>
-      <c r="AC11" s="21"/>
+      <c r="AC11" s="39"/>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="54" t="s">
+      <c r="AF11" s="56" t="s">
         <v>130</v>
       </c>
       <c r="AG11" s="21"/>
@@ -5396,10 +5423,10 @@
       <c r="AN11" s="39">
         <v>0.0128</v>
       </c>
-      <c r="AO11" s="67">
+      <c r="AO11" s="68">
         <v>-0.2701</v>
       </c>
-      <c r="AP11" s="67">
+      <c r="AP11" s="68">
         <v>0.2668</v>
       </c>
       <c r="AQ11" s="39">
@@ -5408,22 +5435,22 @@
       <c r="AR11" s="39">
         <v>0.7137</v>
       </c>
-      <c r="AS11" s="67">
+      <c r="AS11" s="68">
         <v>0.3284</v>
       </c>
-      <c r="AT11" s="67">
+      <c r="AT11" s="68">
         <v>0.4288</v>
       </c>
       <c r="AU11" s="39">
         <v>0.52</v>
       </c>
-      <c r="AV11" s="67">
+      <c r="AV11" s="68">
         <v>-0.119</v>
       </c>
-      <c r="AW11" s="67">
+      <c r="AW11" s="68">
         <v>0.0208</v>
       </c>
-      <c r="AX11" s="67">
+      <c r="AX11" s="68">
         <v>0.1948</v>
       </c>
       <c r="AY11" s="39">
@@ -5448,7 +5475,7 @@
       <c r="BH11" s="21">
         <v>18.22</v>
       </c>
-      <c r="BI11" s="73">
+      <c r="BI11" s="74">
         <f t="shared" si="8"/>
         <v>5.98</v>
       </c>
@@ -5461,7 +5488,7 @@
       <c r="BL11" s="21">
         <v>28.54</v>
       </c>
-      <c r="BM11" s="73">
+      <c r="BM11" s="74">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
@@ -5484,10 +5511,10 @@
       <c r="BR11" s="88">
         <v>39.84</v>
       </c>
-      <c r="BS11" s="54" t="s">
+      <c r="BS11" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="54" t="s">
+      <c r="BT11" s="56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5572,7 +5599,7 @@
         <f t="shared" si="7"/>
         <v>0.0729821169647173</v>
       </c>
-      <c r="AC12" s="21"/>
+      <c r="AC12" s="39"/>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21" t="s">
         <v>86</v>
@@ -5621,13 +5648,13 @@
       <c r="AU12" s="39">
         <v>0.4664</v>
       </c>
-      <c r="AV12" s="67">
+      <c r="AV12" s="68">
         <v>-0.1139</v>
       </c>
-      <c r="AW12" s="67">
+      <c r="AW12" s="68">
         <v>-0.0272</v>
       </c>
-      <c r="AX12" s="67">
+      <c r="AX12" s="68">
         <v>0.0402</v>
       </c>
       <c r="AY12" s="39">
@@ -5652,7 +5679,7 @@
       <c r="BH12" s="21">
         <v>32.98</v>
       </c>
-      <c r="BI12" s="73">
+      <c r="BI12" s="74">
         <f t="shared" si="8"/>
         <v>9.73</v>
       </c>
@@ -5665,7 +5692,7 @@
       <c r="BL12" s="21">
         <v>42.87</v>
       </c>
-      <c r="BM12" s="73">
+      <c r="BM12" s="74">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
@@ -5688,10 +5715,10 @@
       <c r="BR12" s="88">
         <v>25.4</v>
       </c>
-      <c r="BS12" s="54" t="s">
+      <c r="BS12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BT12" s="54" t="s">
+      <c r="BT12" s="56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5774,70 +5801,70 @@
         <f t="shared" si="7"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="55"/>
+      <c r="AC13" s="57"/>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="54" t="s">
+      <c r="AF13" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54">
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56">
         <v>6.25</v>
       </c>
-      <c r="AI13" s="65">
+      <c r="AI13" s="66">
         <v>1.5016</v>
       </c>
-      <c r="AJ13" s="65">
+      <c r="AJ13" s="66">
         <v>5.5181</v>
       </c>
-      <c r="AK13" s="65">
+      <c r="AK13" s="66">
         <v>3.3249</v>
       </c>
-      <c r="AL13" s="65">
+      <c r="AL13" s="66">
         <v>1.8449</v>
       </c>
-      <c r="AM13" s="66">
+      <c r="AM13" s="67">
         <v>0.3554</v>
       </c>
-      <c r="AN13" s="66">
+      <c r="AN13" s="67">
         <v>0.2495</v>
       </c>
-      <c r="AO13" s="66">
+      <c r="AO13" s="67">
         <v>0.1071</v>
       </c>
-      <c r="AP13" s="66">
+      <c r="AP13" s="67">
         <v>-0.134</v>
       </c>
-      <c r="AQ13" s="66">
+      <c r="AQ13" s="67">
         <v>0.0437</v>
       </c>
-      <c r="AR13" s="66">
+      <c r="AR13" s="67">
         <v>1.1403</v>
       </c>
-      <c r="AS13" s="66">
+      <c r="AS13" s="67">
         <v>1.4349</v>
       </c>
-      <c r="AT13" s="66">
+      <c r="AT13" s="67">
         <v>1.2425</v>
       </c>
-      <c r="AU13" s="65">
+      <c r="AU13" s="66">
         <v>0.2131</v>
       </c>
-      <c r="AV13" s="65">
+      <c r="AV13" s="66">
         <v>0.2062</v>
       </c>
-      <c r="AW13" s="65">
+      <c r="AW13" s="66">
         <v>0.334</v>
       </c>
-      <c r="AX13" s="65">
+      <c r="AX13" s="66">
         <v>0.0105</v>
       </c>
-      <c r="AY13" s="65">
+      <c r="AY13" s="66">
         <v>0.3392</v>
       </c>
-      <c r="AZ13" s="65">
+      <c r="AZ13" s="66">
         <v>0.3777</v>
       </c>
       <c r="BA13" s="39">
@@ -5856,7 +5883,7 @@
       <c r="BH13" s="21">
         <v>22.41</v>
       </c>
-      <c r="BI13" s="73">
+      <c r="BI13" s="74">
         <f t="shared" si="8"/>
         <v>8.8</v>
       </c>
@@ -5869,7 +5896,7 @@
       <c r="BL13" s="21">
         <v>35.16</v>
       </c>
-      <c r="BM13" s="73">
+      <c r="BM13" s="74">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
@@ -5892,10 +5919,10 @@
       <c r="BR13" s="88">
         <v>17.95</v>
       </c>
-      <c r="BS13" s="54" t="s">
+      <c r="BS13" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BT13" s="54" t="s">
+      <c r="BT13" s="56" t="s">
         <v>137</v>
       </c>
       <c r="BU13" s="97"/>
@@ -5981,12 +6008,12 @@
         <f t="shared" si="7"/>
         <v>0.0880711545169167</v>
       </c>
-      <c r="AC14" s="21"/>
+      <c r="AC14" s="39"/>
       <c r="AD14" s="21"/>
       <c r="AE14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="54" t="s">
+      <c r="AF14" s="56" t="s">
         <v>130</v>
       </c>
       <c r="AG14" s="21"/>
@@ -6059,7 +6086,7 @@
       <c r="BF14" s="21"/>
       <c r="BG14" s="21"/>
       <c r="BH14" s="21"/>
-      <c r="BI14" s="73">
+      <c r="BI14" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6072,7 +6099,7 @@
       <c r="BL14" s="21">
         <v>65.25</v>
       </c>
-      <c r="BM14" s="73">
+      <c r="BM14" s="74">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
@@ -6095,10 +6122,10 @@
       <c r="BR14" s="88">
         <v>56.78</v>
       </c>
-      <c r="BS14" s="54" t="s">
+      <c r="BS14" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="BT14" s="54" t="s">
+      <c r="BT14" s="56" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6183,12 +6210,12 @@
         <f t="shared" si="7"/>
         <v>0.0959019856358261</v>
       </c>
-      <c r="AC15" s="27"/>
+      <c r="AC15" s="40"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AF15" s="58" t="s">
         <v>130</v>
       </c>
       <c r="AG15" s="27"/>
@@ -6261,14 +6288,14 @@
       <c r="BF15" s="27"/>
       <c r="BG15" s="27"/>
       <c r="BH15" s="27"/>
-      <c r="BI15" s="73">
+      <c r="BI15" s="74">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="27"/>
       <c r="BK15" s="27"/>
       <c r="BL15" s="27"/>
-      <c r="BM15" s="73">
+      <c r="BM15" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6290,7 +6317,7 @@
       </c>
       <c r="BR15" s="89"/>
       <c r="BS15" s="27"/>
-      <c r="BT15" s="56" t="s">
+      <c r="BT15" s="58" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6371,12 +6398,12 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="37"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF16" s="53" t="s">
+      <c r="AF16" s="55" t="s">
         <v>130</v>
       </c>
       <c r="AG16" s="2"/>
@@ -6489,10 +6516,10 @@
       <c r="BR16" s="86">
         <v>25.15</v>
       </c>
-      <c r="BS16" s="53" t="s">
+      <c r="BS16" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="BT16" s="53" t="s">
+      <c r="BT16" s="55" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6577,12 +6604,12 @@
         <f t="shared" si="7"/>
         <v>0.0913294797687862</v>
       </c>
-      <c r="AC17" s="21"/>
+      <c r="AC17" s="39"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF17" s="21" t="s">
+      <c r="AF17" s="56" t="s">
         <v>130</v>
       </c>
       <c r="AG17" s="21"/>
@@ -6617,7 +6644,7 @@
       <c r="BH17" s="21">
         <v>19.96</v>
       </c>
-      <c r="BI17" s="74">
+      <c r="BI17" s="75">
         <f t="shared" si="8"/>
         <v>7.53</v>
       </c>
@@ -6630,7 +6657,7 @@
       <c r="BL17" s="21">
         <v>29.66</v>
       </c>
-      <c r="BM17" s="74">
+      <c r="BM17" s="75">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
@@ -6664,59 +6691,162 @@
       <c r="A18" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="24">
+        <v>44536</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="21">
+        <v>116.99</v>
+      </c>
+      <c r="E18" s="21">
+        <v>121.14</v>
+      </c>
+      <c r="F18" s="21">
+        <v>130.03</v>
+      </c>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
+      <c r="H18" s="21">
+        <v>139.91</v>
+      </c>
+      <c r="I18" s="21">
+        <v>59.28</v>
+      </c>
+      <c r="J18" s="21">
+        <v>160.57</v>
+      </c>
+      <c r="K18" s="42">
+        <f>(H18-I18)/I18</f>
+        <v>1.36015519568151</v>
+      </c>
+      <c r="L18" s="42">
+        <f>(J18-H18)/J18</f>
+        <v>0.128666625147911</v>
+      </c>
+      <c r="M18" s="21">
+        <v>93.58</v>
+      </c>
+      <c r="N18" s="21">
+        <v>136.67</v>
+      </c>
+      <c r="O18" s="21">
+        <v>113.77</v>
+      </c>
+      <c r="P18" s="21">
+        <v>147.3</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>124</v>
+      </c>
+      <c r="R18" s="21">
+        <v>139.93</v>
+      </c>
+      <c r="S18" s="21">
+        <v>124.71</v>
+      </c>
+      <c r="T18" s="21">
+        <v>134.81</v>
+      </c>
+      <c r="U18" s="21">
+        <v>128.2</v>
+      </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
+      <c r="X18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" s="42">
+        <f>(J18-M18)/J18</f>
+        <v>0.417201220651429</v>
+      </c>
+      <c r="Z18" s="42">
+        <f>(N18-O18)/N18</f>
+        <v>0.167556888856369</v>
+      </c>
+      <c r="AA18" s="42">
+        <f>(P18-Q18)/P18</f>
+        <v>0.158180583842498</v>
+      </c>
+      <c r="AB18" s="49">
+        <f>(R18-S18)/R18</f>
+        <v>0.10876867004931</v>
+      </c>
+      <c r="AC18" s="39">
+        <f>(T18-U18)/T18</f>
+        <v>0.0490319709220385</v>
+      </c>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
+      <c r="AE18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
+      <c r="AH18" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI18" s="39">
+        <v>-0.1149</v>
+      </c>
+      <c r="AJ18" s="39">
+        <v>1.1966</v>
+      </c>
+      <c r="AK18" s="39">
+        <v>2.6601</v>
+      </c>
+      <c r="AL18" s="39">
+        <v>0.9935</v>
+      </c>
+      <c r="AM18" s="39">
+        <v>-0.4244</v>
+      </c>
+      <c r="AN18" s="39">
+        <v>0.8275</v>
+      </c>
+      <c r="AO18" s="39">
+        <v>-1.1004</v>
+      </c>
+      <c r="AP18" s="39">
+        <v>15.79</v>
+      </c>
+      <c r="AQ18" s="39">
+        <v>-0.1106</v>
+      </c>
+      <c r="AR18" s="39">
+        <v>0.756</v>
+      </c>
+      <c r="AS18" s="39">
+        <v>1.1246</v>
+      </c>
+      <c r="AT18" s="39">
+        <v>0.64</v>
+      </c>
+      <c r="AU18" s="39">
+        <v>-0.1855</v>
+      </c>
+      <c r="AV18" s="39">
+        <v>0.1135</v>
+      </c>
+      <c r="AW18" s="39">
+        <v>-0.5985</v>
+      </c>
+      <c r="AX18" s="39">
+        <v>2.7082</v>
+      </c>
+      <c r="AY18" s="39">
+        <v>0.8544</v>
+      </c>
+      <c r="AZ18" s="39">
+        <v>0.8505</v>
+      </c>
+      <c r="BA18" s="39">
+        <v>0.8349</v>
+      </c>
+      <c r="BB18" s="39">
+        <v>0.8576</v>
+      </c>
       <c r="BC18" s="21"/>
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
@@ -6724,21 +6854,48 @@
       <c r="BG18" s="21"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="21"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="21"/>
-      <c r="BM18" s="21"/>
-      <c r="BN18" s="21"/>
-      <c r="BO18" s="21"/>
-      <c r="BP18" s="39"/>
-      <c r="BQ18" s="39"/>
-      <c r="BR18" s="88"/>
-      <c r="BS18" s="21"/>
-      <c r="BT18" s="21"/>
+      <c r="BJ18" s="21">
+        <v>143.8</v>
+      </c>
+      <c r="BK18" s="21">
+        <v>134.79</v>
+      </c>
+      <c r="BL18" s="21">
+        <v>158.42</v>
+      </c>
+      <c r="BM18" s="75">
+        <f>(BJ18-BK18)*100</f>
+        <v>901.000000000002</v>
+      </c>
+      <c r="BN18" s="79">
+        <f>FLOOR(304/(BJ18-BK18),100)</f>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="80">
+        <f>(BL18-BJ18)/(BJ18-BK18)</f>
+        <v>1.62264150943396</v>
+      </c>
+      <c r="BP18" s="81">
+        <f>(BJ18-BK18)/BJ18</f>
+        <v>0.0626564673157164</v>
+      </c>
+      <c r="BQ18" s="81">
+        <f>(BL18-BJ18)/BJ18</f>
+        <v>0.101668984700973</v>
+      </c>
+      <c r="BR18" s="88">
+        <v>55.79</v>
+      </c>
+      <c r="BS18" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT18" s="56" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="13" spans="1:72">
       <c r="A19" s="102" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -6767,7 +6924,7 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
+      <c r="AC19" s="39"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -6814,7 +6971,7 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="13" spans="1:72">
       <c r="A20" s="102" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -6843,7 +7000,7 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
+      <c r="AC20" s="39"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
@@ -6890,7 +7047,7 @@
     </row>
     <row r="21" s="3" customFormat="1" ht="13" spans="1:72">
       <c r="A21" s="102" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6919,7 +7076,7 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
+      <c r="AC21" s="39"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
@@ -6966,7 +7123,7 @@
     </row>
     <row r="22" ht="13" spans="1:71">
       <c r="A22" s="106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" s="4"/>
       <c r="D22" s="4"/>
@@ -6994,7 +7151,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="6"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -7038,7 +7195,7 @@
     </row>
     <row r="23" ht="13" spans="1:71">
       <c r="A23" s="106" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B23" s="4"/>
       <c r="D23" s="4"/>
@@ -7066,7 +7223,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -7110,7 +7267,7 @@
     </row>
     <row r="24" ht="13" spans="1:71">
       <c r="A24" s="106" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="4"/>
       <c r="D24" s="4"/>
@@ -7138,7 +7295,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="AC24" s="6"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -7182,7 +7339,7 @@
     </row>
     <row r="25" ht="13" spans="1:71">
       <c r="A25" s="106" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" s="4"/>
       <c r="D25" s="4"/>
@@ -7210,7 +7367,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="AC25" s="6"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -7254,7 +7411,7 @@
     </row>
     <row r="26" ht="13" spans="1:71">
       <c r="A26" s="106" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -7282,7 +7439,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -7326,7 +7483,7 @@
     </row>
     <row r="27" ht="13" spans="1:71">
       <c r="A27" s="106" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -7354,7 +7511,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
+      <c r="AC27" s="6"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -7398,7 +7555,7 @@
     </row>
     <row r="28" ht="13" spans="1:71">
       <c r="A28" s="106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -7426,7 +7583,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="6"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -7470,7 +7627,7 @@
     </row>
     <row r="29" ht="13" spans="1:71">
       <c r="A29" s="106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -7498,7 +7655,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="AC29" s="6"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
@@ -7542,7 +7699,7 @@
     </row>
     <row r="30" ht="13" spans="1:71">
       <c r="A30" s="106" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -7570,7 +7727,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="6"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
@@ -7614,7 +7771,7 @@
     </row>
     <row r="31" ht="13" spans="1:71">
       <c r="A31" s="106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -7642,7 +7799,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="AC31" s="6"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
@@ -7686,7 +7843,7 @@
     </row>
     <row r="32" ht="13" spans="1:71">
       <c r="A32" s="106" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -7714,7 +7871,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
+      <c r="AC32" s="6"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
@@ -7758,7 +7915,7 @@
     </row>
     <row r="33" ht="13" spans="1:71">
       <c r="A33" s="106" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4"/>
       <c r="D33" s="4"/>
@@ -7786,7 +7943,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
+      <c r="AC33" s="6"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
@@ -7830,7 +7987,7 @@
     </row>
     <row r="34" ht="13" spans="1:71">
       <c r="A34" s="106" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4"/>
       <c r="D34" s="4"/>
@@ -7858,7 +8015,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
+      <c r="AC34" s="6"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
@@ -7902,7 +8059,7 @@
     </row>
     <row r="35" ht="13" spans="1:71">
       <c r="A35" s="106" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B35" s="4"/>
       <c r="D35" s="4"/>
@@ -7930,7 +8087,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
+      <c r="AC35" s="6"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
@@ -7974,7 +8131,7 @@
     </row>
     <row r="36" ht="13" spans="1:71">
       <c r="A36" s="106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B36" s="4"/>
       <c r="D36" s="4"/>
@@ -8002,7 +8159,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="AC36" s="6"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
@@ -8046,7 +8203,7 @@
     </row>
     <row r="37" ht="13" spans="1:71">
       <c r="A37" s="106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
@@ -8074,7 +8231,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AC37" s="6"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
@@ -8118,7 +8275,7 @@
     </row>
     <row r="38" ht="13" spans="1:71">
       <c r="A38" s="106" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B38" s="4"/>
       <c r="D38" s="4"/>
@@ -8146,7 +8303,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
+      <c r="AC38" s="6"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
@@ -8190,7 +8347,7 @@
     </row>
     <row r="39" ht="13" spans="1:71">
       <c r="A39" s="106" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B39" s="4"/>
       <c r="D39" s="4"/>
@@ -8218,7 +8375,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
+      <c r="AC39" s="6"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
@@ -8262,7 +8419,7 @@
     </row>
     <row r="40" ht="13" spans="1:71">
       <c r="A40" s="106" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B40" s="4"/>
       <c r="D40" s="4"/>
@@ -8290,7 +8447,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
+      <c r="AC40" s="6"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
@@ -8334,7 +8491,7 @@
     </row>
     <row r="41" ht="13" spans="1:71">
       <c r="A41" s="106" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B41" s="4"/>
       <c r="D41" s="4"/>
@@ -8362,7 +8519,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
+      <c r="AC41" s="6"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -8406,7 +8563,7 @@
     </row>
     <row r="42" ht="13" spans="1:71">
       <c r="A42" s="106" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B42" s="4"/>
       <c r="D42" s="4"/>
@@ -8434,7 +8591,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
+      <c r="AC42" s="6"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -8478,7 +8635,7 @@
     </row>
     <row r="43" ht="13" spans="1:71">
       <c r="A43" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B43" s="4"/>
       <c r="D43" s="4"/>
@@ -8506,7 +8663,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
+      <c r="AC43" s="6"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -8550,7 +8707,7 @@
     </row>
     <row r="44" ht="13" spans="1:71">
       <c r="A44" s="106" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B44" s="4"/>
       <c r="D44" s="4"/>
@@ -8578,7 +8735,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
+      <c r="AC44" s="6"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -8622,7 +8779,7 @@
     </row>
     <row r="45" ht="13" spans="1:71">
       <c r="A45" s="106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B45" s="4"/>
       <c r="D45" s="4"/>
@@ -8650,7 +8807,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
+      <c r="AC45" s="6"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
@@ -8694,7 +8851,7 @@
     </row>
     <row r="46" ht="13" spans="1:71">
       <c r="A46" s="106" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
@@ -8722,7 +8879,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
+      <c r="AC46" s="6"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
@@ -8766,7 +8923,7 @@
     </row>
     <row r="47" ht="13" spans="1:71">
       <c r="A47" s="106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4"/>
       <c r="D47" s="4"/>
@@ -8794,7 +8951,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
+      <c r="AC47" s="6"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
@@ -8838,7 +8995,7 @@
     </row>
     <row r="48" ht="13" spans="1:71">
       <c r="A48" s="106" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
@@ -8866,7 +9023,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
+      <c r="AC48" s="6"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
@@ -8910,7 +9067,7 @@
     </row>
     <row r="49" ht="13" spans="1:71">
       <c r="A49" s="106" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
@@ -8938,7 +9095,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
+      <c r="AC49" s="6"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
@@ -8982,7 +9139,7 @@
     </row>
     <row r="50" ht="13" spans="1:71">
       <c r="A50" s="106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
@@ -9010,7 +9167,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
+      <c r="AC50" s="6"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
@@ -9080,7 +9237,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
+      <c r="AC51" s="6"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
@@ -9150,7 +9307,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
+      <c r="AC52" s="6"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
@@ -9220,7 +9377,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
+      <c r="AC53" s="6"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
@@ -9290,7 +9447,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
+      <c r="AC54" s="6"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
@@ -9360,7 +9517,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
+      <c r="AC55" s="6"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
@@ -9430,7 +9587,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
+      <c r="AC56" s="6"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
@@ -9500,7 +9657,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
+      <c r="AC57" s="6"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
@@ -9570,7 +9727,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
+      <c r="AC58" s="6"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
@@ -9640,7 +9797,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
+      <c r="AC59" s="6"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
@@ -9710,7 +9867,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
+      <c r="AC60" s="6"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
@@ -9780,7 +9937,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
+      <c r="AC61" s="6"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
@@ -9850,7 +10007,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
+      <c r="AC62" s="6"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
@@ -9920,7 +10077,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
+      <c r="AC63" s="6"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
@@ -9990,7 +10147,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
+      <c r="AC64" s="6"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
@@ -10060,7 +10217,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
+      <c r="AC65" s="6"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
@@ -10130,7 +10287,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
+      <c r="AC66" s="6"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
@@ -10200,7 +10357,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
+      <c r="AC67" s="6"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
@@ -10270,7 +10427,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
+      <c r="AC68" s="6"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
@@ -10340,7 +10497,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
+      <c r="AC69" s="6"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
@@ -10410,7 +10567,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
+      <c r="AC70" s="6"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
@@ -10480,7 +10637,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
+      <c r="AC71" s="6"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
@@ -10550,7 +10707,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
+      <c r="AC72" s="6"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
@@ -10620,7 +10777,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
+      <c r="AC73" s="6"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
@@ -10690,7 +10847,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
+      <c r="AC74" s="6"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
@@ -10760,7 +10917,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
+      <c r="AC75" s="6"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
@@ -10830,7 +10987,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
+      <c r="AC76" s="6"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
@@ -10900,7 +11057,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
+      <c r="AC77" s="6"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
@@ -10970,7 +11127,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
+      <c r="AC78" s="6"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
@@ -11040,7 +11197,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
+      <c r="AC79" s="6"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
@@ -11110,7 +11267,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
+      <c r="AC80" s="6"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
@@ -11180,7 +11337,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
+      <c r="AC81" s="6"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
@@ -11250,7 +11407,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
+      <c r="AC82" s="6"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
@@ -11320,7 +11477,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
+      <c r="AC83" s="6"/>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
@@ -11390,7 +11547,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
+      <c r="AC84" s="6"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
@@ -11460,7 +11617,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
+      <c r="AC85" s="6"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
@@ -11530,7 +11687,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
+      <c r="AC86" s="6"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
@@ -11600,7 +11757,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
+      <c r="AC87" s="6"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
@@ -11670,7 +11827,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
+      <c r="AC88" s="6"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
@@ -11740,7 +11897,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
+      <c r="AC89" s="6"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
@@ -11810,7 +11967,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
+      <c r="AC90" s="6"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
@@ -11880,7 +12037,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
+      <c r="AC91" s="6"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
@@ -11950,7 +12107,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
+      <c r="AC92" s="6"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
@@ -12020,7 +12177,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
+      <c r="AC93" s="6"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
@@ -12090,7 +12247,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
+      <c r="AC94" s="6"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
@@ -12160,7 +12317,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
+      <c r="AC95" s="6"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
@@ -12230,7 +12387,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
+      <c r="AC96" s="6"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
@@ -12300,7 +12457,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
+      <c r="AC97" s="6"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
@@ -12370,7 +12527,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
-      <c r="AC98" s="4"/>
+      <c r="AC98" s="6"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
@@ -12440,7 +12597,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
+      <c r="AC99" s="6"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
@@ -12510,7 +12667,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
+      <c r="AC100" s="6"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
@@ -12580,7 +12737,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
-      <c r="AC101" s="4"/>
+      <c r="AC101" s="6"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
@@ -12650,7 +12807,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
+      <c r="AC102" s="6"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
@@ -12720,7 +12877,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
+      <c r="AC103" s="6"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
@@ -12790,7 +12947,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
+      <c r="AC104" s="6"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
@@ -12860,7 +13017,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
+      <c r="AC105" s="6"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
@@ -12930,7 +13087,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
-      <c r="AC106" s="4"/>
+      <c r="AC106" s="6"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
@@ -13000,7 +13157,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
+      <c r="AC107" s="6"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
@@ -13070,7 +13227,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
-      <c r="AC108" s="4"/>
+      <c r="AC108" s="6"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
@@ -13140,7 +13297,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
-      <c r="AC109" s="4"/>
+      <c r="AC109" s="6"/>
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
@@ -13210,7 +13367,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
+      <c r="AC110" s="6"/>
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
@@ -13280,7 +13437,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
-      <c r="AC111" s="4"/>
+      <c r="AC111" s="6"/>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
@@ -13350,7 +13507,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
-      <c r="AC112" s="4"/>
+      <c r="AC112" s="6"/>
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
@@ -13420,7 +13577,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
-      <c r="AC113" s="4"/>
+      <c r="AC113" s="6"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
@@ -13490,7 +13647,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
+      <c r="AC114" s="6"/>
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
@@ -13560,7 +13717,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
+      <c r="AC115" s="6"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
@@ -13630,7 +13787,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
-      <c r="AC116" s="4"/>
+      <c r="AC116" s="6"/>
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
@@ -13700,7 +13857,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
+      <c r="AC117" s="6"/>
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
@@ -13770,7 +13927,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
+      <c r="AC118" s="6"/>
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
@@ -13840,7 +13997,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
-      <c r="AC119" s="4"/>
+      <c r="AC119" s="6"/>
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
@@ -13910,7 +14067,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
+      <c r="AC120" s="6"/>
       <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
@@ -13980,7 +14137,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
-      <c r="AC121" s="4"/>
+      <c r="AC121" s="6"/>
       <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
@@ -14050,7 +14207,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
+      <c r="AC122" s="6"/>
       <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
@@ -14120,7 +14277,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
-      <c r="AC123" s="4"/>
+      <c r="AC123" s="6"/>
       <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
@@ -14190,7 +14347,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
+      <c r="AC124" s="6"/>
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
@@ -14260,7 +14417,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
+      <c r="AC125" s="6"/>
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
@@ -14330,7 +14487,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
+      <c r="AC126" s="6"/>
       <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
@@ -14400,7 +14557,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
+      <c r="AC127" s="6"/>
       <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
@@ -14470,7 +14627,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
+      <c r="AC128" s="6"/>
       <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
@@ -14540,7 +14697,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
       <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
+      <c r="AC129" s="6"/>
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
@@ -14610,7 +14767,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
       <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
+      <c r="AC130" s="6"/>
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
@@ -14680,7 +14837,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
+      <c r="AC131" s="6"/>
       <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
@@ -14750,7 +14907,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
       <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
+      <c r="AC132" s="6"/>
       <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
@@ -14820,7 +14977,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
       <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
+      <c r="AC133" s="6"/>
       <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
@@ -14890,7 +15047,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
       <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
+      <c r="AC134" s="6"/>
       <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
@@ -14960,7 +15117,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
       <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
+      <c r="AC135" s="6"/>
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
@@ -15030,7 +15187,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
+      <c r="AC136" s="6"/>
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
@@ -15100,7 +15257,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
       <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
+      <c r="AC137" s="6"/>
       <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
@@ -15170,7 +15327,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
       <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
+      <c r="AC138" s="6"/>
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
@@ -15240,7 +15397,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
       <c r="AB139" s="4"/>
-      <c r="AC139" s="4"/>
+      <c r="AC139" s="6"/>
       <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
@@ -15310,7 +15467,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
+      <c r="AC140" s="6"/>
       <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
@@ -15380,7 +15537,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
       <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
+      <c r="AC141" s="6"/>
       <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
@@ -15450,7 +15607,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
       <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
+      <c r="AC142" s="6"/>
       <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
@@ -15520,7 +15677,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
       <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
+      <c r="AC143" s="6"/>
       <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
@@ -15590,7 +15747,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
-      <c r="AC144" s="4"/>
+      <c r="AC144" s="6"/>
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
@@ -15660,7 +15817,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
       <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
+      <c r="AC145" s="6"/>
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
@@ -15730,7 +15887,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
       <c r="AB146" s="4"/>
-      <c r="AC146" s="4"/>
+      <c r="AC146" s="6"/>
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
@@ -15800,7 +15957,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
       <c r="AB147" s="4"/>
-      <c r="AC147" s="4"/>
+      <c r="AC147" s="6"/>
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
@@ -15870,7 +16027,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
-      <c r="AC148" s="4"/>
+      <c r="AC148" s="6"/>
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
@@ -15940,7 +16097,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
       <c r="AB149" s="4"/>
-      <c r="AC149" s="4"/>
+      <c r="AC149" s="6"/>
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
@@ -16010,7 +16167,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
       <c r="AB150" s="4"/>
-      <c r="AC150" s="4"/>
+      <c r="AC150" s="6"/>
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
@@ -16080,7 +16237,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
-      <c r="AC151" s="4"/>
+      <c r="AC151" s="6"/>
       <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
@@ -16150,7 +16307,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
       <c r="AB152" s="4"/>
-      <c r="AC152" s="4"/>
+      <c r="AC152" s="6"/>
       <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
@@ -16220,7 +16377,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
       <c r="AB153" s="4"/>
-      <c r="AC153" s="4"/>
+      <c r="AC153" s="6"/>
       <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
@@ -16290,7 +16447,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
       <c r="AB154" s="4"/>
-      <c r="AC154" s="4"/>
+      <c r="AC154" s="6"/>
       <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
@@ -16360,7 +16517,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
       <c r="AB155" s="4"/>
-      <c r="AC155" s="4"/>
+      <c r="AC155" s="6"/>
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
@@ -16430,7 +16587,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
       <c r="AB156" s="4"/>
-      <c r="AC156" s="4"/>
+      <c r="AC156" s="6"/>
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
@@ -16500,7 +16657,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
       <c r="AB157" s="4"/>
-      <c r="AC157" s="4"/>
+      <c r="AC157" s="6"/>
       <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
@@ -16570,7 +16727,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
       <c r="AB158" s="4"/>
-      <c r="AC158" s="4"/>
+      <c r="AC158" s="6"/>
       <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
@@ -16640,7 +16797,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
-      <c r="AC159" s="4"/>
+      <c r="AC159" s="6"/>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
@@ -16710,7 +16867,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
-      <c r="AC160" s="4"/>
+      <c r="AC160" s="6"/>
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
@@ -16780,7 +16937,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
-      <c r="AC161" s="4"/>
+      <c r="AC161" s="6"/>
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
@@ -16850,7 +17007,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
-      <c r="AC162" s="4"/>
+      <c r="AC162" s="6"/>
       <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
@@ -16920,7 +17077,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
-      <c r="AC163" s="4"/>
+      <c r="AC163" s="6"/>
       <c r="AD163" s="4"/>
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
@@ -16990,7 +17147,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
-      <c r="AC164" s="4"/>
+      <c r="AC164" s="6"/>
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
@@ -17060,7 +17217,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
-      <c r="AC165" s="4"/>
+      <c r="AC165" s="6"/>
       <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
@@ -17130,7 +17287,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
-      <c r="AC166" s="4"/>
+      <c r="AC166" s="6"/>
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
@@ -17200,7 +17357,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
-      <c r="AC167" s="4"/>
+      <c r="AC167" s="6"/>
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
@@ -17270,7 +17427,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
-      <c r="AC168" s="4"/>
+      <c r="AC168" s="6"/>
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
@@ -17340,7 +17497,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
-      <c r="AC169" s="4"/>
+      <c r="AC169" s="6"/>
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
@@ -17410,7 +17567,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
-      <c r="AC170" s="4"/>
+      <c r="AC170" s="6"/>
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
@@ -17480,7 +17637,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
-      <c r="AC171" s="4"/>
+      <c r="AC171" s="6"/>
       <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
@@ -17550,7 +17707,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
-      <c r="AC172" s="4"/>
+      <c r="AC172" s="6"/>
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
@@ -17620,7 +17777,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
-      <c r="AC173" s="4"/>
+      <c r="AC173" s="6"/>
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
@@ -17690,7 +17847,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
-      <c r="AC174" s="4"/>
+      <c r="AC174" s="6"/>
       <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
@@ -17760,7 +17917,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
-      <c r="AC175" s="4"/>
+      <c r="AC175" s="6"/>
       <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
@@ -17830,7 +17987,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
-      <c r="AC176" s="4"/>
+      <c r="AC176" s="6"/>
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
@@ -17900,7 +18057,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
       <c r="AB177" s="4"/>
-      <c r="AC177" s="4"/>
+      <c r="AC177" s="6"/>
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
@@ -17970,7 +18127,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
       <c r="AB178" s="4"/>
-      <c r="AC178" s="4"/>
+      <c r="AC178" s="6"/>
       <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
@@ -18040,7 +18197,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
       <c r="AB179" s="4"/>
-      <c r="AC179" s="4"/>
+      <c r="AC179" s="6"/>
       <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
@@ -18110,7 +18267,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
       <c r="AB180" s="4"/>
-      <c r="AC180" s="4"/>
+      <c r="AC180" s="6"/>
       <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
@@ -18180,7 +18337,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
       <c r="AB181" s="4"/>
-      <c r="AC181" s="4"/>
+      <c r="AC181" s="6"/>
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
@@ -18250,7 +18407,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
       <c r="AB182" s="4"/>
-      <c r="AC182" s="4"/>
+      <c r="AC182" s="6"/>
       <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
@@ -18320,7 +18477,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
       <c r="AB183" s="4"/>
-      <c r="AC183" s="4"/>
+      <c r="AC183" s="6"/>
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
@@ -18390,7 +18547,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
       <c r="AB184" s="4"/>
-      <c r="AC184" s="4"/>
+      <c r="AC184" s="6"/>
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
@@ -18460,7 +18617,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
       <c r="AB185" s="4"/>
-      <c r="AC185" s="4"/>
+      <c r="AC185" s="6"/>
       <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
@@ -18530,7 +18687,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
       <c r="AB186" s="4"/>
-      <c r="AC186" s="4"/>
+      <c r="AC186" s="6"/>
       <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
@@ -18600,7 +18757,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
       <c r="AB187" s="4"/>
-      <c r="AC187" s="4"/>
+      <c r="AC187" s="6"/>
       <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
@@ -18670,7 +18827,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
-      <c r="AC188" s="4"/>
+      <c r="AC188" s="6"/>
       <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
@@ -18740,7 +18897,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
-      <c r="AC189" s="4"/>
+      <c r="AC189" s="6"/>
       <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
@@ -18810,7 +18967,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
       <c r="AB190" s="4"/>
-      <c r="AC190" s="4"/>
+      <c r="AC190" s="6"/>
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
@@ -18880,7 +19037,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
       <c r="AB191" s="4"/>
-      <c r="AC191" s="4"/>
+      <c r="AC191" s="6"/>
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
@@ -18950,7 +19107,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
-      <c r="AC192" s="4"/>
+      <c r="AC192" s="6"/>
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
@@ -19020,7 +19177,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
-      <c r="AC193" s="4"/>
+      <c r="AC193" s="6"/>
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
@@ -19090,7 +19247,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
       <c r="AB194" s="4"/>
-      <c r="AC194" s="4"/>
+      <c r="AC194" s="6"/>
       <c r="AD194" s="4"/>
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
@@ -19160,7 +19317,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
       <c r="AB195" s="4"/>
-      <c r="AC195" s="4"/>
+      <c r="AC195" s="6"/>
       <c r="AD195" s="4"/>
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
@@ -19230,7 +19387,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
       <c r="AB196" s="4"/>
-      <c r="AC196" s="4"/>
+      <c r="AC196" s="6"/>
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
@@ -19300,7 +19457,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
       <c r="AB197" s="4"/>
-      <c r="AC197" s="4"/>
+      <c r="AC197" s="6"/>
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
@@ -19370,7 +19527,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
       <c r="AB198" s="4"/>
-      <c r="AC198" s="4"/>
+      <c r="AC198" s="6"/>
       <c r="AD198" s="4"/>
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
@@ -19440,7 +19597,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
       <c r="AB199" s="4"/>
-      <c r="AC199" s="4"/>
+      <c r="AC199" s="6"/>
       <c r="AD199" s="4"/>
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
@@ -19510,7 +19667,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
       <c r="AB200" s="4"/>
-      <c r="AC200" s="4"/>
+      <c r="AC200" s="6"/>
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
@@ -19580,7 +19737,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
       <c r="AB201" s="4"/>
-      <c r="AC201" s="4"/>
+      <c r="AC201" s="6"/>
       <c r="AD201" s="4"/>
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
@@ -19650,7 +19807,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
       <c r="AB202" s="4"/>
-      <c r="AC202" s="4"/>
+      <c r="AC202" s="6"/>
       <c r="AD202" s="4"/>
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
@@ -19720,7 +19877,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
       <c r="AB203" s="4"/>
-      <c r="AC203" s="4"/>
+      <c r="AC203" s="6"/>
       <c r="AD203" s="4"/>
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
@@ -19790,7 +19947,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
       <c r="AB204" s="4"/>
-      <c r="AC204" s="4"/>
+      <c r="AC204" s="6"/>
       <c r="AD204" s="4"/>
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
@@ -19860,7 +20017,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
       <c r="AB205" s="4"/>
-      <c r="AC205" s="4"/>
+      <c r="AC205" s="6"/>
       <c r="AD205" s="4"/>
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
@@ -19930,7 +20087,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
       <c r="AB206" s="4"/>
-      <c r="AC206" s="4"/>
+      <c r="AC206" s="6"/>
       <c r="AD206" s="4"/>
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
@@ -20000,7 +20157,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
       <c r="AB207" s="4"/>
-      <c r="AC207" s="4"/>
+      <c r="AC207" s="6"/>
       <c r="AD207" s="4"/>
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
@@ -20070,7 +20227,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
       <c r="AB208" s="4"/>
-      <c r="AC208" s="4"/>
+      <c r="AC208" s="6"/>
       <c r="AD208" s="4"/>
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
@@ -20140,7 +20297,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
       <c r="AB209" s="4"/>
-      <c r="AC209" s="4"/>
+      <c r="AC209" s="6"/>
       <c r="AD209" s="4"/>
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
@@ -20210,7 +20367,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
       <c r="AB210" s="4"/>
-      <c r="AC210" s="4"/>
+      <c r="AC210" s="6"/>
       <c r="AD210" s="4"/>
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
@@ -20280,7 +20437,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
       <c r="AB211" s="4"/>
-      <c r="AC211" s="4"/>
+      <c r="AC211" s="6"/>
       <c r="AD211" s="4"/>
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
@@ -20350,7 +20507,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
       <c r="AB212" s="4"/>
-      <c r="AC212" s="4"/>
+      <c r="AC212" s="6"/>
       <c r="AD212" s="4"/>
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
@@ -20420,7 +20577,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
       <c r="AB213" s="4"/>
-      <c r="AC213" s="4"/>
+      <c r="AC213" s="6"/>
       <c r="AD213" s="4"/>
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
@@ -20490,7 +20647,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
       <c r="AB214" s="4"/>
-      <c r="AC214" s="4"/>
+      <c r="AC214" s="6"/>
       <c r="AD214" s="4"/>
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
@@ -20560,7 +20717,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
       <c r="AB215" s="4"/>
-      <c r="AC215" s="4"/>
+      <c r="AC215" s="6"/>
       <c r="AD215" s="4"/>
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
@@ -20630,7 +20787,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
       <c r="AB216" s="4"/>
-      <c r="AC216" s="4"/>
+      <c r="AC216" s="6"/>
       <c r="AD216" s="4"/>
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
@@ -20700,7 +20857,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
       <c r="AB217" s="4"/>
-      <c r="AC217" s="4"/>
+      <c r="AC217" s="6"/>
       <c r="AD217" s="4"/>
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
@@ -20770,7 +20927,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
       <c r="AB218" s="4"/>
-      <c r="AC218" s="4"/>
+      <c r="AC218" s="6"/>
       <c r="AD218" s="4"/>
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
@@ -20840,7 +20997,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
       <c r="AB219" s="4"/>
-      <c r="AC219" s="4"/>
+      <c r="AC219" s="6"/>
       <c r="AD219" s="4"/>
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
@@ -20910,7 +21067,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
       <c r="AB220" s="4"/>
-      <c r="AC220" s="4"/>
+      <c r="AC220" s="6"/>
       <c r="AD220" s="4"/>
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
@@ -20980,7 +21137,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
       <c r="AB221" s="4"/>
-      <c r="AC221" s="4"/>
+      <c r="AC221" s="6"/>
       <c r="AD221" s="4"/>
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
@@ -21050,7 +21207,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
       <c r="AB222" s="4"/>
-      <c r="AC222" s="4"/>
+      <c r="AC222" s="6"/>
       <c r="AD222" s="4"/>
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
@@ -21120,7 +21277,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
       <c r="AB223" s="4"/>
-      <c r="AC223" s="4"/>
+      <c r="AC223" s="6"/>
       <c r="AD223" s="4"/>
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
@@ -21190,7 +21347,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
       <c r="AB224" s="4"/>
-      <c r="AC224" s="4"/>
+      <c r="AC224" s="6"/>
       <c r="AD224" s="4"/>
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
@@ -21260,7 +21417,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
       <c r="AB225" s="4"/>
-      <c r="AC225" s="4"/>
+      <c r="AC225" s="6"/>
       <c r="AD225" s="4"/>
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
@@ -21330,7 +21487,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
       <c r="AB226" s="4"/>
-      <c r="AC226" s="4"/>
+      <c r="AC226" s="6"/>
       <c r="AD226" s="4"/>
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
@@ -21400,7 +21557,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
       <c r="AB227" s="4"/>
-      <c r="AC227" s="4"/>
+      <c r="AC227" s="6"/>
       <c r="AD227" s="4"/>
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
@@ -21470,7 +21627,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
       <c r="AB228" s="4"/>
-      <c r="AC228" s="4"/>
+      <c r="AC228" s="6"/>
       <c r="AD228" s="4"/>
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
@@ -21540,7 +21697,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
       <c r="AB229" s="4"/>
-      <c r="AC229" s="4"/>
+      <c r="AC229" s="6"/>
       <c r="AD229" s="4"/>
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
@@ -21610,7 +21767,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
       <c r="AB230" s="4"/>
-      <c r="AC230" s="4"/>
+      <c r="AC230" s="6"/>
       <c r="AD230" s="4"/>
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
@@ -21680,7 +21837,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
       <c r="AB231" s="4"/>
-      <c r="AC231" s="4"/>
+      <c r="AC231" s="6"/>
       <c r="AD231" s="4"/>
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
@@ -21750,7 +21907,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
       <c r="AB232" s="4"/>
-      <c r="AC232" s="4"/>
+      <c r="AC232" s="6"/>
       <c r="AD232" s="4"/>
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
@@ -21820,7 +21977,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
       <c r="AB233" s="4"/>
-      <c r="AC233" s="4"/>
+      <c r="AC233" s="6"/>
       <c r="AD233" s="4"/>
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
@@ -21890,7 +22047,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
       <c r="AB234" s="4"/>
-      <c r="AC234" s="4"/>
+      <c r="AC234" s="6"/>
       <c r="AD234" s="4"/>
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
@@ -21960,7 +22117,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
       <c r="AB235" s="4"/>
-      <c r="AC235" s="4"/>
+      <c r="AC235" s="6"/>
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
@@ -22030,7 +22187,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
       <c r="AB236" s="4"/>
-      <c r="AC236" s="4"/>
+      <c r="AC236" s="6"/>
       <c r="AD236" s="4"/>
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
@@ -22100,7 +22257,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
       <c r="AB237" s="4"/>
-      <c r="AC237" s="4"/>
+      <c r="AC237" s="6"/>
       <c r="AD237" s="4"/>
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
@@ -22170,7 +22327,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
       <c r="AB238" s="4"/>
-      <c r="AC238" s="4"/>
+      <c r="AC238" s="6"/>
       <c r="AD238" s="4"/>
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
@@ -22240,7 +22397,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
       <c r="AB239" s="4"/>
-      <c r="AC239" s="4"/>
+      <c r="AC239" s="6"/>
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
@@ -22310,7 +22467,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
       <c r="AB240" s="4"/>
-      <c r="AC240" s="4"/>
+      <c r="AC240" s="6"/>
       <c r="AD240" s="4"/>
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
@@ -22380,7 +22537,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
       <c r="AB241" s="4"/>
-      <c r="AC241" s="4"/>
+      <c r="AC241" s="6"/>
       <c r="AD241" s="4"/>
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
@@ -22450,7 +22607,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
       <c r="AB242" s="4"/>
-      <c r="AC242" s="4"/>
+      <c r="AC242" s="6"/>
       <c r="AD242" s="4"/>
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
@@ -22520,7 +22677,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
       <c r="AB243" s="4"/>
-      <c r="AC243" s="4"/>
+      <c r="AC243" s="6"/>
       <c r="AD243" s="4"/>
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
@@ -22590,7 +22747,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
       <c r="AB244" s="4"/>
-      <c r="AC244" s="4"/>
+      <c r="AC244" s="6"/>
       <c r="AD244" s="4"/>
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
@@ -22660,7 +22817,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
       <c r="AB245" s="4"/>
-      <c r="AC245" s="4"/>
+      <c r="AC245" s="6"/>
       <c r="AD245" s="4"/>
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
@@ -22730,7 +22887,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
       <c r="AB246" s="4"/>
-      <c r="AC246" s="4"/>
+      <c r="AC246" s="6"/>
       <c r="AD246" s="4"/>
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
@@ -22800,7 +22957,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
       <c r="AB247" s="4"/>
-      <c r="AC247" s="4"/>
+      <c r="AC247" s="6"/>
       <c r="AD247" s="4"/>
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
@@ -22870,7 +23027,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
       <c r="AB248" s="4"/>
-      <c r="AC248" s="4"/>
+      <c r="AC248" s="6"/>
       <c r="AD248" s="4"/>
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
@@ -22940,7 +23097,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
       <c r="AB249" s="4"/>
-      <c r="AC249" s="4"/>
+      <c r="AC249" s="6"/>
       <c r="AD249" s="4"/>
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
@@ -23010,7 +23167,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
       <c r="AB250" s="4"/>
-      <c r="AC250" s="4"/>
+      <c r="AC250" s="6"/>
       <c r="AD250" s="4"/>
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
@@ -23080,7 +23237,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
       <c r="AB251" s="4"/>
-      <c r="AC251" s="4"/>
+      <c r="AC251" s="6"/>
       <c r="AD251" s="4"/>
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
@@ -23150,7 +23307,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
       <c r="AB252" s="4"/>
-      <c r="AC252" s="4"/>
+      <c r="AC252" s="6"/>
       <c r="AD252" s="4"/>
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
@@ -23220,7 +23377,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
       <c r="AB253" s="4"/>
-      <c r="AC253" s="4"/>
+      <c r="AC253" s="6"/>
       <c r="AD253" s="4"/>
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
@@ -23290,7 +23447,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
       <c r="AB254" s="4"/>
-      <c r="AC254" s="4"/>
+      <c r="AC254" s="6"/>
       <c r="AD254" s="4"/>
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
@@ -23360,7 +23517,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
       <c r="AB255" s="4"/>
-      <c r="AC255" s="4"/>
+      <c r="AC255" s="6"/>
       <c r="AD255" s="4"/>
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
@@ -23430,7 +23587,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
       <c r="AB256" s="4"/>
-      <c r="AC256" s="4"/>
+      <c r="AC256" s="6"/>
       <c r="AD256" s="4"/>
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
@@ -23500,7 +23657,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
       <c r="AB257" s="4"/>
-      <c r="AC257" s="4"/>
+      <c r="AC257" s="6"/>
       <c r="AD257" s="4"/>
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
@@ -23570,7 +23727,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
       <c r="AB258" s="4"/>
-      <c r="AC258" s="4"/>
+      <c r="AC258" s="6"/>
       <c r="AD258" s="4"/>
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
@@ -23640,7 +23797,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
       <c r="AB259" s="4"/>
-      <c r="AC259" s="4"/>
+      <c r="AC259" s="6"/>
       <c r="AD259" s="4"/>
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
@@ -23710,7 +23867,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
       <c r="AB260" s="4"/>
-      <c r="AC260" s="4"/>
+      <c r="AC260" s="6"/>
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
@@ -23780,7 +23937,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
       <c r="AB261" s="4"/>
-      <c r="AC261" s="4"/>
+      <c r="AC261" s="6"/>
       <c r="AD261" s="4"/>
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
@@ -23850,7 +24007,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
       <c r="AB262" s="4"/>
-      <c r="AC262" s="4"/>
+      <c r="AC262" s="6"/>
       <c r="AD262" s="4"/>
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
@@ -23920,7 +24077,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
       <c r="AB263" s="4"/>
-      <c r="AC263" s="4"/>
+      <c r="AC263" s="6"/>
       <c r="AD263" s="4"/>
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
@@ -23990,7 +24147,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
       <c r="AB264" s="4"/>
-      <c r="AC264" s="4"/>
+      <c r="AC264" s="6"/>
       <c r="AD264" s="4"/>
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
@@ -24060,7 +24217,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
       <c r="AB265" s="4"/>
-      <c r="AC265" s="4"/>
+      <c r="AC265" s="6"/>
       <c r="AD265" s="4"/>
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
@@ -24130,7 +24287,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
       <c r="AB266" s="4"/>
-      <c r="AC266" s="4"/>
+      <c r="AC266" s="6"/>
       <c r="AD266" s="4"/>
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
@@ -24200,7 +24357,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
       <c r="AB267" s="4"/>
-      <c r="AC267" s="4"/>
+      <c r="AC267" s="6"/>
       <c r="AD267" s="4"/>
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
@@ -24270,7 +24427,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
       <c r="AB268" s="4"/>
-      <c r="AC268" s="4"/>
+      <c r="AC268" s="6"/>
       <c r="AD268" s="4"/>
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
@@ -24340,7 +24497,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
       <c r="AB269" s="4"/>
-      <c r="AC269" s="4"/>
+      <c r="AC269" s="6"/>
       <c r="AD269" s="4"/>
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
@@ -24410,7 +24567,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
       <c r="AB270" s="4"/>
-      <c r="AC270" s="4"/>
+      <c r="AC270" s="6"/>
       <c r="AD270" s="4"/>
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
@@ -24480,7 +24637,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
       <c r="AB271" s="4"/>
-      <c r="AC271" s="4"/>
+      <c r="AC271" s="6"/>
       <c r="AD271" s="4"/>
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
@@ -24550,7 +24707,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
       <c r="AB272" s="4"/>
-      <c r="AC272" s="4"/>
+      <c r="AC272" s="6"/>
       <c r="AD272" s="4"/>
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
@@ -24620,7 +24777,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
       <c r="AB273" s="4"/>
-      <c r="AC273" s="4"/>
+      <c r="AC273" s="6"/>
       <c r="AD273" s="4"/>
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
@@ -24690,7 +24847,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
       <c r="AB274" s="4"/>
-      <c r="AC274" s="4"/>
+      <c r="AC274" s="6"/>
       <c r="AD274" s="4"/>
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
@@ -24760,7 +24917,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
       <c r="AB275" s="4"/>
-      <c r="AC275" s="4"/>
+      <c r="AC275" s="6"/>
       <c r="AD275" s="4"/>
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
@@ -24830,7 +24987,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
       <c r="AB276" s="4"/>
-      <c r="AC276" s="4"/>
+      <c r="AC276" s="6"/>
       <c r="AD276" s="4"/>
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
@@ -24900,7 +25057,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
       <c r="AB277" s="4"/>
-      <c r="AC277" s="4"/>
+      <c r="AC277" s="6"/>
       <c r="AD277" s="4"/>
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
@@ -24970,7 +25127,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
       <c r="AB278" s="4"/>
-      <c r="AC278" s="4"/>
+      <c r="AC278" s="6"/>
       <c r="AD278" s="4"/>
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
@@ -25040,7 +25197,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
       <c r="AB279" s="4"/>
-      <c r="AC279" s="4"/>
+      <c r="AC279" s="6"/>
       <c r="AD279" s="4"/>
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
@@ -25110,7 +25267,7 @@
       <c r="Z280" s="4"/>
       <c r="AA280" s="4"/>
       <c r="AB280" s="4"/>
-      <c r="AC280" s="4"/>
+      <c r="AC280" s="6"/>
       <c r="AD280" s="4"/>
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
@@ -25180,7 +25337,7 @@
       <c r="Z281" s="4"/>
       <c r="AA281" s="4"/>
       <c r="AB281" s="4"/>
-      <c r="AC281" s="4"/>
+      <c r="AC281" s="6"/>
       <c r="AD281" s="4"/>
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
@@ -25250,7 +25407,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
       <c r="AB282" s="4"/>
-      <c r="AC282" s="4"/>
+      <c r="AC282" s="6"/>
       <c r="AD282" s="4"/>
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
@@ -25320,7 +25477,7 @@
       <c r="Z283" s="4"/>
       <c r="AA283" s="4"/>
       <c r="AB283" s="4"/>
-      <c r="AC283" s="4"/>
+      <c r="AC283" s="6"/>
       <c r="AD283" s="4"/>
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
@@ -25390,7 +25547,7 @@
       <c r="Z284" s="4"/>
       <c r="AA284" s="4"/>
       <c r="AB284" s="4"/>
-      <c r="AC284" s="4"/>
+      <c r="AC284" s="6"/>
       <c r="AD284" s="4"/>
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
@@ -25460,7 +25617,7 @@
       <c r="Z285" s="4"/>
       <c r="AA285" s="4"/>
       <c r="AB285" s="4"/>
-      <c r="AC285" s="4"/>
+      <c r="AC285" s="6"/>
       <c r="AD285" s="4"/>
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
@@ -25530,7 +25687,7 @@
       <c r="Z286" s="4"/>
       <c r="AA286" s="4"/>
       <c r="AB286" s="4"/>
-      <c r="AC286" s="4"/>
+      <c r="AC286" s="6"/>
       <c r="AD286" s="4"/>
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
@@ -25600,7 +25757,7 @@
       <c r="Z287" s="4"/>
       <c r="AA287" s="4"/>
       <c r="AB287" s="4"/>
-      <c r="AC287" s="4"/>
+      <c r="AC287" s="6"/>
       <c r="AD287" s="4"/>
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
@@ -25670,7 +25827,7 @@
       <c r="Z288" s="4"/>
       <c r="AA288" s="4"/>
       <c r="AB288" s="4"/>
-      <c r="AC288" s="4"/>
+      <c r="AC288" s="6"/>
       <c r="AD288" s="4"/>
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
@@ -25740,7 +25897,7 @@
       <c r="Z289" s="4"/>
       <c r="AA289" s="4"/>
       <c r="AB289" s="4"/>
-      <c r="AC289" s="4"/>
+      <c r="AC289" s="6"/>
       <c r="AD289" s="4"/>
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
@@ -25810,7 +25967,7 @@
       <c r="Z290" s="4"/>
       <c r="AA290" s="4"/>
       <c r="AB290" s="4"/>
-      <c r="AC290" s="4"/>
+      <c r="AC290" s="6"/>
       <c r="AD290" s="4"/>
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
@@ -25880,7 +26037,7 @@
       <c r="Z291" s="4"/>
       <c r="AA291" s="4"/>
       <c r="AB291" s="4"/>
-      <c r="AC291" s="4"/>
+      <c r="AC291" s="6"/>
       <c r="AD291" s="4"/>
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
@@ -25950,7 +26107,7 @@
       <c r="Z292" s="4"/>
       <c r="AA292" s="4"/>
       <c r="AB292" s="4"/>
-      <c r="AC292" s="4"/>
+      <c r="AC292" s="6"/>
       <c r="AD292" s="4"/>
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
@@ -26020,7 +26177,7 @@
       <c r="Z293" s="4"/>
       <c r="AA293" s="4"/>
       <c r="AB293" s="4"/>
-      <c r="AC293" s="4"/>
+      <c r="AC293" s="6"/>
       <c r="AD293" s="4"/>
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
@@ -26090,7 +26247,7 @@
       <c r="Z294" s="4"/>
       <c r="AA294" s="4"/>
       <c r="AB294" s="4"/>
-      <c r="AC294" s="4"/>
+      <c r="AC294" s="6"/>
       <c r="AD294" s="4"/>
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
@@ -26160,7 +26317,7 @@
       <c r="Z295" s="4"/>
       <c r="AA295" s="4"/>
       <c r="AB295" s="4"/>
-      <c r="AC295" s="4"/>
+      <c r="AC295" s="6"/>
       <c r="AD295" s="4"/>
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
@@ -26230,7 +26387,7 @@
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
       <c r="AB296" s="4"/>
-      <c r="AC296" s="4"/>
+      <c r="AC296" s="6"/>
       <c r="AD296" s="4"/>
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
@@ -26300,7 +26457,7 @@
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
       <c r="AB297" s="4"/>
-      <c r="AC297" s="4"/>
+      <c r="AC297" s="6"/>
       <c r="AD297" s="4"/>
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
@@ -26370,7 +26527,7 @@
       <c r="Z298" s="4"/>
       <c r="AA298" s="4"/>
       <c r="AB298" s="4"/>
-      <c r="AC298" s="4"/>
+      <c r="AC298" s="6"/>
       <c r="AD298" s="4"/>
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
@@ -26440,7 +26597,7 @@
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
       <c r="AB299" s="4"/>
-      <c r="AC299" s="4"/>
+      <c r="AC299" s="6"/>
       <c r="AD299" s="4"/>
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
@@ -26510,7 +26667,7 @@
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
       <c r="AB300" s="4"/>
-      <c r="AC300" s="4"/>
+      <c r="AC300" s="6"/>
       <c r="AD300" s="4"/>
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
@@ -26580,7 +26737,7 @@
       <c r="Z301" s="4"/>
       <c r="AA301" s="4"/>
       <c r="AB301" s="4"/>
-      <c r="AC301" s="4"/>
+      <c r="AC301" s="6"/>
       <c r="AD301" s="4"/>
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
@@ -26650,7 +26807,7 @@
       <c r="Z302" s="4"/>
       <c r="AA302" s="4"/>
       <c r="AB302" s="4"/>
-      <c r="AC302" s="4"/>
+      <c r="AC302" s="6"/>
       <c r="AD302" s="4"/>
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
@@ -26720,7 +26877,7 @@
       <c r="Z303" s="4"/>
       <c r="AA303" s="4"/>
       <c r="AB303" s="4"/>
-      <c r="AC303" s="4"/>
+      <c r="AC303" s="6"/>
       <c r="AD303" s="4"/>
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
@@ -26790,7 +26947,7 @@
       <c r="Z304" s="4"/>
       <c r="AA304" s="4"/>
       <c r="AB304" s="4"/>
-      <c r="AC304" s="4"/>
+      <c r="AC304" s="6"/>
       <c r="AD304" s="4"/>
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
@@ -26860,7 +27017,7 @@
       <c r="Z305" s="4"/>
       <c r="AA305" s="4"/>
       <c r="AB305" s="4"/>
-      <c r="AC305" s="4"/>
+      <c r="AC305" s="6"/>
       <c r="AD305" s="4"/>
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
@@ -26930,7 +27087,7 @@
       <c r="Z306" s="4"/>
       <c r="AA306" s="4"/>
       <c r="AB306" s="4"/>
-      <c r="AC306" s="4"/>
+      <c r="AC306" s="6"/>
       <c r="AD306" s="4"/>
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
@@ -27000,7 +27157,7 @@
       <c r="Z307" s="4"/>
       <c r="AA307" s="4"/>
       <c r="AB307" s="4"/>
-      <c r="AC307" s="4"/>
+      <c r="AC307" s="6"/>
       <c r="AD307" s="4"/>
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
@@ -27070,7 +27227,7 @@
       <c r="Z308" s="4"/>
       <c r="AA308" s="4"/>
       <c r="AB308" s="4"/>
-      <c r="AC308" s="4"/>
+      <c r="AC308" s="6"/>
       <c r="AD308" s="4"/>
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
@@ -27140,7 +27297,7 @@
       <c r="Z309" s="4"/>
       <c r="AA309" s="4"/>
       <c r="AB309" s="4"/>
-      <c r="AC309" s="4"/>
+      <c r="AC309" s="6"/>
       <c r="AD309" s="4"/>
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
@@ -27210,7 +27367,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
       <c r="AB310" s="4"/>
-      <c r="AC310" s="4"/>
+      <c r="AC310" s="6"/>
       <c r="AD310" s="4"/>
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
@@ -27280,7 +27437,7 @@
       <c r="Z311" s="4"/>
       <c r="AA311" s="4"/>
       <c r="AB311" s="4"/>
-      <c r="AC311" s="4"/>
+      <c r="AC311" s="6"/>
       <c r="AD311" s="4"/>
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
@@ -27350,7 +27507,7 @@
       <c r="Z312" s="4"/>
       <c r="AA312" s="4"/>
       <c r="AB312" s="4"/>
-      <c r="AC312" s="4"/>
+      <c r="AC312" s="6"/>
       <c r="AD312" s="4"/>
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
@@ -27420,7 +27577,7 @@
       <c r="Z313" s="4"/>
       <c r="AA313" s="4"/>
       <c r="AB313" s="4"/>
-      <c r="AC313" s="4"/>
+      <c r="AC313" s="6"/>
       <c r="AD313" s="4"/>
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
@@ -27490,7 +27647,7 @@
       <c r="Z314" s="4"/>
       <c r="AA314" s="4"/>
       <c r="AB314" s="4"/>
-      <c r="AC314" s="4"/>
+      <c r="AC314" s="6"/>
       <c r="AD314" s="4"/>
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
@@ -27560,7 +27717,7 @@
       <c r="Z315" s="4"/>
       <c r="AA315" s="4"/>
       <c r="AB315" s="4"/>
-      <c r="AC315" s="4"/>
+      <c r="AC315" s="6"/>
       <c r="AD315" s="4"/>
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
@@ -27630,7 +27787,7 @@
       <c r="Z316" s="4"/>
       <c r="AA316" s="4"/>
       <c r="AB316" s="4"/>
-      <c r="AC316" s="4"/>
+      <c r="AC316" s="6"/>
       <c r="AD316" s="4"/>
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
@@ -27700,7 +27857,7 @@
       <c r="Z317" s="4"/>
       <c r="AA317" s="4"/>
       <c r="AB317" s="4"/>
-      <c r="AC317" s="4"/>
+      <c r="AC317" s="6"/>
       <c r="AD317" s="4"/>
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
@@ -27770,7 +27927,7 @@
       <c r="Z318" s="4"/>
       <c r="AA318" s="4"/>
       <c r="AB318" s="4"/>
-      <c r="AC318" s="4"/>
+      <c r="AC318" s="6"/>
       <c r="AD318" s="4"/>
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
@@ -27840,7 +27997,7 @@
       <c r="Z319" s="4"/>
       <c r="AA319" s="4"/>
       <c r="AB319" s="4"/>
-      <c r="AC319" s="4"/>
+      <c r="AC319" s="6"/>
       <c r="AD319" s="4"/>
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
@@ -27910,7 +28067,7 @@
       <c r="Z320" s="4"/>
       <c r="AA320" s="4"/>
       <c r="AB320" s="4"/>
-      <c r="AC320" s="4"/>
+      <c r="AC320" s="6"/>
       <c r="AD320" s="4"/>
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
@@ -27980,7 +28137,7 @@
       <c r="Z321" s="4"/>
       <c r="AA321" s="4"/>
       <c r="AB321" s="4"/>
-      <c r="AC321" s="4"/>
+      <c r="AC321" s="6"/>
       <c r="AD321" s="4"/>
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
@@ -28050,7 +28207,7 @@
       <c r="Z322" s="4"/>
       <c r="AA322" s="4"/>
       <c r="AB322" s="4"/>
-      <c r="AC322" s="4"/>
+      <c r="AC322" s="6"/>
       <c r="AD322" s="4"/>
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
@@ -28120,7 +28277,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
       <c r="AB323" s="4"/>
-      <c r="AC323" s="4"/>
+      <c r="AC323" s="6"/>
       <c r="AD323" s="4"/>
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
@@ -28190,7 +28347,7 @@
       <c r="Z324" s="4"/>
       <c r="AA324" s="4"/>
       <c r="AB324" s="4"/>
-      <c r="AC324" s="4"/>
+      <c r="AC324" s="6"/>
       <c r="AD324" s="4"/>
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
@@ -28260,7 +28417,7 @@
       <c r="Z325" s="4"/>
       <c r="AA325" s="4"/>
       <c r="AB325" s="4"/>
-      <c r="AC325" s="4"/>
+      <c r="AC325" s="6"/>
       <c r="AD325" s="4"/>
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
@@ -28330,7 +28487,7 @@
       <c r="Z326" s="4"/>
       <c r="AA326" s="4"/>
       <c r="AB326" s="4"/>
-      <c r="AC326" s="4"/>
+      <c r="AC326" s="6"/>
       <c r="AD326" s="4"/>
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
@@ -28400,7 +28557,7 @@
       <c r="Z327" s="4"/>
       <c r="AA327" s="4"/>
       <c r="AB327" s="4"/>
-      <c r="AC327" s="4"/>
+      <c r="AC327" s="6"/>
       <c r="AD327" s="4"/>
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
@@ -28470,7 +28627,7 @@
       <c r="Z328" s="4"/>
       <c r="AA328" s="4"/>
       <c r="AB328" s="4"/>
-      <c r="AC328" s="4"/>
+      <c r="AC328" s="6"/>
       <c r="AD328" s="4"/>
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
@@ -28540,7 +28697,7 @@
       <c r="Z329" s="4"/>
       <c r="AA329" s="4"/>
       <c r="AB329" s="4"/>
-      <c r="AC329" s="4"/>
+      <c r="AC329" s="6"/>
       <c r="AD329" s="4"/>
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
@@ -28610,7 +28767,7 @@
       <c r="Z330" s="4"/>
       <c r="AA330" s="4"/>
       <c r="AB330" s="4"/>
-      <c r="AC330" s="4"/>
+      <c r="AC330" s="6"/>
       <c r="AD330" s="4"/>
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
@@ -28680,7 +28837,7 @@
       <c r="Z331" s="4"/>
       <c r="AA331" s="4"/>
       <c r="AB331" s="4"/>
-      <c r="AC331" s="4"/>
+      <c r="AC331" s="6"/>
       <c r="AD331" s="4"/>
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
@@ -28750,7 +28907,7 @@
       <c r="Z332" s="4"/>
       <c r="AA332" s="4"/>
       <c r="AB332" s="4"/>
-      <c r="AC332" s="4"/>
+      <c r="AC332" s="6"/>
       <c r="AD332" s="4"/>
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
@@ -28820,7 +28977,7 @@
       <c r="Z333" s="4"/>
       <c r="AA333" s="4"/>
       <c r="AB333" s="4"/>
-      <c r="AC333" s="4"/>
+      <c r="AC333" s="6"/>
       <c r="AD333" s="4"/>
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
@@ -28890,7 +29047,7 @@
       <c r="Z334" s="4"/>
       <c r="AA334" s="4"/>
       <c r="AB334" s="4"/>
-      <c r="AC334" s="4"/>
+      <c r="AC334" s="6"/>
       <c r="AD334" s="4"/>
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
@@ -28960,7 +29117,7 @@
       <c r="Z335" s="4"/>
       <c r="AA335" s="4"/>
       <c r="AB335" s="4"/>
-      <c r="AC335" s="4"/>
+      <c r="AC335" s="6"/>
       <c r="AD335" s="4"/>
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
@@ -29030,7 +29187,7 @@
       <c r="Z336" s="4"/>
       <c r="AA336" s="4"/>
       <c r="AB336" s="4"/>
-      <c r="AC336" s="4"/>
+      <c r="AC336" s="6"/>
       <c r="AD336" s="4"/>
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
@@ -29100,7 +29257,7 @@
       <c r="Z337" s="4"/>
       <c r="AA337" s="4"/>
       <c r="AB337" s="4"/>
-      <c r="AC337" s="4"/>
+      <c r="AC337" s="6"/>
       <c r="AD337" s="4"/>
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
@@ -29170,7 +29327,7 @@
       <c r="Z338" s="4"/>
       <c r="AA338" s="4"/>
       <c r="AB338" s="4"/>
-      <c r="AC338" s="4"/>
+      <c r="AC338" s="6"/>
       <c r="AD338" s="4"/>
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
@@ -29240,7 +29397,7 @@
       <c r="Z339" s="4"/>
       <c r="AA339" s="4"/>
       <c r="AB339" s="4"/>
-      <c r="AC339" s="4"/>
+      <c r="AC339" s="6"/>
       <c r="AD339" s="4"/>
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
@@ -29310,7 +29467,7 @@
       <c r="Z340" s="4"/>
       <c r="AA340" s="4"/>
       <c r="AB340" s="4"/>
-      <c r="AC340" s="4"/>
+      <c r="AC340" s="6"/>
       <c r="AD340" s="4"/>
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
@@ -29380,7 +29537,7 @@
       <c r="Z341" s="4"/>
       <c r="AA341" s="4"/>
       <c r="AB341" s="4"/>
-      <c r="AC341" s="4"/>
+      <c r="AC341" s="6"/>
       <c r="AD341" s="4"/>
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
@@ -29450,7 +29607,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
       <c r="AB342" s="4"/>
-      <c r="AC342" s="4"/>
+      <c r="AC342" s="6"/>
       <c r="AD342" s="4"/>
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
@@ -29520,7 +29677,7 @@
       <c r="Z343" s="4"/>
       <c r="AA343" s="4"/>
       <c r="AB343" s="4"/>
-      <c r="AC343" s="4"/>
+      <c r="AC343" s="6"/>
       <c r="AD343" s="4"/>
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
@@ -29590,7 +29747,7 @@
       <c r="Z344" s="4"/>
       <c r="AA344" s="4"/>
       <c r="AB344" s="4"/>
-      <c r="AC344" s="4"/>
+      <c r="AC344" s="6"/>
       <c r="AD344" s="4"/>
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
@@ -29660,7 +29817,7 @@
       <c r="Z345" s="4"/>
       <c r="AA345" s="4"/>
       <c r="AB345" s="4"/>
-      <c r="AC345" s="4"/>
+      <c r="AC345" s="6"/>
       <c r="AD345" s="4"/>
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
@@ -29730,7 +29887,7 @@
       <c r="Z346" s="4"/>
       <c r="AA346" s="4"/>
       <c r="AB346" s="4"/>
-      <c r="AC346" s="4"/>
+      <c r="AC346" s="6"/>
       <c r="AD346" s="4"/>
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
@@ -29800,7 +29957,7 @@
       <c r="Z347" s="4"/>
       <c r="AA347" s="4"/>
       <c r="AB347" s="4"/>
-      <c r="AC347" s="4"/>
+      <c r="AC347" s="6"/>
       <c r="AD347" s="4"/>
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
@@ -29870,7 +30027,7 @@
       <c r="Z348" s="4"/>
       <c r="AA348" s="4"/>
       <c r="AB348" s="4"/>
-      <c r="AC348" s="4"/>
+      <c r="AC348" s="6"/>
       <c r="AD348" s="4"/>
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
@@ -29940,7 +30097,7 @@
       <c r="Z349" s="4"/>
       <c r="AA349" s="4"/>
       <c r="AB349" s="4"/>
-      <c r="AC349" s="4"/>
+      <c r="AC349" s="6"/>
       <c r="AD349" s="4"/>
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
@@ -30010,7 +30167,7 @@
       <c r="Z350" s="4"/>
       <c r="AA350" s="4"/>
       <c r="AB350" s="4"/>
-      <c r="AC350" s="4"/>
+      <c r="AC350" s="6"/>
       <c r="AD350" s="4"/>
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
@@ -30080,7 +30237,7 @@
       <c r="Z351" s="4"/>
       <c r="AA351" s="4"/>
       <c r="AB351" s="4"/>
-      <c r="AC351" s="4"/>
+      <c r="AC351" s="6"/>
       <c r="AD351" s="4"/>
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
@@ -30150,7 +30307,7 @@
       <c r="Z352" s="4"/>
       <c r="AA352" s="4"/>
       <c r="AB352" s="4"/>
-      <c r="AC352" s="4"/>
+      <c r="AC352" s="6"/>
       <c r="AD352" s="4"/>
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
@@ -30220,7 +30377,7 @@
       <c r="Z353" s="4"/>
       <c r="AA353" s="4"/>
       <c r="AB353" s="4"/>
-      <c r="AC353" s="4"/>
+      <c r="AC353" s="6"/>
       <c r="AD353" s="4"/>
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
@@ -30290,7 +30447,7 @@
       <c r="Z354" s="4"/>
       <c r="AA354" s="4"/>
       <c r="AB354" s="4"/>
-      <c r="AC354" s="4"/>
+      <c r="AC354" s="6"/>
       <c r="AD354" s="4"/>
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
@@ -30360,7 +30517,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
       <c r="AB355" s="4"/>
-      <c r="AC355" s="4"/>
+      <c r="AC355" s="6"/>
       <c r="AD355" s="4"/>
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
@@ -30430,7 +30587,7 @@
       <c r="Z356" s="4"/>
       <c r="AA356" s="4"/>
       <c r="AB356" s="4"/>
-      <c r="AC356" s="4"/>
+      <c r="AC356" s="6"/>
       <c r="AD356" s="4"/>
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
@@ -30500,7 +30657,7 @@
       <c r="Z357" s="4"/>
       <c r="AA357" s="4"/>
       <c r="AB357" s="4"/>
-      <c r="AC357" s="4"/>
+      <c r="AC357" s="6"/>
       <c r="AD357" s="4"/>
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
@@ -30570,7 +30727,7 @@
       <c r="Z358" s="4"/>
       <c r="AA358" s="4"/>
       <c r="AB358" s="4"/>
-      <c r="AC358" s="4"/>
+      <c r="AC358" s="6"/>
       <c r="AD358" s="4"/>
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
@@ -30640,7 +30797,7 @@
       <c r="Z359" s="4"/>
       <c r="AA359" s="4"/>
       <c r="AB359" s="4"/>
-      <c r="AC359" s="4"/>
+      <c r="AC359" s="6"/>
       <c r="AD359" s="4"/>
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
@@ -30710,7 +30867,7 @@
       <c r="Z360" s="4"/>
       <c r="AA360" s="4"/>
       <c r="AB360" s="4"/>
-      <c r="AC360" s="4"/>
+      <c r="AC360" s="6"/>
       <c r="AD360" s="4"/>
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
@@ -30780,7 +30937,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
       <c r="AB361" s="4"/>
-      <c r="AC361" s="4"/>
+      <c r="AC361" s="6"/>
       <c r="AD361" s="4"/>
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
@@ -30850,7 +31007,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
       <c r="AB362" s="4"/>
-      <c r="AC362" s="4"/>
+      <c r="AC362" s="6"/>
       <c r="AD362" s="4"/>
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
@@ -30920,7 +31077,7 @@
       <c r="Z363" s="4"/>
       <c r="AA363" s="4"/>
       <c r="AB363" s="4"/>
-      <c r="AC363" s="4"/>
+      <c r="AC363" s="6"/>
       <c r="AD363" s="4"/>
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
@@ -30990,7 +31147,7 @@
       <c r="Z364" s="4"/>
       <c r="AA364" s="4"/>
       <c r="AB364" s="4"/>
-      <c r="AC364" s="4"/>
+      <c r="AC364" s="6"/>
       <c r="AD364" s="4"/>
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
@@ -31060,7 +31217,7 @@
       <c r="Z365" s="4"/>
       <c r="AA365" s="4"/>
       <c r="AB365" s="4"/>
-      <c r="AC365" s="4"/>
+      <c r="AC365" s="6"/>
       <c r="AD365" s="4"/>
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
@@ -31130,7 +31287,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
       <c r="AB366" s="4"/>
-      <c r="AC366" s="4"/>
+      <c r="AC366" s="6"/>
       <c r="AD366" s="4"/>
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
@@ -31200,7 +31357,7 @@
       <c r="Z367" s="4"/>
       <c r="AA367" s="4"/>
       <c r="AB367" s="4"/>
-      <c r="AC367" s="4"/>
+      <c r="AC367" s="6"/>
       <c r="AD367" s="4"/>
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
@@ -31270,7 +31427,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
       <c r="AB368" s="4"/>
-      <c r="AC368" s="4"/>
+      <c r="AC368" s="6"/>
       <c r="AD368" s="4"/>
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
@@ -31340,7 +31497,7 @@
       <c r="Z369" s="4"/>
       <c r="AA369" s="4"/>
       <c r="AB369" s="4"/>
-      <c r="AC369" s="4"/>
+      <c r="AC369" s="6"/>
       <c r="AD369" s="4"/>
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
@@ -31410,7 +31567,7 @@
       <c r="Z370" s="4"/>
       <c r="AA370" s="4"/>
       <c r="AB370" s="4"/>
-      <c r="AC370" s="4"/>
+      <c r="AC370" s="6"/>
       <c r="AD370" s="4"/>
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
@@ -31480,7 +31637,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
       <c r="AB371" s="4"/>
-      <c r="AC371" s="4"/>
+      <c r="AC371" s="6"/>
       <c r="AD371" s="4"/>
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
@@ -31550,7 +31707,7 @@
       <c r="Z372" s="4"/>
       <c r="AA372" s="4"/>
       <c r="AB372" s="4"/>
-      <c r="AC372" s="4"/>
+      <c r="AC372" s="6"/>
       <c r="AD372" s="4"/>
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
@@ -31620,7 +31777,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
       <c r="AB373" s="4"/>
-      <c r="AC373" s="4"/>
+      <c r="AC373" s="6"/>
       <c r="AD373" s="4"/>
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
@@ -31690,7 +31847,7 @@
       <c r="Z374" s="4"/>
       <c r="AA374" s="4"/>
       <c r="AB374" s="4"/>
-      <c r="AC374" s="4"/>
+      <c r="AC374" s="6"/>
       <c r="AD374" s="4"/>
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
@@ -31760,7 +31917,7 @@
       <c r="Z375" s="4"/>
       <c r="AA375" s="4"/>
       <c r="AB375" s="4"/>
-      <c r="AC375" s="4"/>
+      <c r="AC375" s="6"/>
       <c r="AD375" s="4"/>
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
@@ -31830,7 +31987,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
       <c r="AB376" s="4"/>
-      <c r="AC376" s="4"/>
+      <c r="AC376" s="6"/>
       <c r="AD376" s="4"/>
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
@@ -31900,7 +32057,7 @@
       <c r="Z377" s="4"/>
       <c r="AA377" s="4"/>
       <c r="AB377" s="4"/>
-      <c r="AC377" s="4"/>
+      <c r="AC377" s="6"/>
       <c r="AD377" s="4"/>
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
@@ -31970,7 +32127,7 @@
       <c r="Z378" s="4"/>
       <c r="AA378" s="4"/>
       <c r="AB378" s="4"/>
-      <c r="AC378" s="4"/>
+      <c r="AC378" s="6"/>
       <c r="AD378" s="4"/>
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
@@ -32040,7 +32197,7 @@
       <c r="Z379" s="4"/>
       <c r="AA379" s="4"/>
       <c r="AB379" s="4"/>
-      <c r="AC379" s="4"/>
+      <c r="AC379" s="6"/>
       <c r="AD379" s="4"/>
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
@@ -32110,7 +32267,7 @@
       <c r="Z380" s="4"/>
       <c r="AA380" s="4"/>
       <c r="AB380" s="4"/>
-      <c r="AC380" s="4"/>
+      <c r="AC380" s="6"/>
       <c r="AD380" s="4"/>
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
@@ -32180,7 +32337,7 @@
       <c r="Z381" s="4"/>
       <c r="AA381" s="4"/>
       <c r="AB381" s="4"/>
-      <c r="AC381" s="4"/>
+      <c r="AC381" s="6"/>
       <c r="AD381" s="4"/>
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
@@ -32250,7 +32407,7 @@
       <c r="Z382" s="4"/>
       <c r="AA382" s="4"/>
       <c r="AB382" s="4"/>
-      <c r="AC382" s="4"/>
+      <c r="AC382" s="6"/>
       <c r="AD382" s="4"/>
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
@@ -32320,7 +32477,7 @@
       <c r="Z383" s="4"/>
       <c r="AA383" s="4"/>
       <c r="AB383" s="4"/>
-      <c r="AC383" s="4"/>
+      <c r="AC383" s="6"/>
       <c r="AD383" s="4"/>
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
@@ -32390,7 +32547,7 @@
       <c r="Z384" s="4"/>
       <c r="AA384" s="4"/>
       <c r="AB384" s="4"/>
-      <c r="AC384" s="4"/>
+      <c r="AC384" s="6"/>
       <c r="AD384" s="4"/>
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
@@ -32460,7 +32617,7 @@
       <c r="Z385" s="4"/>
       <c r="AA385" s="4"/>
       <c r="AB385" s="4"/>
-      <c r="AC385" s="4"/>
+      <c r="AC385" s="6"/>
       <c r="AD385" s="4"/>
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
@@ -32530,7 +32687,7 @@
       <c r="Z386" s="4"/>
       <c r="AA386" s="4"/>
       <c r="AB386" s="4"/>
-      <c r="AC386" s="4"/>
+      <c r="AC386" s="6"/>
       <c r="AD386" s="4"/>
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
@@ -32600,7 +32757,7 @@
       <c r="Z387" s="4"/>
       <c r="AA387" s="4"/>
       <c r="AB387" s="4"/>
-      <c r="AC387" s="4"/>
+      <c r="AC387" s="6"/>
       <c r="AD387" s="4"/>
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
@@ -32670,7 +32827,7 @@
       <c r="Z388" s="4"/>
       <c r="AA388" s="4"/>
       <c r="AB388" s="4"/>
-      <c r="AC388" s="4"/>
+      <c r="AC388" s="6"/>
       <c r="AD388" s="4"/>
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
@@ -32740,7 +32897,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
       <c r="AB389" s="4"/>
-      <c r="AC389" s="4"/>
+      <c r="AC389" s="6"/>
       <c r="AD389" s="4"/>
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
@@ -32810,7 +32967,7 @@
       <c r="Z390" s="4"/>
       <c r="AA390" s="4"/>
       <c r="AB390" s="4"/>
-      <c r="AC390" s="4"/>
+      <c r="AC390" s="6"/>
       <c r="AD390" s="4"/>
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
@@ -32880,7 +33037,7 @@
       <c r="Z391" s="4"/>
       <c r="AA391" s="4"/>
       <c r="AB391" s="4"/>
-      <c r="AC391" s="4"/>
+      <c r="AC391" s="6"/>
       <c r="AD391" s="4"/>
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
@@ -32950,7 +33107,7 @@
       <c r="Z392" s="4"/>
       <c r="AA392" s="4"/>
       <c r="AB392" s="4"/>
-      <c r="AC392" s="4"/>
+      <c r="AC392" s="6"/>
       <c r="AD392" s="4"/>
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
@@ -33020,7 +33177,7 @@
       <c r="Z393" s="4"/>
       <c r="AA393" s="4"/>
       <c r="AB393" s="4"/>
-      <c r="AC393" s="4"/>
+      <c r="AC393" s="6"/>
       <c r="AD393" s="4"/>
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
@@ -33090,7 +33247,7 @@
       <c r="Z394" s="4"/>
       <c r="AA394" s="4"/>
       <c r="AB394" s="4"/>
-      <c r="AC394" s="4"/>
+      <c r="AC394" s="6"/>
       <c r="AD394" s="4"/>
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
@@ -33160,7 +33317,7 @@
       <c r="Z395" s="4"/>
       <c r="AA395" s="4"/>
       <c r="AB395" s="4"/>
-      <c r="AC395" s="4"/>
+      <c r="AC395" s="6"/>
       <c r="AD395" s="4"/>
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
@@ -33230,7 +33387,7 @@
       <c r="Z396" s="4"/>
       <c r="AA396" s="4"/>
       <c r="AB396" s="4"/>
-      <c r="AC396" s="4"/>
+      <c r="AC396" s="6"/>
       <c r="AD396" s="4"/>
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
@@ -33300,7 +33457,7 @@
       <c r="Z397" s="4"/>
       <c r="AA397" s="4"/>
       <c r="AB397" s="4"/>
-      <c r="AC397" s="4"/>
+      <c r="AC397" s="6"/>
       <c r="AD397" s="4"/>
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
@@ -33370,7 +33527,7 @@
       <c r="Z398" s="4"/>
       <c r="AA398" s="4"/>
       <c r="AB398" s="4"/>
-      <c r="AC398" s="4"/>
+      <c r="AC398" s="6"/>
       <c r="AD398" s="4"/>
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
@@ -33440,7 +33597,7 @@
       <c r="Z399" s="4"/>
       <c r="AA399" s="4"/>
       <c r="AB399" s="4"/>
-      <c r="AC399" s="4"/>
+      <c r="AC399" s="6"/>
       <c r="AD399" s="4"/>
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
@@ -33510,7 +33667,7 @@
       <c r="Z400" s="4"/>
       <c r="AA400" s="4"/>
       <c r="AB400" s="4"/>
-      <c r="AC400" s="4"/>
+      <c r="AC400" s="6"/>
       <c r="AD400" s="4"/>
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
@@ -33580,7 +33737,7 @@
       <c r="Z401" s="4"/>
       <c r="AA401" s="4"/>
       <c r="AB401" s="4"/>
-      <c r="AC401" s="4"/>
+      <c r="AC401" s="6"/>
       <c r="AD401" s="4"/>
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
@@ -33650,7 +33807,7 @@
       <c r="Z402" s="4"/>
       <c r="AA402" s="4"/>
       <c r="AB402" s="4"/>
-      <c r="AC402" s="4"/>
+      <c r="AC402" s="6"/>
       <c r="AD402" s="4"/>
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
@@ -33720,7 +33877,7 @@
       <c r="Z403" s="4"/>
       <c r="AA403" s="4"/>
       <c r="AB403" s="4"/>
-      <c r="AC403" s="4"/>
+      <c r="AC403" s="6"/>
       <c r="AD403" s="4"/>
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
@@ -33790,7 +33947,7 @@
       <c r="Z404" s="4"/>
       <c r="AA404" s="4"/>
       <c r="AB404" s="4"/>
-      <c r="AC404" s="4"/>
+      <c r="AC404" s="6"/>
       <c r="AD404" s="4"/>
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
@@ -33860,7 +34017,7 @@
       <c r="Z405" s="4"/>
       <c r="AA405" s="4"/>
       <c r="AB405" s="4"/>
-      <c r="AC405" s="4"/>
+      <c r="AC405" s="6"/>
       <c r="AD405" s="4"/>
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
@@ -33930,7 +34087,7 @@
       <c r="Z406" s="4"/>
       <c r="AA406" s="4"/>
       <c r="AB406" s="4"/>
-      <c r="AC406" s="4"/>
+      <c r="AC406" s="6"/>
       <c r="AD406" s="4"/>
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
@@ -34000,7 +34157,7 @@
       <c r="Z407" s="4"/>
       <c r="AA407" s="4"/>
       <c r="AB407" s="4"/>
-      <c r="AC407" s="4"/>
+      <c r="AC407" s="6"/>
       <c r="AD407" s="4"/>
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
@@ -34070,7 +34227,7 @@
       <c r="Z408" s="4"/>
       <c r="AA408" s="4"/>
       <c r="AB408" s="4"/>
-      <c r="AC408" s="4"/>
+      <c r="AC408" s="6"/>
       <c r="AD408" s="4"/>
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
@@ -34140,7 +34297,7 @@
       <c r="Z409" s="4"/>
       <c r="AA409" s="4"/>
       <c r="AB409" s="4"/>
-      <c r="AC409" s="4"/>
+      <c r="AC409" s="6"/>
       <c r="AD409" s="4"/>
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
@@ -34210,7 +34367,7 @@
       <c r="Z410" s="4"/>
       <c r="AA410" s="4"/>
       <c r="AB410" s="4"/>
-      <c r="AC410" s="4"/>
+      <c r="AC410" s="6"/>
       <c r="AD410" s="4"/>
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
@@ -34280,7 +34437,7 @@
       <c r="Z411" s="4"/>
       <c r="AA411" s="4"/>
       <c r="AB411" s="4"/>
-      <c r="AC411" s="4"/>
+      <c r="AC411" s="6"/>
       <c r="AD411" s="4"/>
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
@@ -34350,7 +34507,7 @@
       <c r="Z412" s="4"/>
       <c r="AA412" s="4"/>
       <c r="AB412" s="4"/>
-      <c r="AC412" s="4"/>
+      <c r="AC412" s="6"/>
       <c r="AD412" s="4"/>
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
@@ -34420,7 +34577,7 @@
       <c r="Z413" s="4"/>
       <c r="AA413" s="4"/>
       <c r="AB413" s="4"/>
-      <c r="AC413" s="4"/>
+      <c r="AC413" s="6"/>
       <c r="AD413" s="4"/>
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
@@ -34490,7 +34647,7 @@
       <c r="Z414" s="4"/>
       <c r="AA414" s="4"/>
       <c r="AB414" s="4"/>
-      <c r="AC414" s="4"/>
+      <c r="AC414" s="6"/>
       <c r="AD414" s="4"/>
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
@@ -34560,7 +34717,7 @@
       <c r="Z415" s="4"/>
       <c r="AA415" s="4"/>
       <c r="AB415" s="4"/>
-      <c r="AC415" s="4"/>
+      <c r="AC415" s="6"/>
       <c r="AD415" s="4"/>
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
@@ -34630,7 +34787,7 @@
       <c r="Z416" s="4"/>
       <c r="AA416" s="4"/>
       <c r="AB416" s="4"/>
-      <c r="AC416" s="4"/>
+      <c r="AC416" s="6"/>
       <c r="AD416" s="4"/>
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
@@ -34700,7 +34857,7 @@
       <c r="Z417" s="4"/>
       <c r="AA417" s="4"/>
       <c r="AB417" s="4"/>
-      <c r="AC417" s="4"/>
+      <c r="AC417" s="6"/>
       <c r="AD417" s="4"/>
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
@@ -34770,7 +34927,7 @@
       <c r="Z418" s="4"/>
       <c r="AA418" s="4"/>
       <c r="AB418" s="4"/>
-      <c r="AC418" s="4"/>
+      <c r="AC418" s="6"/>
       <c r="AD418" s="4"/>
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
@@ -34840,7 +34997,7 @@
       <c r="Z419" s="4"/>
       <c r="AA419" s="4"/>
       <c r="AB419" s="4"/>
-      <c r="AC419" s="4"/>
+      <c r="AC419" s="6"/>
       <c r="AD419" s="4"/>
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
@@ -34910,7 +35067,7 @@
       <c r="Z420" s="4"/>
       <c r="AA420" s="4"/>
       <c r="AB420" s="4"/>
-      <c r="AC420" s="4"/>
+      <c r="AC420" s="6"/>
       <c r="AD420" s="4"/>
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
@@ -34980,7 +35137,7 @@
       <c r="Z421" s="4"/>
       <c r="AA421" s="4"/>
       <c r="AB421" s="4"/>
-      <c r="AC421" s="4"/>
+      <c r="AC421" s="6"/>
       <c r="AD421" s="4"/>
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
@@ -35050,7 +35207,7 @@
       <c r="Z422" s="4"/>
       <c r="AA422" s="4"/>
       <c r="AB422" s="4"/>
-      <c r="AC422" s="4"/>
+      <c r="AC422" s="6"/>
       <c r="AD422" s="4"/>
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
@@ -35120,7 +35277,7 @@
       <c r="Z423" s="4"/>
       <c r="AA423" s="4"/>
       <c r="AB423" s="4"/>
-      <c r="AC423" s="4"/>
+      <c r="AC423" s="6"/>
       <c r="AD423" s="4"/>
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
@@ -35190,7 +35347,7 @@
       <c r="Z424" s="4"/>
       <c r="AA424" s="4"/>
       <c r="AB424" s="4"/>
-      <c r="AC424" s="4"/>
+      <c r="AC424" s="6"/>
       <c r="AD424" s="4"/>
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
@@ -35260,7 +35417,7 @@
       <c r="Z425" s="4"/>
       <c r="AA425" s="4"/>
       <c r="AB425" s="4"/>
-      <c r="AC425" s="4"/>
+      <c r="AC425" s="6"/>
       <c r="AD425" s="4"/>
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
@@ -35330,7 +35487,7 @@
       <c r="Z426" s="4"/>
       <c r="AA426" s="4"/>
       <c r="AB426" s="4"/>
-      <c r="AC426" s="4"/>
+      <c r="AC426" s="6"/>
       <c r="AD426" s="4"/>
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
@@ -35400,7 +35557,7 @@
       <c r="Z427" s="4"/>
       <c r="AA427" s="4"/>
       <c r="AB427" s="4"/>
-      <c r="AC427" s="4"/>
+      <c r="AC427" s="6"/>
       <c r="AD427" s="4"/>
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
@@ -35470,7 +35627,7 @@
       <c r="Z428" s="4"/>
       <c r="AA428" s="4"/>
       <c r="AB428" s="4"/>
-      <c r="AC428" s="4"/>
+      <c r="AC428" s="6"/>
       <c r="AD428" s="4"/>
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
@@ -35540,7 +35697,7 @@
       <c r="Z429" s="4"/>
       <c r="AA429" s="4"/>
       <c r="AB429" s="4"/>
-      <c r="AC429" s="4"/>
+      <c r="AC429" s="6"/>
       <c r="AD429" s="4"/>
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
@@ -35610,7 +35767,7 @@
       <c r="Z430" s="4"/>
       <c r="AA430" s="4"/>
       <c r="AB430" s="4"/>
-      <c r="AC430" s="4"/>
+      <c r="AC430" s="6"/>
       <c r="AD430" s="4"/>
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
@@ -35680,7 +35837,7 @@
       <c r="Z431" s="4"/>
       <c r="AA431" s="4"/>
       <c r="AB431" s="4"/>
-      <c r="AC431" s="4"/>
+      <c r="AC431" s="6"/>
       <c r="AD431" s="4"/>
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
@@ -35750,7 +35907,7 @@
       <c r="Z432" s="4"/>
       <c r="AA432" s="4"/>
       <c r="AB432" s="4"/>
-      <c r="AC432" s="4"/>
+      <c r="AC432" s="6"/>
       <c r="AD432" s="4"/>
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
@@ -35820,7 +35977,7 @@
       <c r="Z433" s="4"/>
       <c r="AA433" s="4"/>
       <c r="AB433" s="4"/>
-      <c r="AC433" s="4"/>
+      <c r="AC433" s="6"/>
       <c r="AD433" s="4"/>
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
@@ -35890,7 +36047,7 @@
       <c r="Z434" s="4"/>
       <c r="AA434" s="4"/>
       <c r="AB434" s="4"/>
-      <c r="AC434" s="4"/>
+      <c r="AC434" s="6"/>
       <c r="AD434" s="4"/>
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
@@ -35960,7 +36117,7 @@
       <c r="Z435" s="4"/>
       <c r="AA435" s="4"/>
       <c r="AB435" s="4"/>
-      <c r="AC435" s="4"/>
+      <c r="AC435" s="6"/>
       <c r="AD435" s="4"/>
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
@@ -36030,7 +36187,7 @@
       <c r="Z436" s="4"/>
       <c r="AA436" s="4"/>
       <c r="AB436" s="4"/>
-      <c r="AC436" s="4"/>
+      <c r="AC436" s="6"/>
       <c r="AD436" s="4"/>
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
@@ -36100,7 +36257,7 @@
       <c r="Z437" s="4"/>
       <c r="AA437" s="4"/>
       <c r="AB437" s="4"/>
-      <c r="AC437" s="4"/>
+      <c r="AC437" s="6"/>
       <c r="AD437" s="4"/>
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
@@ -36170,7 +36327,7 @@
       <c r="Z438" s="4"/>
       <c r="AA438" s="4"/>
       <c r="AB438" s="4"/>
-      <c r="AC438" s="4"/>
+      <c r="AC438" s="6"/>
       <c r="AD438" s="4"/>
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
@@ -36240,7 +36397,7 @@
       <c r="Z439" s="4"/>
       <c r="AA439" s="4"/>
       <c r="AB439" s="4"/>
-      <c r="AC439" s="4"/>
+      <c r="AC439" s="6"/>
       <c r="AD439" s="4"/>
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
@@ -36310,7 +36467,7 @@
       <c r="Z440" s="4"/>
       <c r="AA440" s="4"/>
       <c r="AB440" s="4"/>
-      <c r="AC440" s="4"/>
+      <c r="AC440" s="6"/>
       <c r="AD440" s="4"/>
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
@@ -36380,7 +36537,7 @@
       <c r="Z441" s="4"/>
       <c r="AA441" s="4"/>
       <c r="AB441" s="4"/>
-      <c r="AC441" s="4"/>
+      <c r="AC441" s="6"/>
       <c r="AD441" s="4"/>
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
@@ -36450,7 +36607,7 @@
       <c r="Z442" s="4"/>
       <c r="AA442" s="4"/>
       <c r="AB442" s="4"/>
-      <c r="AC442" s="4"/>
+      <c r="AC442" s="6"/>
       <c r="AD442" s="4"/>
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
@@ -36520,7 +36677,7 @@
       <c r="Z443" s="4"/>
       <c r="AA443" s="4"/>
       <c r="AB443" s="4"/>
-      <c r="AC443" s="4"/>
+      <c r="AC443" s="6"/>
       <c r="AD443" s="4"/>
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
@@ -36590,7 +36747,7 @@
       <c r="Z444" s="4"/>
       <c r="AA444" s="4"/>
       <c r="AB444" s="4"/>
-      <c r="AC444" s="4"/>
+      <c r="AC444" s="6"/>
       <c r="AD444" s="4"/>
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
@@ -36660,7 +36817,7 @@
       <c r="Z445" s="4"/>
       <c r="AA445" s="4"/>
       <c r="AB445" s="4"/>
-      <c r="AC445" s="4"/>
+      <c r="AC445" s="6"/>
       <c r="AD445" s="4"/>
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
@@ -36730,7 +36887,7 @@
       <c r="Z446" s="4"/>
       <c r="AA446" s="4"/>
       <c r="AB446" s="4"/>
-      <c r="AC446" s="4"/>
+      <c r="AC446" s="6"/>
       <c r="AD446" s="4"/>
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
@@ -36800,7 +36957,7 @@
       <c r="Z447" s="4"/>
       <c r="AA447" s="4"/>
       <c r="AB447" s="4"/>
-      <c r="AC447" s="4"/>
+      <c r="AC447" s="6"/>
       <c r="AD447" s="4"/>
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
@@ -36870,7 +37027,7 @@
       <c r="Z448" s="4"/>
       <c r="AA448" s="4"/>
       <c r="AB448" s="4"/>
-      <c r="AC448" s="4"/>
+      <c r="AC448" s="6"/>
       <c r="AD448" s="4"/>
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
@@ -36940,7 +37097,7 @@
       <c r="Z449" s="4"/>
       <c r="AA449" s="4"/>
       <c r="AB449" s="4"/>
-      <c r="AC449" s="4"/>
+      <c r="AC449" s="6"/>
       <c r="AD449" s="4"/>
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
@@ -37010,7 +37167,7 @@
       <c r="Z450" s="4"/>
       <c r="AA450" s="4"/>
       <c r="AB450" s="4"/>
-      <c r="AC450" s="4"/>
+      <c r="AC450" s="6"/>
       <c r="AD450" s="4"/>
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
@@ -37080,7 +37237,7 @@
       <c r="Z451" s="4"/>
       <c r="AA451" s="4"/>
       <c r="AB451" s="4"/>
-      <c r="AC451" s="4"/>
+      <c r="AC451" s="6"/>
       <c r="AD451" s="4"/>
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
@@ -37150,7 +37307,7 @@
       <c r="Z452" s="4"/>
       <c r="AA452" s="4"/>
       <c r="AB452" s="4"/>
-      <c r="AC452" s="4"/>
+      <c r="AC452" s="6"/>
       <c r="AD452" s="4"/>
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
@@ -37220,7 +37377,7 @@
       <c r="Z453" s="4"/>
       <c r="AA453" s="4"/>
       <c r="AB453" s="4"/>
-      <c r="AC453" s="4"/>
+      <c r="AC453" s="6"/>
       <c r="AD453" s="4"/>
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
@@ -37290,7 +37447,7 @@
       <c r="Z454" s="4"/>
       <c r="AA454" s="4"/>
       <c r="AB454" s="4"/>
-      <c r="AC454" s="4"/>
+      <c r="AC454" s="6"/>
       <c r="AD454" s="4"/>
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
@@ -37360,7 +37517,7 @@
       <c r="Z455" s="4"/>
       <c r="AA455" s="4"/>
       <c r="AB455" s="4"/>
-      <c r="AC455" s="4"/>
+      <c r="AC455" s="6"/>
       <c r="AD455" s="4"/>
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
@@ -37430,7 +37587,7 @@
       <c r="Z456" s="4"/>
       <c r="AA456" s="4"/>
       <c r="AB456" s="4"/>
-      <c r="AC456" s="4"/>
+      <c r="AC456" s="6"/>
       <c r="AD456" s="4"/>
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
@@ -37500,7 +37657,7 @@
       <c r="Z457" s="4"/>
       <c r="AA457" s="4"/>
       <c r="AB457" s="4"/>
-      <c r="AC457" s="4"/>
+      <c r="AC457" s="6"/>
       <c r="AD457" s="4"/>
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
@@ -37570,7 +37727,7 @@
       <c r="Z458" s="4"/>
       <c r="AA458" s="4"/>
       <c r="AB458" s="4"/>
-      <c r="AC458" s="4"/>
+      <c r="AC458" s="6"/>
       <c r="AD458" s="4"/>
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
@@ -37640,7 +37797,7 @@
       <c r="Z459" s="4"/>
       <c r="AA459" s="4"/>
       <c r="AB459" s="4"/>
-      <c r="AC459" s="4"/>
+      <c r="AC459" s="6"/>
       <c r="AD459" s="4"/>
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
@@ -37710,7 +37867,7 @@
       <c r="Z460" s="4"/>
       <c r="AA460" s="4"/>
       <c r="AB460" s="4"/>
-      <c r="AC460" s="4"/>
+      <c r="AC460" s="6"/>
       <c r="AD460" s="4"/>
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
@@ -37780,7 +37937,7 @@
       <c r="Z461" s="4"/>
       <c r="AA461" s="4"/>
       <c r="AB461" s="4"/>
-      <c r="AC461" s="4"/>
+      <c r="AC461" s="6"/>
       <c r="AD461" s="4"/>
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
@@ -37850,7 +38007,7 @@
       <c r="Z462" s="4"/>
       <c r="AA462" s="4"/>
       <c r="AB462" s="4"/>
-      <c r="AC462" s="4"/>
+      <c r="AC462" s="6"/>
       <c r="AD462" s="4"/>
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
@@ -37920,7 +38077,7 @@
       <c r="Z463" s="4"/>
       <c r="AA463" s="4"/>
       <c r="AB463" s="4"/>
-      <c r="AC463" s="4"/>
+      <c r="AC463" s="6"/>
       <c r="AD463" s="4"/>
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
@@ -37990,7 +38147,7 @@
       <c r="Z464" s="4"/>
       <c r="AA464" s="4"/>
       <c r="AB464" s="4"/>
-      <c r="AC464" s="4"/>
+      <c r="AC464" s="6"/>
       <c r="AD464" s="4"/>
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
@@ -38060,7 +38217,7 @@
       <c r="Z465" s="4"/>
       <c r="AA465" s="4"/>
       <c r="AB465" s="4"/>
-      <c r="AC465" s="4"/>
+      <c r="AC465" s="6"/>
       <c r="AD465" s="4"/>
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
@@ -38130,7 +38287,7 @@
       <c r="Z466" s="4"/>
       <c r="AA466" s="4"/>
       <c r="AB466" s="4"/>
-      <c r="AC466" s="4"/>
+      <c r="AC466" s="6"/>
       <c r="AD466" s="4"/>
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
@@ -38200,7 +38357,7 @@
       <c r="Z467" s="4"/>
       <c r="AA467" s="4"/>
       <c r="AB467" s="4"/>
-      <c r="AC467" s="4"/>
+      <c r="AC467" s="6"/>
       <c r="AD467" s="4"/>
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3347,10 +3347,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BC18" sqref="BC18"/>
+      <selection pane="bottomLeft" activeCell="BM18" sqref="BM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -965,7 +965,56 @@
     <t>000038</t>
   </si>
   <si>
+    <r>
+      <t>600888(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新疆众和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000039</t>
+  </si>
+  <si>
+    <r>
+      <t>600955(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维远股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>不可以</t>
   </si>
   <si>
     <t>000040</t>
@@ -3347,10 +3396,10 @@
   <sheetPr/>
   <dimension ref="A1:DH547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BM18" sqref="BM18"/>
+      <selection pane="bottomLeft" activeCell="BQ20" sqref="BQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6853,7 +6902,7 @@
       <c r="BF18" s="21"/>
       <c r="BG18" s="21"/>
       <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
+      <c r="BI18" s="75"/>
       <c r="BJ18" s="21">
         <v>143.8</v>
       </c>
@@ -6897,37 +6946,84 @@
       <c r="A19" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="24">
+        <v>44536</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="21">
+        <v>7.83</v>
+      </c>
+      <c r="E19" s="21">
+        <v>8.24</v>
+      </c>
+      <c r="F19" s="21">
+        <v>9.27</v>
+      </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="H19" s="21">
+        <v>9.6</v>
+      </c>
+      <c r="I19" s="21">
+        <v>4.83</v>
+      </c>
+      <c r="J19" s="21">
+        <v>11.8</v>
+      </c>
+      <c r="K19" s="42">
+        <f>(H19-I19)/I19</f>
+        <v>0.987577639751553</v>
+      </c>
+      <c r="L19" s="42">
+        <f>(J19-H19)/J19</f>
+        <v>0.186440677966102</v>
+      </c>
+      <c r="M19" s="21">
+        <v>7.6</v>
+      </c>
+      <c r="N19" s="21">
+        <v>9.65</v>
+      </c>
+      <c r="O19" s="21">
+        <v>8.03</v>
+      </c>
+      <c r="P19" s="21">
+        <v>10.28</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>9.41</v>
+      </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
+      <c r="X19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19" s="42">
+        <f>(J19-M19)/J19</f>
+        <v>0.355932203389831</v>
+      </c>
+      <c r="Z19" s="42">
+        <f>(N19-O19)/N19</f>
+        <v>0.167875647668394</v>
+      </c>
+      <c r="AA19" s="42">
+        <f>(P19-Q19)/P19</f>
+        <v>0.0846303501945525</v>
+      </c>
       <c r="AB19" s="21"/>
       <c r="AC19" s="39"/>
       <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
+      <c r="AE19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF19" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="39"/>
@@ -6954,56 +7050,137 @@
       <c r="BD19" s="21"/>
       <c r="BE19" s="21"/>
       <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="39"/>
-      <c r="BQ19" s="39"/>
-      <c r="BR19" s="88"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="13" spans="1:72">
+      <c r="BG19" s="21">
+        <v>10.54</v>
+      </c>
+      <c r="BH19" s="21">
+        <v>8.35</v>
+      </c>
+      <c r="BI19" s="75">
+        <f>BG19-BH19</f>
+        <v>2.19</v>
+      </c>
+      <c r="BJ19" s="21">
+        <v>10.28</v>
+      </c>
+      <c r="BK19" s="21">
+        <v>9.41</v>
+      </c>
+      <c r="BL19" s="21">
+        <v>12</v>
+      </c>
+      <c r="BM19" s="75">
+        <f>(BJ19-BK19)*100</f>
+        <v>86.9999999999999</v>
+      </c>
+      <c r="BN19" s="79">
+        <f>FLOOR(304/(BJ19-BK19),100)</f>
+        <v>300</v>
+      </c>
+      <c r="BO19" s="80">
+        <f>(BL19-BJ19)/(BJ19-BK19)</f>
+        <v>1.97701149425288</v>
+      </c>
+      <c r="BP19" s="81">
+        <f>(BJ19-BK19)/BJ19</f>
+        <v>0.0846303501945525</v>
+      </c>
+      <c r="BQ19" s="81">
+        <f>(BL19-BJ19)/BJ19</f>
+        <v>0.167315175097276</v>
+      </c>
+      <c r="BR19" s="88">
+        <v>18.1</v>
+      </c>
+      <c r="BS19" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT19" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="36" spans="1:72">
       <c r="A20" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+        <v>158</v>
+      </c>
+      <c r="B20" s="24">
+        <v>44536</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="21">
+        <v>44.31</v>
+      </c>
+      <c r="E20" s="21">
+        <v>44.7</v>
+      </c>
+      <c r="F20" s="21">
+        <v>46.27</v>
+      </c>
       <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="H20" s="21">
+        <v>47.76</v>
+      </c>
+      <c r="I20" s="21">
+        <v>35.47</v>
+      </c>
+      <c r="J20" s="21">
+        <v>61.98</v>
+      </c>
+      <c r="K20" s="42">
+        <f>(H20-I20)/I20</f>
+        <v>0.346489991542148</v>
+      </c>
+      <c r="L20" s="42">
+        <f>(J20-H20)/J20</f>
+        <v>0.229428848015489</v>
+      </c>
+      <c r="M20" s="21">
+        <v>42.05</v>
+      </c>
+      <c r="N20" s="21">
+        <v>52.97</v>
+      </c>
+      <c r="O20" s="21">
+        <v>42.18</v>
+      </c>
+      <c r="P20" s="21">
+        <v>50.93</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>46.13</v>
+      </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
+      <c r="X20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" s="42">
+        <f>(J20-M20)/J20</f>
+        <v>0.321555340432398</v>
+      </c>
+      <c r="Z20" s="42">
+        <f>(N20-O20)/N20</f>
+        <v>0.203700207664716</v>
+      </c>
+      <c r="AA20" s="42">
+        <f>(P20-Q20)/P20</f>
+        <v>0.0942470056940899</v>
+      </c>
       <c r="AB20" s="21"/>
       <c r="AC20" s="39"/>
       <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
+      <c r="AE20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="39"/>
@@ -7030,24 +7207,50 @@
       <c r="BD20" s="21"/>
       <c r="BE20" s="21"/>
       <c r="BF20" s="21"/>
-      <c r="BG20" s="21"/>
-      <c r="BH20" s="21"/>
-      <c r="BI20" s="21"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="21"/>
+      <c r="BG20" s="21">
+        <v>52.82</v>
+      </c>
+      <c r="BH20" s="21">
+        <v>40.96</v>
+      </c>
+      <c r="BI20" s="75">
+        <f>BG20-BH20</f>
+        <v>11.86</v>
+      </c>
+      <c r="BJ20" s="21">
+        <v>50.93</v>
+      </c>
+      <c r="BK20" s="21">
+        <v>46.13</v>
+      </c>
       <c r="BL20" s="21"/>
-      <c r="BM20" s="21"/>
-      <c r="BN20" s="21"/>
-      <c r="BO20" s="21"/>
-      <c r="BP20" s="39"/>
-      <c r="BQ20" s="39"/>
-      <c r="BR20" s="88"/>
-      <c r="BS20" s="21"/>
-      <c r="BT20" s="21"/>
+      <c r="BM20" s="75">
+        <f>(BJ20-BK20)*100</f>
+        <v>480</v>
+      </c>
+      <c r="BN20" s="79">
+        <f>FLOOR(304/(BJ20-BK20),100)</f>
+        <v>0</v>
+      </c>
+      <c r="BO20" s="80"/>
+      <c r="BP20" s="81">
+        <f>(BJ20-BK20)/BJ20</f>
+        <v>0.0942470056940899</v>
+      </c>
+      <c r="BQ20" s="81"/>
+      <c r="BR20" s="88">
+        <v>12</v>
+      </c>
+      <c r="BS20" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="BT20" s="56" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="13" spans="1:72">
       <c r="A21" s="102" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7123,7 +7326,7 @@
     </row>
     <row r="22" ht="13" spans="1:71">
       <c r="A22" s="106" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" s="4"/>
       <c r="D22" s="4"/>
@@ -7195,7 +7398,7 @@
     </row>
     <row r="23" ht="13" spans="1:71">
       <c r="A23" s="106" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4"/>
       <c r="D23" s="4"/>
@@ -7267,7 +7470,7 @@
     </row>
     <row r="24" ht="13" spans="1:71">
       <c r="A24" s="106" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B24" s="4"/>
       <c r="D24" s="4"/>
@@ -7339,7 +7542,7 @@
     </row>
     <row r="25" ht="13" spans="1:71">
       <c r="A25" s="106" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B25" s="4"/>
       <c r="D25" s="4"/>
@@ -7411,7 +7614,7 @@
     </row>
     <row r="26" ht="13" spans="1:71">
       <c r="A26" s="106" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -7483,7 +7686,7 @@
     </row>
     <row r="27" ht="13" spans="1:71">
       <c r="A27" s="106" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -7555,7 +7758,7 @@
     </row>
     <row r="28" ht="13" spans="1:71">
       <c r="A28" s="106" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -7627,7 +7830,7 @@
     </row>
     <row r="29" ht="13" spans="1:71">
       <c r="A29" s="106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -7699,7 +7902,7 @@
     </row>
     <row r="30" ht="13" spans="1:71">
       <c r="A30" s="106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -7771,7 +7974,7 @@
     </row>
     <row r="31" ht="13" spans="1:71">
       <c r="A31" s="106" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -7843,7 +8046,7 @@
     </row>
     <row r="32" ht="13" spans="1:71">
       <c r="A32" s="106" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -7915,7 +8118,7 @@
     </row>
     <row r="33" ht="13" spans="1:71">
       <c r="A33" s="106" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B33" s="4"/>
       <c r="D33" s="4"/>
@@ -7987,7 +8190,7 @@
     </row>
     <row r="34" ht="13" spans="1:71">
       <c r="A34" s="106" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B34" s="4"/>
       <c r="D34" s="4"/>
@@ -8059,7 +8262,7 @@
     </row>
     <row r="35" ht="13" spans="1:71">
       <c r="A35" s="106" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B35" s="4"/>
       <c r="D35" s="4"/>
@@ -8131,7 +8334,7 @@
     </row>
     <row r="36" ht="13" spans="1:71">
       <c r="A36" s="106" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B36" s="4"/>
       <c r="D36" s="4"/>
@@ -8203,7 +8406,7 @@
     </row>
     <row r="37" ht="13" spans="1:71">
       <c r="A37" s="106" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
@@ -8275,7 +8478,7 @@
     </row>
     <row r="38" ht="13" spans="1:71">
       <c r="A38" s="106" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4"/>
       <c r="D38" s="4"/>
@@ -8347,7 +8550,7 @@
     </row>
     <row r="39" ht="13" spans="1:71">
       <c r="A39" s="106" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B39" s="4"/>
       <c r="D39" s="4"/>
@@ -8419,7 +8622,7 @@
     </row>
     <row r="40" ht="13" spans="1:71">
       <c r="A40" s="106" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B40" s="4"/>
       <c r="D40" s="4"/>
@@ -8491,7 +8694,7 @@
     </row>
     <row r="41" ht="13" spans="1:71">
       <c r="A41" s="106" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B41" s="4"/>
       <c r="D41" s="4"/>
@@ -8563,7 +8766,7 @@
     </row>
     <row r="42" ht="13" spans="1:71">
       <c r="A42" s="106" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B42" s="4"/>
       <c r="D42" s="4"/>
@@ -8635,7 +8838,7 @@
     </row>
     <row r="43" ht="13" spans="1:71">
       <c r="A43" s="106" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4"/>
       <c r="D43" s="4"/>
@@ -8707,7 +8910,7 @@
     </row>
     <row r="44" ht="13" spans="1:71">
       <c r="A44" s="106" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B44" s="4"/>
       <c r="D44" s="4"/>
@@ -8779,7 +8982,7 @@
     </row>
     <row r="45" ht="13" spans="1:71">
       <c r="A45" s="106" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4"/>
       <c r="D45" s="4"/>
@@ -8851,7 +9054,7 @@
     </row>
     <row r="46" ht="13" spans="1:71">
       <c r="A46" s="106" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
@@ -8923,7 +9126,7 @@
     </row>
     <row r="47" ht="13" spans="1:71">
       <c r="A47" s="106" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B47" s="4"/>
       <c r="D47" s="4"/>
@@ -8995,7 +9198,7 @@
     </row>
     <row r="48" ht="13" spans="1:71">
       <c r="A48" s="106" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
@@ -9067,7 +9270,7 @@
     </row>
     <row r="49" ht="13" spans="1:71">
       <c r="A49" s="106" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
@@ -9139,7 +9342,7 @@
     </row>
     <row r="50" ht="13" spans="1:71">
       <c r="A50" s="106" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -692,8 +692,7 @@
     <t>57.14%</t>
   </si>
   <si>
-    <t>待执行
-(等待波动一周后)</t>
+    <t>执行中</t>
   </si>
   <si>
     <t>000029</t>
@@ -728,9 +727,6 @@
     </r>
   </si>
   <si>
-    <t>执行中</t>
-  </si>
-  <si>
     <t>000031</t>
   </si>
   <si>
@@ -763,6 +759,13 @@
     </r>
   </si>
   <si>
+    <t>不宜入场
+(等待波动一周后)</t>
+  </si>
+  <si>
+    <t>待执行</t>
+  </si>
+  <si>
     <t>000032</t>
   </si>
   <si>
@@ -786,77 +789,6 @@
         <charset val="134"/>
       </rPr>
       <t>北方稀土</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等待波动一周后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>000034</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000831(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>五矿稀土</t>
     </r>
     <r>
       <rPr>
@@ -931,6 +863,10 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>暂不宜入场
+(等待波动一周后)</t>
   </si>
   <si>
     <t>000037</t>
@@ -1012,9 +948,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>不可以</t>
   </si>
   <si>
     <t>000040</t>
@@ -1907,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1989,15 +1922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,9 +1950,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,13 +1997,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,9 +2093,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2218,12 +2133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3394,12 +3303,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DH547"/>
+  <dimension ref="A1:DH546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BQ20" sqref="BQ20"/>
+      <selection pane="bottomLeft" activeCell="BT19" sqref="BT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3437,8 +3346,8 @@
     <col min="68" max="68" width="11.3035714285714" style="5" customWidth="1"/>
     <col min="69" max="69" width="11.1607142857143" style="6" customWidth="1"/>
     <col min="70" max="70" width="10.2589285714286" style="7" customWidth="1"/>
-    <col min="71" max="71" width="13.8303571428571" customWidth="1"/>
-    <col min="72" max="72" width="11.75" style="4" customWidth="1"/>
+    <col min="71" max="71" width="15.3303571428571" customWidth="1"/>
+    <col min="72" max="72" width="14.2857142857143" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:112">
@@ -3480,36 +3389,36 @@
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="50"/>
+      <c r="AC1" s="46"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
       <c r="BE1" s="11"/>
@@ -3525,47 +3434,47 @@
       <c r="BM1" s="11"/>
       <c r="BN1" s="11"/>
       <c r="BO1" s="11"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="82"/>
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="77"/>
       <c r="BS1" s="11"/>
       <c r="BT1" s="11"/>
-      <c r="BU1" s="92"/>
-      <c r="BV1" s="92"/>
-      <c r="BW1" s="92"/>
-      <c r="BX1" s="92"/>
-      <c r="BY1" s="92"/>
-      <c r="BZ1" s="92"/>
-      <c r="CA1" s="92"/>
-      <c r="CC1" s="98"/>
-      <c r="CD1" s="98"/>
-      <c r="CE1" s="98"/>
-      <c r="CF1" s="98"/>
-      <c r="CG1" s="98"/>
-      <c r="CH1" s="98"/>
-      <c r="CI1" s="98"/>
-      <c r="CJ1" s="98"/>
-      <c r="CL1" s="98"/>
-      <c r="CM1" s="98"/>
-      <c r="CN1" s="98"/>
-      <c r="CO1" s="98"/>
-      <c r="CP1" s="98"/>
-      <c r="CQ1" s="98"/>
-      <c r="CR1" s="98"/>
-      <c r="CT1" s="98"/>
-      <c r="CU1" s="98"/>
-      <c r="CV1" s="98"/>
-      <c r="CW1" s="98"/>
-      <c r="CX1" s="98"/>
-      <c r="CY1" s="98"/>
-      <c r="CZ1" s="98"/>
-      <c r="DB1" s="98"/>
-      <c r="DC1" s="98"/>
-      <c r="DD1" s="98"/>
-      <c r="DE1" s="98"/>
-      <c r="DF1" s="98"/>
-      <c r="DG1" s="98"/>
-      <c r="DH1" s="98"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
+      <c r="BW1" s="86"/>
+      <c r="BX1" s="86"/>
+      <c r="BY1" s="86"/>
+      <c r="BZ1" s="86"/>
+      <c r="CA1" s="86"/>
+      <c r="CC1" s="92"/>
+      <c r="CD1" s="92"/>
+      <c r="CE1" s="92"/>
+      <c r="CF1" s="92"/>
+      <c r="CG1" s="92"/>
+      <c r="CH1" s="92"/>
+      <c r="CI1" s="92"/>
+      <c r="CJ1" s="92"/>
+      <c r="CL1" s="92"/>
+      <c r="CM1" s="92"/>
+      <c r="CN1" s="92"/>
+      <c r="CO1" s="92"/>
+      <c r="CP1" s="92"/>
+      <c r="CQ1" s="92"/>
+      <c r="CR1" s="92"/>
+      <c r="CT1" s="92"/>
+      <c r="CU1" s="92"/>
+      <c r="CV1" s="92"/>
+      <c r="CW1" s="92"/>
+      <c r="CX1" s="92"/>
+      <c r="CY1" s="92"/>
+      <c r="CZ1" s="92"/>
+      <c r="DB1" s="92"/>
+      <c r="DC1" s="92"/>
+      <c r="DD1" s="92"/>
+      <c r="DE1" s="92"/>
+      <c r="DF1" s="92"/>
+      <c r="DG1" s="92"/>
+      <c r="DH1" s="92"/>
     </row>
     <row r="2" ht="23.6" spans="1:112">
       <c r="A2" s="8"/>
@@ -3580,25 +3489,25 @@
       <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="39" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="13"/>
@@ -3616,45 +3525,45 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="51"/>
+      <c r="AC2" s="47"/>
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
       <c r="AF2" s="13"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59" t="s">
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="60" t="s">
+      <c r="AI2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60" t="s">
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60" t="s">
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="31" t="s">
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="28" t="s">
         <v>24</v>
       </c>
       <c r="BD2" s="12"/>
@@ -3665,75 +3574,75 @@
       </c>
       <c r="BH2" s="13"/>
       <c r="BI2" s="13"/>
-      <c r="BJ2" s="31" t="s">
+      <c r="BJ2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BL2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="BM2" s="31" t="s">
+      <c r="BM2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="BN2" s="28" t="s">
         <v>30</v>
       </c>
       <c r="BO2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="51" t="s">
+      <c r="BP2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="51" t="s">
+      <c r="BQ2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="BR2" s="83" t="s">
+      <c r="BR2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="BS2" s="31" t="s">
+      <c r="BS2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="84" t="s">
+      <c r="BT2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="BU2" s="92"/>
-      <c r="BV2" s="92"/>
-      <c r="BW2" s="92"/>
-      <c r="BX2" s="92"/>
-      <c r="BY2" s="92"/>
-      <c r="BZ2" s="92"/>
-      <c r="CA2" s="92"/>
-      <c r="CC2" s="98"/>
-      <c r="CD2" s="98"/>
-      <c r="CE2" s="98"/>
-      <c r="CF2" s="98"/>
-      <c r="CG2" s="98"/>
-      <c r="CH2" s="98"/>
-      <c r="CI2" s="98"/>
-      <c r="CJ2" s="98"/>
-      <c r="CL2" s="98"/>
-      <c r="CM2" s="98"/>
-      <c r="CN2" s="98"/>
-      <c r="CO2" s="98"/>
-      <c r="CP2" s="98"/>
-      <c r="CQ2" s="98"/>
-      <c r="CR2" s="98"/>
-      <c r="CT2" s="98"/>
-      <c r="CU2" s="98"/>
-      <c r="CV2" s="98"/>
-      <c r="CW2" s="98"/>
-      <c r="CX2" s="98"/>
-      <c r="CY2" s="98"/>
-      <c r="CZ2" s="98"/>
-      <c r="DB2" s="98"/>
-      <c r="DC2" s="98"/>
-      <c r="DD2" s="98"/>
-      <c r="DE2" s="98"/>
-      <c r="DF2" s="98"/>
-      <c r="DG2" s="98"/>
-      <c r="DH2" s="98"/>
+      <c r="BU2" s="86"/>
+      <c r="BV2" s="86"/>
+      <c r="BW2" s="86"/>
+      <c r="BX2" s="86"/>
+      <c r="BY2" s="86"/>
+      <c r="BZ2" s="86"/>
+      <c r="CA2" s="86"/>
+      <c r="CC2" s="92"/>
+      <c r="CD2" s="92"/>
+      <c r="CE2" s="92"/>
+      <c r="CF2" s="92"/>
+      <c r="CG2" s="92"/>
+      <c r="CH2" s="92"/>
+      <c r="CI2" s="92"/>
+      <c r="CJ2" s="92"/>
+      <c r="CL2" s="92"/>
+      <c r="CM2" s="92"/>
+      <c r="CN2" s="92"/>
+      <c r="CO2" s="92"/>
+      <c r="CP2" s="92"/>
+      <c r="CQ2" s="92"/>
+      <c r="CR2" s="92"/>
+      <c r="CT2" s="92"/>
+      <c r="CU2" s="92"/>
+      <c r="CV2" s="92"/>
+      <c r="CW2" s="92"/>
+      <c r="CX2" s="92"/>
+      <c r="CY2" s="92"/>
+      <c r="CZ2" s="92"/>
+      <c r="DB2" s="92"/>
+      <c r="DC2" s="92"/>
+      <c r="DD2" s="92"/>
+      <c r="DE2" s="92"/>
+      <c r="DF2" s="92"/>
+      <c r="DG2" s="92"/>
+      <c r="DH2" s="92"/>
     </row>
     <row r="3" ht="48" spans="1:112">
       <c r="A3" s="8"/>
@@ -3744,41 +3653,41 @@
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="30" t="s">
         <v>47</v>
       </c>
       <c r="X3" s="12" t="s">
@@ -3796,7 +3705,7 @@
       <c r="AB3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="47" t="s">
         <v>53</v>
       </c>
       <c r="AD3" s="12" t="s">
@@ -3805,138 +3714,138 @@
       <c r="AE3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AF3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="60" t="s">
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="60" t="s">
+      <c r="AJ3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AK3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="60" t="s">
+      <c r="AL3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="60" t="s">
+      <c r="AM3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="60" t="s">
+      <c r="AN3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="60" t="s">
+      <c r="AO3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="60" t="s">
+      <c r="AP3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="60" t="s">
+      <c r="AQ3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="60" t="s">
+      <c r="AR3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="60" t="s">
+      <c r="AS3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="60" t="s">
+      <c r="AT3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="60" t="s">
+      <c r="AU3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="60" t="s">
+      <c r="AV3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="60" t="s">
+      <c r="AW3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="60" t="s">
+      <c r="AX3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="60" t="s">
+      <c r="AY3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="60" t="s">
+      <c r="AZ3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="60" t="s">
+      <c r="BA3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="60" t="s">
+      <c r="BB3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="70" t="s">
+      <c r="BC3" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="70" t="s">
+      <c r="BD3" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="72" t="s">
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="72" t="s">
+      <c r="BH3" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="71" t="s">
+      <c r="BI3" s="66" t="s">
         <v>65</v>
       </c>
       <c r="BJ3" s="13"/>
       <c r="BK3" s="13"/>
       <c r="BL3" s="13"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
+      <c r="BM3" s="28"/>
+      <c r="BN3" s="28"/>
       <c r="BO3" s="13"/>
-      <c r="BP3" s="51"/>
-      <c r="BQ3" s="51"/>
-      <c r="BR3" s="83"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="78"/>
       <c r="BS3" s="13"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="92"/>
-      <c r="BV3" s="92"/>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="92"/>
-      <c r="BY3" s="92"/>
-      <c r="BZ3" s="92"/>
-      <c r="CA3" s="92"/>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="98"/>
-      <c r="CE3" s="98"/>
-      <c r="CF3" s="98"/>
-      <c r="CG3" s="98"/>
-      <c r="CH3" s="98"/>
-      <c r="CI3" s="98"/>
-      <c r="CJ3" s="98"/>
-      <c r="CL3" s="98"/>
-      <c r="CM3" s="98"/>
-      <c r="CN3" s="98"/>
-      <c r="CO3" s="98"/>
-      <c r="CP3" s="98"/>
-      <c r="CQ3" s="98"/>
-      <c r="CR3" s="98"/>
-      <c r="CT3" s="98"/>
-      <c r="CU3" s="98"/>
-      <c r="CV3" s="98"/>
-      <c r="CW3" s="98"/>
-      <c r="CX3" s="98"/>
-      <c r="CY3" s="98"/>
-      <c r="CZ3" s="98"/>
-      <c r="DB3" s="98"/>
-      <c r="DC3" s="98"/>
-      <c r="DD3" s="98"/>
-      <c r="DE3" s="98"/>
-      <c r="DF3" s="98"/>
-      <c r="DG3" s="98"/>
-      <c r="DH3" s="98"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="86"/>
+      <c r="BV3" s="86"/>
+      <c r="BW3" s="86"/>
+      <c r="BX3" s="86"/>
+      <c r="BY3" s="86"/>
+      <c r="BZ3" s="86"/>
+      <c r="CA3" s="86"/>
+      <c r="CC3" s="92"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="92"/>
+      <c r="CF3" s="92"/>
+      <c r="CG3" s="92"/>
+      <c r="CH3" s="92"/>
+      <c r="CI3" s="92"/>
+      <c r="CJ3" s="92"/>
+      <c r="CL3" s="92"/>
+      <c r="CM3" s="92"/>
+      <c r="CN3" s="92"/>
+      <c r="CO3" s="92"/>
+      <c r="CP3" s="92"/>
+      <c r="CQ3" s="92"/>
+      <c r="CR3" s="92"/>
+      <c r="CT3" s="92"/>
+      <c r="CU3" s="92"/>
+      <c r="CV3" s="92"/>
+      <c r="CW3" s="92"/>
+      <c r="CX3" s="92"/>
+      <c r="CY3" s="92"/>
+      <c r="CZ3" s="92"/>
+      <c r="DB3" s="92"/>
+      <c r="DC3" s="92"/>
+      <c r="DD3" s="92"/>
+      <c r="DE3" s="92"/>
+      <c r="DF3" s="92"/>
+      <c r="DG3" s="92"/>
+      <c r="DH3" s="92"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:112">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="94" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="14">
@@ -3954,7 +3863,7 @@
       <c r="F4" s="16">
         <v>24.52</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="16">
@@ -3966,11 +3875,11 @@
       <c r="J4" s="16">
         <v>46.33</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="34">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="34">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
@@ -4001,67 +3910,67 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="V4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="34">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="34">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="34">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="34">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="34">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="52">
+      <c r="AD4" s="48">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="47" t="s">
+      <c r="AE4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AF4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
       <c r="BC4" s="16"/>
       <c r="BD4" s="16"/>
       <c r="BE4" s="16"/>
@@ -4093,66 +4002,66 @@
         <f t="shared" ref="BN4:BN9" si="1">FLOOR(300/(BJ4-BK4),100)</f>
         <v>100</v>
       </c>
-      <c r="BO4" s="76">
+      <c r="BO4" s="71">
         <f>(BL4-BJ4)/(BJ4-BK4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BP4" s="37">
+      <c r="BP4" s="34">
         <f>(BJ4-BK4)/BJ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BQ4" s="37">
+      <c r="BQ4" s="34">
         <f>(BL4-BJ4)/BJ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BR4" s="86">
+      <c r="BR4" s="81">
         <v>150.88</v>
       </c>
-      <c r="BS4" s="53" t="s">
+      <c r="BS4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" s="55" t="s">
+      <c r="BT4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="94"/>
-      <c r="BY4" s="94"/>
-      <c r="BZ4" s="94"/>
-      <c r="CA4" s="94"/>
-      <c r="CC4" s="99"/>
-      <c r="CD4" s="99"/>
-      <c r="CE4" s="99"/>
-      <c r="CF4" s="99"/>
-      <c r="CG4" s="99"/>
-      <c r="CH4" s="99"/>
-      <c r="CI4" s="99"/>
-      <c r="CJ4" s="99"/>
-      <c r="CL4" s="99"/>
-      <c r="CM4" s="99"/>
-      <c r="CN4" s="99"/>
-      <c r="CO4" s="99"/>
-      <c r="CP4" s="99"/>
-      <c r="CQ4" s="99"/>
-      <c r="CR4" s="99"/>
-      <c r="CT4" s="99"/>
-      <c r="CU4" s="99"/>
-      <c r="CV4" s="99"/>
-      <c r="CW4" s="99"/>
-      <c r="CX4" s="99"/>
-      <c r="CY4" s="99"/>
-      <c r="CZ4" s="99"/>
-      <c r="DB4" s="99"/>
-      <c r="DC4" s="99"/>
-      <c r="DD4" s="99"/>
-      <c r="DE4" s="99"/>
-      <c r="DF4" s="99"/>
-      <c r="DG4" s="99"/>
-      <c r="DH4" s="99"/>
+      <c r="BU4" s="87"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CC4" s="93"/>
+      <c r="CD4" s="93"/>
+      <c r="CE4" s="93"/>
+      <c r="CF4" s="93"/>
+      <c r="CG4" s="93"/>
+      <c r="CH4" s="93"/>
+      <c r="CI4" s="93"/>
+      <c r="CJ4" s="93"/>
+      <c r="CL4" s="93"/>
+      <c r="CM4" s="93"/>
+      <c r="CN4" s="93"/>
+      <c r="CO4" s="93"/>
+      <c r="CP4" s="93"/>
+      <c r="CQ4" s="93"/>
+      <c r="CR4" s="93"/>
+      <c r="CT4" s="93"/>
+      <c r="CU4" s="93"/>
+      <c r="CV4" s="93"/>
+      <c r="CW4" s="93"/>
+      <c r="CX4" s="93"/>
+      <c r="CY4" s="93"/>
+      <c r="CZ4" s="93"/>
+      <c r="DB4" s="93"/>
+      <c r="DC4" s="93"/>
+      <c r="DD4" s="93"/>
+      <c r="DE4" s="93"/>
+      <c r="DF4" s="93"/>
+      <c r="DG4" s="93"/>
+      <c r="DH4" s="93"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:73">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="94" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="14">
@@ -4170,7 +4079,7 @@
       <c r="F5" s="16">
         <v>33.17</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="16">
@@ -4182,11 +4091,11 @@
       <c r="J5" s="16">
         <v>44.42</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="34">
         <f t="shared" ref="K5:K17" si="2">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="34">
         <f t="shared" ref="L5:L17" si="3">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
@@ -4211,97 +4120,97 @@
       <c r="S5" s="16">
         <v>32.53</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="X5" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="37">
+      <c r="Y5" s="34">
         <f t="shared" ref="Y5:Y17" si="4">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="34">
         <f t="shared" ref="Z5:Z17" si="5">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="34">
         <f t="shared" ref="AA5:AA17" si="6">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="37">
+      <c r="AB5" s="34">
         <f t="shared" ref="AB5:AB17" si="7">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="37" t="e">
+      <c r="AC5" s="34" t="e">
         <f>(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AE5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="53" t="s">
+      <c r="AF5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53" t="s">
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="34">
         <v>0.0351</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="34">
         <v>0.3603</v>
       </c>
-      <c r="AK5" s="37">
+      <c r="AK5" s="34">
         <v>0.3371</v>
       </c>
-      <c r="AL5" s="37">
+      <c r="AL5" s="34">
         <v>0.2435</v>
       </c>
-      <c r="AM5" s="37">
+      <c r="AM5" s="34">
         <v>0.263</v>
       </c>
-      <c r="AN5" s="37">
+      <c r="AN5" s="34">
         <v>0.003</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AO5" s="34">
         <v>0.0758</v>
       </c>
-      <c r="AP5" s="37">
+      <c r="AP5" s="34">
         <v>-0.2476</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AQ5" s="34">
         <v>0.0073</v>
       </c>
-      <c r="AR5" s="37">
+      <c r="AR5" s="34">
         <v>0.2143</v>
       </c>
-      <c r="AS5" s="37">
+      <c r="AS5" s="34">
         <v>0.156</v>
       </c>
-      <c r="AT5" s="37">
+      <c r="AT5" s="34">
         <v>0.1125</v>
       </c>
-      <c r="AU5" s="69">
+      <c r="AU5" s="64">
         <v>0.2584</v>
       </c>
-      <c r="AV5" s="69">
+      <c r="AV5" s="64">
         <v>-0.0411</v>
       </c>
-      <c r="AW5" s="69">
+      <c r="AW5" s="64">
         <v>0.0156</v>
       </c>
-      <c r="AX5" s="69">
+      <c r="AX5" s="64">
         <v>-0.167</v>
       </c>
-      <c r="AY5" s="69">
+      <c r="AY5" s="64">
         <v>0.4704</v>
       </c>
-      <c r="AZ5" s="69">
+      <c r="AZ5" s="64">
         <v>0.4673</v>
       </c>
-      <c r="BA5" s="69">
+      <c r="BA5" s="64">
         <v>0.4797</v>
       </c>
-      <c r="BB5" s="69">
+      <c r="BB5" s="64">
         <v>0.4796</v>
       </c>
       <c r="BC5" s="16"/>
@@ -4335,31 +4244,31 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="BO5" s="76">
+      <c r="BO5" s="71">
         <f t="shared" ref="BO5:BO17" si="9">(BL5-BJ5)/(BJ5-BK5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BP5" s="37">
+      <c r="BP5" s="34">
         <f t="shared" ref="BP5:BP17" si="10">(BJ5-BK5)/BJ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BQ5" s="37">
+      <c r="BQ5" s="34">
         <f t="shared" ref="BQ5:BQ17" si="11">(BL5-BJ5)/BJ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BR5" s="86">
+      <c r="BR5" s="81">
         <v>37.41</v>
       </c>
-      <c r="BS5" s="47" t="s">
+      <c r="BS5" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="BT5" s="55" t="s">
+      <c r="BT5" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU5" s="95"/>
+      <c r="BU5" s="89"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="94" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="14">
@@ -4377,7 +4286,7 @@
       <c r="F6" s="16">
         <v>31.53</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="16">
@@ -4389,11 +4298,11 @@
       <c r="J6" s="16">
         <v>41.5</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="34">
         <f t="shared" si="2"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <f t="shared" si="3"/>
         <v>0.215180722891566</v>
       </c>
@@ -4412,108 +4321,108 @@
       <c r="Q6" s="16">
         <v>30.89</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="40">
         <v>34.66</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="41">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="47" t="s">
+      <c r="X6" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="34">
         <f t="shared" si="4"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="34">
         <f t="shared" si="5"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="37">
+      <c r="AA6" s="34">
         <f t="shared" si="6"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="37">
+      <c r="AB6" s="34">
         <f t="shared" si="7"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="37" t="e">
+      <c r="AC6" s="34" t="e">
         <f>(T6-U6)/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="47" t="s">
+      <c r="AE6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="53" t="s">
+      <c r="AF6" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53" t="s">
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="63" t="s">
+      <c r="AI6" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="63" t="s">
+      <c r="AJ6" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="63" t="s">
+      <c r="AK6" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" s="63" t="s">
+      <c r="AL6" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="63" t="s">
+      <c r="AM6" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="63" t="s">
+      <c r="AN6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="63" t="s">
+      <c r="AO6" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" s="63" t="s">
+      <c r="AP6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" s="63" t="s">
+      <c r="AQ6" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="63" t="s">
+      <c r="AR6" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="63" t="s">
+      <c r="AS6" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="63" t="s">
+      <c r="AT6" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="AU6" s="63">
+      <c r="AU6" s="58">
         <v>0.0455</v>
       </c>
-      <c r="AV6" s="63">
+      <c r="AV6" s="58">
         <v>-0.0116</v>
       </c>
-      <c r="AW6" s="63">
+      <c r="AW6" s="58">
         <v>0.1549</v>
       </c>
-      <c r="AX6" s="63">
+      <c r="AX6" s="58">
         <v>-0.1474</v>
       </c>
-      <c r="AY6" s="63">
+      <c r="AY6" s="58">
         <v>0.2133</v>
       </c>
-      <c r="AZ6" s="63">
+      <c r="AZ6" s="58">
         <v>0.1848</v>
       </c>
-      <c r="BA6" s="37">
+      <c r="BA6" s="34">
         <v>0.1718</v>
       </c>
-      <c r="BB6" s="37">
+      <c r="BB6" s="34">
         <v>0.1605</v>
       </c>
       <c r="BC6" s="16"/>
@@ -4547,31 +4456,31 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="BO6" s="76">
+      <c r="BO6" s="71">
         <f t="shared" si="9"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BP6" s="37">
+      <c r="BP6" s="34">
         <f t="shared" si="10"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BQ6" s="37">
+      <c r="BQ6" s="34">
         <f t="shared" si="11"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BR6" s="86">
+      <c r="BR6" s="81">
         <v>28.82</v>
       </c>
-      <c r="BS6" s="47" t="s">
+      <c r="BS6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="BT6" s="55" t="s">
+      <c r="BT6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU6" s="96"/>
+      <c r="BU6" s="90"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="94" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="17">
@@ -4601,11 +4510,11 @@
       <c r="J7" s="19">
         <v>90.29</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <f t="shared" si="2"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <f t="shared" si="3"/>
         <v>0.234023701406579</v>
       </c>
@@ -4639,92 +4548,92 @@
       <c r="X7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="34">
         <f t="shared" si="4"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="34">
         <f t="shared" si="5"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="34">
         <f t="shared" si="6"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="37">
+      <c r="AB7" s="34">
         <f t="shared" si="7"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="38"/>
+      <c r="AC7" s="35"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AF7" s="54" t="s">
+      <c r="AF7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54">
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50">
         <v>10.35</v>
       </c>
-      <c r="AI7" s="63" t="s">
+      <c r="AI7" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="63" t="s">
+      <c r="AJ7" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="63" t="s">
+      <c r="AK7" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="63" t="s">
+      <c r="AL7" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="63" t="s">
+      <c r="AM7" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" s="63" t="s">
+      <c r="AN7" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="AP7" s="63" t="s">
+      <c r="AP7" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AQ7" s="63" t="s">
+      <c r="AQ7" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AR7" s="63" t="s">
+      <c r="AR7" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" s="63" t="s">
+      <c r="AS7" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AT7" s="63" t="s">
+      <c r="AT7" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="AU7" s="63" t="s">
+      <c r="AU7" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="63" t="s">
+      <c r="AV7" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="AW7" s="63" t="s">
+      <c r="AW7" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AX7" s="63" t="s">
+      <c r="AX7" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="63" t="s">
+      <c r="AY7" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AZ7" s="63" t="s">
+      <c r="AZ7" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="BA7" s="37">
+      <c r="BA7" s="34">
         <v>0.7636</v>
       </c>
-      <c r="BB7" s="37">
+      <c r="BB7" s="34">
         <v>0.7607</v>
       </c>
       <c r="BC7" s="19"/>
@@ -4758,31 +4667,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BO7" s="76">
+      <c r="BO7" s="71">
         <f t="shared" si="9"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BP7" s="37">
+      <c r="BP7" s="34">
         <f t="shared" si="10"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BQ7" s="37">
+      <c r="BQ7" s="34">
         <f t="shared" si="11"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BR7" s="87">
+      <c r="BR7" s="82">
         <v>6.49</v>
       </c>
-      <c r="BS7" s="54" t="s">
+      <c r="BS7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="BT7" s="55" t="s">
+      <c r="BT7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU7" s="96"/>
+      <c r="BU7" s="90"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:73">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="95" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="17">
@@ -4810,11 +4719,11 @@
       <c r="J8" s="19">
         <v>48.5</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="35">
         <f t="shared" si="2"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="35">
         <f t="shared" si="3"/>
         <v>0.387835051546392</v>
       </c>
@@ -4842,23 +4751,23 @@
       <c r="X8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="35">
         <f t="shared" si="4"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="35">
         <f t="shared" si="5"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="35">
         <f t="shared" si="6"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="38" t="e">
+      <c r="AB8" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="38" t="e">
+      <c r="AC8" s="35" t="e">
         <f>(T8-U8)/T8</f>
         <v>#DIV/0!</v>
       </c>
@@ -4866,31 +4775,31 @@
       <c r="AE8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="54" t="s">
+      <c r="AF8" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
       <c r="BC8" s="19"/>
       <c r="BD8" s="19"/>
       <c r="BE8" s="19"/>
@@ -4901,7 +4810,7 @@
       <c r="BH8" s="19">
         <v>26.16</v>
       </c>
-      <c r="BI8" s="73">
+      <c r="BI8" s="68">
         <f t="shared" si="8"/>
         <v>6.27</v>
       </c>
@@ -4914,7 +4823,7 @@
       <c r="BL8" s="19">
         <v>38.71</v>
       </c>
-      <c r="BM8" s="73">
+      <c r="BM8" s="68">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -4922,31 +4831,31 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="BO8" s="77">
+      <c r="BO8" s="72">
         <f t="shared" si="9"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BP8" s="38">
+      <c r="BP8" s="35">
         <f t="shared" si="10"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BQ8" s="38">
+      <c r="BQ8" s="35">
         <f t="shared" si="11"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BR8" s="87">
+      <c r="BR8" s="82">
         <v>38.46</v>
       </c>
-      <c r="BS8" s="54" t="s">
+      <c r="BS8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" s="55" t="s">
+      <c r="BT8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU8" s="96"/>
+      <c r="BU8" s="90"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13" spans="1:73">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="95" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="20">
@@ -4974,11 +4883,11 @@
       <c r="J9" s="2">
         <v>31.94</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="34">
         <f t="shared" si="2"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="34">
         <f t="shared" si="3"/>
         <v>0.0923606762680026</v>
       </c>
@@ -5010,23 +4919,23 @@
       <c r="X9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="34">
         <f t="shared" si="4"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="34">
         <f t="shared" si="5"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="37">
+      <c r="AA9" s="34">
         <f t="shared" si="6"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="34">
         <f t="shared" si="7"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="38" t="e">
+      <c r="AC9" s="35" t="e">
         <f>(T9-U9)/T9</f>
         <v>#DIV/0!</v>
       </c>
@@ -5034,71 +4943,71 @@
       <c r="AE9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="55" t="s">
+      <c r="AF9" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55">
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51">
         <v>6.25</v>
       </c>
-      <c r="AI9" s="63">
+      <c r="AI9" s="58">
         <v>1.5016</v>
       </c>
-      <c r="AJ9" s="63">
+      <c r="AJ9" s="58">
         <v>5.5181</v>
       </c>
-      <c r="AK9" s="63">
+      <c r="AK9" s="58">
         <v>3.3249</v>
       </c>
-      <c r="AL9" s="63">
+      <c r="AL9" s="58">
         <v>1.8449</v>
       </c>
-      <c r="AM9" s="63">
+      <c r="AM9" s="58">
         <v>0.3554</v>
       </c>
-      <c r="AN9" s="63">
+      <c r="AN9" s="58">
         <v>0.2495</v>
       </c>
-      <c r="AO9" s="63">
+      <c r="AO9" s="58">
         <v>0.1071</v>
       </c>
-      <c r="AP9" s="63">
+      <c r="AP9" s="58">
         <v>-0.134</v>
       </c>
-      <c r="AQ9" s="63">
+      <c r="AQ9" s="58">
         <v>0.0437</v>
       </c>
-      <c r="AR9" s="63">
+      <c r="AR9" s="58">
         <v>1.1403</v>
       </c>
-      <c r="AS9" s="63">
+      <c r="AS9" s="58">
         <v>1.4349</v>
       </c>
-      <c r="AT9" s="63">
+      <c r="AT9" s="58">
         <v>1.2425</v>
       </c>
-      <c r="AU9" s="63">
+      <c r="AU9" s="58">
         <v>0.2131</v>
       </c>
-      <c r="AV9" s="63">
+      <c r="AV9" s="58">
         <v>0.2062</v>
       </c>
-      <c r="AW9" s="63">
+      <c r="AW9" s="58">
         <v>0.334</v>
       </c>
-      <c r="AX9" s="63">
+      <c r="AX9" s="58">
         <v>0.0105</v>
       </c>
-      <c r="AY9" s="63">
+      <c r="AY9" s="58">
         <v>0.3392</v>
       </c>
-      <c r="AZ9" s="63">
+      <c r="AZ9" s="58">
         <v>0.3777</v>
       </c>
-      <c r="BA9" s="37">
+      <c r="BA9" s="34">
         <v>0.3722</v>
       </c>
-      <c r="BB9" s="37">
+      <c r="BB9" s="34">
         <v>0.3621</v>
       </c>
       <c r="BC9" s="2"/>
@@ -5132,31 +5041,31 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="BO9" s="76">
+      <c r="BO9" s="71">
         <f t="shared" si="9"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BP9" s="37">
+      <c r="BP9" s="34">
         <f t="shared" si="10"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BQ9" s="37">
+      <c r="BQ9" s="34">
         <f t="shared" si="11"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BR9" s="86">
+      <c r="BR9" s="81">
         <v>17.95</v>
       </c>
-      <c r="BS9" s="55" t="s">
+      <c r="BS9" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="BT9" s="55" t="s">
+      <c r="BT9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="BU9" s="96"/>
-    </row>
-    <row r="10" ht="36" spans="1:72">
-      <c r="A10" s="102" t="s">
+      <c r="BU9" s="90"/>
+    </row>
+    <row r="10" ht="13" spans="1:72">
+      <c r="A10" s="96" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="22">
@@ -5184,11 +5093,11 @@
       <c r="J10" s="21">
         <v>26.64</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="36">
         <f t="shared" si="2"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="36">
         <f t="shared" si="3"/>
         <v>0.123498498498498</v>
       </c>
@@ -5220,92 +5129,95 @@
       <c r="X10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="44">
         <f t="shared" si="4"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="48">
+      <c r="Z10" s="44">
         <f t="shared" si="5"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="48">
+      <c r="AA10" s="44">
         <f t="shared" si="6"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="48">
+      <c r="AB10" s="44">
         <f t="shared" si="7"/>
         <v>0.0839506172839506</v>
       </c>
-      <c r="AC10" s="39"/>
+      <c r="AC10" s="52" t="e">
+        <f>(T10-U10)/T10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AF10" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56">
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="65" t="s">
+      <c r="AI10" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="65" t="s">
+      <c r="AJ10" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="65" t="s">
+      <c r="AK10" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="65" t="s">
+      <c r="AL10" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="67">
+      <c r="AM10" s="62">
         <v>2.6193</v>
       </c>
-      <c r="AN10" s="67">
+      <c r="AN10" s="62">
         <v>0.0893</v>
       </c>
-      <c r="AO10" s="67">
+      <c r="AO10" s="62">
         <v>-0.0175</v>
       </c>
-      <c r="AP10" s="67">
+      <c r="AP10" s="62">
         <v>-0.2195</v>
       </c>
-      <c r="AQ10" s="65">
+      <c r="AQ10" s="60">
         <v>-0.0419</v>
       </c>
-      <c r="AR10" s="65">
+      <c r="AR10" s="60">
         <v>0.1981</v>
       </c>
-      <c r="AS10" s="65">
+      <c r="AS10" s="60">
         <v>0.198</v>
       </c>
-      <c r="AT10" s="65">
+      <c r="AT10" s="60">
         <v>0.1998</v>
       </c>
-      <c r="AU10" s="66">
+      <c r="AU10" s="61">
         <v>0.1893</v>
       </c>
-      <c r="AV10" s="65">
+      <c r="AV10" s="60">
         <v>-0.0513</v>
       </c>
-      <c r="AW10" s="65">
+      <c r="AW10" s="60">
         <v>0.0188</v>
       </c>
-      <c r="AX10" s="65">
+      <c r="AX10" s="60">
         <v>0.0467</v>
       </c>
-      <c r="AY10" s="66">
+      <c r="AY10" s="61">
         <v>0.2619</v>
       </c>
-      <c r="AZ10" s="66">
+      <c r="AZ10" s="61">
         <v>0.259</v>
       </c>
-      <c r="BA10" s="39">
+      <c r="BA10" s="36">
         <v>0.2791</v>
       </c>
-      <c r="BB10" s="39">
+      <c r="BB10" s="36">
         <v>0.1079</v>
       </c>
       <c r="BC10" s="21"/>
@@ -5313,14 +5225,14 @@
       <c r="BE10" s="21"/>
       <c r="BF10" s="21"/>
       <c r="BG10" s="21">
-        <v>25.59</v>
+        <v>25.31</v>
       </c>
       <c r="BH10" s="21">
-        <v>18.59</v>
-      </c>
-      <c r="BI10" s="74">
+        <v>19.08</v>
+      </c>
+      <c r="BI10" s="69">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6.23</v>
       </c>
       <c r="BJ10" s="21">
         <v>24.28</v>
@@ -5331,38 +5243,38 @@
       <c r="BL10" s="21">
         <v>26.72</v>
       </c>
-      <c r="BM10" s="74">
+      <c r="BM10" s="69">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="BN10" s="21">
-        <f t="shared" ref="BN10:BN17" si="12">FLOOR(304/(BJ10-BK10),100)</f>
+        <f>FLOOR(304/(BJ10-BK10),100)</f>
         <v>100</v>
       </c>
-      <c r="BO10" s="78">
+      <c r="BO10" s="73">
         <f t="shared" si="9"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BP10" s="39">
+      <c r="BP10" s="36">
         <f t="shared" si="10"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BQ10" s="39">
+      <c r="BQ10" s="36">
         <f t="shared" si="11"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BR10" s="88">
+      <c r="BR10" s="83">
         <v>56.67</v>
       </c>
-      <c r="BS10" s="56" t="s">
+      <c r="BS10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT10" s="56" t="s">
+      <c r="BT10" s="53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" ht="13" spans="1:72">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="96" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="24">
@@ -5390,11 +5302,11 @@
       <c r="J11" s="21">
         <v>29.28</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="36">
         <f t="shared" si="2"/>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="36">
         <f t="shared" si="3"/>
         <v>0.238729508196721</v>
       </c>
@@ -5419,99 +5331,106 @@
       <c r="S11" s="21">
         <v>21.6</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="T11" s="21">
+        <v>23.05</v>
+      </c>
+      <c r="U11" s="21">
+        <v>21.87</v>
+      </c>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="Y11" s="48">
+      <c r="Y11" s="44">
         <f t="shared" si="4"/>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="48">
+      <c r="Z11" s="44">
         <f t="shared" si="5"/>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="48">
+      <c r="AA11" s="44">
         <f t="shared" si="6"/>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="48">
+      <c r="AB11" s="44">
         <f t="shared" si="7"/>
         <v>0.0749464668094218</v>
       </c>
-      <c r="AC11" s="39"/>
+      <c r="AC11" s="52">
+        <f>(T11-U11)/T11</f>
+        <v>0.0511930585683297</v>
+      </c>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="56" t="s">
+      <c r="AF11" s="53" t="s">
         <v>130</v>
       </c>
       <c r="AG11" s="21"/>
       <c r="AH11" s="21">
         <v>8.51</v>
       </c>
-      <c r="AI11" s="39">
+      <c r="AI11" s="36">
         <v>3.6019</v>
       </c>
-      <c r="AJ11" s="39">
+      <c r="AJ11" s="36">
         <v>16.933</v>
       </c>
-      <c r="AK11" s="39">
+      <c r="AK11" s="36">
         <v>7.9794</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="36">
         <v>3.2905</v>
       </c>
-      <c r="AM11" s="39">
+      <c r="AM11" s="36">
         <v>1.3176</v>
       </c>
-      <c r="AN11" s="39">
+      <c r="AN11" s="36">
         <v>0.0128</v>
       </c>
-      <c r="AO11" s="68">
+      <c r="AO11" s="63">
         <v>-0.2701</v>
       </c>
-      <c r="AP11" s="68">
+      <c r="AP11" s="63">
         <v>0.2668</v>
       </c>
-      <c r="AQ11" s="39">
+      <c r="AQ11" s="36">
         <v>0.0496</v>
       </c>
-      <c r="AR11" s="39">
+      <c r="AR11" s="36">
         <v>0.7137</v>
       </c>
-      <c r="AS11" s="68">
+      <c r="AS11" s="63">
         <v>0.3284</v>
       </c>
-      <c r="AT11" s="68">
+      <c r="AT11" s="63">
         <v>0.4288</v>
       </c>
-      <c r="AU11" s="39">
+      <c r="AU11" s="36">
         <v>0.52</v>
       </c>
-      <c r="AV11" s="68">
+      <c r="AV11" s="63">
         <v>-0.119</v>
       </c>
-      <c r="AW11" s="68">
+      <c r="AW11" s="63">
         <v>0.0208</v>
       </c>
-      <c r="AX11" s="68">
+      <c r="AX11" s="63">
         <v>0.1948</v>
       </c>
-      <c r="AY11" s="39">
+      <c r="AY11" s="36">
         <v>0.1781</v>
       </c>
-      <c r="AZ11" s="39">
+      <c r="AZ11" s="36">
         <v>0.2286</v>
       </c>
-      <c r="BA11" s="39">
+      <c r="BA11" s="36">
         <v>0.2077</v>
       </c>
-      <c r="BB11" s="39">
+      <c r="BB11" s="36">
         <v>0.1904</v>
       </c>
       <c r="BC11" s="21"/>
@@ -5524,58 +5443,58 @@
       <c r="BH11" s="21">
         <v>18.22</v>
       </c>
-      <c r="BI11" s="74">
+      <c r="BI11" s="69">
         <f t="shared" si="8"/>
         <v>5.98</v>
       </c>
       <c r="BJ11" s="21">
-        <v>23.35</v>
+        <v>23.05</v>
       </c>
       <c r="BK11" s="21">
-        <v>21.6</v>
+        <v>21.87</v>
       </c>
       <c r="BL11" s="21">
         <v>28.54</v>
       </c>
-      <c r="BM11" s="74">
+      <c r="BM11" s="69">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="BN11" s="21">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="BO11" s="78">
-        <f t="shared" si="9"/>
-        <v>2.96571428571428</v>
-      </c>
-      <c r="BP11" s="39">
-        <f t="shared" si="10"/>
-        <v>0.0749464668094218</v>
-      </c>
-      <c r="BQ11" s="39">
-        <f t="shared" si="11"/>
-        <v>0.222269807280514</v>
-      </c>
-      <c r="BR11" s="88">
+        <f>FLOOR(304/(BJ11-BK11),100)</f>
+        <v>200</v>
+      </c>
+      <c r="BO11" s="73">
+        <f>(BL11-BJ11)/(BJ11-BK11)</f>
+        <v>4.65254237288136</v>
+      </c>
+      <c r="BP11" s="36">
+        <f>(BJ11-BK11)/BJ11</f>
+        <v>0.0511930585683297</v>
+      </c>
+      <c r="BQ11" s="36">
+        <f>(BL11-BJ11)/BJ11</f>
+        <v>0.238177874186551</v>
+      </c>
+      <c r="BR11" s="83">
         <v>39.84</v>
       </c>
-      <c r="BS11" s="56" t="s">
+      <c r="BS11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="56" t="s">
+      <c r="BT11" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:72">
+      <c r="A12" s="96" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="12" ht="13" spans="1:72">
-      <c r="A12" s="102" t="s">
-        <v>141</v>
       </c>
       <c r="B12" s="24">
         <v>44533</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="21">
         <v>30.42</v>
@@ -5596,11 +5515,11 @@
       <c r="J12" s="21">
         <v>41.66</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="36">
         <f t="shared" si="2"/>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="36">
         <f t="shared" si="3"/>
         <v>0.0470475276044166</v>
       </c>
@@ -5623,7 +5542,7 @@
         <v>41.38</v>
       </c>
       <c r="S12" s="21">
-        <v>38.36</v>
+        <v>37.94</v>
       </c>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -5632,23 +5551,23 @@
       <c r="X12" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" s="48">
+      <c r="Y12" s="44">
         <f t="shared" si="4"/>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="48">
+      <c r="Z12" s="44">
         <f t="shared" si="5"/>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="48">
+      <c r="AA12" s="44">
         <f t="shared" si="6"/>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="48">
+      <c r="AB12" s="44">
         <f t="shared" si="7"/>
-        <v>0.0729821169647173</v>
-      </c>
-      <c r="AC12" s="39"/>
+        <v>0.0831319478008701</v>
+      </c>
+      <c r="AC12" s="36"/>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21" t="s">
         <v>86</v>
@@ -5658,64 +5577,64 @@
       <c r="AH12" s="21">
         <v>2.2</v>
       </c>
-      <c r="AI12" s="39">
+      <c r="AI12" s="36">
         <v>0.0112</v>
       </c>
-      <c r="AJ12" s="39">
+      <c r="AJ12" s="36">
         <v>0.8116</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="36">
         <v>0.7087</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="36">
         <v>0.7083</v>
       </c>
-      <c r="AM12" s="39">
+      <c r="AM12" s="36">
         <v>0.006</v>
       </c>
-      <c r="AN12" s="39">
+      <c r="AN12" s="36">
         <v>0.3442</v>
       </c>
-      <c r="AO12" s="39">
+      <c r="AO12" s="36">
         <v>0.247</v>
       </c>
-      <c r="AP12" s="39">
+      <c r="AP12" s="36">
         <v>0.0127</v>
       </c>
-      <c r="AQ12" s="39">
+      <c r="AQ12" s="36">
         <v>0.1618</v>
       </c>
-      <c r="AR12" s="39">
+      <c r="AR12" s="36">
         <v>1.016</v>
       </c>
-      <c r="AS12" s="39">
+      <c r="AS12" s="36">
         <v>0.5767</v>
       </c>
-      <c r="AT12" s="39">
+      <c r="AT12" s="36">
         <v>0.477</v>
       </c>
-      <c r="AU12" s="39">
+      <c r="AU12" s="36">
         <v>0.4664</v>
       </c>
-      <c r="AV12" s="68">
+      <c r="AV12" s="63">
         <v>-0.1139</v>
       </c>
-      <c r="AW12" s="68">
+      <c r="AW12" s="63">
         <v>-0.0272</v>
       </c>
-      <c r="AX12" s="68">
+      <c r="AX12" s="63">
         <v>0.0402</v>
       </c>
-      <c r="AY12" s="39">
+      <c r="AY12" s="36">
         <v>0.5316</v>
       </c>
-      <c r="AZ12" s="39">
+      <c r="AZ12" s="36">
         <v>0.5499</v>
       </c>
-      <c r="BA12" s="39">
+      <c r="BA12" s="36">
         <v>0.5374</v>
       </c>
-      <c r="BB12" s="39">
+      <c r="BB12" s="36">
         <v>0.5361</v>
       </c>
       <c r="BC12" s="21"/>
@@ -5728,7 +5647,7 @@
       <c r="BH12" s="21">
         <v>32.98</v>
       </c>
-      <c r="BI12" s="74">
+      <c r="BI12" s="69">
         <f t="shared" si="8"/>
         <v>9.73</v>
       </c>
@@ -5736,44 +5655,44 @@
         <v>40.42</v>
       </c>
       <c r="BK12" s="21">
-        <v>38.36</v>
+        <v>37.94</v>
       </c>
       <c r="BL12" s="21">
         <v>42.87</v>
       </c>
-      <c r="BM12" s="74">
-        <f t="shared" si="0"/>
-        <v>206</v>
+      <c r="BM12" s="69">
+        <f>(BJ12-BK12)*100</f>
+        <v>248</v>
       </c>
       <c r="BN12" s="21">
-        <f t="shared" si="12"/>
+        <f>FLOOR(304/(BJ12-BK12),100)</f>
         <v>100</v>
       </c>
-      <c r="BO12" s="78">
+      <c r="BO12" s="73">
         <f t="shared" si="9"/>
-        <v>1.18932038834951</v>
-      </c>
-      <c r="BP12" s="39">
+        <v>0.987903225806448</v>
+      </c>
+      <c r="BP12" s="36">
         <f t="shared" si="10"/>
-        <v>0.0509648688767937</v>
-      </c>
-      <c r="BQ12" s="39">
+        <v>0.0613557644730332</v>
+      </c>
+      <c r="BQ12" s="36">
         <f t="shared" si="11"/>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BR12" s="88">
+      <c r="BR12" s="83">
         <v>25.4</v>
       </c>
-      <c r="BS12" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT12" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="36" spans="1:73">
-      <c r="A13" s="103" t="s">
+      <c r="BS12" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT12" s="53" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="24" spans="1:73">
+      <c r="A13" s="97" t="s">
+        <v>144</v>
       </c>
       <c r="B13" s="24">
         <v>44533</v>
@@ -5800,11 +5719,11 @@
       <c r="J13" s="21">
         <v>31.94</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="36">
         <f t="shared" si="2"/>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="36">
         <f t="shared" si="3"/>
         <v>0.130870381966187</v>
       </c>
@@ -5834,92 +5753,92 @@
       <c r="X13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="48">
+      <c r="Y13" s="44">
         <f t="shared" si="4"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="48">
+      <c r="Z13" s="44">
         <f t="shared" si="5"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="48">
+      <c r="AA13" s="44">
         <f t="shared" si="6"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="48">
+      <c r="AB13" s="44">
         <f t="shared" si="7"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="57"/>
+      <c r="AC13" s="52"/>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="56" t="s">
+      <c r="AF13" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56">
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53">
         <v>6.25</v>
       </c>
-      <c r="AI13" s="66">
+      <c r="AI13" s="61">
         <v>1.5016</v>
       </c>
-      <c r="AJ13" s="66">
+      <c r="AJ13" s="61">
         <v>5.5181</v>
       </c>
-      <c r="AK13" s="66">
+      <c r="AK13" s="61">
         <v>3.3249</v>
       </c>
-      <c r="AL13" s="66">
+      <c r="AL13" s="61">
         <v>1.8449</v>
       </c>
-      <c r="AM13" s="67">
+      <c r="AM13" s="62">
         <v>0.3554</v>
       </c>
-      <c r="AN13" s="67">
+      <c r="AN13" s="62">
         <v>0.2495</v>
       </c>
-      <c r="AO13" s="67">
+      <c r="AO13" s="62">
         <v>0.1071</v>
       </c>
-      <c r="AP13" s="67">
+      <c r="AP13" s="62">
         <v>-0.134</v>
       </c>
-      <c r="AQ13" s="67">
+      <c r="AQ13" s="62">
         <v>0.0437</v>
       </c>
-      <c r="AR13" s="67">
+      <c r="AR13" s="62">
         <v>1.1403</v>
       </c>
-      <c r="AS13" s="67">
+      <c r="AS13" s="62">
         <v>1.4349</v>
       </c>
-      <c r="AT13" s="67">
+      <c r="AT13" s="62">
         <v>1.2425</v>
       </c>
-      <c r="AU13" s="66">
+      <c r="AU13" s="61">
         <v>0.2131</v>
       </c>
-      <c r="AV13" s="66">
+      <c r="AV13" s="61">
         <v>0.2062</v>
       </c>
-      <c r="AW13" s="66">
+      <c r="AW13" s="61">
         <v>0.334</v>
       </c>
-      <c r="AX13" s="66">
+      <c r="AX13" s="61">
         <v>0.0105</v>
       </c>
-      <c r="AY13" s="66">
+      <c r="AY13" s="61">
         <v>0.3392</v>
       </c>
-      <c r="AZ13" s="66">
+      <c r="AZ13" s="61">
         <v>0.3777</v>
       </c>
-      <c r="BA13" s="39">
+      <c r="BA13" s="36">
         <v>0.3722</v>
       </c>
-      <c r="BB13" s="39">
+      <c r="BB13" s="36">
         <v>0.3621</v>
       </c>
       <c r="BC13" s="21"/>
@@ -5932,7 +5851,7 @@
       <c r="BH13" s="21">
         <v>22.41</v>
       </c>
-      <c r="BI13" s="74">
+      <c r="BI13" s="69">
         <f t="shared" si="8"/>
         <v>8.8</v>
       </c>
@@ -5945,46 +5864,46 @@
       <c r="BL13" s="21">
         <v>35.16</v>
       </c>
-      <c r="BM13" s="74">
+      <c r="BM13" s="69">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="BN13" s="21">
-        <f t="shared" si="12"/>
+        <f>FLOOR(304/(BJ13-BK13),100)</f>
         <v>100</v>
       </c>
-      <c r="BO13" s="78">
+      <c r="BO13" s="73">
         <f t="shared" si="9"/>
         <v>1.68055555555555</v>
       </c>
-      <c r="BP13" s="39">
+      <c r="BP13" s="36">
         <f t="shared" si="10"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="BQ13" s="39">
+      <c r="BQ13" s="36">
         <f t="shared" si="11"/>
         <v>0.159630606860158</v>
       </c>
-      <c r="BR13" s="88">
+      <c r="BR13" s="83">
         <v>17.95</v>
       </c>
-      <c r="BS13" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT13" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU13" s="97"/>
-    </row>
-    <row r="14" ht="38" spans="1:72">
-      <c r="A14" s="102" t="s">
-        <v>144</v>
+      <c r="BS13" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT13" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU13" s="91"/>
+    </row>
+    <row r="14" ht="24" spans="1:72">
+      <c r="A14" s="96" t="s">
+        <v>145</v>
       </c>
       <c r="B14" s="24">
         <v>44533</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="21">
         <v>37.56</v>
@@ -6005,11 +5924,11 @@
       <c r="J14" s="21">
         <v>62.1</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="36">
         <f t="shared" si="2"/>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="36">
         <f t="shared" si="3"/>
         <v>0.131078904991948</v>
       </c>
@@ -6041,92 +5960,92 @@
       <c r="X14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="48">
+      <c r="Y14" s="44">
         <f t="shared" si="4"/>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="48">
+      <c r="Z14" s="44">
         <f t="shared" si="5"/>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="48">
+      <c r="AA14" s="44">
         <f t="shared" si="6"/>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="48">
+      <c r="AB14" s="44">
         <f t="shared" si="7"/>
         <v>0.0880711545169167</v>
       </c>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="36"/>
       <c r="AD14" s="21"/>
       <c r="AE14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="56" t="s">
+      <c r="AF14" s="53" t="s">
         <v>130</v>
       </c>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21">
         <v>34.76</v>
       </c>
-      <c r="AI14" s="39">
+      <c r="AI14" s="36">
         <v>0.4151</v>
       </c>
-      <c r="AJ14" s="39">
+      <c r="AJ14" s="36">
         <v>4.3101</v>
       </c>
-      <c r="AK14" s="39">
+      <c r="AK14" s="36">
         <v>5.7893</v>
       </c>
-      <c r="AL14" s="39">
+      <c r="AL14" s="36">
         <v>5.2189</v>
       </c>
-      <c r="AM14" s="39">
+      <c r="AM14" s="36">
         <v>0.5076</v>
       </c>
-      <c r="AN14" s="39">
+      <c r="AN14" s="36">
         <v>1.5097</v>
       </c>
-      <c r="AO14" s="39">
+      <c r="AO14" s="36">
         <v>0.5596</v>
       </c>
-      <c r="AP14" s="39">
+      <c r="AP14" s="36">
         <v>-0.084</v>
       </c>
-      <c r="AQ14" s="39">
+      <c r="AQ14" s="36">
         <v>0.1501</v>
       </c>
-      <c r="AR14" s="39">
+      <c r="AR14" s="36">
         <v>0.3924</v>
       </c>
-      <c r="AS14" s="39">
+      <c r="AS14" s="36">
         <v>0.602</v>
       </c>
-      <c r="AT14" s="39">
+      <c r="AT14" s="36">
         <v>0.755</v>
       </c>
-      <c r="AU14" s="39">
+      <c r="AU14" s="36">
         <v>0.9365</v>
       </c>
-      <c r="AV14" s="39">
+      <c r="AV14" s="36">
         <v>-0.3372</v>
       </c>
-      <c r="AW14" s="39">
+      <c r="AW14" s="36">
         <v>0.7463</v>
       </c>
-      <c r="AX14" s="39">
+      <c r="AX14" s="36">
         <v>-0.1096</v>
       </c>
-      <c r="AY14" s="39">
+      <c r="AY14" s="36">
         <v>0.1174</v>
       </c>
-      <c r="AZ14" s="39">
+      <c r="AZ14" s="36">
         <v>0.2187</v>
       </c>
-      <c r="BA14" s="39">
+      <c r="BA14" s="36">
         <v>0.2433</v>
       </c>
-      <c r="BB14" s="39">
+      <c r="BB14" s="36">
         <v>0.2275</v>
       </c>
       <c r="BC14" s="21"/>
@@ -6135,7 +6054,7 @@
       <c r="BF14" s="21"/>
       <c r="BG14" s="21"/>
       <c r="BH14" s="21"/>
-      <c r="BI14" s="74">
+      <c r="BI14" s="69">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6148,851 +6067,816 @@
       <c r="BL14" s="21">
         <v>65.25</v>
       </c>
-      <c r="BM14" s="74">
+      <c r="BM14" s="69">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="BN14" s="21">
-        <f t="shared" si="12"/>
+        <f>FLOOR(304/(BJ14-BK14),100)</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="78">
+      <c r="BO14" s="73">
         <f t="shared" si="9"/>
         <v>1.56633663366336</v>
       </c>
-      <c r="BP14" s="39">
+      <c r="BP14" s="36">
         <f t="shared" si="10"/>
         <v>0.0880711545169167</v>
       </c>
-      <c r="BQ14" s="39">
+      <c r="BQ14" s="36">
         <f t="shared" si="11"/>
         <v>0.137949075688873</v>
       </c>
-      <c r="BR14" s="88">
+      <c r="BR14" s="83">
         <v>56.78</v>
       </c>
-      <c r="BS14" s="56" t="s">
+      <c r="BS14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT14" s="53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="13" spans="1:72">
+      <c r="A15" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="20">
+        <v>44533</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20.45</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22.14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25.99</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>27.05</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="K15" s="37">
+        <f>(H15-I15)/I15</f>
+        <v>2.38972431077694</v>
+      </c>
+      <c r="L15" s="37">
+        <f>(J15-H15)/J15</f>
+        <v>0.101328903654485</v>
+      </c>
+      <c r="M15" s="2">
+        <v>21.96</v>
+      </c>
+      <c r="N15" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>25.47</v>
+      </c>
+      <c r="P15" s="2">
+        <v>28.82</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>26.31</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y15" s="37">
+        <f>(J15-M15)/J15</f>
+        <v>0.270431893687708</v>
+      </c>
+      <c r="Z15" s="37">
+        <f>(N15-O15)/N15</f>
+        <v>0.106315789473684</v>
+      </c>
+      <c r="AA15" s="37">
+        <f>(P15-Q15)/P15</f>
+        <v>0.0870922970159612</v>
+      </c>
+      <c r="AB15" s="45" t="e">
+        <f>(R15-S15)/R15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF15" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="AI15" s="34">
+        <v>3.1533</v>
+      </c>
+      <c r="AJ15" s="34">
+        <v>2.152</v>
+      </c>
+      <c r="AK15" s="34">
+        <v>1.6028</v>
+      </c>
+      <c r="AL15" s="34">
+        <v>1.161</v>
+      </c>
+      <c r="AM15" s="34">
+        <v>0.2365</v>
+      </c>
+      <c r="AN15" s="34">
+        <v>0.0229</v>
+      </c>
+      <c r="AO15" s="34">
+        <v>0.1857</v>
+      </c>
+      <c r="AP15" s="34">
+        <v>0.1281</v>
+      </c>
+      <c r="AQ15" s="34">
+        <v>0.1124</v>
+      </c>
+      <c r="AR15" s="34">
+        <v>0.3139</v>
+      </c>
+      <c r="AS15" s="34">
+        <v>0.0935</v>
+      </c>
+      <c r="AT15" s="34">
+        <v>0.1211</v>
+      </c>
+      <c r="AU15" s="34">
+        <v>-0.3125</v>
+      </c>
+      <c r="AV15" s="34">
+        <v>0.2292</v>
+      </c>
+      <c r="AW15" s="34">
+        <v>0.1278</v>
+      </c>
+      <c r="AX15" s="34">
+        <v>0.2239</v>
+      </c>
+      <c r="AY15" s="34">
+        <v>0.2428</v>
+      </c>
+      <c r="AZ15" s="34">
+        <v>0.3271</v>
+      </c>
+      <c r="BA15" s="34">
+        <v>0.347</v>
+      </c>
+      <c r="BB15" s="34">
+        <v>0.3263</v>
+      </c>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2">
+        <v>30.41</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>22.76</v>
+      </c>
+      <c r="BI15" s="16">
+        <f>BG15-BH15</f>
+        <v>7.65</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>28.82</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>26.31</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>32.36</v>
+      </c>
+      <c r="BM15" s="16">
+        <f>(BJ15-BK15)*100</f>
+        <v>251</v>
+      </c>
+      <c r="BN15" s="2">
+        <f>FLOOR(304/(BJ15-BK15),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BO15" s="71">
+        <f>(BL15-BJ15)/(BJ15-BK15)</f>
+        <v>1.41035856573705</v>
+      </c>
+      <c r="BP15" s="34">
+        <f>(BJ15-BK15)/BJ15</f>
+        <v>0.0870922970159612</v>
+      </c>
+      <c r="BQ15" s="34">
+        <f>(BL15-BJ15)/BJ15</f>
+        <v>0.122831367106176</v>
+      </c>
+      <c r="BR15" s="81">
+        <v>25.15</v>
+      </c>
+      <c r="BS15" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="BT14" s="56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" ht="38" spans="1:72">
-      <c r="A15" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="28">
-        <v>44533</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="27">
-        <v>32.83</v>
-      </c>
-      <c r="E15" s="27">
-        <v>35.44</v>
-      </c>
-      <c r="F15" s="27">
-        <v>41.78</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27">
-        <v>48.86</v>
-      </c>
-      <c r="I15" s="27">
-        <v>11.48</v>
-      </c>
-      <c r="J15" s="27">
-        <v>59.8</v>
-      </c>
-      <c r="K15" s="40">
-        <f t="shared" si="2"/>
-        <v>3.25609756097561</v>
-      </c>
-      <c r="L15" s="40">
-        <f t="shared" si="3"/>
-        <v>0.182943143812709</v>
-      </c>
-      <c r="M15" s="27">
-        <v>33.16</v>
-      </c>
-      <c r="N15" s="27">
-        <v>41.67</v>
-      </c>
-      <c r="O15" s="27">
-        <v>34.71</v>
-      </c>
-      <c r="P15" s="27">
-        <v>41.9</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>37.47</v>
-      </c>
-      <c r="R15" s="27">
-        <v>47.34</v>
-      </c>
-      <c r="S15" s="27">
-        <v>42.8</v>
-      </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y15" s="49">
-        <f t="shared" si="4"/>
-        <v>0.445484949832776</v>
-      </c>
-      <c r="Z15" s="49">
-        <f t="shared" si="5"/>
-        <v>0.16702663786897</v>
-      </c>
-      <c r="AA15" s="49">
-        <f t="shared" si="6"/>
-        <v>0.105727923627685</v>
-      </c>
-      <c r="AB15" s="49">
-        <f t="shared" si="7"/>
-        <v>0.0959019856358261</v>
-      </c>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27" t="s">
+      <c r="BT15" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="24" spans="1:72">
+      <c r="A16" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="24">
+        <v>44534</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20.1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>21.01</v>
+      </c>
+      <c r="F16" s="21">
+        <v>23.24</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
+        <v>24.5</v>
+      </c>
+      <c r="I16" s="21">
+        <v>9.18</v>
+      </c>
+      <c r="J16" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="K16" s="38">
+        <f>(H16-I16)/I16</f>
+        <v>1.66884531590414</v>
+      </c>
+      <c r="L16" s="38">
+        <f>(J16-H16)/J16</f>
+        <v>0.16382252559727</v>
+      </c>
+      <c r="M16" s="21">
+        <v>19.05</v>
+      </c>
+      <c r="N16" s="21">
+        <v>22.91</v>
+      </c>
+      <c r="O16" s="21">
+        <v>19.73</v>
+      </c>
+      <c r="P16" s="21">
+        <v>26.45</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>22.8</v>
+      </c>
+      <c r="R16" s="21">
+        <v>25.95</v>
+      </c>
+      <c r="S16" s="21">
+        <v>23.28</v>
+      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y16" s="38">
+        <f>(J16-M16)/J16</f>
+        <v>0.349829351535836</v>
+      </c>
+      <c r="Z16" s="38">
+        <f>(N16-O16)/N16</f>
+        <v>0.138804015713662</v>
+      </c>
+      <c r="AA16" s="38">
+        <f>(P16-Q16)/P16</f>
+        <v>0.137996219281663</v>
+      </c>
+      <c r="AB16" s="45">
+        <f>(R16-S16)/R16</f>
+        <v>0.102890173410405</v>
+      </c>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="58" t="s">
+      <c r="AF16" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27">
-        <v>2.07</v>
-      </c>
-      <c r="AI15" s="40">
-        <v>2.0414</v>
-      </c>
-      <c r="AJ15" s="40">
-        <v>7.8404</v>
-      </c>
-      <c r="AK15" s="40">
-        <v>0.0573</v>
-      </c>
-      <c r="AL15" s="40">
-        <v>0.4733</v>
-      </c>
-      <c r="AM15" s="40">
-        <v>6.5677</v>
-      </c>
-      <c r="AN15" s="40">
-        <v>-0.3008</v>
-      </c>
-      <c r="AO15" s="40">
-        <v>-0.2734</v>
-      </c>
-      <c r="AP15" s="40">
-        <v>-0.5858</v>
-      </c>
-      <c r="AQ15" s="40">
-        <v>-0.1511</v>
-      </c>
-      <c r="AR15" s="40">
-        <v>1.1435</v>
-      </c>
-      <c r="AS15" s="40">
-        <v>1.059</v>
-      </c>
-      <c r="AT15" s="40">
-        <v>0.7237</v>
-      </c>
-      <c r="AU15" s="40">
-        <v>0.0276</v>
-      </c>
-      <c r="AV15" s="40">
-        <v>0.2692</v>
-      </c>
-      <c r="AW15" s="40">
-        <v>-0.1848</v>
-      </c>
-      <c r="AX15" s="40">
-        <v>0.2588</v>
-      </c>
-      <c r="AY15" s="40">
-        <v>0.1894</v>
-      </c>
-      <c r="AZ15" s="40">
-        <v>0.1883</v>
-      </c>
-      <c r="BA15" s="40">
-        <v>0.1993</v>
-      </c>
-      <c r="BB15" s="40">
-        <v>0.0681</v>
-      </c>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="27"/>
-      <c r="BM15" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BN15" s="21" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO15" s="78" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP15" s="39" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ15" s="39" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BR15" s="89"/>
-      <c r="BS15" s="27"/>
-      <c r="BT15" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="13" spans="1:72">
-      <c r="A16" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="20">
-        <v>44533</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="2">
-        <v>20.45</v>
-      </c>
-      <c r="E16" s="2">
-        <v>22.14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>25.99</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>27.05</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7.98</v>
-      </c>
-      <c r="J16" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="K16" s="41">
-        <f t="shared" si="2"/>
-        <v>2.38972431077694</v>
-      </c>
-      <c r="L16" s="41">
-        <f t="shared" si="3"/>
-        <v>0.101328903654485</v>
-      </c>
-      <c r="M16" s="2">
-        <v>21.96</v>
-      </c>
-      <c r="N16" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="O16" s="2">
-        <v>25.47</v>
-      </c>
-      <c r="P16" s="2">
-        <v>28.82</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>26.31</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y16" s="41">
-        <f t="shared" si="4"/>
-        <v>0.270431893687708</v>
-      </c>
-      <c r="Z16" s="41">
-        <f t="shared" si="5"/>
-        <v>0.106315789473684</v>
-      </c>
-      <c r="AA16" s="41">
-        <f t="shared" si="6"/>
-        <v>0.0870922970159612</v>
-      </c>
-      <c r="AB16" s="49" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF16" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>9.73</v>
-      </c>
-      <c r="AI16" s="37">
-        <v>3.1533</v>
-      </c>
-      <c r="AJ16" s="37">
-        <v>2.152</v>
-      </c>
-      <c r="AK16" s="37">
-        <v>1.6028</v>
-      </c>
-      <c r="AL16" s="37">
-        <v>1.161</v>
-      </c>
-      <c r="AM16" s="37">
-        <v>0.2365</v>
-      </c>
-      <c r="AN16" s="37">
-        <v>0.0229</v>
-      </c>
-      <c r="AO16" s="37">
-        <v>0.1857</v>
-      </c>
-      <c r="AP16" s="37">
-        <v>0.1281</v>
-      </c>
-      <c r="AQ16" s="37">
-        <v>0.1124</v>
-      </c>
-      <c r="AR16" s="37">
-        <v>0.3139</v>
-      </c>
-      <c r="AS16" s="37">
-        <v>0.0935</v>
-      </c>
-      <c r="AT16" s="37">
-        <v>0.1211</v>
-      </c>
-      <c r="AU16" s="37">
-        <v>-0.3125</v>
-      </c>
-      <c r="AV16" s="37">
-        <v>0.2292</v>
-      </c>
-      <c r="AW16" s="37">
-        <v>0.1278</v>
-      </c>
-      <c r="AX16" s="37">
-        <v>0.2239</v>
-      </c>
-      <c r="AY16" s="37">
-        <v>0.2428</v>
-      </c>
-      <c r="AZ16" s="37">
-        <v>0.3271</v>
-      </c>
-      <c r="BA16" s="37">
-        <v>0.347</v>
-      </c>
-      <c r="BB16" s="37">
-        <v>0.3263</v>
-      </c>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2">
-        <v>30.41</v>
-      </c>
-      <c r="BH16" s="2">
-        <v>22.76</v>
-      </c>
-      <c r="BI16" s="16">
-        <f t="shared" si="8"/>
-        <v>7.65</v>
-      </c>
-      <c r="BJ16" s="2">
-        <v>28.82</v>
-      </c>
-      <c r="BK16" s="2">
-        <v>26.31</v>
-      </c>
-      <c r="BL16" s="2">
-        <v>32.36</v>
-      </c>
-      <c r="BM16" s="16">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-      <c r="BN16" s="2">
-        <f t="shared" si="12"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21">
+        <v>27.49</v>
+      </c>
+      <c r="BH16" s="21">
+        <v>19.96</v>
+      </c>
+      <c r="BI16" s="70">
+        <f>BG16-BH16</f>
+        <v>7.53</v>
+      </c>
+      <c r="BJ16" s="21">
+        <v>25.95</v>
+      </c>
+      <c r="BK16" s="21">
+        <v>23.28</v>
+      </c>
+      <c r="BL16" s="21">
+        <v>27.59</v>
+      </c>
+      <c r="BM16" s="70">
+        <f>(BJ16-BK16)*100</f>
+        <v>267</v>
+      </c>
+      <c r="BN16" s="74">
+        <f>FLOOR(304/(BJ16-BK16),100)</f>
         <v>100</v>
       </c>
-      <c r="BO16" s="76">
-        <f t="shared" si="9"/>
-        <v>1.41035856573705</v>
-      </c>
-      <c r="BP16" s="37">
-        <f t="shared" si="10"/>
-        <v>0.0870922970159612</v>
-      </c>
-      <c r="BQ16" s="37">
-        <f t="shared" si="11"/>
-        <v>0.122831367106176</v>
-      </c>
-      <c r="BR16" s="86">
-        <v>25.15</v>
-      </c>
-      <c r="BS16" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT16" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="36" spans="1:72">
-      <c r="A17" s="102" t="s">
+      <c r="BO16" s="75">
+        <f>(BL16-BJ16)/(BJ16-BK16)</f>
+        <v>0.614232209737828</v>
+      </c>
+      <c r="BP16" s="76">
+        <f>(BJ16-BK16)/BJ16</f>
+        <v>0.102890173410405</v>
+      </c>
+      <c r="BQ16" s="76">
+        <f>(BL16-BJ16)/BJ16</f>
+        <v>0.0631984585741811</v>
+      </c>
+      <c r="BR16" s="84">
+        <v>26.15</v>
+      </c>
+      <c r="BS16" s="85" t="s">
         <v>151</v>
       </c>
+      <c r="BT16" s="85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="13" spans="1:72">
+      <c r="A17" s="96" t="s">
+        <v>152</v>
+      </c>
       <c r="B17" s="24">
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17" s="21">
-        <v>20.1</v>
+        <v>116.99</v>
       </c>
       <c r="E17" s="21">
-        <v>21.01</v>
+        <v>121.14</v>
       </c>
       <c r="F17" s="21">
-        <v>23.24</v>
+        <v>130.03</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21">
-        <v>24.5</v>
+        <v>139.91</v>
       </c>
       <c r="I17" s="21">
-        <v>9.18</v>
+        <v>59.28</v>
       </c>
       <c r="J17" s="21">
-        <v>29.3</v>
-      </c>
-      <c r="K17" s="42">
-        <f t="shared" si="2"/>
-        <v>1.66884531590414</v>
-      </c>
-      <c r="L17" s="42">
-        <f t="shared" si="3"/>
-        <v>0.16382252559727</v>
+        <v>160.57</v>
+      </c>
+      <c r="K17" s="38">
+        <f>(H17-I17)/I17</f>
+        <v>1.36015519568151</v>
+      </c>
+      <c r="L17" s="38">
+        <f>(J17-H17)/J17</f>
+        <v>0.128666625147911</v>
       </c>
       <c r="M17" s="21">
-        <v>19.05</v>
+        <v>93.58</v>
       </c>
       <c r="N17" s="21">
-        <v>22.91</v>
+        <v>136.67</v>
       </c>
       <c r="O17" s="21">
-        <v>19.73</v>
+        <v>113.77</v>
       </c>
       <c r="P17" s="21">
-        <v>26.45</v>
+        <v>147.3</v>
       </c>
       <c r="Q17" s="21">
-        <v>22.8</v>
+        <v>124</v>
       </c>
       <c r="R17" s="21">
-        <v>25.95</v>
+        <v>139.93</v>
       </c>
       <c r="S17" s="21">
-        <v>23.58</v>
-      </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
+        <v>124.71</v>
+      </c>
+      <c r="T17" s="21">
+        <v>134.81</v>
+      </c>
+      <c r="U17" s="21">
+        <v>128.2</v>
+      </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y17" s="42">
-        <f t="shared" si="4"/>
-        <v>0.349829351535836</v>
-      </c>
-      <c r="Z17" s="42">
-        <f t="shared" si="5"/>
-        <v>0.138804015713662</v>
-      </c>
-      <c r="AA17" s="42">
-        <f t="shared" si="6"/>
-        <v>0.137996219281663</v>
-      </c>
-      <c r="AB17" s="49">
-        <f t="shared" si="7"/>
-        <v>0.0913294797687862</v>
-      </c>
-      <c r="AC17" s="39"/>
+        <v>154</v>
+      </c>
+      <c r="Y17" s="38">
+        <f>(J17-M17)/J17</f>
+        <v>0.417201220651429</v>
+      </c>
+      <c r="Z17" s="38">
+        <f>(N17-O17)/N17</f>
+        <v>0.167556888856369</v>
+      </c>
+      <c r="AA17" s="38">
+        <f>(P17-Q17)/P17</f>
+        <v>0.158180583842498</v>
+      </c>
+      <c r="AB17" s="45">
+        <f>(R17-S17)/R17</f>
+        <v>0.10876867004931</v>
+      </c>
+      <c r="AC17" s="36">
+        <f>(T17-U17)/T17</f>
+        <v>0.0490319709220385</v>
+      </c>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF17" s="53" t="s">
         <v>130</v>
       </c>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
+      <c r="AH17" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI17" s="36">
+        <v>-0.1149</v>
+      </c>
+      <c r="AJ17" s="36">
+        <v>1.1966</v>
+      </c>
+      <c r="AK17" s="36">
+        <v>2.6601</v>
+      </c>
+      <c r="AL17" s="36">
+        <v>0.9935</v>
+      </c>
+      <c r="AM17" s="36">
+        <v>-0.4244</v>
+      </c>
+      <c r="AN17" s="36">
+        <v>0.8275</v>
+      </c>
+      <c r="AO17" s="36">
+        <v>-1.1004</v>
+      </c>
+      <c r="AP17" s="36">
+        <v>15.79</v>
+      </c>
+      <c r="AQ17" s="36">
+        <v>-0.1106</v>
+      </c>
+      <c r="AR17" s="36">
+        <v>0.756</v>
+      </c>
+      <c r="AS17" s="36">
+        <v>1.1246</v>
+      </c>
+      <c r="AT17" s="36">
+        <v>0.64</v>
+      </c>
+      <c r="AU17" s="36">
+        <v>-0.1855</v>
+      </c>
+      <c r="AV17" s="36">
+        <v>0.1135</v>
+      </c>
+      <c r="AW17" s="36">
+        <v>-0.5985</v>
+      </c>
+      <c r="AX17" s="36">
+        <v>2.7082</v>
+      </c>
+      <c r="AY17" s="36">
+        <v>0.8544</v>
+      </c>
+      <c r="AZ17" s="36">
+        <v>0.8505</v>
+      </c>
+      <c r="BA17" s="36">
+        <v>0.8349</v>
+      </c>
+      <c r="BB17" s="36">
+        <v>0.8576</v>
+      </c>
       <c r="BC17" s="21"/>
       <c r="BD17" s="21"/>
       <c r="BE17" s="21"/>
       <c r="BF17" s="21"/>
-      <c r="BG17" s="21">
-        <v>27.49</v>
-      </c>
-      <c r="BH17" s="21">
-        <v>19.96</v>
-      </c>
-      <c r="BI17" s="75">
-        <f t="shared" si="8"/>
-        <v>7.53</v>
-      </c>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="70"/>
       <c r="BJ17" s="21">
-        <v>25.95</v>
+        <v>143.8</v>
       </c>
       <c r="BK17" s="21">
-        <v>23.58</v>
+        <v>134.79</v>
       </c>
       <c r="BL17" s="21">
-        <v>29.66</v>
-      </c>
-      <c r="BM17" s="75">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="BN17" s="79">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="BO17" s="80">
-        <f t="shared" si="9"/>
-        <v>1.56540084388186</v>
-      </c>
-      <c r="BP17" s="81">
-        <f t="shared" si="10"/>
-        <v>0.0913294797687862</v>
-      </c>
-      <c r="BQ17" s="81">
-        <f t="shared" si="11"/>
-        <v>0.142967244701349</v>
-      </c>
-      <c r="BR17" s="90">
-        <v>26.15</v>
-      </c>
-      <c r="BS17" s="91" t="s">
+        <v>158.42</v>
+      </c>
+      <c r="BM17" s="70">
+        <f>(BJ17-BK17)*100</f>
+        <v>901.000000000002</v>
+      </c>
+      <c r="BN17" s="74">
+        <f>FLOOR(304/(BJ17-BK17),100)</f>
+        <v>0</v>
+      </c>
+      <c r="BO17" s="75">
+        <f>(BL17-BJ17)/(BJ17-BK17)</f>
+        <v>1.62264150943396</v>
+      </c>
+      <c r="BP17" s="76">
+        <f>(BJ17-BK17)/BJ17</f>
+        <v>0.0626564673157164</v>
+      </c>
+      <c r="BQ17" s="76">
+        <f>(BL17-BJ17)/BJ17</f>
+        <v>0.101668984700973</v>
+      </c>
+      <c r="BR17" s="83">
+        <v>55.79</v>
+      </c>
+      <c r="BS17" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT17" s="91" t="s">
+      <c r="BT17" s="53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="13" spans="1:72">
-      <c r="A18" s="102" t="s">
-        <v>153</v>
+      <c r="A18" s="96" t="s">
+        <v>155</v>
       </c>
       <c r="B18" s="24">
         <v>44536</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D18" s="21">
-        <v>116.99</v>
+        <v>7.83</v>
       </c>
       <c r="E18" s="21">
-        <v>121.14</v>
+        <v>8.24</v>
       </c>
       <c r="F18" s="21">
-        <v>130.03</v>
+        <v>9.27</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21">
-        <v>139.91</v>
+        <v>9.6</v>
       </c>
       <c r="I18" s="21">
-        <v>59.28</v>
+        <v>4.83</v>
       </c>
       <c r="J18" s="21">
-        <v>160.57</v>
-      </c>
-      <c r="K18" s="42">
+        <v>11.8</v>
+      </c>
+      <c r="K18" s="38">
         <f>(H18-I18)/I18</f>
-        <v>1.36015519568151</v>
-      </c>
-      <c r="L18" s="42">
+        <v>0.987577639751553</v>
+      </c>
+      <c r="L18" s="38">
         <f>(J18-H18)/J18</f>
-        <v>0.128666625147911</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="M18" s="21">
-        <v>93.58</v>
+        <v>7.6</v>
       </c>
       <c r="N18" s="21">
-        <v>136.67</v>
+        <v>9.65</v>
       </c>
       <c r="O18" s="21">
-        <v>113.77</v>
+        <v>8.03</v>
       </c>
       <c r="P18" s="21">
-        <v>147.3</v>
+        <v>10.28</v>
       </c>
       <c r="Q18" s="21">
-        <v>124</v>
-      </c>
-      <c r="R18" s="21">
-        <v>139.93</v>
-      </c>
-      <c r="S18" s="21">
-        <v>124.71</v>
-      </c>
-      <c r="T18" s="21">
-        <v>134.81</v>
-      </c>
-      <c r="U18" s="21">
-        <v>128.2</v>
-      </c>
+        <v>9.41</v>
+      </c>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y18" s="42">
+        <v>85</v>
+      </c>
+      <c r="Y18" s="38">
         <f>(J18-M18)/J18</f>
-        <v>0.417201220651429</v>
-      </c>
-      <c r="Z18" s="42">
+        <v>0.355932203389831</v>
+      </c>
+      <c r="Z18" s="38">
         <f>(N18-O18)/N18</f>
-        <v>0.167556888856369</v>
-      </c>
-      <c r="AA18" s="42">
+        <v>0.167875647668394</v>
+      </c>
+      <c r="AA18" s="38">
         <f>(P18-Q18)/P18</f>
-        <v>0.158180583842498</v>
-      </c>
-      <c r="AB18" s="49">
-        <f>(R18-S18)/R18</f>
-        <v>0.10876867004931</v>
-      </c>
-      <c r="AC18" s="39">
-        <f>(T18-U18)/T18</f>
-        <v>0.0490319709220385</v>
-      </c>
+        <v>0.0846303501945525</v>
+      </c>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="36"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF18" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF18" s="53" t="s">
         <v>130</v>
       </c>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="21">
-        <v>10</v>
-      </c>
-      <c r="AI18" s="39">
-        <v>-0.1149</v>
-      </c>
-      <c r="AJ18" s="39">
-        <v>1.1966</v>
-      </c>
-      <c r="AK18" s="39">
-        <v>2.6601</v>
-      </c>
-      <c r="AL18" s="39">
-        <v>0.9935</v>
-      </c>
-      <c r="AM18" s="39">
-        <v>-0.4244</v>
-      </c>
-      <c r="AN18" s="39">
-        <v>0.8275</v>
-      </c>
-      <c r="AO18" s="39">
-        <v>-1.1004</v>
-      </c>
-      <c r="AP18" s="39">
-        <v>15.79</v>
-      </c>
-      <c r="AQ18" s="39">
-        <v>-0.1106</v>
-      </c>
-      <c r="AR18" s="39">
-        <v>0.756</v>
-      </c>
-      <c r="AS18" s="39">
-        <v>1.1246</v>
-      </c>
-      <c r="AT18" s="39">
-        <v>0.64</v>
-      </c>
-      <c r="AU18" s="39">
-        <v>-0.1855</v>
-      </c>
-      <c r="AV18" s="39">
-        <v>0.1135</v>
-      </c>
-      <c r="AW18" s="39">
-        <v>-0.5985</v>
-      </c>
-      <c r="AX18" s="39">
-        <v>2.7082</v>
-      </c>
-      <c r="AY18" s="39">
-        <v>0.8544</v>
-      </c>
-      <c r="AZ18" s="39">
-        <v>0.8505</v>
-      </c>
-      <c r="BA18" s="39">
-        <v>0.8349</v>
-      </c>
-      <c r="BB18" s="39">
-        <v>0.8576</v>
-      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
       <c r="BC18" s="21"/>
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
       <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="75"/>
+      <c r="BG18" s="21">
+        <v>10.54</v>
+      </c>
+      <c r="BH18" s="21">
+        <v>8.35</v>
+      </c>
+      <c r="BI18" s="70">
+        <f>BG18-BH18</f>
+        <v>2.19</v>
+      </c>
       <c r="BJ18" s="21">
-        <v>143.8</v>
+        <v>10.28</v>
       </c>
       <c r="BK18" s="21">
-        <v>134.79</v>
+        <v>9.41</v>
       </c>
       <c r="BL18" s="21">
-        <v>158.42</v>
-      </c>
-      <c r="BM18" s="75">
+        <v>12</v>
+      </c>
+      <c r="BM18" s="70">
         <f>(BJ18-BK18)*100</f>
-        <v>901.000000000002</v>
-      </c>
-      <c r="BN18" s="79">
+        <v>86.9999999999999</v>
+      </c>
+      <c r="BN18" s="74">
         <f>FLOOR(304/(BJ18-BK18),100)</f>
-        <v>0</v>
-      </c>
-      <c r="BO18" s="80">
+        <v>300</v>
+      </c>
+      <c r="BO18" s="75">
         <f>(BL18-BJ18)/(BJ18-BK18)</f>
-        <v>1.62264150943396</v>
-      </c>
-      <c r="BP18" s="81">
+        <v>1.97701149425288</v>
+      </c>
+      <c r="BP18" s="76">
         <f>(BJ18-BK18)/BJ18</f>
-        <v>0.0626564673157164</v>
-      </c>
-      <c r="BQ18" s="81">
+        <v>0.0846303501945525</v>
+      </c>
+      <c r="BQ18" s="76">
         <f>(BL18-BJ18)/BJ18</f>
-        <v>0.101668984700973</v>
-      </c>
-      <c r="BR18" s="88">
-        <v>55.79</v>
-      </c>
-      <c r="BS18" s="56" t="s">
+        <v>0.167315175097276</v>
+      </c>
+      <c r="BR18" s="83">
+        <v>18.1</v>
+      </c>
+      <c r="BS18" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="BT18" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="13" spans="1:72">
-      <c r="A19" s="102" t="s">
-        <v>156</v>
+      <c r="BT18" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="24" spans="1:72">
+      <c r="A19" s="96" t="s">
+        <v>157</v>
       </c>
       <c r="B19" s="24">
         <v>44536</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D19" s="21">
-        <v>7.83</v>
+        <v>44.31</v>
       </c>
       <c r="E19" s="21">
-        <v>8.24</v>
+        <v>44.7</v>
       </c>
       <c r="F19" s="21">
-        <v>9.27</v>
+        <v>46.27</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21">
-        <v>9.6</v>
+        <v>47.76</v>
       </c>
       <c r="I19" s="21">
-        <v>4.83</v>
+        <v>35.47</v>
       </c>
       <c r="J19" s="21">
-        <v>11.8</v>
-      </c>
-      <c r="K19" s="42">
+        <v>61.98</v>
+      </c>
+      <c r="K19" s="38">
         <f>(H19-I19)/I19</f>
-        <v>0.987577639751553</v>
-      </c>
-      <c r="L19" s="42">
+        <v>0.346489991542148</v>
+      </c>
+      <c r="L19" s="38">
         <f>(J19-H19)/J19</f>
-        <v>0.186440677966102</v>
+        <v>0.229428848015489</v>
       </c>
       <c r="M19" s="21">
-        <v>7.6</v>
+        <v>42.05</v>
       </c>
       <c r="N19" s="21">
-        <v>9.65</v>
+        <v>52.97</v>
       </c>
       <c r="O19" s="21">
-        <v>8.03</v>
+        <v>42.18</v>
       </c>
       <c r="P19" s="21">
-        <v>10.28</v>
+        <v>50.93</v>
       </c>
       <c r="Q19" s="21">
-        <v>9.41</v>
+        <v>46.13</v>
       </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
@@ -7003,330 +6887,245 @@
       <c r="X19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Y19" s="38">
         <f>(J19-M19)/J19</f>
-        <v>0.355932203389831</v>
-      </c>
-      <c r="Z19" s="42">
+        <v>0.321555340432398</v>
+      </c>
+      <c r="Z19" s="38">
         <f>(N19-O19)/N19</f>
-        <v>0.167875647668394</v>
-      </c>
-      <c r="AA19" s="42">
+        <v>0.203700207664716</v>
+      </c>
+      <c r="AA19" s="38">
         <f>(P19-Q19)/P19</f>
-        <v>0.0846303501945525</v>
+        <v>0.0942470056940899</v>
       </c>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="39"/>
+      <c r="AC19" s="36"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF19" s="56" t="s">
+      <c r="AF19" s="53" t="s">
         <v>130</v>
       </c>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="39"/>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
       <c r="BC19" s="21"/>
       <c r="BD19" s="21"/>
       <c r="BE19" s="21"/>
       <c r="BF19" s="21"/>
       <c r="BG19" s="21">
-        <v>10.54</v>
+        <v>52.82</v>
       </c>
       <c r="BH19" s="21">
-        <v>8.35</v>
-      </c>
-      <c r="BI19" s="75">
+        <v>40.96</v>
+      </c>
+      <c r="BI19" s="70">
         <f>BG19-BH19</f>
-        <v>2.19</v>
+        <v>11.86</v>
       </c>
       <c r="BJ19" s="21">
-        <v>10.28</v>
+        <v>50.93</v>
       </c>
       <c r="BK19" s="21">
-        <v>9.41</v>
-      </c>
-      <c r="BL19" s="21">
+        <v>46.13</v>
+      </c>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="70">
+        <f>(BJ19-BK19)*100</f>
+        <v>480</v>
+      </c>
+      <c r="BN19" s="74">
+        <f>FLOOR(304/(BJ19-BK19),100)</f>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="75"/>
+      <c r="BP19" s="76">
+        <f>(BJ19-BK19)/BJ19</f>
+        <v>0.0942470056940899</v>
+      </c>
+      <c r="BQ19" s="76"/>
+      <c r="BR19" s="83">
         <v>12</v>
       </c>
-      <c r="BM19" s="75">
-        <f>(BJ19-BK19)*100</f>
-        <v>86.9999999999999</v>
-      </c>
-      <c r="BN19" s="79">
-        <f>FLOOR(304/(BJ19-BK19),100)</f>
-        <v>300</v>
-      </c>
-      <c r="BO19" s="80">
-        <f>(BL19-BJ19)/(BJ19-BK19)</f>
-        <v>1.97701149425288</v>
-      </c>
-      <c r="BP19" s="81">
-        <f>(BJ19-BK19)/BJ19</f>
-        <v>0.0846303501945525</v>
-      </c>
-      <c r="BQ19" s="81">
-        <f>(BL19-BJ19)/BJ19</f>
-        <v>0.167315175097276</v>
-      </c>
-      <c r="BR19" s="88">
-        <v>18.1</v>
-      </c>
-      <c r="BS19" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT19" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="36" spans="1:72">
-      <c r="A20" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="24">
-        <v>44536</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="BS19" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT19" s="53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="13" spans="1:72">
+      <c r="A20" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="21">
-        <v>44.31</v>
-      </c>
-      <c r="E20" s="21">
-        <v>44.7</v>
-      </c>
-      <c r="F20" s="21">
-        <v>46.27</v>
-      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="21">
-        <v>47.76</v>
-      </c>
-      <c r="I20" s="21">
-        <v>35.47</v>
-      </c>
-      <c r="J20" s="21">
-        <v>61.98</v>
-      </c>
-      <c r="K20" s="42">
-        <f>(H20-I20)/I20</f>
-        <v>0.346489991542148</v>
-      </c>
-      <c r="L20" s="42">
-        <f>(J20-H20)/J20</f>
-        <v>0.229428848015489</v>
-      </c>
-      <c r="M20" s="21">
-        <v>42.05</v>
-      </c>
-      <c r="N20" s="21">
-        <v>52.97</v>
-      </c>
-      <c r="O20" s="21">
-        <v>42.18</v>
-      </c>
-      <c r="P20" s="21">
-        <v>50.93</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>46.13</v>
-      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
-      <c r="X20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y20" s="42">
-        <f>(J20-M20)/J20</f>
-        <v>0.321555340432398</v>
-      </c>
-      <c r="Z20" s="42">
-        <f>(N20-O20)/N20</f>
-        <v>0.203700207664716</v>
-      </c>
-      <c r="AA20" s="42">
-        <f>(P20-Q20)/P20</f>
-        <v>0.0942470056940899</v>
-      </c>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="36"/>
       <c r="AD20" s="21"/>
-      <c r="AE20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF20" s="56" t="s">
-        <v>130</v>
-      </c>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
       <c r="BC20" s="21"/>
       <c r="BD20" s="21"/>
       <c r="BE20" s="21"/>
       <c r="BF20" s="21"/>
-      <c r="BG20" s="21">
-        <v>52.82</v>
-      </c>
-      <c r="BH20" s="21">
-        <v>40.96</v>
-      </c>
-      <c r="BI20" s="75">
-        <f>BG20-BH20</f>
-        <v>11.86</v>
-      </c>
-      <c r="BJ20" s="21">
-        <v>50.93</v>
-      </c>
-      <c r="BK20" s="21">
-        <v>46.13</v>
-      </c>
+      <c r="BG20" s="21"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
+      <c r="BK20" s="21"/>
       <c r="BL20" s="21"/>
-      <c r="BM20" s="75">
-        <f>(BJ20-BK20)*100</f>
-        <v>480</v>
-      </c>
-      <c r="BN20" s="79">
-        <f>FLOOR(304/(BJ20-BK20),100)</f>
-        <v>0</v>
-      </c>
-      <c r="BO20" s="80"/>
-      <c r="BP20" s="81">
-        <f>(BJ20-BK20)/BJ20</f>
-        <v>0.0942470056940899</v>
-      </c>
-      <c r="BQ20" s="81"/>
-      <c r="BR20" s="88">
-        <v>12</v>
-      </c>
-      <c r="BS20" s="56" t="s">
+      <c r="BM20" s="21"/>
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="21"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="83"/>
+      <c r="BS20" s="21"/>
+      <c r="BT20" s="21"/>
+    </row>
+    <row r="21" ht="13" spans="1:71">
+      <c r="A21" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="BT20" s="56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="13" spans="1:72">
-      <c r="A21" s="102" t="s">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="6"/>
+      <c r="BS21" s="4"/>
+    </row>
+    <row r="22" ht="13" spans="1:71">
+      <c r="A22" s="98" t="s">
         <v>161</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="21"/>
-      <c r="BM21" s="21"/>
-      <c r="BN21" s="21"/>
-      <c r="BO21" s="21"/>
-      <c r="BP21" s="39"/>
-      <c r="BQ21" s="39"/>
-      <c r="BR21" s="88"/>
-      <c r="BS21" s="21"/>
-      <c r="BT21" s="21"/>
-    </row>
-    <row r="22" ht="13" spans="1:71">
-      <c r="A22" s="106" t="s">
-        <v>162</v>
       </c>
       <c r="B22" s="4"/>
       <c r="D22" s="4"/>
@@ -7397,8 +7196,8 @@
       <c r="BS22" s="4"/>
     </row>
     <row r="23" ht="13" spans="1:71">
-      <c r="A23" s="106" t="s">
-        <v>163</v>
+      <c r="A23" s="98" t="s">
+        <v>162</v>
       </c>
       <c r="B23" s="4"/>
       <c r="D23" s="4"/>
@@ -7469,8 +7268,8 @@
       <c r="BS23" s="4"/>
     </row>
     <row r="24" ht="13" spans="1:71">
-      <c r="A24" s="106" t="s">
-        <v>164</v>
+      <c r="A24" s="98" t="s">
+        <v>163</v>
       </c>
       <c r="B24" s="4"/>
       <c r="D24" s="4"/>
@@ -7541,8 +7340,8 @@
       <c r="BS24" s="4"/>
     </row>
     <row r="25" ht="13" spans="1:71">
-      <c r="A25" s="106" t="s">
-        <v>165</v>
+      <c r="A25" s="98" t="s">
+        <v>164</v>
       </c>
       <c r="B25" s="4"/>
       <c r="D25" s="4"/>
@@ -7613,8 +7412,8 @@
       <c r="BS25" s="4"/>
     </row>
     <row r="26" ht="13" spans="1:71">
-      <c r="A26" s="106" t="s">
-        <v>166</v>
+      <c r="A26" s="98" t="s">
+        <v>165</v>
       </c>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -7685,8 +7484,8 @@
       <c r="BS26" s="4"/>
     </row>
     <row r="27" ht="13" spans="1:71">
-      <c r="A27" s="106" t="s">
-        <v>167</v>
+      <c r="A27" s="98" t="s">
+        <v>166</v>
       </c>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -7757,8 +7556,8 @@
       <c r="BS27" s="4"/>
     </row>
     <row r="28" ht="13" spans="1:71">
-      <c r="A28" s="106" t="s">
-        <v>168</v>
+      <c r="A28" s="98" t="s">
+        <v>167</v>
       </c>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -7829,8 +7628,8 @@
       <c r="BS28" s="4"/>
     </row>
     <row r="29" ht="13" spans="1:71">
-      <c r="A29" s="106" t="s">
-        <v>169</v>
+      <c r="A29" s="98" t="s">
+        <v>168</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -7901,8 +7700,8 @@
       <c r="BS29" s="4"/>
     </row>
     <row r="30" ht="13" spans="1:71">
-      <c r="A30" s="106" t="s">
-        <v>170</v>
+      <c r="A30" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -7973,8 +7772,8 @@
       <c r="BS30" s="4"/>
     </row>
     <row r="31" ht="13" spans="1:71">
-      <c r="A31" s="106" t="s">
-        <v>171</v>
+      <c r="A31" s="98" t="s">
+        <v>170</v>
       </c>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -8045,8 +7844,8 @@
       <c r="BS31" s="4"/>
     </row>
     <row r="32" ht="13" spans="1:71">
-      <c r="A32" s="106" t="s">
-        <v>172</v>
+      <c r="A32" s="98" t="s">
+        <v>171</v>
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -8117,8 +7916,8 @@
       <c r="BS32" s="4"/>
     </row>
     <row r="33" ht="13" spans="1:71">
-      <c r="A33" s="106" t="s">
-        <v>173</v>
+      <c r="A33" s="98" t="s">
+        <v>172</v>
       </c>
       <c r="B33" s="4"/>
       <c r="D33" s="4"/>
@@ -8189,8 +7988,8 @@
       <c r="BS33" s="4"/>
     </row>
     <row r="34" ht="13" spans="1:71">
-      <c r="A34" s="106" t="s">
-        <v>174</v>
+      <c r="A34" s="98" t="s">
+        <v>173</v>
       </c>
       <c r="B34" s="4"/>
       <c r="D34" s="4"/>
@@ -8261,8 +8060,8 @@
       <c r="BS34" s="4"/>
     </row>
     <row r="35" ht="13" spans="1:71">
-      <c r="A35" s="106" t="s">
-        <v>175</v>
+      <c r="A35" s="98" t="s">
+        <v>174</v>
       </c>
       <c r="B35" s="4"/>
       <c r="D35" s="4"/>
@@ -8333,8 +8132,8 @@
       <c r="BS35" s="4"/>
     </row>
     <row r="36" ht="13" spans="1:71">
-      <c r="A36" s="106" t="s">
-        <v>176</v>
+      <c r="A36" s="98" t="s">
+        <v>175</v>
       </c>
       <c r="B36" s="4"/>
       <c r="D36" s="4"/>
@@ -8405,8 +8204,8 @@
       <c r="BS36" s="4"/>
     </row>
     <row r="37" ht="13" spans="1:71">
-      <c r="A37" s="106" t="s">
-        <v>177</v>
+      <c r="A37" s="98" t="s">
+        <v>176</v>
       </c>
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
@@ -8477,8 +8276,8 @@
       <c r="BS37" s="4"/>
     </row>
     <row r="38" ht="13" spans="1:71">
-      <c r="A38" s="106" t="s">
-        <v>178</v>
+      <c r="A38" s="98" t="s">
+        <v>177</v>
       </c>
       <c r="B38" s="4"/>
       <c r="D38" s="4"/>
@@ -8549,8 +8348,8 @@
       <c r="BS38" s="4"/>
     </row>
     <row r="39" ht="13" spans="1:71">
-      <c r="A39" s="106" t="s">
-        <v>179</v>
+      <c r="A39" s="98" t="s">
+        <v>178</v>
       </c>
       <c r="B39" s="4"/>
       <c r="D39" s="4"/>
@@ -8621,8 +8420,8 @@
       <c r="BS39" s="4"/>
     </row>
     <row r="40" ht="13" spans="1:71">
-      <c r="A40" s="106" t="s">
-        <v>180</v>
+      <c r="A40" s="98" t="s">
+        <v>179</v>
       </c>
       <c r="B40" s="4"/>
       <c r="D40" s="4"/>
@@ -8693,8 +8492,8 @@
       <c r="BS40" s="4"/>
     </row>
     <row r="41" ht="13" spans="1:71">
-      <c r="A41" s="106" t="s">
-        <v>181</v>
+      <c r="A41" s="98" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="4"/>
       <c r="D41" s="4"/>
@@ -8765,8 +8564,8 @@
       <c r="BS41" s="4"/>
     </row>
     <row r="42" ht="13" spans="1:71">
-      <c r="A42" s="106" t="s">
-        <v>182</v>
+      <c r="A42" s="98" t="s">
+        <v>181</v>
       </c>
       <c r="B42" s="4"/>
       <c r="D42" s="4"/>
@@ -8837,8 +8636,8 @@
       <c r="BS42" s="4"/>
     </row>
     <row r="43" ht="13" spans="1:71">
-      <c r="A43" s="106" t="s">
-        <v>183</v>
+      <c r="A43" s="98" t="s">
+        <v>182</v>
       </c>
       <c r="B43" s="4"/>
       <c r="D43" s="4"/>
@@ -8909,8 +8708,8 @@
       <c r="BS43" s="4"/>
     </row>
     <row r="44" ht="13" spans="1:71">
-      <c r="A44" s="106" t="s">
-        <v>184</v>
+      <c r="A44" s="98" t="s">
+        <v>183</v>
       </c>
       <c r="B44" s="4"/>
       <c r="D44" s="4"/>
@@ -8981,8 +8780,8 @@
       <c r="BS44" s="4"/>
     </row>
     <row r="45" ht="13" spans="1:71">
-      <c r="A45" s="106" t="s">
-        <v>185</v>
+      <c r="A45" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="B45" s="4"/>
       <c r="D45" s="4"/>
@@ -9053,8 +8852,8 @@
       <c r="BS45" s="4"/>
     </row>
     <row r="46" ht="13" spans="1:71">
-      <c r="A46" s="106" t="s">
-        <v>186</v>
+      <c r="A46" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
@@ -9125,8 +8924,8 @@
       <c r="BS46" s="4"/>
     </row>
     <row r="47" ht="13" spans="1:71">
-      <c r="A47" s="106" t="s">
-        <v>187</v>
+      <c r="A47" s="98" t="s">
+        <v>186</v>
       </c>
       <c r="B47" s="4"/>
       <c r="D47" s="4"/>
@@ -9197,8 +8996,8 @@
       <c r="BS47" s="4"/>
     </row>
     <row r="48" ht="13" spans="1:71">
-      <c r="A48" s="106" t="s">
-        <v>188</v>
+      <c r="A48" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
@@ -9269,8 +9068,8 @@
       <c r="BS48" s="4"/>
     </row>
     <row r="49" ht="13" spans="1:71">
-      <c r="A49" s="106" t="s">
-        <v>189</v>
+      <c r="A49" s="98" t="s">
+        <v>188</v>
       </c>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
@@ -9340,10 +9139,8 @@
       <c r="BP49" s="6"/>
       <c r="BS49" s="4"/>
     </row>
-    <row r="50" ht="13" spans="1:71">
-      <c r="A50" s="106" t="s">
-        <v>190</v>
-      </c>
+    <row r="50" spans="1:71">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -38532,75 +38329,8 @@
       <c r="BP466" s="6"/>
       <c r="BS466" s="4"/>
     </row>
-    <row r="467" spans="1:71">
+    <row r="467" spans="1:1">
       <c r="A467" s="4"/>
-      <c r="B467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="4"/>
-      <c r="F467" s="4"/>
-      <c r="G467" s="4"/>
-      <c r="H467" s="4"/>
-      <c r="I467" s="4"/>
-      <c r="J467" s="4"/>
-      <c r="K467" s="4"/>
-      <c r="L467" s="4"/>
-      <c r="M467" s="4"/>
-      <c r="N467" s="4"/>
-      <c r="O467" s="4"/>
-      <c r="P467" s="4"/>
-      <c r="Q467" s="4"/>
-      <c r="R467" s="4"/>
-      <c r="S467" s="4"/>
-      <c r="T467" s="4"/>
-      <c r="U467" s="4"/>
-      <c r="V467" s="4"/>
-      <c r="W467" s="4"/>
-      <c r="X467" s="4"/>
-      <c r="Y467" s="4"/>
-      <c r="Z467" s="4"/>
-      <c r="AA467" s="4"/>
-      <c r="AB467" s="4"/>
-      <c r="AC467" s="6"/>
-      <c r="AD467" s="4"/>
-      <c r="AE467" s="4"/>
-      <c r="AF467" s="4"/>
-      <c r="AG467" s="4"/>
-      <c r="AH467" s="4"/>
-      <c r="AI467" s="6"/>
-      <c r="AJ467" s="6"/>
-      <c r="AK467" s="6"/>
-      <c r="AL467" s="6"/>
-      <c r="AM467" s="6"/>
-      <c r="AN467" s="6"/>
-      <c r="AO467" s="6"/>
-      <c r="AP467" s="6"/>
-      <c r="AQ467" s="6"/>
-      <c r="AR467" s="6"/>
-      <c r="AS467" s="6"/>
-      <c r="AT467" s="6"/>
-      <c r="AU467" s="6"/>
-      <c r="AV467" s="6"/>
-      <c r="AW467" s="6"/>
-      <c r="AX467" s="6"/>
-      <c r="AY467" s="6"/>
-      <c r="AZ467" s="6"/>
-      <c r="BA467" s="6"/>
-      <c r="BB467" s="6"/>
-      <c r="BC467" s="4"/>
-      <c r="BD467" s="4"/>
-      <c r="BE467" s="4"/>
-      <c r="BF467" s="4"/>
-      <c r="BG467" s="4"/>
-      <c r="BH467" s="4"/>
-      <c r="BI467" s="4"/>
-      <c r="BJ467" s="4"/>
-      <c r="BK467" s="4"/>
-      <c r="BL467" s="4"/>
-      <c r="BM467" s="4"/>
-      <c r="BN467" s="4"/>
-      <c r="BO467" s="4"/>
-      <c r="BP467" s="6"/>
-      <c r="BS467" s="4"/>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="4"/>
@@ -38838,9 +38568,6 @@
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="4"/>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="37">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3377,10 +3377,10 @@
   <sheetPr/>
   <dimension ref="A1:DH546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6703,9 +6703,16 @@
       <c r="BD17" s="24"/>
       <c r="BE17" s="24"/>
       <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="87"/>
+      <c r="BG17" s="24">
+        <v>146.55</v>
+      </c>
+      <c r="BH17" s="24">
+        <v>117.44</v>
+      </c>
+      <c r="BI17" s="87">
+        <f>BG17-BH17</f>
+        <v>29.11</v>
+      </c>
       <c r="BJ17" s="24">
         <v>143.8</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -970,6 +970,29 @@
     <t>000041</t>
   </si>
   <si>
+    <r>
+      <t>600032(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江新能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000042</t>
   </si>
   <si>
@@ -1060,10 +1083,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1184,51 +1207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,7 +1222,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,11 +1273,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,14 +1299,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,6 +1332,13 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1372,7 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,13 +1413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,73 +1455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,7 +1485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,31 +1557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,17 +1639,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,35 +1663,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1704,157 +1712,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1882,7 +1905,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,7 +1950,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1952,6 +1975,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,16 +2055,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,6 +2089,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,13 +2130,10 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2116,16 +2142,22 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3337,10 +3369,10 @@
   <sheetPr/>
   <dimension ref="A1:DH546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BN4" sqref="BN4"/>
+      <selection pane="bottomLeft" activeCell="BM17" sqref="BM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3421,36 +3453,36 @@
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
-      <c r="AC1" s="51"/>
+      <c r="AC1" s="53"/>
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="64" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
       <c r="BC1" s="13"/>
       <c r="BD1" s="13"/>
       <c r="BE1" s="13"/>
@@ -3466,47 +3498,47 @@
       <c r="BM1" s="13"/>
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="83"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="84"/>
       <c r="BS1" s="13"/>
       <c r="BT1" s="13"/>
-      <c r="BU1" s="91"/>
-      <c r="BV1" s="91"/>
-      <c r="BW1" s="91"/>
-      <c r="BX1" s="91"/>
-      <c r="BY1" s="91"/>
-      <c r="BZ1" s="91"/>
-      <c r="CA1" s="91"/>
-      <c r="CC1" s="97"/>
-      <c r="CD1" s="97"/>
-      <c r="CE1" s="97"/>
-      <c r="CF1" s="97"/>
-      <c r="CG1" s="97"/>
-      <c r="CH1" s="97"/>
-      <c r="CI1" s="97"/>
-      <c r="CJ1" s="97"/>
-      <c r="CL1" s="97"/>
-      <c r="CM1" s="97"/>
-      <c r="CN1" s="97"/>
-      <c r="CO1" s="97"/>
-      <c r="CP1" s="97"/>
-      <c r="CQ1" s="97"/>
-      <c r="CR1" s="97"/>
-      <c r="CT1" s="97"/>
-      <c r="CU1" s="97"/>
-      <c r="CV1" s="97"/>
-      <c r="CW1" s="97"/>
-      <c r="CX1" s="97"/>
-      <c r="CY1" s="97"/>
-      <c r="CZ1" s="97"/>
-      <c r="DB1" s="97"/>
-      <c r="DC1" s="97"/>
-      <c r="DD1" s="97"/>
-      <c r="DE1" s="97"/>
-      <c r="DF1" s="97"/>
-      <c r="DG1" s="97"/>
-      <c r="DH1" s="97"/>
+      <c r="BU1" s="94"/>
+      <c r="BV1" s="94"/>
+      <c r="BW1" s="94"/>
+      <c r="BX1" s="94"/>
+      <c r="BY1" s="94"/>
+      <c r="BZ1" s="94"/>
+      <c r="CA1" s="94"/>
+      <c r="CC1" s="100"/>
+      <c r="CD1" s="100"/>
+      <c r="CE1" s="100"/>
+      <c r="CF1" s="100"/>
+      <c r="CG1" s="100"/>
+      <c r="CH1" s="100"/>
+      <c r="CI1" s="100"/>
+      <c r="CJ1" s="100"/>
+      <c r="CL1" s="100"/>
+      <c r="CM1" s="100"/>
+      <c r="CN1" s="100"/>
+      <c r="CO1" s="100"/>
+      <c r="CP1" s="100"/>
+      <c r="CQ1" s="100"/>
+      <c r="CR1" s="100"/>
+      <c r="CT1" s="100"/>
+      <c r="CU1" s="100"/>
+      <c r="CV1" s="100"/>
+      <c r="CW1" s="100"/>
+      <c r="CX1" s="100"/>
+      <c r="CY1" s="100"/>
+      <c r="CZ1" s="100"/>
+      <c r="DB1" s="100"/>
+      <c r="DC1" s="100"/>
+      <c r="DD1" s="100"/>
+      <c r="DE1" s="100"/>
+      <c r="DF1" s="100"/>
+      <c r="DG1" s="100"/>
+      <c r="DH1" s="100"/>
     </row>
     <row r="2" ht="23.6" spans="1:112">
       <c r="A2" s="10"/>
@@ -3521,25 +3553,25 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="15"/>
@@ -3557,45 +3589,45 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
-      <c r="AC2" s="52"/>
+      <c r="AC2" s="54"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
       <c r="AF2" s="15"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63" t="s">
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="64" t="s">
+      <c r="AI2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="33" t="s">
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65"/>
+      <c r="BC2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="BD2" s="14"/>
@@ -3606,75 +3638,75 @@
       </c>
       <c r="BH2" s="15"/>
       <c r="BI2" s="15"/>
-      <c r="BJ2" s="33" t="s">
+      <c r="BJ2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="33" t="s">
+      <c r="BK2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="33" t="s">
+      <c r="BL2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BM2" s="33" t="s">
+      <c r="BM2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="33" t="s">
+      <c r="BN2" s="35" t="s">
         <v>30</v>
       </c>
       <c r="BO2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="52" t="s">
+      <c r="BP2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BQ2" s="52" t="s">
+      <c r="BQ2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="BR2" s="84" t="s">
+      <c r="BR2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="BS2" s="33" t="s">
+      <c r="BS2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="BT2" s="85" t="s">
+      <c r="BT2" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="BU2" s="91"/>
-      <c r="BV2" s="91"/>
-      <c r="BW2" s="91"/>
-      <c r="BX2" s="91"/>
-      <c r="BY2" s="91"/>
-      <c r="BZ2" s="91"/>
-      <c r="CA2" s="91"/>
-      <c r="CC2" s="97"/>
-      <c r="CD2" s="97"/>
-      <c r="CE2" s="97"/>
-      <c r="CF2" s="97"/>
-      <c r="CG2" s="97"/>
-      <c r="CH2" s="97"/>
-      <c r="CI2" s="97"/>
-      <c r="CJ2" s="97"/>
-      <c r="CL2" s="97"/>
-      <c r="CM2" s="97"/>
-      <c r="CN2" s="97"/>
-      <c r="CO2" s="97"/>
-      <c r="CP2" s="97"/>
-      <c r="CQ2" s="97"/>
-      <c r="CR2" s="97"/>
-      <c r="CT2" s="97"/>
-      <c r="CU2" s="97"/>
-      <c r="CV2" s="97"/>
-      <c r="CW2" s="97"/>
-      <c r="CX2" s="97"/>
-      <c r="CY2" s="97"/>
-      <c r="CZ2" s="97"/>
-      <c r="DB2" s="97"/>
-      <c r="DC2" s="97"/>
-      <c r="DD2" s="97"/>
-      <c r="DE2" s="97"/>
-      <c r="DF2" s="97"/>
-      <c r="DG2" s="97"/>
-      <c r="DH2" s="97"/>
+      <c r="BU2" s="94"/>
+      <c r="BV2" s="94"/>
+      <c r="BW2" s="94"/>
+      <c r="BX2" s="94"/>
+      <c r="BY2" s="94"/>
+      <c r="BZ2" s="94"/>
+      <c r="CA2" s="94"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100"/>
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="100"/>
+      <c r="CO2" s="100"/>
+      <c r="CP2" s="100"/>
+      <c r="CQ2" s="100"/>
+      <c r="CR2" s="100"/>
+      <c r="CT2" s="100"/>
+      <c r="CU2" s="100"/>
+      <c r="CV2" s="100"/>
+      <c r="CW2" s="100"/>
+      <c r="CX2" s="100"/>
+      <c r="CY2" s="100"/>
+      <c r="CZ2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
     </row>
     <row r="3" ht="48" spans="1:112">
       <c r="A3" s="10"/>
@@ -3685,41 +3717,41 @@
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="37" t="s">
         <v>47</v>
       </c>
       <c r="X3" s="14" t="s">
@@ -3737,7 +3769,7 @@
       <c r="AB3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="52" t="s">
+      <c r="AC3" s="54" t="s">
         <v>53</v>
       </c>
       <c r="AD3" s="14" t="s">
@@ -3746,138 +3778,138 @@
       <c r="AE3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="64" t="s">
+      <c r="AJ3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="64" t="s">
+      <c r="AK3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="64" t="s">
+      <c r="AL3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="64" t="s">
+      <c r="AM3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="64" t="s">
+      <c r="AN3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="64" t="s">
+      <c r="AO3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="64" t="s">
+      <c r="AP3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="64" t="s">
+      <c r="AQ3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="64" t="s">
+      <c r="AR3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="64" t="s">
+      <c r="AS3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="64" t="s">
+      <c r="AT3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="64" t="s">
+      <c r="AU3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="64" t="s">
+      <c r="AV3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="64" t="s">
+      <c r="AW3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="64" t="s">
+      <c r="AX3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="64" t="s">
+      <c r="AY3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="64" t="s">
+      <c r="AZ3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="64" t="s">
+      <c r="BA3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="64" t="s">
+      <c r="BB3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="71" t="s">
+      <c r="BC3" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="71" t="s">
+      <c r="BD3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="73" t="s">
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="73" t="s">
+      <c r="BH3" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" s="72" t="s">
+      <c r="BI3" s="74" t="s">
         <v>65</v>
       </c>
       <c r="BJ3" s="15"/>
       <c r="BK3" s="15"/>
       <c r="BL3" s="15"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35"/>
       <c r="BO3" s="15"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="84"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="85"/>
       <c r="BS3" s="15"/>
-      <c r="BT3" s="86"/>
-      <c r="BU3" s="91"/>
-      <c r="BV3" s="91"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="91"/>
-      <c r="BZ3" s="91"/>
-      <c r="CA3" s="91"/>
-      <c r="CC3" s="97"/>
-      <c r="CD3" s="97"/>
-      <c r="CE3" s="97"/>
-      <c r="CF3" s="97"/>
-      <c r="CG3" s="97"/>
-      <c r="CH3" s="97"/>
-      <c r="CI3" s="97"/>
-      <c r="CJ3" s="97"/>
-      <c r="CL3" s="97"/>
-      <c r="CM3" s="97"/>
-      <c r="CN3" s="97"/>
-      <c r="CO3" s="97"/>
-      <c r="CP3" s="97"/>
-      <c r="CQ3" s="97"/>
-      <c r="CR3" s="97"/>
-      <c r="CT3" s="97"/>
-      <c r="CU3" s="97"/>
-      <c r="CV3" s="97"/>
-      <c r="CW3" s="97"/>
-      <c r="CX3" s="97"/>
-      <c r="CY3" s="97"/>
-      <c r="CZ3" s="97"/>
-      <c r="DB3" s="97"/>
-      <c r="DC3" s="97"/>
-      <c r="DD3" s="97"/>
-      <c r="DE3" s="97"/>
-      <c r="DF3" s="97"/>
-      <c r="DG3" s="97"/>
-      <c r="DH3" s="97"/>
+      <c r="BT3" s="87"/>
+      <c r="BU3" s="94"/>
+      <c r="BV3" s="94"/>
+      <c r="BW3" s="94"/>
+      <c r="BX3" s="94"/>
+      <c r="BY3" s="94"/>
+      <c r="BZ3" s="94"/>
+      <c r="CA3" s="94"/>
+      <c r="CC3" s="100"/>
+      <c r="CD3" s="100"/>
+      <c r="CE3" s="100"/>
+      <c r="CF3" s="100"/>
+      <c r="CG3" s="100"/>
+      <c r="CH3" s="100"/>
+      <c r="CI3" s="100"/>
+      <c r="CJ3" s="100"/>
+      <c r="CL3" s="100"/>
+      <c r="CM3" s="100"/>
+      <c r="CN3" s="100"/>
+      <c r="CO3" s="100"/>
+      <c r="CP3" s="100"/>
+      <c r="CQ3" s="100"/>
+      <c r="CR3" s="100"/>
+      <c r="CT3" s="100"/>
+      <c r="CU3" s="100"/>
+      <c r="CV3" s="100"/>
+      <c r="CW3" s="100"/>
+      <c r="CX3" s="100"/>
+      <c r="CY3" s="100"/>
+      <c r="CZ3" s="100"/>
+      <c r="DB3" s="100"/>
+      <c r="DC3" s="100"/>
+      <c r="DD3" s="100"/>
+      <c r="DE3" s="100"/>
+      <c r="DF3" s="100"/>
+      <c r="DG3" s="100"/>
+      <c r="DH3" s="100"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:112">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="102" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="16">
@@ -3895,7 +3927,7 @@
       <c r="F4" s="18">
         <v>24.52</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H4" s="18">
@@ -3907,11 +3939,11 @@
       <c r="J4" s="18">
         <v>46.33</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="41">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="41">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
@@ -3942,67 +3974,67 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="41">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="41">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="41">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="41">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4" s="41">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="53">
+      <c r="AD4" s="55">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AF4" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
       <c r="BC4" s="18"/>
       <c r="BD4" s="18"/>
       <c r="BE4" s="18"/>
@@ -4034,66 +4066,66 @@
         <f>FLOOR(300/(BJ4-BK4),100)</f>
         <v>100</v>
       </c>
-      <c r="BO4" s="77">
+      <c r="BO4" s="79">
         <f>(BL4-BJ4)/(BJ4-BK4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BP4" s="39">
+      <c r="BP4" s="41">
         <f>(BJ4-BK4)/BJ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BQ4" s="39">
+      <c r="BQ4" s="41">
         <f>(BL4-BJ4)/BJ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BR4" s="87">
+      <c r="BR4" s="88">
         <v>150.88</v>
       </c>
-      <c r="BS4" s="54" t="s">
+      <c r="BS4" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" s="56" t="s">
+      <c r="BT4" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU4" s="92"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="93"/>
-      <c r="BX4" s="93"/>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CC4" s="98"/>
-      <c r="CD4" s="98"/>
-      <c r="CE4" s="98"/>
-      <c r="CF4" s="98"/>
-      <c r="CG4" s="98"/>
-      <c r="CH4" s="98"/>
-      <c r="CI4" s="98"/>
-      <c r="CJ4" s="98"/>
-      <c r="CL4" s="98"/>
-      <c r="CM4" s="98"/>
-      <c r="CN4" s="98"/>
-      <c r="CO4" s="98"/>
-      <c r="CP4" s="98"/>
-      <c r="CQ4" s="98"/>
-      <c r="CR4" s="98"/>
-      <c r="CT4" s="98"/>
-      <c r="CU4" s="98"/>
-      <c r="CV4" s="98"/>
-      <c r="CW4" s="98"/>
-      <c r="CX4" s="98"/>
-      <c r="CY4" s="98"/>
-      <c r="CZ4" s="98"/>
-      <c r="DB4" s="98"/>
-      <c r="DC4" s="98"/>
-      <c r="DD4" s="98"/>
-      <c r="DE4" s="98"/>
-      <c r="DF4" s="98"/>
-      <c r="DG4" s="98"/>
-      <c r="DH4" s="98"/>
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="96"/>
+      <c r="BW4" s="96"/>
+      <c r="BX4" s="96"/>
+      <c r="BY4" s="96"/>
+      <c r="BZ4" s="96"/>
+      <c r="CA4" s="96"/>
+      <c r="CC4" s="101"/>
+      <c r="CD4" s="101"/>
+      <c r="CE4" s="101"/>
+      <c r="CF4" s="101"/>
+      <c r="CG4" s="101"/>
+      <c r="CH4" s="101"/>
+      <c r="CI4" s="101"/>
+      <c r="CJ4" s="101"/>
+      <c r="CL4" s="101"/>
+      <c r="CM4" s="101"/>
+      <c r="CN4" s="101"/>
+      <c r="CO4" s="101"/>
+      <c r="CP4" s="101"/>
+      <c r="CQ4" s="101"/>
+      <c r="CR4" s="101"/>
+      <c r="CT4" s="101"/>
+      <c r="CU4" s="101"/>
+      <c r="CV4" s="101"/>
+      <c r="CW4" s="101"/>
+      <c r="CX4" s="101"/>
+      <c r="CY4" s="101"/>
+      <c r="CZ4" s="101"/>
+      <c r="DB4" s="101"/>
+      <c r="DC4" s="101"/>
+      <c r="DD4" s="101"/>
+      <c r="DE4" s="101"/>
+      <c r="DF4" s="101"/>
+      <c r="DG4" s="101"/>
+      <c r="DH4" s="101"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:73">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="102" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="16">
@@ -4111,7 +4143,7 @@
       <c r="F5" s="18">
         <v>33.17</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="18">
@@ -4123,11 +4155,11 @@
       <c r="J5" s="18">
         <v>44.42</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="41">
         <f t="shared" ref="K5:K20" si="1">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="41">
         <f t="shared" ref="L5:L20" si="2">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
@@ -4152,101 +4184,101 @@
       <c r="S5" s="18">
         <v>32.53</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="41">
         <f t="shared" ref="Y5:Y20" si="3">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="41">
         <f t="shared" ref="Z5:Z20" si="4">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="41">
         <f t="shared" ref="AA5:AA20" si="5">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="41">
         <f t="shared" ref="AB5:AB17" si="6">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="39" t="e">
-        <f>(T5-U5)/T5</f>
+      <c r="AC5" s="41" t="e">
+        <f t="shared" ref="AC5:AC15" si="7">(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="53" t="e">
-        <f t="shared" ref="AD5:AD17" si="7">(V5-W5)/V5</f>
+      <c r="AD5" s="55" t="e">
+        <f t="shared" ref="AD5:AD17" si="8">(V5-W5)/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AE5" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="54" t="s">
+      <c r="AF5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54" t="s">
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="39">
+      <c r="AI5" s="41">
         <v>0.0351</v>
       </c>
-      <c r="AJ5" s="39">
+      <c r="AJ5" s="41">
         <v>0.3603</v>
       </c>
-      <c r="AK5" s="39">
+      <c r="AK5" s="41">
         <v>0.3371</v>
       </c>
-      <c r="AL5" s="39">
+      <c r="AL5" s="41">
         <v>0.2435</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="41">
         <v>0.263</v>
       </c>
-      <c r="AN5" s="39">
+      <c r="AN5" s="41">
         <v>0.003</v>
       </c>
-      <c r="AO5" s="39">
+      <c r="AO5" s="41">
         <v>0.0758</v>
       </c>
-      <c r="AP5" s="39">
+      <c r="AP5" s="41">
         <v>-0.2476</v>
       </c>
-      <c r="AQ5" s="39">
+      <c r="AQ5" s="41">
         <v>0.0073</v>
       </c>
-      <c r="AR5" s="39">
+      <c r="AR5" s="41">
         <v>0.2143</v>
       </c>
-      <c r="AS5" s="39">
+      <c r="AS5" s="41">
         <v>0.156</v>
       </c>
-      <c r="AT5" s="39">
+      <c r="AT5" s="41">
         <v>0.1125</v>
       </c>
-      <c r="AU5" s="70">
+      <c r="AU5" s="72">
         <v>0.2584</v>
       </c>
-      <c r="AV5" s="70">
+      <c r="AV5" s="72">
         <v>-0.0411</v>
       </c>
-      <c r="AW5" s="70">
+      <c r="AW5" s="72">
         <v>0.0156</v>
       </c>
-      <c r="AX5" s="70">
+      <c r="AX5" s="72">
         <v>-0.167</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="72">
         <v>0.4704</v>
       </c>
-      <c r="AZ5" s="70">
+      <c r="AZ5" s="72">
         <v>0.4673</v>
       </c>
-      <c r="BA5" s="70">
+      <c r="BA5" s="72">
         <v>0.4797</v>
       </c>
-      <c r="BB5" s="70">
+      <c r="BB5" s="72">
         <v>0.4796</v>
       </c>
       <c r="BC5" s="18"/>
@@ -4260,7 +4292,7 @@
         <v>31.36</v>
       </c>
       <c r="BI5" s="18">
-        <f t="shared" ref="BI5:BI20" si="8">BG5-BH5</f>
+        <f t="shared" ref="BI5:BI20" si="9">BG5-BH5</f>
         <v>4.12</v>
       </c>
       <c r="BJ5" s="18">
@@ -4277,34 +4309,34 @@
         <v>159</v>
       </c>
       <c r="BN5" s="18">
-        <f t="shared" ref="BN4:BN9" si="9">FLOOR(300/(BJ5-BK5),100)</f>
+        <f t="shared" ref="BN4:BN9" si="10">FLOOR(300/(BJ5-BK5),100)</f>
         <v>100</v>
       </c>
-      <c r="BO5" s="77">
-        <f t="shared" ref="BO5:BO18" si="10">(BL5-BJ5)/(BJ5-BK5)</f>
+      <c r="BO5" s="79">
+        <f t="shared" ref="BO5:BO18" si="11">(BL5-BJ5)/(BJ5-BK5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BP5" s="39">
-        <f t="shared" ref="BP5:BP20" si="11">(BJ5-BK5)/BJ5</f>
+      <c r="BP5" s="41">
+        <f t="shared" ref="BP5:BP20" si="12">(BJ5-BK5)/BJ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BQ5" s="39">
-        <f t="shared" ref="BQ5:BQ18" si="12">(BL5-BJ5)/BJ5</f>
+      <c r="BQ5" s="41">
+        <f t="shared" ref="BQ5:BQ18" si="13">(BL5-BJ5)/BJ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BR5" s="87">
+      <c r="BR5" s="88">
         <v>37.41</v>
       </c>
-      <c r="BS5" s="49" t="s">
+      <c r="BS5" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="BT5" s="56" t="s">
+      <c r="BT5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU5" s="94"/>
+      <c r="BU5" s="97"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="16">
@@ -4322,7 +4354,7 @@
       <c r="F6" s="18">
         <v>31.53</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="18">
@@ -4334,11 +4366,11 @@
       <c r="J6" s="18">
         <v>41.5</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="41">
         <f t="shared" si="1"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="41">
         <f t="shared" si="2"/>
         <v>0.215180722891566</v>
       </c>
@@ -4357,111 +4389,111 @@
       <c r="Q6" s="18">
         <v>30.89</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="48">
         <v>34.66</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="49">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="49" t="s">
+      <c r="X6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6" s="41">
         <f t="shared" si="3"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="41">
         <f t="shared" si="4"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="41">
         <f t="shared" si="5"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="41">
         <f t="shared" si="6"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="39" t="e">
-        <f>(T6-U6)/T6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD6" s="53" t="e">
+      <c r="AC6" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="49" t="s">
+      <c r="AD6" s="55" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="AF6" s="54" t="s">
+      <c r="AF6" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54" t="s">
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="AI6" s="67" t="s">
+      <c r="AI6" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="AJ6" s="67" t="s">
+      <c r="AJ6" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="AK6" s="67" t="s">
+      <c r="AK6" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="AL6" s="67" t="s">
+      <c r="AL6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="67" t="s">
+      <c r="AM6" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="67" t="s">
+      <c r="AN6" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="67" t="s">
+      <c r="AO6" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" s="67" t="s">
+      <c r="AP6" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" s="67" t="s">
+      <c r="AQ6" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="67" t="s">
+      <c r="AR6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="67" t="s">
+      <c r="AS6" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="67" t="s">
+      <c r="AT6" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AU6" s="67">
+      <c r="AU6" s="68">
         <v>0.0455</v>
       </c>
-      <c r="AV6" s="67">
+      <c r="AV6" s="68">
         <v>-0.0116</v>
       </c>
-      <c r="AW6" s="67">
+      <c r="AW6" s="68">
         <v>0.1549</v>
       </c>
-      <c r="AX6" s="67">
+      <c r="AX6" s="68">
         <v>-0.1474</v>
       </c>
-      <c r="AY6" s="67">
+      <c r="AY6" s="68">
         <v>0.2133</v>
       </c>
-      <c r="AZ6" s="67">
+      <c r="AZ6" s="68">
         <v>0.1848</v>
       </c>
-      <c r="BA6" s="39">
+      <c r="BA6" s="41">
         <v>0.1718</v>
       </c>
-      <c r="BB6" s="39">
+      <c r="BB6" s="41">
         <v>0.1605</v>
       </c>
       <c r="BC6" s="18"/>
@@ -4475,7 +4507,7 @@
         <v>27.35</v>
       </c>
       <c r="BI6" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.86</v>
       </c>
       <c r="BJ6" s="18">
@@ -4492,34 +4524,34 @@
         <v>176</v>
       </c>
       <c r="BN6" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BO6" s="77">
-        <f t="shared" si="10"/>
+      <c r="BO6" s="79">
+        <f t="shared" si="11"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BP6" s="39">
-        <f t="shared" si="11"/>
+      <c r="BP6" s="41">
+        <f t="shared" si="12"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BQ6" s="39">
-        <f t="shared" si="12"/>
+      <c r="BQ6" s="41">
+        <f t="shared" si="13"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BR6" s="87">
+      <c r="BR6" s="88">
         <v>28.82</v>
       </c>
-      <c r="BS6" s="49" t="s">
+      <c r="BS6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="BT6" s="56" t="s">
+      <c r="BT6" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU6" s="95"/>
+      <c r="BU6" s="98"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:73">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="102" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="19">
@@ -4549,11 +4581,11 @@
       <c r="J7" s="21">
         <v>90.29</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="41">
         <f t="shared" si="1"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="41">
         <f t="shared" si="2"/>
         <v>0.234023701406579</v>
       </c>
@@ -4587,95 +4619,98 @@
       <c r="X7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="41">
         <f t="shared" si="3"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="41">
         <f t="shared" si="4"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA7" s="41">
         <f t="shared" si="5"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="41">
         <f t="shared" si="6"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="53" t="e">
+      <c r="AC7" s="41">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="55" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF7" s="55" t="s">
+      <c r="AF7" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55">
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57">
         <v>10.35</v>
       </c>
-      <c r="AI7" s="67" t="s">
+      <c r="AI7" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="67" t="s">
+      <c r="AJ7" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AK7" s="67" t="s">
+      <c r="AK7" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AL7" s="67" t="s">
+      <c r="AL7" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="67" t="s">
+      <c r="AM7" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AN7" s="67" t="s">
+      <c r="AN7" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="AP7" s="67" t="s">
+      <c r="AP7" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="AQ7" s="67" t="s">
+      <c r="AQ7" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="AR7" s="67" t="s">
+      <c r="AR7" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="AS7" s="67" t="s">
+      <c r="AS7" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="AT7" s="67" t="s">
+      <c r="AT7" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AU7" s="67" t="s">
+      <c r="AU7" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="67" t="s">
+      <c r="AV7" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AW7" s="67" t="s">
+      <c r="AW7" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AX7" s="67" t="s">
+      <c r="AX7" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" s="67" t="s">
+      <c r="AY7" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="AZ7" s="67" t="s">
+      <c r="AZ7" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="BA7" s="39">
+      <c r="BA7" s="41">
         <v>0.7636</v>
       </c>
-      <c r="BB7" s="39">
+      <c r="BB7" s="41">
         <v>0.7607</v>
       </c>
       <c r="BC7" s="21"/>
@@ -4689,7 +4724,7 @@
         <v>62.33</v>
       </c>
       <c r="BI7" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.69</v>
       </c>
       <c r="BJ7" s="21">
@@ -4706,34 +4741,34 @@
         <v>410.000000000001</v>
       </c>
       <c r="BN7" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BO7" s="77">
-        <f t="shared" si="10"/>
+      <c r="BO7" s="79">
+        <f t="shared" si="11"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BP7" s="39">
-        <f t="shared" si="11"/>
+      <c r="BP7" s="41">
+        <f t="shared" si="12"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BQ7" s="39">
-        <f t="shared" si="12"/>
+      <c r="BQ7" s="41">
+        <f t="shared" si="13"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BR7" s="88">
+      <c r="BR7" s="89">
         <v>6.49</v>
       </c>
-      <c r="BS7" s="55" t="s">
+      <c r="BS7" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="BT7" s="56" t="s">
+      <c r="BT7" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU7" s="95"/>
+      <c r="BU7" s="98"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:73">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="103" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="19">
@@ -4761,11 +4796,11 @@
       <c r="J8" s="21">
         <v>48.5</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="42">
         <f t="shared" si="1"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="42">
         <f t="shared" si="2"/>
         <v>0.387835051546392</v>
       </c>
@@ -4793,58 +4828,58 @@
       <c r="X8" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="42">
         <f t="shared" si="3"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="42">
         <f t="shared" si="4"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="42">
         <f t="shared" si="5"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="40" t="e">
+      <c r="AB8" s="42" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="40" t="e">
-        <f>(T8-U8)/T8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="53" t="e">
+      <c r="AC8" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD8" s="55" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AF8" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="40"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
       <c r="BC8" s="21"/>
       <c r="BD8" s="21"/>
       <c r="BE8" s="21"/>
@@ -4855,8 +4890,8 @@
       <c r="BH8" s="21">
         <v>26.16</v>
       </c>
-      <c r="BI8" s="74">
-        <f t="shared" si="8"/>
+      <c r="BI8" s="76">
+        <f t="shared" si="9"/>
         <v>6.27</v>
       </c>
       <c r="BJ8" s="21">
@@ -4868,39 +4903,39 @@
       <c r="BL8" s="21">
         <v>38.71</v>
       </c>
-      <c r="BM8" s="74">
+      <c r="BM8" s="76">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="BN8" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="BO8" s="78">
-        <f t="shared" si="10"/>
+      <c r="BO8" s="80">
+        <f t="shared" si="11"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BP8" s="40">
-        <f t="shared" si="11"/>
+      <c r="BP8" s="42">
+        <f t="shared" si="12"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BQ8" s="40">
-        <f t="shared" si="12"/>
+      <c r="BQ8" s="42">
+        <f t="shared" si="13"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BR8" s="88">
+      <c r="BR8" s="89">
         <v>38.46</v>
       </c>
-      <c r="BS8" s="55" t="s">
+      <c r="BS8" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" s="56" t="s">
+      <c r="BT8" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU8" s="95"/>
+      <c r="BU8" s="98"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13" spans="1:73">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="103" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="22">
@@ -4928,11 +4963,11 @@
       <c r="J9" s="2">
         <v>31.94</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="41">
         <f t="shared" si="1"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="41">
         <f t="shared" si="2"/>
         <v>0.0923606762680026</v>
       </c>
@@ -4964,98 +4999,98 @@
       <c r="X9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="41">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="41">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="41">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="41">
         <f t="shared" si="6"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="40" t="e">
-        <f>(T9-U9)/T9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD9" s="53" t="e">
+      <c r="AC9" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD9" s="55" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AF9" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56">
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58">
         <v>6.25</v>
       </c>
-      <c r="AI9" s="67">
+      <c r="AI9" s="68">
         <v>1.5016</v>
       </c>
-      <c r="AJ9" s="67">
+      <c r="AJ9" s="68">
         <v>5.5181</v>
       </c>
-      <c r="AK9" s="67">
+      <c r="AK9" s="68">
         <v>3.3249</v>
       </c>
-      <c r="AL9" s="67">
+      <c r="AL9" s="68">
         <v>1.8449</v>
       </c>
-      <c r="AM9" s="67">
+      <c r="AM9" s="68">
         <v>0.3554</v>
       </c>
-      <c r="AN9" s="67">
+      <c r="AN9" s="68">
         <v>0.2495</v>
       </c>
-      <c r="AO9" s="67">
+      <c r="AO9" s="68">
         <v>0.1071</v>
       </c>
-      <c r="AP9" s="67">
+      <c r="AP9" s="68">
         <v>-0.134</v>
       </c>
-      <c r="AQ9" s="67">
+      <c r="AQ9" s="68">
         <v>0.0437</v>
       </c>
-      <c r="AR9" s="67">
+      <c r="AR9" s="68">
         <v>1.1403</v>
       </c>
-      <c r="AS9" s="67">
+      <c r="AS9" s="68">
         <v>1.4349</v>
       </c>
-      <c r="AT9" s="67">
+      <c r="AT9" s="68">
         <v>1.2425</v>
       </c>
-      <c r="AU9" s="67">
+      <c r="AU9" s="68">
         <v>0.2131</v>
       </c>
-      <c r="AV9" s="67">
+      <c r="AV9" s="68">
         <v>0.2062</v>
       </c>
-      <c r="AW9" s="67">
+      <c r="AW9" s="68">
         <v>0.334</v>
       </c>
-      <c r="AX9" s="67">
+      <c r="AX9" s="68">
         <v>0.0105</v>
       </c>
-      <c r="AY9" s="67">
+      <c r="AY9" s="68">
         <v>0.3392</v>
       </c>
-      <c r="AZ9" s="67">
+      <c r="AZ9" s="68">
         <v>0.3777</v>
       </c>
-      <c r="BA9" s="39">
+      <c r="BA9" s="41">
         <v>0.3722</v>
       </c>
-      <c r="BB9" s="39">
+      <c r="BB9" s="41">
         <v>0.3621</v>
       </c>
       <c r="BC9" s="2"/>
@@ -5069,7 +5104,7 @@
         <v>21.1</v>
       </c>
       <c r="BI9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.08</v>
       </c>
       <c r="BJ9" s="2">
@@ -5086,34 +5121,34 @@
         <v>205</v>
       </c>
       <c r="BN9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BO9" s="77">
-        <f t="shared" si="10"/>
+      <c r="BO9" s="79">
+        <f t="shared" si="11"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BP9" s="39">
-        <f t="shared" si="11"/>
+      <c r="BP9" s="41">
+        <f t="shared" si="12"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BQ9" s="39">
-        <f t="shared" si="12"/>
+      <c r="BQ9" s="41">
+        <f t="shared" si="13"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BR9" s="87">
+      <c r="BR9" s="88">
         <v>17.95</v>
       </c>
-      <c r="BS9" s="56" t="s">
+      <c r="BS9" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="BT9" s="56" t="s">
+      <c r="BT9" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="BU9" s="95"/>
+      <c r="BU9" s="98"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="24" spans="1:72">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="104" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="24">
@@ -5141,11 +5176,11 @@
       <c r="J10" s="23">
         <v>26.64</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="43">
         <f t="shared" si="1"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="43">
         <f t="shared" si="2"/>
         <v>0.123498498498498</v>
       </c>
@@ -5177,98 +5212,98 @@
       <c r="X10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Y10" s="41">
+      <c r="Y10" s="43">
         <f t="shared" si="3"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="41">
+      <c r="Z10" s="43">
         <f t="shared" si="4"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="41">
+      <c r="AA10" s="43">
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="41">
+      <c r="AB10" s="43">
         <f t="shared" si="6"/>
         <v>0.123456790123457</v>
       </c>
-      <c r="AC10" s="57" t="e">
-        <f>(T10-U10)/T10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD10" s="58" t="e">
+      <c r="AC10" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD10" s="59" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="59" t="s">
+      <c r="AF10" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59">
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60">
         <v>0.77</v>
       </c>
-      <c r="AI10" s="69" t="s">
+      <c r="AI10" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="AJ10" s="69" t="s">
+      <c r="AJ10" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="AK10" s="69" t="s">
+      <c r="AK10" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="AL10" s="69" t="s">
+      <c r="AL10" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="69">
+      <c r="AM10" s="70">
         <v>2.6193</v>
       </c>
-      <c r="AN10" s="69">
+      <c r="AN10" s="70">
         <v>0.0893</v>
       </c>
-      <c r="AO10" s="69">
+      <c r="AO10" s="70">
         <v>-0.0175</v>
       </c>
-      <c r="AP10" s="69">
+      <c r="AP10" s="70">
         <v>-0.2195</v>
       </c>
-      <c r="AQ10" s="69">
+      <c r="AQ10" s="70">
         <v>-0.0419</v>
       </c>
-      <c r="AR10" s="69">
+      <c r="AR10" s="70">
         <v>0.1981</v>
       </c>
-      <c r="AS10" s="69">
+      <c r="AS10" s="70">
         <v>0.198</v>
       </c>
-      <c r="AT10" s="69">
+      <c r="AT10" s="70">
         <v>0.1998</v>
       </c>
-      <c r="AU10" s="69">
+      <c r="AU10" s="70">
         <v>0.1893</v>
       </c>
-      <c r="AV10" s="69">
+      <c r="AV10" s="70">
         <v>-0.0513</v>
       </c>
-      <c r="AW10" s="69">
+      <c r="AW10" s="70">
         <v>0.0188</v>
       </c>
-      <c r="AX10" s="69">
+      <c r="AX10" s="70">
         <v>0.0467</v>
       </c>
-      <c r="AY10" s="69">
+      <c r="AY10" s="70">
         <v>0.2619</v>
       </c>
-      <c r="AZ10" s="69">
+      <c r="AZ10" s="70">
         <v>0.259</v>
       </c>
-      <c r="BA10" s="41">
+      <c r="BA10" s="43">
         <v>0.2791</v>
       </c>
-      <c r="BB10" s="41">
+      <c r="BB10" s="43">
         <v>0.1079</v>
       </c>
       <c r="BC10" s="23"/>
@@ -5281,8 +5316,8 @@
       <c r="BH10" s="23">
         <v>19.08</v>
       </c>
-      <c r="BI10" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI10" s="77">
+        <f t="shared" si="9"/>
         <v>6.23</v>
       </c>
       <c r="BJ10" s="23">
@@ -5294,38 +5329,38 @@
       <c r="BL10" s="23">
         <v>26.72</v>
       </c>
-      <c r="BM10" s="75">
+      <c r="BM10" s="77">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="BN10" s="23">
-        <f t="shared" ref="BN10:BN20" si="13">FLOOR(304/(BJ10-BK10),100)</f>
+        <f t="shared" ref="BN10:BN20" si="14">FLOOR(304/(BJ10-BK10),100)</f>
         <v>100</v>
       </c>
-      <c r="BO10" s="79">
-        <f t="shared" si="10"/>
+      <c r="BO10" s="81">
+        <f t="shared" si="11"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BP10" s="41">
-        <f t="shared" si="11"/>
+      <c r="BP10" s="43">
+        <f t="shared" si="12"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BQ10" s="41">
-        <f t="shared" si="12"/>
+      <c r="BQ10" s="43">
+        <f t="shared" si="13"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BR10" s="89">
+      <c r="BR10" s="90">
         <v>56.67</v>
       </c>
-      <c r="BS10" s="59" t="s">
+      <c r="BS10" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT10" s="59" t="s">
+      <c r="BT10" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="24" spans="1:72">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="104" t="s">
         <v>139</v>
       </c>
       <c r="B11" s="26">
@@ -5353,11 +5388,11 @@
       <c r="J11" s="23">
         <v>29.28</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="43">
         <f t="shared" si="1"/>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="43">
         <f t="shared" si="2"/>
         <v>0.238729508196721</v>
       </c>
@@ -5389,98 +5424,98 @@
       <c r="X11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y11" s="41">
+      <c r="Y11" s="43">
         <f t="shared" si="3"/>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="41">
+      <c r="Z11" s="43">
         <f t="shared" si="4"/>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="41">
+      <c r="AA11" s="43">
         <f t="shared" si="5"/>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="41">
+      <c r="AB11" s="43">
         <f t="shared" si="6"/>
         <v>0.105353319057816</v>
       </c>
-      <c r="AC11" s="57" t="e">
-        <f>(T11-U11)/T11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD11" s="58" t="e">
+      <c r="AC11" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD11" s="59" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AF11" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23">
         <v>8.51</v>
       </c>
-      <c r="AI11" s="41">
+      <c r="AI11" s="43">
         <v>3.6019</v>
       </c>
-      <c r="AJ11" s="41">
+      <c r="AJ11" s="43">
         <v>16.933</v>
       </c>
-      <c r="AK11" s="41">
+      <c r="AK11" s="43">
         <v>7.9794</v>
       </c>
-      <c r="AL11" s="41">
+      <c r="AL11" s="43">
         <v>3.2905</v>
       </c>
-      <c r="AM11" s="41">
+      <c r="AM11" s="43">
         <v>1.3176</v>
       </c>
-      <c r="AN11" s="41">
+      <c r="AN11" s="43">
         <v>0.0128</v>
       </c>
-      <c r="AO11" s="41">
+      <c r="AO11" s="43">
         <v>-0.2701</v>
       </c>
-      <c r="AP11" s="41">
+      <c r="AP11" s="43">
         <v>0.2668</v>
       </c>
-      <c r="AQ11" s="41">
+      <c r="AQ11" s="43">
         <v>0.0496</v>
       </c>
-      <c r="AR11" s="41">
+      <c r="AR11" s="43">
         <v>0.7137</v>
       </c>
-      <c r="AS11" s="41">
+      <c r="AS11" s="43">
         <v>0.3284</v>
       </c>
-      <c r="AT11" s="41">
+      <c r="AT11" s="43">
         <v>0.4288</v>
       </c>
-      <c r="AU11" s="41">
+      <c r="AU11" s="43">
         <v>0.52</v>
       </c>
-      <c r="AV11" s="41">
+      <c r="AV11" s="43">
         <v>-0.119</v>
       </c>
-      <c r="AW11" s="41">
+      <c r="AW11" s="43">
         <v>0.0208</v>
       </c>
-      <c r="AX11" s="41">
+      <c r="AX11" s="43">
         <v>0.1948</v>
       </c>
-      <c r="AY11" s="41">
+      <c r="AY11" s="43">
         <v>0.1781</v>
       </c>
-      <c r="AZ11" s="41">
+      <c r="AZ11" s="43">
         <v>0.2286</v>
       </c>
-      <c r="BA11" s="41">
+      <c r="BA11" s="43">
         <v>0.2077</v>
       </c>
-      <c r="BB11" s="41">
+      <c r="BB11" s="43">
         <v>0.1904</v>
       </c>
       <c r="BC11" s="23"/>
@@ -5493,8 +5528,8 @@
       <c r="BH11" s="23">
         <v>18.22</v>
       </c>
-      <c r="BI11" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI11" s="77">
+        <f t="shared" si="9"/>
         <v>5.98</v>
       </c>
       <c r="BJ11" s="23">
@@ -5506,38 +5541,38 @@
       <c r="BL11" s="23">
         <v>28.54</v>
       </c>
-      <c r="BM11" s="75">
+      <c r="BM11" s="77">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="BN11" s="23">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BO11" s="81">
+        <f t="shared" si="11"/>
+        <v>2.54166666666667</v>
+      </c>
+      <c r="BP11" s="43">
+        <f t="shared" si="12"/>
+        <v>0.0937093275488069</v>
+      </c>
+      <c r="BQ11" s="43">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="BO11" s="79">
-        <f t="shared" si="10"/>
-        <v>2.54166666666667</v>
-      </c>
-      <c r="BP11" s="41">
-        <f t="shared" si="11"/>
-        <v>0.0937093275488069</v>
-      </c>
-      <c r="BQ11" s="41">
-        <f t="shared" si="12"/>
         <v>0.238177874186551</v>
       </c>
-      <c r="BR11" s="89">
+      <c r="BR11" s="90">
         <v>39.84</v>
       </c>
-      <c r="BS11" s="59" t="s">
+      <c r="BS11" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT11" s="59" t="s">
+      <c r="BT11" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="24" spans="1:72">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="104" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="26">
@@ -5565,11 +5600,11 @@
       <c r="J12" s="23">
         <v>41.66</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="43">
         <f t="shared" si="1"/>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="43">
         <f t="shared" si="2"/>
         <v>0.0470475276044166</v>
       </c>
@@ -5601,25 +5636,28 @@
       <c r="X12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" s="41">
+      <c r="Y12" s="43">
         <f t="shared" si="3"/>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="41">
+      <c r="Z12" s="43">
         <f t="shared" si="4"/>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="41">
+      <c r="AA12" s="43">
         <f t="shared" si="5"/>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="41">
+      <c r="AB12" s="43">
         <f t="shared" si="6"/>
         <v>0.0831319478008701</v>
       </c>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="58" t="e">
+      <c r="AC12" s="41" t="e">
         <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="59" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE12" s="23" t="s">
@@ -5630,64 +5668,64 @@
       <c r="AH12" s="23">
         <v>2.2</v>
       </c>
-      <c r="AI12" s="41">
+      <c r="AI12" s="43">
         <v>0.0112</v>
       </c>
-      <c r="AJ12" s="41">
+      <c r="AJ12" s="43">
         <v>0.8116</v>
       </c>
-      <c r="AK12" s="41">
+      <c r="AK12" s="43">
         <v>0.7087</v>
       </c>
-      <c r="AL12" s="41">
+      <c r="AL12" s="43">
         <v>0.7083</v>
       </c>
-      <c r="AM12" s="41">
+      <c r="AM12" s="43">
         <v>0.006</v>
       </c>
-      <c r="AN12" s="41">
+      <c r="AN12" s="43">
         <v>0.3442</v>
       </c>
-      <c r="AO12" s="41">
+      <c r="AO12" s="43">
         <v>0.247</v>
       </c>
-      <c r="AP12" s="41">
+      <c r="AP12" s="43">
         <v>0.0127</v>
       </c>
-      <c r="AQ12" s="41">
+      <c r="AQ12" s="43">
         <v>0.1618</v>
       </c>
-      <c r="AR12" s="41">
+      <c r="AR12" s="43">
         <v>1.016</v>
       </c>
-      <c r="AS12" s="41">
+      <c r="AS12" s="43">
         <v>0.5767</v>
       </c>
-      <c r="AT12" s="41">
+      <c r="AT12" s="43">
         <v>0.477</v>
       </c>
-      <c r="AU12" s="41">
+      <c r="AU12" s="43">
         <v>0.4664</v>
       </c>
-      <c r="AV12" s="41">
+      <c r="AV12" s="43">
         <v>-0.1139</v>
       </c>
-      <c r="AW12" s="41">
+      <c r="AW12" s="43">
         <v>-0.0272</v>
       </c>
-      <c r="AX12" s="41">
+      <c r="AX12" s="43">
         <v>0.0402</v>
       </c>
-      <c r="AY12" s="41">
+      <c r="AY12" s="43">
         <v>0.5316</v>
       </c>
-      <c r="AZ12" s="41">
+      <c r="AZ12" s="43">
         <v>0.5499</v>
       </c>
-      <c r="BA12" s="41">
+      <c r="BA12" s="43">
         <v>0.5374</v>
       </c>
-      <c r="BB12" s="41">
+      <c r="BB12" s="43">
         <v>0.5361</v>
       </c>
       <c r="BC12" s="23"/>
@@ -5700,8 +5738,8 @@
       <c r="BH12" s="23">
         <v>32.98</v>
       </c>
-      <c r="BI12" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI12" s="77">
+        <f t="shared" si="9"/>
         <v>9.73</v>
       </c>
       <c r="BJ12" s="23">
@@ -5713,38 +5751,38 @@
       <c r="BL12" s="23">
         <v>42.87</v>
       </c>
-      <c r="BM12" s="75">
+      <c r="BM12" s="77">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="BN12" s="23">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BO12" s="81">
+        <f t="shared" si="11"/>
+        <v>0.987903225806448</v>
+      </c>
+      <c r="BP12" s="43">
+        <f t="shared" si="12"/>
+        <v>0.0613557644730332</v>
+      </c>
+      <c r="BQ12" s="43">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="BO12" s="79">
-        <f t="shared" si="10"/>
-        <v>0.987903225806448</v>
-      </c>
-      <c r="BP12" s="41">
-        <f t="shared" si="11"/>
-        <v>0.0613557644730332</v>
-      </c>
-      <c r="BQ12" s="41">
-        <f t="shared" si="12"/>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BR12" s="89">
+      <c r="BR12" s="90">
         <v>25.4</v>
       </c>
-      <c r="BS12" s="59" t="s">
+      <c r="BS12" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT12" s="59" t="s">
+      <c r="BT12" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="24" spans="1:73">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="105" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="26">
@@ -5772,11 +5810,11 @@
       <c r="J13" s="23">
         <v>31.94</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="43">
         <f t="shared" si="1"/>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="43">
         <f t="shared" si="2"/>
         <v>0.130870381966187</v>
       </c>
@@ -5806,95 +5844,98 @@
       <c r="X13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="43">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="43">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="41">
+      <c r="AA13" s="43">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="41">
+      <c r="AB13" s="43">
         <f t="shared" si="6"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="58" t="e">
+      <c r="AC13" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD13" s="59" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AF13" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59">
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60">
         <v>6.25</v>
       </c>
-      <c r="AI13" s="69">
+      <c r="AI13" s="70">
         <v>1.5016</v>
       </c>
-      <c r="AJ13" s="69">
+      <c r="AJ13" s="70">
         <v>5.5181</v>
       </c>
-      <c r="AK13" s="69">
+      <c r="AK13" s="70">
         <v>3.3249</v>
       </c>
-      <c r="AL13" s="69">
+      <c r="AL13" s="70">
         <v>1.8449</v>
       </c>
-      <c r="AM13" s="69">
+      <c r="AM13" s="70">
         <v>0.3554</v>
       </c>
-      <c r="AN13" s="69">
+      <c r="AN13" s="70">
         <v>0.2495</v>
       </c>
-      <c r="AO13" s="69">
+      <c r="AO13" s="70">
         <v>0.1071</v>
       </c>
-      <c r="AP13" s="69">
+      <c r="AP13" s="70">
         <v>-0.134</v>
       </c>
-      <c r="AQ13" s="69">
+      <c r="AQ13" s="70">
         <v>0.0437</v>
       </c>
-      <c r="AR13" s="69">
+      <c r="AR13" s="70">
         <v>1.1403</v>
       </c>
-      <c r="AS13" s="69">
+      <c r="AS13" s="70">
         <v>1.4349</v>
       </c>
-      <c r="AT13" s="69">
+      <c r="AT13" s="70">
         <v>1.2425</v>
       </c>
-      <c r="AU13" s="69">
+      <c r="AU13" s="70">
         <v>0.2131</v>
       </c>
-      <c r="AV13" s="69">
+      <c r="AV13" s="70">
         <v>0.2062</v>
       </c>
-      <c r="AW13" s="69">
+      <c r="AW13" s="70">
         <v>0.334</v>
       </c>
-      <c r="AX13" s="69">
+      <c r="AX13" s="70">
         <v>0.0105</v>
       </c>
-      <c r="AY13" s="69">
+      <c r="AY13" s="70">
         <v>0.3392</v>
       </c>
-      <c r="AZ13" s="69">
+      <c r="AZ13" s="70">
         <v>0.3777</v>
       </c>
-      <c r="BA13" s="41">
+      <c r="BA13" s="43">
         <v>0.3722</v>
       </c>
-      <c r="BB13" s="41">
+      <c r="BB13" s="43">
         <v>0.3621</v>
       </c>
       <c r="BC13" s="23"/>
@@ -5907,8 +5948,8 @@
       <c r="BH13" s="23">
         <v>22.41</v>
       </c>
-      <c r="BI13" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI13" s="77">
+        <f t="shared" si="9"/>
         <v>8.8</v>
       </c>
       <c r="BJ13" s="23">
@@ -5920,39 +5961,39 @@
       <c r="BL13" s="23">
         <v>35.16</v>
       </c>
-      <c r="BM13" s="75">
+      <c r="BM13" s="77">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="BN13" s="23">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BO13" s="81">
+        <f t="shared" si="11"/>
+        <v>1.68055555555555</v>
+      </c>
+      <c r="BP13" s="43">
+        <f t="shared" si="12"/>
+        <v>0.0949868073878628</v>
+      </c>
+      <c r="BQ13" s="43">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="BO13" s="79">
-        <f t="shared" si="10"/>
-        <v>1.68055555555555</v>
-      </c>
-      <c r="BP13" s="41">
-        <f t="shared" si="11"/>
-        <v>0.0949868073878628</v>
-      </c>
-      <c r="BQ13" s="41">
-        <f t="shared" si="12"/>
         <v>0.159630606860158</v>
       </c>
-      <c r="BR13" s="89">
+      <c r="BR13" s="90">
         <v>17.95</v>
       </c>
-      <c r="BS13" s="59" t="s">
+      <c r="BS13" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT13" s="59" t="s">
+      <c r="BT13" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="BU13" s="96"/>
+      <c r="BU13" s="99"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="24" spans="1:72">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="104" t="s">
         <v>144</v>
       </c>
       <c r="B14" s="26">
@@ -5980,11 +6021,11 @@
       <c r="J14" s="23">
         <v>62.1</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="43">
         <f t="shared" si="1"/>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="43">
         <f t="shared" si="2"/>
         <v>0.131078904991948</v>
       </c>
@@ -6016,95 +6057,98 @@
       <c r="X14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="43">
         <f t="shared" si="3"/>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="43">
         <f t="shared" si="4"/>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="41">
+      <c r="AA14" s="43">
         <f t="shared" si="5"/>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="41">
+      <c r="AB14" s="43">
         <f t="shared" si="6"/>
         <v>0.131321939309383</v>
       </c>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="58" t="e">
+      <c r="AC14" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD14" s="59" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="59" t="s">
+      <c r="AF14" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23">
         <v>34.76</v>
       </c>
-      <c r="AI14" s="41">
+      <c r="AI14" s="43">
         <v>0.4151</v>
       </c>
-      <c r="AJ14" s="41">
+      <c r="AJ14" s="43">
         <v>4.3101</v>
       </c>
-      <c r="AK14" s="41">
+      <c r="AK14" s="43">
         <v>5.7893</v>
       </c>
-      <c r="AL14" s="41">
+      <c r="AL14" s="43">
         <v>5.2189</v>
       </c>
-      <c r="AM14" s="41">
+      <c r="AM14" s="43">
         <v>0.5076</v>
       </c>
-      <c r="AN14" s="41">
+      <c r="AN14" s="43">
         <v>1.5097</v>
       </c>
-      <c r="AO14" s="41">
+      <c r="AO14" s="43">
         <v>0.5596</v>
       </c>
-      <c r="AP14" s="41">
+      <c r="AP14" s="43">
         <v>-0.084</v>
       </c>
-      <c r="AQ14" s="41">
+      <c r="AQ14" s="43">
         <v>0.1501</v>
       </c>
-      <c r="AR14" s="41">
+      <c r="AR14" s="43">
         <v>0.3924</v>
       </c>
-      <c r="AS14" s="41">
+      <c r="AS14" s="43">
         <v>0.602</v>
       </c>
-      <c r="AT14" s="41">
+      <c r="AT14" s="43">
         <v>0.755</v>
       </c>
-      <c r="AU14" s="41">
+      <c r="AU14" s="43">
         <v>0.9365</v>
       </c>
-      <c r="AV14" s="41">
+      <c r="AV14" s="43">
         <v>-0.3372</v>
       </c>
-      <c r="AW14" s="41">
+      <c r="AW14" s="43">
         <v>0.7463</v>
       </c>
-      <c r="AX14" s="41">
+      <c r="AX14" s="43">
         <v>-0.1096</v>
       </c>
-      <c r="AY14" s="41">
+      <c r="AY14" s="43">
         <v>0.1174</v>
       </c>
-      <c r="AZ14" s="41">
+      <c r="AZ14" s="43">
         <v>0.2187</v>
       </c>
-      <c r="BA14" s="41">
+      <c r="BA14" s="43">
         <v>0.2433</v>
       </c>
-      <c r="BB14" s="41">
+      <c r="BB14" s="43">
         <v>0.2275</v>
       </c>
       <c r="BC14" s="23"/>
@@ -6117,8 +6161,8 @@
       <c r="BH14" s="23">
         <v>42.1</v>
       </c>
-      <c r="BI14" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI14" s="77">
+        <f t="shared" si="9"/>
         <v>18.29</v>
       </c>
       <c r="BJ14" s="23">
@@ -6130,38 +6174,38 @@
       <c r="BL14" s="23">
         <v>65.25</v>
       </c>
-      <c r="BM14" s="75">
+      <c r="BM14" s="77">
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
       <c r="BN14" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BO14" s="81">
+        <f t="shared" si="11"/>
+        <v>1.4812734082397</v>
+      </c>
+      <c r="BP14" s="43">
+        <f t="shared" si="12"/>
+        <v>0.0931287059644228</v>
+      </c>
+      <c r="BQ14" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="79">
-        <f t="shared" si="10"/>
-        <v>1.4812734082397</v>
-      </c>
-      <c r="BP14" s="41">
-        <f t="shared" si="11"/>
-        <v>0.0931287059644228</v>
-      </c>
-      <c r="BQ14" s="41">
-        <f t="shared" si="12"/>
         <v>0.137949075688873</v>
       </c>
-      <c r="BR14" s="89">
+      <c r="BR14" s="90">
         <v>56.78</v>
       </c>
-      <c r="BS14" s="59" t="s">
+      <c r="BS14" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT14" s="59" t="s">
+      <c r="BT14" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13" spans="1:72">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="102" t="s">
         <v>146</v>
       </c>
       <c r="B15" s="22">
@@ -6189,11 +6233,11 @@
       <c r="J15" s="2">
         <v>30.1</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="44">
         <f t="shared" si="1"/>
         <v>2.38972431077694</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="44">
         <f t="shared" si="2"/>
         <v>0.101328903654485</v>
       </c>
@@ -6221,95 +6265,98 @@
       <c r="X15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="44">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="44">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA15" s="42">
+      <c r="AA15" s="44">
         <f t="shared" si="5"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="AB15" s="50" t="e">
+      <c r="AB15" s="52" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="53" t="e">
+      <c r="AC15" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AD15" s="55" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AF15" s="58" t="s">
         <v>130</v>
       </c>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2">
         <v>9.73</v>
       </c>
-      <c r="AI15" s="39">
+      <c r="AI15" s="41">
         <v>3.1533</v>
       </c>
-      <c r="AJ15" s="39">
+      <c r="AJ15" s="41">
         <v>2.152</v>
       </c>
-      <c r="AK15" s="39">
+      <c r="AK15" s="41">
         <v>1.6028</v>
       </c>
-      <c r="AL15" s="39">
+      <c r="AL15" s="41">
         <v>1.161</v>
       </c>
-      <c r="AM15" s="39">
+      <c r="AM15" s="41">
         <v>0.2365</v>
       </c>
-      <c r="AN15" s="39">
+      <c r="AN15" s="41">
         <v>0.0229</v>
       </c>
-      <c r="AO15" s="39">
+      <c r="AO15" s="41">
         <v>0.1857</v>
       </c>
-      <c r="AP15" s="39">
+      <c r="AP15" s="41">
         <v>0.1281</v>
       </c>
-      <c r="AQ15" s="39">
+      <c r="AQ15" s="41">
         <v>0.1124</v>
       </c>
-      <c r="AR15" s="39">
+      <c r="AR15" s="41">
         <v>0.3139</v>
       </c>
-      <c r="AS15" s="39">
+      <c r="AS15" s="41">
         <v>0.0935</v>
       </c>
-      <c r="AT15" s="39">
+      <c r="AT15" s="41">
         <v>0.1211</v>
       </c>
-      <c r="AU15" s="39">
+      <c r="AU15" s="41">
         <v>-0.3125</v>
       </c>
-      <c r="AV15" s="39">
+      <c r="AV15" s="41">
         <v>0.2292</v>
       </c>
-      <c r="AW15" s="39">
+      <c r="AW15" s="41">
         <v>0.1278</v>
       </c>
-      <c r="AX15" s="39">
+      <c r="AX15" s="41">
         <v>0.2239</v>
       </c>
-      <c r="AY15" s="39">
+      <c r="AY15" s="41">
         <v>0.2428</v>
       </c>
-      <c r="AZ15" s="39">
+      <c r="AZ15" s="41">
         <v>0.3271</v>
       </c>
-      <c r="BA15" s="39">
+      <c r="BA15" s="41">
         <v>0.347</v>
       </c>
-      <c r="BB15" s="39">
+      <c r="BB15" s="41">
         <v>0.3263</v>
       </c>
       <c r="BC15" s="2"/>
@@ -6323,7 +6370,7 @@
         <v>22.76</v>
       </c>
       <c r="BI15" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.65</v>
       </c>
       <c r="BJ15" s="2">
@@ -6340,33 +6387,33 @@
         <v>251</v>
       </c>
       <c r="BN15" s="2">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BO15" s="79">
+        <f t="shared" si="11"/>
+        <v>1.41035856573705</v>
+      </c>
+      <c r="BP15" s="41">
+        <f t="shared" si="12"/>
+        <v>0.0870922970159612</v>
+      </c>
+      <c r="BQ15" s="41">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="BO15" s="77">
-        <f t="shared" si="10"/>
-        <v>1.41035856573705</v>
-      </c>
-      <c r="BP15" s="39">
-        <f t="shared" si="11"/>
-        <v>0.0870922970159612</v>
-      </c>
-      <c r="BQ15" s="39">
-        <f t="shared" si="12"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="BR15" s="87">
+      <c r="BR15" s="88">
         <v>25.15</v>
       </c>
-      <c r="BS15" s="56" t="s">
+      <c r="BS15" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="BT15" s="56" t="s">
+      <c r="BT15" s="58" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="24" spans="1:72">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="104" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="26">
@@ -6394,11 +6441,11 @@
       <c r="J16" s="23">
         <v>29.3</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="45">
         <f t="shared" si="1"/>
         <v>1.66884531590414</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="45">
         <f t="shared" si="2"/>
         <v>0.16382252559727</v>
       </c>
@@ -6430,55 +6477,58 @@
       <c r="X16" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Y16" s="43">
+      <c r="Y16" s="45">
         <f t="shared" si="3"/>
         <v>0.349829351535836</v>
       </c>
-      <c r="Z16" s="43">
+      <c r="Z16" s="45">
         <f t="shared" si="4"/>
         <v>0.138804015713662</v>
       </c>
-      <c r="AA16" s="43">
+      <c r="AA16" s="45">
         <f t="shared" si="5"/>
         <v>0.137996219281663</v>
       </c>
-      <c r="AB16" s="43">
+      <c r="AB16" s="45">
         <f t="shared" si="6"/>
         <v>0.102890173410405</v>
       </c>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="58" t="e">
-        <f t="shared" si="7"/>
+      <c r="AC16" s="41" t="e">
+        <f t="shared" ref="AC16:AC21" si="15">(T16-U16)/T16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="59" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AF16" s="59" t="s">
+      <c r="AF16" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
       <c r="BC16" s="23"/>
       <c r="BD16" s="23"/>
       <c r="BE16" s="23"/>
@@ -6489,8 +6539,8 @@
       <c r="BH16" s="23">
         <v>19.96</v>
       </c>
-      <c r="BI16" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI16" s="77">
+        <f t="shared" si="9"/>
         <v>7.53</v>
       </c>
       <c r="BJ16" s="23">
@@ -6502,38 +6552,38 @@
       <c r="BL16" s="23">
         <v>27.59</v>
       </c>
-      <c r="BM16" s="75">
+      <c r="BM16" s="77">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
       <c r="BN16" s="23">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BO16" s="81">
+        <f t="shared" si="11"/>
+        <v>0.614232209737828</v>
+      </c>
+      <c r="BP16" s="43">
+        <f t="shared" si="12"/>
+        <v>0.102890173410405</v>
+      </c>
+      <c r="BQ16" s="43">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="BO16" s="79">
-        <f t="shared" si="10"/>
-        <v>0.614232209737828</v>
-      </c>
-      <c r="BP16" s="41">
-        <f t="shared" si="11"/>
-        <v>0.102890173410405</v>
-      </c>
-      <c r="BQ16" s="41">
-        <f t="shared" si="12"/>
         <v>0.0631984585741811</v>
       </c>
-      <c r="BR16" s="89">
+      <c r="BR16" s="90">
         <v>26.15</v>
       </c>
-      <c r="BS16" s="59" t="s">
+      <c r="BS16" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT16" s="59" t="s">
+      <c r="BT16" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="13" spans="1:72">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="106" t="s">
         <v>150</v>
       </c>
       <c r="B17" s="31">
@@ -6561,11 +6611,11 @@
       <c r="J17" s="30">
         <v>160.57</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="46">
         <f t="shared" si="1"/>
         <v>1.36015519568151</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="46">
         <f t="shared" si="2"/>
         <v>0.128666625147911</v>
       </c>
@@ -6605,98 +6655,98 @@
       <c r="X17" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="46">
         <f t="shared" si="3"/>
         <v>0.417201220651429</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="46">
         <f t="shared" si="4"/>
         <v>0.167556888856369</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="46">
         <f t="shared" si="5"/>
         <v>0.158180583842498</v>
       </c>
-      <c r="AB17" s="50">
+      <c r="AB17" s="52">
         <f t="shared" si="6"/>
         <v>0.10876867004931</v>
       </c>
-      <c r="AC17" s="60">
-        <f>(T17-U17)/T17</f>
+      <c r="AC17" s="61">
+        <f t="shared" si="15"/>
         <v>0.0490319709220385</v>
       </c>
-      <c r="AD17" s="61">
-        <f t="shared" si="7"/>
+      <c r="AD17" s="62">
+        <f t="shared" si="8"/>
         <v>0.0403337969401948</v>
       </c>
       <c r="AE17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AF17" s="62" t="s">
+      <c r="AF17" s="63" t="s">
         <v>130</v>
       </c>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30">
         <v>10</v>
       </c>
-      <c r="AI17" s="60">
+      <c r="AI17" s="71">
         <v>-0.1149</v>
       </c>
-      <c r="AJ17" s="60">
+      <c r="AJ17" s="71">
         <v>1.1966</v>
       </c>
-      <c r="AK17" s="60">
+      <c r="AK17" s="71">
         <v>2.6601</v>
       </c>
-      <c r="AL17" s="60">
+      <c r="AL17" s="71">
         <v>0.9935</v>
       </c>
-      <c r="AM17" s="60">
+      <c r="AM17" s="71">
         <v>-0.4244</v>
       </c>
-      <c r="AN17" s="60">
+      <c r="AN17" s="71">
         <v>0.8275</v>
       </c>
-      <c r="AO17" s="60">
+      <c r="AO17" s="71">
         <v>-1.1004</v>
       </c>
-      <c r="AP17" s="60">
+      <c r="AP17" s="71">
         <v>15.79</v>
       </c>
-      <c r="AQ17" s="60">
+      <c r="AQ17" s="71">
         <v>-0.1106</v>
       </c>
-      <c r="AR17" s="60">
+      <c r="AR17" s="71">
         <v>0.756</v>
       </c>
-      <c r="AS17" s="60">
+      <c r="AS17" s="71">
         <v>1.1246</v>
       </c>
-      <c r="AT17" s="60">
+      <c r="AT17" s="71">
         <v>0.64</v>
       </c>
-      <c r="AU17" s="60">
+      <c r="AU17" s="71">
         <v>-0.1855</v>
       </c>
-      <c r="AV17" s="60">
+      <c r="AV17" s="71">
         <v>0.1135</v>
       </c>
-      <c r="AW17" s="60">
+      <c r="AW17" s="71">
         <v>-0.5985</v>
       </c>
-      <c r="AX17" s="60">
+      <c r="AX17" s="71">
         <v>2.7082</v>
       </c>
-      <c r="AY17" s="60">
+      <c r="AY17" s="71">
         <v>0.8544</v>
       </c>
-      <c r="AZ17" s="60">
+      <c r="AZ17" s="71">
         <v>0.8505</v>
       </c>
-      <c r="BA17" s="60">
+      <c r="BA17" s="71">
         <v>0.8349</v>
       </c>
-      <c r="BB17" s="60">
+      <c r="BB17" s="71">
         <v>0.8576</v>
       </c>
       <c r="BC17" s="30"/>
@@ -6709,8 +6759,8 @@
       <c r="BH17" s="30">
         <v>117.62</v>
       </c>
-      <c r="BI17" s="76">
-        <f t="shared" si="8"/>
+      <c r="BI17" s="78">
+        <f t="shared" si="9"/>
         <v>29.89</v>
       </c>
       <c r="BJ17" s="30">
@@ -6722,38 +6772,38 @@
       <c r="BL17" s="30">
         <v>158.48</v>
       </c>
-      <c r="BM17" s="76">
+      <c r="BM17" s="78">
         <f t="shared" si="0"/>
         <v>902.000000000001</v>
       </c>
-      <c r="BN17" s="80">
+      <c r="BN17" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BO17" s="83">
+        <f t="shared" si="11"/>
+        <v>1.62749445676275</v>
+      </c>
+      <c r="BP17" s="61">
+        <f t="shared" si="12"/>
+        <v>0.0627260083449236</v>
+      </c>
+      <c r="BQ17" s="61">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BO17" s="81">
-        <f t="shared" si="10"/>
-        <v>1.62749445676275</v>
-      </c>
-      <c r="BP17" s="82">
-        <f t="shared" si="11"/>
-        <v>0.0627260083449236</v>
-      </c>
-      <c r="BQ17" s="82">
-        <f t="shared" si="12"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="BR17" s="90">
+      <c r="BR17" s="91">
         <v>55.79</v>
       </c>
-      <c r="BS17" s="62" t="s">
+      <c r="BS17" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BT17" s="62" t="s">
+      <c r="BT17" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="24" spans="1:72">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="104" t="s">
         <v>154</v>
       </c>
       <c r="B18" s="26">
@@ -6781,11 +6831,11 @@
       <c r="J18" s="23">
         <v>11.8</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="45">
         <f t="shared" si="1"/>
         <v>0.987577639751553</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="45">
         <f t="shared" si="2"/>
         <v>0.186440677966102</v>
       </c>
@@ -6813,49 +6863,52 @@
       <c r="X18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y18" s="43">
+      <c r="Y18" s="45">
         <f t="shared" si="3"/>
         <v>0.355932203389831</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="Z18" s="45">
         <f t="shared" si="4"/>
         <v>0.167875647668394</v>
       </c>
-      <c r="AA18" s="43">
+      <c r="AA18" s="45">
         <f t="shared" si="5"/>
         <v>0.124513618677043</v>
       </c>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="41"/>
+      <c r="AC18" s="43" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD18" s="23"/>
       <c r="AE18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AF18" s="59" t="s">
+      <c r="AF18" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
       <c r="BC18" s="23"/>
       <c r="BD18" s="23"/>
       <c r="BE18" s="23"/>
@@ -6866,8 +6919,8 @@
       <c r="BH18" s="23">
         <v>8.35</v>
       </c>
-      <c r="BI18" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI18" s="77">
+        <f t="shared" si="9"/>
         <v>2.19</v>
       </c>
       <c r="BJ18" s="23">
@@ -6879,38 +6932,38 @@
       <c r="BL18" s="23">
         <v>12</v>
       </c>
-      <c r="BM18" s="75">
+      <c r="BM18" s="77">
         <f t="shared" si="0"/>
         <v>86.9999999999999</v>
       </c>
       <c r="BN18" s="23">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="BO18" s="81">
+        <f t="shared" si="11"/>
+        <v>1.97701149425288</v>
+      </c>
+      <c r="BP18" s="43">
+        <f t="shared" si="12"/>
+        <v>0.0846303501945525</v>
+      </c>
+      <c r="BQ18" s="43">
         <f t="shared" si="13"/>
-        <v>300</v>
-      </c>
-      <c r="BO18" s="79">
-        <f t="shared" si="10"/>
-        <v>1.97701149425288</v>
-      </c>
-      <c r="BP18" s="41">
-        <f t="shared" si="11"/>
-        <v>0.0846303501945525</v>
-      </c>
-      <c r="BQ18" s="41">
-        <f t="shared" si="12"/>
         <v>0.167315175097276</v>
       </c>
-      <c r="BR18" s="89">
+      <c r="BR18" s="90">
         <v>18.1</v>
       </c>
-      <c r="BS18" s="59" t="s">
+      <c r="BS18" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT18" s="59" t="s">
+      <c r="BT18" s="60" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="24" spans="1:72">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="104" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="26">
@@ -6938,11 +6991,11 @@
       <c r="J19" s="23">
         <v>61.98</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="45">
         <f t="shared" si="1"/>
         <v>0.346489991542148</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="45">
         <f t="shared" si="2"/>
         <v>0.229428848015489</v>
       </c>
@@ -6970,49 +7023,52 @@
       <c r="X19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y19" s="43">
+      <c r="Y19" s="45">
         <f t="shared" si="3"/>
         <v>0.321555340432398</v>
       </c>
-      <c r="Z19" s="43">
+      <c r="Z19" s="45">
         <f t="shared" si="4"/>
         <v>0.203700207664716</v>
       </c>
-      <c r="AA19" s="43">
+      <c r="AA19" s="45">
         <f t="shared" si="5"/>
         <v>0.0942470056940899</v>
       </c>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="41"/>
+      <c r="AC19" s="43" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD19" s="23"/>
       <c r="AE19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AF19" s="59" t="s">
+      <c r="AF19" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG19" s="23"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="23"/>
       <c r="BE19" s="23"/>
@@ -7023,8 +7079,8 @@
       <c r="BH19" s="23">
         <v>40.96</v>
       </c>
-      <c r="BI19" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI19" s="77">
+        <f t="shared" si="9"/>
         <v>11.86</v>
       </c>
       <c r="BJ19" s="23">
@@ -7034,32 +7090,32 @@
         <v>46.13</v>
       </c>
       <c r="BL19" s="23"/>
-      <c r="BM19" s="75">
+      <c r="BM19" s="77">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="BN19" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BO19" s="79"/>
-      <c r="BP19" s="41">
-        <f t="shared" si="11"/>
+      <c r="BO19" s="81"/>
+      <c r="BP19" s="43">
+        <f t="shared" si="12"/>
         <v>0.0942470056940899</v>
       </c>
-      <c r="BQ19" s="41"/>
-      <c r="BR19" s="89">
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="90">
         <v>12</v>
       </c>
-      <c r="BS19" s="59" t="s">
+      <c r="BS19" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT19" s="59" t="s">
+      <c r="BT19" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="24" spans="1:72">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="104" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="26">
@@ -7087,11 +7143,11 @@
       <c r="J20" s="23">
         <v>30.1</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="45">
         <f t="shared" si="1"/>
         <v>2.34962406015038</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="45">
         <f t="shared" si="2"/>
         <v>0.111960132890365</v>
       </c>
@@ -7119,92 +7175,95 @@
       <c r="X20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" s="43">
+      <c r="Y20" s="45">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="45">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA20" s="43">
+      <c r="AA20" s="45">
         <f t="shared" si="5"/>
         <v>0.124915824915825</v>
       </c>
-      <c r="AB20" s="43" t="e">
+      <c r="AB20" s="45" t="e">
         <f>(R20-S20)/R20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="41"/>
+      <c r="AC20" s="43" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AF20" s="59" t="s">
+      <c r="AF20" s="60" t="s">
         <v>130</v>
       </c>
       <c r="AG20" s="23"/>
       <c r="AH20" s="23">
         <v>9.73</v>
       </c>
-      <c r="AI20" s="41">
+      <c r="AI20" s="43">
         <v>3.1533</v>
       </c>
-      <c r="AJ20" s="41">
+      <c r="AJ20" s="43">
         <v>2.152</v>
       </c>
-      <c r="AK20" s="41">
+      <c r="AK20" s="43">
         <v>1.6028</v>
       </c>
-      <c r="AL20" s="41">
+      <c r="AL20" s="43">
         <v>1.161</v>
       </c>
-      <c r="AM20" s="41">
+      <c r="AM20" s="43">
         <v>0.2365</v>
       </c>
-      <c r="AN20" s="41">
+      <c r="AN20" s="43">
         <v>0.0229</v>
       </c>
-      <c r="AO20" s="41">
+      <c r="AO20" s="43">
         <v>0.1857</v>
       </c>
-      <c r="AP20" s="41">
+      <c r="AP20" s="43">
         <v>0.1281</v>
       </c>
-      <c r="AQ20" s="41">
+      <c r="AQ20" s="43">
         <v>0.1124</v>
       </c>
-      <c r="AR20" s="41">
+      <c r="AR20" s="43">
         <v>0.3139</v>
       </c>
-      <c r="AS20" s="41">
+      <c r="AS20" s="43">
         <v>0.0935</v>
       </c>
-      <c r="AT20" s="41">
+      <c r="AT20" s="43">
         <v>0.1211</v>
       </c>
-      <c r="AU20" s="41">
+      <c r="AU20" s="43">
         <v>-0.3125</v>
       </c>
-      <c r="AV20" s="41">
+      <c r="AV20" s="43">
         <v>0.2292</v>
       </c>
-      <c r="AW20" s="41">
+      <c r="AW20" s="43">
         <v>0.1278</v>
       </c>
-      <c r="AX20" s="41">
+      <c r="AX20" s="43">
         <v>0.2239</v>
       </c>
-      <c r="AY20" s="41">
+      <c r="AY20" s="43">
         <v>0.2428</v>
       </c>
-      <c r="AZ20" s="41">
+      <c r="AZ20" s="43">
         <v>0.3271</v>
       </c>
-      <c r="BA20" s="41">
+      <c r="BA20" s="43">
         <v>0.347</v>
       </c>
-      <c r="BB20" s="41">
+      <c r="BB20" s="43">
         <v>0.3263</v>
       </c>
       <c r="BC20" s="23"/>
@@ -7217,8 +7276,8 @@
       <c r="BH20" s="23">
         <v>22.76</v>
       </c>
-      <c r="BI20" s="75">
-        <f t="shared" si="8"/>
+      <c r="BI20" s="77">
+        <f t="shared" si="9"/>
         <v>7.65</v>
       </c>
       <c r="BJ20" s="23">
@@ -7230,67 +7289,121 @@
       <c r="BL20" s="23">
         <v>32.36</v>
       </c>
-      <c r="BM20" s="75">
+      <c r="BM20" s="77">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="BN20" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BO20" s="79">
+      <c r="BO20" s="81">
         <f>(BL20-BJ20)/(BJ20-BK20)</f>
         <v>1.41035856573705</v>
       </c>
-      <c r="BP20" s="41">
-        <f t="shared" si="11"/>
+      <c r="BP20" s="43">
+        <f t="shared" si="12"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BQ20" s="41">
+      <c r="BQ20" s="43">
         <f>(BL20-BJ20)/BJ20</f>
         <v>0.122831367106176</v>
       </c>
-      <c r="BR20" s="89">
+      <c r="BR20" s="90">
         <v>25.15</v>
       </c>
-      <c r="BS20" s="59" t="s">
+      <c r="BS20" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BT20" s="59" t="s">
+      <c r="BT20" s="60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" ht="13" spans="1:71">
-      <c r="A21" s="104" t="s">
+    <row r="21" ht="24" spans="1:72">
+      <c r="A21" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="33">
+        <v>44537</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="6">
+        <v>11.65</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12.71</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15.58</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="H21" s="6">
+        <v>16.78</v>
+      </c>
+      <c r="I21" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="J21" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="K21" s="46">
+        <f>(H21-I21)/I21</f>
+        <v>2.98574821852732</v>
+      </c>
+      <c r="L21" s="46">
+        <f>(J21-H21)/J21</f>
+        <v>0.148223350253807</v>
+      </c>
+      <c r="M21" s="6">
+        <v>14.23</v>
+      </c>
+      <c r="N21" s="6">
+        <v>17.36</v>
+      </c>
+      <c r="O21" s="6">
+        <v>14.91</v>
+      </c>
+      <c r="P21" s="6">
+        <v>18.08</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>15.01</v>
+      </c>
+      <c r="R21" s="6">
+        <v>17.19</v>
+      </c>
+      <c r="S21" s="6">
+        <v>15.5</v>
+      </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="8"/>
+      <c r="X21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y21" s="46">
+        <f>(J21-M21)/J21</f>
+        <v>0.277664974619289</v>
+      </c>
+      <c r="Z21" s="46">
+        <f>(N21-O21)/N21</f>
+        <v>0.141129032258064</v>
+      </c>
+      <c r="AA21" s="46">
+        <f>(P21-Q21)/P21</f>
+        <v>0.169800884955752</v>
+      </c>
+      <c r="AB21" s="46">
+        <f>(R21-S21)/R21</f>
+        <v>0.0983129726585225</v>
+      </c>
+      <c r="AC21" s="61" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
@@ -7323,18 +7436,48 @@
       <c r="BG21" s="6"/>
       <c r="BH21" s="6"/>
       <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="8"/>
-      <c r="BS21" s="6"/>
+      <c r="BJ21" s="6">
+        <v>17.19</v>
+      </c>
+      <c r="BK21" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="BL21" s="6">
+        <v>20.66</v>
+      </c>
+      <c r="BM21" s="78">
+        <f>(BJ21-BK21)*100</f>
+        <v>169</v>
+      </c>
+      <c r="BN21" s="82">
+        <f>FLOOR(304/(BJ21-BK21),100)</f>
+        <v>100</v>
+      </c>
+      <c r="BO21" s="83">
+        <f>(BL21-BJ21)/(BJ21-BK21)</f>
+        <v>2.05325443786982</v>
+      </c>
+      <c r="BP21" s="61">
+        <f>(BJ21-BK21)/BJ21</f>
+        <v>0.0983129726585225</v>
+      </c>
+      <c r="BQ21" s="61">
+        <f>(BL21-BJ21)/BJ21</f>
+        <v>0.201861547411286</v>
+      </c>
+      <c r="BR21" s="92">
+        <v>26.15</v>
+      </c>
+      <c r="BS21" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT21" s="93" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="22" ht="13" spans="1:71">
-      <c r="A22" s="104" t="s">
-        <v>160</v>
+      <c r="A22" s="107" t="s">
+        <v>161</v>
       </c>
       <c r="B22" s="6"/>
       <c r="D22" s="6"/>
@@ -7405,8 +7548,8 @@
       <c r="BS22" s="6"/>
     </row>
     <row r="23" ht="13" spans="1:71">
-      <c r="A23" s="104" t="s">
-        <v>161</v>
+      <c r="A23" s="107" t="s">
+        <v>162</v>
       </c>
       <c r="B23" s="6"/>
       <c r="D23" s="6"/>
@@ -7477,8 +7620,8 @@
       <c r="BS23" s="6"/>
     </row>
     <row r="24" ht="13" spans="1:71">
-      <c r="A24" s="104" t="s">
-        <v>162</v>
+      <c r="A24" s="107" t="s">
+        <v>163</v>
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
@@ -7549,8 +7692,8 @@
       <c r="BS24" s="6"/>
     </row>
     <row r="25" ht="13" spans="1:71">
-      <c r="A25" s="104" t="s">
-        <v>163</v>
+      <c r="A25" s="107" t="s">
+        <v>164</v>
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="6"/>
@@ -7621,8 +7764,8 @@
       <c r="BS25" s="6"/>
     </row>
     <row r="26" ht="13" spans="1:71">
-      <c r="A26" s="104" t="s">
-        <v>164</v>
+      <c r="A26" s="107" t="s">
+        <v>165</v>
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="6"/>
@@ -7693,8 +7836,8 @@
       <c r="BS26" s="6"/>
     </row>
     <row r="27" ht="13" spans="1:71">
-      <c r="A27" s="104" t="s">
-        <v>165</v>
+      <c r="A27" s="107" t="s">
+        <v>166</v>
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="6"/>
@@ -7765,8 +7908,8 @@
       <c r="BS27" s="6"/>
     </row>
     <row r="28" ht="13" spans="1:71">
-      <c r="A28" s="104" t="s">
-        <v>166</v>
+      <c r="A28" s="107" t="s">
+        <v>167</v>
       </c>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
@@ -7837,8 +7980,8 @@
       <c r="BS28" s="6"/>
     </row>
     <row r="29" ht="13" spans="1:71">
-      <c r="A29" s="104" t="s">
-        <v>167</v>
+      <c r="A29" s="107" t="s">
+        <v>168</v>
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="6"/>
@@ -7909,8 +8052,8 @@
       <c r="BS29" s="6"/>
     </row>
     <row r="30" ht="13" spans="1:71">
-      <c r="A30" s="104" t="s">
-        <v>168</v>
+      <c r="A30" s="107" t="s">
+        <v>169</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="6"/>
@@ -7981,8 +8124,8 @@
       <c r="BS30" s="6"/>
     </row>
     <row r="31" ht="13" spans="1:71">
-      <c r="A31" s="104" t="s">
-        <v>169</v>
+      <c r="A31" s="107" t="s">
+        <v>170</v>
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
@@ -8053,8 +8196,8 @@
       <c r="BS31" s="6"/>
     </row>
     <row r="32" ht="13" spans="1:71">
-      <c r="A32" s="104" t="s">
-        <v>170</v>
+      <c r="A32" s="107" t="s">
+        <v>171</v>
       </c>
       <c r="B32" s="6"/>
       <c r="D32" s="6"/>
@@ -8125,8 +8268,8 @@
       <c r="BS32" s="6"/>
     </row>
     <row r="33" ht="13" spans="1:71">
-      <c r="A33" s="104" t="s">
-        <v>171</v>
+      <c r="A33" s="107" t="s">
+        <v>172</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6"/>
@@ -8197,8 +8340,8 @@
       <c r="BS33" s="6"/>
     </row>
     <row r="34" ht="13" spans="1:71">
-      <c r="A34" s="104" t="s">
-        <v>172</v>
+      <c r="A34" s="107" t="s">
+        <v>173</v>
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
@@ -8269,8 +8412,8 @@
       <c r="BS34" s="6"/>
     </row>
     <row r="35" ht="13" spans="1:71">
-      <c r="A35" s="104" t="s">
-        <v>173</v>
+      <c r="A35" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="6"/>
@@ -8341,8 +8484,8 @@
       <c r="BS35" s="6"/>
     </row>
     <row r="36" ht="13" spans="1:71">
-      <c r="A36" s="104" t="s">
-        <v>174</v>
+      <c r="A36" s="107" t="s">
+        <v>175</v>
       </c>
       <c r="B36" s="6"/>
       <c r="D36" s="6"/>
@@ -8413,8 +8556,8 @@
       <c r="BS36" s="6"/>
     </row>
     <row r="37" ht="13" spans="1:71">
-      <c r="A37" s="104" t="s">
-        <v>175</v>
+      <c r="A37" s="107" t="s">
+        <v>176</v>
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="6"/>
@@ -8485,8 +8628,8 @@
       <c r="BS37" s="6"/>
     </row>
     <row r="38" ht="13" spans="1:71">
-      <c r="A38" s="104" t="s">
-        <v>176</v>
+      <c r="A38" s="107" t="s">
+        <v>177</v>
       </c>
       <c r="B38" s="6"/>
       <c r="D38" s="6"/>
@@ -8557,8 +8700,8 @@
       <c r="BS38" s="6"/>
     </row>
     <row r="39" ht="13" spans="1:71">
-      <c r="A39" s="104" t="s">
-        <v>177</v>
+      <c r="A39" s="107" t="s">
+        <v>178</v>
       </c>
       <c r="B39" s="6"/>
       <c r="D39" s="6"/>
@@ -8629,8 +8772,8 @@
       <c r="BS39" s="6"/>
     </row>
     <row r="40" ht="13" spans="1:71">
-      <c r="A40" s="104" t="s">
-        <v>178</v>
+      <c r="A40" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="B40" s="6"/>
       <c r="D40" s="6"/>
@@ -8701,8 +8844,8 @@
       <c r="BS40" s="6"/>
     </row>
     <row r="41" ht="13" spans="1:71">
-      <c r="A41" s="104" t="s">
-        <v>179</v>
+      <c r="A41" s="107" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="6"/>
       <c r="D41" s="6"/>
@@ -8773,8 +8916,8 @@
       <c r="BS41" s="6"/>
     </row>
     <row r="42" ht="13" spans="1:71">
-      <c r="A42" s="104" t="s">
-        <v>180</v>
+      <c r="A42" s="107" t="s">
+        <v>181</v>
       </c>
       <c r="B42" s="6"/>
       <c r="D42" s="6"/>
@@ -8845,8 +8988,8 @@
       <c r="BS42" s="6"/>
     </row>
     <row r="43" ht="13" spans="1:71">
-      <c r="A43" s="104" t="s">
-        <v>181</v>
+      <c r="A43" s="107" t="s">
+        <v>182</v>
       </c>
       <c r="B43" s="6"/>
       <c r="D43" s="6"/>
@@ -8917,8 +9060,8 @@
       <c r="BS43" s="6"/>
     </row>
     <row r="44" ht="13" spans="1:71">
-      <c r="A44" s="104" t="s">
-        <v>182</v>
+      <c r="A44" s="107" t="s">
+        <v>183</v>
       </c>
       <c r="B44" s="6"/>
       <c r="D44" s="6"/>
@@ -8989,8 +9132,8 @@
       <c r="BS44" s="6"/>
     </row>
     <row r="45" ht="13" spans="1:71">
-      <c r="A45" s="104" t="s">
-        <v>183</v>
+      <c r="A45" s="107" t="s">
+        <v>184</v>
       </c>
       <c r="B45" s="6"/>
       <c r="D45" s="6"/>
@@ -9061,8 +9204,8 @@
       <c r="BS45" s="6"/>
     </row>
     <row r="46" ht="13" spans="1:71">
-      <c r="A46" s="104" t="s">
-        <v>184</v>
+      <c r="A46" s="107" t="s">
+        <v>185</v>
       </c>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
@@ -9133,8 +9276,8 @@
       <c r="BS46" s="6"/>
     </row>
     <row r="47" ht="13" spans="1:71">
-      <c r="A47" s="104" t="s">
-        <v>185</v>
+      <c r="A47" s="107" t="s">
+        <v>186</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
@@ -9205,8 +9348,8 @@
       <c r="BS47" s="6"/>
     </row>
     <row r="48" ht="13" spans="1:71">
-      <c r="A48" s="104" t="s">
-        <v>186</v>
+      <c r="A48" s="107" t="s">
+        <v>187</v>
       </c>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
@@ -9277,8 +9420,8 @@
       <c r="BS48" s="6"/>
     </row>
     <row r="49" ht="13" spans="1:71">
-      <c r="A49" s="104" t="s">
-        <v>187</v>
+      <c r="A49" s="107" t="s">
+        <v>188</v>
       </c>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -3553,10 +3553,10 @@
   <sheetPr/>
   <dimension ref="A1:DO546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AI3" sqref="AI3"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -1010,6 +1010,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>600032(</t>
     </r>
     <r>
@@ -1036,6 +1042,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>600803(</t>
     </r>
     <r>
@@ -1062,6 +1074,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>601778(</t>
     </r>
     <r>
@@ -1088,6 +1106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>暂不宜入场</t>
     </r>
     <r>
@@ -1203,13 +1227,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1328,7 +1352,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,53 +1380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1403,8 +1396,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,22 +1459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,16 +1473,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,13 +1540,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,43 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,25 +1600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,19 +1618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1666,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,43 +1702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,21 +1793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1808,6 +1817,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1819,17 +1839,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,102 +1857,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1952,53 +1976,53 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2026,7 +2050,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2071,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2107,22 +2131,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,9 +2212,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2219,12 +2225,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2246,9 +2246,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2278,34 +2275,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2314,7 +2311,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2326,28 +2323,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2375,12 +2366,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3553,10 +3538,10 @@
   <sheetPr/>
   <dimension ref="A1:DO546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3644,7 +3629,7 @@
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
-      <c r="AC1" s="61"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
@@ -3655,32 +3640,32 @@
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
       <c r="AM1" s="13"/>
-      <c r="AN1" s="76" t="s">
+      <c r="AN1" s="68" t="s">
         <v>5</v>
       </c>
       <c r="AO1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
       <c r="BJ1" s="13"/>
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
@@ -3696,47 +3681,47 @@
       <c r="BT1" s="13"/>
       <c r="BU1" s="13"/>
       <c r="BV1" s="13"/>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="100"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="56"/>
+      <c r="BY1" s="91"/>
       <c r="BZ1" s="13"/>
       <c r="CA1" s="13"/>
-      <c r="CB1" s="101"/>
-      <c r="CC1" s="101"/>
-      <c r="CD1" s="101"/>
-      <c r="CE1" s="101"/>
-      <c r="CF1" s="101"/>
-      <c r="CG1" s="101"/>
-      <c r="CH1" s="101"/>
-      <c r="CJ1" s="118"/>
-      <c r="CK1" s="118"/>
-      <c r="CL1" s="118"/>
-      <c r="CM1" s="118"/>
-      <c r="CN1" s="118"/>
-      <c r="CO1" s="118"/>
-      <c r="CP1" s="118"/>
-      <c r="CQ1" s="118"/>
-      <c r="CS1" s="118"/>
-      <c r="CT1" s="118"/>
-      <c r="CU1" s="118"/>
-      <c r="CV1" s="118"/>
-      <c r="CW1" s="118"/>
-      <c r="CX1" s="118"/>
-      <c r="CY1" s="118"/>
-      <c r="DA1" s="118"/>
-      <c r="DB1" s="118"/>
-      <c r="DC1" s="118"/>
-      <c r="DD1" s="118"/>
-      <c r="DE1" s="118"/>
-      <c r="DF1" s="118"/>
-      <c r="DG1" s="118"/>
-      <c r="DI1" s="118"/>
-      <c r="DJ1" s="118"/>
-      <c r="DK1" s="118"/>
-      <c r="DL1" s="118"/>
-      <c r="DM1" s="118"/>
-      <c r="DN1" s="118"/>
-      <c r="DO1" s="118"/>
+      <c r="CB1" s="92"/>
+      <c r="CC1" s="92"/>
+      <c r="CD1" s="92"/>
+      <c r="CE1" s="92"/>
+      <c r="CF1" s="92"/>
+      <c r="CG1" s="92"/>
+      <c r="CH1" s="92"/>
+      <c r="CJ1" s="107"/>
+      <c r="CK1" s="107"/>
+      <c r="CL1" s="107"/>
+      <c r="CM1" s="107"/>
+      <c r="CN1" s="107"/>
+      <c r="CO1" s="107"/>
+      <c r="CP1" s="107"/>
+      <c r="CQ1" s="107"/>
+      <c r="CS1" s="107"/>
+      <c r="CT1" s="107"/>
+      <c r="CU1" s="107"/>
+      <c r="CV1" s="107"/>
+      <c r="CW1" s="107"/>
+      <c r="CX1" s="107"/>
+      <c r="CY1" s="107"/>
+      <c r="DA1" s="107"/>
+      <c r="DB1" s="107"/>
+      <c r="DC1" s="107"/>
+      <c r="DD1" s="107"/>
+      <c r="DE1" s="107"/>
+      <c r="DF1" s="107"/>
+      <c r="DG1" s="107"/>
+      <c r="DI1" s="107"/>
+      <c r="DJ1" s="107"/>
+      <c r="DK1" s="107"/>
+      <c r="DL1" s="107"/>
+      <c r="DM1" s="107"/>
+      <c r="DN1" s="107"/>
+      <c r="DO1" s="107"/>
     </row>
     <row r="2" ht="23.6" spans="1:119">
       <c r="A2" s="10"/>
@@ -3751,98 +3736,98 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="62" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="42" t="s">
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76" t="s">
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="78" t="s">
+      <c r="AP2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78" t="s">
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78" t="s">
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78" t="s">
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78" t="s">
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="42" t="s">
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="37" t="s">
         <v>29</v>
       </c>
       <c r="BK2" s="14"/>
@@ -3853,75 +3838,75 @@
       </c>
       <c r="BO2" s="15"/>
       <c r="BP2" s="15"/>
-      <c r="BQ2" s="42" t="s">
+      <c r="BQ2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BR2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BS2" s="42" t="s">
+      <c r="BS2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="BT2" s="42" t="s">
+      <c r="BT2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="BU2" s="42" t="s">
+      <c r="BU2" s="37" t="s">
         <v>35</v>
       </c>
       <c r="BV2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BW2" s="63" t="s">
+      <c r="BW2" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="BX2" s="63" t="s">
+      <c r="BX2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="BY2" s="102" t="s">
+      <c r="BY2" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="BZ2" s="42" t="s">
+      <c r="BZ2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="CA2" s="103" t="s">
+      <c r="CA2" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="CB2" s="101"/>
-      <c r="CC2" s="101"/>
-      <c r="CD2" s="101"/>
-      <c r="CE2" s="101"/>
-      <c r="CF2" s="101"/>
-      <c r="CG2" s="101"/>
-      <c r="CH2" s="101"/>
-      <c r="CJ2" s="118"/>
-      <c r="CK2" s="118"/>
-      <c r="CL2" s="118"/>
-      <c r="CM2" s="118"/>
-      <c r="CN2" s="118"/>
-      <c r="CO2" s="118"/>
-      <c r="CP2" s="118"/>
-      <c r="CQ2" s="118"/>
-      <c r="CS2" s="118"/>
-      <c r="CT2" s="118"/>
-      <c r="CU2" s="118"/>
-      <c r="CV2" s="118"/>
-      <c r="CW2" s="118"/>
-      <c r="CX2" s="118"/>
-      <c r="CY2" s="118"/>
-      <c r="DA2" s="118"/>
-      <c r="DB2" s="118"/>
-      <c r="DC2" s="118"/>
-      <c r="DD2" s="118"/>
-      <c r="DE2" s="118"/>
-      <c r="DF2" s="118"/>
-      <c r="DG2" s="118"/>
-      <c r="DI2" s="118"/>
-      <c r="DJ2" s="118"/>
-      <c r="DK2" s="118"/>
-      <c r="DL2" s="118"/>
-      <c r="DM2" s="118"/>
-      <c r="DN2" s="118"/>
-      <c r="DO2" s="118"/>
+      <c r="CB2" s="92"/>
+      <c r="CC2" s="92"/>
+      <c r="CD2" s="92"/>
+      <c r="CE2" s="92"/>
+      <c r="CF2" s="92"/>
+      <c r="CG2" s="92"/>
+      <c r="CH2" s="92"/>
+      <c r="CJ2" s="107"/>
+      <c r="CK2" s="107"/>
+      <c r="CL2" s="107"/>
+      <c r="CM2" s="107"/>
+      <c r="CN2" s="107"/>
+      <c r="CO2" s="107"/>
+      <c r="CP2" s="107"/>
+      <c r="CQ2" s="107"/>
+      <c r="CS2" s="107"/>
+      <c r="CT2" s="107"/>
+      <c r="CU2" s="107"/>
+      <c r="CV2" s="107"/>
+      <c r="CW2" s="107"/>
+      <c r="CX2" s="107"/>
+      <c r="CY2" s="107"/>
+      <c r="DA2" s="107"/>
+      <c r="DB2" s="107"/>
+      <c r="DC2" s="107"/>
+      <c r="DD2" s="107"/>
+      <c r="DE2" s="107"/>
+      <c r="DF2" s="107"/>
+      <c r="DG2" s="107"/>
+      <c r="DI2" s="107"/>
+      <c r="DJ2" s="107"/>
+      <c r="DK2" s="107"/>
+      <c r="DL2" s="107"/>
+      <c r="DM2" s="107"/>
+      <c r="DN2" s="107"/>
+      <c r="DO2" s="107"/>
     </row>
     <row r="3" ht="36" spans="1:119">
       <c r="A3" s="10"/>
@@ -3932,41 +3917,41 @@
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="44" t="s">
+      <c r="U3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="W3" s="39" t="s">
         <v>52</v>
       </c>
       <c r="X3" s="14" t="s">
@@ -3984,7 +3969,7 @@
       <c r="AB3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="63" t="s">
+      <c r="AC3" s="58" t="s">
         <v>58</v>
       </c>
       <c r="AD3" s="14" t="s">
@@ -3993,157 +3978,157 @@
       <c r="AE3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AH3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="42" t="s">
+      <c r="AJ3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="42" t="s">
+      <c r="AK3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="42" t="s">
+      <c r="AL3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="78" t="s">
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="78" t="s">
+      <c r="AQ3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="78" t="s">
+      <c r="AR3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="78" t="s">
+      <c r="AS3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="78" t="s">
+      <c r="AT3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AU3" s="78" t="s">
+      <c r="AU3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AV3" s="78" t="s">
+      <c r="AV3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AW3" s="78" t="s">
+      <c r="AW3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AX3" s="78" t="s">
+      <c r="AX3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="78" t="s">
+      <c r="AY3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AZ3" s="78" t="s">
+      <c r="AZ3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="BA3" s="78" t="s">
+      <c r="BA3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="BB3" s="78" t="s">
+      <c r="BB3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="BC3" s="78" t="s">
+      <c r="BC3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="BD3" s="78" t="s">
+      <c r="BD3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="BE3" s="78" t="s">
+      <c r="BE3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="BF3" s="78" t="s">
+      <c r="BF3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="BG3" s="78" t="s">
+      <c r="BG3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="BH3" s="78" t="s">
+      <c r="BH3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="78" t="s">
+      <c r="BI3" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="86" t="s">
+      <c r="BJ3" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="BK3" s="86" t="s">
+      <c r="BK3" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="BL3" s="87"/>
-      <c r="BM3" s="87"/>
-      <c r="BN3" s="88" t="s">
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="BO3" s="88" t="s">
+      <c r="BO3" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="BP3" s="87" t="s">
+      <c r="BP3" s="78" t="s">
         <v>76</v>
       </c>
       <c r="BQ3" s="15"/>
       <c r="BR3" s="15"/>
       <c r="BS3" s="15"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="37"/>
       <c r="BV3" s="15"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="102"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="93"/>
       <c r="BZ3" s="15"/>
-      <c r="CA3" s="104"/>
-      <c r="CB3" s="101"/>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="101"/>
-      <c r="CF3" s="101"/>
-      <c r="CG3" s="101"/>
-      <c r="CH3" s="101"/>
-      <c r="CJ3" s="118"/>
-      <c r="CK3" s="118"/>
-      <c r="CL3" s="118"/>
-      <c r="CM3" s="118"/>
-      <c r="CN3" s="118"/>
-      <c r="CO3" s="118"/>
-      <c r="CP3" s="118"/>
-      <c r="CQ3" s="118"/>
-      <c r="CS3" s="118"/>
-      <c r="CT3" s="118"/>
-      <c r="CU3" s="118"/>
-      <c r="CV3" s="118"/>
-      <c r="CW3" s="118"/>
-      <c r="CX3" s="118"/>
-      <c r="CY3" s="118"/>
-      <c r="DA3" s="118"/>
-      <c r="DB3" s="118"/>
-      <c r="DC3" s="118"/>
-      <c r="DD3" s="118"/>
-      <c r="DE3" s="118"/>
-      <c r="DF3" s="118"/>
-      <c r="DG3" s="118"/>
-      <c r="DI3" s="118"/>
-      <c r="DJ3" s="118"/>
-      <c r="DK3" s="118"/>
-      <c r="DL3" s="118"/>
-      <c r="DM3" s="118"/>
-      <c r="DN3" s="118"/>
-      <c r="DO3" s="118"/>
+      <c r="CA3" s="95"/>
+      <c r="CB3" s="92"/>
+      <c r="CC3" s="92"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="92"/>
+      <c r="CF3" s="92"/>
+      <c r="CG3" s="92"/>
+      <c r="CH3" s="92"/>
+      <c r="CJ3" s="107"/>
+      <c r="CK3" s="107"/>
+      <c r="CL3" s="107"/>
+      <c r="CM3" s="107"/>
+      <c r="CN3" s="107"/>
+      <c r="CO3" s="107"/>
+      <c r="CP3" s="107"/>
+      <c r="CQ3" s="107"/>
+      <c r="CS3" s="107"/>
+      <c r="CT3" s="107"/>
+      <c r="CU3" s="107"/>
+      <c r="CV3" s="107"/>
+      <c r="CW3" s="107"/>
+      <c r="CX3" s="107"/>
+      <c r="CY3" s="107"/>
+      <c r="DA3" s="107"/>
+      <c r="DB3" s="107"/>
+      <c r="DC3" s="107"/>
+      <c r="DD3" s="107"/>
+      <c r="DE3" s="107"/>
+      <c r="DF3" s="107"/>
+      <c r="DG3" s="107"/>
+      <c r="DI3" s="107"/>
+      <c r="DJ3" s="107"/>
+      <c r="DK3" s="107"/>
+      <c r="DL3" s="107"/>
+      <c r="DM3" s="107"/>
+      <c r="DN3" s="107"/>
+      <c r="DO3" s="107"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:119">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="109" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="16">
@@ -4161,7 +4146,7 @@
       <c r="F4" s="18">
         <v>24.52</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="18">
@@ -4173,11 +4158,11 @@
       <c r="J4" s="18">
         <v>46.33</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="43">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="43">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
@@ -4208,74 +4193,74 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="X4" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="48">
+      <c r="Y4" s="43">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="48">
+      <c r="Z4" s="43">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="48">
+      <c r="AA4" s="43">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="48">
+      <c r="AB4" s="43">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="48">
+      <c r="AC4" s="43">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="64">
+      <c r="AD4" s="59">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69" t="s">
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
       <c r="BJ4" s="18"/>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18"/>
@@ -4300,73 +4285,73 @@
         <v>32.49</v>
       </c>
       <c r="BT4" s="18">
-        <f t="shared" ref="BT4:BT20" si="0">(BQ4-BR4)*100</f>
+        <f t="shared" ref="BT4:BT22" si="0">(BQ4-BR4)*100</f>
         <v>152</v>
       </c>
       <c r="BU4" s="18">
         <f>FLOOR(300/(BQ4-BR4),100)</f>
         <v>100</v>
       </c>
-      <c r="BV4" s="93">
+      <c r="BV4" s="84">
         <f>(BS4-BQ4)/(BQ4-BR4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BW4" s="48">
+      <c r="BW4" s="43">
         <f>(BQ4-BR4)/BQ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BX4" s="48">
+      <c r="BX4" s="43">
         <f>(BS4-BQ4)/BQ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BY4" s="105">
+      <c r="BY4" s="96">
         <v>150.88</v>
       </c>
-      <c r="BZ4" s="69" t="s">
+      <c r="BZ4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="CA4" s="71" t="s">
+      <c r="CA4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="117"/>
-      <c r="CD4" s="117"/>
-      <c r="CE4" s="117"/>
-      <c r="CF4" s="117"/>
-      <c r="CG4" s="117"/>
-      <c r="CH4" s="117"/>
-      <c r="CJ4" s="119"/>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="119"/>
-      <c r="CQ4" s="119"/>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="119"/>
-      <c r="CW4" s="119"/>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="119"/>
-      <c r="DE4" s="119"/>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="119"/>
-      <c r="DO4" s="119"/>
+      <c r="CB4" s="97"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="106"/>
+      <c r="CH4" s="106"/>
+      <c r="CJ4" s="108"/>
+      <c r="CK4" s="108"/>
+      <c r="CL4" s="108"/>
+      <c r="CM4" s="108"/>
+      <c r="CN4" s="108"/>
+      <c r="CO4" s="108"/>
+      <c r="CP4" s="108"/>
+      <c r="CQ4" s="108"/>
+      <c r="CS4" s="108"/>
+      <c r="CT4" s="108"/>
+      <c r="CU4" s="108"/>
+      <c r="CV4" s="108"/>
+      <c r="CW4" s="108"/>
+      <c r="CX4" s="108"/>
+      <c r="CY4" s="108"/>
+      <c r="DA4" s="108"/>
+      <c r="DB4" s="108"/>
+      <c r="DC4" s="108"/>
+      <c r="DD4" s="108"/>
+      <c r="DE4" s="108"/>
+      <c r="DF4" s="108"/>
+      <c r="DG4" s="108"/>
+      <c r="DI4" s="108"/>
+      <c r="DJ4" s="108"/>
+      <c r="DK4" s="108"/>
+      <c r="DL4" s="108"/>
+      <c r="DM4" s="108"/>
+      <c r="DN4" s="108"/>
+      <c r="DO4" s="108"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:80">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="109" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="16">
@@ -4384,7 +4369,7 @@
       <c r="F5" s="18">
         <v>33.17</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="18">
@@ -4396,12 +4381,12 @@
       <c r="J5" s="18">
         <v>44.42</v>
       </c>
-      <c r="K5" s="48">
-        <f t="shared" ref="K5:K20" si="1">(H5-I5)/I5</f>
+      <c r="K5" s="43">
+        <f t="shared" ref="K5:K23" si="1">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="48">
-        <f t="shared" ref="L5:L20" si="2">(J5-H5)/J5</f>
+      <c r="L5" s="43">
+        <f t="shared" ref="L5:L23" si="2">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
       <c r="M5" s="18">
@@ -4425,108 +4410,108 @@
       <c r="S5" s="18">
         <v>32.53</v>
       </c>
-      <c r="X5" s="59" t="s">
+      <c r="X5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="48">
-        <f t="shared" ref="Y5:Y20" si="3">(J5-M5)/J5</f>
+      <c r="Y5" s="43">
+        <f t="shared" ref="Y5:Y23" si="3">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="48">
-        <f t="shared" ref="Z5:Z20" si="4">(N5-O5)/N5</f>
+      <c r="Z5" s="43">
+        <f t="shared" ref="Z5:Z23" si="4">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="48">
-        <f t="shared" ref="AA5:AA20" si="5">(P5-Q5)/P5</f>
+      <c r="AA5" s="43">
+        <f t="shared" ref="AA5:AA23" si="5">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="48">
+      <c r="AB5" s="43">
         <f t="shared" ref="AB5:AB17" si="6">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="48" t="e">
+      <c r="AC5" s="43" t="e">
         <f t="shared" ref="AC5:AC15" si="7">(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="64" t="e">
+      <c r="AD5" s="59" t="e">
         <f t="shared" ref="AD5:AD17" si="8">(V5-W5)/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="59" t="s">
+      <c r="AE5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69" t="s">
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69" t="s">
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="AP5" s="48">
+      <c r="AP5" s="43">
         <v>0.0351</v>
       </c>
-      <c r="AQ5" s="48">
+      <c r="AQ5" s="43">
         <v>0.3603</v>
       </c>
-      <c r="AR5" s="48">
+      <c r="AR5" s="43">
         <v>0.3371</v>
       </c>
-      <c r="AS5" s="48">
+      <c r="AS5" s="43">
         <v>0.2435</v>
       </c>
-      <c r="AT5" s="48">
+      <c r="AT5" s="43">
         <v>0.263</v>
       </c>
-      <c r="AU5" s="48">
+      <c r="AU5" s="43">
         <v>0.003</v>
       </c>
-      <c r="AV5" s="48">
+      <c r="AV5" s="43">
         <v>0.0758</v>
       </c>
-      <c r="AW5" s="48">
+      <c r="AW5" s="43">
         <v>-0.2476</v>
       </c>
-      <c r="AX5" s="48">
+      <c r="AX5" s="43">
         <v>0.0073</v>
       </c>
-      <c r="AY5" s="48">
+      <c r="AY5" s="43">
         <v>0.2143</v>
       </c>
-      <c r="AZ5" s="48">
+      <c r="AZ5" s="43">
         <v>0.156</v>
       </c>
-      <c r="BA5" s="48">
+      <c r="BA5" s="43">
         <v>0.1125</v>
       </c>
-      <c r="BB5" s="85">
+      <c r="BB5" s="76">
         <v>0.2584</v>
       </c>
-      <c r="BC5" s="85">
+      <c r="BC5" s="76">
         <v>-0.0411</v>
       </c>
-      <c r="BD5" s="85">
+      <c r="BD5" s="76">
         <v>0.0156</v>
       </c>
-      <c r="BE5" s="85">
+      <c r="BE5" s="76">
         <v>-0.167</v>
       </c>
-      <c r="BF5" s="85">
+      <c r="BF5" s="76">
         <v>0.4704</v>
       </c>
-      <c r="BG5" s="85">
+      <c r="BG5" s="76">
         <v>0.4673</v>
       </c>
-      <c r="BH5" s="85">
+      <c r="BH5" s="76">
         <v>0.4797</v>
       </c>
-      <c r="BI5" s="85">
+      <c r="BI5" s="76">
         <v>0.4796</v>
       </c>
       <c r="BJ5" s="18"/>
@@ -4540,7 +4525,7 @@
         <v>31.36</v>
       </c>
       <c r="BP5" s="18">
-        <f t="shared" ref="BP5:BP20" si="9">BN5-BO5</f>
+        <f t="shared" ref="BP5:BP22" si="9">BN5-BO5</f>
         <v>4.12</v>
       </c>
       <c r="BQ5" s="18">
@@ -4560,31 +4545,31 @@
         <f t="shared" ref="BU4:BU9" si="10">FLOOR(300/(BQ5-BR5),100)</f>
         <v>100</v>
       </c>
-      <c r="BV5" s="93">
+      <c r="BV5" s="84">
         <f t="shared" ref="BV5:BV18" si="11">(BS5-BQ5)/(BQ5-BR5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BW5" s="48">
-        <f t="shared" ref="BW5:BW20" si="12">(BQ5-BR5)/BQ5</f>
+      <c r="BW5" s="43">
+        <f t="shared" ref="BW5:BW22" si="12">(BQ5-BR5)/BQ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BX5" s="48">
+      <c r="BX5" s="43">
         <f t="shared" ref="BX5:BX18" si="13">(BS5-BQ5)/BQ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BY5" s="105">
+      <c r="BY5" s="96">
         <v>37.41</v>
       </c>
-      <c r="BZ5" s="59" t="s">
+      <c r="BZ5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="CA5" s="71" t="s">
+      <c r="CA5" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB5" s="107"/>
+      <c r="CB5" s="98"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:80">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="16">
@@ -4602,7 +4587,7 @@
       <c r="F6" s="18">
         <v>31.53</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="38" t="s">
         <v>89</v>
       </c>
       <c r="H6" s="18">
@@ -4614,11 +4599,11 @@
       <c r="J6" s="18">
         <v>41.5</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="43">
         <f t="shared" si="1"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="43">
         <f t="shared" si="2"/>
         <v>0.215180722891566</v>
       </c>
@@ -4637,118 +4622,118 @@
       <c r="Q6" s="18">
         <v>30.89</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="51">
         <v>34.66</v>
       </c>
-      <c r="S6" s="57">
+      <c r="S6" s="52">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="59" t="s">
+      <c r="X6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="48">
+      <c r="Y6" s="43">
         <f t="shared" si="3"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="48">
+      <c r="Z6" s="43">
         <f t="shared" si="4"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="48">
+      <c r="AA6" s="43">
         <f t="shared" si="5"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="48">
+      <c r="AB6" s="43">
         <f t="shared" si="6"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="48" t="e">
+      <c r="AC6" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="64" t="e">
+      <c r="AD6" s="59" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="59" t="s">
+      <c r="AE6" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69" t="s">
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69" t="s">
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AP6" s="80" t="s">
+      <c r="AP6" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="AQ6" s="80" t="s">
+      <c r="AQ6" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="AR6" s="80" t="s">
+      <c r="AR6" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="AS6" s="80" t="s">
+      <c r="AS6" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="AT6" s="80" t="s">
+      <c r="AT6" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="AU6" s="80" t="s">
+      <c r="AU6" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="AV6" s="80" t="s">
+      <c r="AV6" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AW6" s="80" t="s">
+      <c r="AW6" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="AX6" s="80" t="s">
+      <c r="AX6" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="AY6" s="80" t="s">
+      <c r="AY6" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AZ6" s="80" t="s">
+      <c r="AZ6" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BA6" s="80" t="s">
+      <c r="BA6" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="BB6" s="80">
+      <c r="BB6" s="72">
         <v>0.0455</v>
       </c>
-      <c r="BC6" s="80">
+      <c r="BC6" s="72">
         <v>-0.0116</v>
       </c>
-      <c r="BD6" s="80">
+      <c r="BD6" s="72">
         <v>0.1549</v>
       </c>
-      <c r="BE6" s="80">
+      <c r="BE6" s="72">
         <v>-0.1474</v>
       </c>
-      <c r="BF6" s="80">
+      <c r="BF6" s="72">
         <v>0.2133</v>
       </c>
-      <c r="BG6" s="80">
+      <c r="BG6" s="72">
         <v>0.1848</v>
       </c>
-      <c r="BH6" s="48">
+      <c r="BH6" s="43">
         <v>0.1718</v>
       </c>
-      <c r="BI6" s="48">
+      <c r="BI6" s="43">
         <v>0.1605</v>
       </c>
       <c r="BJ6" s="18"/>
@@ -4782,31 +4767,31 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BV6" s="93">
+      <c r="BV6" s="84">
         <f t="shared" si="11"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BW6" s="48">
+      <c r="BW6" s="43">
         <f t="shared" si="12"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BX6" s="48">
+      <c r="BX6" s="43">
         <f t="shared" si="13"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BY6" s="105">
+      <c r="BY6" s="96">
         <v>28.82</v>
       </c>
-      <c r="BZ6" s="59" t="s">
+      <c r="BZ6" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="CA6" s="71" t="s">
+      <c r="CA6" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB6" s="108"/>
+      <c r="CB6" s="99"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:80">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="109" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="19">
@@ -4836,11 +4821,11 @@
       <c r="J7" s="21">
         <v>90.29</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="43">
         <f t="shared" si="1"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="43">
         <f t="shared" si="2"/>
         <v>0.234023701406579</v>
       </c>
@@ -4874,27 +4859,27 @@
       <c r="X7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Y7" s="48">
+      <c r="Y7" s="43">
         <f t="shared" si="3"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="48">
+      <c r="Z7" s="43">
         <f t="shared" si="4"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="48">
+      <c r="AA7" s="43">
         <f t="shared" si="5"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="48">
+      <c r="AB7" s="43">
         <f t="shared" si="6"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="48">
+      <c r="AC7" s="43">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="64" t="e">
+      <c r="AD7" s="59" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -4904,75 +4889,75 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70" t="s">
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70">
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64">
         <v>10.35</v>
       </c>
-      <c r="AP7" s="80" t="s">
+      <c r="AP7" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="80" t="s">
+      <c r="AQ7" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AR7" s="80" t="s">
+      <c r="AR7" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="AS7" s="80" t="s">
+      <c r="AS7" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="AT7" s="80" t="s">
+      <c r="AT7" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" s="80" t="s">
+      <c r="AU7" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="AV7" s="80" t="s">
+      <c r="AV7" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="AW7" s="80" t="s">
+      <c r="AW7" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="AX7" s="80" t="s">
+      <c r="AX7" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AY7" s="80" t="s">
+      <c r="AY7" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="AZ7" s="80" t="s">
+      <c r="AZ7" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="BA7" s="80" t="s">
+      <c r="BA7" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="BB7" s="80" t="s">
+      <c r="BB7" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="BC7" s="80" t="s">
+      <c r="BC7" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="BD7" s="80" t="s">
+      <c r="BD7" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="BE7" s="80" t="s">
+      <c r="BE7" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="BF7" s="80" t="s">
+      <c r="BF7" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="BG7" s="80" t="s">
+      <c r="BG7" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="BH7" s="48">
+      <c r="BH7" s="43">
         <v>0.7636</v>
       </c>
-      <c r="BI7" s="48">
+      <c r="BI7" s="43">
         <v>0.7607</v>
       </c>
       <c r="BJ7" s="21"/>
@@ -5006,31 +4991,31 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BV7" s="93">
+      <c r="BV7" s="84">
         <f t="shared" si="11"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BW7" s="48">
+      <c r="BW7" s="43">
         <f t="shared" si="12"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BX7" s="48">
+      <c r="BX7" s="43">
         <f t="shared" si="13"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BY7" s="109">
+      <c r="BY7" s="100">
         <v>6.49</v>
       </c>
-      <c r="BZ7" s="70" t="s">
+      <c r="BZ7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="CA7" s="71" t="s">
+      <c r="CA7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB7" s="108"/>
+      <c r="CB7" s="99"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:80">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="19">
@@ -5058,11 +5043,11 @@
       <c r="J8" s="21">
         <v>48.5</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="44">
         <f t="shared" si="1"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="44">
         <f t="shared" si="2"/>
         <v>0.387835051546392</v>
       </c>
@@ -5090,27 +5075,27 @@
       <c r="X8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="49">
+      <c r="Y8" s="44">
         <f t="shared" si="3"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="49">
+      <c r="Z8" s="44">
         <f t="shared" si="4"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="49">
+      <c r="AA8" s="44">
         <f t="shared" si="5"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="49" t="e">
+      <c r="AB8" s="44" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="48" t="e">
+      <c r="AC8" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="64" t="e">
+      <c r="AD8" s="59" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5120,35 +5105,35 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70" t="s">
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81"/>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="81"/>
-      <c r="BA8" s="81"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
       <c r="BJ8" s="21"/>
       <c r="BK8" s="21"/>
       <c r="BL8" s="21"/>
@@ -5159,7 +5144,7 @@
       <c r="BO8" s="21">
         <v>26.16</v>
       </c>
-      <c r="BP8" s="89">
+      <c r="BP8" s="80">
         <f t="shared" si="9"/>
         <v>6.27</v>
       </c>
@@ -5172,7 +5157,7 @@
       <c r="BS8" s="21">
         <v>38.71</v>
       </c>
-      <c r="BT8" s="89">
+      <c r="BT8" s="80">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -5180,31 +5165,31 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="BV8" s="94">
+      <c r="BV8" s="85">
         <f t="shared" si="11"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BW8" s="49">
+      <c r="BW8" s="44">
         <f t="shared" si="12"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BX8" s="49">
+      <c r="BX8" s="44">
         <f t="shared" si="13"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BY8" s="109">
+      <c r="BY8" s="100">
         <v>38.46</v>
       </c>
-      <c r="BZ8" s="70" t="s">
+      <c r="BZ8" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="CA8" s="71" t="s">
+      <c r="CA8" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB8" s="108"/>
+      <c r="CB8" s="99"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13" spans="1:80">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="110" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="22">
@@ -5232,11 +5217,11 @@
       <c r="J9" s="2">
         <v>31.94</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="43">
         <f t="shared" si="1"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="43">
         <f t="shared" si="2"/>
         <v>0.0923606762680026</v>
       </c>
@@ -5268,27 +5253,27 @@
       <c r="X9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="48">
+      <c r="Y9" s="43">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="48">
+      <c r="Z9" s="43">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="48">
+      <c r="AA9" s="43">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="48">
+      <c r="AB9" s="43">
         <f t="shared" si="6"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="48" t="e">
+      <c r="AC9" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="64" t="e">
+      <c r="AD9" s="59" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5298,75 +5283,75 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71" t="s">
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71">
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65">
         <v>6.25</v>
       </c>
-      <c r="AP9" s="80">
+      <c r="AP9" s="72">
         <v>1.5016</v>
       </c>
-      <c r="AQ9" s="80">
+      <c r="AQ9" s="72">
         <v>5.5181</v>
       </c>
-      <c r="AR9" s="80">
+      <c r="AR9" s="72">
         <v>3.3249</v>
       </c>
-      <c r="AS9" s="80">
+      <c r="AS9" s="72">
         <v>1.8449</v>
       </c>
-      <c r="AT9" s="80">
+      <c r="AT9" s="72">
         <v>0.3554</v>
       </c>
-      <c r="AU9" s="80">
+      <c r="AU9" s="72">
         <v>0.2495</v>
       </c>
-      <c r="AV9" s="80">
+      <c r="AV9" s="72">
         <v>0.1071</v>
       </c>
-      <c r="AW9" s="80">
+      <c r="AW9" s="72">
         <v>-0.134</v>
       </c>
-      <c r="AX9" s="80">
+      <c r="AX9" s="72">
         <v>0.0437</v>
       </c>
-      <c r="AY9" s="80">
+      <c r="AY9" s="72">
         <v>1.1403</v>
       </c>
-      <c r="AZ9" s="80">
+      <c r="AZ9" s="72">
         <v>1.4349</v>
       </c>
-      <c r="BA9" s="80">
+      <c r="BA9" s="72">
         <v>1.2425</v>
       </c>
-      <c r="BB9" s="80">
+      <c r="BB9" s="72">
         <v>0.2131</v>
       </c>
-      <c r="BC9" s="80">
+      <c r="BC9" s="72">
         <v>0.2062</v>
       </c>
-      <c r="BD9" s="80">
+      <c r="BD9" s="72">
         <v>0.334</v>
       </c>
-      <c r="BE9" s="80">
+      <c r="BE9" s="72">
         <v>0.0105</v>
       </c>
-      <c r="BF9" s="80">
+      <c r="BF9" s="72">
         <v>0.3392</v>
       </c>
-      <c r="BG9" s="80">
+      <c r="BG9" s="72">
         <v>0.3777</v>
       </c>
-      <c r="BH9" s="48">
+      <c r="BH9" s="43">
         <v>0.3722</v>
       </c>
-      <c r="BI9" s="48">
+      <c r="BI9" s="43">
         <v>0.3621</v>
       </c>
       <c r="BJ9" s="2"/>
@@ -5400,31 +5385,31 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BV9" s="93">
+      <c r="BV9" s="84">
         <f t="shared" si="11"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BW9" s="48">
+      <c r="BW9" s="43">
         <f t="shared" si="12"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BX9" s="48">
+      <c r="BX9" s="43">
         <f t="shared" si="13"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BY9" s="105">
+      <c r="BY9" s="96">
         <v>17.95</v>
       </c>
-      <c r="BZ9" s="71" t="s">
+      <c r="BZ9" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CA9" s="71" t="s">
+      <c r="CA9" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="CB9" s="108"/>
+      <c r="CB9" s="99"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="111" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="24">
@@ -5452,11 +5437,11 @@
       <c r="J10" s="23">
         <v>26.64</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="45">
         <f t="shared" si="1"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="45">
         <f t="shared" si="2"/>
         <v>0.123498498498498</v>
       </c>
@@ -5488,27 +5473,27 @@
       <c r="X10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="45">
         <f t="shared" si="3"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z10" s="45">
         <f t="shared" si="4"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="50">
+      <c r="AA10" s="45">
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="50">
+      <c r="AB10" s="45">
         <f t="shared" si="6"/>
         <v>0.123456790123457</v>
       </c>
-      <c r="AC10" s="48" t="e">
+      <c r="AC10" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="65" t="e">
+      <c r="AD10" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5518,75 +5503,75 @@
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72" t="s">
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72">
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66">
         <v>0.77</v>
       </c>
-      <c r="AP10" s="82" t="s">
+      <c r="AP10" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AQ10" s="82" t="s">
+      <c r="AQ10" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="AR10" s="82" t="s">
+      <c r="AR10" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="AS10" s="82" t="s">
+      <c r="AS10" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="AT10" s="82">
+      <c r="AT10" s="74">
         <v>2.6193</v>
       </c>
-      <c r="AU10" s="82">
+      <c r="AU10" s="74">
         <v>0.0893</v>
       </c>
-      <c r="AV10" s="82">
+      <c r="AV10" s="74">
         <v>-0.0175</v>
       </c>
-      <c r="AW10" s="82">
+      <c r="AW10" s="74">
         <v>-0.2195</v>
       </c>
-      <c r="AX10" s="82">
+      <c r="AX10" s="74">
         <v>-0.0419</v>
       </c>
-      <c r="AY10" s="82">
+      <c r="AY10" s="74">
         <v>0.1981</v>
       </c>
-      <c r="AZ10" s="82">
+      <c r="AZ10" s="74">
         <v>0.198</v>
       </c>
-      <c r="BA10" s="82">
+      <c r="BA10" s="74">
         <v>0.1998</v>
       </c>
-      <c r="BB10" s="82">
+      <c r="BB10" s="74">
         <v>0.1893</v>
       </c>
-      <c r="BC10" s="82">
+      <c r="BC10" s="74">
         <v>-0.0513</v>
       </c>
-      <c r="BD10" s="82">
+      <c r="BD10" s="74">
         <v>0.0188</v>
       </c>
-      <c r="BE10" s="82">
+      <c r="BE10" s="74">
         <v>0.0467</v>
       </c>
-      <c r="BF10" s="82">
+      <c r="BF10" s="74">
         <v>0.2619</v>
       </c>
-      <c r="BG10" s="82">
+      <c r="BG10" s="74">
         <v>0.259</v>
       </c>
-      <c r="BH10" s="50">
+      <c r="BH10" s="45">
         <v>0.2791</v>
       </c>
-      <c r="BI10" s="50">
+      <c r="BI10" s="45">
         <v>0.1079</v>
       </c>
       <c r="BJ10" s="23"/>
@@ -5599,7 +5584,7 @@
       <c r="BO10" s="23">
         <v>19.08</v>
       </c>
-      <c r="BP10" s="90">
+      <c r="BP10" s="81">
         <f t="shared" si="9"/>
         <v>6.23</v>
       </c>
@@ -5612,38 +5597,38 @@
       <c r="BS10" s="23">
         <v>26.72</v>
       </c>
-      <c r="BT10" s="90">
+      <c r="BT10" s="81">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="BU10" s="23">
-        <f t="shared" ref="BU10:BU20" si="14">FLOOR(304/(BQ10-BR10),100)</f>
+        <f t="shared" ref="BU10:BU22" si="14">FLOOR(304/(BQ10-BR10),100)</f>
         <v>100</v>
       </c>
-      <c r="BV10" s="95">
+      <c r="BV10" s="86">
         <f t="shared" si="11"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BW10" s="50">
+      <c r="BW10" s="45">
         <f t="shared" si="12"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BX10" s="50">
+      <c r="BX10" s="45">
         <f t="shared" si="13"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BY10" s="110">
+      <c r="BY10" s="101">
         <v>56.67</v>
       </c>
-      <c r="BZ10" s="72" t="s">
+      <c r="BZ10" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA10" s="72" t="s">
+      <c r="CA10" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="111" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="26">
@@ -5671,11 +5656,11 @@
       <c r="J11" s="23">
         <v>29.28</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="45">
         <f t="shared" si="1"/>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="45">
         <f t="shared" si="2"/>
         <v>0.238729508196721</v>
       </c>
@@ -5707,27 +5692,27 @@
       <c r="X11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" s="50">
+      <c r="Y11" s="45">
         <f t="shared" si="3"/>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="50">
+      <c r="Z11" s="45">
         <f t="shared" si="4"/>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="50">
+      <c r="AA11" s="45">
         <f t="shared" si="5"/>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="50">
+      <c r="AB11" s="45">
         <f t="shared" si="6"/>
         <v>0.105353319057816</v>
       </c>
-      <c r="AC11" s="48" t="e">
+      <c r="AC11" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="65" t="e">
+      <c r="AD11" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5737,75 +5722,75 @@
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72" t="s">
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN11" s="23"/>
       <c r="AO11" s="23">
         <v>8.51</v>
       </c>
-      <c r="AP11" s="50">
+      <c r="AP11" s="45">
         <v>3.6019</v>
       </c>
-      <c r="AQ11" s="50">
+      <c r="AQ11" s="45">
         <v>16.933</v>
       </c>
-      <c r="AR11" s="50">
+      <c r="AR11" s="45">
         <v>7.9794</v>
       </c>
-      <c r="AS11" s="50">
+      <c r="AS11" s="45">
         <v>3.2905</v>
       </c>
-      <c r="AT11" s="50">
+      <c r="AT11" s="45">
         <v>1.3176</v>
       </c>
-      <c r="AU11" s="50">
+      <c r="AU11" s="45">
         <v>0.0128</v>
       </c>
-      <c r="AV11" s="50">
+      <c r="AV11" s="45">
         <v>-0.2701</v>
       </c>
-      <c r="AW11" s="50">
+      <c r="AW11" s="45">
         <v>0.2668</v>
       </c>
-      <c r="AX11" s="50">
+      <c r="AX11" s="45">
         <v>0.0496</v>
       </c>
-      <c r="AY11" s="50">
+      <c r="AY11" s="45">
         <v>0.7137</v>
       </c>
-      <c r="AZ11" s="50">
+      <c r="AZ11" s="45">
         <v>0.3284</v>
       </c>
-      <c r="BA11" s="50">
+      <c r="BA11" s="45">
         <v>0.4288</v>
       </c>
-      <c r="BB11" s="50">
+      <c r="BB11" s="45">
         <v>0.52</v>
       </c>
-      <c r="BC11" s="50">
+      <c r="BC11" s="45">
         <v>-0.119</v>
       </c>
-      <c r="BD11" s="50">
+      <c r="BD11" s="45">
         <v>0.0208</v>
       </c>
-      <c r="BE11" s="50">
+      <c r="BE11" s="45">
         <v>0.1948</v>
       </c>
-      <c r="BF11" s="50">
+      <c r="BF11" s="45">
         <v>0.1781</v>
       </c>
-      <c r="BG11" s="50">
+      <c r="BG11" s="45">
         <v>0.2286</v>
       </c>
-      <c r="BH11" s="50">
+      <c r="BH11" s="45">
         <v>0.2077</v>
       </c>
-      <c r="BI11" s="50">
+      <c r="BI11" s="45">
         <v>0.1904</v>
       </c>
       <c r="BJ11" s="23"/>
@@ -5818,7 +5803,7 @@
       <c r="BO11" s="23">
         <v>18.22</v>
       </c>
-      <c r="BP11" s="90">
+      <c r="BP11" s="81">
         <f t="shared" si="9"/>
         <v>5.98</v>
       </c>
@@ -5831,7 +5816,7 @@
       <c r="BS11" s="23">
         <v>28.54</v>
       </c>
-      <c r="BT11" s="90">
+      <c r="BT11" s="81">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
@@ -5839,30 +5824,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV11" s="95">
+      <c r="BV11" s="86">
         <f t="shared" si="11"/>
         <v>2.54166666666667</v>
       </c>
-      <c r="BW11" s="50">
+      <c r="BW11" s="45">
         <f t="shared" si="12"/>
         <v>0.0937093275488069</v>
       </c>
-      <c r="BX11" s="50">
+      <c r="BX11" s="45">
         <f t="shared" si="13"/>
         <v>0.238177874186551</v>
       </c>
-      <c r="BY11" s="110">
+      <c r="BY11" s="101">
         <v>39.84</v>
       </c>
-      <c r="BZ11" s="72" t="s">
+      <c r="BZ11" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA11" s="72" t="s">
+      <c r="CA11" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="111" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="26">
@@ -5890,11 +5875,11 @@
       <c r="J12" s="23">
         <v>41.66</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="45">
         <f t="shared" si="1"/>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="45">
         <f t="shared" si="2"/>
         <v>0.0470475276044166</v>
       </c>
@@ -5926,27 +5911,27 @@
       <c r="X12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="50">
+      <c r="Y12" s="45">
         <f t="shared" si="3"/>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="50">
+      <c r="Z12" s="45">
         <f t="shared" si="4"/>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="50">
+      <c r="AA12" s="45">
         <f t="shared" si="5"/>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="50">
+      <c r="AB12" s="45">
         <f t="shared" si="6"/>
         <v>0.0831319478008701</v>
       </c>
-      <c r="AC12" s="48" t="e">
+      <c r="AC12" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="65" t="e">
+      <c r="AD12" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5965,64 +5950,64 @@
       <c r="AO12" s="23">
         <v>2.2</v>
       </c>
-      <c r="AP12" s="50">
+      <c r="AP12" s="45">
         <v>0.0112</v>
       </c>
-      <c r="AQ12" s="50">
+      <c r="AQ12" s="45">
         <v>0.8116</v>
       </c>
-      <c r="AR12" s="50">
+      <c r="AR12" s="45">
         <v>0.7087</v>
       </c>
-      <c r="AS12" s="50">
+      <c r="AS12" s="45">
         <v>0.7083</v>
       </c>
-      <c r="AT12" s="50">
+      <c r="AT12" s="45">
         <v>0.006</v>
       </c>
-      <c r="AU12" s="50">
+      <c r="AU12" s="45">
         <v>0.3442</v>
       </c>
-      <c r="AV12" s="50">
+      <c r="AV12" s="45">
         <v>0.247</v>
       </c>
-      <c r="AW12" s="50">
+      <c r="AW12" s="45">
         <v>0.0127</v>
       </c>
-      <c r="AX12" s="50">
+      <c r="AX12" s="45">
         <v>0.1618</v>
       </c>
-      <c r="AY12" s="50">
+      <c r="AY12" s="45">
         <v>1.016</v>
       </c>
-      <c r="AZ12" s="50">
+      <c r="AZ12" s="45">
         <v>0.5767</v>
       </c>
-      <c r="BA12" s="50">
+      <c r="BA12" s="45">
         <v>0.477</v>
       </c>
-      <c r="BB12" s="50">
+      <c r="BB12" s="45">
         <v>0.4664</v>
       </c>
-      <c r="BC12" s="50">
+      <c r="BC12" s="45">
         <v>-0.1139</v>
       </c>
-      <c r="BD12" s="50">
+      <c r="BD12" s="45">
         <v>-0.0272</v>
       </c>
-      <c r="BE12" s="50">
+      <c r="BE12" s="45">
         <v>0.0402</v>
       </c>
-      <c r="BF12" s="50">
+      <c r="BF12" s="45">
         <v>0.5316</v>
       </c>
-      <c r="BG12" s="50">
+      <c r="BG12" s="45">
         <v>0.5499</v>
       </c>
-      <c r="BH12" s="50">
+      <c r="BH12" s="45">
         <v>0.5374</v>
       </c>
-      <c r="BI12" s="50">
+      <c r="BI12" s="45">
         <v>0.5361</v>
       </c>
       <c r="BJ12" s="23"/>
@@ -6035,7 +6020,7 @@
       <c r="BO12" s="23">
         <v>32.98</v>
       </c>
-      <c r="BP12" s="90">
+      <c r="BP12" s="81">
         <f t="shared" si="9"/>
         <v>9.73</v>
       </c>
@@ -6048,7 +6033,7 @@
       <c r="BS12" s="23">
         <v>42.87</v>
       </c>
-      <c r="BT12" s="90">
+      <c r="BT12" s="81">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
@@ -6056,30 +6041,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV12" s="95">
+      <c r="BV12" s="86">
         <f t="shared" si="11"/>
         <v>0.987903225806448</v>
       </c>
-      <c r="BW12" s="50">
+      <c r="BW12" s="45">
         <f t="shared" si="12"/>
         <v>0.0613557644730332</v>
       </c>
-      <c r="BX12" s="50">
+      <c r="BX12" s="45">
         <f t="shared" si="13"/>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BY12" s="110">
+      <c r="BY12" s="101">
         <v>25.4</v>
       </c>
-      <c r="BZ12" s="72" t="s">
+      <c r="BZ12" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA12" s="72" t="s">
+      <c r="CA12" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="24" spans="1:80">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="112" t="s">
         <v>154</v>
       </c>
       <c r="B13" s="26">
@@ -6107,11 +6092,11 @@
       <c r="J13" s="23">
         <v>31.94</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="45">
         <f t="shared" si="1"/>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="45">
         <f t="shared" si="2"/>
         <v>0.130870381966187</v>
       </c>
@@ -6141,27 +6126,27 @@
       <c r="X13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="50">
+      <c r="Y13" s="45">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="50">
+      <c r="Z13" s="45">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="50">
+      <c r="AA13" s="45">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="50">
+      <c r="AB13" s="45">
         <f t="shared" si="6"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="48" t="e">
+      <c r="AC13" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="65" t="e">
+      <c r="AD13" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6171,75 +6156,75 @@
       <c r="AF13" s="23"/>
       <c r="AG13" s="23"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72" t="s">
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72">
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66">
         <v>6.25</v>
       </c>
-      <c r="AP13" s="82">
+      <c r="AP13" s="74">
         <v>1.5016</v>
       </c>
-      <c r="AQ13" s="82">
+      <c r="AQ13" s="74">
         <v>5.5181</v>
       </c>
-      <c r="AR13" s="82">
+      <c r="AR13" s="74">
         <v>3.3249</v>
       </c>
-      <c r="AS13" s="82">
+      <c r="AS13" s="74">
         <v>1.8449</v>
       </c>
-      <c r="AT13" s="82">
+      <c r="AT13" s="74">
         <v>0.3554</v>
       </c>
-      <c r="AU13" s="82">
+      <c r="AU13" s="74">
         <v>0.2495</v>
       </c>
-      <c r="AV13" s="82">
+      <c r="AV13" s="74">
         <v>0.1071</v>
       </c>
-      <c r="AW13" s="82">
+      <c r="AW13" s="74">
         <v>-0.134</v>
       </c>
-      <c r="AX13" s="82">
+      <c r="AX13" s="74">
         <v>0.0437</v>
       </c>
-      <c r="AY13" s="82">
+      <c r="AY13" s="74">
         <v>1.1403</v>
       </c>
-      <c r="AZ13" s="82">
+      <c r="AZ13" s="74">
         <v>1.4349</v>
       </c>
-      <c r="BA13" s="82">
+      <c r="BA13" s="74">
         <v>1.2425</v>
       </c>
-      <c r="BB13" s="82">
+      <c r="BB13" s="74">
         <v>0.2131</v>
       </c>
-      <c r="BC13" s="82">
+      <c r="BC13" s="74">
         <v>0.2062</v>
       </c>
-      <c r="BD13" s="82">
+      <c r="BD13" s="74">
         <v>0.334</v>
       </c>
-      <c r="BE13" s="82">
+      <c r="BE13" s="74">
         <v>0.0105</v>
       </c>
-      <c r="BF13" s="82">
+      <c r="BF13" s="74">
         <v>0.3392</v>
       </c>
-      <c r="BG13" s="82">
+      <c r="BG13" s="74">
         <v>0.3777</v>
       </c>
-      <c r="BH13" s="50">
+      <c r="BH13" s="45">
         <v>0.3722</v>
       </c>
-      <c r="BI13" s="50">
+      <c r="BI13" s="45">
         <v>0.3621</v>
       </c>
       <c r="BJ13" s="23"/>
@@ -6252,7 +6237,7 @@
       <c r="BO13" s="23">
         <v>22.41</v>
       </c>
-      <c r="BP13" s="90">
+      <c r="BP13" s="81">
         <f t="shared" si="9"/>
         <v>8.8</v>
       </c>
@@ -6265,7 +6250,7 @@
       <c r="BS13" s="23">
         <v>35.16</v>
       </c>
-      <c r="BT13" s="90">
+      <c r="BT13" s="81">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
@@ -6273,31 +6258,31 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV13" s="95">
+      <c r="BV13" s="86">
         <f t="shared" si="11"/>
         <v>1.68055555555555</v>
       </c>
-      <c r="BW13" s="50">
+      <c r="BW13" s="45">
         <f t="shared" si="12"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="BX13" s="50">
+      <c r="BX13" s="45">
         <f t="shared" si="13"/>
         <v>0.159630606860158</v>
       </c>
-      <c r="BY13" s="110">
+      <c r="BY13" s="101">
         <v>17.95</v>
       </c>
-      <c r="BZ13" s="72" t="s">
+      <c r="BZ13" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA13" s="72" t="s">
+      <c r="CA13" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="CB13" s="111"/>
+      <c r="CB13" s="102"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="111" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="26">
@@ -6325,11 +6310,11 @@
       <c r="J14" s="23">
         <v>62.1</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="45">
         <f t="shared" si="1"/>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="45">
         <f t="shared" si="2"/>
         <v>0.131078904991948</v>
       </c>
@@ -6361,27 +6346,27 @@
       <c r="X14" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="50">
+      <c r="Y14" s="45">
         <f t="shared" si="3"/>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="50">
+      <c r="Z14" s="45">
         <f t="shared" si="4"/>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="50">
+      <c r="AA14" s="45">
         <f t="shared" si="5"/>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="50">
+      <c r="AB14" s="45">
         <f t="shared" si="6"/>
         <v>0.131321939309383</v>
       </c>
-      <c r="AC14" s="48" t="e">
+      <c r="AC14" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="65" t="e">
+      <c r="AD14" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6391,75 +6376,75 @@
       <c r="AF14" s="23"/>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72" t="s">
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN14" s="23"/>
       <c r="AO14" s="23">
         <v>34.76</v>
       </c>
-      <c r="AP14" s="50">
+      <c r="AP14" s="45">
         <v>0.4151</v>
       </c>
-      <c r="AQ14" s="50">
+      <c r="AQ14" s="45">
         <v>4.3101</v>
       </c>
-      <c r="AR14" s="50">
+      <c r="AR14" s="45">
         <v>5.7893</v>
       </c>
-      <c r="AS14" s="50">
+      <c r="AS14" s="45">
         <v>5.2189</v>
       </c>
-      <c r="AT14" s="50">
+      <c r="AT14" s="45">
         <v>0.5076</v>
       </c>
-      <c r="AU14" s="50">
+      <c r="AU14" s="45">
         <v>1.5097</v>
       </c>
-      <c r="AV14" s="50">
+      <c r="AV14" s="45">
         <v>0.5596</v>
       </c>
-      <c r="AW14" s="50">
+      <c r="AW14" s="45">
         <v>-0.084</v>
       </c>
-      <c r="AX14" s="50">
+      <c r="AX14" s="45">
         <v>0.1501</v>
       </c>
-      <c r="AY14" s="50">
+      <c r="AY14" s="45">
         <v>0.3924</v>
       </c>
-      <c r="AZ14" s="50">
+      <c r="AZ14" s="45">
         <v>0.602</v>
       </c>
-      <c r="BA14" s="50">
+      <c r="BA14" s="45">
         <v>0.755</v>
       </c>
-      <c r="BB14" s="50">
+      <c r="BB14" s="45">
         <v>0.9365</v>
       </c>
-      <c r="BC14" s="50">
+      <c r="BC14" s="45">
         <v>-0.3372</v>
       </c>
-      <c r="BD14" s="50">
+      <c r="BD14" s="45">
         <v>0.7463</v>
       </c>
-      <c r="BE14" s="50">
+      <c r="BE14" s="45">
         <v>-0.1096</v>
       </c>
-      <c r="BF14" s="50">
+      <c r="BF14" s="45">
         <v>0.1174</v>
       </c>
-      <c r="BG14" s="50">
+      <c r="BG14" s="45">
         <v>0.2187</v>
       </c>
-      <c r="BH14" s="50">
+      <c r="BH14" s="45">
         <v>0.2433</v>
       </c>
-      <c r="BI14" s="50">
+      <c r="BI14" s="45">
         <v>0.2275</v>
       </c>
       <c r="BJ14" s="23"/>
@@ -6472,7 +6457,7 @@
       <c r="BO14" s="23">
         <v>42.1</v>
       </c>
-      <c r="BP14" s="90">
+      <c r="BP14" s="81">
         <f t="shared" si="9"/>
         <v>18.29</v>
       </c>
@@ -6485,7 +6470,7 @@
       <c r="BS14" s="23">
         <v>65.25</v>
       </c>
-      <c r="BT14" s="90">
+      <c r="BT14" s="81">
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
@@ -6493,30 +6478,30 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV14" s="95">
+      <c r="BV14" s="86">
         <f t="shared" si="11"/>
         <v>1.4812734082397</v>
       </c>
-      <c r="BW14" s="50">
+      <c r="BW14" s="45">
         <f t="shared" si="12"/>
         <v>0.0931287059644228</v>
       </c>
-      <c r="BX14" s="50">
+      <c r="BX14" s="45">
         <f t="shared" si="13"/>
         <v>0.137949075688873</v>
       </c>
-      <c r="BY14" s="110">
+      <c r="BY14" s="101">
         <v>56.78</v>
       </c>
-      <c r="BZ14" s="72" t="s">
+      <c r="BZ14" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA14" s="72" t="s">
+      <c r="CA14" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13" spans="1:79">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="109" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="22">
@@ -6544,11 +6529,11 @@
       <c r="J15" s="2">
         <v>30.1</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="46">
         <f t="shared" si="1"/>
         <v>2.38972431077694</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="46">
         <f t="shared" si="2"/>
         <v>0.101328903654485</v>
       </c>
@@ -6576,27 +6561,27 @@
       <c r="X15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" s="51">
+      <c r="Y15" s="46">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z15" s="51">
+      <c r="Z15" s="46">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA15" s="51">
+      <c r="AA15" s="46">
         <f t="shared" si="5"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="AB15" s="60" t="e">
+      <c r="AB15" s="55" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="48" t="e">
+      <c r="AC15" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="64" t="e">
+      <c r="AD15" s="59" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6606,75 +6591,75 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71" t="s">
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65" t="s">
         <v>141</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2">
         <v>9.73</v>
       </c>
-      <c r="AP15" s="48">
+      <c r="AP15" s="43">
         <v>3.1533</v>
       </c>
-      <c r="AQ15" s="48">
+      <c r="AQ15" s="43">
         <v>2.152</v>
       </c>
-      <c r="AR15" s="48">
+      <c r="AR15" s="43">
         <v>1.6028</v>
       </c>
-      <c r="AS15" s="48">
+      <c r="AS15" s="43">
         <v>1.161</v>
       </c>
-      <c r="AT15" s="48">
+      <c r="AT15" s="43">
         <v>0.2365</v>
       </c>
-      <c r="AU15" s="48">
+      <c r="AU15" s="43">
         <v>0.0229</v>
       </c>
-      <c r="AV15" s="48">
+      <c r="AV15" s="43">
         <v>0.1857</v>
       </c>
-      <c r="AW15" s="48">
+      <c r="AW15" s="43">
         <v>0.1281</v>
       </c>
-      <c r="AX15" s="48">
+      <c r="AX15" s="43">
         <v>0.1124</v>
       </c>
-      <c r="AY15" s="48">
+      <c r="AY15" s="43">
         <v>0.3139</v>
       </c>
-      <c r="AZ15" s="48">
+      <c r="AZ15" s="43">
         <v>0.0935</v>
       </c>
-      <c r="BA15" s="48">
+      <c r="BA15" s="43">
         <v>0.1211</v>
       </c>
-      <c r="BB15" s="48">
+      <c r="BB15" s="43">
         <v>-0.3125</v>
       </c>
-      <c r="BC15" s="48">
+      <c r="BC15" s="43">
         <v>0.2292</v>
       </c>
-      <c r="BD15" s="48">
+      <c r="BD15" s="43">
         <v>0.1278</v>
       </c>
-      <c r="BE15" s="48">
+      <c r="BE15" s="43">
         <v>0.2239</v>
       </c>
-      <c r="BF15" s="48">
+      <c r="BF15" s="43">
         <v>0.2428</v>
       </c>
-      <c r="BG15" s="48">
+      <c r="BG15" s="43">
         <v>0.3271</v>
       </c>
-      <c r="BH15" s="48">
+      <c r="BH15" s="43">
         <v>0.347</v>
       </c>
-      <c r="BI15" s="48">
+      <c r="BI15" s="43">
         <v>0.3263</v>
       </c>
       <c r="BJ15" s="2"/>
@@ -6708,30 +6693,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV15" s="93">
+      <c r="BV15" s="84">
         <f t="shared" si="11"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="BW15" s="48">
+      <c r="BW15" s="43">
         <f t="shared" si="12"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BX15" s="48">
+      <c r="BX15" s="43">
         <f t="shared" si="13"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="BY15" s="105">
+      <c r="BY15" s="96">
         <v>25.15</v>
       </c>
-      <c r="BZ15" s="71" t="s">
+      <c r="BZ15" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CA15" s="71" t="s">
+      <c r="CA15" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="111" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="26">
@@ -6759,11 +6744,11 @@
       <c r="J16" s="23">
         <v>29.3</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="47">
         <f t="shared" si="1"/>
         <v>1.66884531590414</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="47">
         <f t="shared" si="2"/>
         <v>0.16382252559727</v>
       </c>
@@ -6795,27 +6780,27 @@
       <c r="X16" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="Y16" s="52">
+      <c r="Y16" s="47">
         <f t="shared" si="3"/>
         <v>0.349829351535836</v>
       </c>
-      <c r="Z16" s="52">
+      <c r="Z16" s="47">
         <f t="shared" si="4"/>
         <v>0.138804015713662</v>
       </c>
-      <c r="AA16" s="52">
+      <c r="AA16" s="47">
         <f t="shared" si="5"/>
         <v>0.137996219281663</v>
       </c>
-      <c r="AB16" s="52">
+      <c r="AB16" s="47">
         <f t="shared" si="6"/>
         <v>0.102890173410405</v>
       </c>
-      <c r="AC16" s="48" t="e">
+      <c r="AC16" s="43" t="e">
         <f t="shared" ref="AC16:AC21" si="15">(T16-U16)/T16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="65" t="e">
+      <c r="AD16" s="60" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6825,35 +6810,35 @@
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72" t="s">
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+      <c r="BD16" s="45"/>
+      <c r="BE16" s="45"/>
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="45"/>
+      <c r="BH16" s="45"/>
+      <c r="BI16" s="45"/>
       <c r="BJ16" s="23"/>
       <c r="BK16" s="23"/>
       <c r="BL16" s="23"/>
@@ -6864,7 +6849,7 @@
       <c r="BO16" s="23">
         <v>19.96</v>
       </c>
-      <c r="BP16" s="90">
+      <c r="BP16" s="81">
         <f t="shared" si="9"/>
         <v>7.53</v>
       </c>
@@ -6877,7 +6862,7 @@
       <c r="BS16" s="23">
         <v>27.59</v>
       </c>
-      <c r="BT16" s="90">
+      <c r="BT16" s="81">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
@@ -6885,30 +6870,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV16" s="95">
+      <c r="BV16" s="86">
         <f t="shared" si="11"/>
         <v>0.614232209737828</v>
       </c>
-      <c r="BW16" s="50">
+      <c r="BW16" s="45">
         <f t="shared" si="12"/>
         <v>0.102890173410405</v>
       </c>
-      <c r="BX16" s="50">
+      <c r="BX16" s="45">
         <f t="shared" si="13"/>
         <v>0.0631984585741811</v>
       </c>
-      <c r="BY16" s="110">
+      <c r="BY16" s="101">
         <v>26.15</v>
       </c>
-      <c r="BZ16" s="72" t="s">
+      <c r="BZ16" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA16" s="72" t="s">
+      <c r="CA16" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="13" spans="1:79">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="113" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="31">
@@ -6936,11 +6921,11 @@
       <c r="J17" s="30">
         <v>160.57</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="48">
         <f t="shared" si="1"/>
         <v>1.36015519568151</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="48">
         <f t="shared" si="2"/>
         <v>0.128666625147911</v>
       </c>
@@ -6980,27 +6965,27 @@
       <c r="X17" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y17" s="48">
         <f t="shared" si="3"/>
         <v>0.417201220651429</v>
       </c>
-      <c r="Z17" s="53">
+      <c r="Z17" s="48">
         <f t="shared" si="4"/>
         <v>0.167556888856369</v>
       </c>
-      <c r="AA17" s="53">
+      <c r="AA17" s="48">
         <f t="shared" si="5"/>
         <v>0.158180583842498</v>
       </c>
-      <c r="AB17" s="60">
+      <c r="AB17" s="55">
         <f t="shared" si="6"/>
         <v>0.10876867004931</v>
       </c>
-      <c r="AC17" s="54">
+      <c r="AC17" s="49">
         <f t="shared" si="15"/>
         <v>0.0490319709220385</v>
       </c>
-      <c r="AD17" s="66">
+      <c r="AD17" s="61">
         <f t="shared" si="8"/>
         <v>0.0403337969401948</v>
       </c>
@@ -7010,75 +6995,75 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73" t="s">
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="67"/>
+      <c r="AM17" s="67" t="s">
         <v>141</v>
       </c>
       <c r="AN17" s="30"/>
       <c r="AO17" s="30">
         <v>10</v>
       </c>
-      <c r="AP17" s="83">
+      <c r="AP17" s="62">
         <v>-0.1149</v>
       </c>
-      <c r="AQ17" s="83">
+      <c r="AQ17" s="62">
         <v>1.1966</v>
       </c>
-      <c r="AR17" s="83">
+      <c r="AR17" s="62">
         <v>2.6601</v>
       </c>
-      <c r="AS17" s="83">
+      <c r="AS17" s="62">
         <v>0.9935</v>
       </c>
-      <c r="AT17" s="83">
+      <c r="AT17" s="62">
         <v>-0.4244</v>
       </c>
-      <c r="AU17" s="83">
+      <c r="AU17" s="62">
         <v>0.8275</v>
       </c>
-      <c r="AV17" s="83">
+      <c r="AV17" s="62">
         <v>-1.1004</v>
       </c>
-      <c r="AW17" s="83">
+      <c r="AW17" s="62">
         <v>15.79</v>
       </c>
-      <c r="AX17" s="83">
+      <c r="AX17" s="62">
         <v>-0.1106</v>
       </c>
-      <c r="AY17" s="83">
+      <c r="AY17" s="62">
         <v>0.756</v>
       </c>
-      <c r="AZ17" s="83">
+      <c r="AZ17" s="62">
         <v>1.1246</v>
       </c>
-      <c r="BA17" s="83">
+      <c r="BA17" s="62">
         <v>0.64</v>
       </c>
-      <c r="BB17" s="83">
+      <c r="BB17" s="62">
         <v>-0.1855</v>
       </c>
-      <c r="BC17" s="83">
+      <c r="BC17" s="62">
         <v>0.1135</v>
       </c>
-      <c r="BD17" s="83">
+      <c r="BD17" s="62">
         <v>-0.5985</v>
       </c>
-      <c r="BE17" s="83">
+      <c r="BE17" s="62">
         <v>2.7082</v>
       </c>
-      <c r="BF17" s="83">
+      <c r="BF17" s="62">
         <v>0.8544</v>
       </c>
-      <c r="BG17" s="83">
+      <c r="BG17" s="62">
         <v>0.8505</v>
       </c>
-      <c r="BH17" s="83">
+      <c r="BH17" s="62">
         <v>0.8349</v>
       </c>
-      <c r="BI17" s="83">
+      <c r="BI17" s="62">
         <v>0.8576</v>
       </c>
       <c r="BJ17" s="30"/>
@@ -7091,7 +7076,7 @@
       <c r="BO17" s="30">
         <v>117.62</v>
       </c>
-      <c r="BP17" s="91">
+      <c r="BP17" s="82">
         <f t="shared" si="9"/>
         <v>29.89</v>
       </c>
@@ -7104,38 +7089,38 @@
       <c r="BS17" s="30">
         <v>158.48</v>
       </c>
-      <c r="BT17" s="91">
+      <c r="BT17" s="82">
         <f t="shared" si="0"/>
         <v>1390</v>
       </c>
-      <c r="BU17" s="96">
+      <c r="BU17" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV17" s="97">
+      <c r="BV17" s="88">
         <f t="shared" si="11"/>
         <v>1.05611510791367</v>
       </c>
-      <c r="BW17" s="54">
+      <c r="BW17" s="49">
         <f t="shared" si="12"/>
         <v>0.0966620305980529</v>
       </c>
-      <c r="BX17" s="54">
+      <c r="BX17" s="49">
         <f t="shared" si="13"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="BY17" s="112">
+      <c r="BY17" s="103">
         <v>55.79</v>
       </c>
-      <c r="BZ17" s="73" t="s">
+      <c r="BZ17" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="CA17" s="73" t="s">
+      <c r="CA17" s="67" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="111" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="26">
@@ -7163,11 +7148,11 @@
       <c r="J18" s="23">
         <v>11.8</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="47">
         <f t="shared" si="1"/>
         <v>0.987577639751553</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="47">
         <f t="shared" si="2"/>
         <v>0.186440677966102</v>
       </c>
@@ -7195,20 +7180,20 @@
       <c r="X18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y18" s="52">
+      <c r="Y18" s="47">
         <f t="shared" si="3"/>
         <v>0.355932203389831</v>
       </c>
-      <c r="Z18" s="52">
+      <c r="Z18" s="47">
         <f t="shared" si="4"/>
         <v>0.167875647668394</v>
       </c>
-      <c r="AA18" s="52">
+      <c r="AA18" s="47">
         <f t="shared" si="5"/>
         <v>0.124513618677043</v>
       </c>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="50" t="e">
+      <c r="AC18" s="45" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7219,35 +7204,35 @@
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72" t="s">
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN18" s="23"/>
       <c r="AO18" s="23"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="45"/>
+      <c r="BE18" s="45"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BI18" s="45"/>
       <c r="BJ18" s="23"/>
       <c r="BK18" s="23"/>
       <c r="BL18" s="23"/>
@@ -7258,7 +7243,7 @@
       <c r="BO18" s="23">
         <v>8.35</v>
       </c>
-      <c r="BP18" s="90">
+      <c r="BP18" s="81">
         <f t="shared" si="9"/>
         <v>2.19</v>
       </c>
@@ -7271,7 +7256,7 @@
       <c r="BS18" s="23">
         <v>12</v>
       </c>
-      <c r="BT18" s="90">
+      <c r="BT18" s="81">
         <f t="shared" si="0"/>
         <v>86.9999999999999</v>
       </c>
@@ -7279,30 +7264,30 @@
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="BV18" s="95">
+      <c r="BV18" s="86">
         <f t="shared" si="11"/>
         <v>1.97701149425288</v>
       </c>
-      <c r="BW18" s="50">
+      <c r="BW18" s="45">
         <f t="shared" si="12"/>
         <v>0.0846303501945525</v>
       </c>
-      <c r="BX18" s="50">
+      <c r="BX18" s="45">
         <f t="shared" si="13"/>
         <v>0.167315175097276</v>
       </c>
-      <c r="BY18" s="110">
+      <c r="BY18" s="101">
         <v>18.1</v>
       </c>
-      <c r="BZ18" s="72" t="s">
+      <c r="BZ18" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA18" s="72" t="s">
+      <c r="CA18" s="66" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="111" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="26">
@@ -7330,11 +7315,11 @@
       <c r="J19" s="23">
         <v>61.98</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="47">
         <f t="shared" si="1"/>
         <v>0.346489991542148</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="47">
         <f t="shared" si="2"/>
         <v>0.229428848015489</v>
       </c>
@@ -7362,20 +7347,20 @@
       <c r="X19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y19" s="52">
+      <c r="Y19" s="47">
         <f t="shared" si="3"/>
         <v>0.321555340432398</v>
       </c>
-      <c r="Z19" s="52">
+      <c r="Z19" s="47">
         <f t="shared" si="4"/>
         <v>0.203700207664716</v>
       </c>
-      <c r="AA19" s="52">
+      <c r="AA19" s="47">
         <f t="shared" si="5"/>
         <v>0.0942470056940899</v>
       </c>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="50" t="e">
+      <c r="AC19" s="45" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7386,35 +7371,35 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72" t="s">
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
-      <c r="BI19" s="50"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
       <c r="BJ19" s="23"/>
       <c r="BK19" s="23"/>
       <c r="BL19" s="23"/>
@@ -7425,7 +7410,7 @@
       <c r="BO19" s="23">
         <v>40.96</v>
       </c>
-      <c r="BP19" s="90">
+      <c r="BP19" s="81">
         <f t="shared" si="9"/>
         <v>11.86</v>
       </c>
@@ -7436,7 +7421,7 @@
         <v>46.13</v>
       </c>
       <c r="BS19" s="23"/>
-      <c r="BT19" s="90">
+      <c r="BT19" s="81">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
@@ -7444,24 +7429,24 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="50">
+      <c r="BV19" s="86"/>
+      <c r="BW19" s="45">
         <f t="shared" si="12"/>
         <v>0.0942470056940899</v>
       </c>
-      <c r="BX19" s="50"/>
-      <c r="BY19" s="110">
+      <c r="BX19" s="45"/>
+      <c r="BY19" s="101">
         <v>12</v>
       </c>
-      <c r="BZ19" s="72" t="s">
+      <c r="BZ19" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA19" s="72" t="s">
+      <c r="CA19" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="24" spans="1:79">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="111" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="26">
@@ -7489,11 +7474,11 @@
       <c r="J20" s="23">
         <v>30.1</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="47">
         <f t="shared" si="1"/>
         <v>2.34962406015038</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="47">
         <f t="shared" si="2"/>
         <v>0.111960132890365</v>
       </c>
@@ -7521,23 +7506,23 @@
       <c r="X20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y20" s="52">
+      <c r="Y20" s="47">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z20" s="52">
+      <c r="Z20" s="47">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA20" s="52">
+      <c r="AA20" s="47">
         <f t="shared" si="5"/>
         <v>0.124915824915825</v>
       </c>
-      <c r="AB20" s="52" t="e">
+      <c r="AB20" s="47" t="e">
         <f>(R20-S20)/R20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="50" t="e">
+      <c r="AC20" s="45" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7548,75 +7533,75 @@
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72" t="s">
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66" t="s">
         <v>141</v>
       </c>
       <c r="AN20" s="23"/>
       <c r="AO20" s="23">
         <v>9.73</v>
       </c>
-      <c r="AP20" s="50">
+      <c r="AP20" s="45">
         <v>3.1533</v>
       </c>
-      <c r="AQ20" s="50">
+      <c r="AQ20" s="45">
         <v>2.152</v>
       </c>
-      <c r="AR20" s="50">
+      <c r="AR20" s="45">
         <v>1.6028</v>
       </c>
-      <c r="AS20" s="50">
+      <c r="AS20" s="45">
         <v>1.161</v>
       </c>
-      <c r="AT20" s="50">
+      <c r="AT20" s="45">
         <v>0.2365</v>
       </c>
-      <c r="AU20" s="50">
+      <c r="AU20" s="45">
         <v>0.0229</v>
       </c>
-      <c r="AV20" s="50">
+      <c r="AV20" s="45">
         <v>0.1857</v>
       </c>
-      <c r="AW20" s="50">
+      <c r="AW20" s="45">
         <v>0.1281</v>
       </c>
-      <c r="AX20" s="50">
+      <c r="AX20" s="45">
         <v>0.1124</v>
       </c>
-      <c r="AY20" s="50">
+      <c r="AY20" s="45">
         <v>0.3139</v>
       </c>
-      <c r="AZ20" s="50">
+      <c r="AZ20" s="45">
         <v>0.0935</v>
       </c>
-      <c r="BA20" s="50">
+      <c r="BA20" s="45">
         <v>0.1211</v>
       </c>
-      <c r="BB20" s="50">
+      <c r="BB20" s="45">
         <v>-0.3125</v>
       </c>
-      <c r="BC20" s="50">
+      <c r="BC20" s="45">
         <v>0.2292</v>
       </c>
-      <c r="BD20" s="50">
+      <c r="BD20" s="45">
         <v>0.1278</v>
       </c>
-      <c r="BE20" s="50">
+      <c r="BE20" s="45">
         <v>0.2239</v>
       </c>
-      <c r="BF20" s="50">
+      <c r="BF20" s="45">
         <v>0.2428</v>
       </c>
-      <c r="BG20" s="50">
+      <c r="BG20" s="45">
         <v>0.3271</v>
       </c>
-      <c r="BH20" s="50">
+      <c r="BH20" s="45">
         <v>0.347</v>
       </c>
-      <c r="BI20" s="50">
+      <c r="BI20" s="45">
         <v>0.3263</v>
       </c>
       <c r="BJ20" s="23"/>
@@ -7629,7 +7614,7 @@
       <c r="BO20" s="23">
         <v>22.76</v>
       </c>
-      <c r="BP20" s="90">
+      <c r="BP20" s="81">
         <f t="shared" si="9"/>
         <v>7.65</v>
       </c>
@@ -7642,7 +7627,7 @@
       <c r="BS20" s="23">
         <v>32.36</v>
       </c>
-      <c r="BT20" s="90">
+      <c r="BT20" s="81">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
@@ -7650,30 +7635,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV20" s="95">
+      <c r="BV20" s="86">
         <f>(BS20-BQ20)/(BQ20-BR20)</f>
         <v>1.41035856573705</v>
       </c>
-      <c r="BW20" s="50">
+      <c r="BW20" s="45">
         <f t="shared" si="12"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BX20" s="50">
+      <c r="BX20" s="45">
         <f>(BS20-BQ20)/BQ20</f>
         <v>0.122831367106176</v>
       </c>
-      <c r="BY20" s="110">
+      <c r="BY20" s="101">
         <v>25.15</v>
       </c>
-      <c r="BZ20" s="72" t="s">
+      <c r="BZ20" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="CA20" s="72" t="s">
+      <c r="CA20" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="114" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="34">
@@ -7701,12 +7686,12 @@
       <c r="J21" s="33">
         <v>19.7</v>
       </c>
-      <c r="K21" s="52">
-        <f>(H21-I21)/I21</f>
+      <c r="K21" s="47">
+        <f t="shared" si="1"/>
         <v>2.98574821852732</v>
       </c>
-      <c r="L21" s="52">
-        <f>(J21-H21)/J21</f>
+      <c r="L21" s="47">
+        <f t="shared" si="2"/>
         <v>0.148223350253807</v>
       </c>
       <c r="M21" s="33">
@@ -7737,23 +7722,23 @@
       <c r="X21" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="Y21" s="52">
-        <f>(J21-M21)/J21</f>
+      <c r="Y21" s="47">
+        <f t="shared" si="3"/>
         <v>0.277664974619289</v>
       </c>
-      <c r="Z21" s="52">
-        <f>(N21-O21)/N21</f>
+      <c r="Z21" s="47">
+        <f t="shared" si="4"/>
         <v>0.141129032258064</v>
       </c>
-      <c r="AA21" s="52">
-        <f>(P21-Q21)/P21</f>
+      <c r="AA21" s="47">
+        <f t="shared" si="5"/>
         <v>0.169800884955752</v>
       </c>
-      <c r="AB21" s="52">
+      <c r="AB21" s="47">
         <f>(R21-S21)/R21</f>
         <v>0.0983129726585225</v>
       </c>
-      <c r="AC21" s="52" t="e">
+      <c r="AC21" s="47" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7769,34 +7754,34 @@
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="84"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="84"/>
-      <c r="AZ21" s="84"/>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="84"/>
-      <c r="BC21" s="84"/>
-      <c r="BD21" s="84"/>
-      <c r="BE21" s="84"/>
-      <c r="BF21" s="84"/>
-      <c r="BG21" s="84"/>
-      <c r="BH21" s="84"/>
-      <c r="BI21" s="84"/>
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="75"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="75"/>
+      <c r="BD21" s="75"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="75"/>
+      <c r="BG21" s="75"/>
+      <c r="BH21" s="75"/>
+      <c r="BI21" s="75"/>
       <c r="BJ21" s="33"/>
       <c r="BK21" s="33"/>
       <c r="BL21" s="33"/>
       <c r="BM21" s="33"/>
       <c r="BN21" s="33"/>
       <c r="BO21" s="33"/>
-      <c r="BP21" s="92">
-        <f>BN21-BO21</f>
+      <c r="BP21" s="83">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BQ21" s="33">
@@ -7808,2421 +7793,2423 @@
       <c r="BS21" s="33">
         <v>20.66</v>
       </c>
-      <c r="BT21" s="92">
-        <f>(BQ21-BR21)*100</f>
+      <c r="BT21" s="83">
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="BU21" s="98">
-        <f>FLOOR(304/(BQ21-BR21),100)</f>
+      <c r="BU21" s="89">
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV21" s="99">
+      <c r="BV21" s="90">
         <f>(BS21-BQ21)/(BQ21-BR21)</f>
         <v>2.05325443786982</v>
       </c>
-      <c r="BW21" s="52">
-        <f>(BQ21-BR21)/BQ21</f>
+      <c r="BW21" s="47">
+        <f t="shared" si="12"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="BX21" s="52">
+      <c r="BX21" s="47">
         <f>(BS21-BQ21)/BQ21</f>
         <v>0.201861547411286</v>
       </c>
-      <c r="BY21" s="113">
+      <c r="BY21" s="104">
         <v>26.15</v>
       </c>
-      <c r="BZ21" s="114" t="s">
+      <c r="BZ21" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="CA21" s="114" t="s">
+      <c r="CA21" s="105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" ht="13" spans="1:79">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>44537</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="30">
         <v>18.18</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="30">
         <v>18.38</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="30">
         <v>19.15</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30">
         <v>19.87</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="30">
         <v>12.79</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="30">
         <v>22.81</v>
       </c>
-      <c r="K22" s="54">
-        <f>(H22-I22)/I22</f>
+      <c r="K22" s="49">
+        <f t="shared" si="1"/>
         <v>0.553557466770915</v>
       </c>
-      <c r="L22" s="54">
-        <f>(J22-H22)/J22</f>
+      <c r="L22" s="49">
+        <f t="shared" si="2"/>
         <v>0.128890837352038</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="30">
         <v>16.53</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="30">
         <v>20.25</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="30">
         <v>17.9</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="30">
         <v>20.44</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="30">
         <v>19.09</v>
       </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36" t="s">
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="Y22" s="54">
-        <f>(J22-M22)/J22</f>
+      <c r="Y22" s="49">
+        <f t="shared" si="3"/>
         <v>0.275317843051293</v>
       </c>
-      <c r="Z22" s="54">
-        <f>(N22-O22)/N22</f>
+      <c r="Z22" s="49">
+        <f t="shared" si="4"/>
         <v>0.116049382716049</v>
       </c>
-      <c r="AA22" s="54">
-        <f>(P22-Q22)/P22</f>
+      <c r="AA22" s="49">
+        <f t="shared" si="5"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="AB22" s="52" t="e">
+      <c r="AB22" s="47" t="e">
         <f>(R22-S22)/R22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36" t="s">
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="74" t="s">
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="67"/>
-      <c r="AQ22" s="67"/>
-      <c r="AR22" s="67"/>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="67"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="67"/>
-      <c r="AW22" s="67"/>
-      <c r="AX22" s="67"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="67"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="67"/>
-      <c r="BD22" s="67"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="67"/>
-      <c r="BH22" s="67"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="36"/>
-      <c r="BK22" s="36"/>
-      <c r="BL22" s="36"/>
-      <c r="BM22" s="36"/>
-      <c r="BN22" s="36">
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="62"/>
+      <c r="BA22" s="62"/>
+      <c r="BB22" s="62"/>
+      <c r="BC22" s="62"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="62"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+      <c r="BM22" s="30"/>
+      <c r="BN22" s="30">
         <v>21.32</v>
       </c>
-      <c r="BO22" s="36">
+      <c r="BO22" s="30">
         <v>17.54</v>
       </c>
-      <c r="BP22" s="91">
-        <f>BN22-BO22</f>
+      <c r="BP22" s="82">
+        <f t="shared" si="9"/>
         <v>3.78</v>
       </c>
-      <c r="BQ22" s="36">
+      <c r="BQ22" s="30">
         <v>20.44</v>
       </c>
-      <c r="BR22" s="36">
+      <c r="BR22" s="30">
         <v>19.09</v>
       </c>
-      <c r="BS22" s="36">
+      <c r="BS22" s="30">
         <v>23.43</v>
       </c>
-      <c r="BT22" s="91">
-        <f>(BQ22-BR22)*100</f>
+      <c r="BT22" s="82">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="BU22" s="96">
-        <f>FLOOR(304/(BQ22-BR22),100)</f>
+      <c r="BU22" s="87">
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="BV22" s="97">
+      <c r="BV22" s="88">
         <f>(BS22-BQ22)/(BQ22-BR22)</f>
         <v>2.21481481481481</v>
       </c>
-      <c r="BW22" s="54">
-        <f>(BQ22-BR22)/BQ22</f>
+      <c r="BW22" s="49">
+        <f t="shared" si="12"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="BX22" s="54">
+      <c r="BX22" s="49">
         <f>(BS22-BQ22)/BQ22</f>
         <v>0.146281800391389</v>
       </c>
-      <c r="BY22" s="115">
+      <c r="BY22" s="103">
         <v>13.79</v>
       </c>
-      <c r="BZ22" s="74" t="s">
+      <c r="BZ22" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="CA22" s="74" t="s">
+      <c r="CA22" s="67" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="25" spans="1:79">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="26">
         <v>44537</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="23">
         <v>7.39</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="23">
         <v>7.71</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="23">
         <v>8.76</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23">
         <v>9.52</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="23">
         <v>5.1</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="23">
         <v>11.18</v>
       </c>
-      <c r="K23" s="50">
-        <f>(H23-I23)/I23</f>
+      <c r="K23" s="45">
+        <f t="shared" si="1"/>
         <v>0.866666666666667</v>
       </c>
-      <c r="L23" s="50">
-        <f>(J23-H23)/J23</f>
+      <c r="L23" s="45">
+        <f t="shared" si="2"/>
         <v>0.148479427549195</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="23">
         <v>7.23</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="23">
         <v>10.32</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="23">
         <v>7.75</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="23">
         <v>9.41</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="23">
         <v>8.11</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="23">
         <v>10.07</v>
       </c>
-      <c r="S23" s="39">
+      <c r="S23" s="23">
         <v>8.94</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="41" t="s">
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y23" s="50">
-        <f>(J23-M23)/J23</f>
+      <c r="Y23" s="45">
+        <f t="shared" si="3"/>
         <v>0.353309481216458</v>
       </c>
-      <c r="Z23" s="50">
-        <f>(N23-O23)/N23</f>
+      <c r="Z23" s="45">
+        <f t="shared" si="4"/>
         <v>0.249031007751938</v>
       </c>
-      <c r="AA23" s="50">
-        <f>(P23-Q23)/P23</f>
+      <c r="AA23" s="45">
+        <f t="shared" si="5"/>
         <v>0.138150903294368</v>
       </c>
-      <c r="AB23" s="52">
+      <c r="AB23" s="47">
         <f>(R23-S23)/R23</f>
         <v>0.112214498510427</v>
       </c>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39" t="s">
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75" t="s">
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="39"/>
-      <c r="BL23" s="39"/>
-      <c r="BM23" s="39"/>
-      <c r="BN23" s="39"/>
-      <c r="BO23" s="39"/>
-      <c r="BP23" s="39"/>
-      <c r="BQ23" s="39"/>
-      <c r="BR23" s="39"/>
-      <c r="BS23" s="39"/>
-      <c r="BT23" s="39"/>
-      <c r="BU23" s="39"/>
-      <c r="BV23" s="39"/>
-      <c r="BW23" s="68"/>
-      <c r="BX23" s="68"/>
-      <c r="BY23" s="116"/>
-      <c r="BZ23" s="75" t="s">
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="23"/>
+      <c r="BO23" s="23"/>
+      <c r="BP23" s="23"/>
+      <c r="BQ23" s="23"/>
+      <c r="BR23" s="23"/>
+      <c r="BS23" s="23"/>
+      <c r="BT23" s="23"/>
+      <c r="BU23" s="23"/>
+      <c r="BV23" s="23"/>
+      <c r="BW23" s="45"/>
+      <c r="BX23" s="45"/>
+      <c r="BY23" s="101"/>
+      <c r="BZ23" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="CA23" s="75" t="s">
+      <c r="CA23" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" ht="13" spans="1:79">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="67"/>
-      <c r="AQ24" s="67"/>
-      <c r="AR24" s="67"/>
-      <c r="AS24" s="67"/>
-      <c r="AT24" s="67"/>
-      <c r="AU24" s="67"/>
-      <c r="AV24" s="67"/>
-      <c r="AW24" s="67"/>
-      <c r="AX24" s="67"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="67"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="67"/>
-      <c r="BD24" s="67"/>
-      <c r="BE24" s="67"/>
-      <c r="BF24" s="67"/>
-      <c r="BG24" s="67"/>
-      <c r="BH24" s="67"/>
-      <c r="BI24" s="67"/>
-      <c r="BJ24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="BR24" s="36"/>
-      <c r="BS24" s="36"/>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="36"/>
-      <c r="BV24" s="36"/>
-      <c r="BW24" s="67"/>
-      <c r="BX24" s="67"/>
-      <c r="BY24" s="115"/>
-      <c r="BZ24" s="36"/>
-      <c r="CA24" s="36"/>
+      <c r="B24" s="31">
+        <v>44538</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="62"/>
+      <c r="AY24" s="62"/>
+      <c r="AZ24" s="62"/>
+      <c r="BA24" s="62"/>
+      <c r="BB24" s="62"/>
+      <c r="BC24" s="62"/>
+      <c r="BD24" s="62"/>
+      <c r="BE24" s="62"/>
+      <c r="BF24" s="62"/>
+      <c r="BG24" s="62"/>
+      <c r="BH24" s="62"/>
+      <c r="BI24" s="62"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+      <c r="BM24" s="30"/>
+      <c r="BN24" s="30"/>
+      <c r="BO24" s="30"/>
+      <c r="BP24" s="30"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
+      <c r="BW24" s="62"/>
+      <c r="BX24" s="62"/>
+      <c r="BY24" s="103"/>
+      <c r="BZ24" s="30"/>
+      <c r="CA24" s="30"/>
     </row>
     <row r="25" ht="13" spans="1:79">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="67"/>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
-      <c r="BP25" s="36"/>
-      <c r="BQ25" s="36"/>
-      <c r="BR25" s="36"/>
-      <c r="BS25" s="36"/>
-      <c r="BT25" s="36"/>
-      <c r="BU25" s="36"/>
-      <c r="BV25" s="36"/>
-      <c r="BW25" s="67"/>
-      <c r="BX25" s="67"/>
-      <c r="BY25" s="115"/>
-      <c r="BZ25" s="36"/>
-      <c r="CA25" s="36"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="62"/>
+      <c r="AY25" s="62"/>
+      <c r="AZ25" s="62"/>
+      <c r="BA25" s="62"/>
+      <c r="BB25" s="62"/>
+      <c r="BC25" s="62"/>
+      <c r="BD25" s="62"/>
+      <c r="BE25" s="62"/>
+      <c r="BF25" s="62"/>
+      <c r="BG25" s="62"/>
+      <c r="BH25" s="62"/>
+      <c r="BI25" s="62"/>
+      <c r="BJ25" s="30"/>
+      <c r="BK25" s="30"/>
+      <c r="BL25" s="30"/>
+      <c r="BM25" s="30"/>
+      <c r="BN25" s="30"/>
+      <c r="BO25" s="30"/>
+      <c r="BP25" s="30"/>
+      <c r="BQ25" s="30"/>
+      <c r="BR25" s="30"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
+      <c r="BU25" s="30"/>
+      <c r="BV25" s="30"/>
+      <c r="BW25" s="62"/>
+      <c r="BX25" s="62"/>
+      <c r="BY25" s="103"/>
+      <c r="BZ25" s="30"/>
+      <c r="CA25" s="30"/>
     </row>
     <row r="26" ht="13" spans="1:79">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="67"/>
-      <c r="AQ26" s="67"/>
-      <c r="AR26" s="67"/>
-      <c r="AS26" s="67"/>
-      <c r="AT26" s="67"/>
-      <c r="AU26" s="67"/>
-      <c r="AV26" s="67"/>
-      <c r="AW26" s="67"/>
-      <c r="AX26" s="67"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="67"/>
-      <c r="BD26" s="67"/>
-      <c r="BE26" s="67"/>
-      <c r="BF26" s="67"/>
-      <c r="BG26" s="67"/>
-      <c r="BH26" s="67"/>
-      <c r="BI26" s="67"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
-      <c r="BO26" s="36"/>
-      <c r="BP26" s="36"/>
-      <c r="BQ26" s="36"/>
-      <c r="BR26" s="36"/>
-      <c r="BS26" s="36"/>
-      <c r="BT26" s="36"/>
-      <c r="BU26" s="36"/>
-      <c r="BV26" s="36"/>
-      <c r="BW26" s="67"/>
-      <c r="BX26" s="67"/>
-      <c r="BY26" s="115"/>
-      <c r="BZ26" s="36"/>
-      <c r="CA26" s="36"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="62"/>
+      <c r="BC26" s="62"/>
+      <c r="BD26" s="62"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="62"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="30"/>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="30"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="62"/>
+      <c r="BY26" s="103"/>
+      <c r="BZ26" s="30"/>
+      <c r="CA26" s="30"/>
     </row>
     <row r="27" ht="13" spans="1:79">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="67"/>
-      <c r="AQ27" s="67"/>
-      <c r="AR27" s="67"/>
-      <c r="AS27" s="67"/>
-      <c r="AT27" s="67"/>
-      <c r="AU27" s="67"/>
-      <c r="AV27" s="67"/>
-      <c r="AW27" s="67"/>
-      <c r="AX27" s="67"/>
-      <c r="AY27" s="67"/>
-      <c r="AZ27" s="67"/>
-      <c r="BA27" s="67"/>
-      <c r="BB27" s="67"/>
-      <c r="BC27" s="67"/>
-      <c r="BD27" s="67"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="67"/>
-      <c r="BG27" s="67"/>
-      <c r="BH27" s="67"/>
-      <c r="BI27" s="67"/>
-      <c r="BJ27" s="36"/>
-      <c r="BK27" s="36"/>
-      <c r="BL27" s="36"/>
-      <c r="BM27" s="36"/>
-      <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
-      <c r="BP27" s="36"/>
-      <c r="BQ27" s="36"/>
-      <c r="BR27" s="36"/>
-      <c r="BS27" s="36"/>
-      <c r="BT27" s="36"/>
-      <c r="BU27" s="36"/>
-      <c r="BV27" s="36"/>
-      <c r="BW27" s="67"/>
-      <c r="BX27" s="67"/>
-      <c r="BY27" s="115"/>
-      <c r="BZ27" s="36"/>
-      <c r="CA27" s="36"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="62"/>
+      <c r="AZ27" s="62"/>
+      <c r="BA27" s="62"/>
+      <c r="BB27" s="62"/>
+      <c r="BC27" s="62"/>
+      <c r="BD27" s="62"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="62"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="62"/>
+      <c r="BJ27" s="30"/>
+      <c r="BK27" s="30"/>
+      <c r="BL27" s="30"/>
+      <c r="BM27" s="30"/>
+      <c r="BN27" s="30"/>
+      <c r="BO27" s="30"/>
+      <c r="BP27" s="30"/>
+      <c r="BQ27" s="30"/>
+      <c r="BR27" s="30"/>
+      <c r="BS27" s="30"/>
+      <c r="BT27" s="30"/>
+      <c r="BU27" s="30"/>
+      <c r="BV27" s="30"/>
+      <c r="BW27" s="62"/>
+      <c r="BX27" s="62"/>
+      <c r="BY27" s="103"/>
+      <c r="BZ27" s="30"/>
+      <c r="CA27" s="30"/>
     </row>
     <row r="28" ht="13" spans="1:79">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="67"/>
-      <c r="AQ28" s="67"/>
-      <c r="AR28" s="67"/>
-      <c r="AS28" s="67"/>
-      <c r="AT28" s="67"/>
-      <c r="AU28" s="67"/>
-      <c r="AV28" s="67"/>
-      <c r="AW28" s="67"/>
-      <c r="AX28" s="67"/>
-      <c r="AY28" s="67"/>
-      <c r="AZ28" s="67"/>
-      <c r="BA28" s="67"/>
-      <c r="BB28" s="67"/>
-      <c r="BC28" s="67"/>
-      <c r="BD28" s="67"/>
-      <c r="BE28" s="67"/>
-      <c r="BF28" s="67"/>
-      <c r="BG28" s="67"/>
-      <c r="BH28" s="67"/>
-      <c r="BI28" s="67"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="67"/>
-      <c r="BX28" s="67"/>
-      <c r="BY28" s="115"/>
-      <c r="BZ28" s="36"/>
-      <c r="CA28" s="36"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="62"/>
+      <c r="AZ28" s="62"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62"/>
+      <c r="BC28" s="62"/>
+      <c r="BD28" s="62"/>
+      <c r="BE28" s="62"/>
+      <c r="BF28" s="62"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="62"/>
+      <c r="BI28" s="62"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="30"/>
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="30"/>
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="30"/>
+      <c r="BW28" s="62"/>
+      <c r="BX28" s="62"/>
+      <c r="BY28" s="103"/>
+      <c r="BZ28" s="30"/>
+      <c r="CA28" s="30"/>
     </row>
     <row r="29" ht="13" spans="1:79">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="67"/>
-      <c r="AR29" s="67"/>
-      <c r="AS29" s="67"/>
-      <c r="AT29" s="67"/>
-      <c r="AU29" s="67"/>
-      <c r="AV29" s="67"/>
-      <c r="AW29" s="67"/>
-      <c r="AX29" s="67"/>
-      <c r="AY29" s="67"/>
-      <c r="AZ29" s="67"/>
-      <c r="BA29" s="67"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="67"/>
-      <c r="BD29" s="67"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="36"/>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
-      <c r="BR29" s="36"/>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="36"/>
-      <c r="BW29" s="67"/>
-      <c r="BX29" s="67"/>
-      <c r="BY29" s="115"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="62"/>
+      <c r="AY29" s="62"/>
+      <c r="AZ29" s="62"/>
+      <c r="BA29" s="62"/>
+      <c r="BB29" s="62"/>
+      <c r="BC29" s="62"/>
+      <c r="BD29" s="62"/>
+      <c r="BE29" s="62"/>
+      <c r="BF29" s="62"/>
+      <c r="BG29" s="62"/>
+      <c r="BH29" s="62"/>
+      <c r="BI29" s="62"/>
+      <c r="BJ29" s="30"/>
+      <c r="BK29" s="30"/>
+      <c r="BL29" s="30"/>
+      <c r="BM29" s="30"/>
+      <c r="BN29" s="30"/>
+      <c r="BO29" s="30"/>
+      <c r="BP29" s="30"/>
+      <c r="BQ29" s="30"/>
+      <c r="BR29" s="30"/>
+      <c r="BS29" s="30"/>
+      <c r="BT29" s="30"/>
+      <c r="BU29" s="30"/>
+      <c r="BV29" s="30"/>
+      <c r="BW29" s="62"/>
+      <c r="BX29" s="62"/>
+      <c r="BY29" s="103"/>
+      <c r="BZ29" s="30"/>
+      <c r="CA29" s="30"/>
     </row>
     <row r="30" ht="13" spans="1:79">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="67"/>
-      <c r="AS30" s="67"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="67"/>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="67"/>
-      <c r="BD30" s="67"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="67"/>
-      <c r="BG30" s="67"/>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="67"/>
-      <c r="BJ30" s="36"/>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
-      <c r="BR30" s="36"/>
-      <c r="BS30" s="36"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="36"/>
-      <c r="BW30" s="67"/>
-      <c r="BX30" s="67"/>
-      <c r="BY30" s="115"/>
-      <c r="BZ30" s="36"/>
-      <c r="CA30" s="36"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="62"/>
+      <c r="AX30" s="62"/>
+      <c r="AY30" s="62"/>
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="62"/>
+      <c r="BB30" s="62"/>
+      <c r="BC30" s="62"/>
+      <c r="BD30" s="62"/>
+      <c r="BE30" s="62"/>
+      <c r="BF30" s="62"/>
+      <c r="BG30" s="62"/>
+      <c r="BH30" s="62"/>
+      <c r="BI30" s="62"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="30"/>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BR30" s="30"/>
+      <c r="BS30" s="30"/>
+      <c r="BT30" s="30"/>
+      <c r="BU30" s="30"/>
+      <c r="BV30" s="30"/>
+      <c r="BW30" s="62"/>
+      <c r="BX30" s="62"/>
+      <c r="BY30" s="103"/>
+      <c r="BZ30" s="30"/>
+      <c r="CA30" s="30"/>
     </row>
     <row r="31" ht="13" spans="1:79">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="67"/>
-      <c r="AQ31" s="67"/>
-      <c r="AR31" s="67"/>
-      <c r="AS31" s="67"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="67"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="67"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="67"/>
-      <c r="BA31" s="67"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="67"/>
-      <c r="BD31" s="67"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="36"/>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="36"/>
-      <c r="BO31" s="36"/>
-      <c r="BP31" s="36"/>
-      <c r="BQ31" s="36"/>
-      <c r="BR31" s="36"/>
-      <c r="BS31" s="36"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="36"/>
-      <c r="BV31" s="36"/>
-      <c r="BW31" s="67"/>
-      <c r="BX31" s="67"/>
-      <c r="BY31" s="115"/>
-      <c r="BZ31" s="36"/>
-      <c r="CA31" s="36"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="62"/>
+      <c r="BA31" s="62"/>
+      <c r="BB31" s="62"/>
+      <c r="BC31" s="62"/>
+      <c r="BD31" s="62"/>
+      <c r="BE31" s="62"/>
+      <c r="BF31" s="62"/>
+      <c r="BG31" s="62"/>
+      <c r="BH31" s="62"/>
+      <c r="BI31" s="62"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
+      <c r="BM31" s="30"/>
+      <c r="BN31" s="30"/>
+      <c r="BO31" s="30"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
+      <c r="BR31" s="30"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="30"/>
+      <c r="BV31" s="30"/>
+      <c r="BW31" s="62"/>
+      <c r="BX31" s="62"/>
+      <c r="BY31" s="103"/>
+      <c r="BZ31" s="30"/>
+      <c r="CA31" s="30"/>
     </row>
     <row r="32" ht="13" spans="1:79">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="36"/>
-      <c r="BP32" s="36"/>
-      <c r="BQ32" s="36"/>
-      <c r="BR32" s="36"/>
-      <c r="BS32" s="36"/>
-      <c r="BT32" s="36"/>
-      <c r="BU32" s="36"/>
-      <c r="BV32" s="36"/>
-      <c r="BW32" s="67"/>
-      <c r="BX32" s="67"/>
-      <c r="BY32" s="115"/>
-      <c r="BZ32" s="36"/>
-      <c r="CA32" s="36"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="62"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="62"/>
+      <c r="BA32" s="62"/>
+      <c r="BB32" s="62"/>
+      <c r="BC32" s="62"/>
+      <c r="BD32" s="62"/>
+      <c r="BE32" s="62"/>
+      <c r="BF32" s="62"/>
+      <c r="BG32" s="62"/>
+      <c r="BH32" s="62"/>
+      <c r="BI32" s="62"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
+      <c r="BM32" s="30"/>
+      <c r="BN32" s="30"/>
+      <c r="BO32" s="30"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="30"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
+      <c r="BT32" s="30"/>
+      <c r="BU32" s="30"/>
+      <c r="BV32" s="30"/>
+      <c r="BW32" s="62"/>
+      <c r="BX32" s="62"/>
+      <c r="BY32" s="103"/>
+      <c r="BZ32" s="30"/>
+      <c r="CA32" s="30"/>
     </row>
     <row r="33" ht="13" spans="1:79">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="36"/>
-      <c r="BK33" s="36"/>
-      <c r="BL33" s="36"/>
-      <c r="BM33" s="36"/>
-      <c r="BN33" s="36"/>
-      <c r="BO33" s="36"/>
-      <c r="BP33" s="36"/>
-      <c r="BQ33" s="36"/>
-      <c r="BR33" s="36"/>
-      <c r="BS33" s="36"/>
-      <c r="BT33" s="36"/>
-      <c r="BU33" s="36"/>
-      <c r="BV33" s="36"/>
-      <c r="BW33" s="67"/>
-      <c r="BX33" s="67"/>
-      <c r="BY33" s="115"/>
-      <c r="BZ33" s="36"/>
-      <c r="CA33" s="36"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="62"/>
+      <c r="BB33" s="62"/>
+      <c r="BC33" s="62"/>
+      <c r="BD33" s="62"/>
+      <c r="BE33" s="62"/>
+      <c r="BF33" s="62"/>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="30"/>
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
+      <c r="BM33" s="30"/>
+      <c r="BN33" s="30"/>
+      <c r="BO33" s="30"/>
+      <c r="BP33" s="30"/>
+      <c r="BQ33" s="30"/>
+      <c r="BR33" s="30"/>
+      <c r="BS33" s="30"/>
+      <c r="BT33" s="30"/>
+      <c r="BU33" s="30"/>
+      <c r="BV33" s="30"/>
+      <c r="BW33" s="62"/>
+      <c r="BX33" s="62"/>
+      <c r="BY33" s="103"/>
+      <c r="BZ33" s="30"/>
+      <c r="CA33" s="30"/>
     </row>
     <row r="34" ht="13" spans="1:79">
-      <c r="A34" s="126" t="s">
+      <c r="A34" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="36"/>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-      <c r="BM34" s="36"/>
-      <c r="BN34" s="36"/>
-      <c r="BO34" s="36"/>
-      <c r="BP34" s="36"/>
-      <c r="BQ34" s="36"/>
-      <c r="BR34" s="36"/>
-      <c r="BS34" s="36"/>
-      <c r="BT34" s="36"/>
-      <c r="BU34" s="36"/>
-      <c r="BV34" s="36"/>
-      <c r="BW34" s="67"/>
-      <c r="BX34" s="67"/>
-      <c r="BY34" s="115"/>
-      <c r="BZ34" s="36"/>
-      <c r="CA34" s="36"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="62"/>
+      <c r="AY34" s="62"/>
+      <c r="AZ34" s="62"/>
+      <c r="BA34" s="62"/>
+      <c r="BB34" s="62"/>
+      <c r="BC34" s="62"/>
+      <c r="BD34" s="62"/>
+      <c r="BE34" s="62"/>
+      <c r="BF34" s="62"/>
+      <c r="BG34" s="62"/>
+      <c r="BH34" s="62"/>
+      <c r="BI34" s="62"/>
+      <c r="BJ34" s="30"/>
+      <c r="BK34" s="30"/>
+      <c r="BL34" s="30"/>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="30"/>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
+      <c r="BR34" s="30"/>
+      <c r="BS34" s="30"/>
+      <c r="BT34" s="30"/>
+      <c r="BU34" s="30"/>
+      <c r="BV34" s="30"/>
+      <c r="BW34" s="62"/>
+      <c r="BX34" s="62"/>
+      <c r="BY34" s="103"/>
+      <c r="BZ34" s="30"/>
+      <c r="CA34" s="30"/>
     </row>
     <row r="35" ht="13" spans="1:79">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="36"/>
-      <c r="BK35" s="36"/>
-      <c r="BL35" s="36"/>
-      <c r="BM35" s="36"/>
-      <c r="BN35" s="36"/>
-      <c r="BO35" s="36"/>
-      <c r="BP35" s="36"/>
-      <c r="BQ35" s="36"/>
-      <c r="BR35" s="36"/>
-      <c r="BS35" s="36"/>
-      <c r="BT35" s="36"/>
-      <c r="BU35" s="36"/>
-      <c r="BV35" s="36"/>
-      <c r="BW35" s="67"/>
-      <c r="BX35" s="67"/>
-      <c r="BY35" s="115"/>
-      <c r="BZ35" s="36"/>
-      <c r="CA35" s="36"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="30"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="62"/>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="62"/>
+      <c r="BA35" s="62"/>
+      <c r="BB35" s="62"/>
+      <c r="BC35" s="62"/>
+      <c r="BD35" s="62"/>
+      <c r="BE35" s="62"/>
+      <c r="BF35" s="62"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="62"/>
+      <c r="BI35" s="62"/>
+      <c r="BJ35" s="30"/>
+      <c r="BK35" s="30"/>
+      <c r="BL35" s="30"/>
+      <c r="BM35" s="30"/>
+      <c r="BN35" s="30"/>
+      <c r="BO35" s="30"/>
+      <c r="BP35" s="30"/>
+      <c r="BQ35" s="30"/>
+      <c r="BR35" s="30"/>
+      <c r="BS35" s="30"/>
+      <c r="BT35" s="30"/>
+      <c r="BU35" s="30"/>
+      <c r="BV35" s="30"/>
+      <c r="BW35" s="62"/>
+      <c r="BX35" s="62"/>
+      <c r="BY35" s="103"/>
+      <c r="BZ35" s="30"/>
+      <c r="CA35" s="30"/>
     </row>
     <row r="36" ht="13" spans="1:79">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="36"/>
-      <c r="BK36" s="36"/>
-      <c r="BL36" s="36"/>
-      <c r="BM36" s="36"/>
-      <c r="BN36" s="36"/>
-      <c r="BO36" s="36"/>
-      <c r="BP36" s="36"/>
-      <c r="BQ36" s="36"/>
-      <c r="BR36" s="36"/>
-      <c r="BS36" s="36"/>
-      <c r="BT36" s="36"/>
-      <c r="BU36" s="36"/>
-      <c r="BV36" s="36"/>
-      <c r="BW36" s="67"/>
-      <c r="BX36" s="67"/>
-      <c r="BY36" s="115"/>
-      <c r="BZ36" s="36"/>
-      <c r="CA36" s="36"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="62"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="62"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="30"/>
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
+      <c r="BM36" s="30"/>
+      <c r="BN36" s="30"/>
+      <c r="BO36" s="30"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
+      <c r="BR36" s="30"/>
+      <c r="BS36" s="30"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30"/>
+      <c r="BW36" s="62"/>
+      <c r="BX36" s="62"/>
+      <c r="BY36" s="103"/>
+      <c r="BZ36" s="30"/>
+      <c r="CA36" s="30"/>
     </row>
     <row r="37" ht="13" spans="1:79">
-      <c r="A37" s="126" t="s">
+      <c r="A37" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="36"/>
-      <c r="BK37" s="36"/>
-      <c r="BL37" s="36"/>
-      <c r="BM37" s="36"/>
-      <c r="BN37" s="36"/>
-      <c r="BO37" s="36"/>
-      <c r="BP37" s="36"/>
-      <c r="BQ37" s="36"/>
-      <c r="BR37" s="36"/>
-      <c r="BS37" s="36"/>
-      <c r="BT37" s="36"/>
-      <c r="BU37" s="36"/>
-      <c r="BV37" s="36"/>
-      <c r="BW37" s="67"/>
-      <c r="BX37" s="67"/>
-      <c r="BY37" s="115"/>
-      <c r="BZ37" s="36"/>
-      <c r="CA37" s="36"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="62"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="62"/>
+      <c r="AU37" s="62"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="62"/>
+      <c r="AZ37" s="62"/>
+      <c r="BA37" s="62"/>
+      <c r="BB37" s="62"/>
+      <c r="BC37" s="62"/>
+      <c r="BD37" s="62"/>
+      <c r="BE37" s="62"/>
+      <c r="BF37" s="62"/>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="62"/>
+      <c r="BI37" s="62"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
+      <c r="BL37" s="30"/>
+      <c r="BM37" s="30"/>
+      <c r="BN37" s="30"/>
+      <c r="BO37" s="30"/>
+      <c r="BP37" s="30"/>
+      <c r="BQ37" s="30"/>
+      <c r="BR37" s="30"/>
+      <c r="BS37" s="30"/>
+      <c r="BT37" s="30"/>
+      <c r="BU37" s="30"/>
+      <c r="BV37" s="30"/>
+      <c r="BW37" s="62"/>
+      <c r="BX37" s="62"/>
+      <c r="BY37" s="103"/>
+      <c r="BZ37" s="30"/>
+      <c r="CA37" s="30"/>
     </row>
     <row r="38" ht="13" spans="1:79">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
-      <c r="AR38" s="67"/>
-      <c r="AS38" s="67"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="67"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="67"/>
-      <c r="AY38" s="67"/>
-      <c r="AZ38" s="67"/>
-      <c r="BA38" s="67"/>
-      <c r="BB38" s="67"/>
-      <c r="BC38" s="67"/>
-      <c r="BD38" s="67"/>
-      <c r="BE38" s="67"/>
-      <c r="BF38" s="67"/>
-      <c r="BG38" s="67"/>
-      <c r="BH38" s="67"/>
-      <c r="BI38" s="67"/>
-      <c r="BJ38" s="36"/>
-      <c r="BK38" s="36"/>
-      <c r="BL38" s="36"/>
-      <c r="BM38" s="36"/>
-      <c r="BN38" s="36"/>
-      <c r="BO38" s="36"/>
-      <c r="BP38" s="36"/>
-      <c r="BQ38" s="36"/>
-      <c r="BR38" s="36"/>
-      <c r="BS38" s="36"/>
-      <c r="BT38" s="36"/>
-      <c r="BU38" s="36"/>
-      <c r="BV38" s="36"/>
-      <c r="BW38" s="67"/>
-      <c r="BX38" s="67"/>
-      <c r="BY38" s="115"/>
-      <c r="BZ38" s="36"/>
-      <c r="CA38" s="36"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="62"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="62"/>
+      <c r="BA38" s="62"/>
+      <c r="BB38" s="62"/>
+      <c r="BC38" s="62"/>
+      <c r="BD38" s="62"/>
+      <c r="BE38" s="62"/>
+      <c r="BF38" s="62"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="62"/>
+      <c r="BJ38" s="30"/>
+      <c r="BK38" s="30"/>
+      <c r="BL38" s="30"/>
+      <c r="BM38" s="30"/>
+      <c r="BN38" s="30"/>
+      <c r="BO38" s="30"/>
+      <c r="BP38" s="30"/>
+      <c r="BQ38" s="30"/>
+      <c r="BR38" s="30"/>
+      <c r="BS38" s="30"/>
+      <c r="BT38" s="30"/>
+      <c r="BU38" s="30"/>
+      <c r="BV38" s="30"/>
+      <c r="BW38" s="62"/>
+      <c r="BX38" s="62"/>
+      <c r="BY38" s="103"/>
+      <c r="BZ38" s="30"/>
+      <c r="CA38" s="30"/>
     </row>
     <row r="39" ht="13" spans="1:79">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="67"/>
-      <c r="AU39" s="67"/>
-      <c r="AV39" s="67"/>
-      <c r="AW39" s="67"/>
-      <c r="AX39" s="67"/>
-      <c r="AY39" s="67"/>
-      <c r="AZ39" s="67"/>
-      <c r="BA39" s="67"/>
-      <c r="BB39" s="67"/>
-      <c r="BC39" s="67"/>
-      <c r="BD39" s="67"/>
-      <c r="BE39" s="67"/>
-      <c r="BF39" s="67"/>
-      <c r="BG39" s="67"/>
-      <c r="BH39" s="67"/>
-      <c r="BI39" s="67"/>
-      <c r="BJ39" s="36"/>
-      <c r="BK39" s="36"/>
-      <c r="BL39" s="36"/>
-      <c r="BM39" s="36"/>
-      <c r="BN39" s="36"/>
-      <c r="BO39" s="36"/>
-      <c r="BP39" s="36"/>
-      <c r="BQ39" s="36"/>
-      <c r="BR39" s="36"/>
-      <c r="BS39" s="36"/>
-      <c r="BT39" s="36"/>
-      <c r="BU39" s="36"/>
-      <c r="BV39" s="36"/>
-      <c r="BW39" s="67"/>
-      <c r="BX39" s="67"/>
-      <c r="BY39" s="115"/>
-      <c r="BZ39" s="36"/>
-      <c r="CA39" s="36"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="62"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="62"/>
+      <c r="BB39" s="62"/>
+      <c r="BC39" s="62"/>
+      <c r="BD39" s="62"/>
+      <c r="BE39" s="62"/>
+      <c r="BF39" s="62"/>
+      <c r="BG39" s="62"/>
+      <c r="BH39" s="62"/>
+      <c r="BI39" s="62"/>
+      <c r="BJ39" s="30"/>
+      <c r="BK39" s="30"/>
+      <c r="BL39" s="30"/>
+      <c r="BM39" s="30"/>
+      <c r="BN39" s="30"/>
+      <c r="BO39" s="30"/>
+      <c r="BP39" s="30"/>
+      <c r="BQ39" s="30"/>
+      <c r="BR39" s="30"/>
+      <c r="BS39" s="30"/>
+      <c r="BT39" s="30"/>
+      <c r="BU39" s="30"/>
+      <c r="BV39" s="30"/>
+      <c r="BW39" s="62"/>
+      <c r="BX39" s="62"/>
+      <c r="BY39" s="103"/>
+      <c r="BZ39" s="30"/>
+      <c r="CA39" s="30"/>
     </row>
     <row r="40" ht="13" spans="1:79">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="67"/>
-      <c r="AS40" s="67"/>
-      <c r="AT40" s="67"/>
-      <c r="AU40" s="67"/>
-      <c r="AV40" s="67"/>
-      <c r="AW40" s="67"/>
-      <c r="AX40" s="67"/>
-      <c r="AY40" s="67"/>
-      <c r="AZ40" s="67"/>
-      <c r="BA40" s="67"/>
-      <c r="BB40" s="67"/>
-      <c r="BC40" s="67"/>
-      <c r="BD40" s="67"/>
-      <c r="BE40" s="67"/>
-      <c r="BF40" s="67"/>
-      <c r="BG40" s="67"/>
-      <c r="BH40" s="67"/>
-      <c r="BI40" s="67"/>
-      <c r="BJ40" s="36"/>
-      <c r="BK40" s="36"/>
-      <c r="BL40" s="36"/>
-      <c r="BM40" s="36"/>
-      <c r="BN40" s="36"/>
-      <c r="BO40" s="36"/>
-      <c r="BP40" s="36"/>
-      <c r="BQ40" s="36"/>
-      <c r="BR40" s="36"/>
-      <c r="BS40" s="36"/>
-      <c r="BT40" s="36"/>
-      <c r="BU40" s="36"/>
-      <c r="BV40" s="36"/>
-      <c r="BW40" s="67"/>
-      <c r="BX40" s="67"/>
-      <c r="BY40" s="115"/>
-      <c r="BZ40" s="36"/>
-      <c r="CA40" s="36"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="62"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="62"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="62"/>
+      <c r="BA40" s="62"/>
+      <c r="BB40" s="62"/>
+      <c r="BC40" s="62"/>
+      <c r="BD40" s="62"/>
+      <c r="BE40" s="62"/>
+      <c r="BF40" s="62"/>
+      <c r="BG40" s="62"/>
+      <c r="BH40" s="62"/>
+      <c r="BI40" s="62"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+      <c r="BM40" s="30"/>
+      <c r="BN40" s="30"/>
+      <c r="BO40" s="30"/>
+      <c r="BP40" s="30"/>
+      <c r="BQ40" s="30"/>
+      <c r="BR40" s="30"/>
+      <c r="BS40" s="30"/>
+      <c r="BT40" s="30"/>
+      <c r="BU40" s="30"/>
+      <c r="BV40" s="30"/>
+      <c r="BW40" s="62"/>
+      <c r="BX40" s="62"/>
+      <c r="BY40" s="103"/>
+      <c r="BZ40" s="30"/>
+      <c r="CA40" s="30"/>
     </row>
     <row r="41" ht="13" spans="1:79">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="67"/>
-      <c r="AR41" s="67"/>
-      <c r="AS41" s="67"/>
-      <c r="AT41" s="67"/>
-      <c r="AU41" s="67"/>
-      <c r="AV41" s="67"/>
-      <c r="AW41" s="67"/>
-      <c r="AX41" s="67"/>
-      <c r="AY41" s="67"/>
-      <c r="AZ41" s="67"/>
-      <c r="BA41" s="67"/>
-      <c r="BB41" s="67"/>
-      <c r="BC41" s="67"/>
-      <c r="BD41" s="67"/>
-      <c r="BE41" s="67"/>
-      <c r="BF41" s="67"/>
-      <c r="BG41" s="67"/>
-      <c r="BH41" s="67"/>
-      <c r="BI41" s="67"/>
-      <c r="BJ41" s="36"/>
-      <c r="BK41" s="36"/>
-      <c r="BL41" s="36"/>
-      <c r="BM41" s="36"/>
-      <c r="BN41" s="36"/>
-      <c r="BO41" s="36"/>
-      <c r="BP41" s="36"/>
-      <c r="BQ41" s="36"/>
-      <c r="BR41" s="36"/>
-      <c r="BS41" s="36"/>
-      <c r="BT41" s="36"/>
-      <c r="BU41" s="36"/>
-      <c r="BV41" s="36"/>
-      <c r="BW41" s="67"/>
-      <c r="BX41" s="67"/>
-      <c r="BY41" s="115"/>
-      <c r="BZ41" s="36"/>
-      <c r="CA41" s="36"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="62"/>
+      <c r="AQ41" s="62"/>
+      <c r="AR41" s="62"/>
+      <c r="AS41" s="62"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="62"/>
+      <c r="AV41" s="62"/>
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="62"/>
+      <c r="AY41" s="62"/>
+      <c r="AZ41" s="62"/>
+      <c r="BA41" s="62"/>
+      <c r="BB41" s="62"/>
+      <c r="BC41" s="62"/>
+      <c r="BD41" s="62"/>
+      <c r="BE41" s="62"/>
+      <c r="BF41" s="62"/>
+      <c r="BG41" s="62"/>
+      <c r="BH41" s="62"/>
+      <c r="BI41" s="62"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
+      <c r="BM41" s="30"/>
+      <c r="BN41" s="30"/>
+      <c r="BO41" s="30"/>
+      <c r="BP41" s="30"/>
+      <c r="BQ41" s="30"/>
+      <c r="BR41" s="30"/>
+      <c r="BS41" s="30"/>
+      <c r="BT41" s="30"/>
+      <c r="BU41" s="30"/>
+      <c r="BV41" s="30"/>
+      <c r="BW41" s="62"/>
+      <c r="BX41" s="62"/>
+      <c r="BY41" s="103"/>
+      <c r="BZ41" s="30"/>
+      <c r="CA41" s="30"/>
     </row>
     <row r="42" ht="13" spans="1:79">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="67"/>
-      <c r="AR42" s="67"/>
-      <c r="AS42" s="67"/>
-      <c r="AT42" s="67"/>
-      <c r="AU42" s="67"/>
-      <c r="AV42" s="67"/>
-      <c r="AW42" s="67"/>
-      <c r="AX42" s="67"/>
-      <c r="AY42" s="67"/>
-      <c r="AZ42" s="67"/>
-      <c r="BA42" s="67"/>
-      <c r="BB42" s="67"/>
-      <c r="BC42" s="67"/>
-      <c r="BD42" s="67"/>
-      <c r="BE42" s="67"/>
-      <c r="BF42" s="67"/>
-      <c r="BG42" s="67"/>
-      <c r="BH42" s="67"/>
-      <c r="BI42" s="67"/>
-      <c r="BJ42" s="36"/>
-      <c r="BK42" s="36"/>
-      <c r="BL42" s="36"/>
-      <c r="BM42" s="36"/>
-      <c r="BN42" s="36"/>
-      <c r="BO42" s="36"/>
-      <c r="BP42" s="36"/>
-      <c r="BQ42" s="36"/>
-      <c r="BR42" s="36"/>
-      <c r="BS42" s="36"/>
-      <c r="BT42" s="36"/>
-      <c r="BU42" s="36"/>
-      <c r="BV42" s="36"/>
-      <c r="BW42" s="67"/>
-      <c r="BX42" s="67"/>
-      <c r="BY42" s="115"/>
-      <c r="BZ42" s="36"/>
-      <c r="CA42" s="36"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="62"/>
+      <c r="AV42" s="62"/>
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="62"/>
+      <c r="BB42" s="62"/>
+      <c r="BC42" s="62"/>
+      <c r="BD42" s="62"/>
+      <c r="BE42" s="62"/>
+      <c r="BF42" s="62"/>
+      <c r="BG42" s="62"/>
+      <c r="BH42" s="62"/>
+      <c r="BI42" s="62"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
+      <c r="BM42" s="30"/>
+      <c r="BN42" s="30"/>
+      <c r="BO42" s="30"/>
+      <c r="BP42" s="30"/>
+      <c r="BQ42" s="30"/>
+      <c r="BR42" s="30"/>
+      <c r="BS42" s="30"/>
+      <c r="BT42" s="30"/>
+      <c r="BU42" s="30"/>
+      <c r="BV42" s="30"/>
+      <c r="BW42" s="62"/>
+      <c r="BX42" s="62"/>
+      <c r="BY42" s="103"/>
+      <c r="BZ42" s="30"/>
+      <c r="CA42" s="30"/>
     </row>
     <row r="43" ht="13" spans="1:79">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="36"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67"/>
-      <c r="AX43" s="67"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="67"/>
-      <c r="BA43" s="67"/>
-      <c r="BB43" s="67"/>
-      <c r="BC43" s="67"/>
-      <c r="BD43" s="67"/>
-      <c r="BE43" s="67"/>
-      <c r="BF43" s="67"/>
-      <c r="BG43" s="67"/>
-      <c r="BH43" s="67"/>
-      <c r="BI43" s="67"/>
-      <c r="BJ43" s="36"/>
-      <c r="BK43" s="36"/>
-      <c r="BL43" s="36"/>
-      <c r="BM43" s="36"/>
-      <c r="BN43" s="36"/>
-      <c r="BO43" s="36"/>
-      <c r="BP43" s="36"/>
-      <c r="BQ43" s="36"/>
-      <c r="BR43" s="36"/>
-      <c r="BS43" s="36"/>
-      <c r="BT43" s="36"/>
-      <c r="BU43" s="36"/>
-      <c r="BV43" s="36"/>
-      <c r="BW43" s="67"/>
-      <c r="BX43" s="67"/>
-      <c r="BY43" s="115"/>
-      <c r="BZ43" s="36"/>
-      <c r="CA43" s="36"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="62"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="62"/>
+      <c r="BA43" s="62"/>
+      <c r="BB43" s="62"/>
+      <c r="BC43" s="62"/>
+      <c r="BD43" s="62"/>
+      <c r="BE43" s="62"/>
+      <c r="BF43" s="62"/>
+      <c r="BG43" s="62"/>
+      <c r="BH43" s="62"/>
+      <c r="BI43" s="62"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="30"/>
+      <c r="BM43" s="30"/>
+      <c r="BN43" s="30"/>
+      <c r="BO43" s="30"/>
+      <c r="BP43" s="30"/>
+      <c r="BQ43" s="30"/>
+      <c r="BR43" s="30"/>
+      <c r="BS43" s="30"/>
+      <c r="BT43" s="30"/>
+      <c r="BU43" s="30"/>
+      <c r="BV43" s="30"/>
+      <c r="BW43" s="62"/>
+      <c r="BX43" s="62"/>
+      <c r="BY43" s="103"/>
+      <c r="BZ43" s="30"/>
+      <c r="CA43" s="30"/>
     </row>
     <row r="44" ht="13" spans="1:79">
-      <c r="A44" s="126" t="s">
+      <c r="A44" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="67"/>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="67"/>
-      <c r="AX44" s="67"/>
-      <c r="AY44" s="67"/>
-      <c r="AZ44" s="67"/>
-      <c r="BA44" s="67"/>
-      <c r="BB44" s="67"/>
-      <c r="BC44" s="67"/>
-      <c r="BD44" s="67"/>
-      <c r="BE44" s="67"/>
-      <c r="BF44" s="67"/>
-      <c r="BG44" s="67"/>
-      <c r="BH44" s="67"/>
-      <c r="BI44" s="67"/>
-      <c r="BJ44" s="36"/>
-      <c r="BK44" s="36"/>
-      <c r="BL44" s="36"/>
-      <c r="BM44" s="36"/>
-      <c r="BN44" s="36"/>
-      <c r="BO44" s="36"/>
-      <c r="BP44" s="36"/>
-      <c r="BQ44" s="36"/>
-      <c r="BR44" s="36"/>
-      <c r="BS44" s="36"/>
-      <c r="BT44" s="36"/>
-      <c r="BU44" s="36"/>
-      <c r="BV44" s="36"/>
-      <c r="BW44" s="67"/>
-      <c r="BX44" s="67"/>
-      <c r="BY44" s="115"/>
-      <c r="BZ44" s="36"/>
-      <c r="CA44" s="36"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="62"/>
+      <c r="BA44" s="62"/>
+      <c r="BB44" s="62"/>
+      <c r="BC44" s="62"/>
+      <c r="BD44" s="62"/>
+      <c r="BE44" s="62"/>
+      <c r="BF44" s="62"/>
+      <c r="BG44" s="62"/>
+      <c r="BH44" s="62"/>
+      <c r="BI44" s="62"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="30"/>
+      <c r="BL44" s="30"/>
+      <c r="BM44" s="30"/>
+      <c r="BN44" s="30"/>
+      <c r="BO44" s="30"/>
+      <c r="BP44" s="30"/>
+      <c r="BQ44" s="30"/>
+      <c r="BR44" s="30"/>
+      <c r="BS44" s="30"/>
+      <c r="BT44" s="30"/>
+      <c r="BU44" s="30"/>
+      <c r="BV44" s="30"/>
+      <c r="BW44" s="62"/>
+      <c r="BX44" s="62"/>
+      <c r="BY44" s="103"/>
+      <c r="BZ44" s="30"/>
+      <c r="CA44" s="30"/>
     </row>
     <row r="45" ht="13" spans="1:79">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="36"/>
-      <c r="AP45" s="67"/>
-      <c r="AQ45" s="67"/>
-      <c r="AR45" s="67"/>
-      <c r="AS45" s="67"/>
-      <c r="AT45" s="67"/>
-      <c r="AU45" s="67"/>
-      <c r="AV45" s="67"/>
-      <c r="AW45" s="67"/>
-      <c r="AX45" s="67"/>
-      <c r="AY45" s="67"/>
-      <c r="AZ45" s="67"/>
-      <c r="BA45" s="67"/>
-      <c r="BB45" s="67"/>
-      <c r="BC45" s="67"/>
-      <c r="BD45" s="67"/>
-      <c r="BE45" s="67"/>
-      <c r="BF45" s="67"/>
-      <c r="BG45" s="67"/>
-      <c r="BH45" s="67"/>
-      <c r="BI45" s="67"/>
-      <c r="BJ45" s="36"/>
-      <c r="BK45" s="36"/>
-      <c r="BL45" s="36"/>
-      <c r="BM45" s="36"/>
-      <c r="BN45" s="36"/>
-      <c r="BO45" s="36"/>
-      <c r="BP45" s="36"/>
-      <c r="BQ45" s="36"/>
-      <c r="BR45" s="36"/>
-      <c r="BS45" s="36"/>
-      <c r="BT45" s="36"/>
-      <c r="BU45" s="36"/>
-      <c r="BV45" s="36"/>
-      <c r="BW45" s="67"/>
-      <c r="BX45" s="67"/>
-      <c r="BY45" s="115"/>
-      <c r="BZ45" s="36"/>
-      <c r="CA45" s="36"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="62"/>
+      <c r="AV45" s="62"/>
+      <c r="AW45" s="62"/>
+      <c r="AX45" s="62"/>
+      <c r="AY45" s="62"/>
+      <c r="AZ45" s="62"/>
+      <c r="BA45" s="62"/>
+      <c r="BB45" s="62"/>
+      <c r="BC45" s="62"/>
+      <c r="BD45" s="62"/>
+      <c r="BE45" s="62"/>
+      <c r="BF45" s="62"/>
+      <c r="BG45" s="62"/>
+      <c r="BH45" s="62"/>
+      <c r="BI45" s="62"/>
+      <c r="BJ45" s="30"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+      <c r="BM45" s="30"/>
+      <c r="BN45" s="30"/>
+      <c r="BO45" s="30"/>
+      <c r="BP45" s="30"/>
+      <c r="BQ45" s="30"/>
+      <c r="BR45" s="30"/>
+      <c r="BS45" s="30"/>
+      <c r="BT45" s="30"/>
+      <c r="BU45" s="30"/>
+      <c r="BV45" s="30"/>
+      <c r="BW45" s="62"/>
+      <c r="BX45" s="62"/>
+      <c r="BY45" s="103"/>
+      <c r="BZ45" s="30"/>
+      <c r="CA45" s="30"/>
     </row>
     <row r="46" ht="13" spans="1:79">
-      <c r="A46" s="126" t="s">
+      <c r="A46" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="67"/>
-      <c r="AQ46" s="67"/>
-      <c r="AR46" s="67"/>
-      <c r="AS46" s="67"/>
-      <c r="AT46" s="67"/>
-      <c r="AU46" s="67"/>
-      <c r="AV46" s="67"/>
-      <c r="AW46" s="67"/>
-      <c r="AX46" s="67"/>
-      <c r="AY46" s="67"/>
-      <c r="AZ46" s="67"/>
-      <c r="BA46" s="67"/>
-      <c r="BB46" s="67"/>
-      <c r="BC46" s="67"/>
-      <c r="BD46" s="67"/>
-      <c r="BE46" s="67"/>
-      <c r="BF46" s="67"/>
-      <c r="BG46" s="67"/>
-      <c r="BH46" s="67"/>
-      <c r="BI46" s="67"/>
-      <c r="BJ46" s="36"/>
-      <c r="BK46" s="36"/>
-      <c r="BL46" s="36"/>
-      <c r="BM46" s="36"/>
-      <c r="BN46" s="36"/>
-      <c r="BO46" s="36"/>
-      <c r="BP46" s="36"/>
-      <c r="BQ46" s="36"/>
-      <c r="BR46" s="36"/>
-      <c r="BS46" s="36"/>
-      <c r="BT46" s="36"/>
-      <c r="BU46" s="36"/>
-      <c r="BV46" s="36"/>
-      <c r="BW46" s="67"/>
-      <c r="BX46" s="67"/>
-      <c r="BY46" s="115"/>
-      <c r="BZ46" s="36"/>
-      <c r="CA46" s="36"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="62"/>
+      <c r="AQ46" s="62"/>
+      <c r="AR46" s="62"/>
+      <c r="AS46" s="62"/>
+      <c r="AT46" s="62"/>
+      <c r="AU46" s="62"/>
+      <c r="AV46" s="62"/>
+      <c r="AW46" s="62"/>
+      <c r="AX46" s="62"/>
+      <c r="AY46" s="62"/>
+      <c r="AZ46" s="62"/>
+      <c r="BA46" s="62"/>
+      <c r="BB46" s="62"/>
+      <c r="BC46" s="62"/>
+      <c r="BD46" s="62"/>
+      <c r="BE46" s="62"/>
+      <c r="BF46" s="62"/>
+      <c r="BG46" s="62"/>
+      <c r="BH46" s="62"/>
+      <c r="BI46" s="62"/>
+      <c r="BJ46" s="30"/>
+      <c r="BK46" s="30"/>
+      <c r="BL46" s="30"/>
+      <c r="BM46" s="30"/>
+      <c r="BN46" s="30"/>
+      <c r="BO46" s="30"/>
+      <c r="BP46" s="30"/>
+      <c r="BQ46" s="30"/>
+      <c r="BR46" s="30"/>
+      <c r="BS46" s="30"/>
+      <c r="BT46" s="30"/>
+      <c r="BU46" s="30"/>
+      <c r="BV46" s="30"/>
+      <c r="BW46" s="62"/>
+      <c r="BX46" s="62"/>
+      <c r="BY46" s="103"/>
+      <c r="BZ46" s="30"/>
+      <c r="CA46" s="30"/>
     </row>
     <row r="47" ht="13" spans="1:79">
-      <c r="A47" s="126" t="s">
+      <c r="A47" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="67"/>
-      <c r="AS47" s="67"/>
-      <c r="AT47" s="67"/>
-      <c r="AU47" s="67"/>
-      <c r="AV47" s="67"/>
-      <c r="AW47" s="67"/>
-      <c r="AX47" s="67"/>
-      <c r="AY47" s="67"/>
-      <c r="AZ47" s="67"/>
-      <c r="BA47" s="67"/>
-      <c r="BB47" s="67"/>
-      <c r="BC47" s="67"/>
-      <c r="BD47" s="67"/>
-      <c r="BE47" s="67"/>
-      <c r="BF47" s="67"/>
-      <c r="BG47" s="67"/>
-      <c r="BH47" s="67"/>
-      <c r="BI47" s="67"/>
-      <c r="BJ47" s="36"/>
-      <c r="BK47" s="36"/>
-      <c r="BL47" s="36"/>
-      <c r="BM47" s="36"/>
-      <c r="BN47" s="36"/>
-      <c r="BO47" s="36"/>
-      <c r="BP47" s="36"/>
-      <c r="BQ47" s="36"/>
-      <c r="BR47" s="36"/>
-      <c r="BS47" s="36"/>
-      <c r="BT47" s="36"/>
-      <c r="BU47" s="36"/>
-      <c r="BV47" s="36"/>
-      <c r="BW47" s="67"/>
-      <c r="BX47" s="67"/>
-      <c r="BY47" s="115"/>
-      <c r="BZ47" s="36"/>
-      <c r="CA47" s="36"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="62"/>
+      <c r="AQ47" s="62"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="62"/>
+      <c r="AT47" s="62"/>
+      <c r="AU47" s="62"/>
+      <c r="AV47" s="62"/>
+      <c r="AW47" s="62"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="62"/>
+      <c r="AZ47" s="62"/>
+      <c r="BA47" s="62"/>
+      <c r="BB47" s="62"/>
+      <c r="BC47" s="62"/>
+      <c r="BD47" s="62"/>
+      <c r="BE47" s="62"/>
+      <c r="BF47" s="62"/>
+      <c r="BG47" s="62"/>
+      <c r="BH47" s="62"/>
+      <c r="BI47" s="62"/>
+      <c r="BJ47" s="30"/>
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47" s="30"/>
+      <c r="BN47" s="30"/>
+      <c r="BO47" s="30"/>
+      <c r="BP47" s="30"/>
+      <c r="BQ47" s="30"/>
+      <c r="BR47" s="30"/>
+      <c r="BS47" s="30"/>
+      <c r="BT47" s="30"/>
+      <c r="BU47" s="30"/>
+      <c r="BV47" s="30"/>
+      <c r="BW47" s="62"/>
+      <c r="BX47" s="62"/>
+      <c r="BY47" s="103"/>
+      <c r="BZ47" s="30"/>
+      <c r="CA47" s="30"/>
     </row>
     <row r="48" ht="13" spans="1:79">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="36"/>
-      <c r="AJ48" s="36"/>
-      <c r="AK48" s="36"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="36"/>
-      <c r="AN48" s="36"/>
-      <c r="AO48" s="36"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="67"/>
-      <c r="AS48" s="67"/>
-      <c r="AT48" s="67"/>
-      <c r="AU48" s="67"/>
-      <c r="AV48" s="67"/>
-      <c r="AW48" s="67"/>
-      <c r="AX48" s="67"/>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="67"/>
-      <c r="BA48" s="67"/>
-      <c r="BB48" s="67"/>
-      <c r="BC48" s="67"/>
-      <c r="BD48" s="67"/>
-      <c r="BE48" s="67"/>
-      <c r="BF48" s="67"/>
-      <c r="BG48" s="67"/>
-      <c r="BH48" s="67"/>
-      <c r="BI48" s="67"/>
-      <c r="BJ48" s="36"/>
-      <c r="BK48" s="36"/>
-      <c r="BL48" s="36"/>
-      <c r="BM48" s="36"/>
-      <c r="BN48" s="36"/>
-      <c r="BO48" s="36"/>
-      <c r="BP48" s="36"/>
-      <c r="BQ48" s="36"/>
-      <c r="BR48" s="36"/>
-      <c r="BS48" s="36"/>
-      <c r="BT48" s="36"/>
-      <c r="BU48" s="36"/>
-      <c r="BV48" s="36"/>
-      <c r="BW48" s="67"/>
-      <c r="BX48" s="67"/>
-      <c r="BY48" s="115"/>
-      <c r="BZ48" s="36"/>
-      <c r="CA48" s="36"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="62"/>
+      <c r="AQ48" s="62"/>
+      <c r="AR48" s="62"/>
+      <c r="AS48" s="62"/>
+      <c r="AT48" s="62"/>
+      <c r="AU48" s="62"/>
+      <c r="AV48" s="62"/>
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="62"/>
+      <c r="AY48" s="62"/>
+      <c r="AZ48" s="62"/>
+      <c r="BA48" s="62"/>
+      <c r="BB48" s="62"/>
+      <c r="BC48" s="62"/>
+      <c r="BD48" s="62"/>
+      <c r="BE48" s="62"/>
+      <c r="BF48" s="62"/>
+      <c r="BG48" s="62"/>
+      <c r="BH48" s="62"/>
+      <c r="BI48" s="62"/>
+      <c r="BJ48" s="30"/>
+      <c r="BK48" s="30"/>
+      <c r="BL48" s="30"/>
+      <c r="BM48" s="30"/>
+      <c r="BN48" s="30"/>
+      <c r="BO48" s="30"/>
+      <c r="BP48" s="30"/>
+      <c r="BQ48" s="30"/>
+      <c r="BR48" s="30"/>
+      <c r="BS48" s="30"/>
+      <c r="BT48" s="30"/>
+      <c r="BU48" s="30"/>
+      <c r="BV48" s="30"/>
+      <c r="BW48" s="62"/>
+      <c r="BX48" s="62"/>
+      <c r="BY48" s="103"/>
+      <c r="BZ48" s="30"/>
+      <c r="CA48" s="30"/>
     </row>
     <row r="49" ht="13" spans="1:78">
-      <c r="A49" s="128" t="s">
+      <c r="A49" s="115" t="s">
         <v>203</v>
       </c>
       <c r="B49" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>交易计划编码</t>
   </si>
@@ -1147,25 +1147,234 @@
     <t>000044</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000422(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湖北宜化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>5w</t>
+  </si>
+  <si>
     <t>000045</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>605117(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德业股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>000046</t>
   </si>
   <si>
-    <t>000047</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002326(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永太科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>6w</t>
   </si>
   <si>
     <t>000048</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003026(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中晶科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000049</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6000071(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凤凰光学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>2w</t>
   </si>
   <si>
     <t>000050</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>603703(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盛洋科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000051</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002922(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伊戈尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>000052</t>
@@ -1227,13 +1436,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1365,23 +1574,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1395,16 +1605,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1421,15 +1630,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,7 +1638,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,14 +1660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,7 +1675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,6 +1685,14 @@
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1501,7 +1710,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,7 +1743,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +1833,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,169 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,11 +1999,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,6 +2019,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1829,21 +2065,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1858,17 +2079,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,76 +2092,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1958,71 +2173,71 @@
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2050,7 +2265,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,7 +2310,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,6 +2347,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2409,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2275,34 +2502,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,7 +2538,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2323,19 +2550,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,6 +2593,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3536,12 +3766,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DO546"/>
+  <dimension ref="A1:DO545"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3629,7 +3859,7 @@
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
-      <c r="AC1" s="56"/>
+      <c r="AC1" s="60"/>
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
@@ -3640,32 +3870,32 @@
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
       <c r="AM1" s="13"/>
-      <c r="AN1" s="68" t="s">
+      <c r="AN1" s="72" t="s">
         <v>5</v>
       </c>
       <c r="AO1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
       <c r="BJ1" s="13"/>
       <c r="BK1" s="13"/>
       <c r="BL1" s="13"/>
@@ -3681,47 +3911,47 @@
       <c r="BT1" s="13"/>
       <c r="BU1" s="13"/>
       <c r="BV1" s="13"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="91"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="95"/>
       <c r="BZ1" s="13"/>
       <c r="CA1" s="13"/>
-      <c r="CB1" s="92"/>
-      <c r="CC1" s="92"/>
-      <c r="CD1" s="92"/>
-      <c r="CE1" s="92"/>
-      <c r="CF1" s="92"/>
-      <c r="CG1" s="92"/>
-      <c r="CH1" s="92"/>
-      <c r="CJ1" s="107"/>
-      <c r="CK1" s="107"/>
-      <c r="CL1" s="107"/>
-      <c r="CM1" s="107"/>
-      <c r="CN1" s="107"/>
-      <c r="CO1" s="107"/>
-      <c r="CP1" s="107"/>
-      <c r="CQ1" s="107"/>
-      <c r="CS1" s="107"/>
-      <c r="CT1" s="107"/>
-      <c r="CU1" s="107"/>
-      <c r="CV1" s="107"/>
-      <c r="CW1" s="107"/>
-      <c r="CX1" s="107"/>
-      <c r="CY1" s="107"/>
-      <c r="DA1" s="107"/>
-      <c r="DB1" s="107"/>
-      <c r="DC1" s="107"/>
-      <c r="DD1" s="107"/>
-      <c r="DE1" s="107"/>
-      <c r="DF1" s="107"/>
-      <c r="DG1" s="107"/>
-      <c r="DI1" s="107"/>
-      <c r="DJ1" s="107"/>
-      <c r="DK1" s="107"/>
-      <c r="DL1" s="107"/>
-      <c r="DM1" s="107"/>
-      <c r="DN1" s="107"/>
-      <c r="DO1" s="107"/>
+      <c r="CB1" s="96"/>
+      <c r="CC1" s="96"/>
+      <c r="CD1" s="96"/>
+      <c r="CE1" s="96"/>
+      <c r="CF1" s="96"/>
+      <c r="CG1" s="96"/>
+      <c r="CH1" s="96"/>
+      <c r="CJ1" s="111"/>
+      <c r="CK1" s="111"/>
+      <c r="CL1" s="111"/>
+      <c r="CM1" s="111"/>
+      <c r="CN1" s="111"/>
+      <c r="CO1" s="111"/>
+      <c r="CP1" s="111"/>
+      <c r="CQ1" s="111"/>
+      <c r="CS1" s="111"/>
+      <c r="CT1" s="111"/>
+      <c r="CU1" s="111"/>
+      <c r="CV1" s="111"/>
+      <c r="CW1" s="111"/>
+      <c r="CX1" s="111"/>
+      <c r="CY1" s="111"/>
+      <c r="DA1" s="111"/>
+      <c r="DB1" s="111"/>
+      <c r="DC1" s="111"/>
+      <c r="DD1" s="111"/>
+      <c r="DE1" s="111"/>
+      <c r="DF1" s="111"/>
+      <c r="DG1" s="111"/>
+      <c r="DI1" s="111"/>
+      <c r="DJ1" s="111"/>
+      <c r="DK1" s="111"/>
+      <c r="DL1" s="111"/>
+      <c r="DM1" s="111"/>
+      <c r="DN1" s="111"/>
+      <c r="DO1" s="111"/>
     </row>
     <row r="2" ht="23.6" spans="1:119">
       <c r="A2" s="10"/>
@@ -3736,98 +3966,98 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="57" t="s">
+      <c r="AG2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="57" t="s">
+      <c r="AH2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="37" t="s">
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="70" t="s">
+      <c r="AP2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70" t="s">
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70" t="s">
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70" t="s">
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70" t="s">
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="37" t="s">
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="39" t="s">
         <v>29</v>
       </c>
       <c r="BK2" s="14"/>
@@ -3838,75 +4068,75 @@
       </c>
       <c r="BO2" s="15"/>
       <c r="BP2" s="15"/>
-      <c r="BQ2" s="37" t="s">
+      <c r="BQ2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="BR2" s="37" t="s">
+      <c r="BR2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="BS2" s="37" t="s">
+      <c r="BS2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="BT2" s="37" t="s">
+      <c r="BT2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BU2" s="37" t="s">
+      <c r="BU2" s="39" t="s">
         <v>35</v>
       </c>
       <c r="BV2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BW2" s="58" t="s">
+      <c r="BW2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="BX2" s="58" t="s">
+      <c r="BX2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="BY2" s="93" t="s">
+      <c r="BY2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="BZ2" s="37" t="s">
+      <c r="BZ2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="CA2" s="94" t="s">
+      <c r="CA2" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="92"/>
-      <c r="CD2" s="92"/>
-      <c r="CE2" s="92"/>
-      <c r="CF2" s="92"/>
-      <c r="CG2" s="92"/>
-      <c r="CH2" s="92"/>
-      <c r="CJ2" s="107"/>
-      <c r="CK2" s="107"/>
-      <c r="CL2" s="107"/>
-      <c r="CM2" s="107"/>
-      <c r="CN2" s="107"/>
-      <c r="CO2" s="107"/>
-      <c r="CP2" s="107"/>
-      <c r="CQ2" s="107"/>
-      <c r="CS2" s="107"/>
-      <c r="CT2" s="107"/>
-      <c r="CU2" s="107"/>
-      <c r="CV2" s="107"/>
-      <c r="CW2" s="107"/>
-      <c r="CX2" s="107"/>
-      <c r="CY2" s="107"/>
-      <c r="DA2" s="107"/>
-      <c r="DB2" s="107"/>
-      <c r="DC2" s="107"/>
-      <c r="DD2" s="107"/>
-      <c r="DE2" s="107"/>
-      <c r="DF2" s="107"/>
-      <c r="DG2" s="107"/>
-      <c r="DI2" s="107"/>
-      <c r="DJ2" s="107"/>
-      <c r="DK2" s="107"/>
-      <c r="DL2" s="107"/>
-      <c r="DM2" s="107"/>
-      <c r="DN2" s="107"/>
-      <c r="DO2" s="107"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CJ2" s="111"/>
+      <c r="CK2" s="111"/>
+      <c r="CL2" s="111"/>
+      <c r="CM2" s="111"/>
+      <c r="CN2" s="111"/>
+      <c r="CO2" s="111"/>
+      <c r="CP2" s="111"/>
+      <c r="CQ2" s="111"/>
+      <c r="CS2" s="111"/>
+      <c r="CT2" s="111"/>
+      <c r="CU2" s="111"/>
+      <c r="CV2" s="111"/>
+      <c r="CW2" s="111"/>
+      <c r="CX2" s="111"/>
+      <c r="CY2" s="111"/>
+      <c r="DA2" s="111"/>
+      <c r="DB2" s="111"/>
+      <c r="DC2" s="111"/>
+      <c r="DD2" s="111"/>
+      <c r="DE2" s="111"/>
+      <c r="DF2" s="111"/>
+      <c r="DG2" s="111"/>
+      <c r="DI2" s="111"/>
+      <c r="DJ2" s="111"/>
+      <c r="DK2" s="111"/>
+      <c r="DL2" s="111"/>
+      <c r="DM2" s="111"/>
+      <c r="DN2" s="111"/>
+      <c r="DO2" s="111"/>
     </row>
     <row r="3" ht="36" spans="1:119">
       <c r="A3" s="10"/>
@@ -3917,41 +4147,41 @@
       <c r="F3" s="15"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="41" t="s">
         <v>52</v>
       </c>
       <c r="X3" s="14" t="s">
@@ -3969,7 +4199,7 @@
       <c r="AB3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="58" t="s">
+      <c r="AC3" s="62" t="s">
         <v>58</v>
       </c>
       <c r="AD3" s="14" t="s">
@@ -3978,157 +4208,157 @@
       <c r="AE3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="37" t="s">
+      <c r="AG3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="37" t="s">
+      <c r="AH3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="37" t="s">
+      <c r="AI3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="37" t="s">
+      <c r="AK3" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="37" t="s">
+      <c r="AL3" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="70" t="s">
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="70" t="s">
+      <c r="AQ3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="70" t="s">
+      <c r="AR3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="70" t="s">
+      <c r="AS3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="70" t="s">
+      <c r="AT3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AU3" s="70" t="s">
+      <c r="AU3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AV3" s="70" t="s">
+      <c r="AV3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="AW3" s="70" t="s">
+      <c r="AW3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="AX3" s="70" t="s">
+      <c r="AX3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="70" t="s">
+      <c r="AY3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AZ3" s="70" t="s">
+      <c r="AZ3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="BA3" s="70" t="s">
+      <c r="BA3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="BB3" s="70" t="s">
+      <c r="BB3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="BC3" s="70" t="s">
+      <c r="BC3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="BD3" s="70" t="s">
+      <c r="BD3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="BE3" s="70" t="s">
+      <c r="BE3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="BF3" s="70" t="s">
+      <c r="BF3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="BG3" s="70" t="s">
+      <c r="BG3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="BH3" s="70" t="s">
+      <c r="BH3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="70" t="s">
+      <c r="BI3" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="77" t="s">
+      <c r="BJ3" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BK3" s="77" t="s">
+      <c r="BK3" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="79" t="s">
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="BO3" s="79" t="s">
+      <c r="BO3" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="BP3" s="78" t="s">
+      <c r="BP3" s="82" t="s">
         <v>76</v>
       </c>
       <c r="BQ3" s="15"/>
       <c r="BR3" s="15"/>
       <c r="BS3" s="15"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
+      <c r="BT3" s="39"/>
+      <c r="BU3" s="39"/>
       <c r="BV3" s="15"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="93"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="97"/>
       <c r="BZ3" s="15"/>
-      <c r="CA3" s="95"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="92"/>
-      <c r="CD3" s="92"/>
-      <c r="CE3" s="92"/>
-      <c r="CF3" s="92"/>
-      <c r="CG3" s="92"/>
-      <c r="CH3" s="92"/>
-      <c r="CJ3" s="107"/>
-      <c r="CK3" s="107"/>
-      <c r="CL3" s="107"/>
-      <c r="CM3" s="107"/>
-      <c r="CN3" s="107"/>
-      <c r="CO3" s="107"/>
-      <c r="CP3" s="107"/>
-      <c r="CQ3" s="107"/>
-      <c r="CS3" s="107"/>
-      <c r="CT3" s="107"/>
-      <c r="CU3" s="107"/>
-      <c r="CV3" s="107"/>
-      <c r="CW3" s="107"/>
-      <c r="CX3" s="107"/>
-      <c r="CY3" s="107"/>
-      <c r="DA3" s="107"/>
-      <c r="DB3" s="107"/>
-      <c r="DC3" s="107"/>
-      <c r="DD3" s="107"/>
-      <c r="DE3" s="107"/>
-      <c r="DF3" s="107"/>
-      <c r="DG3" s="107"/>
-      <c r="DI3" s="107"/>
-      <c r="DJ3" s="107"/>
-      <c r="DK3" s="107"/>
-      <c r="DL3" s="107"/>
-      <c r="DM3" s="107"/>
-      <c r="DN3" s="107"/>
-      <c r="DO3" s="107"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CJ3" s="111"/>
+      <c r="CK3" s="111"/>
+      <c r="CL3" s="111"/>
+      <c r="CM3" s="111"/>
+      <c r="CN3" s="111"/>
+      <c r="CO3" s="111"/>
+      <c r="CP3" s="111"/>
+      <c r="CQ3" s="111"/>
+      <c r="CS3" s="111"/>
+      <c r="CT3" s="111"/>
+      <c r="CU3" s="111"/>
+      <c r="CV3" s="111"/>
+      <c r="CW3" s="111"/>
+      <c r="CX3" s="111"/>
+      <c r="CY3" s="111"/>
+      <c r="DA3" s="111"/>
+      <c r="DB3" s="111"/>
+      <c r="DC3" s="111"/>
+      <c r="DD3" s="111"/>
+      <c r="DE3" s="111"/>
+      <c r="DF3" s="111"/>
+      <c r="DG3" s="111"/>
+      <c r="DI3" s="111"/>
+      <c r="DJ3" s="111"/>
+      <c r="DK3" s="111"/>
+      <c r="DL3" s="111"/>
+      <c r="DM3" s="111"/>
+      <c r="DN3" s="111"/>
+      <c r="DO3" s="111"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:119">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="113" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="16">
@@ -4146,7 +4376,7 @@
       <c r="F4" s="18">
         <v>24.52</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="18">
@@ -4158,11 +4388,11 @@
       <c r="J4" s="18">
         <v>46.33</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="45">
         <f>(H4-I4)/I4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="45">
         <f>(J4-H4)/J4</f>
         <v>0.445283833369307</v>
       </c>
@@ -4193,74 +4423,74 @@
       <c r="U4" s="2">
         <v>24.52</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="V4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="45">
         <f>(J4-M4)/J4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4" s="45">
         <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4" s="45">
         <f>(P4-Q4)/P4</f>
         <v>0.166037735849057</v>
       </c>
-      <c r="AB4" s="43">
+      <c r="AB4" s="45">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="43">
+      <c r="AC4" s="45">
         <f>(T4-U4)/T4</f>
         <v>0.0641221374045801</v>
       </c>
-      <c r="AD4" s="59">
+      <c r="AD4" s="63">
         <f>(V4-W4)/V4</f>
         <v>0.0823442136498517</v>
       </c>
-      <c r="AE4" s="54" t="s">
+      <c r="AE4" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63" t="s">
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
       <c r="BJ4" s="18"/>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18"/>
@@ -4285,73 +4515,73 @@
         <v>32.49</v>
       </c>
       <c r="BT4" s="18">
-        <f t="shared" ref="BT4:BT22" si="0">(BQ4-BR4)*100</f>
+        <f t="shared" ref="BT4:BT29" si="0">(BQ4-BR4)*100</f>
         <v>152</v>
       </c>
       <c r="BU4" s="18">
         <f>FLOOR(300/(BQ4-BR4),100)</f>
         <v>100</v>
       </c>
-      <c r="BV4" s="84">
+      <c r="BV4" s="88">
         <f>(BS4-BQ4)/(BQ4-BR4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="BW4" s="43">
+      <c r="BW4" s="45">
         <f>(BQ4-BR4)/BQ4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="BX4" s="43">
+      <c r="BX4" s="45">
         <f>(BS4-BQ4)/BQ4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="BY4" s="96">
+      <c r="BY4" s="100">
         <v>150.88</v>
       </c>
-      <c r="BZ4" s="63" t="s">
+      <c r="BZ4" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="CA4" s="65" t="s">
+      <c r="CA4" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB4" s="97"/>
-      <c r="CC4" s="106"/>
-      <c r="CD4" s="106"/>
-      <c r="CE4" s="106"/>
-      <c r="CF4" s="106"/>
-      <c r="CG4" s="106"/>
-      <c r="CH4" s="106"/>
-      <c r="CJ4" s="108"/>
-      <c r="CK4" s="108"/>
-      <c r="CL4" s="108"/>
-      <c r="CM4" s="108"/>
-      <c r="CN4" s="108"/>
-      <c r="CO4" s="108"/>
-      <c r="CP4" s="108"/>
-      <c r="CQ4" s="108"/>
-      <c r="CS4" s="108"/>
-      <c r="CT4" s="108"/>
-      <c r="CU4" s="108"/>
-      <c r="CV4" s="108"/>
-      <c r="CW4" s="108"/>
-      <c r="CX4" s="108"/>
-      <c r="CY4" s="108"/>
-      <c r="DA4" s="108"/>
-      <c r="DB4" s="108"/>
-      <c r="DC4" s="108"/>
-      <c r="DD4" s="108"/>
-      <c r="DE4" s="108"/>
-      <c r="DF4" s="108"/>
-      <c r="DG4" s="108"/>
-      <c r="DI4" s="108"/>
-      <c r="DJ4" s="108"/>
-      <c r="DK4" s="108"/>
-      <c r="DL4" s="108"/>
-      <c r="DM4" s="108"/>
-      <c r="DN4" s="108"/>
-      <c r="DO4" s="108"/>
+      <c r="CB4" s="101"/>
+      <c r="CC4" s="110"/>
+      <c r="CD4" s="110"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="110"/>
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="110"/>
+      <c r="CJ4" s="112"/>
+      <c r="CK4" s="112"/>
+      <c r="CL4" s="112"/>
+      <c r="CM4" s="112"/>
+      <c r="CN4" s="112"/>
+      <c r="CO4" s="112"/>
+      <c r="CP4" s="112"/>
+      <c r="CQ4" s="112"/>
+      <c r="CS4" s="112"/>
+      <c r="CT4" s="112"/>
+      <c r="CU4" s="112"/>
+      <c r="CV4" s="112"/>
+      <c r="CW4" s="112"/>
+      <c r="CX4" s="112"/>
+      <c r="CY4" s="112"/>
+      <c r="DA4" s="112"/>
+      <c r="DB4" s="112"/>
+      <c r="DC4" s="112"/>
+      <c r="DD4" s="112"/>
+      <c r="DE4" s="112"/>
+      <c r="DF4" s="112"/>
+      <c r="DG4" s="112"/>
+      <c r="DI4" s="112"/>
+      <c r="DJ4" s="112"/>
+      <c r="DK4" s="112"/>
+      <c r="DL4" s="112"/>
+      <c r="DM4" s="112"/>
+      <c r="DN4" s="112"/>
+      <c r="DO4" s="112"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="38" spans="1:80">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="16">
@@ -4369,7 +4599,7 @@
       <c r="F5" s="18">
         <v>33.17</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="18">
@@ -4381,12 +4611,12 @@
       <c r="J5" s="18">
         <v>44.42</v>
       </c>
-      <c r="K5" s="43">
-        <f t="shared" ref="K5:K23" si="1">(H5-I5)/I5</f>
+      <c r="K5" s="45">
+        <f t="shared" ref="K5:K30" si="1">(H5-I5)/I5</f>
         <v>0.467798085291558</v>
       </c>
-      <c r="L5" s="43">
-        <f t="shared" ref="L5:L23" si="2">(J5-H5)/J5</f>
+      <c r="L5" s="45">
+        <f t="shared" ref="L5:L30" si="2">(J5-H5)/J5</f>
         <v>0.240657361548852</v>
       </c>
       <c r="M5" s="18">
@@ -4410,108 +4640,108 @@
       <c r="S5" s="18">
         <v>32.53</v>
       </c>
-      <c r="X5" s="54" t="s">
+      <c r="X5" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="43">
-        <f t="shared" ref="Y5:Y23" si="3">(J5-M5)/J5</f>
+      <c r="Y5" s="45">
+        <f t="shared" ref="Y5:Y30" si="3">(J5-M5)/J5</f>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="43">
-        <f t="shared" ref="Z5:Z23" si="4">(N5-O5)/N5</f>
+      <c r="Z5" s="45">
+        <f t="shared" ref="Z5:Z29" si="4">(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="43">
-        <f t="shared" ref="AA5:AA23" si="5">(P5-Q5)/P5</f>
+      <c r="AA5" s="45">
+        <f t="shared" ref="AA5:AA27" si="5">(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="43">
+      <c r="AB5" s="45">
         <f t="shared" ref="AB5:AB17" si="6">(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="43" t="e">
+      <c r="AC5" s="45" t="e">
         <f t="shared" ref="AC5:AC15" si="7">(T5-U5)/T5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="59" t="e">
+      <c r="AD5" s="63" t="e">
         <f t="shared" ref="AD5:AD17" si="8">(V5-W5)/V5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="54" t="s">
+      <c r="AE5" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63" t="s">
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63" t="s">
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AP5" s="45">
         <v>0.0351</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AQ5" s="45">
         <v>0.3603</v>
       </c>
-      <c r="AR5" s="43">
+      <c r="AR5" s="45">
         <v>0.3371</v>
       </c>
-      <c r="AS5" s="43">
+      <c r="AS5" s="45">
         <v>0.2435</v>
       </c>
-      <c r="AT5" s="43">
+      <c r="AT5" s="45">
         <v>0.263</v>
       </c>
-      <c r="AU5" s="43">
+      <c r="AU5" s="45">
         <v>0.003</v>
       </c>
-      <c r="AV5" s="43">
+      <c r="AV5" s="45">
         <v>0.0758</v>
       </c>
-      <c r="AW5" s="43">
+      <c r="AW5" s="45">
         <v>-0.2476</v>
       </c>
-      <c r="AX5" s="43">
+      <c r="AX5" s="45">
         <v>0.0073</v>
       </c>
-      <c r="AY5" s="43">
+      <c r="AY5" s="45">
         <v>0.2143</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="AZ5" s="45">
         <v>0.156</v>
       </c>
-      <c r="BA5" s="43">
+      <c r="BA5" s="45">
         <v>0.1125</v>
       </c>
-      <c r="BB5" s="76">
+      <c r="BB5" s="80">
         <v>0.2584</v>
       </c>
-      <c r="BC5" s="76">
+      <c r="BC5" s="80">
         <v>-0.0411</v>
       </c>
-      <c r="BD5" s="76">
+      <c r="BD5" s="80">
         <v>0.0156</v>
       </c>
-      <c r="BE5" s="76">
+      <c r="BE5" s="80">
         <v>-0.167</v>
       </c>
-      <c r="BF5" s="76">
+      <c r="BF5" s="80">
         <v>0.4704</v>
       </c>
-      <c r="BG5" s="76">
+      <c r="BG5" s="80">
         <v>0.4673</v>
       </c>
-      <c r="BH5" s="76">
+      <c r="BH5" s="80">
         <v>0.4797</v>
       </c>
-      <c r="BI5" s="76">
+      <c r="BI5" s="80">
         <v>0.4796</v>
       </c>
       <c r="BJ5" s="18"/>
@@ -4525,7 +4755,7 @@
         <v>31.36</v>
       </c>
       <c r="BP5" s="18">
-        <f t="shared" ref="BP5:BP22" si="9">BN5-BO5</f>
+        <f t="shared" ref="BP5:BP26" si="9">BN5-BO5</f>
         <v>4.12</v>
       </c>
       <c r="BQ5" s="18">
@@ -4545,31 +4775,31 @@
         <f t="shared" ref="BU4:BU9" si="10">FLOOR(300/(BQ5-BR5),100)</f>
         <v>100</v>
       </c>
-      <c r="BV5" s="84">
+      <c r="BV5" s="88">
         <f t="shared" ref="BV5:BV18" si="11">(BS5-BQ5)/(BQ5-BR5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="BW5" s="43">
-        <f t="shared" ref="BW5:BW22" si="12">(BQ5-BR5)/BQ5</f>
+      <c r="BW5" s="45">
+        <f t="shared" ref="BW5:BW29" si="12">(BQ5-BR5)/BQ5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="BX5" s="43">
+      <c r="BX5" s="45">
         <f t="shared" ref="BX5:BX18" si="13">(BS5-BQ5)/BQ5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="BY5" s="96">
+      <c r="BY5" s="100">
         <v>37.41</v>
       </c>
-      <c r="BZ5" s="54" t="s">
+      <c r="BZ5" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="CA5" s="65" t="s">
+      <c r="CA5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB5" s="98"/>
+      <c r="CB5" s="102"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="38" spans="1:80">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="113" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="16">
@@ -4587,7 +4817,7 @@
       <c r="F6" s="18">
         <v>31.53</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H6" s="18">
@@ -4599,11 +4829,11 @@
       <c r="J6" s="18">
         <v>41.5</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="45">
         <f t="shared" si="1"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="45">
         <f t="shared" si="2"/>
         <v>0.215180722891566</v>
       </c>
@@ -4622,118 +4852,118 @@
       <c r="Q6" s="18">
         <v>30.89</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="53">
         <v>34.66</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="54">
         <v>32.59</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="45">
         <f t="shared" si="3"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="45">
         <f t="shared" si="4"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="45">
         <f t="shared" si="5"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="45">
         <f t="shared" si="6"/>
         <v>0.0597230236583957</v>
       </c>
-      <c r="AC6" s="43" t="e">
+      <c r="AC6" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="59" t="e">
+      <c r="AD6" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="54" t="s">
+      <c r="AE6" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63" t="s">
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63" t="s">
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="AP6" s="72" t="s">
+      <c r="AP6" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="AQ6" s="72" t="s">
+      <c r="AQ6" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="AR6" s="72" t="s">
+      <c r="AR6" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="AS6" s="72" t="s">
+      <c r="AS6" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="AT6" s="72" t="s">
+      <c r="AT6" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="AU6" s="72" t="s">
+      <c r="AU6" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="AV6" s="72" t="s">
+      <c r="AV6" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="AW6" s="72" t="s">
+      <c r="AW6" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AX6" s="72" t="s">
+      <c r="AX6" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="AY6" s="72" t="s">
+      <c r="AY6" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="AZ6" s="72" t="s">
+      <c r="AZ6" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="BA6" s="72" t="s">
+      <c r="BA6" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="BB6" s="72">
+      <c r="BB6" s="76">
         <v>0.0455</v>
       </c>
-      <c r="BC6" s="72">
+      <c r="BC6" s="76">
         <v>-0.0116</v>
       </c>
-      <c r="BD6" s="72">
+      <c r="BD6" s="76">
         <v>0.1549</v>
       </c>
-      <c r="BE6" s="72">
+      <c r="BE6" s="76">
         <v>-0.1474</v>
       </c>
-      <c r="BF6" s="72">
+      <c r="BF6" s="76">
         <v>0.2133</v>
       </c>
-      <c r="BG6" s="72">
+      <c r="BG6" s="76">
         <v>0.1848</v>
       </c>
-      <c r="BH6" s="43">
+      <c r="BH6" s="45">
         <v>0.1718</v>
       </c>
-      <c r="BI6" s="43">
+      <c r="BI6" s="45">
         <v>0.1605</v>
       </c>
       <c r="BJ6" s="18"/>
@@ -4767,31 +4997,31 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BV6" s="84">
+      <c r="BV6" s="88">
         <f t="shared" si="11"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="BW6" s="43">
+      <c r="BW6" s="45">
         <f t="shared" si="12"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="BX6" s="43">
+      <c r="BX6" s="45">
         <f t="shared" si="13"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="BY6" s="96">
+      <c r="BY6" s="100">
         <v>28.82</v>
       </c>
-      <c r="BZ6" s="54" t="s">
+      <c r="BZ6" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="CA6" s="65" t="s">
+      <c r="CA6" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB6" s="99"/>
+      <c r="CB6" s="103"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="38" spans="1:80">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="113" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="19">
@@ -4821,11 +5051,11 @@
       <c r="J7" s="21">
         <v>90.29</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="45">
         <f t="shared" si="1"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="45">
         <f t="shared" si="2"/>
         <v>0.234023701406579</v>
       </c>
@@ -4859,27 +5089,27 @@
       <c r="X7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="45">
         <f t="shared" si="3"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="Z7" s="43">
+      <c r="Z7" s="45">
         <f t="shared" si="4"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AA7" s="43">
+      <c r="AA7" s="45">
         <f t="shared" si="5"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="AB7" s="43">
+      <c r="AB7" s="45">
         <f t="shared" si="6"/>
         <v>0.0820723262374969</v>
       </c>
-      <c r="AC7" s="43">
+      <c r="AC7" s="45">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="59" t="e">
+      <c r="AD7" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -4889,75 +5119,75 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64" t="s">
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64">
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68">
         <v>10.35</v>
       </c>
-      <c r="AP7" s="72" t="s">
+      <c r="AP7" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="72" t="s">
+      <c r="AQ7" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="AR7" s="72" t="s">
+      <c r="AR7" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="AS7" s="72" t="s">
+      <c r="AS7" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="AT7" s="72" t="s">
+      <c r="AT7" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" s="72" t="s">
+      <c r="AU7" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="AV7" s="72" t="s">
+      <c r="AV7" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="AW7" s="72" t="s">
+      <c r="AW7" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="AX7" s="72" t="s">
+      <c r="AX7" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AY7" s="72" t="s">
+      <c r="AY7" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AZ7" s="72" t="s">
+      <c r="AZ7" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="BA7" s="72" t="s">
+      <c r="BA7" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="BB7" s="72" t="s">
+      <c r="BB7" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="BC7" s="72" t="s">
+      <c r="BC7" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="BD7" s="72" t="s">
+      <c r="BD7" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="BE7" s="72" t="s">
+      <c r="BE7" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="BF7" s="72" t="s">
+      <c r="BF7" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="BG7" s="72" t="s">
+      <c r="BG7" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="BH7" s="43">
+      <c r="BH7" s="45">
         <v>0.7636</v>
       </c>
-      <c r="BI7" s="43">
+      <c r="BI7" s="45">
         <v>0.7607</v>
       </c>
       <c r="BJ7" s="21"/>
@@ -4991,31 +5221,31 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BV7" s="84">
+      <c r="BV7" s="88">
         <f t="shared" si="11"/>
         <v>3.40487804878048</v>
       </c>
-      <c r="BW7" s="43">
+      <c r="BW7" s="45">
         <f t="shared" si="12"/>
         <v>0.0577627500704425</v>
       </c>
-      <c r="BX7" s="43">
+      <c r="BX7" s="45">
         <f t="shared" si="13"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="BY7" s="100">
+      <c r="BY7" s="104">
         <v>6.49</v>
       </c>
-      <c r="BZ7" s="64" t="s">
+      <c r="BZ7" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="CA7" s="65" t="s">
+      <c r="CA7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB7" s="99"/>
+      <c r="CB7" s="103"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" spans="1:80">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="19">
@@ -5043,11 +5273,11 @@
       <c r="J8" s="21">
         <v>48.5</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="46">
         <f t="shared" si="1"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="46">
         <f t="shared" si="2"/>
         <v>0.387835051546392</v>
       </c>
@@ -5075,27 +5305,27 @@
       <c r="X8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="46">
         <f t="shared" si="3"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z8" s="44">
+      <c r="Z8" s="46">
         <f t="shared" si="4"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA8" s="44">
+      <c r="AA8" s="46">
         <f t="shared" si="5"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB8" s="44" t="e">
+      <c r="AB8" s="46" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="43" t="e">
+      <c r="AC8" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="59" t="e">
+      <c r="AD8" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5105,35 +5335,35 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64" t="s">
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
       <c r="BJ8" s="21"/>
       <c r="BK8" s="21"/>
       <c r="BL8" s="21"/>
@@ -5144,7 +5374,7 @@
       <c r="BO8" s="21">
         <v>26.16</v>
       </c>
-      <c r="BP8" s="80">
+      <c r="BP8" s="84">
         <f t="shared" si="9"/>
         <v>6.27</v>
       </c>
@@ -5157,7 +5387,7 @@
       <c r="BS8" s="21">
         <v>38.71</v>
       </c>
-      <c r="BT8" s="80">
+      <c r="BT8" s="84">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -5165,31 +5395,31 @@
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="BV8" s="85">
+      <c r="BV8" s="89">
         <f t="shared" si="11"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="BW8" s="44">
+      <c r="BW8" s="46">
         <f t="shared" si="12"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="BX8" s="44">
+      <c r="BX8" s="46">
         <f t="shared" si="13"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="BY8" s="100">
+      <c r="BY8" s="104">
         <v>38.46</v>
       </c>
-      <c r="BZ8" s="64" t="s">
+      <c r="BZ8" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="CA8" s="65" t="s">
+      <c r="CA8" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB8" s="99"/>
+      <c r="CB8" s="103"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13" spans="1:80">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="114" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="22">
@@ -5217,11 +5447,11 @@
       <c r="J9" s="2">
         <v>31.94</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="45">
         <f t="shared" si="1"/>
         <v>1.00484094052559</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="45">
         <f t="shared" si="2"/>
         <v>0.0923606762680026</v>
       </c>
@@ -5253,27 +5483,27 @@
       <c r="X9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="45">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="45">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA9" s="43">
+      <c r="AA9" s="45">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB9" s="43">
+      <c r="AB9" s="45">
         <f t="shared" si="6"/>
         <v>0.0666666666666667</v>
       </c>
-      <c r="AC9" s="43" t="e">
+      <c r="AC9" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="59" t="e">
+      <c r="AD9" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5283,75 +5513,75 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65" t="s">
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65">
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69">
         <v>6.25</v>
       </c>
-      <c r="AP9" s="72">
+      <c r="AP9" s="76">
         <v>1.5016</v>
       </c>
-      <c r="AQ9" s="72">
+      <c r="AQ9" s="76">
         <v>5.5181</v>
       </c>
-      <c r="AR9" s="72">
+      <c r="AR9" s="76">
         <v>3.3249</v>
       </c>
-      <c r="AS9" s="72">
+      <c r="AS9" s="76">
         <v>1.8449</v>
       </c>
-      <c r="AT9" s="72">
+      <c r="AT9" s="76">
         <v>0.3554</v>
       </c>
-      <c r="AU9" s="72">
+      <c r="AU9" s="76">
         <v>0.2495</v>
       </c>
-      <c r="AV9" s="72">
+      <c r="AV9" s="76">
         <v>0.1071</v>
       </c>
-      <c r="AW9" s="72">
+      <c r="AW9" s="76">
         <v>-0.134</v>
       </c>
-      <c r="AX9" s="72">
+      <c r="AX9" s="76">
         <v>0.0437</v>
       </c>
-      <c r="AY9" s="72">
+      <c r="AY9" s="76">
         <v>1.1403</v>
       </c>
-      <c r="AZ9" s="72">
+      <c r="AZ9" s="76">
         <v>1.4349</v>
       </c>
-      <c r="BA9" s="72">
+      <c r="BA9" s="76">
         <v>1.2425</v>
       </c>
-      <c r="BB9" s="72">
+      <c r="BB9" s="76">
         <v>0.2131</v>
       </c>
-      <c r="BC9" s="72">
+      <c r="BC9" s="76">
         <v>0.2062</v>
       </c>
-      <c r="BD9" s="72">
+      <c r="BD9" s="76">
         <v>0.334</v>
       </c>
-      <c r="BE9" s="72">
+      <c r="BE9" s="76">
         <v>0.0105</v>
       </c>
-      <c r="BF9" s="72">
+      <c r="BF9" s="76">
         <v>0.3392</v>
       </c>
-      <c r="BG9" s="72">
+      <c r="BG9" s="76">
         <v>0.3777</v>
       </c>
-      <c r="BH9" s="43">
+      <c r="BH9" s="45">
         <v>0.3722</v>
       </c>
-      <c r="BI9" s="43">
+      <c r="BI9" s="45">
         <v>0.3621</v>
       </c>
       <c r="BJ9" s="2"/>
@@ -5385,31 +5615,31 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BV9" s="84">
+      <c r="BV9" s="88">
         <f t="shared" si="11"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="BW9" s="43">
+      <c r="BW9" s="45">
         <f t="shared" si="12"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="BX9" s="43">
+      <c r="BX9" s="45">
         <f t="shared" si="13"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="BY9" s="96">
+      <c r="BY9" s="100">
         <v>17.95</v>
       </c>
-      <c r="BZ9" s="65" t="s">
+      <c r="BZ9" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="CA9" s="65" t="s">
+      <c r="CA9" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="CB9" s="99"/>
+      <c r="CB9" s="103"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="115" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="24">
@@ -5437,11 +5667,11 @@
       <c r="J10" s="23">
         <v>26.64</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="47">
         <f t="shared" si="1"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="47">
         <f t="shared" si="2"/>
         <v>0.123498498498498</v>
       </c>
@@ -5473,27 +5703,27 @@
       <c r="X10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="47">
         <f t="shared" si="3"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="Z10" s="45">
+      <c r="Z10" s="47">
         <f t="shared" si="4"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="47">
         <f t="shared" si="5"/>
         <v>0.113327674023769</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="47">
         <f t="shared" si="6"/>
         <v>0.123456790123457</v>
       </c>
-      <c r="AC10" s="43" t="e">
+      <c r="AC10" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="60" t="e">
+      <c r="AD10" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5503,75 +5733,75 @@
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66" t="s">
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66">
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70">
         <v>0.77</v>
       </c>
-      <c r="AP10" s="74" t="s">
+      <c r="AP10" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="AQ10" s="74" t="s">
+      <c r="AQ10" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="AR10" s="74" t="s">
+      <c r="AR10" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="AS10" s="74" t="s">
+      <c r="AS10" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="AT10" s="74">
+      <c r="AT10" s="78">
         <v>2.6193</v>
       </c>
-      <c r="AU10" s="74">
+      <c r="AU10" s="78">
         <v>0.0893</v>
       </c>
-      <c r="AV10" s="74">
+      <c r="AV10" s="78">
         <v>-0.0175</v>
       </c>
-      <c r="AW10" s="74">
+      <c r="AW10" s="78">
         <v>-0.2195</v>
       </c>
-      <c r="AX10" s="74">
+      <c r="AX10" s="78">
         <v>-0.0419</v>
       </c>
-      <c r="AY10" s="74">
+      <c r="AY10" s="78">
         <v>0.1981</v>
       </c>
-      <c r="AZ10" s="74">
+      <c r="AZ10" s="78">
         <v>0.198</v>
       </c>
-      <c r="BA10" s="74">
+      <c r="BA10" s="78">
         <v>0.1998</v>
       </c>
-      <c r="BB10" s="74">
+      <c r="BB10" s="78">
         <v>0.1893</v>
       </c>
-      <c r="BC10" s="74">
+      <c r="BC10" s="78">
         <v>-0.0513</v>
       </c>
-      <c r="BD10" s="74">
+      <c r="BD10" s="78">
         <v>0.0188</v>
       </c>
-      <c r="BE10" s="74">
+      <c r="BE10" s="78">
         <v>0.0467</v>
       </c>
-      <c r="BF10" s="74">
+      <c r="BF10" s="78">
         <v>0.2619</v>
       </c>
-      <c r="BG10" s="74">
+      <c r="BG10" s="78">
         <v>0.259</v>
       </c>
-      <c r="BH10" s="45">
+      <c r="BH10" s="47">
         <v>0.2791</v>
       </c>
-      <c r="BI10" s="45">
+      <c r="BI10" s="47">
         <v>0.1079</v>
       </c>
       <c r="BJ10" s="23"/>
@@ -5584,7 +5814,7 @@
       <c r="BO10" s="23">
         <v>19.08</v>
       </c>
-      <c r="BP10" s="81">
+      <c r="BP10" s="85">
         <f t="shared" si="9"/>
         <v>6.23</v>
       </c>
@@ -5597,38 +5827,38 @@
       <c r="BS10" s="23">
         <v>26.72</v>
       </c>
-      <c r="BT10" s="81">
+      <c r="BT10" s="85">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="BU10" s="23">
-        <f t="shared" ref="BU10:BU22" si="14">FLOOR(304/(BQ10-BR10),100)</f>
+        <f t="shared" ref="BU10:BU26" si="14">FLOOR(304/(BQ10-BR10),100)</f>
         <v>100</v>
       </c>
-      <c r="BV10" s="86">
+      <c r="BV10" s="90">
         <f t="shared" si="11"/>
         <v>1.20792079207921</v>
       </c>
-      <c r="BW10" s="45">
+      <c r="BW10" s="47">
         <f t="shared" si="12"/>
         <v>0.0831960461285008</v>
       </c>
-      <c r="BX10" s="45">
+      <c r="BX10" s="47">
         <f t="shared" si="13"/>
         <v>0.100494233937397</v>
       </c>
-      <c r="BY10" s="101">
+      <c r="BY10" s="105">
         <v>56.67</v>
       </c>
-      <c r="BZ10" s="66" t="s">
+      <c r="BZ10" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA10" s="66" t="s">
+      <c r="CA10" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="115" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="26">
@@ -5656,11 +5886,11 @@
       <c r="J11" s="23">
         <v>29.28</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="47">
         <f t="shared" si="1"/>
         <v>1.90992167101828</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="47">
         <f t="shared" si="2"/>
         <v>0.238729508196721</v>
       </c>
@@ -5692,27 +5922,27 @@
       <c r="X11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="47">
         <f t="shared" si="3"/>
         <v>0.373633879781421</v>
       </c>
-      <c r="Z11" s="45">
+      <c r="Z11" s="47">
         <f t="shared" si="4"/>
         <v>0.140415704387991</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="47">
         <f t="shared" si="5"/>
         <v>0.107852412488174</v>
       </c>
-      <c r="AB11" s="45">
+      <c r="AB11" s="47">
         <f t="shared" si="6"/>
         <v>0.105353319057816</v>
       </c>
-      <c r="AC11" s="43" t="e">
+      <c r="AC11" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="60" t="e">
+      <c r="AD11" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5722,75 +5952,75 @@
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66" t="s">
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN11" s="23"/>
       <c r="AO11" s="23">
         <v>8.51</v>
       </c>
-      <c r="AP11" s="45">
+      <c r="AP11" s="47">
         <v>3.6019</v>
       </c>
-      <c r="AQ11" s="45">
+      <c r="AQ11" s="47">
         <v>16.933</v>
       </c>
-      <c r="AR11" s="45">
+      <c r="AR11" s="47">
         <v>7.9794</v>
       </c>
-      <c r="AS11" s="45">
+      <c r="AS11" s="47">
         <v>3.2905</v>
       </c>
-      <c r="AT11" s="45">
+      <c r="AT11" s="47">
         <v>1.3176</v>
       </c>
-      <c r="AU11" s="45">
+      <c r="AU11" s="47">
         <v>0.0128</v>
       </c>
-      <c r="AV11" s="45">
+      <c r="AV11" s="47">
         <v>-0.2701</v>
       </c>
-      <c r="AW11" s="45">
+      <c r="AW11" s="47">
         <v>0.2668</v>
       </c>
-      <c r="AX11" s="45">
+      <c r="AX11" s="47">
         <v>0.0496</v>
       </c>
-      <c r="AY11" s="45">
+      <c r="AY11" s="47">
         <v>0.7137</v>
       </c>
-      <c r="AZ11" s="45">
+      <c r="AZ11" s="47">
         <v>0.3284</v>
       </c>
-      <c r="BA11" s="45">
+      <c r="BA11" s="47">
         <v>0.4288</v>
       </c>
-      <c r="BB11" s="45">
+      <c r="BB11" s="47">
         <v>0.52</v>
       </c>
-      <c r="BC11" s="45">
+      <c r="BC11" s="47">
         <v>-0.119</v>
       </c>
-      <c r="BD11" s="45">
+      <c r="BD11" s="47">
         <v>0.0208</v>
       </c>
-      <c r="BE11" s="45">
+      <c r="BE11" s="47">
         <v>0.1948</v>
       </c>
-      <c r="BF11" s="45">
+      <c r="BF11" s="47">
         <v>0.1781</v>
       </c>
-      <c r="BG11" s="45">
+      <c r="BG11" s="47">
         <v>0.2286</v>
       </c>
-      <c r="BH11" s="45">
+      <c r="BH11" s="47">
         <v>0.2077</v>
       </c>
-      <c r="BI11" s="45">
+      <c r="BI11" s="47">
         <v>0.1904</v>
       </c>
       <c r="BJ11" s="23"/>
@@ -5803,7 +6033,7 @@
       <c r="BO11" s="23">
         <v>18.22</v>
       </c>
-      <c r="BP11" s="81">
+      <c r="BP11" s="85">
         <f t="shared" si="9"/>
         <v>5.98</v>
       </c>
@@ -5816,7 +6046,7 @@
       <c r="BS11" s="23">
         <v>28.54</v>
       </c>
-      <c r="BT11" s="81">
+      <c r="BT11" s="85">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
@@ -5824,30 +6054,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV11" s="86">
+      <c r="BV11" s="90">
         <f t="shared" si="11"/>
         <v>2.54166666666667</v>
       </c>
-      <c r="BW11" s="45">
+      <c r="BW11" s="47">
         <f t="shared" si="12"/>
         <v>0.0937093275488069</v>
       </c>
-      <c r="BX11" s="45">
+      <c r="BX11" s="47">
         <f t="shared" si="13"/>
         <v>0.238177874186551</v>
       </c>
-      <c r="BY11" s="101">
+      <c r="BY11" s="105">
         <v>39.84</v>
       </c>
-      <c r="BZ11" s="66" t="s">
+      <c r="BZ11" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA11" s="66" t="s">
+      <c r="CA11" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="115" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="26">
@@ -5875,11 +6105,11 @@
       <c r="J12" s="23">
         <v>41.66</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="47">
         <f t="shared" si="1"/>
         <v>1.10945802337938</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="47">
         <f t="shared" si="2"/>
         <v>0.0470475276044166</v>
       </c>
@@ -5911,27 +6141,27 @@
       <c r="X12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="45">
+      <c r="Y12" s="47">
         <f t="shared" si="3"/>
         <v>0.249879980796927</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="Z12" s="47">
         <f t="shared" si="4"/>
         <v>0.103025347506132</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AA12" s="47">
         <f t="shared" si="5"/>
         <v>0.0626788036410924</v>
       </c>
-      <c r="AB12" s="45">
+      <c r="AB12" s="47">
         <f t="shared" si="6"/>
         <v>0.0831319478008701</v>
       </c>
-      <c r="AC12" s="43" t="e">
+      <c r="AC12" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="60" t="e">
+      <c r="AD12" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -5950,64 +6180,64 @@
       <c r="AO12" s="23">
         <v>2.2</v>
       </c>
-      <c r="AP12" s="45">
+      <c r="AP12" s="47">
         <v>0.0112</v>
       </c>
-      <c r="AQ12" s="45">
+      <c r="AQ12" s="47">
         <v>0.8116</v>
       </c>
-      <c r="AR12" s="45">
+      <c r="AR12" s="47">
         <v>0.7087</v>
       </c>
-      <c r="AS12" s="45">
+      <c r="AS12" s="47">
         <v>0.7083</v>
       </c>
-      <c r="AT12" s="45">
+      <c r="AT12" s="47">
         <v>0.006</v>
       </c>
-      <c r="AU12" s="45">
+      <c r="AU12" s="47">
         <v>0.3442</v>
       </c>
-      <c r="AV12" s="45">
+      <c r="AV12" s="47">
         <v>0.247</v>
       </c>
-      <c r="AW12" s="45">
+      <c r="AW12" s="47">
         <v>0.0127</v>
       </c>
-      <c r="AX12" s="45">
+      <c r="AX12" s="47">
         <v>0.1618</v>
       </c>
-      <c r="AY12" s="45">
+      <c r="AY12" s="47">
         <v>1.016</v>
       </c>
-      <c r="AZ12" s="45">
+      <c r="AZ12" s="47">
         <v>0.5767</v>
       </c>
-      <c r="BA12" s="45">
+      <c r="BA12" s="47">
         <v>0.477</v>
       </c>
-      <c r="BB12" s="45">
+      <c r="BB12" s="47">
         <v>0.4664</v>
       </c>
-      <c r="BC12" s="45">
+      <c r="BC12" s="47">
         <v>-0.1139</v>
       </c>
-      <c r="BD12" s="45">
+      <c r="BD12" s="47">
         <v>-0.0272</v>
       </c>
-      <c r="BE12" s="45">
+      <c r="BE12" s="47">
         <v>0.0402</v>
       </c>
-      <c r="BF12" s="45">
+      <c r="BF12" s="47">
         <v>0.5316</v>
       </c>
-      <c r="BG12" s="45">
+      <c r="BG12" s="47">
         <v>0.5499</v>
       </c>
-      <c r="BH12" s="45">
+      <c r="BH12" s="47">
         <v>0.5374</v>
       </c>
-      <c r="BI12" s="45">
+      <c r="BI12" s="47">
         <v>0.5361</v>
       </c>
       <c r="BJ12" s="23"/>
@@ -6020,7 +6250,7 @@
       <c r="BO12" s="23">
         <v>32.98</v>
       </c>
-      <c r="BP12" s="81">
+      <c r="BP12" s="85">
         <f t="shared" si="9"/>
         <v>9.73</v>
       </c>
@@ -6033,7 +6263,7 @@
       <c r="BS12" s="23">
         <v>42.87</v>
       </c>
-      <c r="BT12" s="81">
+      <c r="BT12" s="85">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
@@ -6041,30 +6271,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV12" s="86">
+      <c r="BV12" s="90">
         <f t="shared" si="11"/>
         <v>0.987903225806448</v>
       </c>
-      <c r="BW12" s="45">
+      <c r="BW12" s="47">
         <f t="shared" si="12"/>
         <v>0.0613557644730332</v>
       </c>
-      <c r="BX12" s="45">
+      <c r="BX12" s="47">
         <f t="shared" si="13"/>
         <v>0.0606135576447302</v>
       </c>
-      <c r="BY12" s="101">
+      <c r="BY12" s="105">
         <v>25.4</v>
       </c>
-      <c r="BZ12" s="66" t="s">
+      <c r="BZ12" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA12" s="66" t="s">
+      <c r="CA12" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="24" spans="1:80">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="116" t="s">
         <v>154</v>
       </c>
       <c r="B13" s="26">
@@ -6092,11 +6322,11 @@
       <c r="J13" s="23">
         <v>31.94</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="47">
         <f t="shared" si="1"/>
         <v>0.919778699861687</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="47">
         <f t="shared" si="2"/>
         <v>0.130870381966187</v>
       </c>
@@ -6126,27 +6356,27 @@
       <c r="X13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="45">
+      <c r="Y13" s="47">
         <f t="shared" si="3"/>
         <v>0.354101440200376</v>
       </c>
-      <c r="Z13" s="45">
+      <c r="Z13" s="47">
         <f t="shared" si="4"/>
         <v>0.163678877630553</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13" s="47">
         <f t="shared" si="5"/>
         <v>0.161647628937349</v>
       </c>
-      <c r="AB13" s="45">
+      <c r="AB13" s="47">
         <f t="shared" si="6"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="AC13" s="43" t="e">
+      <c r="AC13" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="60" t="e">
+      <c r="AD13" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6156,75 +6386,75 @@
       <c r="AF13" s="23"/>
       <c r="AG13" s="23"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66" t="s">
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66">
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70">
         <v>6.25</v>
       </c>
-      <c r="AP13" s="74">
+      <c r="AP13" s="78">
         <v>1.5016</v>
       </c>
-      <c r="AQ13" s="74">
+      <c r="AQ13" s="78">
         <v>5.5181</v>
       </c>
-      <c r="AR13" s="74">
+      <c r="AR13" s="78">
         <v>3.3249</v>
       </c>
-      <c r="AS13" s="74">
+      <c r="AS13" s="78">
         <v>1.8449</v>
       </c>
-      <c r="AT13" s="74">
+      <c r="AT13" s="78">
         <v>0.3554</v>
       </c>
-      <c r="AU13" s="74">
+      <c r="AU13" s="78">
         <v>0.2495</v>
       </c>
-      <c r="AV13" s="74">
+      <c r="AV13" s="78">
         <v>0.1071</v>
       </c>
-      <c r="AW13" s="74">
+      <c r="AW13" s="78">
         <v>-0.134</v>
       </c>
-      <c r="AX13" s="74">
+      <c r="AX13" s="78">
         <v>0.0437</v>
       </c>
-      <c r="AY13" s="74">
+      <c r="AY13" s="78">
         <v>1.1403</v>
       </c>
-      <c r="AZ13" s="74">
+      <c r="AZ13" s="78">
         <v>1.4349</v>
       </c>
-      <c r="BA13" s="74">
+      <c r="BA13" s="78">
         <v>1.2425</v>
       </c>
-      <c r="BB13" s="74">
+      <c r="BB13" s="78">
         <v>0.2131</v>
       </c>
-      <c r="BC13" s="74">
+      <c r="BC13" s="78">
         <v>0.2062</v>
       </c>
-      <c r="BD13" s="74">
+      <c r="BD13" s="78">
         <v>0.334</v>
       </c>
-      <c r="BE13" s="74">
+      <c r="BE13" s="78">
         <v>0.0105</v>
       </c>
-      <c r="BF13" s="74">
+      <c r="BF13" s="78">
         <v>0.3392</v>
       </c>
-      <c r="BG13" s="74">
+      <c r="BG13" s="78">
         <v>0.3777</v>
       </c>
-      <c r="BH13" s="45">
+      <c r="BH13" s="47">
         <v>0.3722</v>
       </c>
-      <c r="BI13" s="45">
+      <c r="BI13" s="47">
         <v>0.3621</v>
       </c>
       <c r="BJ13" s="23"/>
@@ -6237,7 +6467,7 @@
       <c r="BO13" s="23">
         <v>22.41</v>
       </c>
-      <c r="BP13" s="81">
+      <c r="BP13" s="85">
         <f t="shared" si="9"/>
         <v>8.8</v>
       </c>
@@ -6250,7 +6480,7 @@
       <c r="BS13" s="23">
         <v>35.16</v>
       </c>
-      <c r="BT13" s="81">
+      <c r="BT13" s="85">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
@@ -6258,31 +6488,31 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV13" s="86">
+      <c r="BV13" s="90">
         <f t="shared" si="11"/>
         <v>1.68055555555555</v>
       </c>
-      <c r="BW13" s="45">
+      <c r="BW13" s="47">
         <f t="shared" si="12"/>
         <v>0.0949868073878628</v>
       </c>
-      <c r="BX13" s="45">
+      <c r="BX13" s="47">
         <f t="shared" si="13"/>
         <v>0.159630606860158</v>
       </c>
-      <c r="BY13" s="101">
+      <c r="BY13" s="105">
         <v>17.95</v>
       </c>
-      <c r="BZ13" s="66" t="s">
+      <c r="BZ13" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA13" s="66" t="s">
+      <c r="CA13" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="CB13" s="102"/>
+      <c r="CB13" s="106"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="115" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="26">
@@ -6310,11 +6540,11 @@
       <c r="J14" s="23">
         <v>62.1</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="47">
         <f t="shared" si="1"/>
         <v>4.46707193515704</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="47">
         <f t="shared" si="2"/>
         <v>0.131078904991948</v>
       </c>
@@ -6346,27 +6576,27 @@
       <c r="X14" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="45">
+      <c r="Y14" s="47">
         <f t="shared" si="3"/>
         <v>0.341062801932367</v>
       </c>
-      <c r="Z14" s="45">
+      <c r="Z14" s="47">
         <f t="shared" si="4"/>
         <v>0.208363636363636</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AA14" s="47">
         <f t="shared" si="5"/>
         <v>0.120625610948192</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AB14" s="47">
         <f t="shared" si="6"/>
         <v>0.131321939309383</v>
       </c>
-      <c r="AC14" s="43" t="e">
+      <c r="AC14" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="60" t="e">
+      <c r="AD14" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6376,75 +6606,75 @@
       <c r="AF14" s="23"/>
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66" t="s">
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN14" s="23"/>
       <c r="AO14" s="23">
         <v>34.76</v>
       </c>
-      <c r="AP14" s="45">
+      <c r="AP14" s="47">
         <v>0.4151</v>
       </c>
-      <c r="AQ14" s="45">
+      <c r="AQ14" s="47">
         <v>4.3101</v>
       </c>
-      <c r="AR14" s="45">
+      <c r="AR14" s="47">
         <v>5.7893</v>
       </c>
-      <c r="AS14" s="45">
+      <c r="AS14" s="47">
         <v>5.2189</v>
       </c>
-      <c r="AT14" s="45">
+      <c r="AT14" s="47">
         <v>0.5076</v>
       </c>
-      <c r="AU14" s="45">
+      <c r="AU14" s="47">
         <v>1.5097</v>
       </c>
-      <c r="AV14" s="45">
+      <c r="AV14" s="47">
         <v>0.5596</v>
       </c>
-      <c r="AW14" s="45">
+      <c r="AW14" s="47">
         <v>-0.084</v>
       </c>
-      <c r="AX14" s="45">
+      <c r="AX14" s="47">
         <v>0.1501</v>
       </c>
-      <c r="AY14" s="45">
+      <c r="AY14" s="47">
         <v>0.3924</v>
       </c>
-      <c r="AZ14" s="45">
+      <c r="AZ14" s="47">
         <v>0.602</v>
       </c>
-      <c r="BA14" s="45">
+      <c r="BA14" s="47">
         <v>0.755</v>
       </c>
-      <c r="BB14" s="45">
+      <c r="BB14" s="47">
         <v>0.9365</v>
       </c>
-      <c r="BC14" s="45">
+      <c r="BC14" s="47">
         <v>-0.3372</v>
       </c>
-      <c r="BD14" s="45">
+      <c r="BD14" s="47">
         <v>0.7463</v>
       </c>
-      <c r="BE14" s="45">
+      <c r="BE14" s="47">
         <v>-0.1096</v>
       </c>
-      <c r="BF14" s="45">
+      <c r="BF14" s="47">
         <v>0.1174</v>
       </c>
-      <c r="BG14" s="45">
+      <c r="BG14" s="47">
         <v>0.2187</v>
       </c>
-      <c r="BH14" s="45">
+      <c r="BH14" s="47">
         <v>0.2433</v>
       </c>
-      <c r="BI14" s="45">
+      <c r="BI14" s="47">
         <v>0.2275</v>
       </c>
       <c r="BJ14" s="23"/>
@@ -6457,7 +6687,7 @@
       <c r="BO14" s="23">
         <v>42.1</v>
       </c>
-      <c r="BP14" s="81">
+      <c r="BP14" s="85">
         <f t="shared" si="9"/>
         <v>18.29</v>
       </c>
@@ -6470,7 +6700,7 @@
       <c r="BS14" s="23">
         <v>65.25</v>
       </c>
-      <c r="BT14" s="81">
+      <c r="BT14" s="85">
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
@@ -6478,30 +6708,30 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV14" s="86">
+      <c r="BV14" s="90">
         <f t="shared" si="11"/>
         <v>1.4812734082397</v>
       </c>
-      <c r="BW14" s="45">
+      <c r="BW14" s="47">
         <f t="shared" si="12"/>
         <v>0.0931287059644228</v>
       </c>
-      <c r="BX14" s="45">
+      <c r="BX14" s="47">
         <f t="shared" si="13"/>
         <v>0.137949075688873</v>
       </c>
-      <c r="BY14" s="101">
+      <c r="BY14" s="105">
         <v>56.78</v>
       </c>
-      <c r="BZ14" s="66" t="s">
+      <c r="BZ14" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA14" s="66" t="s">
+      <c r="CA14" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13" spans="1:79">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="113" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="22">
@@ -6529,11 +6759,11 @@
       <c r="J15" s="2">
         <v>30.1</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="48">
         <f t="shared" si="1"/>
         <v>2.38972431077694</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="48">
         <f t="shared" si="2"/>
         <v>0.101328903654485</v>
       </c>
@@ -6561,27 +6791,27 @@
       <c r="X15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15" s="48">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="48">
         <f t="shared" si="5"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="AB15" s="55" t="e">
+      <c r="AB15" s="57" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="43" t="e">
+      <c r="AC15" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="59" t="e">
+      <c r="AD15" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6591,75 +6821,75 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65" t="s">
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69" t="s">
         <v>141</v>
       </c>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2">
         <v>9.73</v>
       </c>
-      <c r="AP15" s="43">
+      <c r="AP15" s="45">
         <v>3.1533</v>
       </c>
-      <c r="AQ15" s="43">
+      <c r="AQ15" s="45">
         <v>2.152</v>
       </c>
-      <c r="AR15" s="43">
+      <c r="AR15" s="45">
         <v>1.6028</v>
       </c>
-      <c r="AS15" s="43">
+      <c r="AS15" s="45">
         <v>1.161</v>
       </c>
-      <c r="AT15" s="43">
+      <c r="AT15" s="45">
         <v>0.2365</v>
       </c>
-      <c r="AU15" s="43">
+      <c r="AU15" s="45">
         <v>0.0229</v>
       </c>
-      <c r="AV15" s="43">
+      <c r="AV15" s="45">
         <v>0.1857</v>
       </c>
-      <c r="AW15" s="43">
+      <c r="AW15" s="45">
         <v>0.1281</v>
       </c>
-      <c r="AX15" s="43">
+      <c r="AX15" s="45">
         <v>0.1124</v>
       </c>
-      <c r="AY15" s="43">
+      <c r="AY15" s="45">
         <v>0.3139</v>
       </c>
-      <c r="AZ15" s="43">
+      <c r="AZ15" s="45">
         <v>0.0935</v>
       </c>
-      <c r="BA15" s="43">
+      <c r="BA15" s="45">
         <v>0.1211</v>
       </c>
-      <c r="BB15" s="43">
+      <c r="BB15" s="45">
         <v>-0.3125</v>
       </c>
-      <c r="BC15" s="43">
+      <c r="BC15" s="45">
         <v>0.2292</v>
       </c>
-      <c r="BD15" s="43">
+      <c r="BD15" s="45">
         <v>0.1278</v>
       </c>
-      <c r="BE15" s="43">
+      <c r="BE15" s="45">
         <v>0.2239</v>
       </c>
-      <c r="BF15" s="43">
+      <c r="BF15" s="45">
         <v>0.2428</v>
       </c>
-      <c r="BG15" s="43">
+      <c r="BG15" s="45">
         <v>0.3271</v>
       </c>
-      <c r="BH15" s="43">
+      <c r="BH15" s="45">
         <v>0.347</v>
       </c>
-      <c r="BI15" s="43">
+      <c r="BI15" s="45">
         <v>0.3263</v>
       </c>
       <c r="BJ15" s="2"/>
@@ -6693,30 +6923,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV15" s="84">
+      <c r="BV15" s="88">
         <f t="shared" si="11"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="BW15" s="43">
+      <c r="BW15" s="45">
         <f t="shared" si="12"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BX15" s="43">
+      <c r="BX15" s="45">
         <f t="shared" si="13"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="BY15" s="96">
+      <c r="BY15" s="100">
         <v>25.15</v>
       </c>
-      <c r="BZ15" s="65" t="s">
+      <c r="BZ15" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="CA15" s="65" t="s">
+      <c r="CA15" s="69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="115" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="26">
@@ -6744,11 +6974,11 @@
       <c r="J16" s="23">
         <v>29.3</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="49">
         <f t="shared" si="1"/>
         <v>1.66884531590414</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="49">
         <f t="shared" si="2"/>
         <v>0.16382252559727</v>
       </c>
@@ -6780,27 +7010,27 @@
       <c r="X16" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="Y16" s="47">
+      <c r="Y16" s="49">
         <f t="shared" si="3"/>
         <v>0.349829351535836</v>
       </c>
-      <c r="Z16" s="47">
+      <c r="Z16" s="49">
         <f t="shared" si="4"/>
         <v>0.138804015713662</v>
       </c>
-      <c r="AA16" s="47">
+      <c r="AA16" s="49">
         <f t="shared" si="5"/>
         <v>0.137996219281663</v>
       </c>
-      <c r="AB16" s="47">
+      <c r="AB16" s="49">
         <f t="shared" si="6"/>
         <v>0.102890173410405</v>
       </c>
-      <c r="AC16" s="43" t="e">
+      <c r="AC16" s="45" t="e">
         <f t="shared" ref="AC16:AC21" si="15">(T16-U16)/T16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="60" t="e">
+      <c r="AD16" s="64" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -6810,35 +7040,35 @@
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66" t="s">
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="45"/>
-      <c r="BE16" s="45"/>
-      <c r="BF16" s="45"/>
-      <c r="BG16" s="45"/>
-      <c r="BH16" s="45"/>
-      <c r="BI16" s="45"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
+      <c r="BA16" s="47"/>
+      <c r="BB16" s="47"/>
+      <c r="BC16" s="47"/>
+      <c r="BD16" s="47"/>
+      <c r="BE16" s="47"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="47"/>
+      <c r="BH16" s="47"/>
+      <c r="BI16" s="47"/>
       <c r="BJ16" s="23"/>
       <c r="BK16" s="23"/>
       <c r="BL16" s="23"/>
@@ -6849,7 +7079,7 @@
       <c r="BO16" s="23">
         <v>19.96</v>
       </c>
-      <c r="BP16" s="81">
+      <c r="BP16" s="85">
         <f t="shared" si="9"/>
         <v>7.53</v>
       </c>
@@ -6862,7 +7092,7 @@
       <c r="BS16" s="23">
         <v>27.59</v>
       </c>
-      <c r="BT16" s="81">
+      <c r="BT16" s="85">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
@@ -6870,30 +7100,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV16" s="86">
+      <c r="BV16" s="90">
         <f t="shared" si="11"/>
         <v>0.614232209737828</v>
       </c>
-      <c r="BW16" s="45">
+      <c r="BW16" s="47">
         <f t="shared" si="12"/>
         <v>0.102890173410405</v>
       </c>
-      <c r="BX16" s="45">
+      <c r="BX16" s="47">
         <f t="shared" si="13"/>
         <v>0.0631984585741811</v>
       </c>
-      <c r="BY16" s="101">
+      <c r="BY16" s="105">
         <v>26.15</v>
       </c>
-      <c r="BZ16" s="66" t="s">
+      <c r="BZ16" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA16" s="66" t="s">
+      <c r="CA16" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="13" spans="1:79">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="117" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="31">
@@ -6921,11 +7151,11 @@
       <c r="J17" s="30">
         <v>160.57</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="50">
         <f t="shared" si="1"/>
         <v>1.36015519568151</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="50">
         <f t="shared" si="2"/>
         <v>0.128666625147911</v>
       </c>
@@ -6960,34 +7190,34 @@
         <v>143.8</v>
       </c>
       <c r="W17" s="30">
-        <v>138</v>
+        <v>137.88</v>
       </c>
       <c r="X17" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="Y17" s="48">
+      <c r="Y17" s="50">
         <f t="shared" si="3"/>
         <v>0.417201220651429</v>
       </c>
-      <c r="Z17" s="48">
+      <c r="Z17" s="50">
         <f t="shared" si="4"/>
         <v>0.167556888856369</v>
       </c>
-      <c r="AA17" s="48">
+      <c r="AA17" s="50">
         <f t="shared" si="5"/>
         <v>0.158180583842498</v>
       </c>
-      <c r="AB17" s="55">
+      <c r="AB17" s="57">
         <f t="shared" si="6"/>
         <v>0.10876867004931</v>
       </c>
-      <c r="AC17" s="49">
+      <c r="AC17" s="51">
         <f t="shared" si="15"/>
         <v>0.0490319709220385</v>
       </c>
-      <c r="AD17" s="61">
+      <c r="AD17" s="65">
         <f t="shared" si="8"/>
-        <v>0.0403337969401948</v>
+        <v>0.0411682892906816</v>
       </c>
       <c r="AE17" s="30" t="s">
         <v>83</v>
@@ -6995,75 +7225,75 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="67" t="s">
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71" t="s">
         <v>141</v>
       </c>
       <c r="AN17" s="30"/>
       <c r="AO17" s="30">
         <v>10</v>
       </c>
-      <c r="AP17" s="62">
+      <c r="AP17" s="66">
         <v>-0.1149</v>
       </c>
-      <c r="AQ17" s="62">
+      <c r="AQ17" s="66">
         <v>1.1966</v>
       </c>
-      <c r="AR17" s="62">
+      <c r="AR17" s="66">
         <v>2.6601</v>
       </c>
-      <c r="AS17" s="62">
+      <c r="AS17" s="66">
         <v>0.9935</v>
       </c>
-      <c r="AT17" s="62">
+      <c r="AT17" s="66">
         <v>-0.4244</v>
       </c>
-      <c r="AU17" s="62">
+      <c r="AU17" s="66">
         <v>0.8275</v>
       </c>
-      <c r="AV17" s="62">
+      <c r="AV17" s="66">
         <v>-1.1004</v>
       </c>
-      <c r="AW17" s="62">
+      <c r="AW17" s="66">
         <v>15.79</v>
       </c>
-      <c r="AX17" s="62">
+      <c r="AX17" s="66">
         <v>-0.1106</v>
       </c>
-      <c r="AY17" s="62">
+      <c r="AY17" s="66">
         <v>0.756</v>
       </c>
-      <c r="AZ17" s="62">
+      <c r="AZ17" s="66">
         <v>1.1246</v>
       </c>
-      <c r="BA17" s="62">
+      <c r="BA17" s="66">
         <v>0.64</v>
       </c>
-      <c r="BB17" s="62">
+      <c r="BB17" s="66">
         <v>-0.1855</v>
       </c>
-      <c r="BC17" s="62">
+      <c r="BC17" s="66">
         <v>0.1135</v>
       </c>
-      <c r="BD17" s="62">
+      <c r="BD17" s="66">
         <v>-0.5985</v>
       </c>
-      <c r="BE17" s="62">
+      <c r="BE17" s="66">
         <v>2.7082</v>
       </c>
-      <c r="BF17" s="62">
+      <c r="BF17" s="66">
         <v>0.8544</v>
       </c>
-      <c r="BG17" s="62">
+      <c r="BG17" s="66">
         <v>0.8505</v>
       </c>
-      <c r="BH17" s="62">
+      <c r="BH17" s="66">
         <v>0.8349</v>
       </c>
-      <c r="BI17" s="62">
+      <c r="BI17" s="66">
         <v>0.8576</v>
       </c>
       <c r="BJ17" s="30"/>
@@ -7076,7 +7306,7 @@
       <c r="BO17" s="30">
         <v>117.62</v>
       </c>
-      <c r="BP17" s="82">
+      <c r="BP17" s="86">
         <f t="shared" si="9"/>
         <v>29.89</v>
       </c>
@@ -7084,43 +7314,43 @@
         <v>143.8</v>
       </c>
       <c r="BR17" s="30">
-        <v>129.9</v>
+        <v>128.2</v>
       </c>
       <c r="BS17" s="30">
         <v>158.48</v>
       </c>
-      <c r="BT17" s="82">
+      <c r="BT17" s="86">
         <f t="shared" si="0"/>
-        <v>1390</v>
-      </c>
-      <c r="BU17" s="87">
+        <v>1560</v>
+      </c>
+      <c r="BU17" s="91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV17" s="88">
+      <c r="BV17" s="92">
         <f t="shared" si="11"/>
-        <v>1.05611510791367</v>
-      </c>
-      <c r="BW17" s="49">
+        <v>0.941025641025638</v>
+      </c>
+      <c r="BW17" s="51">
         <f t="shared" si="12"/>
-        <v>0.0966620305980529</v>
-      </c>
-      <c r="BX17" s="49">
+        <v>0.108484005563282</v>
+      </c>
+      <c r="BX17" s="51">
         <f t="shared" si="13"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="BY17" s="103">
+      <c r="BY17" s="107">
         <v>55.79</v>
       </c>
-      <c r="BZ17" s="67" t="s">
+      <c r="BZ17" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="CA17" s="67" t="s">
+      <c r="CA17" s="71" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="115" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="26">
@@ -7148,11 +7378,11 @@
       <c r="J18" s="23">
         <v>11.8</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="49">
         <f t="shared" si="1"/>
         <v>0.987577639751553</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="49">
         <f t="shared" si="2"/>
         <v>0.186440677966102</v>
       </c>
@@ -7180,20 +7410,20 @@
       <c r="X18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y18" s="47">
+      <c r="Y18" s="49">
         <f t="shared" si="3"/>
         <v>0.355932203389831</v>
       </c>
-      <c r="Z18" s="47">
+      <c r="Z18" s="49">
         <f t="shared" si="4"/>
         <v>0.167875647668394</v>
       </c>
-      <c r="AA18" s="47">
+      <c r="AA18" s="49">
         <f t="shared" si="5"/>
         <v>0.124513618677043</v>
       </c>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="45" t="e">
+      <c r="AC18" s="47" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7204,35 +7434,35 @@
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66" t="s">
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN18" s="23"/>
       <c r="AO18" s="23"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BI18" s="45"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="47"/>
+      <c r="BB18" s="47"/>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="47"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="47"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="47"/>
       <c r="BJ18" s="23"/>
       <c r="BK18" s="23"/>
       <c r="BL18" s="23"/>
@@ -7243,7 +7473,7 @@
       <c r="BO18" s="23">
         <v>8.35</v>
       </c>
-      <c r="BP18" s="81">
+      <c r="BP18" s="85">
         <f t="shared" si="9"/>
         <v>2.19</v>
       </c>
@@ -7256,7 +7486,7 @@
       <c r="BS18" s="23">
         <v>12</v>
       </c>
-      <c r="BT18" s="81">
+      <c r="BT18" s="85">
         <f t="shared" si="0"/>
         <v>86.9999999999999</v>
       </c>
@@ -7264,30 +7494,30 @@
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="BV18" s="86">
+      <c r="BV18" s="90">
         <f t="shared" si="11"/>
         <v>1.97701149425288</v>
       </c>
-      <c r="BW18" s="45">
+      <c r="BW18" s="47">
         <f t="shared" si="12"/>
         <v>0.0846303501945525</v>
       </c>
-      <c r="BX18" s="45">
+      <c r="BX18" s="47">
         <f t="shared" si="13"/>
         <v>0.167315175097276</v>
       </c>
-      <c r="BY18" s="101">
+      <c r="BY18" s="105">
         <v>18.1</v>
       </c>
-      <c r="BZ18" s="66" t="s">
+      <c r="BZ18" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA18" s="66" t="s">
+      <c r="CA18" s="70" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="24" spans="1:79">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="115" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="26">
@@ -7315,11 +7545,11 @@
       <c r="J19" s="23">
         <v>61.98</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="49">
         <f t="shared" si="1"/>
         <v>0.346489991542148</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="49">
         <f t="shared" si="2"/>
         <v>0.229428848015489</v>
       </c>
@@ -7347,20 +7577,20 @@
       <c r="X19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y19" s="47">
+      <c r="Y19" s="49">
         <f t="shared" si="3"/>
         <v>0.321555340432398</v>
       </c>
-      <c r="Z19" s="47">
+      <c r="Z19" s="49">
         <f t="shared" si="4"/>
         <v>0.203700207664716</v>
       </c>
-      <c r="AA19" s="47">
+      <c r="AA19" s="49">
         <f t="shared" si="5"/>
         <v>0.0942470056940899</v>
       </c>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="45" t="e">
+      <c r="AC19" s="47" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7371,35 +7601,35 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66" t="s">
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
       <c r="BJ19" s="23"/>
       <c r="BK19" s="23"/>
       <c r="BL19" s="23"/>
@@ -7410,7 +7640,7 @@
       <c r="BO19" s="23">
         <v>40.96</v>
       </c>
-      <c r="BP19" s="81">
+      <c r="BP19" s="85">
         <f t="shared" si="9"/>
         <v>11.86</v>
       </c>
@@ -7421,7 +7651,7 @@
         <v>46.13</v>
       </c>
       <c r="BS19" s="23"/>
-      <c r="BT19" s="81">
+      <c r="BT19" s="85">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
@@ -7429,24 +7659,24 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="45">
+      <c r="BV19" s="90"/>
+      <c r="BW19" s="47">
         <f t="shared" si="12"/>
         <v>0.0942470056940899</v>
       </c>
-      <c r="BX19" s="45"/>
-      <c r="BY19" s="101">
+      <c r="BX19" s="47"/>
+      <c r="BY19" s="105">
         <v>12</v>
       </c>
-      <c r="BZ19" s="66" t="s">
+      <c r="BZ19" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA19" s="66" t="s">
+      <c r="CA19" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="24" spans="1:79">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="115" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="26">
@@ -7474,11 +7704,11 @@
       <c r="J20" s="23">
         <v>30.1</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="49">
         <f t="shared" si="1"/>
         <v>2.34962406015038</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="49">
         <f t="shared" si="2"/>
         <v>0.111960132890365</v>
       </c>
@@ -7506,23 +7736,23 @@
       <c r="X20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Y20" s="47">
+      <c r="Y20" s="49">
         <f t="shared" si="3"/>
         <v>0.270431893687708</v>
       </c>
-      <c r="Z20" s="47">
+      <c r="Z20" s="49">
         <f t="shared" si="4"/>
         <v>0.106315789473684</v>
       </c>
-      <c r="AA20" s="47">
+      <c r="AA20" s="49">
         <f t="shared" si="5"/>
         <v>0.124915824915825</v>
       </c>
-      <c r="AB20" s="47" t="e">
-        <f>(R20-S20)/R20</f>
+      <c r="AB20" s="49" t="e">
+        <f t="shared" ref="AB20:AB27" si="16">(R20-S20)/R20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="45" t="e">
+      <c r="AC20" s="47" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7533,75 +7763,75 @@
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66" t="s">
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70" t="s">
         <v>141</v>
       </c>
       <c r="AN20" s="23"/>
       <c r="AO20" s="23">
         <v>9.73</v>
       </c>
-      <c r="AP20" s="45">
+      <c r="AP20" s="47">
         <v>3.1533</v>
       </c>
-      <c r="AQ20" s="45">
+      <c r="AQ20" s="47">
         <v>2.152</v>
       </c>
-      <c r="AR20" s="45">
+      <c r="AR20" s="47">
         <v>1.6028</v>
       </c>
-      <c r="AS20" s="45">
+      <c r="AS20" s="47">
         <v>1.161</v>
       </c>
-      <c r="AT20" s="45">
+      <c r="AT20" s="47">
         <v>0.2365</v>
       </c>
-      <c r="AU20" s="45">
+      <c r="AU20" s="47">
         <v>0.0229</v>
       </c>
-      <c r="AV20" s="45">
+      <c r="AV20" s="47">
         <v>0.1857</v>
       </c>
-      <c r="AW20" s="45">
+      <c r="AW20" s="47">
         <v>0.1281</v>
       </c>
-      <c r="AX20" s="45">
+      <c r="AX20" s="47">
         <v>0.1124</v>
       </c>
-      <c r="AY20" s="45">
+      <c r="AY20" s="47">
         <v>0.3139</v>
       </c>
-      <c r="AZ20" s="45">
+      <c r="AZ20" s="47">
         <v>0.0935</v>
       </c>
-      <c r="BA20" s="45">
+      <c r="BA20" s="47">
         <v>0.1211</v>
       </c>
-      <c r="BB20" s="45">
+      <c r="BB20" s="47">
         <v>-0.3125</v>
       </c>
-      <c r="BC20" s="45">
+      <c r="BC20" s="47">
         <v>0.2292</v>
       </c>
-      <c r="BD20" s="45">
+      <c r="BD20" s="47">
         <v>0.1278</v>
       </c>
-      <c r="BE20" s="45">
+      <c r="BE20" s="47">
         <v>0.2239</v>
       </c>
-      <c r="BF20" s="45">
+      <c r="BF20" s="47">
         <v>0.2428</v>
       </c>
-      <c r="BG20" s="45">
+      <c r="BG20" s="47">
         <v>0.3271</v>
       </c>
-      <c r="BH20" s="45">
+      <c r="BH20" s="47">
         <v>0.347</v>
       </c>
-      <c r="BI20" s="45">
+      <c r="BI20" s="47">
         <v>0.3263</v>
       </c>
       <c r="BJ20" s="23"/>
@@ -7614,7 +7844,7 @@
       <c r="BO20" s="23">
         <v>22.76</v>
       </c>
-      <c r="BP20" s="81">
+      <c r="BP20" s="85">
         <f t="shared" si="9"/>
         <v>7.65</v>
       </c>
@@ -7627,7 +7857,7 @@
       <c r="BS20" s="23">
         <v>32.36</v>
       </c>
-      <c r="BT20" s="81">
+      <c r="BT20" s="85">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
@@ -7635,30 +7865,30 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV20" s="86">
-        <f>(BS20-BQ20)/(BQ20-BR20)</f>
+      <c r="BV20" s="90">
+        <f t="shared" ref="BV20:BV29" si="17">(BS20-BQ20)/(BQ20-BR20)</f>
         <v>1.41035856573705</v>
       </c>
-      <c r="BW20" s="45">
+      <c r="BW20" s="47">
         <f t="shared" si="12"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="BX20" s="45">
-        <f>(BS20-BQ20)/BQ20</f>
+      <c r="BX20" s="47">
+        <f t="shared" ref="BX20:BX26" si="18">(BS20-BQ20)/BQ20</f>
         <v>0.122831367106176</v>
       </c>
-      <c r="BY20" s="101">
+      <c r="BY20" s="105">
         <v>25.15</v>
       </c>
-      <c r="BZ20" s="66" t="s">
+      <c r="BZ20" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="CA20" s="66" t="s">
+      <c r="CA20" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="24" spans="1:79">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="118" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="34">
@@ -7686,11 +7916,11 @@
       <c r="J21" s="33">
         <v>19.7</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="49">
         <f t="shared" si="1"/>
         <v>2.98574821852732</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="49">
         <f t="shared" si="2"/>
         <v>0.148223350253807</v>
       </c>
@@ -7722,23 +7952,23 @@
       <c r="X21" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="Y21" s="47">
+      <c r="Y21" s="49">
         <f t="shared" si="3"/>
         <v>0.277664974619289</v>
       </c>
-      <c r="Z21" s="47">
+      <c r="Z21" s="49">
         <f t="shared" si="4"/>
         <v>0.141129032258064</v>
       </c>
-      <c r="AA21" s="47">
+      <c r="AA21" s="49">
         <f t="shared" si="5"/>
         <v>0.169800884955752</v>
       </c>
-      <c r="AB21" s="47">
-        <f>(R21-S21)/R21</f>
+      <c r="AB21" s="49">
+        <f t="shared" si="16"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="AC21" s="47" t="e">
+      <c r="AC21" s="49" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
@@ -7754,33 +7984,33 @@
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="75"/>
-      <c r="AR21" s="75"/>
-      <c r="AS21" s="75"/>
-      <c r="AT21" s="75"/>
-      <c r="AU21" s="75"/>
-      <c r="AV21" s="75"/>
-      <c r="AW21" s="75"/>
-      <c r="AX21" s="75"/>
-      <c r="AY21" s="75"/>
-      <c r="AZ21" s="75"/>
-      <c r="BA21" s="75"/>
-      <c r="BB21" s="75"/>
-      <c r="BC21" s="75"/>
-      <c r="BD21" s="75"/>
-      <c r="BE21" s="75"/>
-      <c r="BF21" s="75"/>
-      <c r="BG21" s="75"/>
-      <c r="BH21" s="75"/>
-      <c r="BI21" s="75"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
+      <c r="BD21" s="79"/>
+      <c r="BE21" s="79"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="79"/>
+      <c r="BH21" s="79"/>
+      <c r="BI21" s="79"/>
       <c r="BJ21" s="33"/>
       <c r="BK21" s="33"/>
       <c r="BL21" s="33"/>
       <c r="BM21" s="33"/>
       <c r="BN21" s="33"/>
       <c r="BO21" s="33"/>
-      <c r="BP21" s="83">
+      <c r="BP21" s="87">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -7793,38 +8023,38 @@
       <c r="BS21" s="33">
         <v>20.66</v>
       </c>
-      <c r="BT21" s="83">
+      <c r="BT21" s="87">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="BU21" s="89">
+      <c r="BU21" s="93">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="BV21" s="90">
-        <f>(BS21-BQ21)/(BQ21-BR21)</f>
+      <c r="BV21" s="94">
+        <f t="shared" si="17"/>
         <v>2.05325443786982</v>
       </c>
-      <c r="BW21" s="47">
+      <c r="BW21" s="49">
         <f t="shared" si="12"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="BX21" s="47">
-        <f>(BS21-BQ21)/BQ21</f>
+      <c r="BX21" s="49">
+        <f t="shared" si="18"/>
         <v>0.201861547411286</v>
       </c>
-      <c r="BY21" s="104">
+      <c r="BY21" s="108">
         <v>26.15</v>
       </c>
-      <c r="BZ21" s="105" t="s">
+      <c r="BZ21" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="CA21" s="105" t="s">
+      <c r="CA21" s="109" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" ht="13" spans="1:79">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="117" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="36">
@@ -7852,11 +8082,11 @@
       <c r="J22" s="30">
         <v>22.81</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="51">
         <f t="shared" si="1"/>
         <v>0.553557466770915</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="51">
         <f t="shared" si="2"/>
         <v>0.128890837352038</v>
       </c>
@@ -7884,23 +8114,23 @@
       <c r="X22" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="Y22" s="49">
+      <c r="Y22" s="51">
         <f t="shared" si="3"/>
         <v>0.275317843051293</v>
       </c>
-      <c r="Z22" s="49">
+      <c r="Z22" s="51">
         <f t="shared" si="4"/>
         <v>0.116049382716049</v>
       </c>
-      <c r="AA22" s="49">
+      <c r="AA22" s="51">
         <f t="shared" si="5"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="AB22" s="47" t="e">
-        <f>(R22-S22)/R22</f>
+      <c r="AB22" s="49" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="62"/>
+      <c r="AC22" s="66"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
         <v>97</v>
@@ -7908,35 +8138,35 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="30"/>
       <c r="AH22" s="30"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="67" t="s">
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71" t="s">
         <v>141</v>
       </c>
       <c r="AN22" s="30"/>
       <c r="AO22" s="30"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="62"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="62"/>
-      <c r="BG22" s="62"/>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="66"/>
+      <c r="BF22" s="66"/>
+      <c r="BG22" s="66"/>
+      <c r="BH22" s="66"/>
+      <c r="BI22" s="66"/>
       <c r="BJ22" s="30"/>
       <c r="BK22" s="30"/>
       <c r="BL22" s="30"/>
@@ -7947,7 +8177,7 @@
       <c r="BO22" s="30">
         <v>17.54</v>
       </c>
-      <c r="BP22" s="82">
+      <c r="BP22" s="86">
         <f t="shared" si="9"/>
         <v>3.78</v>
       </c>
@@ -7960,38 +8190,38 @@
       <c r="BS22" s="30">
         <v>23.43</v>
       </c>
-      <c r="BT22" s="82">
+      <c r="BT22" s="86">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="BU22" s="87">
+      <c r="BU22" s="91">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="BV22" s="88">
-        <f>(BS22-BQ22)/(BQ22-BR22)</f>
+      <c r="BV22" s="92">
+        <f t="shared" si="17"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="BW22" s="49">
+      <c r="BW22" s="51">
         <f t="shared" si="12"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="BX22" s="49">
-        <f>(BS22-BQ22)/BQ22</f>
+      <c r="BX22" s="51">
+        <f t="shared" si="18"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="BY22" s="103">
+      <c r="BY22" s="107">
         <v>13.79</v>
       </c>
-      <c r="BZ22" s="67" t="s">
+      <c r="BZ22" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="CA22" s="67" t="s">
+      <c r="CA22" s="71" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="25" spans="1:79">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="115" t="s">
         <v>174</v>
       </c>
       <c r="B23" s="26">
@@ -8019,11 +8249,11 @@
       <c r="J23" s="23">
         <v>11.18</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="47">
         <f t="shared" si="1"/>
         <v>0.866666666666667</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="47">
         <f t="shared" si="2"/>
         <v>0.148479427549195</v>
       </c>
@@ -8055,23 +8285,23 @@
       <c r="X23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Y23" s="45">
+      <c r="Y23" s="47">
         <f t="shared" si="3"/>
         <v>0.353309481216458</v>
       </c>
-      <c r="Z23" s="45">
+      <c r="Z23" s="47">
         <f t="shared" si="4"/>
         <v>0.249031007751938</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="47">
         <f t="shared" si="5"/>
         <v>0.138150903294368</v>
       </c>
-      <c r="AB23" s="47">
-        <f>(R23-S23)/R23</f>
+      <c r="AB23" s="49">
+        <f t="shared" si="16"/>
         <v>0.112214498510427</v>
       </c>
-      <c r="AC23" s="45"/>
+      <c r="AC23" s="47"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23" t="s">
         <v>90</v>
@@ -8079,78 +8309,122 @@
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66" t="s">
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="70" t="s">
         <v>176</v>
       </c>
       <c r="AN23" s="23"/>
       <c r="AO23" s="23"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="47"/>
+      <c r="BB23" s="47"/>
+      <c r="BC23" s="47"/>
+      <c r="BD23" s="47"/>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
       <c r="BJ23" s="23"/>
       <c r="BK23" s="23"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
       <c r="BO23" s="23"/>
-      <c r="BP23" s="23"/>
+      <c r="BP23" s="85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="BQ23" s="23"/>
       <c r="BR23" s="23"/>
       <c r="BS23" s="23"/>
-      <c r="BT23" s="23"/>
-      <c r="BU23" s="23"/>
-      <c r="BV23" s="23"/>
-      <c r="BW23" s="45"/>
-      <c r="BX23" s="45"/>
-      <c r="BY23" s="101"/>
-      <c r="BZ23" s="66" t="s">
+      <c r="BT23" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="23" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV23" s="90" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW23" s="47" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX23" s="51" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY23" s="105"/>
+      <c r="BZ23" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="CA23" s="66" t="s">
+      <c r="CA23" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" ht="13" spans="1:79">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="117" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="31">
         <v>44538</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="C24" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="30">
+        <v>15.56</v>
+      </c>
+      <c r="E24" s="30">
+        <v>17.84</v>
+      </c>
+      <c r="F24" s="30">
+        <v>24.67</v>
+      </c>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
+      <c r="H24" s="30">
+        <v>24.93</v>
+      </c>
+      <c r="I24" s="30">
+        <v>2.55</v>
+      </c>
+      <c r="J24" s="30">
+        <v>35</v>
+      </c>
+      <c r="K24" s="51">
+        <f t="shared" si="1"/>
+        <v>8.77647058823529</v>
+      </c>
+      <c r="L24" s="51">
+        <f t="shared" si="2"/>
+        <v>0.287714285714286</v>
+      </c>
+      <c r="M24" s="30">
+        <v>22.86</v>
+      </c>
+      <c r="N24" s="30">
+        <v>28.67</v>
+      </c>
+      <c r="O24" s="30">
+        <v>24.08</v>
+      </c>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
       <c r="R24" s="30"/>
@@ -8159,12 +8433,26 @@
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="62"/>
+      <c r="X24" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y24" s="58">
+        <f t="shared" si="3"/>
+        <v>0.346857142857143</v>
+      </c>
+      <c r="Z24" s="58">
+        <f t="shared" si="4"/>
+        <v>0.160097663062435</v>
+      </c>
+      <c r="AA24" s="51" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="50" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="66"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30"/>
       <c r="AF24" s="30"/>
@@ -8177,63 +8465,109 @@
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
       <c r="AO24" s="30"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="62"/>
-      <c r="AY24" s="62"/>
-      <c r="AZ24" s="62"/>
-      <c r="BA24" s="62"/>
-      <c r="BB24" s="62"/>
-      <c r="BC24" s="62"/>
-      <c r="BD24" s="62"/>
-      <c r="BE24" s="62"/>
-      <c r="BF24" s="62"/>
-      <c r="BG24" s="62"/>
-      <c r="BH24" s="62"/>
-      <c r="BI24" s="62"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="66"/>
+      <c r="BD24" s="66"/>
+      <c r="BE24" s="66"/>
+      <c r="BF24" s="66"/>
+      <c r="BG24" s="66"/>
+      <c r="BH24" s="66"/>
+      <c r="BI24" s="66"/>
       <c r="BJ24" s="30"/>
       <c r="BK24" s="30"/>
       <c r="BL24" s="30"/>
       <c r="BM24" s="30"/>
       <c r="BN24" s="30"/>
       <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
+      <c r="BP24" s="86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="BQ24" s="30"/>
       <c r="BR24" s="30"/>
       <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="62"/>
-      <c r="BX24" s="62"/>
-      <c r="BY24" s="103"/>
+      <c r="BT24" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="91" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV24" s="92" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW24" s="51" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX24" s="51" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY24" s="107"/>
       <c r="BZ24" s="30"/>
       <c r="CA24" s="30"/>
     </row>
     <row r="25" ht="13" spans="1:79">
-      <c r="A25" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="31">
+        <v>44539</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="30">
+        <v>175.79</v>
+      </c>
+      <c r="E25" s="30">
+        <v>198.7</v>
+      </c>
+      <c r="F25" s="30">
+        <v>267.26</v>
+      </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
+      <c r="H25" s="30">
+        <v>287.9</v>
+      </c>
+      <c r="I25" s="30">
+        <v>38.49</v>
+      </c>
+      <c r="J25" s="30">
+        <v>345.99</v>
+      </c>
+      <c r="K25" s="51">
+        <f t="shared" si="1"/>
+        <v>6.47986489997402</v>
+      </c>
+      <c r="L25" s="51">
+        <f t="shared" si="2"/>
+        <v>0.1678950258678</v>
+      </c>
+      <c r="M25" s="30">
+        <v>262.64</v>
+      </c>
+      <c r="N25" s="30">
+        <v>299</v>
+      </c>
+      <c r="O25" s="30">
+        <v>265.8</v>
+      </c>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
       <c r="R25" s="30"/>
@@ -8242,12 +8576,26 @@
       <c r="U25" s="30"/>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="62"/>
+      <c r="X25" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y25" s="58">
+        <f t="shared" si="3"/>
+        <v>0.240902916269256</v>
+      </c>
+      <c r="Z25" s="58">
+        <f t="shared" si="4"/>
+        <v>0.111036789297659</v>
+      </c>
+      <c r="AA25" s="51" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="50" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="66"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="30"/>
@@ -8260,77 +8608,141 @@
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
       <c r="AO25" s="30"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="62"/>
-      <c r="BA25" s="62"/>
-      <c r="BB25" s="62"/>
-      <c r="BC25" s="62"/>
-      <c r="BD25" s="62"/>
-      <c r="BE25" s="62"/>
-      <c r="BF25" s="62"/>
-      <c r="BG25" s="62"/>
-      <c r="BH25" s="62"/>
-      <c r="BI25" s="62"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="66"/>
+      <c r="BA25" s="66"/>
+      <c r="BB25" s="66"/>
+      <c r="BC25" s="66"/>
+      <c r="BD25" s="66"/>
+      <c r="BE25" s="66"/>
+      <c r="BF25" s="66"/>
+      <c r="BG25" s="66"/>
+      <c r="BH25" s="66"/>
+      <c r="BI25" s="66"/>
       <c r="BJ25" s="30"/>
       <c r="BK25" s="30"/>
       <c r="BL25" s="30"/>
       <c r="BM25" s="30"/>
       <c r="BN25" s="30"/>
       <c r="BO25" s="30"/>
-      <c r="BP25" s="30"/>
+      <c r="BP25" s="86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="BQ25" s="30"/>
       <c r="BR25" s="30"/>
       <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
-      <c r="BU25" s="30"/>
-      <c r="BV25" s="30"/>
-      <c r="BW25" s="62"/>
-      <c r="BX25" s="62"/>
-      <c r="BY25" s="103"/>
+      <c r="BT25" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BU25" s="91" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV25" s="92" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW25" s="51" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX25" s="51" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY25" s="107"/>
       <c r="BZ25" s="30"/>
       <c r="CA25" s="30"/>
     </row>
     <row r="26" ht="13" spans="1:79">
-      <c r="A26" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="31">
+        <v>44538</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="30">
+        <v>38.63</v>
+      </c>
+      <c r="E26" s="30">
+        <v>44.15</v>
+      </c>
+      <c r="F26" s="30">
+        <v>59.89</v>
+      </c>
       <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="H26" s="30">
+        <v>60.42</v>
+      </c>
+      <c r="I26" s="30">
+        <v>7.86</v>
+      </c>
+      <c r="J26" s="30">
+        <v>81.13</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>6.68702290076336</v>
+      </c>
+      <c r="L26" s="51">
+        <f t="shared" si="2"/>
+        <v>0.255269320843091</v>
+      </c>
+      <c r="M26" s="30">
+        <v>54.88</v>
+      </c>
+      <c r="N26" s="30">
+        <v>64.91</v>
+      </c>
+      <c r="O26" s="30">
+        <v>56.6</v>
+      </c>
+      <c r="P26" s="30">
+        <v>63.5</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>57.1</v>
+      </c>
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="62"/>
+      <c r="X26" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y26" s="58">
+        <f t="shared" si="3"/>
+        <v>0.323554788610871</v>
+      </c>
+      <c r="Z26" s="58">
+        <f t="shared" si="4"/>
+        <v>0.128023417038977</v>
+      </c>
+      <c r="AA26" s="51">
+        <f t="shared" si="5"/>
+        <v>0.100787401574803</v>
+      </c>
+      <c r="AB26" s="50" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="66"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
@@ -8340,80 +8752,162 @@
       <c r="AJ26" s="30"/>
       <c r="AK26" s="30"/>
       <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
+      <c r="AM26" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="AN26" s="30"/>
       <c r="AO26" s="30"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="62"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="66"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="66"/>
+      <c r="BC26" s="66"/>
+      <c r="BD26" s="66"/>
+      <c r="BE26" s="66"/>
+      <c r="BF26" s="66"/>
+      <c r="BG26" s="66"/>
+      <c r="BH26" s="66"/>
+      <c r="BI26" s="66"/>
       <c r="BJ26" s="30"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
       <c r="BM26" s="30"/>
-      <c r="BN26" s="30"/>
-      <c r="BO26" s="30"/>
-      <c r="BP26" s="30"/>
-      <c r="BQ26" s="30"/>
-      <c r="BR26" s="30"/>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
-      <c r="BU26" s="30"/>
-      <c r="BV26" s="30"/>
-      <c r="BW26" s="62"/>
-      <c r="BX26" s="62"/>
-      <c r="BY26" s="103"/>
-      <c r="BZ26" s="30"/>
+      <c r="BN26" s="30">
+        <v>72.71</v>
+      </c>
+      <c r="BO26" s="30">
+        <v>54.26</v>
+      </c>
+      <c r="BP26" s="86">
+        <f t="shared" si="9"/>
+        <v>18.45</v>
+      </c>
+      <c r="BQ26" s="30">
+        <v>63.5</v>
+      </c>
+      <c r="BR26" s="30">
+        <v>56.6</v>
+      </c>
+      <c r="BS26" s="30">
+        <v>81.91</v>
+      </c>
+      <c r="BT26" s="86">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="BU26" s="91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BV26" s="92">
+        <f t="shared" si="17"/>
+        <v>2.66811594202899</v>
+      </c>
+      <c r="BW26" s="51">
+        <f t="shared" si="12"/>
+        <v>0.108661417322835</v>
+      </c>
+      <c r="BX26" s="51">
+        <f t="shared" si="18"/>
+        <v>0.28992125984252</v>
+      </c>
+      <c r="BY26" s="107">
+        <v>190.51</v>
+      </c>
+      <c r="BZ26" s="71" t="s">
+        <v>93</v>
+      </c>
       <c r="CA26" s="30"/>
     </row>
     <row r="27" ht="13" spans="1:79">
-      <c r="A27" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="31">
+        <v>44538</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="30">
+        <v>78.97</v>
+      </c>
+      <c r="E27" s="30">
+        <v>79.84</v>
+      </c>
+      <c r="F27" s="30">
+        <v>81.17</v>
+      </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="H27" s="30">
+        <v>83.72</v>
+      </c>
+      <c r="I27" s="30">
+        <v>15.67</v>
+      </c>
+      <c r="J27" s="30">
+        <v>114.9</v>
+      </c>
+      <c r="K27" s="51">
+        <f t="shared" si="1"/>
+        <v>4.34269304403318</v>
+      </c>
+      <c r="L27" s="51">
+        <f t="shared" si="2"/>
+        <v>0.271366405570061</v>
+      </c>
+      <c r="M27" s="30">
+        <v>66.69</v>
+      </c>
+      <c r="N27" s="30">
+        <v>74.69</v>
+      </c>
+      <c r="O27" s="30">
+        <v>67.5</v>
+      </c>
+      <c r="P27" s="30">
+        <v>92.99</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>79.3</v>
+      </c>
+      <c r="R27" s="30">
+        <v>93.5</v>
+      </c>
+      <c r="S27" s="30">
+        <v>80.31</v>
+      </c>
       <c r="T27" s="30"/>
       <c r="U27" s="30"/>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="62"/>
+      <c r="Y27" s="58">
+        <f t="shared" si="3"/>
+        <v>0.419582245430809</v>
+      </c>
+      <c r="Z27" s="58">
+        <f t="shared" si="4"/>
+        <v>0.0962645601820859</v>
+      </c>
+      <c r="AA27" s="51">
+        <f t="shared" si="5"/>
+        <v>0.147220131196903</v>
+      </c>
+      <c r="AB27" s="50">
+        <f t="shared" si="16"/>
+        <v>0.141069518716578</v>
+      </c>
+      <c r="AC27" s="66"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="30"/>
@@ -8426,26 +8920,26 @@
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
       <c r="AO27" s="30"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="62"/>
-      <c r="BA27" s="62"/>
-      <c r="BB27" s="62"/>
-      <c r="BC27" s="62"/>
-      <c r="BD27" s="62"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="62"/>
-      <c r="BG27" s="62"/>
-      <c r="BH27" s="62"/>
-      <c r="BI27" s="62"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="66"/>
+      <c r="AW27" s="66"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="66"/>
+      <c r="AZ27" s="66"/>
+      <c r="BA27" s="66"/>
+      <c r="BB27" s="66"/>
+      <c r="BC27" s="66"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="66"/>
+      <c r="BF27" s="66"/>
+      <c r="BG27" s="66"/>
+      <c r="BH27" s="66"/>
+      <c r="BI27" s="66"/>
       <c r="BJ27" s="30"/>
       <c r="BK27" s="30"/>
       <c r="BL27" s="30"/>
@@ -8456,197 +8950,334 @@
       <c r="BQ27" s="30"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="30"/>
+      <c r="BT27" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="BU27" s="30"/>
-      <c r="BV27" s="30"/>
-      <c r="BW27" s="62"/>
-      <c r="BX27" s="62"/>
-      <c r="BY27" s="103"/>
+      <c r="BV27" s="92" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW27" s="51" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BX27" s="66"/>
+      <c r="BY27" s="107"/>
       <c r="BZ27" s="30"/>
       <c r="CA27" s="30"/>
     </row>
-    <row r="28" ht="13" spans="1:79">
-      <c r="A28" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="62"/>
-      <c r="AZ28" s="62"/>
-      <c r="BA28" s="62"/>
-      <c r="BB28" s="62"/>
-      <c r="BC28" s="62"/>
-      <c r="BD28" s="62"/>
-      <c r="BE28" s="62"/>
-      <c r="BF28" s="62"/>
-      <c r="BG28" s="62"/>
-      <c r="BH28" s="62"/>
-      <c r="BI28" s="62"/>
-      <c r="BJ28" s="30"/>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="30"/>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="30"/>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="30"/>
-      <c r="BW28" s="62"/>
-      <c r="BX28" s="62"/>
-      <c r="BY28" s="103"/>
-      <c r="BZ28" s="30"/>
-      <c r="CA28" s="30"/>
-    </row>
-    <row r="29" ht="13" spans="1:79">
-      <c r="A29" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="62"/>
-      <c r="BA29" s="62"/>
-      <c r="BB29" s="62"/>
-      <c r="BC29" s="62"/>
-      <c r="BD29" s="62"/>
-      <c r="BE29" s="62"/>
-      <c r="BF29" s="62"/>
-      <c r="BG29" s="62"/>
-      <c r="BH29" s="62"/>
-      <c r="BI29" s="62"/>
-      <c r="BJ29" s="30"/>
-      <c r="BK29" s="30"/>
-      <c r="BL29" s="30"/>
-      <c r="BM29" s="30"/>
-      <c r="BN29" s="30"/>
-      <c r="BO29" s="30"/>
-      <c r="BP29" s="30"/>
-      <c r="BQ29" s="30"/>
-      <c r="BR29" s="30"/>
-      <c r="BS29" s="30"/>
-      <c r="BT29" s="30"/>
-      <c r="BU29" s="30"/>
-      <c r="BV29" s="30"/>
-      <c r="BW29" s="62"/>
-      <c r="BX29" s="62"/>
-      <c r="BY29" s="103"/>
-      <c r="BZ29" s="30"/>
-      <c r="CA29" s="30"/>
+    <row r="28" s="3" customFormat="1" ht="25" spans="1:79">
+      <c r="A28" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="26">
+        <v>44538</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="23">
+        <v>26.22</v>
+      </c>
+      <c r="E28" s="23">
+        <v>29.2</v>
+      </c>
+      <c r="F28" s="23">
+        <v>43.92</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
+        <v>53.52</v>
+      </c>
+      <c r="I28" s="23">
+        <v>10.28</v>
+      </c>
+      <c r="J28" s="23">
+        <v>61.58</v>
+      </c>
+      <c r="K28" s="47">
+        <f t="shared" si="1"/>
+        <v>4.20622568093385</v>
+      </c>
+      <c r="L28" s="47">
+        <f t="shared" si="2"/>
+        <v>0.130886651510231</v>
+      </c>
+      <c r="M28" s="23">
+        <v>47.97</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y28" s="59">
+        <f t="shared" si="3"/>
+        <v>0.221013316011692</v>
+      </c>
+      <c r="Z28" s="59" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="47"/>
+      <c r="BE28" s="47"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="47"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="23"/>
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="23"/>
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23">
+        <v>61.58</v>
+      </c>
+      <c r="BR28" s="23">
+        <v>47.97</v>
+      </c>
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="85">
+        <f t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="90">
+        <f t="shared" si="17"/>
+        <v>-4.52461425422483</v>
+      </c>
+      <c r="BW28" s="47">
+        <f t="shared" si="12"/>
+        <v>0.221013316011692</v>
+      </c>
+      <c r="BX28" s="47"/>
+      <c r="BY28" s="105"/>
+      <c r="BZ28" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA28" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="25" spans="1:79">
+      <c r="A29" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="26">
+        <v>44538</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="23">
+        <v>14.33</v>
+      </c>
+      <c r="E29" s="23">
+        <v>14.85</v>
+      </c>
+      <c r="F29" s="23">
+        <v>18.11</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
+        <v>22.36</v>
+      </c>
+      <c r="I29" s="23">
+        <v>10.99</v>
+      </c>
+      <c r="J29" s="23">
+        <v>25.66</v>
+      </c>
+      <c r="K29" s="47">
+        <f t="shared" si="1"/>
+        <v>1.03457688808007</v>
+      </c>
+      <c r="L29" s="47">
+        <f t="shared" si="2"/>
+        <v>0.128604832424006</v>
+      </c>
+      <c r="M29" s="23">
+        <v>20.89</v>
+      </c>
+      <c r="N29" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="O29" s="23">
+        <v>21.24</v>
+      </c>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y29" s="59">
+        <f t="shared" si="3"/>
+        <v>0.1858924395947</v>
+      </c>
+      <c r="Z29" s="59">
+        <f t="shared" si="4"/>
+        <v>0.160474308300395</v>
+      </c>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="47"/>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="47"/>
+      <c r="BC29" s="47"/>
+      <c r="BD29" s="47"/>
+      <c r="BE29" s="47"/>
+      <c r="BF29" s="47"/>
+      <c r="BG29" s="47"/>
+      <c r="BH29" s="47"/>
+      <c r="BI29" s="47"/>
+      <c r="BJ29" s="23"/>
+      <c r="BK29" s="23"/>
+      <c r="BL29" s="23"/>
+      <c r="BM29" s="23"/>
+      <c r="BN29" s="23"/>
+      <c r="BO29" s="23"/>
+      <c r="BP29" s="23"/>
+      <c r="BQ29" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="BR29" s="23">
+        <v>21.24</v>
+      </c>
+      <c r="BS29" s="23">
+        <v>22.55</v>
+      </c>
+      <c r="BT29" s="85">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="BU29" s="23"/>
+      <c r="BV29" s="90">
+        <f t="shared" si="17"/>
+        <v>-0.677339901477832</v>
+      </c>
+      <c r="BW29" s="47">
+        <f t="shared" si="12"/>
+        <v>0.160474308300395</v>
+      </c>
+      <c r="BX29" s="47"/>
+      <c r="BY29" s="105"/>
+      <c r="BZ29" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA29" s="70" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" ht="13" spans="1:79">
-      <c r="A30" s="113" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="36">
+        <v>44538</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="30">
+        <v>15.34</v>
+      </c>
+      <c r="E30" s="30">
+        <v>16.94</v>
+      </c>
+      <c r="F30" s="30">
+        <v>22.72</v>
+      </c>
       <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="H30" s="30">
+        <v>26.06</v>
+      </c>
+      <c r="I30" s="30">
+        <v>6.68</v>
+      </c>
+      <c r="J30" s="30">
+        <v>31.05</v>
+      </c>
+      <c r="K30" s="51">
+        <f t="shared" si="1"/>
+        <v>2.90119760479042</v>
+      </c>
+      <c r="L30" s="51">
+        <f t="shared" si="2"/>
+        <v>0.160708534621578</v>
+      </c>
+      <c r="M30" s="30">
+        <v>21.3</v>
+      </c>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
@@ -8657,12 +9288,17 @@
       <c r="U30" s="30"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
+      <c r="X30" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y30" s="58">
+        <f t="shared" si="3"/>
+        <v>0.314009661835749</v>
+      </c>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
-      <c r="AC30" s="62"/>
+      <c r="AC30" s="66"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="30"/>
@@ -8675,26 +9311,26 @@
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
       <c r="AO30" s="30"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BB30" s="62"/>
-      <c r="BC30" s="62"/>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
-      <c r="BF30" s="62"/>
-      <c r="BG30" s="62"/>
-      <c r="BH30" s="62"/>
-      <c r="BI30" s="62"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="66"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="66"/>
+      <c r="BD30" s="66"/>
+      <c r="BE30" s="66"/>
+      <c r="BF30" s="66"/>
+      <c r="BG30" s="66"/>
+      <c r="BH30" s="66"/>
+      <c r="BI30" s="66"/>
       <c r="BJ30" s="30"/>
       <c r="BK30" s="30"/>
       <c r="BL30" s="30"/>
@@ -8708,15 +9344,15 @@
       <c r="BT30" s="30"/>
       <c r="BU30" s="30"/>
       <c r="BV30" s="30"/>
-      <c r="BW30" s="62"/>
-      <c r="BX30" s="62"/>
-      <c r="BY30" s="103"/>
+      <c r="BW30" s="66"/>
+      <c r="BX30" s="66"/>
+      <c r="BY30" s="107"/>
       <c r="BZ30" s="30"/>
       <c r="CA30" s="30"/>
     </row>
     <row r="31" ht="13" spans="1:79">
-      <c r="A31" s="113" t="s">
-        <v>185</v>
+      <c r="A31" s="117" t="s">
+        <v>195</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -8745,7 +9381,7 @@
       <c r="Z31" s="30"/>
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
-      <c r="AC31" s="62"/>
+      <c r="AC31" s="66"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
@@ -8758,26 +9394,26 @@
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
       <c r="AO31" s="30"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="62"/>
-      <c r="BA31" s="62"/>
-      <c r="BB31" s="62"/>
-      <c r="BC31" s="62"/>
-      <c r="BD31" s="62"/>
-      <c r="BE31" s="62"/>
-      <c r="BF31" s="62"/>
-      <c r="BG31" s="62"/>
-      <c r="BH31" s="62"/>
-      <c r="BI31" s="62"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="66"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="66"/>
+      <c r="BF31" s="66"/>
+      <c r="BG31" s="66"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="66"/>
       <c r="BJ31" s="30"/>
       <c r="BK31" s="30"/>
       <c r="BL31" s="30"/>
@@ -8791,15 +9427,15 @@
       <c r="BT31" s="30"/>
       <c r="BU31" s="30"/>
       <c r="BV31" s="30"/>
-      <c r="BW31" s="62"/>
-      <c r="BX31" s="62"/>
-      <c r="BY31" s="103"/>
+      <c r="BW31" s="66"/>
+      <c r="BX31" s="66"/>
+      <c r="BY31" s="107"/>
       <c r="BZ31" s="30"/>
       <c r="CA31" s="30"/>
     </row>
     <row r="32" ht="13" spans="1:79">
-      <c r="A32" s="113" t="s">
-        <v>186</v>
+      <c r="A32" s="117" t="s">
+        <v>196</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -8828,7 +9464,7 @@
       <c r="Z32" s="30"/>
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
-      <c r="AC32" s="62"/>
+      <c r="AC32" s="66"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30"/>
       <c r="AF32" s="30"/>
@@ -8841,26 +9477,26 @@
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
       <c r="AO32" s="30"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="62"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="62"/>
-      <c r="BA32" s="62"/>
-      <c r="BB32" s="62"/>
-      <c r="BC32" s="62"/>
-      <c r="BD32" s="62"/>
-      <c r="BE32" s="62"/>
-      <c r="BF32" s="62"/>
-      <c r="BG32" s="62"/>
-      <c r="BH32" s="62"/>
-      <c r="BI32" s="62"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="66"/>
+      <c r="BA32" s="66"/>
+      <c r="BB32" s="66"/>
+      <c r="BC32" s="66"/>
+      <c r="BD32" s="66"/>
+      <c r="BE32" s="66"/>
+      <c r="BF32" s="66"/>
+      <c r="BG32" s="66"/>
+      <c r="BH32" s="66"/>
+      <c r="BI32" s="66"/>
       <c r="BJ32" s="30"/>
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
@@ -8874,15 +9510,15 @@
       <c r="BT32" s="30"/>
       <c r="BU32" s="30"/>
       <c r="BV32" s="30"/>
-      <c r="BW32" s="62"/>
-      <c r="BX32" s="62"/>
-      <c r="BY32" s="103"/>
+      <c r="BW32" s="66"/>
+      <c r="BX32" s="66"/>
+      <c r="BY32" s="107"/>
       <c r="BZ32" s="30"/>
       <c r="CA32" s="30"/>
     </row>
     <row r="33" ht="13" spans="1:79">
-      <c r="A33" s="113" t="s">
-        <v>187</v>
+      <c r="A33" s="117" t="s">
+        <v>197</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -8911,7 +9547,7 @@
       <c r="Z33" s="30"/>
       <c r="AA33" s="30"/>
       <c r="AB33" s="30"/>
-      <c r="AC33" s="62"/>
+      <c r="AC33" s="66"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30"/>
       <c r="AF33" s="30"/>
@@ -8924,26 +9560,26 @@
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
       <c r="AO33" s="30"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="62"/>
-      <c r="AY33" s="62"/>
-      <c r="AZ33" s="62"/>
-      <c r="BA33" s="62"/>
-      <c r="BB33" s="62"/>
-      <c r="BC33" s="62"/>
-      <c r="BD33" s="62"/>
-      <c r="BE33" s="62"/>
-      <c r="BF33" s="62"/>
-      <c r="BG33" s="62"/>
-      <c r="BH33" s="62"/>
-      <c r="BI33" s="62"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="66"/>
+      <c r="BD33" s="66"/>
+      <c r="BE33" s="66"/>
+      <c r="BF33" s="66"/>
+      <c r="BG33" s="66"/>
+      <c r="BH33" s="66"/>
+      <c r="BI33" s="66"/>
       <c r="BJ33" s="30"/>
       <c r="BK33" s="30"/>
       <c r="BL33" s="30"/>
@@ -8957,15 +9593,15 @@
       <c r="BT33" s="30"/>
       <c r="BU33" s="30"/>
       <c r="BV33" s="30"/>
-      <c r="BW33" s="62"/>
-      <c r="BX33" s="62"/>
-      <c r="BY33" s="103"/>
+      <c r="BW33" s="66"/>
+      <c r="BX33" s="66"/>
+      <c r="BY33" s="107"/>
       <c r="BZ33" s="30"/>
       <c r="CA33" s="30"/>
     </row>
     <row r="34" ht="13" spans="1:79">
-      <c r="A34" s="113" t="s">
-        <v>188</v>
+      <c r="A34" s="117" t="s">
+        <v>198</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -8994,7 +9630,7 @@
       <c r="Z34" s="30"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
-      <c r="AC34" s="62"/>
+      <c r="AC34" s="66"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30"/>
       <c r="AF34" s="30"/>
@@ -9007,26 +9643,26 @@
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
       <c r="AO34" s="30"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="62"/>
-      <c r="BA34" s="62"/>
-      <c r="BB34" s="62"/>
-      <c r="BC34" s="62"/>
-      <c r="BD34" s="62"/>
-      <c r="BE34" s="62"/>
-      <c r="BF34" s="62"/>
-      <c r="BG34" s="62"/>
-      <c r="BH34" s="62"/>
-      <c r="BI34" s="62"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="66"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="66"/>
+      <c r="BA34" s="66"/>
+      <c r="BB34" s="66"/>
+      <c r="BC34" s="66"/>
+      <c r="BD34" s="66"/>
+      <c r="BE34" s="66"/>
+      <c r="BF34" s="66"/>
+      <c r="BG34" s="66"/>
+      <c r="BH34" s="66"/>
+      <c r="BI34" s="66"/>
       <c r="BJ34" s="30"/>
       <c r="BK34" s="30"/>
       <c r="BL34" s="30"/>
@@ -9040,15 +9676,15 @@
       <c r="BT34" s="30"/>
       <c r="BU34" s="30"/>
       <c r="BV34" s="30"/>
-      <c r="BW34" s="62"/>
-      <c r="BX34" s="62"/>
-      <c r="BY34" s="103"/>
+      <c r="BW34" s="66"/>
+      <c r="BX34" s="66"/>
+      <c r="BY34" s="107"/>
       <c r="BZ34" s="30"/>
       <c r="CA34" s="30"/>
     </row>
     <row r="35" ht="13" spans="1:79">
-      <c r="A35" s="113" t="s">
-        <v>189</v>
+      <c r="A35" s="117" t="s">
+        <v>199</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -9077,7 +9713,7 @@
       <c r="Z35" s="30"/>
       <c r="AA35" s="30"/>
       <c r="AB35" s="30"/>
-      <c r="AC35" s="62"/>
+      <c r="AC35" s="66"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
@@ -9090,26 +9726,26 @@
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
       <c r="AO35" s="30"/>
-      <c r="AP35" s="62"/>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="62"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="62"/>
-      <c r="AY35" s="62"/>
-      <c r="AZ35" s="62"/>
-      <c r="BA35" s="62"/>
-      <c r="BB35" s="62"/>
-      <c r="BC35" s="62"/>
-      <c r="BD35" s="62"/>
-      <c r="BE35" s="62"/>
-      <c r="BF35" s="62"/>
-      <c r="BG35" s="62"/>
-      <c r="BH35" s="62"/>
-      <c r="BI35" s="62"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="66"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="66"/>
+      <c r="BC35" s="66"/>
+      <c r="BD35" s="66"/>
+      <c r="BE35" s="66"/>
+      <c r="BF35" s="66"/>
+      <c r="BG35" s="66"/>
+      <c r="BH35" s="66"/>
+      <c r="BI35" s="66"/>
       <c r="BJ35" s="30"/>
       <c r="BK35" s="30"/>
       <c r="BL35" s="30"/>
@@ -9123,15 +9759,15 @@
       <c r="BT35" s="30"/>
       <c r="BU35" s="30"/>
       <c r="BV35" s="30"/>
-      <c r="BW35" s="62"/>
-      <c r="BX35" s="62"/>
-      <c r="BY35" s="103"/>
+      <c r="BW35" s="66"/>
+      <c r="BX35" s="66"/>
+      <c r="BY35" s="107"/>
       <c r="BZ35" s="30"/>
       <c r="CA35" s="30"/>
     </row>
     <row r="36" ht="13" spans="1:79">
-      <c r="A36" s="113" t="s">
-        <v>190</v>
+      <c r="A36" s="117" t="s">
+        <v>200</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -9160,7 +9796,7 @@
       <c r="Z36" s="30"/>
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
-      <c r="AC36" s="62"/>
+      <c r="AC36" s="66"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30"/>
       <c r="AF36" s="30"/>
@@ -9173,26 +9809,26 @@
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
       <c r="AO36" s="30"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="62"/>
-      <c r="BB36" s="62"/>
-      <c r="BC36" s="62"/>
-      <c r="BD36" s="62"/>
-      <c r="BE36" s="62"/>
-      <c r="BF36" s="62"/>
-      <c r="BG36" s="62"/>
-      <c r="BH36" s="62"/>
-      <c r="BI36" s="62"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="66"/>
+      <c r="BC36" s="66"/>
+      <c r="BD36" s="66"/>
+      <c r="BE36" s="66"/>
+      <c r="BF36" s="66"/>
+      <c r="BG36" s="66"/>
+      <c r="BH36" s="66"/>
+      <c r="BI36" s="66"/>
       <c r="BJ36" s="30"/>
       <c r="BK36" s="30"/>
       <c r="BL36" s="30"/>
@@ -9206,15 +9842,15 @@
       <c r="BT36" s="30"/>
       <c r="BU36" s="30"/>
       <c r="BV36" s="30"/>
-      <c r="BW36" s="62"/>
-      <c r="BX36" s="62"/>
-      <c r="BY36" s="103"/>
+      <c r="BW36" s="66"/>
+      <c r="BX36" s="66"/>
+      <c r="BY36" s="107"/>
       <c r="BZ36" s="30"/>
       <c r="CA36" s="30"/>
     </row>
     <row r="37" ht="13" spans="1:79">
-      <c r="A37" s="113" t="s">
-        <v>191</v>
+      <c r="A37" s="117" t="s">
+        <v>201</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -9243,7 +9879,7 @@
       <c r="Z37" s="30"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
-      <c r="AC37" s="62"/>
+      <c r="AC37" s="66"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -9256,26 +9892,26 @@
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
       <c r="AO37" s="30"/>
-      <c r="AP37" s="62"/>
-      <c r="AQ37" s="62"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="62"/>
-      <c r="AU37" s="62"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="62"/>
-      <c r="AX37" s="62"/>
-      <c r="AY37" s="62"/>
-      <c r="AZ37" s="62"/>
-      <c r="BA37" s="62"/>
-      <c r="BB37" s="62"/>
-      <c r="BC37" s="62"/>
-      <c r="BD37" s="62"/>
-      <c r="BE37" s="62"/>
-      <c r="BF37" s="62"/>
-      <c r="BG37" s="62"/>
-      <c r="BH37" s="62"/>
-      <c r="BI37" s="62"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="66"/>
+      <c r="AW37" s="66"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="66"/>
+      <c r="BA37" s="66"/>
+      <c r="BB37" s="66"/>
+      <c r="BC37" s="66"/>
+      <c r="BD37" s="66"/>
+      <c r="BE37" s="66"/>
+      <c r="BF37" s="66"/>
+      <c r="BG37" s="66"/>
+      <c r="BH37" s="66"/>
+      <c r="BI37" s="66"/>
       <c r="BJ37" s="30"/>
       <c r="BK37" s="30"/>
       <c r="BL37" s="30"/>
@@ -9289,15 +9925,15 @@
       <c r="BT37" s="30"/>
       <c r="BU37" s="30"/>
       <c r="BV37" s="30"/>
-      <c r="BW37" s="62"/>
-      <c r="BX37" s="62"/>
-      <c r="BY37" s="103"/>
+      <c r="BW37" s="66"/>
+      <c r="BX37" s="66"/>
+      <c r="BY37" s="107"/>
       <c r="BZ37" s="30"/>
       <c r="CA37" s="30"/>
     </row>
     <row r="38" ht="13" spans="1:79">
-      <c r="A38" s="113" t="s">
-        <v>192</v>
+      <c r="A38" s="117" t="s">
+        <v>202</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9326,7 +9962,7 @@
       <c r="Z38" s="30"/>
       <c r="AA38" s="30"/>
       <c r="AB38" s="30"/>
-      <c r="AC38" s="62"/>
+      <c r="AC38" s="66"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -9339,26 +9975,26 @@
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
       <c r="AO38" s="30"/>
-      <c r="AP38" s="62"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="62"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="62"/>
-      <c r="AY38" s="62"/>
-      <c r="AZ38" s="62"/>
-      <c r="BA38" s="62"/>
-      <c r="BB38" s="62"/>
-      <c r="BC38" s="62"/>
-      <c r="BD38" s="62"/>
-      <c r="BE38" s="62"/>
-      <c r="BF38" s="62"/>
-      <c r="BG38" s="62"/>
-      <c r="BH38" s="62"/>
-      <c r="BI38" s="62"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="66"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="66"/>
+      <c r="BC38" s="66"/>
+      <c r="BD38" s="66"/>
+      <c r="BE38" s="66"/>
+      <c r="BF38" s="66"/>
+      <c r="BG38" s="66"/>
+      <c r="BH38" s="66"/>
+      <c r="BI38" s="66"/>
       <c r="BJ38" s="30"/>
       <c r="BK38" s="30"/>
       <c r="BL38" s="30"/>
@@ -9372,15 +10008,15 @@
       <c r="BT38" s="30"/>
       <c r="BU38" s="30"/>
       <c r="BV38" s="30"/>
-      <c r="BW38" s="62"/>
-      <c r="BX38" s="62"/>
-      <c r="BY38" s="103"/>
+      <c r="BW38" s="66"/>
+      <c r="BX38" s="66"/>
+      <c r="BY38" s="107"/>
       <c r="BZ38" s="30"/>
       <c r="CA38" s="30"/>
     </row>
     <row r="39" ht="13" spans="1:79">
-      <c r="A39" s="113" t="s">
-        <v>193</v>
+      <c r="A39" s="117" t="s">
+        <v>203</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -9409,7 +10045,7 @@
       <c r="Z39" s="30"/>
       <c r="AA39" s="30"/>
       <c r="AB39" s="30"/>
-      <c r="AC39" s="62"/>
+      <c r="AC39" s="66"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30"/>
       <c r="AF39" s="30"/>
@@ -9422,26 +10058,26 @@
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
       <c r="AO39" s="30"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="62"/>
-      <c r="BB39" s="62"/>
-      <c r="BC39" s="62"/>
-      <c r="BD39" s="62"/>
-      <c r="BE39" s="62"/>
-      <c r="BF39" s="62"/>
-      <c r="BG39" s="62"/>
-      <c r="BH39" s="62"/>
-      <c r="BI39" s="62"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
+      <c r="BA39" s="66"/>
+      <c r="BB39" s="66"/>
+      <c r="BC39" s="66"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="66"/>
       <c r="BJ39" s="30"/>
       <c r="BK39" s="30"/>
       <c r="BL39" s="30"/>
@@ -9455,15 +10091,15 @@
       <c r="BT39" s="30"/>
       <c r="BU39" s="30"/>
       <c r="BV39" s="30"/>
-      <c r="BW39" s="62"/>
-      <c r="BX39" s="62"/>
-      <c r="BY39" s="103"/>
+      <c r="BW39" s="66"/>
+      <c r="BX39" s="66"/>
+      <c r="BY39" s="107"/>
       <c r="BZ39" s="30"/>
       <c r="CA39" s="30"/>
     </row>
     <row r="40" ht="13" spans="1:79">
-      <c r="A40" s="113" t="s">
-        <v>194</v>
+      <c r="A40" s="117" t="s">
+        <v>204</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -9492,7 +10128,7 @@
       <c r="Z40" s="30"/>
       <c r="AA40" s="30"/>
       <c r="AB40" s="30"/>
-      <c r="AC40" s="62"/>
+      <c r="AC40" s="66"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30"/>
       <c r="AF40" s="30"/>
@@ -9505,26 +10141,26 @@
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
       <c r="AO40" s="30"/>
-      <c r="AP40" s="62"/>
-      <c r="AQ40" s="62"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="62"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="62"/>
-      <c r="AX40" s="62"/>
-      <c r="AY40" s="62"/>
-      <c r="AZ40" s="62"/>
-      <c r="BA40" s="62"/>
-      <c r="BB40" s="62"/>
-      <c r="BC40" s="62"/>
-      <c r="BD40" s="62"/>
-      <c r="BE40" s="62"/>
-      <c r="BF40" s="62"/>
-      <c r="BG40" s="62"/>
-      <c r="BH40" s="62"/>
-      <c r="BI40" s="62"/>
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="66"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="66"/>
+      <c r="AT40" s="66"/>
+      <c r="AU40" s="66"/>
+      <c r="AV40" s="66"/>
+      <c r="AW40" s="66"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="66"/>
+      <c r="AZ40" s="66"/>
+      <c r="BA40" s="66"/>
+      <c r="BB40" s="66"/>
+      <c r="BC40" s="66"/>
+      <c r="BD40" s="66"/>
+      <c r="BE40" s="66"/>
+      <c r="BF40" s="66"/>
+      <c r="BG40" s="66"/>
+      <c r="BH40" s="66"/>
+      <c r="BI40" s="66"/>
       <c r="BJ40" s="30"/>
       <c r="BK40" s="30"/>
       <c r="BL40" s="30"/>
@@ -9538,15 +10174,15 @@
       <c r="BT40" s="30"/>
       <c r="BU40" s="30"/>
       <c r="BV40" s="30"/>
-      <c r="BW40" s="62"/>
-      <c r="BX40" s="62"/>
-      <c r="BY40" s="103"/>
+      <c r="BW40" s="66"/>
+      <c r="BX40" s="66"/>
+      <c r="BY40" s="107"/>
       <c r="BZ40" s="30"/>
       <c r="CA40" s="30"/>
     </row>
     <row r="41" ht="13" spans="1:79">
-      <c r="A41" s="113" t="s">
-        <v>195</v>
+      <c r="A41" s="117" t="s">
+        <v>205</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -9575,7 +10211,7 @@
       <c r="Z41" s="30"/>
       <c r="AA41" s="30"/>
       <c r="AB41" s="30"/>
-      <c r="AC41" s="62"/>
+      <c r="AC41" s="66"/>
       <c r="AD41" s="30"/>
       <c r="AE41" s="30"/>
       <c r="AF41" s="30"/>
@@ -9588,26 +10224,26 @@
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
       <c r="AO41" s="30"/>
-      <c r="AP41" s="62"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="62"/>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="62"/>
-      <c r="BA41" s="62"/>
-      <c r="BB41" s="62"/>
-      <c r="BC41" s="62"/>
-      <c r="BD41" s="62"/>
-      <c r="BE41" s="62"/>
-      <c r="BF41" s="62"/>
-      <c r="BG41" s="62"/>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="66"/>
+      <c r="BD41" s="66"/>
+      <c r="BE41" s="66"/>
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="66"/>
       <c r="BJ41" s="30"/>
       <c r="BK41" s="30"/>
       <c r="BL41" s="30"/>
@@ -9621,15 +10257,15 @@
       <c r="BT41" s="30"/>
       <c r="BU41" s="30"/>
       <c r="BV41" s="30"/>
-      <c r="BW41" s="62"/>
-      <c r="BX41" s="62"/>
-      <c r="BY41" s="103"/>
+      <c r="BW41" s="66"/>
+      <c r="BX41" s="66"/>
+      <c r="BY41" s="107"/>
       <c r="BZ41" s="30"/>
       <c r="CA41" s="30"/>
     </row>
     <row r="42" ht="13" spans="1:79">
-      <c r="A42" s="113" t="s">
-        <v>196</v>
+      <c r="A42" s="117" t="s">
+        <v>206</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -9658,7 +10294,7 @@
       <c r="Z42" s="30"/>
       <c r="AA42" s="30"/>
       <c r="AB42" s="30"/>
-      <c r="AC42" s="62"/>
+      <c r="AC42" s="66"/>
       <c r="AD42" s="30"/>
       <c r="AE42" s="30"/>
       <c r="AF42" s="30"/>
@@ -9671,26 +10307,26 @@
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
       <c r="AO42" s="30"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
-      <c r="BA42" s="62"/>
-      <c r="BB42" s="62"/>
-      <c r="BC42" s="62"/>
-      <c r="BD42" s="62"/>
-      <c r="BE42" s="62"/>
-      <c r="BF42" s="62"/>
-      <c r="BG42" s="62"/>
-      <c r="BH42" s="62"/>
-      <c r="BI42" s="62"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="66"/>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="66"/>
+      <c r="AV42" s="66"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="66"/>
+      <c r="BC42" s="66"/>
+      <c r="BD42" s="66"/>
+      <c r="BE42" s="66"/>
+      <c r="BF42" s="66"/>
+      <c r="BG42" s="66"/>
+      <c r="BH42" s="66"/>
+      <c r="BI42" s="66"/>
       <c r="BJ42" s="30"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
@@ -9704,15 +10340,15 @@
       <c r="BT42" s="30"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="30"/>
-      <c r="BW42" s="62"/>
-      <c r="BX42" s="62"/>
-      <c r="BY42" s="103"/>
+      <c r="BW42" s="66"/>
+      <c r="BX42" s="66"/>
+      <c r="BY42" s="107"/>
       <c r="BZ42" s="30"/>
       <c r="CA42" s="30"/>
     </row>
     <row r="43" ht="13" spans="1:79">
-      <c r="A43" s="113" t="s">
-        <v>197</v>
+      <c r="A43" s="117" t="s">
+        <v>207</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -9741,7 +10377,7 @@
       <c r="Z43" s="30"/>
       <c r="AA43" s="30"/>
       <c r="AB43" s="30"/>
-      <c r="AC43" s="62"/>
+      <c r="AC43" s="66"/>
       <c r="AD43" s="30"/>
       <c r="AE43" s="30"/>
       <c r="AF43" s="30"/>
@@ -9754,26 +10390,26 @@
       <c r="AM43" s="30"/>
       <c r="AN43" s="30"/>
       <c r="AO43" s="30"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
-      <c r="BA43" s="62"/>
-      <c r="BB43" s="62"/>
-      <c r="BC43" s="62"/>
-      <c r="BD43" s="62"/>
-      <c r="BE43" s="62"/>
-      <c r="BF43" s="62"/>
-      <c r="BG43" s="62"/>
-      <c r="BH43" s="62"/>
-      <c r="BI43" s="62"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="66"/>
+      <c r="AZ43" s="66"/>
+      <c r="BA43" s="66"/>
+      <c r="BB43" s="66"/>
+      <c r="BC43" s="66"/>
+      <c r="BD43" s="66"/>
+      <c r="BE43" s="66"/>
+      <c r="BF43" s="66"/>
+      <c r="BG43" s="66"/>
+      <c r="BH43" s="66"/>
+      <c r="BI43" s="66"/>
       <c r="BJ43" s="30"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
@@ -9787,15 +10423,15 @@
       <c r="BT43" s="30"/>
       <c r="BU43" s="30"/>
       <c r="BV43" s="30"/>
-      <c r="BW43" s="62"/>
-      <c r="BX43" s="62"/>
-      <c r="BY43" s="103"/>
+      <c r="BW43" s="66"/>
+      <c r="BX43" s="66"/>
+      <c r="BY43" s="107"/>
       <c r="BZ43" s="30"/>
       <c r="CA43" s="30"/>
     </row>
     <row r="44" ht="13" spans="1:79">
-      <c r="A44" s="113" t="s">
-        <v>198</v>
+      <c r="A44" s="117" t="s">
+        <v>208</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -9824,7 +10460,7 @@
       <c r="Z44" s="30"/>
       <c r="AA44" s="30"/>
       <c r="AB44" s="30"/>
-      <c r="AC44" s="62"/>
+      <c r="AC44" s="66"/>
       <c r="AD44" s="30"/>
       <c r="AE44" s="30"/>
       <c r="AF44" s="30"/>
@@ -9837,26 +10473,26 @@
       <c r="AM44" s="30"/>
       <c r="AN44" s="30"/>
       <c r="AO44" s="30"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
-      <c r="BA44" s="62"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="62"/>
-      <c r="BD44" s="62"/>
-      <c r="BE44" s="62"/>
-      <c r="BF44" s="62"/>
-      <c r="BG44" s="62"/>
-      <c r="BH44" s="62"/>
-      <c r="BI44" s="62"/>
+      <c r="AP44" s="66"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="66"/>
+      <c r="AS44" s="66"/>
+      <c r="AT44" s="66"/>
+      <c r="AU44" s="66"/>
+      <c r="AV44" s="66"/>
+      <c r="AW44" s="66"/>
+      <c r="AX44" s="66"/>
+      <c r="AY44" s="66"/>
+      <c r="AZ44" s="66"/>
+      <c r="BA44" s="66"/>
+      <c r="BB44" s="66"/>
+      <c r="BC44" s="66"/>
+      <c r="BD44" s="66"/>
+      <c r="BE44" s="66"/>
+      <c r="BF44" s="66"/>
+      <c r="BG44" s="66"/>
+      <c r="BH44" s="66"/>
+      <c r="BI44" s="66"/>
       <c r="BJ44" s="30"/>
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
@@ -9870,15 +10506,15 @@
       <c r="BT44" s="30"/>
       <c r="BU44" s="30"/>
       <c r="BV44" s="30"/>
-      <c r="BW44" s="62"/>
-      <c r="BX44" s="62"/>
-      <c r="BY44" s="103"/>
+      <c r="BW44" s="66"/>
+      <c r="BX44" s="66"/>
+      <c r="BY44" s="107"/>
       <c r="BZ44" s="30"/>
       <c r="CA44" s="30"/>
     </row>
     <row r="45" ht="13" spans="1:79">
-      <c r="A45" s="113" t="s">
-        <v>199</v>
+      <c r="A45" s="117" t="s">
+        <v>209</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -9907,7 +10543,7 @@
       <c r="Z45" s="30"/>
       <c r="AA45" s="30"/>
       <c r="AB45" s="30"/>
-      <c r="AC45" s="62"/>
+      <c r="AC45" s="66"/>
       <c r="AD45" s="30"/>
       <c r="AE45" s="30"/>
       <c r="AF45" s="30"/>
@@ -9920,26 +10556,26 @@
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
       <c r="AO45" s="30"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
-      <c r="BA45" s="62"/>
-      <c r="BB45" s="62"/>
-      <c r="BC45" s="62"/>
-      <c r="BD45" s="62"/>
-      <c r="BE45" s="62"/>
-      <c r="BF45" s="62"/>
-      <c r="BG45" s="62"/>
-      <c r="BH45" s="62"/>
-      <c r="BI45" s="62"/>
+      <c r="AP45" s="66"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="66"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="66"/>
+      <c r="AV45" s="66"/>
+      <c r="AW45" s="66"/>
+      <c r="AX45" s="66"/>
+      <c r="AY45" s="66"/>
+      <c r="AZ45" s="66"/>
+      <c r="BA45" s="66"/>
+      <c r="BB45" s="66"/>
+      <c r="BC45" s="66"/>
+      <c r="BD45" s="66"/>
+      <c r="BE45" s="66"/>
+      <c r="BF45" s="66"/>
+      <c r="BG45" s="66"/>
+      <c r="BH45" s="66"/>
+      <c r="BI45" s="66"/>
       <c r="BJ45" s="30"/>
       <c r="BK45" s="30"/>
       <c r="BL45" s="30"/>
@@ -9953,15 +10589,15 @@
       <c r="BT45" s="30"/>
       <c r="BU45" s="30"/>
       <c r="BV45" s="30"/>
-      <c r="BW45" s="62"/>
-      <c r="BX45" s="62"/>
-      <c r="BY45" s="103"/>
+      <c r="BW45" s="66"/>
+      <c r="BX45" s="66"/>
+      <c r="BY45" s="107"/>
       <c r="BZ45" s="30"/>
       <c r="CA45" s="30"/>
     </row>
     <row r="46" ht="13" spans="1:79">
-      <c r="A46" s="113" t="s">
-        <v>200</v>
+      <c r="A46" s="117" t="s">
+        <v>210</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -9990,7 +10626,7 @@
       <c r="Z46" s="30"/>
       <c r="AA46" s="30"/>
       <c r="AB46" s="30"/>
-      <c r="AC46" s="62"/>
+      <c r="AC46" s="66"/>
       <c r="AD46" s="30"/>
       <c r="AE46" s="30"/>
       <c r="AF46" s="30"/>
@@ -10003,26 +10639,26 @@
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
       <c r="AO46" s="30"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="62"/>
-      <c r="AX46" s="62"/>
-      <c r="AY46" s="62"/>
-      <c r="AZ46" s="62"/>
-      <c r="BA46" s="62"/>
-      <c r="BB46" s="62"/>
-      <c r="BC46" s="62"/>
-      <c r="BD46" s="62"/>
-      <c r="BE46" s="62"/>
-      <c r="BF46" s="62"/>
-      <c r="BG46" s="62"/>
-      <c r="BH46" s="62"/>
-      <c r="BI46" s="62"/>
+      <c r="AP46" s="66"/>
+      <c r="AQ46" s="66"/>
+      <c r="AR46" s="66"/>
+      <c r="AS46" s="66"/>
+      <c r="AT46" s="66"/>
+      <c r="AU46" s="66"/>
+      <c r="AV46" s="66"/>
+      <c r="AW46" s="66"/>
+      <c r="AX46" s="66"/>
+      <c r="AY46" s="66"/>
+      <c r="AZ46" s="66"/>
+      <c r="BA46" s="66"/>
+      <c r="BB46" s="66"/>
+      <c r="BC46" s="66"/>
+      <c r="BD46" s="66"/>
+      <c r="BE46" s="66"/>
+      <c r="BF46" s="66"/>
+      <c r="BG46" s="66"/>
+      <c r="BH46" s="66"/>
+      <c r="BI46" s="66"/>
       <c r="BJ46" s="30"/>
       <c r="BK46" s="30"/>
       <c r="BL46" s="30"/>
@@ -10036,15 +10672,15 @@
       <c r="BT46" s="30"/>
       <c r="BU46" s="30"/>
       <c r="BV46" s="30"/>
-      <c r="BW46" s="62"/>
-      <c r="BX46" s="62"/>
-      <c r="BY46" s="103"/>
+      <c r="BW46" s="66"/>
+      <c r="BX46" s="66"/>
+      <c r="BY46" s="107"/>
       <c r="BZ46" s="30"/>
       <c r="CA46" s="30"/>
     </row>
     <row r="47" ht="13" spans="1:79">
-      <c r="A47" s="113" t="s">
-        <v>201</v>
+      <c r="A47" s="117" t="s">
+        <v>211</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -10073,7 +10709,7 @@
       <c r="Z47" s="30"/>
       <c r="AA47" s="30"/>
       <c r="AB47" s="30"/>
-      <c r="AC47" s="62"/>
+      <c r="AC47" s="66"/>
       <c r="AD47" s="30"/>
       <c r="AE47" s="30"/>
       <c r="AF47" s="30"/>
@@ -10086,26 +10722,26 @@
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
       <c r="AO47" s="30"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="62"/>
-      <c r="AX47" s="62"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="62"/>
-      <c r="BA47" s="62"/>
-      <c r="BB47" s="62"/>
-      <c r="BC47" s="62"/>
-      <c r="BD47" s="62"/>
-      <c r="BE47" s="62"/>
-      <c r="BF47" s="62"/>
-      <c r="BG47" s="62"/>
-      <c r="BH47" s="62"/>
-      <c r="BI47" s="62"/>
+      <c r="AP47" s="66"/>
+      <c r="AQ47" s="66"/>
+      <c r="AR47" s="66"/>
+      <c r="AS47" s="66"/>
+      <c r="AT47" s="66"/>
+      <c r="AU47" s="66"/>
+      <c r="AV47" s="66"/>
+      <c r="AW47" s="66"/>
+      <c r="AX47" s="66"/>
+      <c r="AY47" s="66"/>
+      <c r="AZ47" s="66"/>
+      <c r="BA47" s="66"/>
+      <c r="BB47" s="66"/>
+      <c r="BC47" s="66"/>
+      <c r="BD47" s="66"/>
+      <c r="BE47" s="66"/>
+      <c r="BF47" s="66"/>
+      <c r="BG47" s="66"/>
+      <c r="BH47" s="66"/>
+      <c r="BI47" s="66"/>
       <c r="BJ47" s="30"/>
       <c r="BK47" s="30"/>
       <c r="BL47" s="30"/>
@@ -10119,99 +10755,93 @@
       <c r="BT47" s="30"/>
       <c r="BU47" s="30"/>
       <c r="BV47" s="30"/>
-      <c r="BW47" s="62"/>
-      <c r="BX47" s="62"/>
-      <c r="BY47" s="103"/>
+      <c r="BW47" s="66"/>
+      <c r="BX47" s="66"/>
+      <c r="BY47" s="107"/>
       <c r="BZ47" s="30"/>
       <c r="CA47" s="30"/>
     </row>
-    <row r="48" ht="13" spans="1:79">
-      <c r="A48" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="30"/>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="62"/>
-      <c r="AU48" s="62"/>
-      <c r="AV48" s="62"/>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62"/>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="62"/>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="62"/>
-      <c r="BG48" s="62"/>
-      <c r="BH48" s="62"/>
-      <c r="BI48" s="62"/>
-      <c r="BJ48" s="30"/>
-      <c r="BK48" s="30"/>
-      <c r="BL48" s="30"/>
-      <c r="BM48" s="30"/>
-      <c r="BN48" s="30"/>
-      <c r="BO48" s="30"/>
-      <c r="BP48" s="30"/>
-      <c r="BQ48" s="30"/>
-      <c r="BR48" s="30"/>
-      <c r="BS48" s="30"/>
-      <c r="BT48" s="30"/>
-      <c r="BU48" s="30"/>
-      <c r="BV48" s="30"/>
-      <c r="BW48" s="62"/>
-      <c r="BX48" s="62"/>
-      <c r="BY48" s="103"/>
-      <c r="BZ48" s="30"/>
-      <c r="CA48" s="30"/>
-    </row>
-    <row r="49" ht="13" spans="1:78">
-      <c r="A49" s="115" t="s">
-        <v>203</v>
-      </c>
+    <row r="48" ht="13" spans="1:78">
+      <c r="A48" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="8"/>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="8"/>
+      <c r="AZ48" s="8"/>
+      <c r="BA48" s="8"/>
+      <c r="BB48" s="8"/>
+      <c r="BC48" s="8"/>
+      <c r="BD48" s="8"/>
+      <c r="BE48" s="8"/>
+      <c r="BF48" s="8"/>
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="8"/>
+      <c r="BI48" s="8"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="6"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="6"/>
+      <c r="BN48" s="6"/>
+      <c r="BO48" s="6"/>
+      <c r="BP48" s="6"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="6"/>
+      <c r="BT48" s="6"/>
+      <c r="BU48" s="6"/>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="8"/>
+      <c r="BZ48" s="6"/>
+    </row>
+    <row r="49" spans="1:78">
+      <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -42319,82 +42949,8 @@
       <c r="BW465" s="8"/>
       <c r="BZ465" s="6"/>
     </row>
-    <row r="466" spans="1:78">
+    <row r="466" spans="1:1">
       <c r="A466" s="6"/>
-      <c r="B466" s="6"/>
-      <c r="D466" s="6"/>
-      <c r="E466" s="6"/>
-      <c r="F466" s="6"/>
-      <c r="G466" s="6"/>
-      <c r="H466" s="6"/>
-      <c r="I466" s="6"/>
-      <c r="J466" s="6"/>
-      <c r="K466" s="6"/>
-      <c r="L466" s="6"/>
-      <c r="M466" s="6"/>
-      <c r="N466" s="6"/>
-      <c r="O466" s="6"/>
-      <c r="P466" s="6"/>
-      <c r="Q466" s="6"/>
-      <c r="R466" s="6"/>
-      <c r="S466" s="6"/>
-      <c r="T466" s="6"/>
-      <c r="U466" s="6"/>
-      <c r="V466" s="6"/>
-      <c r="W466" s="6"/>
-      <c r="X466" s="6"/>
-      <c r="Y466" s="6"/>
-      <c r="Z466" s="6"/>
-      <c r="AA466" s="6"/>
-      <c r="AB466" s="6"/>
-      <c r="AC466" s="8"/>
-      <c r="AD466" s="6"/>
-      <c r="AE466" s="6"/>
-      <c r="AF466" s="6"/>
-      <c r="AG466" s="6"/>
-      <c r="AH466" s="6"/>
-      <c r="AI466" s="6"/>
-      <c r="AJ466" s="6"/>
-      <c r="AK466" s="6"/>
-      <c r="AL466" s="6"/>
-      <c r="AM466" s="6"/>
-      <c r="AN466" s="6"/>
-      <c r="AO466" s="6"/>
-      <c r="AP466" s="8"/>
-      <c r="AQ466" s="8"/>
-      <c r="AR466" s="8"/>
-      <c r="AS466" s="8"/>
-      <c r="AT466" s="8"/>
-      <c r="AU466" s="8"/>
-      <c r="AV466" s="8"/>
-      <c r="AW466" s="8"/>
-      <c r="AX466" s="8"/>
-      <c r="AY466" s="8"/>
-      <c r="AZ466" s="8"/>
-      <c r="BA466" s="8"/>
-      <c r="BB466" s="8"/>
-      <c r="BC466" s="8"/>
-      <c r="BD466" s="8"/>
-      <c r="BE466" s="8"/>
-      <c r="BF466" s="8"/>
-      <c r="BG466" s="8"/>
-      <c r="BH466" s="8"/>
-      <c r="BI466" s="8"/>
-      <c r="BJ466" s="6"/>
-      <c r="BK466" s="6"/>
-      <c r="BL466" s="6"/>
-      <c r="BM466" s="6"/>
-      <c r="BN466" s="6"/>
-      <c r="BO466" s="6"/>
-      <c r="BP466" s="6"/>
-      <c r="BQ466" s="6"/>
-      <c r="BR466" s="6"/>
-      <c r="BS466" s="6"/>
-      <c r="BT466" s="6"/>
-      <c r="BU466" s="6"/>
-      <c r="BV466" s="6"/>
-      <c r="BW466" s="8"/>
-      <c r="BZ466" s="6"/>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="6"/>
@@ -42632,9 +43188,6 @@
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="6"/>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划可行性分析.xlsx
@@ -1437,12 +1437,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1597,16 +1597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,6 +1613,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1628,9 +1636,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,22 +1667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,24 +1682,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,7 +1755,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,49 +1899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,43 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,73 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,17 +1999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,7 +2012,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2034,6 +2028,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,25 +2074,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,28 +2092,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2122,64 +2122,64 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2188,28 +2188,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2218,19 +2218,19 @@
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2265,7 +2265,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2310,7 +2310,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2523,13 +2523,13 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2538,7 +2538,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2550,19 +2550,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" bor